--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X45"/>
+  <dimension ref="A1:AI45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,176 +553,297 @@
           <t>be_condition</t>
         </is>
       </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>sl_updated</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>time_updated</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>time_to_trail</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>time_tp_hit</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>time_sl_hit</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>profit</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>account_balance</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>win_streak</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>losing_streak</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45415.64583333334</v>
+        <v>45413.91666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>2295.41</v>
+        <v>2325.06</v>
       </c>
       <c r="D2" t="n">
-        <v>2320.29</v>
+        <v>2327.79</v>
       </c>
       <c r="E2" t="n">
-        <v>2295.41</v>
+        <v>2318.34</v>
       </c>
       <c r="F2" t="n">
-        <v>2302.94</v>
+        <v>2323.18</v>
       </c>
       <c r="G2" t="n">
-        <v>7131</v>
+        <v>5176</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2299.306618640691</v>
+        <v>2312.044287328365</v>
       </c>
       <c r="K2" t="n">
-        <v>2300.107299884172</v>
+        <v>2306.537667939662</v>
       </c>
       <c r="L2" t="n">
-        <v>2299.072438461539</v>
+        <v>2312.8453</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.8006812434805397</v>
+        <v>5.506619388703712</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.9171859886798794</v>
+        <v>3.592691195113723</v>
       </c>
       <c r="O2" t="n">
-        <v>1.66996437087794</v>
+        <v>7.612127341728471</v>
       </c>
       <c r="P2" t="n">
-        <v>0.583592307694289</v>
+        <v>2.009823076923112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2302.826890362224</v>
+        <v>2324.621671911334</v>
       </c>
       <c r="R2" t="n">
-        <v>2296.817986560854</v>
+        <v>2302.568928088666</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.94</v>
+        <v>2317.18</v>
       </c>
       <c r="V2" t="n">
-        <v>2293.41</v>
+        <v>2329.79</v>
       </c>
       <c r="W2" t="n">
-        <v>2305.94</v>
+        <v>2320.18</v>
       </c>
       <c r="X2" t="n">
-        <v>2306.94</v>
+        <v>2319.18</v>
+      </c>
+      <c r="Y2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" s="2" t="n">
+        <v>45413.94791666666</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>45413.93038194445</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>45418.65700231482</v>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>108.23</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>408.23</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>153</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45415.67708333334</v>
+        <v>45415.64583333334</v>
       </c>
       <c r="C3" t="n">
-        <v>2305.62</v>
+        <v>2295.41</v>
       </c>
       <c r="D3" t="n">
-        <v>2305.84</v>
+        <v>2320.29</v>
       </c>
       <c r="E3" t="n">
-        <v>2300.19</v>
+        <v>2295.41</v>
       </c>
       <c r="F3" t="n">
-        <v>2300.94</v>
+        <v>2302.94</v>
       </c>
       <c r="G3" t="n">
-        <v>4789</v>
+        <v>7131</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2300.984765321238</v>
+        <v>2299.306618640666</v>
       </c>
       <c r="K3" t="n">
-        <v>2300.844717811827</v>
+        <v>2300.107168398978</v>
       </c>
       <c r="L3" t="n">
-        <v>2300.645292307693</v>
+        <v>2299.072438461539</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1400475094110334</v>
+        <v>-0.8005497583117176</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4560764889026743</v>
+        <v>-0.9169926281915585</v>
       </c>
       <c r="O3" t="n">
-        <v>2.190961204585759</v>
+        <v>1.669964370885466</v>
       </c>
       <c r="P3" t="n">
-        <v>0.004330769231273734</v>
+        <v>0.583592307694289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2305.103089933883</v>
+        <v>2302.826890362235</v>
       </c>
       <c r="R3" t="n">
-        <v>2297.687494681502</v>
+        <v>2296.817986560844</v>
       </c>
       <c r="S3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>2294.94</v>
+        <v>2308.94</v>
       </c>
       <c r="V3" t="n">
-        <v>2307.84</v>
+        <v>2293.41</v>
       </c>
       <c r="W3" t="n">
-        <v>2297.94</v>
+        <v>2305.94</v>
       </c>
       <c r="X3" t="n">
-        <v>2296.94</v>
+        <v>2306.94</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" s="2" t="n">
+        <v>45418.1875</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>45418.19265046297</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>45415.68917824074</v>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-171.97</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>236.26</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45415.69791666666</v>
+        <v>45415.67708333334</v>
       </c>
       <c r="C4" t="n">
-        <v>2286.62</v>
+        <v>2305.62</v>
       </c>
       <c r="D4" t="n">
-        <v>2293.36</v>
+        <v>2305.84</v>
       </c>
       <c r="E4" t="n">
-        <v>2280.91</v>
+        <v>2300.19</v>
       </c>
       <c r="F4" t="n">
-        <v>2289.87</v>
+        <v>2300.94</v>
       </c>
       <c r="G4" t="n">
-        <v>5870</v>
+        <v>4789</v>
       </c>
       <c r="H4" t="n">
         <v>27</v>
@@ -731,54 +852,87 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2297.410039076153</v>
+        <v>2300.984765321223</v>
       </c>
       <c r="K4" t="n">
-        <v>2299.058887012883</v>
+        <v>2300.844613434641</v>
       </c>
       <c r="L4" t="n">
-        <v>2297.343346153846</v>
+        <v>2300.645292307693</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.648847936730363</v>
+        <v>0.1401518865818616</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.7837453725793376</v>
+        <v>-0.4559229930960432</v>
       </c>
       <c r="O4" t="n">
-        <v>3.999569268475935</v>
+        <v>2.190961204591495</v>
       </c>
       <c r="P4" t="n">
-        <v>-1.326207692306525</v>
+        <v>0.004330769231273734</v>
       </c>
       <c r="Q4" t="n">
-        <v>2302.742764666289</v>
+        <v>2305.103089933891</v>
       </c>
       <c r="R4" t="n">
-        <v>2290.443927641404</v>
+        <v>2297.687494681494</v>
       </c>
       <c r="S4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>2295.87</v>
+        <v>2294.94</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.91</v>
+        <v>2307.84</v>
       </c>
       <c r="W4" t="n">
-        <v>2292.87</v>
+        <v>2297.94</v>
       </c>
       <c r="X4" t="n">
-        <v>2293.87</v>
+        <v>2296.94</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" s="2" t="n">
+        <v>45415.69791666666</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>45415.68916666666</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>45418.18597222222</v>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>344.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>192</v>
+        <v>284</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>45418.125</v>
@@ -808,28 +962,28 @@
         <v>2298.440470298691</v>
       </c>
       <c r="K5" t="n">
-        <v>2298.851863240795</v>
+        <v>2298.85185805185</v>
       </c>
       <c r="L5" t="n">
         <v>2299.143846153846</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.4113929421041576</v>
+        <v>-0.4113877531585786</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5444072036014085</v>
+        <v>0.5444148344035773</v>
       </c>
       <c r="O5" t="n">
-        <v>2.54458922683845</v>
+        <v>2.544589226843388</v>
       </c>
       <c r="P5" t="n">
         <v>-0.8692153846163819</v>
       </c>
       <c r="Q5" t="n">
-        <v>2302.579041610078</v>
+        <v>2302.579041610084</v>
       </c>
       <c r="R5" t="n">
-        <v>2294.208650697614</v>
+        <v>2294.208650697607</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
@@ -848,11 +1002,44 @@
       </c>
       <c r="X5" t="n">
         <v>2298.12</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" s="2" t="n">
+        <v>45418.17708333334</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>45418.16789351852</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>45450.95127314814</v>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>452.74</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>45418.1875</v>
@@ -882,28 +1069,28 @@
         <v>2300.532769032879</v>
       </c>
       <c r="K6" t="n">
-        <v>2299.594278614991</v>
+        <v>2299.594275345076</v>
       </c>
       <c r="L6" t="n">
         <v>2299.948199999999</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9384904178873512</v>
+        <v>0.9384936878027474</v>
       </c>
       <c r="N6" t="n">
-        <v>0.07022721826091845</v>
+        <v>0.07023202696041674</v>
       </c>
       <c r="O6" t="n">
-        <v>3.967232536669338</v>
+        <v>3.967232536672506</v>
       </c>
       <c r="P6" t="n">
         <v>0.9775076923097004</v>
       </c>
       <c r="Q6" t="n">
-        <v>2306.803963924503</v>
+        <v>2306.803963924507</v>
       </c>
       <c r="R6" t="n">
-        <v>2294.592436075496</v>
+        <v>2294.592436075492</v>
       </c>
       <c r="S6" t="b">
         <v>0</v>
@@ -922,11 +1109,44 @@
       </c>
       <c r="X6" t="n">
         <v>2302.9</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" s="2" t="n">
+        <v>45450.90625</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>45450.90078703704</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>45418.2100462963</v>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-75.25</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>377.49</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>223</v>
+        <v>315</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>45418.44791666666</v>
@@ -956,28 +1176,28 @@
         <v>2315.623906369775</v>
       </c>
       <c r="K7" t="n">
-        <v>2311.87086954402</v>
+        <v>2311.870869066554</v>
       </c>
       <c r="L7" t="n">
         <v>2316.188600000001</v>
       </c>
       <c r="M7" t="n">
-        <v>3.753036825755316</v>
+        <v>3.753037303220935</v>
       </c>
       <c r="N7" t="n">
-        <v>2.980747074373313</v>
+        <v>2.980747776529321</v>
       </c>
       <c r="O7" t="n">
-        <v>3.748005558510875</v>
+        <v>3.748005558514228</v>
       </c>
       <c r="P7" t="n">
         <v>1.192684615385588</v>
       </c>
       <c r="Q7" t="n">
-        <v>2322.748407503991</v>
+        <v>2322.748407503995</v>
       </c>
       <c r="R7" t="n">
-        <v>2311.128792496011</v>
+        <v>2311.128792496007</v>
       </c>
       <c r="S7" t="b">
         <v>0</v>
@@ -989,18 +1209,53 @@
         <v>2316.58</v>
       </c>
       <c r="V7" t="n">
-        <v>2325.94</v>
+        <v>2319.58</v>
       </c>
       <c r="W7" t="n">
         <v>2319.58</v>
       </c>
       <c r="X7" t="n">
         <v>2318.58</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2" t="n">
+        <v>45418.5</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>45418.5</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>45418.51297453704</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>45418.53233796296</v>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>485.73</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>247</v>
+        <v>339</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>45418.69791666666</v>
@@ -1030,28 +1285,28 @@
         <v>2323.333162233959</v>
       </c>
       <c r="K8" t="n">
-        <v>2320.346001460801</v>
+        <v>2320.346001385505</v>
       </c>
       <c r="L8" t="n">
         <v>2323.340984615386</v>
       </c>
       <c r="M8" t="n">
-        <v>2.987160773157484</v>
+        <v>2.987160848454096</v>
       </c>
       <c r="N8" t="n">
-        <v>2.32074846076573</v>
+        <v>2.320748571495725</v>
       </c>
       <c r="O8" t="n">
-        <v>3.485977959379012</v>
+        <v>3.485977959382617</v>
       </c>
       <c r="P8" t="n">
         <v>1.199700000001485</v>
       </c>
       <c r="Q8" t="n">
-        <v>2329.547054860548</v>
+        <v>2329.547054860553</v>
       </c>
       <c r="R8" t="n">
-        <v>2318.634914370224</v>
+        <v>2318.634914370219</v>
       </c>
       <c r="S8" t="b">
         <v>0</v>
@@ -1070,11 +1325,44 @@
       </c>
       <c r="X8" t="n">
         <v>2323.83</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" s="2" t="n">
+        <v>45418.73958333334</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>45418.7352662037</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>45421.71508101852</v>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>593.97</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>293</v>
+        <v>385</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>45419.21875</v>
@@ -1104,28 +1392,28 @@
         <v>2324.565478147591</v>
       </c>
       <c r="K9" t="n">
-        <v>2324.849867730109</v>
+        <v>2324.849867727924</v>
       </c>
       <c r="L9" t="n">
         <v>2325.081553846154</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.2843895825171785</v>
+        <v>-0.2843895803321175</v>
       </c>
       <c r="N9" t="n">
-        <v>0.3346645841720188</v>
+        <v>0.3346645873850318</v>
       </c>
       <c r="O9" t="n">
-        <v>1.820604295262807</v>
+        <v>1.820604295269709</v>
       </c>
       <c r="P9" t="n">
         <v>-0.3593461538453084</v>
       </c>
       <c r="Q9" t="n">
-        <v>2327.539369644759</v>
+        <v>2327.539369644768</v>
       </c>
       <c r="R9" t="n">
-        <v>2321.123738047549</v>
+        <v>2321.12373804754</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -1144,11 +1432,44 @@
       </c>
       <c r="X9" t="n">
         <v>2327.03</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" s="2" t="n">
+        <v>45421.65625</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>45421.65692129629</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>45419.46435185185</v>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-97.98999999999999</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>495.98</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>379</v>
+        <v>471</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>45420.15625</v>
@@ -1178,28 +1499,28 @@
         <v>2314.720593077551</v>
       </c>
       <c r="K10" t="n">
-        <v>2314.828644837886</v>
+        <v>2314.828644837883</v>
       </c>
       <c r="L10" t="n">
         <v>2315.017684615384</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.1080517603354565</v>
+        <v>-0.1080517603318185</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1021050037255039</v>
+        <v>-0.1021050037207162</v>
       </c>
       <c r="O10" t="n">
-        <v>0.9226360784860813</v>
+        <v>0.9226360784997022</v>
       </c>
       <c r="P10" t="n">
         <v>0.08603076922963737</v>
       </c>
       <c r="Q10" t="n">
-        <v>2317.76324332134</v>
+        <v>2317.763243321358</v>
       </c>
       <c r="R10" t="n">
-        <v>2313.772125909427</v>
+        <v>2313.772125909409</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -1218,11 +1539,44 @@
       </c>
       <c r="X10" t="n">
         <v>2318.15</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" s="2" t="n">
+        <v>45420.30208333334</v>
+      </c>
+      <c r="AB10" s="2" t="n">
+        <v>45420.35452546296</v>
+      </c>
+      <c r="AC10" s="2" t="n">
+        <v>45420.18008101852</v>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>-44.03</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>451.95</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>384</v>
+        <v>476</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>45420.20833333334</v>
@@ -1252,28 +1606,28 @@
         <v>2312.159254162435</v>
       </c>
       <c r="K11" t="n">
-        <v>2313.427631012243</v>
+        <v>2313.42763101224</v>
       </c>
       <c r="L11" t="n">
         <v>2312.412761538463</v>
       </c>
       <c r="M11" t="n">
-        <v>-1.268376849808192</v>
+        <v>-1.268376849805463</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.578432268052322</v>
+        <v>-0.5784322680486667</v>
       </c>
       <c r="O11" t="n">
-        <v>2.087308234702589</v>
+        <v>2.08730823470861</v>
       </c>
       <c r="P11" t="n">
         <v>-0.6988923076905849</v>
       </c>
       <c r="Q11" t="n">
-        <v>2315.230627655312</v>
+        <v>2315.23062765532</v>
       </c>
       <c r="R11" t="n">
-        <v>2308.094895421615</v>
+        <v>2308.094895421606</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1285,18 +1639,53 @@
         <v>2314.84</v>
       </c>
       <c r="V11" t="n">
-        <v>2305.26</v>
+        <v>2311.84</v>
       </c>
       <c r="W11" t="n">
         <v>2311.84</v>
       </c>
       <c r="X11" t="n">
         <v>2312.84</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>45420.23958333334</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>45420.23958333334</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>45420.24528935185</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>45420.43472222222</v>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE11" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>560.2</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>45420.45833333334</v>
@@ -1335,19 +1724,19 @@
         <v>-1.661076775268157</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.2982416407940808</v>
+        <v>-0.2982416407933864</v>
       </c>
       <c r="O12" t="n">
-        <v>4.090899452849095</v>
+        <v>4.090899452852167</v>
       </c>
       <c r="P12" t="n">
         <v>-1.711115384613549</v>
       </c>
       <c r="Q12" t="n">
-        <v>2318.9289681075</v>
+        <v>2318.928968107504</v>
       </c>
       <c r="R12" t="n">
-        <v>2306.383539584808</v>
+        <v>2306.383539584804</v>
       </c>
       <c r="S12" t="b">
         <v>1</v>
@@ -1359,18 +1748,53 @@
         <v>2312.53</v>
       </c>
       <c r="V12" t="n">
-        <v>2301.57</v>
+        <v>2309.53</v>
       </c>
       <c r="W12" t="n">
         <v>2309.53</v>
       </c>
       <c r="X12" t="n">
         <v>2310.53</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>45420.53125</v>
+      </c>
+      <c r="AA12" s="2" t="n">
+        <v>45420.53125</v>
+      </c>
+      <c r="AB12" s="2" t="n">
+        <v>45420.54431712963</v>
+      </c>
+      <c r="AC12" s="2" t="n">
+        <v>45420.67996527778</v>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>108.24</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>668.4400000000001</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>45420.6875</v>
@@ -1409,19 +1833,19 @@
         <v>-0.08278339816115476</v>
       </c>
       <c r="N13" t="n">
-        <v>0.3132097210744009</v>
+        <v>0.313209721074406</v>
       </c>
       <c r="O13" t="n">
-        <v>4.043598108944296</v>
+        <v>4.043598108947403</v>
       </c>
       <c r="P13" t="n">
         <v>-0.04768461538333213</v>
       </c>
       <c r="Q13" t="n">
-        <v>2321.327618985537</v>
+        <v>2321.327618985541</v>
       </c>
       <c r="R13" t="n">
-        <v>2308.909904091387</v>
+        <v>2308.909904091383</v>
       </c>
       <c r="S13" t="b">
         <v>1</v>
@@ -1440,11 +1864,44 @@
       </c>
       <c r="X13" t="n">
         <v>2315.6</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" s="2" t="n">
+        <v>45420.77083333334</v>
+      </c>
+      <c r="AB13" s="2" t="n">
+        <v>45420.7471875</v>
+      </c>
+      <c r="AC13" s="2" t="n">
+        <v>45450.70586805556</v>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>776.6900000000001</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>499</v>
+        <v>591</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>45421.44791666666</v>
@@ -1486,16 +1943,16 @@
         <v>0.7888952403148967</v>
       </c>
       <c r="O14" t="n">
-        <v>2.840875627920544</v>
+        <v>2.840875627924968</v>
       </c>
       <c r="P14" t="n">
         <v>-0.6271769230775135</v>
       </c>
       <c r="Q14" t="n">
-        <v>2318.297097482308</v>
+        <v>2318.297097482314</v>
       </c>
       <c r="R14" t="n">
-        <v>2309.126733286923</v>
+        <v>2309.126733286917</v>
       </c>
       <c r="S14" t="b">
         <v>1</v>
@@ -1507,18 +1964,53 @@
         <v>2315.29</v>
       </c>
       <c r="V14" t="n">
-        <v>2305.43</v>
+        <v>2312.29</v>
       </c>
       <c r="W14" t="n">
         <v>2312.29</v>
       </c>
       <c r="X14" t="n">
         <v>2313.29</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>45421.61458333334</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>45421.61458333334</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>45421.61695601852</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>45421.6750925926</v>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>884.95</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>519</v>
+        <v>611</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>45421.65625</v>
@@ -1560,16 +2052,16 @@
         <v>0.8835806004460103</v>
       </c>
       <c r="O15" t="n">
-        <v>4.906704698672887</v>
+        <v>4.906704698675449</v>
       </c>
       <c r="P15" t="n">
         <v>2.114715384616375</v>
       </c>
       <c r="Q15" t="n">
-        <v>2325.375605189362</v>
+        <v>2325.375605189366</v>
       </c>
       <c r="R15" t="n">
-        <v>2310.627502502945</v>
+        <v>2310.627502502942</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -1588,11 +2080,44 @@
       </c>
       <c r="X15" t="n">
         <v>2322.61</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" s="2" t="n">
+        <v>45421.67708333334</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>45421.67384259259</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>45421.7149537037</v>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>993.21</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>715</v>
+        <v>807</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>45425.78125</v>
@@ -1634,16 +2159,16 @@
         <v>-1.805194889923075</v>
       </c>
       <c r="O16" t="n">
-        <v>3.857249754216391</v>
+        <v>3.857249754219651</v>
       </c>
       <c r="P16" t="n">
         <v>-1.054376923077143</v>
       </c>
       <c r="Q16" t="n">
-        <v>2345.63246409127</v>
+        <v>2345.632464091274</v>
       </c>
       <c r="R16" t="n">
-        <v>2333.717889754886</v>
+        <v>2333.717889754881</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
@@ -1655,18 +2180,53 @@
         <v>2341.88</v>
       </c>
       <c r="V16" t="n">
-        <v>2331.34</v>
+        <v>2338.88</v>
       </c>
       <c r="W16" t="n">
         <v>2338.88</v>
       </c>
       <c r="X16" t="n">
         <v>2339.88</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="2" t="n">
+        <v>45426.17708333334</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>45426.17708333334</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>45426.20758101852</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>45426.18340277778</v>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>1047.34</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>781</v>
+        <v>873</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>45426.51041666666</v>
@@ -1708,16 +2268,16 @@
         <v>0.08096463893418766</v>
       </c>
       <c r="O17" t="n">
-        <v>2.908169641959263</v>
+        <v>2.908169641963585</v>
       </c>
       <c r="P17" t="n">
         <v>0.6245307692297501</v>
       </c>
       <c r="Q17" t="n">
-        <v>2346.380182862798</v>
+        <v>2346.380182862804</v>
       </c>
       <c r="R17" t="n">
-        <v>2337.028124829508</v>
+        <v>2337.028124829502</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -1736,11 +2296,44 @@
       </c>
       <c r="X17" t="n">
         <v>2342.58</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" s="2" t="n">
+        <v>45435.76041666666</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>45426.64584490741</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>45426.66172453704</v>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1155.6</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>898</v>
+        <v>990</v>
       </c>
       <c r="B18" s="2" t="n">
         <v>45427.77083333334</v>
@@ -1782,16 +2375,16 @@
         <v>1.841226237051288</v>
       </c>
       <c r="O18" t="n">
-        <v>6.650970405341312</v>
+        <v>6.650970405343202</v>
       </c>
       <c r="P18" t="n">
         <v>2.15910769230868</v>
       </c>
       <c r="Q18" t="n">
-        <v>2383.171840816442</v>
+        <v>2383.171840816444</v>
       </c>
       <c r="R18" t="n">
-        <v>2363.71422072202</v>
+        <v>2363.714220722018</v>
       </c>
       <c r="S18" t="b">
         <v>0</v>
@@ -1803,18 +2396,53 @@
         <v>2375.63</v>
       </c>
       <c r="V18" t="n">
-        <v>2387.29</v>
+        <v>2378.63</v>
       </c>
       <c r="W18" t="n">
         <v>2378.63</v>
       </c>
       <c r="X18" t="n">
         <v>2377.63</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>45427.79166666666</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>45427.79166666666</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>45428.67993055555</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>45427.79300925926</v>
+      </c>
+      <c r="AD18" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>1209.73</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1073</v>
+        <v>1165</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>45429.67708333334</v>
@@ -1856,16 +2484,16 @@
         <v>2.460597580799103</v>
       </c>
       <c r="O19" t="n">
-        <v>5.374884742875354</v>
+        <v>5.374884742877694</v>
       </c>
       <c r="P19" t="n">
         <v>2.103246153845248</v>
       </c>
       <c r="Q19" t="n">
-        <v>2401.971417479805</v>
+        <v>2401.971417479808</v>
       </c>
       <c r="R19" t="n">
-        <v>2385.959228674041</v>
+        <v>2385.959228674038</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -1884,11 +2512,44 @@
       </c>
       <c r="X19" t="n">
         <v>2397.11</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" s="2" t="n">
+        <v>45434.71875</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>45434.71822916667</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>45429.72668981482</v>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-107.57</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1102.16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1117</v>
+        <v>1209</v>
       </c>
       <c r="B20" s="2" t="n">
         <v>45432.17708333334</v>
@@ -1930,16 +2591,16 @@
         <v>3.785887987259535</v>
       </c>
       <c r="O20" t="n">
-        <v>5.00619199913125</v>
+        <v>5.006191999133763</v>
       </c>
       <c r="P20" t="n">
         <v>1.727500000002692</v>
       </c>
       <c r="Q20" t="n">
-        <v>2433.166236121906</v>
+        <v>2433.166236121909</v>
       </c>
       <c r="R20" t="n">
-        <v>2418.149517724251</v>
+        <v>2418.149517724248</v>
       </c>
       <c r="S20" t="b">
         <v>0</v>
@@ -1958,11 +2619,44 @@
       </c>
       <c r="X20" t="n">
         <v>2429.1</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" s="2" t="n">
+        <v>45432.61458333334</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>45432.62627314815</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>45432.21189814815</v>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>-54.69</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1047.47</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1213</v>
+        <v>1305</v>
       </c>
       <c r="B21" s="2" t="n">
         <v>45433.21875</v>
@@ -2004,16 +2698,16 @@
         <v>-0.7549176374553068</v>
       </c>
       <c r="O21" t="n">
-        <v>3.22540891445095</v>
+        <v>3.225408914454851</v>
       </c>
       <c r="P21" t="n">
         <v>-0.7138230769246547</v>
       </c>
       <c r="Q21" t="n">
-        <v>2428.728071265277</v>
+        <v>2428.728071265283</v>
       </c>
       <c r="R21" t="n">
-        <v>2418.51946719626</v>
+        <v>2418.519467196254</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
@@ -2032,11 +2726,44 @@
       </c>
       <c r="X21" t="n">
         <v>2422.64</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" s="2" t="n">
+        <v>45433.625</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>45433.63200231481</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>45433.23583333333</v>
+      </c>
+      <c r="AD21" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>-51.08</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>996.3900000000002</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1305</v>
+        <v>1397</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>45434.21875</v>
@@ -2078,16 +2805,16 @@
         <v>-0.07495685367553487</v>
       </c>
       <c r="O22" t="n">
-        <v>1.248903251703414</v>
+        <v>1.248903251713487</v>
       </c>
       <c r="P22" t="n">
         <v>0.3804076923056527</v>
       </c>
       <c r="Q22" t="n">
-        <v>2425.069027082107</v>
+        <v>2425.069027082121</v>
       </c>
       <c r="R22" t="n">
-        <v>2420.196988302508</v>
+        <v>2420.196988302494</v>
       </c>
       <c r="S22" t="b">
         <v>0</v>
@@ -2106,11 +2833,44 @@
       </c>
       <c r="X22" t="n">
         <v>2420.01</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" s="2" t="n">
+        <v>45434.25</v>
+      </c>
+      <c r="AB22" s="2" t="n">
+        <v>45434.24190972222</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AD22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-68.22</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>928.1700000000002</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1308</v>
+        <v>1400</v>
       </c>
       <c r="B23" s="2" t="n">
         <v>45434.25</v>
@@ -2152,16 +2912,16 @@
         <v>-0.1144055746922372</v>
       </c>
       <c r="O23" t="n">
-        <v>1.443520233820114</v>
+        <v>1.44352023382883</v>
       </c>
       <c r="P23" t="n">
         <v>-0.2730846153831408</v>
       </c>
       <c r="Q23" t="n">
-        <v>2423.21367539258</v>
+        <v>2423.213675392592</v>
       </c>
       <c r="R23" t="n">
-        <v>2417.816170761265</v>
+        <v>2417.816170761253</v>
       </c>
       <c r="S23" t="b">
         <v>1</v>
@@ -2180,11 +2940,44 @@
       </c>
       <c r="X23" t="n">
         <v>2422.97</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AB23" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AC23" s="2" t="n">
+        <v>45434.28174768519</v>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-67.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>860.6700000000002</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>1330</v>
+        <v>1422</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>45434.47916666666</v>
@@ -2226,16 +3019,16 @@
         <v>-1.219869175584271</v>
       </c>
       <c r="O24" t="n">
-        <v>2.476313590556637</v>
+        <v>2.476313590561718</v>
       </c>
       <c r="P24" t="n">
         <v>0.5950692307706049</v>
       </c>
       <c r="Q24" t="n">
-        <v>2419.040961808791</v>
+        <v>2419.040961808798</v>
       </c>
       <c r="R24" t="n">
-        <v>2410.854915114288</v>
+        <v>2410.854915114282</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -2254,11 +3047,44 @@
       </c>
       <c r="X24" t="n">
         <v>2419.92</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AB24" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>45434.6130787037</v>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-132.84</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>727.8300000000002</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1343</v>
+        <v>1435</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>45434.61458333334</v>
@@ -2300,16 +3126,16 @@
         <v>-0.8059796743254979</v>
       </c>
       <c r="O25" t="n">
-        <v>2.541641529689501</v>
+        <v>2.541641529694451</v>
       </c>
       <c r="P25" t="n">
         <v>-1.046269230768758</v>
       </c>
       <c r="Q25" t="n">
-        <v>2416.642508372772</v>
+        <v>2416.642508372779</v>
       </c>
       <c r="R25" t="n">
-        <v>2408.280076242611</v>
+        <v>2408.280076242604</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -2328,11 +3154,44 @@
       </c>
       <c r="X25" t="n">
         <v>2412.65</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" s="2" t="n">
+        <v>45434.64583333334</v>
+      </c>
+      <c r="AB25" s="2" t="n">
+        <v>45434.64306712963</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>45434.71356481482</v>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>836.0800000000002</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>1354</v>
+        <v>1446</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>45434.72916666666</v>
@@ -2374,16 +3233,16 @@
         <v>-2.808862358061017</v>
       </c>
       <c r="O26" t="n">
-        <v>8.450706439825609</v>
+        <v>8.450706439827098</v>
       </c>
       <c r="P26" t="n">
         <v>-3.246246153845277</v>
       </c>
       <c r="Q26" t="n">
-        <v>2412.557522924534</v>
+        <v>2412.557522924536</v>
       </c>
       <c r="R26" t="n">
-        <v>2388.240615537005</v>
+        <v>2388.240615537003</v>
       </c>
       <c r="S26" t="b">
         <v>1</v>
@@ -2402,11 +3261,44 @@
       </c>
       <c r="X26" t="n">
         <v>2392.77</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AB26" s="2" t="n">
+        <v>45434.75605324074</v>
+      </c>
+      <c r="AC26" s="2" t="n">
+        <v>45434.89516203704</v>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>944.3300000000002</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>1394</v>
+        <v>1486</v>
       </c>
       <c r="B27" s="2" t="n">
         <v>45435.1875</v>
@@ -2448,16 +3340,16 @@
         <v>-2.778761014500728</v>
       </c>
       <c r="O27" t="n">
-        <v>2.979189934425882</v>
+        <v>2.979189934430105</v>
       </c>
       <c r="P27" t="n">
         <v>-1.057946153848206</v>
       </c>
       <c r="Q27" t="n">
-        <v>2382.975814103782</v>
+        <v>2382.975814103788</v>
       </c>
       <c r="R27" t="n">
-        <v>2373.432001280833</v>
+        <v>2373.432001280827</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -2476,11 +3368,44 @@
       </c>
       <c r="X27" t="n">
         <v>2375.97</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" s="2" t="n">
+        <v>45449.78125</v>
+      </c>
+      <c r="AB27" s="2" t="n">
+        <v>45449.7815625</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>45435.36809027778</v>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-132.29</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>812.0400000000002</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>1447</v>
+        <v>1539</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>45435.73958333334</v>
@@ -2522,16 +3447,16 @@
         <v>-2.043434207924668</v>
       </c>
       <c r="O28" t="n">
-        <v>6.846646088803816</v>
+        <v>6.846646088805653</v>
       </c>
       <c r="P28" t="n">
         <v>-2.511676923077175</v>
       </c>
       <c r="Q28" t="n">
-        <v>2365.93475683527</v>
+        <v>2365.934756835273</v>
       </c>
       <c r="R28" t="n">
-        <v>2345.9488123955</v>
+        <v>2345.948812395497</v>
       </c>
       <c r="S28" t="b">
         <v>1</v>
@@ -2550,11 +3475,44 @@
       </c>
       <c r="X28" t="n">
         <v>2349.87</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" s="2" t="n">
+        <v>45439.6875</v>
+      </c>
+      <c r="AB28" s="2" t="n">
+        <v>45439.69157407407</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>45435.85153935185</v>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-115.69</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>696.3500000000001</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1490</v>
+        <v>1582</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>45436.22916666666</v>
@@ -2596,16 +3554,16 @@
         <v>-2.242864210353147</v>
       </c>
       <c r="O29" t="n">
-        <v>1.944369048977482</v>
+        <v>1.944369048983952</v>
       </c>
       <c r="P29" t="n">
         <v>-0.01794615384460485</v>
       </c>
       <c r="Q29" t="n">
-        <v>2333.377082831505</v>
+        <v>2333.377082831514</v>
       </c>
       <c r="R29" t="n">
-        <v>2326.627286399266</v>
+        <v>2326.627286399257</v>
       </c>
       <c r="S29" t="b">
         <v>1</v>
@@ -2617,18 +3575,53 @@
         <v>2335.7</v>
       </c>
       <c r="V29" t="n">
-        <v>2323.31</v>
+        <v>2332.7</v>
       </c>
       <c r="W29" t="n">
         <v>2332.7</v>
       </c>
       <c r="X29" t="n">
         <v>2333.7</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="2" t="n">
+        <v>45436.33333333334</v>
+      </c>
+      <c r="AA29" s="2" t="n">
+        <v>45436.33333333334</v>
+      </c>
+      <c r="AB29" s="2" t="n">
+        <v>45436.35440972223</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>45436.77481481482</v>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>804.6100000000001</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>1676</v>
+        <v>1768</v>
       </c>
       <c r="B30" s="2" t="n">
         <v>45440.39583333334</v>
@@ -2670,16 +3663,16 @@
         <v>-0.6349654931022042</v>
       </c>
       <c r="O30" t="n">
-        <v>2.935055535882432</v>
+        <v>2.935055535886718</v>
       </c>
       <c r="P30" t="n">
         <v>-1.125592307691022</v>
       </c>
       <c r="Q30" t="n">
-        <v>2352.340886511902</v>
+        <v>2352.340886511908</v>
       </c>
       <c r="R30" t="n">
-        <v>2342.91623656502</v>
+        <v>2342.916236565014</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -2698,11 +3691,44 @@
       </c>
       <c r="X30" t="n">
         <v>2347.4</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" s="2" t="n">
+        <v>45440.63541666666</v>
+      </c>
+      <c r="AB30" s="2" t="n">
+        <v>45440.63258101852</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>45441.6203125</v>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>912.8700000000001</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>1752</v>
+        <v>1844</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>45441.22916666666</v>
@@ -2744,16 +3770,16 @@
         <v>0.3663365437595501</v>
       </c>
       <c r="O31" t="n">
-        <v>1.239999999506533</v>
+        <v>1.239999999516679</v>
       </c>
       <c r="P31" t="n">
         <v>-0.1311923076923449</v>
       </c>
       <c r="Q31" t="n">
-        <v>2359.624023076257</v>
+        <v>2359.624023076271</v>
       </c>
       <c r="R31" t="n">
-        <v>2354.776023077589</v>
+        <v>2354.776023077576</v>
       </c>
       <c r="S31" t="b">
         <v>0</v>
@@ -2765,18 +3791,53 @@
         <v>2352.41</v>
       </c>
       <c r="V31" t="n">
-        <v>2362.79</v>
+        <v>2355.41</v>
       </c>
       <c r="W31" t="n">
         <v>2355.41</v>
       </c>
       <c r="X31" t="n">
         <v>2354.41</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="AA31" s="2" t="n">
+        <v>45441.38541666666</v>
+      </c>
+      <c r="AB31" s="2" t="n">
+        <v>45441.39230324074</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>45441.41162037037</v>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1021.13</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>1939</v>
+        <v>2031</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>45443.26041666666</v>
@@ -2818,16 +3879,16 @@
         <v>0.3694538984435957</v>
       </c>
       <c r="O32" t="n">
-        <v>2.062633833705466</v>
+        <v>2.062633833711566</v>
       </c>
       <c r="P32" t="n">
         <v>-0.7792692307712059</v>
       </c>
       <c r="Q32" t="n">
-        <v>2346.764140290886</v>
+        <v>2346.764140290894</v>
       </c>
       <c r="R32" t="n">
-        <v>2339.695028939881</v>
+        <v>2339.695028939873</v>
       </c>
       <c r="S32" t="b">
         <v>1</v>
@@ -2839,18 +3900,53 @@
         <v>2345.59</v>
       </c>
       <c r="V32" t="n">
-        <v>2334.95</v>
+        <v>2342.59</v>
       </c>
       <c r="W32" t="n">
         <v>2342.59</v>
       </c>
       <c r="X32" t="n">
         <v>2343.59</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="2" t="n">
+        <v>45443.29166666666</v>
+      </c>
+      <c r="AA32" s="2" t="n">
+        <v>45443.29166666666</v>
+      </c>
+      <c r="AB32" s="2" t="n">
+        <v>45443.40805555556</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>45443.30530092592</v>
+      </c>
+      <c r="AD32" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1075.26</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2143</v>
+        <v>2235</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>45447.46875</v>
@@ -2892,16 +3988,16 @@
         <v>-1.133011740314576</v>
       </c>
       <c r="O33" t="n">
-        <v>4.0099614293946</v>
+        <v>4.009961429397737</v>
       </c>
       <c r="P33" t="n">
         <v>-1.390276923075817</v>
       </c>
       <c r="Q33" t="n">
-        <v>2347.628140237374</v>
+        <v>2347.628140237378</v>
       </c>
       <c r="R33" t="n">
-        <v>2335.301244378009</v>
+        <v>2335.301244378005</v>
       </c>
       <c r="S33" t="b">
         <v>1</v>
@@ -2920,11 +4016,44 @@
       </c>
       <c r="X33" t="n">
         <v>2339.1</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" s="2" t="n">
+        <v>45448.34375</v>
+      </c>
+      <c r="AB33" s="2" t="n">
+        <v>45448.34126157407</v>
+      </c>
+      <c r="AC33" s="2" t="n">
+        <v>45447.49726851852</v>
+      </c>
+      <c r="AD33" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>-42.6</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1032.66</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2170</v>
+        <v>2262</v>
       </c>
       <c r="B34" s="2" t="n">
         <v>45447.75</v>
@@ -2966,16 +4095,16 @@
         <v>-3.472934103808941</v>
       </c>
       <c r="O34" t="n">
-        <v>4.995728942320173</v>
+        <v>4.995728942322692</v>
       </c>
       <c r="P34" t="n">
         <v>0.02902307692465911</v>
       </c>
       <c r="Q34" t="n">
-        <v>2333.109510995209</v>
+        <v>2333.109510995212</v>
       </c>
       <c r="R34" t="n">
-        <v>2318.121042850944</v>
+        <v>2318.121042850941</v>
       </c>
       <c r="S34" t="b">
         <v>1</v>
@@ -2987,18 +4116,53 @@
         <v>2332.79</v>
       </c>
       <c r="V34" t="n">
-        <v>2315.34</v>
+        <v>2329.79</v>
       </c>
       <c r="W34" t="n">
         <v>2329.79</v>
       </c>
       <c r="X34" t="n">
         <v>2330.79</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>45448.21875</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>45448.21875</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>45448.22844907407</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>45448.3874537037</v>
+      </c>
+      <c r="AD34" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1140.92</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>2300</v>
+        <v>2392</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>45449.1875</v>
@@ -3040,16 +4204,16 @@
         <v>2.074080659303568</v>
       </c>
       <c r="O35" t="n">
-        <v>3.775299458151807</v>
+        <v>3.775299458155139</v>
       </c>
       <c r="P35" t="n">
         <v>1.536553846153765</v>
       </c>
       <c r="Q35" t="n">
-        <v>2366.351623499274</v>
+        <v>2366.351623499279</v>
       </c>
       <c r="R35" t="n">
-        <v>2354.658314962264</v>
+        <v>2354.658314962259</v>
       </c>
       <c r="S35" t="b">
         <v>0</v>
@@ -3061,18 +4225,53 @@
         <v>2360.96</v>
       </c>
       <c r="V35" t="n">
-        <v>2375.17</v>
+        <v>2363.96</v>
       </c>
       <c r="W35" t="n">
         <v>2363.96</v>
       </c>
       <c r="X35" t="n">
         <v>2362.96</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>45449.45833333334</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>45449.45833333334</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>45449.47099537037</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>45449.64584490741</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1249.18</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>2419</v>
+        <v>2511</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>45450.46875</v>
@@ -3114,16 +4313,16 @@
         <v>-0.9236006766582419</v>
       </c>
       <c r="O36" t="n">
-        <v>8.379346275144645</v>
+        <v>8.379346275146146</v>
       </c>
       <c r="P36" t="n">
         <v>-3.79126153846164</v>
       </c>
       <c r="Q36" t="n">
-        <v>2381.229548240675</v>
+        <v>2381.229548240677</v>
       </c>
       <c r="R36" t="n">
-        <v>2357.105313297785</v>
+        <v>2357.105313297782</v>
       </c>
       <c r="S36" t="b">
         <v>1</v>
@@ -3142,11 +4341,44 @@
       </c>
       <c r="X36" t="n">
         <v>2356.39</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" s="2" t="n">
+        <v>45463.73958333334</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>45463.72399305556</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>45450.48311342593</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>-64.62</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>1184.56</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>2579</v>
+        <v>2671</v>
       </c>
       <c r="B37" s="2" t="n">
         <v>45454.21875</v>
@@ -3188,16 +4420,16 @@
         <v>-0.4413888945475309</v>
       </c>
       <c r="O37" t="n">
-        <v>2.983666647822689</v>
+        <v>2.983666647826906</v>
       </c>
       <c r="P37" t="n">
         <v>-0.7395769230779479</v>
       </c>
       <c r="Q37" t="n">
-        <v>2309.770611513022</v>
+        <v>2309.770611513028</v>
       </c>
       <c r="R37" t="n">
-        <v>2300.214711563901</v>
+        <v>2300.214711563895</v>
       </c>
       <c r="S37" t="b">
         <v>1</v>
@@ -3209,18 +4441,53 @@
         <v>2308.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2296.72</v>
+        <v>2305.62</v>
       </c>
       <c r="W37" t="n">
         <v>2305.62</v>
       </c>
       <c r="X37" t="n">
         <v>2306.62</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2" t="n">
+        <v>45454.47916666666</v>
+      </c>
+      <c r="AA37" s="2" t="n">
+        <v>45454.47916666666</v>
+      </c>
+      <c r="AB37" s="2" t="n">
+        <v>45454.56346064815</v>
+      </c>
+      <c r="AC37" s="2" t="n">
+        <v>45454.48989583334</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>54.12</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>1238.68</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>2715</v>
+        <v>2807</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>45455.67708333334</v>
@@ -3262,16 +4529,16 @@
         <v>2.156742127260711</v>
       </c>
       <c r="O38" t="n">
-        <v>8.922520439802181</v>
+        <v>8.922520439803591</v>
       </c>
       <c r="P38" t="n">
         <v>3.32828461538611</v>
       </c>
       <c r="Q38" t="n">
-        <v>2339.202825670657</v>
+        <v>2339.202825670659</v>
       </c>
       <c r="R38" t="n">
-        <v>2313.612020483191</v>
+        <v>2313.61202048319</v>
       </c>
       <c r="S38" t="b">
         <v>0</v>
@@ -3290,11 +4557,44 @@
       </c>
       <c r="X38" t="n">
         <v>2336.34</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" s="2" t="n">
+        <v>45455.69791666666</v>
+      </c>
+      <c r="AB38" s="2" t="n">
+        <v>45455.68928240741</v>
+      </c>
+      <c r="AC38" s="2" t="n">
+        <v>45463.35839120371</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>1346.93</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>2740</v>
+        <v>2832</v>
       </c>
       <c r="B39" s="2" t="n">
         <v>45455.9375</v>
@@ -3336,16 +4636,16 @@
         <v>1.327221125073226</v>
       </c>
       <c r="O39" t="n">
-        <v>6.196444733232151</v>
+        <v>6.196444733234181</v>
       </c>
       <c r="P39" t="n">
         <v>-0.8898769230750077</v>
       </c>
       <c r="Q39" t="n">
-        <v>2335.925138851404</v>
+        <v>2335.925138851406</v>
       </c>
       <c r="R39" t="n">
-        <v>2317.694738071677</v>
+        <v>2317.694738071674</v>
       </c>
       <c r="S39" t="b">
         <v>1</v>
@@ -3357,18 +4657,53 @@
         <v>2324.99</v>
       </c>
       <c r="V39" t="n">
-        <v>2313.79</v>
+        <v>2321.99</v>
       </c>
       <c r="W39" t="n">
         <v>2321.99</v>
       </c>
       <c r="X39" t="n">
         <v>2322.99</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="2" t="n">
+        <v>45455.97916666666</v>
+      </c>
+      <c r="AA39" s="2" t="n">
+        <v>45455.97916666666</v>
+      </c>
+      <c r="AB39" s="2" t="n">
+        <v>45456.04166666666</v>
+      </c>
+      <c r="AC39" s="2" t="n">
+        <v>45456.08188657407</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>1455.18</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>2801</v>
+        <v>2893</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>45456.61458333334</v>
@@ -3410,16 +4745,16 @@
         <v>-0.2043846081931048</v>
       </c>
       <c r="O40" t="n">
-        <v>3.109389436105134</v>
+        <v>3.10938943610918</v>
       </c>
       <c r="P40" t="n">
         <v>-1.39489999999978</v>
       </c>
       <c r="Q40" t="n">
-        <v>2318.148960354127</v>
+        <v>2318.148960354132</v>
       </c>
       <c r="R40" t="n">
-        <v>2308.253608876643</v>
+        <v>2308.253608876637</v>
       </c>
       <c r="S40" t="b">
         <v>1</v>
@@ -3438,11 +4773,44 @@
       </c>
       <c r="X40" t="n">
         <v>2310.97</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" s="2" t="n">
+        <v>45456.65625</v>
+      </c>
+      <c r="AB40" s="2" t="n">
+        <v>45456.64590277777</v>
+      </c>
+      <c r="AC40" s="2" t="n">
+        <v>45456.78328703704</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1563.43</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>2806</v>
+        <v>2898</v>
       </c>
       <c r="B41" s="2" t="n">
         <v>45456.66666666666</v>
@@ -3484,16 +4852,16 @@
         <v>-0.5591756215334774</v>
       </c>
       <c r="O41" t="n">
-        <v>4.236182558077816</v>
+        <v>4.236182558080785</v>
       </c>
       <c r="P41" t="n">
         <v>0.5225999999970554</v>
       </c>
       <c r="Q41" t="n">
-        <v>2320.927400299557</v>
+        <v>2320.927400299561</v>
       </c>
       <c r="R41" t="n">
-        <v>2307.989707392747</v>
+        <v>2307.989707392743</v>
       </c>
       <c r="S41" t="b">
         <v>0</v>
@@ -3512,11 +4880,44 @@
       </c>
       <c r="X41" t="n">
         <v>2314.15</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" s="2" t="n">
+        <v>45456.70833333334</v>
+      </c>
+      <c r="AB41" s="2" t="n">
+        <v>45456.70478009259</v>
+      </c>
+      <c r="AC41" s="2" t="n">
+        <v>45457.55543981482</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>1671.68</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>2847</v>
+        <v>2939</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>45457.13541666666</v>
@@ -3558,16 +4959,16 @@
         <v>-0.9791458296151492</v>
       </c>
       <c r="O42" t="n">
-        <v>0.8347804094491033</v>
+        <v>0.8347804094641746</v>
       </c>
       <c r="P42" t="n">
         <v>0.08634615384698918</v>
       </c>
       <c r="Q42" t="n">
-        <v>2305.706361245064</v>
+        <v>2305.706361245084</v>
       </c>
       <c r="R42" t="n">
-        <v>2301.952454139551</v>
+        <v>2301.952454139531</v>
       </c>
       <c r="S42" t="b">
         <v>1</v>
@@ -3579,18 +4980,53 @@
         <v>2309.37</v>
       </c>
       <c r="V42" t="n">
-        <v>2299.5</v>
+        <v>2306.37</v>
       </c>
       <c r="W42" t="n">
         <v>2306.37</v>
       </c>
       <c r="X42" t="n">
         <v>2307.37</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="2" t="n">
+        <v>45457.26041666666</v>
+      </c>
+      <c r="AA42" s="2" t="n">
+        <v>45457.26041666666</v>
+      </c>
+      <c r="AB42" s="2" t="n">
+        <v>45457.35733796296</v>
+      </c>
+      <c r="AC42" s="2" t="n">
+        <v>45457.26668981482</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1725.81</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>2996</v>
+        <v>3088</v>
       </c>
       <c r="B43" s="2" t="n">
         <v>45460.72916666666</v>
@@ -3632,16 +5068,16 @@
         <v>0.04323554846195521</v>
       </c>
       <c r="O43" t="n">
-        <v>1.975972587198507</v>
+        <v>1.975972587204874</v>
       </c>
       <c r="P43" t="n">
         <v>0.5866769230729005</v>
       </c>
       <c r="Q43" t="n">
-        <v>2325.941339915794</v>
+        <v>2325.941339915802</v>
       </c>
       <c r="R43" t="n">
-        <v>2319.106213930358</v>
+        <v>2319.106213930349</v>
       </c>
       <c r="S43" t="b">
         <v>0</v>
@@ -3653,18 +5089,53 @@
         <v>2318.94</v>
       </c>
       <c r="V43" t="n">
-        <v>2329.55</v>
+        <v>2321.94</v>
       </c>
       <c r="W43" t="n">
         <v>2321.94</v>
       </c>
       <c r="X43" t="n">
         <v>2320.94</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>45460.77083333334</v>
+      </c>
+      <c r="AA43" s="2" t="n">
+        <v>45460.77083333334</v>
+      </c>
+      <c r="AB43" s="2" t="n">
+        <v>45460.77090277777</v>
+      </c>
+      <c r="AC43" s="2" t="n">
+        <v>45461.12537037037</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>108.26</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1834.07</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3001</v>
+        <v>3093</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>45460.78125</v>
@@ -3706,16 +5177,16 @@
         <v>-0.04763322444520954</v>
       </c>
       <c r="O44" t="n">
-        <v>3.317064063097579</v>
+        <v>3.317064063101372</v>
       </c>
       <c r="P44" t="n">
         <v>-1.201876923078999</v>
       </c>
       <c r="Q44" t="n">
-        <v>2324.164128792873</v>
+        <v>2324.164128792878</v>
       </c>
       <c r="R44" t="n">
-        <v>2313.708055822509</v>
+        <v>2313.708055822504</v>
       </c>
       <c r="S44" t="b">
         <v>1</v>
@@ -3727,18 +5198,53 @@
         <v>2318.48</v>
       </c>
       <c r="V44" t="n">
-        <v>2307.9</v>
+        <v>2315.48</v>
       </c>
       <c r="W44" t="n">
         <v>2315.48</v>
       </c>
       <c r="X44" t="n">
         <v>2316.48</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="2" t="n">
+        <v>45460.83333333334</v>
+      </c>
+      <c r="AA44" s="2" t="n">
+        <v>45460.83333333334</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>45460.90349537037</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>45460.84846064815</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>54.13</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1888.200000000001</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3207</v>
+        <v>3299</v>
       </c>
       <c r="B45" s="2" t="n">
         <v>45463.19791666666</v>
@@ -3780,16 +5286,16 @@
         <v>0.6305781392599688</v>
       </c>
       <c r="O45" t="n">
-        <v>2.413959609993295</v>
+        <v>2.413959609998507</v>
       </c>
       <c r="P45" t="n">
         <v>0.6035923076915424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2336.972737781183</v>
+        <v>2336.97273778119</v>
       </c>
       <c r="R45" t="n">
-        <v>2328.955046834201</v>
+        <v>2328.955046834194</v>
       </c>
       <c r="S45" t="b">
         <v>0</v>
@@ -3808,6 +5314,39 @@
       </c>
       <c r="X45" t="n">
         <v>2332.24</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" s="2" t="n">
+        <v>45463.51041666666</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>45463.31947916667</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>-64.79000000000001</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1823.410000000001</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>108.23</v>
+        <v>216.78</v>
       </c>
       <c r="AG2" t="n">
-        <v>408.23</v>
+        <v>816.78</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-171.97</v>
+        <v>-344.36</v>
       </c>
       <c r="AG3" t="n">
-        <v>236.26</v>
+        <v>472.42</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>108.24</v>
+        <v>216.78</v>
       </c>
       <c r="AG4" t="n">
-        <v>344.5</v>
+        <v>689.1999999999999</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -1025,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>108.24</v>
+        <v>216.78</v>
       </c>
       <c r="AG5" t="n">
-        <v>452.74</v>
+        <v>905.9799999999999</v>
       </c>
       <c r="AH5" t="n">
         <v>2</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-75.25</v>
+        <v>-150.68</v>
       </c>
       <c r="AG6" t="n">
-        <v>377.49</v>
+        <v>755.3</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="AF7" t="n">
-        <v>108.24</v>
+        <v>216.78</v>
       </c>
       <c r="AG7" t="n">
-        <v>485.73</v>
+        <v>972.0799999999999</v>
       </c>
       <c r="AH7" t="n">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="AF8" t="n">
-        <v>108.24</v>
+        <v>216.78</v>
       </c>
       <c r="AG8" t="n">
-        <v>593.97</v>
+        <v>1188.86</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-97.98999999999999</v>
+        <v>-196.21</v>
       </c>
       <c r="AG9" t="n">
-        <v>495.98</v>
+        <v>992.6499999999999</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1562,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-44.03</v>
+        <v>-88.17</v>
       </c>
       <c r="AG10" t="n">
-        <v>451.95</v>
+        <v>904.4799999999999</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1671,10 +1671,10 @@
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>108.25</v>
+        <v>216.77</v>
       </c>
       <c r="AG11" t="n">
-        <v>560.2</v>
+        <v>1121.25</v>
       </c>
       <c r="AH11" t="n">
         <v>1</v>
@@ -1780,10 +1780,10 @@
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>108.24</v>
+        <v>216.76</v>
       </c>
       <c r="AG12" t="n">
-        <v>668.4400000000001</v>
+        <v>1338.01</v>
       </c>
       <c r="AH12" t="n">
         <v>2</v>
@@ -1887,10 +1887,10 @@
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG13" t="n">
-        <v>776.6900000000001</v>
+        <v>1554.77</v>
       </c>
       <c r="AH13" t="n">
         <v>3</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG14" t="n">
-        <v>884.95</v>
+        <v>1771.53</v>
       </c>
       <c r="AH14" t="n">
         <v>4</v>
@@ -2103,10 +2103,10 @@
         <v>1</v>
       </c>
       <c r="AF15" t="n">
-        <v>108.26</v>
+        <v>216.75</v>
       </c>
       <c r="AG15" t="n">
-        <v>993.21</v>
+        <v>1988.28</v>
       </c>
       <c r="AH15" t="n">
         <v>5</v>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>54.13</v>
+        <v>108.38</v>
       </c>
       <c r="AG16" t="n">
-        <v>1047.34</v>
+        <v>2096.66</v>
       </c>
       <c r="AH16" t="n">
         <v>6</v>
@@ -2319,10 +2319,10 @@
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG17" t="n">
-        <v>1155.6</v>
+        <v>2313.42</v>
       </c>
       <c r="AH17" t="n">
         <v>7</v>
@@ -2428,10 +2428,10 @@
         <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>54.13</v>
+        <v>108.38</v>
       </c>
       <c r="AG18" t="n">
-        <v>1209.73</v>
+        <v>2421.8</v>
       </c>
       <c r="AH18" t="n">
         <v>8</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>-107.57</v>
+        <v>-215.36</v>
       </c>
       <c r="AG19" t="n">
-        <v>1102.16</v>
+        <v>2206.44</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -2642,10 +2642,10 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>-54.69</v>
+        <v>-109.49</v>
       </c>
       <c r="AG20" t="n">
-        <v>1047.47</v>
+        <v>2096.95</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2749,10 +2749,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>-51.08</v>
+        <v>-102.26</v>
       </c>
       <c r="AG21" t="n">
-        <v>996.3900000000002</v>
+        <v>1994.69</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2856,10 +2856,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>-68.22</v>
+        <v>-136.59</v>
       </c>
       <c r="AG22" t="n">
-        <v>928.1700000000002</v>
+        <v>1858.1</v>
       </c>
       <c r="AH22" t="n">
         <v>1</v>
@@ -2963,10 +2963,10 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>-67.5</v>
+        <v>-135.14</v>
       </c>
       <c r="AG23" t="n">
-        <v>860.6700000000002</v>
+        <v>1722.96</v>
       </c>
       <c r="AH23" t="n">
         <v>0</v>
@@ -3070,10 +3070,10 @@
         <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>-132.84</v>
+        <v>-265.95</v>
       </c>
       <c r="AG24" t="n">
-        <v>727.8300000000002</v>
+        <v>1457.01</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3177,10 +3177,10 @@
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG25" t="n">
-        <v>836.0800000000002</v>
+        <v>1673.77</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -3284,10 +3284,10 @@
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>108.25</v>
+        <v>216.77</v>
       </c>
       <c r="AG26" t="n">
-        <v>944.3300000000002</v>
+        <v>1890.54</v>
       </c>
       <c r="AH26" t="n">
         <v>2</v>
@@ -3391,10 +3391,10 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>-132.29</v>
+        <v>-264.87</v>
       </c>
       <c r="AG27" t="n">
-        <v>812.0400000000002</v>
+        <v>1625.670000000001</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -3498,10 +3498,10 @@
         <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>-115.69</v>
+        <v>-231.62</v>
       </c>
       <c r="AG28" t="n">
-        <v>696.3500000000001</v>
+        <v>1394.050000000001</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -3607,10 +3607,10 @@
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG29" t="n">
-        <v>804.6100000000001</v>
+        <v>1610.810000000001</v>
       </c>
       <c r="AH29" t="n">
         <v>1</v>
@@ -3714,10 +3714,10 @@
         <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG30" t="n">
-        <v>912.8700000000001</v>
+        <v>1827.570000000001</v>
       </c>
       <c r="AH30" t="n">
         <v>2</v>
@@ -3823,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG31" t="n">
-        <v>1021.13</v>
+        <v>2044.330000000001</v>
       </c>
       <c r="AH31" t="n">
         <v>3</v>
@@ -3932,10 +3932,10 @@
         <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>54.13</v>
+        <v>108.38</v>
       </c>
       <c r="AG32" t="n">
-        <v>1075.26</v>
+        <v>2152.71</v>
       </c>
       <c r="AH32" t="n">
         <v>4</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="AF33" t="n">
-        <v>-42.6</v>
+        <v>-85.28</v>
       </c>
       <c r="AG33" t="n">
-        <v>1032.66</v>
+        <v>2067.43</v>
       </c>
       <c r="AH33" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG34" t="n">
-        <v>1140.92</v>
+        <v>2284.190000000001</v>
       </c>
       <c r="AH34" t="n">
         <v>1</v>
@@ -4257,10 +4257,10 @@
         <v>1</v>
       </c>
       <c r="AF35" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG35" t="n">
-        <v>1249.18</v>
+        <v>2500.950000000001</v>
       </c>
       <c r="AH35" t="n">
         <v>2</v>
@@ -4364,10 +4364,10 @@
         <v>0</v>
       </c>
       <c r="AF36" t="n">
-        <v>-64.62</v>
+        <v>-129.36</v>
       </c>
       <c r="AG36" t="n">
-        <v>1184.56</v>
+        <v>2371.590000000001</v>
       </c>
       <c r="AH36" t="n">
         <v>0</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>54.12</v>
+        <v>108.38</v>
       </c>
       <c r="AG37" t="n">
-        <v>1238.68</v>
+        <v>2479.970000000001</v>
       </c>
       <c r="AH37" t="n">
         <v>1</v>
@@ -4580,10 +4580,10 @@
         <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG38" t="n">
-        <v>1346.93</v>
+        <v>2696.73</v>
       </c>
       <c r="AH38" t="n">
         <v>2</v>
@@ -4689,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="AF39" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG39" t="n">
-        <v>1455.18</v>
+        <v>2913.490000000001</v>
       </c>
       <c r="AH39" t="n">
         <v>3</v>
@@ -4796,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG40" t="n">
-        <v>1563.43</v>
+        <v>3130.250000000001</v>
       </c>
       <c r="AH40" t="n">
         <v>4</v>
@@ -4903,10 +4903,10 @@
         <v>1</v>
       </c>
       <c r="AF41" t="n">
-        <v>108.25</v>
+        <v>216.76</v>
       </c>
       <c r="AG41" t="n">
-        <v>1671.68</v>
+        <v>3347.010000000001</v>
       </c>
       <c r="AH41" t="n">
         <v>5</v>
@@ -5012,10 +5012,10 @@
         <v>1</v>
       </c>
       <c r="AF42" t="n">
-        <v>54.13</v>
+        <v>108.38</v>
       </c>
       <c r="AG42" t="n">
-        <v>1725.81</v>
+        <v>3455.390000000001</v>
       </c>
       <c r="AH42" t="n">
         <v>6</v>
@@ -5121,10 +5121,10 @@
         <v>1</v>
       </c>
       <c r="AF43" t="n">
-        <v>108.26</v>
+        <v>216.76</v>
       </c>
       <c r="AG43" t="n">
-        <v>1834.07</v>
+        <v>3672.150000000001</v>
       </c>
       <c r="AH43" t="n">
         <v>7</v>
@@ -5230,10 +5230,10 @@
         <v>1</v>
       </c>
       <c r="AF44" t="n">
-        <v>54.13</v>
+        <v>108.38</v>
       </c>
       <c r="AG44" t="n">
-        <v>1888.200000000001</v>
+        <v>3780.530000000002</v>
       </c>
       <c r="AH44" t="n">
         <v>8</v>
@@ -5337,10 +5337,10 @@
         <v>0</v>
       </c>
       <c r="AF45" t="n">
-        <v>-64.79000000000001</v>
+        <v>-129.72</v>
       </c>
       <c r="AG45" t="n">
-        <v>1823.410000000001</v>
+        <v>3650.810000000002</v>
       </c>
       <c r="AH45" t="n">
         <v>0</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI34"/>
+  <dimension ref="A1:AI35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,10 +677,10 @@
         <v>2291.29</v>
       </c>
       <c r="W2" t="n">
-        <v>2297.12</v>
+        <v>2296.12</v>
       </c>
       <c r="X2" t="n">
-        <v>2298.12</v>
+        <v>2296.82</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>125.81</v>
+        <v>125.34</v>
       </c>
       <c r="AG2" t="n">
-        <v>425.81</v>
+        <v>425.34</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -784,10 +784,10 @@
         <v>2311.07</v>
       </c>
       <c r="W3" t="n">
-        <v>2303.9</v>
+        <v>2304.9</v>
       </c>
       <c r="X3" t="n">
-        <v>2302.9</v>
+        <v>2304.2</v>
       </c>
       <c r="Y3" t="b">
         <v>0</v>
@@ -811,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-74.97</v>
+        <v>-74.69</v>
       </c>
       <c r="AG3" t="n">
-        <v>350.84</v>
+        <v>350.65</v>
       </c>
       <c r="AH3" t="n">
         <v>0</v>
@@ -888,28 +888,28 @@
         <v>2315.58</v>
       </c>
       <c r="V4" t="n">
-        <v>2319.58</v>
+        <v>2320.58</v>
       </c>
       <c r="W4" t="n">
-        <v>2319.58</v>
+        <v>2320.58</v>
       </c>
       <c r="X4" t="n">
-        <v>2318.58</v>
+        <v>2319.88</v>
       </c>
       <c r="Y4" t="b">
         <v>1</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45418.5</v>
+        <v>45418.48958333334</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>45418.5</v>
+        <v>45418.48958333334</v>
       </c>
       <c r="AB4" s="2" t="n">
         <v>45418.51630787037</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>45418.53233796296</v>
+        <v>45418.53309027778</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -920,10 +920,10 @@
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>125.81</v>
+        <v>125.34</v>
       </c>
       <c r="AG4" t="n">
-        <v>476.65</v>
+        <v>475.99</v>
       </c>
       <c r="AH4" t="n">
         <v>1</v>
@@ -997,40 +997,42 @@
         <v>2320.83</v>
       </c>
       <c r="V5" t="n">
-        <v>2332.07</v>
+        <v>2325.83</v>
       </c>
       <c r="W5" t="n">
-        <v>2324.83</v>
+        <v>2325.83</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.83</v>
+        <v>2325.13</v>
       </c>
       <c r="Y5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>45418.72916666666</v>
+      </c>
       <c r="AA5" s="2" t="n">
-        <v>45418.73958333334</v>
+        <v>45418.72916666666</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>45418.73547453704</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>45421.71508101852</v>
+        <v>45418.72989583333</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE5" t="b">
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>125.81</v>
+        <v>35.81</v>
       </c>
       <c r="AG5" t="n">
-        <v>602.46</v>
+        <v>511.8</v>
       </c>
       <c r="AH5" t="n">
         <v>2</v>
@@ -1107,10 +1109,10 @@
         <v>2317.6</v>
       </c>
       <c r="W6" t="n">
-        <v>2326.03</v>
+        <v>2325.03</v>
       </c>
       <c r="X6" t="n">
-        <v>2327.03</v>
+        <v>2325.73</v>
       </c>
       <c r="Y6" t="b">
         <v>0</v>
@@ -1134,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>-97.62</v>
+        <v>-97.23999999999999</v>
       </c>
       <c r="AG6" t="n">
-        <v>504.84</v>
+        <v>414.56</v>
       </c>
       <c r="AH6" t="n">
         <v>0</v>
@@ -1214,17 +1216,17 @@
         <v>2312.12</v>
       </c>
       <c r="W7" t="n">
-        <v>2319.48</v>
+        <v>2318.48</v>
       </c>
       <c r="X7" t="n">
-        <v>2320.48</v>
+        <v>2319.18</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" s="2" t="n">
-        <v>45421.65625</v>
+        <v>45420.33333333334</v>
       </c>
       <c r="AB7" s="2" t="n">
         <v>45421.64862268518</v>
@@ -1241,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-78.38</v>
+        <v>-78.08</v>
       </c>
       <c r="AG7" t="n">
-        <v>426.46</v>
+        <v>336.48</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1321,17 +1323,17 @@
         <v>2311.71</v>
       </c>
       <c r="W8" t="n">
-        <v>2317.15</v>
+        <v>2316.15</v>
       </c>
       <c r="X8" t="n">
-        <v>2318.15</v>
+        <v>2316.85</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" s="2" t="n">
-        <v>45420.30208333334</v>
+        <v>45420.25</v>
       </c>
       <c r="AB8" s="2" t="n">
         <v>45420.35515046296</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-43.87</v>
+        <v>-43.7</v>
       </c>
       <c r="AG8" t="n">
-        <v>382.59</v>
+        <v>292.78</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1425,13 +1427,13 @@
         <v>2315.84</v>
       </c>
       <c r="V9" t="n">
-        <v>2311.84</v>
+        <v>2310.84</v>
       </c>
       <c r="W9" t="n">
-        <v>2311.84</v>
+        <v>2310.84</v>
       </c>
       <c r="X9" t="n">
-        <v>2312.84</v>
+        <v>2311.54</v>
       </c>
       <c r="Y9" t="b">
         <v>1</v>
@@ -1446,7 +1448,7 @@
         <v>45420.24600694444</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>45420.43472222222</v>
+        <v>45420.44150462963</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1457,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="AF9" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG9" t="n">
-        <v>508.4</v>
+        <v>418.09</v>
       </c>
       <c r="AH9" t="n">
         <v>1</v>
@@ -1534,13 +1536,13 @@
         <v>2313.53</v>
       </c>
       <c r="V10" t="n">
-        <v>2309.53</v>
+        <v>2308.53</v>
       </c>
       <c r="W10" t="n">
-        <v>2309.53</v>
+        <v>2308.53</v>
       </c>
       <c r="X10" t="n">
-        <v>2310.53</v>
+        <v>2309.23</v>
       </c>
       <c r="Y10" t="b">
         <v>1</v>
@@ -1566,10 +1568,10 @@
         <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG10" t="n">
-        <v>634.21</v>
+        <v>543.4000000000001</v>
       </c>
       <c r="AH10" t="n">
         <v>2</v>
@@ -1643,42 +1645,42 @@
         <v>2316.29</v>
       </c>
       <c r="V11" t="n">
-        <v>2312.29</v>
+        <v>2311.29</v>
       </c>
       <c r="W11" t="n">
-        <v>2312.29</v>
+        <v>2311.29</v>
       </c>
       <c r="X11" t="n">
-        <v>2313.29</v>
+        <v>2311.99</v>
       </c>
       <c r="Y11" t="b">
         <v>1</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>45421.61458333334</v>
+        <v>45421.48958333334</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>45421.61458333334</v>
+        <v>45421.48958333334</v>
       </c>
       <c r="AB11" s="2" t="n">
         <v>45421.61857638889</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>45421.6750925926</v>
+        <v>45421.49377314815</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE11" t="b">
         <v>1</v>
       </c>
       <c r="AF11" t="n">
-        <v>125.81</v>
+        <v>35.8</v>
       </c>
       <c r="AG11" t="n">
-        <v>760.02</v>
+        <v>579.2</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
@@ -1755,10 +1757,10 @@
         <v>2331.24</v>
       </c>
       <c r="W12" t="n">
-        <v>2323.61</v>
+        <v>2324.61</v>
       </c>
       <c r="X12" t="n">
-        <v>2322.61</v>
+        <v>2323.91</v>
       </c>
       <c r="Y12" t="b">
         <v>0</v>
@@ -1782,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>125.81</v>
+        <v>125.32</v>
       </c>
       <c r="AG12" t="n">
-        <v>885.8299999999999</v>
+        <v>704.52</v>
       </c>
       <c r="AH12" t="n">
         <v>4</v>
@@ -1859,28 +1861,28 @@
         <v>2342.88</v>
       </c>
       <c r="V13" t="n">
-        <v>2338.88</v>
+        <v>2337.88</v>
       </c>
       <c r="W13" t="n">
-        <v>2338.88</v>
+        <v>2337.88</v>
       </c>
       <c r="X13" t="n">
-        <v>2339.88</v>
+        <v>2338.58</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45426.17708333334</v>
+        <v>45426.13541666666</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>45426.17708333334</v>
+        <v>45426.13541666666</v>
       </c>
       <c r="AB13" s="2" t="n">
         <v>45426.20903935185</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>45426.18340277778</v>
+        <v>45426.14709490741</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1891,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>53.92</v>
+        <v>35.8</v>
       </c>
       <c r="AG13" t="n">
-        <v>939.7499999999999</v>
+        <v>740.3199999999999</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -1968,40 +1970,42 @@
         <v>2339.58</v>
       </c>
       <c r="V14" t="n">
-        <v>2350.16</v>
+        <v>2344.58</v>
       </c>
       <c r="W14" t="n">
-        <v>2343.58</v>
+        <v>2344.58</v>
       </c>
       <c r="X14" t="n">
-        <v>2342.58</v>
+        <v>2343.88</v>
       </c>
       <c r="Y14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="2" t="n">
+        <v>45426.60416666666</v>
+      </c>
       <c r="AA14" s="2" t="n">
-        <v>45435.76041666666</v>
+        <v>45426.60416666666</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>45426.64584490741</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>45426.66172453704</v>
+        <v>45426.62665509259</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE14" t="b">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>125.81</v>
+        <v>35.8</v>
       </c>
       <c r="AG14" t="n">
-        <v>1065.56</v>
+        <v>776.1199999999999</v>
       </c>
       <c r="AH14" t="n">
         <v>6</v>
@@ -2078,10 +2082,10 @@
         <v>2436.13</v>
       </c>
       <c r="W15" t="n">
-        <v>2430.1</v>
+        <v>2431.1</v>
       </c>
       <c r="X15" t="n">
-        <v>2429.1</v>
+        <v>2430.4</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
@@ -2105,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-54.47</v>
+        <v>-54.25</v>
       </c>
       <c r="AG15" t="n">
-        <v>1011.09</v>
+        <v>721.8699999999999</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2185,17 +2189,17 @@
         <v>2415.81</v>
       </c>
       <c r="W16" t="n">
-        <v>2421.64</v>
+        <v>2420.64</v>
       </c>
       <c r="X16" t="n">
-        <v>2422.64</v>
+        <v>2421.34</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" s="2" t="n">
-        <v>45433.625</v>
+        <v>45433.44791666666</v>
       </c>
       <c r="AB16" s="2" t="n">
         <v>45433.63902777778</v>
@@ -2212,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>-50.88</v>
+        <v>-50.68</v>
       </c>
       <c r="AG16" t="n">
-        <v>960.2099999999999</v>
+        <v>671.1899999999999</v>
       </c>
       <c r="AH16" t="n">
         <v>0</v>
@@ -2289,40 +2293,42 @@
         <v>2412.15</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.1</v>
+        <v>2417.15</v>
       </c>
       <c r="W17" t="n">
-        <v>2416.15</v>
+        <v>2417.15</v>
       </c>
       <c r="X17" t="n">
-        <v>2415.15</v>
+        <v>2416.45</v>
       </c>
       <c r="Y17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z17" s="2" t="n">
+        <v>45433.47916666666</v>
+      </c>
       <c r="AA17" s="2" t="n">
-        <v>45433.53125</v>
+        <v>45433.47916666666</v>
       </c>
       <c r="AB17" s="2" t="n">
         <v>45433.52934027778</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>45433.62893518519</v>
+        <v>45433.48001157407</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE17" t="b">
         <v>1</v>
       </c>
       <c r="AF17" t="n">
-        <v>125.81</v>
+        <v>35.8</v>
       </c>
       <c r="AG17" t="n">
-        <v>1086.02</v>
+        <v>706.9899999999999</v>
       </c>
       <c r="AH17" t="n">
         <v>1</v>
@@ -2399,17 +2405,17 @@
         <v>2417.32</v>
       </c>
       <c r="W18" t="n">
-        <v>2424.04</v>
+        <v>2423.04</v>
       </c>
       <c r="X18" t="n">
-        <v>2425.04</v>
+        <v>2423.74</v>
       </c>
       <c r="Y18" t="b">
         <v>0</v>
       </c>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" s="2" t="n">
-        <v>45434.21875</v>
+        <v>45433.9375</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>132320.9911673006</v>
@@ -2426,10 +2432,10 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>-66.88</v>
+        <v>-66.61</v>
       </c>
       <c r="AG18" t="n">
-        <v>1019.14</v>
+        <v>640.3799999999999</v>
       </c>
       <c r="AH18" t="n">
         <v>0</v>
@@ -2506,10 +2512,10 @@
         <v>2427.79</v>
       </c>
       <c r="W19" t="n">
-        <v>2421.01</v>
+        <v>2422.01</v>
       </c>
       <c r="X19" t="n">
-        <v>2420.01</v>
+        <v>2421.31</v>
       </c>
       <c r="Y19" t="b">
         <v>0</v>
@@ -2533,10 +2539,10 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>-67.95999999999999</v>
+        <v>-67.68000000000001</v>
       </c>
       <c r="AG19" t="n">
-        <v>951.1799999999999</v>
+        <v>572.6999999999998</v>
       </c>
       <c r="AH19" t="n">
         <v>1</v>
@@ -2613,10 +2619,10 @@
         <v>2415.23</v>
       </c>
       <c r="W20" t="n">
-        <v>2421.97</v>
+        <v>2420.97</v>
       </c>
       <c r="X20" t="n">
-        <v>2422.97</v>
+        <v>2421.67</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
@@ -2640,10 +2646,10 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>-67.23999999999999</v>
+        <v>-66.97</v>
       </c>
       <c r="AG20" t="n">
-        <v>883.9399999999999</v>
+        <v>505.7299999999998</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2720,10 +2726,10 @@
         <v>2336.05</v>
       </c>
       <c r="W21" t="n">
-        <v>2342.94</v>
+        <v>2341.94</v>
       </c>
       <c r="X21" t="n">
-        <v>2343.94</v>
+        <v>2342.64</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
@@ -2747,10 +2753,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>-69.93000000000001</v>
+        <v>-69.66</v>
       </c>
       <c r="AG21" t="n">
-        <v>814.01</v>
+        <v>436.0699999999998</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2824,26 +2830,28 @@
         <v>2350.4</v>
       </c>
       <c r="V22" t="n">
-        <v>2339.73</v>
+        <v>2345.4</v>
       </c>
       <c r="W22" t="n">
-        <v>2346.4</v>
+        <v>2345.4</v>
       </c>
       <c r="X22" t="n">
-        <v>2347.4</v>
+        <v>2346.1</v>
       </c>
       <c r="Y22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z22" s="2" t="n">
+        <v>45440.625</v>
+      </c>
       <c r="AA22" s="2" t="n">
-        <v>45440.63541666666</v>
+        <v>45440.625</v>
       </c>
       <c r="AB22" s="2" t="n">
         <v>45440.63300925926</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>45441.6203125</v>
+        <v>45441.49803240741</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -2854,10 +2862,10 @@
         <v>1</v>
       </c>
       <c r="AF22" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG22" t="n">
-        <v>939.8199999999999</v>
+        <v>561.3799999999999</v>
       </c>
       <c r="AH22" t="n">
         <v>1</v>
@@ -2931,42 +2939,42 @@
         <v>2351.41</v>
       </c>
       <c r="V23" t="n">
-        <v>2355.41</v>
+        <v>2356.41</v>
       </c>
       <c r="W23" t="n">
-        <v>2355.41</v>
+        <v>2356.41</v>
       </c>
       <c r="X23" t="n">
-        <v>2354.41</v>
+        <v>2355.71</v>
       </c>
       <c r="Y23" t="b">
         <v>1</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45441.38541666666</v>
+        <v>45441.25</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>45441.38541666666</v>
+        <v>45441.25</v>
       </c>
       <c r="AB23" s="2" t="n">
         <v>45441.40065972223</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>45441.41162037037</v>
+        <v>45441.25077546296</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE23" t="b">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>125.81</v>
+        <v>35.8</v>
       </c>
       <c r="AG23" t="n">
-        <v>1065.63</v>
+        <v>597.1799999999998</v>
       </c>
       <c r="AH23" t="n">
         <v>2</v>
@@ -3040,13 +3048,13 @@
         <v>2346.59</v>
       </c>
       <c r="V24" t="n">
-        <v>2342.59</v>
+        <v>2341.59</v>
       </c>
       <c r="W24" t="n">
-        <v>2342.59</v>
+        <v>2341.59</v>
       </c>
       <c r="X24" t="n">
-        <v>2343.59</v>
+        <v>2342.29</v>
       </c>
       <c r="Y24" t="b">
         <v>1</v>
@@ -3061,7 +3069,7 @@
         <v>45443.4137962963</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>45443.30530092592</v>
+        <v>45443.3134375</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3072,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>53.92</v>
+        <v>35.8</v>
       </c>
       <c r="AG24" t="n">
-        <v>1119.55</v>
+        <v>632.9799999999998</v>
       </c>
       <c r="AH24" t="n">
         <v>3</v>
@@ -3152,17 +3160,17 @@
         <v>2332.74</v>
       </c>
       <c r="W25" t="n">
-        <v>2338.1</v>
+        <v>2337.1</v>
       </c>
       <c r="X25" t="n">
-        <v>2339.1</v>
+        <v>2337.8</v>
       </c>
       <c r="Y25" t="b">
         <v>0</v>
       </c>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" s="2" t="n">
-        <v>45448.34375</v>
+        <v>45448.33333333334</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>45448.66273148148</v>
@@ -3179,10 +3187,10 @@
         <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>-42.43</v>
+        <v>-42.26</v>
       </c>
       <c r="AG25" t="n">
-        <v>1077.12</v>
+        <v>590.7199999999998</v>
       </c>
       <c r="AH25" t="n">
         <v>0</v>
@@ -3256,28 +3264,28 @@
         <v>2334.57</v>
       </c>
       <c r="V26" t="n">
-        <v>2330.57</v>
+        <v>2329.57</v>
       </c>
       <c r="W26" t="n">
-        <v>2330.57</v>
+        <v>2329.57</v>
       </c>
       <c r="X26" t="n">
-        <v>2331.57</v>
+        <v>2330.27</v>
       </c>
       <c r="Y26" t="b">
         <v>1</v>
       </c>
       <c r="Z26" s="2" t="n">
-        <v>45448.22916666666</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>45448.22916666666</v>
+        <v>45448.20833333334</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>45448.25472222222</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>45448.38711805556</v>
+        <v>45448.38762731481</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3288,10 +3296,10 @@
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG26" t="n">
-        <v>1202.93</v>
+        <v>716.0299999999997</v>
       </c>
       <c r="AH26" t="n">
         <v>1</v>
@@ -3368,17 +3376,17 @@
         <v>2348.81</v>
       </c>
       <c r="W27" t="n">
-        <v>2355.39</v>
+        <v>2354.39</v>
       </c>
       <c r="X27" t="n">
-        <v>2356.39</v>
+        <v>2355.09</v>
       </c>
       <c r="Y27" t="b">
         <v>0</v>
       </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" s="2" t="n">
-        <v>45463.73958333334</v>
+        <v>45463.72916666666</v>
       </c>
       <c r="AB27" s="2" t="n">
         <v>45463.73726851852</v>
@@ -3395,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="AF27" t="n">
-        <v>-64.36</v>
+        <v>-64.09999999999999</v>
       </c>
       <c r="AG27" t="n">
-        <v>1138.57</v>
+        <v>651.9299999999997</v>
       </c>
       <c r="AH27" t="n">
         <v>0</v>
@@ -3475,10 +3483,10 @@
         <v>2342.96</v>
       </c>
       <c r="W28" t="n">
-        <v>2337.34</v>
+        <v>2338.34</v>
       </c>
       <c r="X28" t="n">
-        <v>2336.34</v>
+        <v>2337.64</v>
       </c>
       <c r="Y28" t="b">
         <v>0</v>
@@ -3502,10 +3510,10 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG28" t="n">
-        <v>1264.38</v>
+        <v>777.2399999999998</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -3579,28 +3587,28 @@
         <v>2325.99</v>
       </c>
       <c r="V29" t="n">
-        <v>2321.99</v>
+        <v>2320.99</v>
       </c>
       <c r="W29" t="n">
-        <v>2321.99</v>
+        <v>2320.99</v>
       </c>
       <c r="X29" t="n">
-        <v>2322.99</v>
+        <v>2321.69</v>
       </c>
       <c r="Y29" t="b">
         <v>1</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>45455.97916666666</v>
+        <v>45455.96875</v>
       </c>
       <c r="AA29" s="2" t="n">
-        <v>45455.97916666666</v>
+        <v>45455.96875</v>
       </c>
       <c r="AB29" s="2" t="n">
         <v>45456.65079861111</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>45456.08188657407</v>
+        <v>45456.09047453704</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3611,10 +3619,10 @@
         <v>1</v>
       </c>
       <c r="AF29" t="n">
-        <v>53.92</v>
+        <v>35.8</v>
       </c>
       <c r="AG29" t="n">
-        <v>1318.3</v>
+        <v>813.0399999999997</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -3691,10 +3699,10 @@
         <v>2301.89</v>
       </c>
       <c r="W30" t="n">
-        <v>2309.97</v>
+        <v>2308.97</v>
       </c>
       <c r="X30" t="n">
-        <v>2310.97</v>
+        <v>2309.67</v>
       </c>
       <c r="Y30" t="b">
         <v>0</v>
@@ -3718,10 +3726,10 @@
         <v>1</v>
       </c>
       <c r="AF30" t="n">
-        <v>125.81</v>
+        <v>125.31</v>
       </c>
       <c r="AG30" t="n">
-        <v>1444.11</v>
+        <v>938.3499999999997</v>
       </c>
       <c r="AH30" t="n">
         <v>3</v>
@@ -3795,28 +3803,28 @@
         <v>2310.37</v>
       </c>
       <c r="V31" t="n">
-        <v>2306.37</v>
+        <v>2305.37</v>
       </c>
       <c r="W31" t="n">
-        <v>2306.37</v>
+        <v>2305.37</v>
       </c>
       <c r="X31" t="n">
-        <v>2307.37</v>
+        <v>2306.07</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45457.26041666666</v>
+        <v>45457.17708333334</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>45457.26041666666</v>
+        <v>45457.17708333334</v>
       </c>
       <c r="AB31" s="2" t="n">
         <v>45457.35988425926</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>45457.26668981482</v>
+        <v>45457.18391203704</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -3827,10 +3835,10 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>53.92</v>
+        <v>35.8</v>
       </c>
       <c r="AG31" t="n">
-        <v>1498.03</v>
+        <v>974.1499999999996</v>
       </c>
       <c r="AH31" t="n">
         <v>4</v>
@@ -3904,13 +3912,13 @@
         <v>2317.94</v>
       </c>
       <c r="V32" t="n">
-        <v>2321.94</v>
+        <v>2322.94</v>
       </c>
       <c r="W32" t="n">
-        <v>2321.94</v>
+        <v>2322.94</v>
       </c>
       <c r="X32" t="n">
-        <v>2320.94</v>
+        <v>2322.24</v>
       </c>
       <c r="Y32" t="b">
         <v>1</v>
@@ -3925,7 +3933,7 @@
         <v>45460.77172453704</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>45461.12537037037</v>
+        <v>45461.12627314815</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -3936,10 +3944,10 @@
         <v>1</v>
       </c>
       <c r="AF32" t="n">
-        <v>125.81</v>
+        <v>125.33</v>
       </c>
       <c r="AG32" t="n">
-        <v>1623.84</v>
+        <v>1099.48</v>
       </c>
       <c r="AH32" t="n">
         <v>5</v>
@@ -4013,13 +4021,13 @@
         <v>2319.48</v>
       </c>
       <c r="V33" t="n">
-        <v>2315.48</v>
+        <v>2314.48</v>
       </c>
       <c r="W33" t="n">
-        <v>2315.48</v>
+        <v>2314.48</v>
       </c>
       <c r="X33" t="n">
-        <v>2316.48</v>
+        <v>2315.18</v>
       </c>
       <c r="Y33" t="b">
         <v>1</v>
@@ -4034,7 +4042,7 @@
         <v>45460.92664351852</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>45460.84846064815</v>
+        <v>45460.8528125</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
@@ -4045,10 +4053,10 @@
         <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>53.92</v>
+        <v>35.81</v>
       </c>
       <c r="AG33" t="n">
-        <v>1677.76</v>
+        <v>1135.29</v>
       </c>
       <c r="AH33" t="n">
         <v>6</v>
@@ -4122,46 +4130,157 @@
         <v>2329.24</v>
       </c>
       <c r="V34" t="n">
-        <v>2339.83</v>
+        <v>2334.24</v>
       </c>
       <c r="W34" t="n">
-        <v>2333.24</v>
+        <v>2334.24</v>
       </c>
       <c r="X34" t="n">
-        <v>2332.24</v>
+        <v>2333.54</v>
       </c>
       <c r="Y34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z34" s="2" t="n">
+        <v>45463.26041666666</v>
+      </c>
       <c r="AA34" s="2" t="n">
-        <v>45463.51041666666</v>
+        <v>45463.26041666666</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>132320.9911673006</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>45463.31947916667</v>
+        <v>45463.26679398148</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34" t="n">
-        <v>-64.54000000000001</v>
+        <v>35.81</v>
       </c>
       <c r="AG34" t="n">
-        <v>1613.22</v>
+        <v>1171.099999999999</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AI34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>3392</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45464.20833333334</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2359.53</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2361.53</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2358.97</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2361.47</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1566</v>
+      </c>
+      <c r="H35" t="n">
+        <v>27</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2360.799459543979</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2359.503650661006</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2361.580576923076</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.295808882972324</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.710920156750212</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.497236342544712</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.06446153846127345</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2365.101845985511</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2359.55930786064</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2368.47</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2363.47</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2363.47</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2364.17</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="2" t="n">
+        <v>45464.375</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>45464.375</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>45464.37663194445</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1206.909999999999</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI35"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,25 +611,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45418.125</v>
+        <v>45386.72916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>2293.9</v>
+        <v>2297.49</v>
       </c>
       <c r="D2" t="n">
-        <v>2295.17</v>
+        <v>2299.33</v>
       </c>
       <c r="E2" t="n">
-        <v>2293.29</v>
+        <v>2294.9</v>
       </c>
       <c r="F2" t="n">
-        <v>2294.12</v>
+        <v>2296.89</v>
       </c>
       <c r="G2" t="n">
-        <v>1930</v>
+        <v>3568</v>
       </c>
       <c r="H2" t="n">
         <v>27</v>
@@ -638,62 +638,64 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2298.440470298691</v>
+        <v>2291.417546435688</v>
       </c>
       <c r="K2" t="n">
-        <v>2298.85185805185</v>
+        <v>2291.712435805681</v>
       </c>
       <c r="L2" t="n">
-        <v>2299.143846153846</v>
+        <v>2289.874661538462</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4113877531585786</v>
+        <v>0.8512113583219616</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5444148344035773</v>
+        <v>-0.7134161902704005</v>
       </c>
       <c r="O2" t="n">
-        <v>2.544589226843388</v>
+        <v>3.690217924932121</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.8692153846163819</v>
+        <v>0.8923076923078952</v>
       </c>
       <c r="Q2" t="n">
-        <v>2302.579041610084</v>
+        <v>2296.35645573712</v>
       </c>
       <c r="R2" t="n">
-        <v>2294.208650697607</v>
+        <v>2284.892867339803</v>
       </c>
       <c r="S2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>2301.12</v>
+        <v>2289.89</v>
       </c>
       <c r="V2" t="n">
-        <v>2291.29</v>
+        <v>2294.89</v>
       </c>
       <c r="W2" t="n">
-        <v>2296.12</v>
+        <v>2294.89</v>
       </c>
       <c r="X2" t="n">
-        <v>2296.82</v>
+        <v>2294.19</v>
       </c>
       <c r="Y2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>45386.76041666666</v>
+      </c>
       <c r="AA2" s="2" t="n">
-        <v>45418.17708333334</v>
+        <v>45386.76041666666</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>45418.16800925926</v>
+        <v>45386.80674768519</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>45450.95127314814</v>
+        <v>45386.87935185185</v>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
@@ -704,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>125.34</v>
+        <v>125.36</v>
       </c>
       <c r="AG2" t="n">
-        <v>425.34</v>
+        <v>425.36</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -718,25 +720,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>290</v>
+        <v>480</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45418.1875</v>
+        <v>45390.25</v>
       </c>
       <c r="C3" t="n">
-        <v>2307.81</v>
+        <v>2348.05</v>
       </c>
       <c r="D3" t="n">
-        <v>2309.07</v>
+        <v>2348.07</v>
       </c>
       <c r="E3" t="n">
-        <v>2305.84</v>
+        <v>2343.66</v>
       </c>
       <c r="F3" t="n">
-        <v>2306.9</v>
+        <v>2347.4</v>
       </c>
       <c r="G3" t="n">
-        <v>3171</v>
+        <v>2911</v>
       </c>
       <c r="H3" t="n">
         <v>27</v>
@@ -745,31 +747,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2300.532769032879</v>
+        <v>2329.267775481222</v>
       </c>
       <c r="K3" t="n">
-        <v>2299.594275345076</v>
+        <v>2322.720520042173</v>
       </c>
       <c r="L3" t="n">
-        <v>2299.948199999999</v>
+        <v>2327.088715384617</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9384936878027474</v>
+        <v>8.223672556611746</v>
       </c>
       <c r="N3" t="n">
-        <v>0.07023202696041674</v>
+        <v>3.211778263390595</v>
       </c>
       <c r="O3" t="n">
-        <v>3.967232536672506</v>
+        <v>12.91378943869732</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9775076923097004</v>
+        <v>4.449292307693668</v>
       </c>
       <c r="Q3" t="n">
-        <v>2306.803963924507</v>
+        <v>2346.022331126858</v>
       </c>
       <c r="R3" t="n">
-        <v>2294.592436075492</v>
+        <v>2309.655099642375</v>
       </c>
       <c r="S3" t="b">
         <v>0</v>
@@ -778,72 +780,74 @@
         <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>2299.9</v>
+        <v>2340.4</v>
       </c>
       <c r="V3" t="n">
-        <v>2311.07</v>
+        <v>2345.4</v>
       </c>
       <c r="W3" t="n">
-        <v>2304.9</v>
+        <v>2345.4</v>
       </c>
       <c r="X3" t="n">
-        <v>2304.2</v>
+        <v>2344.7</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>45390.27083333334</v>
+      </c>
       <c r="AA3" s="2" t="n">
-        <v>45450.90625</v>
+        <v>45390.27083333334</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>45450.91744212963</v>
+        <v>45390.3128125</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>45418.2100462963</v>
+        <v>45390.29146990741</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>-74.69</v>
+        <v>35.83</v>
       </c>
       <c r="AG3" t="n">
-        <v>350.65</v>
+        <v>461.19</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>315</v>
+        <v>511</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45418.44791666666</v>
+        <v>45390.57291666666</v>
       </c>
       <c r="C4" t="n">
-        <v>2323.11</v>
+        <v>2342.8</v>
       </c>
       <c r="D4" t="n">
-        <v>2323.94</v>
+        <v>2343.35</v>
       </c>
       <c r="E4" t="n">
-        <v>2321.13</v>
+        <v>2339.72</v>
       </c>
       <c r="F4" t="n">
-        <v>2322.58</v>
+        <v>2340.02</v>
       </c>
       <c r="G4" t="n">
-        <v>1798</v>
+        <v>1989</v>
       </c>
       <c r="H4" t="n">
         <v>27</v>
@@ -852,31 +856,31 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2315.623906369775</v>
+        <v>2338.401163591057</v>
       </c>
       <c r="K4" t="n">
-        <v>2311.870869066554</v>
+        <v>2336.681327144429</v>
       </c>
       <c r="L4" t="n">
-        <v>2316.188600000001</v>
+        <v>2337.85870769231</v>
       </c>
       <c r="M4" t="n">
-        <v>3.753037303220935</v>
+        <v>1.091659756631543</v>
       </c>
       <c r="N4" t="n">
-        <v>2.980747776529321</v>
+        <v>0.6356168785628231</v>
       </c>
       <c r="O4" t="n">
-        <v>3.748005558514228</v>
+        <v>2.533283968899593</v>
       </c>
       <c r="P4" t="n">
-        <v>1.192684615385588</v>
+        <v>0.6202923076943989</v>
       </c>
       <c r="Q4" t="n">
-        <v>2322.748407503995</v>
+        <v>2342.778641050324</v>
       </c>
       <c r="R4" t="n">
-        <v>2311.128792496007</v>
+        <v>2334.438774334295</v>
       </c>
       <c r="S4" t="b">
         <v>0</v>
@@ -885,31 +889,31 @@
         <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>2315.58</v>
+        <v>2333.02</v>
       </c>
       <c r="V4" t="n">
-        <v>2320.58</v>
+        <v>2338.02</v>
       </c>
       <c r="W4" t="n">
-        <v>2320.58</v>
+        <v>2338.02</v>
       </c>
       <c r="X4" t="n">
-        <v>2319.88</v>
+        <v>2337.32</v>
       </c>
       <c r="Y4" t="b">
         <v>1</v>
       </c>
       <c r="Z4" s="2" t="n">
-        <v>45418.48958333334</v>
+        <v>45390.625</v>
       </c>
       <c r="AA4" s="2" t="n">
-        <v>45418.48958333334</v>
+        <v>45390.625</v>
       </c>
       <c r="AB4" s="2" t="n">
-        <v>45418.51630787037</v>
+        <v>45390.62652777778</v>
       </c>
       <c r="AC4" s="2" t="n">
-        <v>45418.53309027778</v>
+        <v>45390.85738425926</v>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
@@ -920,13 +924,13 @@
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>125.34</v>
+        <v>125.41</v>
       </c>
       <c r="AG4" t="n">
-        <v>475.99</v>
+        <v>586.6</v>
       </c>
       <c r="AH4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>0</v>
@@ -934,25 +938,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>339</v>
+        <v>617</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45418.69791666666</v>
+        <v>45391.71875</v>
       </c>
       <c r="C5" t="n">
-        <v>2330.07</v>
+        <v>2361.37</v>
       </c>
       <c r="D5" t="n">
-        <v>2330.07</v>
+        <v>2363.28</v>
       </c>
       <c r="E5" t="n">
-        <v>2323.26</v>
+        <v>2360.24</v>
       </c>
       <c r="F5" t="n">
-        <v>2327.83</v>
+        <v>2360.9</v>
       </c>
       <c r="G5" t="n">
-        <v>4549</v>
+        <v>4131</v>
       </c>
       <c r="H5" t="n">
         <v>27</v>
@@ -961,31 +965,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2323.333162233959</v>
+        <v>2355.647247503933</v>
       </c>
       <c r="K5" t="n">
-        <v>2320.346001385505</v>
+        <v>2354.293478882068</v>
       </c>
       <c r="L5" t="n">
-        <v>2323.340984615386</v>
+        <v>2353.556207692307</v>
       </c>
       <c r="M5" t="n">
-        <v>2.987160848454096</v>
+        <v>1.230464969696186</v>
       </c>
       <c r="N5" t="n">
-        <v>2.320748571495725</v>
+        <v>0.1117539396053549</v>
       </c>
       <c r="O5" t="n">
-        <v>3.485977959382617</v>
+        <v>4.476747777926902</v>
       </c>
       <c r="P5" t="n">
-        <v>1.199700000001485</v>
+        <v>0.5018923076909232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2329.547054860553</v>
+        <v>2361.099817192508</v>
       </c>
       <c r="R5" t="n">
-        <v>2318.634914370219</v>
+        <v>2347.512598192105</v>
       </c>
       <c r="S5" t="b">
         <v>0</v>
@@ -994,48 +998,46 @@
         <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>2320.83</v>
+        <v>2353.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2325.83</v>
+        <v>2365.28</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.83</v>
+        <v>2358.9</v>
       </c>
       <c r="X5" t="n">
-        <v>2325.13</v>
+        <v>2358.2</v>
       </c>
       <c r="Y5" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="2" t="n">
-        <v>45418.72916666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" s="2" t="n">
-        <v>45418.72916666666</v>
+        <v>45391.73958333334</v>
       </c>
       <c r="AB5" s="2" t="n">
-        <v>45418.73547453704</v>
+        <v>45391.73587962963</v>
       </c>
       <c r="AC5" s="2" t="n">
-        <v>45418.72989583333</v>
+        <v>45393.94528935185</v>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE5" t="b">
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>35.81</v>
+        <v>125.41</v>
       </c>
       <c r="AG5" t="n">
-        <v>511.8</v>
+        <v>712.01</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1043,58 +1045,58 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>385</v>
+        <v>657</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45419.21875</v>
+        <v>45392.17708333334</v>
       </c>
       <c r="C6" t="n">
-        <v>2320.34</v>
+        <v>2346.36</v>
       </c>
       <c r="D6" t="n">
-        <v>2323.25</v>
+        <v>2348.21</v>
       </c>
       <c r="E6" t="n">
-        <v>2319.6</v>
+        <v>2346.21</v>
       </c>
       <c r="F6" t="n">
-        <v>2323.03</v>
+        <v>2347.27</v>
       </c>
       <c r="G6" t="n">
-        <v>1533</v>
+        <v>1707</v>
       </c>
       <c r="H6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2324.565478147591</v>
+        <v>2350.882808401933</v>
       </c>
       <c r="K6" t="n">
-        <v>2324.849867727924</v>
+        <v>2350.962118723525</v>
       </c>
       <c r="L6" t="n">
-        <v>2325.081553846154</v>
+        <v>2352.296907692306</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.2843895803321175</v>
+        <v>-0.7066472745573265</v>
       </c>
       <c r="N6" t="n">
-        <v>0.3346645873850318</v>
+        <v>0.3545707221801901</v>
       </c>
       <c r="O6" t="n">
-        <v>1.820604295269709</v>
+        <v>2.529428262242781</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.3593461538453084</v>
+        <v>-0.7966230769252434</v>
       </c>
       <c r="Q6" t="n">
-        <v>2327.539369644768</v>
+        <v>2355.711635846334</v>
       </c>
       <c r="R6" t="n">
-        <v>2321.12373804754</v>
+        <v>2347.382179538278</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
@@ -1103,72 +1105,74 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2330.03</v>
+        <v>2354.27</v>
       </c>
       <c r="V6" t="n">
-        <v>2317.6</v>
+        <v>2349.27</v>
       </c>
       <c r="W6" t="n">
-        <v>2325.03</v>
+        <v>2349.27</v>
       </c>
       <c r="X6" t="n">
-        <v>2325.73</v>
+        <v>2349.97</v>
       </c>
       <c r="Y6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2" t="n">
+        <v>45392.22916666666</v>
+      </c>
       <c r="AA6" s="2" t="n">
-        <v>45421.65625</v>
+        <v>45392.22916666666</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>45421.7140625</v>
+        <v>45392.31342592592</v>
       </c>
       <c r="AC6" s="2" t="n">
-        <v>45419.46435185185</v>
+        <v>45392.52118055556</v>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>-97.23999999999999</v>
+        <v>125.39</v>
       </c>
       <c r="AG6" t="n">
-        <v>414.56</v>
+        <v>837.4</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>436</v>
+        <v>770</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45419.75</v>
+        <v>45393.39583333334</v>
       </c>
       <c r="C7" t="n">
-        <v>2314.12</v>
+        <v>2335.59</v>
       </c>
       <c r="D7" t="n">
-        <v>2319.07</v>
+        <v>2339.23</v>
       </c>
       <c r="E7" t="n">
-        <v>2314.12</v>
+        <v>2335.27</v>
       </c>
       <c r="F7" t="n">
-        <v>2316.48</v>
+        <v>2337.76</v>
       </c>
       <c r="G7" t="n">
-        <v>3709</v>
+        <v>2210</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
@@ -1177,31 +1181,31 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2317.358673793262</v>
+        <v>2340.216507200073</v>
       </c>
       <c r="K7" t="n">
-        <v>2317.219163584274</v>
+        <v>2340.174948579901</v>
       </c>
       <c r="L7" t="n">
-        <v>2318.318776923076</v>
+        <v>2341.8827</v>
       </c>
       <c r="M7" t="n">
-        <v>0.139510208988213</v>
+        <v>-0.9313196012626577</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.08177138385406911</v>
+        <v>0.2965194082920072</v>
       </c>
       <c r="O7" t="n">
-        <v>2.688111170818142</v>
+        <v>3.256977791423167</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08046153845907611</v>
+        <v>-0.9547153846151559</v>
       </c>
       <c r="Q7" t="n">
-        <v>2323.44772700368</v>
+        <v>2346.279620018422</v>
       </c>
       <c r="R7" t="n">
-        <v>2314.689826842471</v>
+        <v>2335.985779981579</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
@@ -1210,29 +1214,29 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2323.48</v>
+        <v>2344.76</v>
       </c>
       <c r="V7" t="n">
-        <v>2312.12</v>
+        <v>2333.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2318.48</v>
+        <v>2339.76</v>
       </c>
       <c r="X7" t="n">
-        <v>2319.18</v>
+        <v>2340.46</v>
       </c>
       <c r="Y7" t="b">
         <v>0</v>
       </c>
       <c r="Z7" t="inlineStr"/>
       <c r="AA7" s="2" t="n">
-        <v>45420.33333333334</v>
+        <v>45393.66666666666</v>
       </c>
       <c r="AB7" s="2" t="n">
-        <v>45421.64862268518</v>
+        <v>45393.68005787037</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>45419.83763888889</v>
+        <v>45393.46809027778</v>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
@@ -1243,39 +1247,39 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-78.08</v>
+        <v>-80.45</v>
       </c>
       <c r="AG7" t="n">
-        <v>336.48</v>
+        <v>756.9499999999999</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>471</v>
+        <v>1047</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45420.15625</v>
+        <v>45398.40625</v>
       </c>
       <c r="C8" t="n">
-        <v>2313.77</v>
+        <v>2370.13</v>
       </c>
       <c r="D8" t="n">
-        <v>2314.84</v>
+        <v>2373.81</v>
       </c>
       <c r="E8" t="n">
-        <v>2313.71</v>
+        <v>2370.13</v>
       </c>
       <c r="F8" t="n">
-        <v>2314.15</v>
+        <v>2372.87</v>
       </c>
       <c r="G8" t="n">
-        <v>979</v>
+        <v>4005</v>
       </c>
       <c r="H8" t="n">
         <v>27</v>
@@ -1284,31 +1288,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2314.720593077551</v>
+        <v>2381.336927915354</v>
       </c>
       <c r="K8" t="n">
-        <v>2314.828644837883</v>
+        <v>2382.277721067056</v>
       </c>
       <c r="L8" t="n">
-        <v>2315.017684615384</v>
+        <v>2382.705330769231</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.1080517603318185</v>
+        <v>-2.515666370710278</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1021050037207162</v>
+        <v>-0.3376513914302689</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9226360784997022</v>
+        <v>4.440082281582075</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08603076922963737</v>
+        <v>-1.433569230769081</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.763243321358</v>
+        <v>2388.699441849367</v>
       </c>
       <c r="R8" t="n">
-        <v>2313.772125909409</v>
+        <v>2375.211219689095</v>
       </c>
       <c r="S8" t="b">
         <v>1</v>
@@ -1317,29 +1321,29 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2321.15</v>
+        <v>2379.87</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.71</v>
+        <v>2368.13</v>
       </c>
       <c r="W8" t="n">
-        <v>2316.15</v>
+        <v>2374.87</v>
       </c>
       <c r="X8" t="n">
-        <v>2316.85</v>
+        <v>2375.57</v>
       </c>
       <c r="Y8" t="b">
         <v>0</v>
       </c>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" s="2" t="n">
-        <v>45420.25</v>
+        <v>45398.65625</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>45420.35515046296</v>
+        <v>45398.74523148148</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>45420.18008101852</v>
+        <v>45398.45422453704</v>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
@@ -1350,39 +1354,39 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-43.7</v>
+        <v>-84.93000000000001</v>
       </c>
       <c r="AG8" t="n">
-        <v>292.78</v>
+        <v>672.02</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>476</v>
+        <v>1259</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45420.20833333334</v>
+        <v>45400.69791666666</v>
       </c>
       <c r="C9" t="n">
-        <v>2307.69</v>
+        <v>2376.49</v>
       </c>
       <c r="D9" t="n">
-        <v>2309.29</v>
+        <v>2383.67</v>
       </c>
       <c r="E9" t="n">
-        <v>2307.26</v>
+        <v>2376.39</v>
       </c>
       <c r="F9" t="n">
-        <v>2308.84</v>
+        <v>2379.67</v>
       </c>
       <c r="G9" t="n">
-        <v>2112</v>
+        <v>5742</v>
       </c>
       <c r="H9" t="n">
         <v>27</v>
@@ -1391,31 +1395,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2312.159254162435</v>
+        <v>2382.225195758321</v>
       </c>
       <c r="K9" t="n">
-        <v>2313.42763101224</v>
+        <v>2380.974243170824</v>
       </c>
       <c r="L9" t="n">
-        <v>2312.412761538463</v>
+        <v>2383.507576923076</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.268376849805463</v>
+        <v>0.3757464301666005</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.5784322680486667</v>
+        <v>1.089793663224163</v>
       </c>
       <c r="O9" t="n">
-        <v>2.08730823470861</v>
+        <v>2.987069187992718</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.6988923076905849</v>
+        <v>-0.5882384615388219</v>
       </c>
       <c r="Q9" t="n">
-        <v>2315.23062765532</v>
+        <v>2387.540120326866</v>
       </c>
       <c r="R9" t="n">
-        <v>2308.094895421606</v>
+        <v>2377.975033519286</v>
       </c>
       <c r="S9" t="b">
         <v>1</v>
@@ -1424,74 +1428,72 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2315.84</v>
+        <v>2386.67</v>
       </c>
       <c r="V9" t="n">
-        <v>2310.84</v>
+        <v>2374.39</v>
       </c>
       <c r="W9" t="n">
-        <v>2310.84</v>
+        <v>2381.67</v>
       </c>
       <c r="X9" t="n">
-        <v>2311.54</v>
+        <v>2382.37</v>
       </c>
       <c r="Y9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
-        <v>45420.23958333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z9" t="inlineStr"/>
       <c r="AA9" s="2" t="n">
-        <v>45420.23958333334</v>
+        <v>45400.77083333334</v>
       </c>
       <c r="AB9" s="2" t="n">
-        <v>45420.24600694444</v>
+        <v>45400.81614583333</v>
       </c>
       <c r="AC9" s="2" t="n">
-        <v>45420.44150462963</v>
+        <v>45400.73045138889</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>125.31</v>
+        <v>-94.61</v>
       </c>
       <c r="AG9" t="n">
-        <v>418.09</v>
+        <v>577.41</v>
       </c>
       <c r="AH9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>500</v>
+        <v>1282</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45420.45833333334</v>
+        <v>45400.9375</v>
       </c>
       <c r="C10" t="n">
-        <v>2305.39</v>
+        <v>2378.56</v>
       </c>
       <c r="D10" t="n">
-        <v>2306.75</v>
+        <v>2381.53</v>
       </c>
       <c r="E10" t="n">
-        <v>2303.57</v>
+        <v>2378.45</v>
       </c>
       <c r="F10" t="n">
-        <v>2306.53</v>
+        <v>2380.86</v>
       </c>
       <c r="G10" t="n">
-        <v>2841</v>
+        <v>1574</v>
       </c>
       <c r="H10" t="n">
         <v>27</v>
@@ -1500,31 +1502,31 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2312.275904226045</v>
+        <v>2382.165014587645</v>
       </c>
       <c r="K10" t="n">
-        <v>2313.936981001314</v>
+        <v>2382.217493933013</v>
       </c>
       <c r="L10" t="n">
-        <v>2313.406253846154</v>
+        <v>2383.673669230767</v>
       </c>
       <c r="M10" t="n">
-        <v>-1.661076775268157</v>
+        <v>-0.5433356370172078</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.2982416407933864</v>
+        <v>0.01678555443307936</v>
       </c>
       <c r="O10" t="n">
-        <v>4.090899452852167</v>
+        <v>3.098103344605464</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.711115384613549</v>
+        <v>0.3571384615365787</v>
       </c>
       <c r="Q10" t="n">
-        <v>2318.928968107504</v>
+        <v>2389.356108745985</v>
       </c>
       <c r="R10" t="n">
-        <v>2306.383539584804</v>
+        <v>2379.49122971555</v>
       </c>
       <c r="S10" t="b">
         <v>1</v>
@@ -1533,74 +1535,72 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2313.53</v>
+        <v>2387.86</v>
       </c>
       <c r="V10" t="n">
-        <v>2308.53</v>
+        <v>2376.45</v>
       </c>
       <c r="W10" t="n">
-        <v>2308.53</v>
+        <v>2382.86</v>
       </c>
       <c r="X10" t="n">
-        <v>2309.23</v>
+        <v>2383.56</v>
       </c>
       <c r="Y10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
-        <v>45420.53125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z10" t="inlineStr"/>
       <c r="AA10" s="2" t="n">
-        <v>45420.53125</v>
+        <v>45401.17708333334</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>45420.55322916667</v>
+        <v>45401.17247685185</v>
       </c>
       <c r="AC10" s="2" t="n">
-        <v>45420.67996527778</v>
+        <v>45401.13217592592</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>125.31</v>
+        <v>-79.03</v>
       </c>
       <c r="AG10" t="n">
-        <v>543.4000000000001</v>
+        <v>498.38</v>
       </c>
       <c r="AH10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>591</v>
+        <v>1434</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45421.44791666666</v>
+        <v>45404.60416666666</v>
       </c>
       <c r="C11" t="n">
-        <v>2308.78</v>
+        <v>2341.94</v>
       </c>
       <c r="D11" t="n">
-        <v>2310.05</v>
+        <v>2347.91</v>
       </c>
       <c r="E11" t="n">
-        <v>2307.43</v>
+        <v>2341.63</v>
       </c>
       <c r="F11" t="n">
-        <v>2309.29</v>
+        <v>2344.15</v>
       </c>
       <c r="G11" t="n">
-        <v>2081</v>
+        <v>2877</v>
       </c>
       <c r="H11" t="n">
         <v>27</v>
@@ -1609,31 +1609,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2312.689728294321</v>
+        <v>2353.888522128194</v>
       </c>
       <c r="K11" t="n">
-        <v>2312.758945912381</v>
+        <v>2359.067733764697</v>
       </c>
       <c r="L11" t="n">
-        <v>2314.461915384616</v>
+        <v>2353.007523076922</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.06921761805915594</v>
+        <v>-4.462335662766236</v>
       </c>
       <c r="N11" t="n">
-        <v>0.7888952403148967</v>
+        <v>-2.656337741522592</v>
       </c>
       <c r="O11" t="n">
-        <v>2.840875627924968</v>
+        <v>5.724592649316133</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.6271769230775135</v>
+        <v>-1.495984615387442</v>
       </c>
       <c r="Q11" t="n">
-        <v>2318.297097482314</v>
+        <v>2360.735723153499</v>
       </c>
       <c r="R11" t="n">
-        <v>2309.126733286917</v>
+        <v>2343.779323000345</v>
       </c>
       <c r="S11" t="b">
         <v>1</v>
@@ -1642,74 +1642,72 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2316.29</v>
+        <v>2351.15</v>
       </c>
       <c r="V11" t="n">
-        <v>2311.29</v>
+        <v>2339.63</v>
       </c>
       <c r="W11" t="n">
-        <v>2311.29</v>
+        <v>2346.15</v>
       </c>
       <c r="X11" t="n">
-        <v>2311.99</v>
+        <v>2346.85</v>
       </c>
       <c r="Y11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="2" t="n">
-        <v>45421.48958333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z11" t="inlineStr"/>
       <c r="AA11" s="2" t="n">
-        <v>45421.48958333334</v>
+        <v>45408.46875</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>45421.61857638889</v>
+        <v>45408.50789351852</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>45421.49377314815</v>
+        <v>45404.62609953704</v>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>35.8</v>
+        <v>-80.98999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>579.2</v>
+        <v>417.39</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>611</v>
+        <v>1588</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45421.65625</v>
+        <v>45406.29166666666</v>
       </c>
       <c r="C12" t="n">
-        <v>2327.42</v>
+        <v>2327.92</v>
       </c>
       <c r="D12" t="n">
-        <v>2329.24</v>
+        <v>2330.09</v>
       </c>
       <c r="E12" t="n">
-        <v>2325.34</v>
+        <v>2326.51</v>
       </c>
       <c r="F12" t="n">
-        <v>2326.61</v>
+        <v>2326.78</v>
       </c>
       <c r="G12" t="n">
-        <v>3484</v>
+        <v>1335</v>
       </c>
       <c r="H12" t="n">
         <v>27</v>
@@ -1718,31 +1716,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2317.320836596942</v>
+        <v>2323.535353449735</v>
       </c>
       <c r="K12" t="n">
-        <v>2314.667908206249</v>
+        <v>2322.591184017743</v>
       </c>
       <c r="L12" t="n">
-        <v>2317.251553846154</v>
+        <v>2322.927861538461</v>
       </c>
       <c r="M12" t="n">
-        <v>2.652928390692978</v>
+        <v>1.32643747958582</v>
       </c>
       <c r="N12" t="n">
-        <v>0.8835806004460103</v>
+        <v>0.2661309754210322</v>
       </c>
       <c r="O12" t="n">
-        <v>4.906704698675449</v>
+        <v>2.435136683496042</v>
       </c>
       <c r="P12" t="n">
-        <v>2.114715384616375</v>
+        <v>0.6581230769224931</v>
       </c>
       <c r="Q12" t="n">
-        <v>2325.375605189366</v>
+        <v>2327.71529606118</v>
       </c>
       <c r="R12" t="n">
-        <v>2310.627502502942</v>
+        <v>2319.640427015741</v>
       </c>
       <c r="S12" t="b">
         <v>0</v>
@@ -1751,29 +1749,31 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>2319.61</v>
+        <v>2319.78</v>
       </c>
       <c r="V12" t="n">
-        <v>2331.24</v>
+        <v>2324.78</v>
       </c>
       <c r="W12" t="n">
-        <v>2324.61</v>
+        <v>2324.78</v>
       </c>
       <c r="X12" t="n">
-        <v>2323.91</v>
+        <v>2324.08</v>
       </c>
       <c r="Y12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2" t="n">
+        <v>45406.42708333334</v>
+      </c>
       <c r="AA12" s="2" t="n">
-        <v>45421.67708333334</v>
+        <v>45406.42708333334</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>45421.67392361111</v>
+        <v>45406.46181712963</v>
       </c>
       <c r="AC12" s="2" t="n">
-        <v>45421.7149537037</v>
+        <v>45406.67103009259</v>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
@@ -1784,13 +1784,13 @@
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>125.32</v>
+        <v>125.4</v>
       </c>
       <c r="AG12" t="n">
-        <v>704.52</v>
+        <v>542.79</v>
       </c>
       <c r="AH12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -1798,25 +1798,25 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>807</v>
+        <v>1624</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45425.78125</v>
+        <v>45406.66666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>2333.54</v>
+        <v>2323.21</v>
       </c>
       <c r="D13" t="n">
-        <v>2335.94</v>
+        <v>2325.66</v>
       </c>
       <c r="E13" t="n">
-        <v>2333.34</v>
+        <v>2320.27</v>
       </c>
       <c r="F13" t="n">
-        <v>2335.88</v>
+        <v>2322.52</v>
       </c>
       <c r="G13" t="n">
-        <v>1998</v>
+        <v>4477</v>
       </c>
       <c r="H13" t="n">
         <v>27</v>
@@ -1825,64 +1825,64 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2339.734497096699</v>
+        <v>2318.358898513509</v>
       </c>
       <c r="K13" t="n">
-        <v>2342.423507357395</v>
+        <v>2318.735698419108</v>
       </c>
       <c r="L13" t="n">
-        <v>2340.425176923078</v>
+        <v>2316.622084615386</v>
       </c>
       <c r="M13" t="n">
-        <v>-2.68901026069625</v>
+        <v>0.7075360697263022</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.805194889923075</v>
+        <v>-0.6722635979785848</v>
       </c>
       <c r="O13" t="n">
-        <v>3.857249754219651</v>
+        <v>3.120965395620536</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.054376923077143</v>
+        <v>1.282999999999447</v>
       </c>
       <c r="Q13" t="n">
-        <v>2345.632464091274</v>
+        <v>2322.335387899474</v>
       </c>
       <c r="R13" t="n">
-        <v>2333.717889754881</v>
+        <v>2312.408781331298</v>
       </c>
       <c r="S13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
-        <v>2342.88</v>
+        <v>2315.52</v>
       </c>
       <c r="V13" t="n">
-        <v>2337.88</v>
+        <v>2320.52</v>
       </c>
       <c r="W13" t="n">
-        <v>2337.88</v>
+        <v>2320.52</v>
       </c>
       <c r="X13" t="n">
-        <v>2338.58</v>
+        <v>2319.82</v>
       </c>
       <c r="Y13" t="b">
         <v>1</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>45426.13541666666</v>
+        <v>45406.71875</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>45426.13541666666</v>
+        <v>45406.71875</v>
       </c>
       <c r="AB13" s="2" t="n">
-        <v>45426.20903935185</v>
+        <v>45406.97706018519</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>45426.14709490741</v>
+        <v>45406.72181712963</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -1893,13 +1893,13 @@
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>35.8</v>
+        <v>35.83</v>
       </c>
       <c r="AG13" t="n">
-        <v>740.3199999999999</v>
+        <v>578.62</v>
       </c>
       <c r="AH13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -1907,25 +1907,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>873</v>
+        <v>1677</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45426.51041666666</v>
+        <v>45407.26041666666</v>
       </c>
       <c r="C14" t="n">
-        <v>2347.11</v>
+        <v>2306.94</v>
       </c>
       <c r="D14" t="n">
-        <v>2348.16</v>
+        <v>2310.94</v>
       </c>
       <c r="E14" t="n">
-        <v>2345.49</v>
+        <v>2306.71</v>
       </c>
       <c r="F14" t="n">
-        <v>2346.58</v>
+        <v>2310.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2463</v>
+        <v>3512</v>
       </c>
       <c r="H14" t="n">
         <v>27</v>
@@ -1934,81 +1934,81 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2342.253829078659</v>
+        <v>2316.115879153574</v>
       </c>
       <c r="K14" t="n">
-        <v>2341.498033121071</v>
+        <v>2317.495104984275</v>
       </c>
       <c r="L14" t="n">
-        <v>2340.954153846153</v>
+        <v>2316.915176923077</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7557959575879067</v>
+        <v>-1.545352015567914</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08096463893418766</v>
+        <v>-0.3832744337301613</v>
       </c>
       <c r="O14" t="n">
-        <v>2.908169641963585</v>
+        <v>3.118038913701412</v>
       </c>
       <c r="P14" t="n">
-        <v>0.6245307692297501</v>
+        <v>-0.9404615384619319</v>
       </c>
       <c r="Q14" t="n">
-        <v>2346.380182862804</v>
+        <v>2321.124529456573</v>
       </c>
       <c r="R14" t="n">
-        <v>2337.028124829502</v>
+        <v>2311.20582438958</v>
       </c>
       <c r="S14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2339.58</v>
+        <v>2317.06</v>
       </c>
       <c r="V14" t="n">
-        <v>2344.58</v>
+        <v>2312.06</v>
       </c>
       <c r="W14" t="n">
-        <v>2344.58</v>
+        <v>2312.06</v>
       </c>
       <c r="X14" t="n">
-        <v>2343.88</v>
+        <v>2312.76</v>
       </c>
       <c r="Y14" t="b">
         <v>1</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>45426.60416666666</v>
+        <v>45407.29166666666</v>
       </c>
       <c r="AA14" s="2" t="n">
-        <v>45426.60416666666</v>
+        <v>45407.29166666666</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>45426.64584490741</v>
+        <v>45407.33657407408</v>
       </c>
       <c r="AC14" s="2" t="n">
-        <v>45426.62665509259</v>
+        <v>45412.4784375</v>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE14" t="b">
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>35.8</v>
+        <v>125.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>776.1199999999999</v>
+        <v>704.02</v>
       </c>
       <c r="AH14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
@@ -2016,25 +2016,25 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>1209</v>
+        <v>1765</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45432.17708333334</v>
+        <v>45408.21875</v>
       </c>
       <c r="C15" t="n">
-        <v>2434.12</v>
+        <v>2334.96</v>
       </c>
       <c r="D15" t="n">
-        <v>2434.13</v>
+        <v>2336.18</v>
       </c>
       <c r="E15" t="n">
-        <v>2426.35</v>
+        <v>2334.17</v>
       </c>
       <c r="F15" t="n">
-        <v>2433.1</v>
+        <v>2334.56</v>
       </c>
       <c r="G15" t="n">
-        <v>4198</v>
+        <v>1003</v>
       </c>
       <c r="H15" t="n">
         <v>27</v>
@@ -2043,31 +2043,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2424.020299839164</v>
+        <v>2331.691899803537</v>
       </c>
       <c r="K15" t="n">
-        <v>2419.219891097793</v>
+        <v>2331.242377271635</v>
       </c>
       <c r="L15" t="n">
-        <v>2424.907876923079</v>
+        <v>2330.650153846153</v>
       </c>
       <c r="M15" t="n">
-        <v>4.800408741371484</v>
+        <v>0.6086335073523514</v>
       </c>
       <c r="N15" t="n">
-        <v>3.785887987259535</v>
+        <v>-0.09838114743464052</v>
       </c>
       <c r="O15" t="n">
-        <v>5.006191999133763</v>
+        <v>1.924336509147142</v>
       </c>
       <c r="P15" t="n">
-        <v>1.727500000002692</v>
+        <v>0.4778615384598197</v>
       </c>
       <c r="Q15" t="n">
-        <v>2433.166236121909</v>
+        <v>2334.748008133502</v>
       </c>
       <c r="R15" t="n">
-        <v>2418.149517724248</v>
+        <v>2328.052299558804</v>
       </c>
       <c r="S15" t="b">
         <v>0</v>
@@ -2076,29 +2076,29 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>2426.1</v>
+        <v>2327.56</v>
       </c>
       <c r="V15" t="n">
-        <v>2436.13</v>
+        <v>2338.18</v>
       </c>
       <c r="W15" t="n">
-        <v>2431.1</v>
+        <v>2332.56</v>
       </c>
       <c r="X15" t="n">
-        <v>2430.4</v>
+        <v>2331.86</v>
       </c>
       <c r="Y15" t="b">
         <v>0</v>
       </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" s="2" t="n">
-        <v>45432.61458333334</v>
+        <v>45411.17708333334</v>
       </c>
       <c r="AB15" s="2" t="n">
-        <v>45432.62726851852</v>
+        <v>45411.16706018519</v>
       </c>
       <c r="AC15" s="2" t="n">
-        <v>45432.21189814815</v>
+        <v>45408.3693287037</v>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-54.25</v>
+        <v>-64.87</v>
       </c>
       <c r="AG15" t="n">
-        <v>721.8699999999999</v>
+        <v>639.15</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2123,25 +2123,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>1305</v>
+        <v>2308</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45433.21875</v>
+        <v>45418.125</v>
       </c>
       <c r="C16" t="n">
-        <v>2417.91</v>
+        <v>2293.9</v>
       </c>
       <c r="D16" t="n">
-        <v>2421.2</v>
+        <v>2295.17</v>
       </c>
       <c r="E16" t="n">
-        <v>2417.81</v>
+        <v>2293.29</v>
       </c>
       <c r="F16" t="n">
-        <v>2418.64</v>
+        <v>2294.12</v>
       </c>
       <c r="G16" t="n">
-        <v>1913</v>
+        <v>1930</v>
       </c>
       <c r="H16" t="n">
         <v>27</v>
@@ -2150,31 +2150,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2424.40306686498</v>
+        <v>2298.440470298691</v>
       </c>
       <c r="K16" t="n">
-        <v>2426.110553714956</v>
+        <v>2298.851858051295</v>
       </c>
       <c r="L16" t="n">
-        <v>2424.373769230769</v>
+        <v>2299.143846153846</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.707486849976249</v>
+        <v>-1.135182352354605</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.7549176374553068</v>
+        <v>0.1321988993914347</v>
       </c>
       <c r="O16" t="n">
-        <v>3.225408914454851</v>
+        <v>2.544589227118985</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.7138230769246547</v>
+        <v>-0.8692153846163819</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.728071265283</v>
+        <v>2302.579041610456</v>
       </c>
       <c r="R16" t="n">
-        <v>2418.519467196254</v>
+        <v>2294.208650697235</v>
       </c>
       <c r="S16" t="b">
         <v>1</v>
@@ -2183,72 +2183,72 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>2425.64</v>
+        <v>2301.12</v>
       </c>
       <c r="V16" t="n">
-        <v>2415.81</v>
+        <v>2291.29</v>
       </c>
       <c r="W16" t="n">
-        <v>2420.64</v>
+        <v>2296.12</v>
       </c>
       <c r="X16" t="n">
-        <v>2421.34</v>
+        <v>2296.82</v>
       </c>
       <c r="Y16" t="b">
         <v>0</v>
       </c>
       <c r="Z16" t="inlineStr"/>
       <c r="AA16" s="2" t="n">
-        <v>45433.44791666666</v>
+        <v>45418.17708333334</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>45433.63902777778</v>
+        <v>45418.16800925926</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>45433.23583333333</v>
+        <v>45450.95127314814</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>-50.68</v>
+        <v>125.41</v>
       </c>
       <c r="AG16" t="n">
-        <v>671.1899999999999</v>
+        <v>764.5599999999999</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>1327</v>
+        <v>2314</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45433.44791666666</v>
+        <v>45418.1875</v>
       </c>
       <c r="C17" t="n">
-        <v>2421.73</v>
+        <v>2307.81</v>
       </c>
       <c r="D17" t="n">
-        <v>2422.1</v>
+        <v>2309.07</v>
       </c>
       <c r="E17" t="n">
-        <v>2417.51</v>
+        <v>2305.84</v>
       </c>
       <c r="F17" t="n">
-        <v>2419.15</v>
+        <v>2306.9</v>
       </c>
       <c r="G17" t="n">
-        <v>2655</v>
+        <v>3171</v>
       </c>
       <c r="H17" t="n">
         <v>27</v>
@@ -2257,31 +2257,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2416.386069703454</v>
+        <v>2300.532769032879</v>
       </c>
       <c r="K17" t="n">
-        <v>2417.349284276495</v>
+        <v>2299.594275344725</v>
       </c>
       <c r="L17" t="n">
-        <v>2415.54406923077</v>
+        <v>2299.948199999999</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.9632145730415687</v>
+        <v>1.402185921190267</v>
       </c>
       <c r="N17" t="n">
-        <v>-2.040128950238026</v>
+        <v>-0.0359221518741441</v>
       </c>
       <c r="O17" t="n">
-        <v>2.805595777280567</v>
+        <v>3.967232536849072</v>
       </c>
       <c r="P17" t="n">
-        <v>1.406438461537618</v>
+        <v>0.9775076923097004</v>
       </c>
       <c r="Q17" t="n">
-        <v>2420.831623530099</v>
+        <v>2306.803963924745</v>
       </c>
       <c r="R17" t="n">
-        <v>2411.756514931441</v>
+        <v>2294.592436075253</v>
       </c>
       <c r="S17" t="b">
         <v>0</v>
@@ -2290,74 +2290,72 @@
         <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>2412.15</v>
+        <v>2299.9</v>
       </c>
       <c r="V17" t="n">
-        <v>2417.15</v>
+        <v>2311.07</v>
       </c>
       <c r="W17" t="n">
-        <v>2417.15</v>
+        <v>2304.9</v>
       </c>
       <c r="X17" t="n">
-        <v>2416.45</v>
+        <v>2304.2</v>
       </c>
       <c r="Y17" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="2" t="n">
-        <v>45433.47916666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z17" t="inlineStr"/>
       <c r="AA17" s="2" t="n">
-        <v>45433.47916666666</v>
+        <v>45450.90625</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>45433.52934027778</v>
+        <v>45450.91744212963</v>
       </c>
       <c r="AC17" s="2" t="n">
-        <v>45433.48001157407</v>
+        <v>45418.2100462963</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>35.8</v>
+        <v>-74.73999999999999</v>
       </c>
       <c r="AG17" t="n">
-        <v>706.9899999999999</v>
+        <v>689.8199999999999</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1362</v>
+        <v>2339</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45433.8125</v>
+        <v>45418.44791666666</v>
       </c>
       <c r="C18" t="n">
-        <v>2419.32</v>
+        <v>2323.11</v>
       </c>
       <c r="D18" t="n">
-        <v>2421.87</v>
+        <v>2323.94</v>
       </c>
       <c r="E18" t="n">
-        <v>2419.32</v>
+        <v>2321.13</v>
       </c>
       <c r="F18" t="n">
-        <v>2421.04</v>
+        <v>2322.58</v>
       </c>
       <c r="G18" t="n">
-        <v>2496</v>
+        <v>1798</v>
       </c>
       <c r="H18" t="n">
         <v>27</v>
@@ -2366,105 +2364,107 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2424.074463513182</v>
+        <v>2315.623906369775</v>
       </c>
       <c r="K18" t="n">
-        <v>2423.709672519888</v>
+        <v>2311.870869066503</v>
       </c>
       <c r="L18" t="n">
-        <v>2426.516546153845</v>
+        <v>2316.188600000001</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3647909932938092</v>
+        <v>3.156456474126571</v>
       </c>
       <c r="N18" t="n">
-        <v>1.621599462827406</v>
+        <v>2.19275670716182</v>
       </c>
       <c r="O18" t="n">
-        <v>4.026630394279743</v>
+        <v>3.748005558660527</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.040876923076667</v>
+        <v>1.192684615385588</v>
       </c>
       <c r="Q18" t="n">
-        <v>2431.952497186123</v>
+        <v>2322.748407504193</v>
       </c>
       <c r="R18" t="n">
-        <v>2419.580595121568</v>
+        <v>2311.128792495809</v>
       </c>
       <c r="S18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>2428.04</v>
+        <v>2315.58</v>
       </c>
       <c r="V18" t="n">
-        <v>2417.32</v>
+        <v>2320.58</v>
       </c>
       <c r="W18" t="n">
-        <v>2423.04</v>
+        <v>2320.58</v>
       </c>
       <c r="X18" t="n">
-        <v>2423.74</v>
+        <v>2319.88</v>
       </c>
       <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>45418.48958333334</v>
+      </c>
       <c r="AA18" s="2" t="n">
-        <v>45433.9375</v>
+        <v>45418.48958333334</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45418.51630787037</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>45433.87665509259</v>
+        <v>45418.53309027778</v>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>-66.61</v>
+        <v>125.43</v>
       </c>
       <c r="AG18" t="n">
-        <v>640.3799999999999</v>
+        <v>815.25</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>1397</v>
+        <v>2363</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45434.21875</v>
+        <v>45418.69791666666</v>
       </c>
       <c r="C19" t="n">
-        <v>2425.37</v>
+        <v>2330.07</v>
       </c>
       <c r="D19" t="n">
-        <v>2425.79</v>
+        <v>2330.07</v>
       </c>
       <c r="E19" t="n">
-        <v>2423.65</v>
+        <v>2323.26</v>
       </c>
       <c r="F19" t="n">
-        <v>2424.01</v>
+        <v>2327.83</v>
       </c>
       <c r="G19" t="n">
-        <v>1019</v>
+        <v>4549</v>
       </c>
       <c r="H19" t="n">
         <v>27</v>
@@ -2473,31 +2473,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>2422.295317469569</v>
+        <v>2323.333162233959</v>
       </c>
       <c r="K19" t="n">
-        <v>2422.04339074586</v>
+        <v>2320.346001385497</v>
       </c>
       <c r="L19" t="n">
-        <v>2421.883007692308</v>
+        <v>2323.340984615386</v>
       </c>
       <c r="M19" t="n">
-        <v>0.251926723708948</v>
+        <v>2.523626807429537</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.07495685367553487</v>
+        <v>1.562813132178812</v>
       </c>
       <c r="O19" t="n">
-        <v>1.248903251713487</v>
+        <v>3.485977959508234</v>
       </c>
       <c r="P19" t="n">
-        <v>0.3804076923056527</v>
+        <v>1.199700000001485</v>
       </c>
       <c r="Q19" t="n">
-        <v>2425.069027082121</v>
+        <v>2329.547054860722</v>
       </c>
       <c r="R19" t="n">
-        <v>2420.196988302494</v>
+        <v>2318.63491437005</v>
       </c>
       <c r="S19" t="b">
         <v>0</v>
@@ -2506,46 +2506,48 @@
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>2417.01</v>
+        <v>2320.83</v>
       </c>
       <c r="V19" t="n">
-        <v>2427.79</v>
+        <v>2325.83</v>
       </c>
       <c r="W19" t="n">
-        <v>2422.01</v>
+        <v>2325.83</v>
       </c>
       <c r="X19" t="n">
-        <v>2421.31</v>
+        <v>2325.13</v>
       </c>
       <c r="Y19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z19" s="2" t="n">
+        <v>45418.72916666666</v>
+      </c>
       <c r="AA19" s="2" t="n">
-        <v>45434.25</v>
+        <v>45418.72916666666</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>45434.24451388889</v>
+        <v>45418.73547453704</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45418.72989583333</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE19" t="b">
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>-67.68000000000001</v>
+        <v>35.84</v>
       </c>
       <c r="AG19" t="n">
-        <v>572.6999999999998</v>
+        <v>851.09</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
@@ -2553,58 +2555,58 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>1400</v>
+        <v>2409</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45434.25</v>
+        <v>45419.21875</v>
       </c>
       <c r="C20" t="n">
-        <v>2417.72</v>
+        <v>2320.34</v>
       </c>
       <c r="D20" t="n">
-        <v>2419.5</v>
+        <v>2323.25</v>
       </c>
       <c r="E20" t="n">
-        <v>2417.23</v>
+        <v>2319.6</v>
       </c>
       <c r="F20" t="n">
-        <v>2418.97</v>
+        <v>2323.03</v>
       </c>
       <c r="G20" t="n">
-        <v>1780</v>
+        <v>1533</v>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2421.141878721891</v>
+        <v>2324.565478147591</v>
       </c>
       <c r="K20" t="n">
-        <v>2421.508344276993</v>
+        <v>2324.849867727924</v>
       </c>
       <c r="L20" t="n">
-        <v>2421.264923076923</v>
+        <v>2325.081553846154</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.366465555101513</v>
+        <v>-0.7720853056907799</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.1144055746922372</v>
+        <v>-0.03752701888105769</v>
       </c>
       <c r="O20" t="n">
-        <v>1.44352023382883</v>
+        <v>1.8206042954803</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.2730846153831408</v>
+        <v>-0.3593461538453084</v>
       </c>
       <c r="Q20" t="n">
-        <v>2423.213675392592</v>
+        <v>2327.539369645052</v>
       </c>
       <c r="R20" t="n">
-        <v>2417.816170761253</v>
+        <v>2321.123738047255</v>
       </c>
       <c r="S20" t="b">
         <v>1</v>
@@ -2613,29 +2615,29 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2425.97</v>
+        <v>2330.03</v>
       </c>
       <c r="V20" t="n">
-        <v>2415.23</v>
+        <v>2317.6</v>
       </c>
       <c r="W20" t="n">
-        <v>2420.97</v>
+        <v>2325.03</v>
       </c>
       <c r="X20" t="n">
-        <v>2421.67</v>
+        <v>2325.73</v>
       </c>
       <c r="Y20" t="b">
         <v>0</v>
       </c>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45421.65625</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45421.7140625</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>45434.28174768519</v>
+        <v>45419.46435185185</v>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>-66.97</v>
+        <v>-97.31999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>505.7299999999998</v>
+        <v>753.77</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2660,25 +2662,25 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1620</v>
+        <v>2460</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45436.625</v>
+        <v>45419.75</v>
       </c>
       <c r="C21" t="n">
-        <v>2338.16</v>
+        <v>2314.12</v>
       </c>
       <c r="D21" t="n">
-        <v>2340.78</v>
+        <v>2319.07</v>
       </c>
       <c r="E21" t="n">
-        <v>2338.05</v>
+        <v>2314.12</v>
       </c>
       <c r="F21" t="n">
-        <v>2339.94</v>
+        <v>2316.48</v>
       </c>
       <c r="G21" t="n">
-        <v>2506</v>
+        <v>3709</v>
       </c>
       <c r="H21" t="n">
         <v>27</v>
@@ -2687,31 +2689,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2339.791004471361</v>
+        <v>2317.358673793262</v>
       </c>
       <c r="K21" t="n">
-        <v>2338.749210630336</v>
+        <v>2317.219163584274</v>
       </c>
       <c r="L21" t="n">
-        <v>2340.527653846154</v>
+        <v>2318.318776923076</v>
       </c>
       <c r="M21" t="n">
-        <v>1.041793841025083</v>
+        <v>0.3356098188223768</v>
       </c>
       <c r="N21" t="n">
-        <v>1.345557746484853</v>
+        <v>0.4964609434073241</v>
       </c>
       <c r="O21" t="n">
-        <v>1.751284099934316</v>
+        <v>2.688111171000605</v>
       </c>
       <c r="P21" t="n">
-        <v>0.03336153845975787</v>
+        <v>0.08046153845907611</v>
       </c>
       <c r="Q21" t="n">
-        <v>2344.391887381065</v>
+        <v>2323.447727003927</v>
       </c>
       <c r="R21" t="n">
-        <v>2338.163420311243</v>
+        <v>2314.689826842225</v>
       </c>
       <c r="S21" t="b">
         <v>1</v>
@@ -2720,29 +2722,29 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2346.94</v>
+        <v>2323.48</v>
       </c>
       <c r="V21" t="n">
-        <v>2336.05</v>
+        <v>2312.12</v>
       </c>
       <c r="W21" t="n">
-        <v>2341.94</v>
+        <v>2318.48</v>
       </c>
       <c r="X21" t="n">
-        <v>2342.64</v>
+        <v>2319.18</v>
       </c>
       <c r="Y21" t="b">
         <v>0</v>
       </c>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" s="2" t="n">
-        <v>45436.6875</v>
+        <v>45420.33333333334</v>
       </c>
       <c r="AB21" s="2" t="n">
-        <v>45436.68836805555</v>
+        <v>45421.64862268518</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>45436.64583333334</v>
+        <v>45419.83763888889</v>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
@@ -2753,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>-69.66</v>
+        <v>-78.15000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>436.0699999999998</v>
+        <v>675.62</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2767,25 +2769,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1768</v>
+        <v>2495</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45440.39583333334</v>
+        <v>45420.15625</v>
       </c>
       <c r="C22" t="n">
-        <v>2342.54</v>
+        <v>2313.77</v>
       </c>
       <c r="D22" t="n">
-        <v>2344.95</v>
+        <v>2314.84</v>
       </c>
       <c r="E22" t="n">
-        <v>2341.73</v>
+        <v>2313.71</v>
       </c>
       <c r="F22" t="n">
-        <v>2343.4</v>
+        <v>2314.15</v>
       </c>
       <c r="G22" t="n">
-        <v>2800</v>
+        <v>979</v>
       </c>
       <c r="H22" t="n">
         <v>27</v>
@@ -2794,31 +2796,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2348.630292079746</v>
+        <v>2314.720593077551</v>
       </c>
       <c r="K22" t="n">
-        <v>2350.243977205743</v>
+        <v>2314.828644837883</v>
       </c>
       <c r="L22" t="n">
-        <v>2348.378561538461</v>
+        <v>2315.017684615384</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.613685125996653</v>
+        <v>-0.06255322672404873</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.6349654931022042</v>
+        <v>0.05674139646835469</v>
       </c>
       <c r="O22" t="n">
-        <v>2.935055535886718</v>
+        <v>0.9226360790495933</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.125592307691022</v>
+        <v>0.08603076922963737</v>
       </c>
       <c r="Q22" t="n">
-        <v>2352.340886511908</v>
+        <v>2317.763243322101</v>
       </c>
       <c r="R22" t="n">
-        <v>2342.916236565014</v>
+        <v>2313.772125908667</v>
       </c>
       <c r="S22" t="b">
         <v>1</v>
@@ -2827,74 +2829,72 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2350.4</v>
+        <v>2321.15</v>
       </c>
       <c r="V22" t="n">
-        <v>2345.4</v>
+        <v>2311.71</v>
       </c>
       <c r="W22" t="n">
-        <v>2345.4</v>
+        <v>2316.15</v>
       </c>
       <c r="X22" t="n">
-        <v>2346.1</v>
+        <v>2316.85</v>
       </c>
       <c r="Y22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
-        <v>45440.625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z22" t="inlineStr"/>
       <c r="AA22" s="2" t="n">
-        <v>45440.625</v>
+        <v>45420.25</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>45440.63300925926</v>
+        <v>45420.35515046296</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>45441.49803240741</v>
+        <v>45420.18008101852</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>125.31</v>
+        <v>-43.73</v>
       </c>
       <c r="AG22" t="n">
-        <v>561.3799999999999</v>
+        <v>631.89</v>
       </c>
       <c r="AH22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1844</v>
+        <v>2500</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45441.22916666666</v>
+        <v>45420.20833333334</v>
       </c>
       <c r="C23" t="n">
-        <v>2359.71</v>
+        <v>2307.69</v>
       </c>
       <c r="D23" t="n">
-        <v>2360.79</v>
+        <v>2309.29</v>
       </c>
       <c r="E23" t="n">
-        <v>2357.87</v>
+        <v>2307.26</v>
       </c>
       <c r="F23" t="n">
-        <v>2358.41</v>
+        <v>2308.84</v>
       </c>
       <c r="G23" t="n">
-        <v>2010</v>
+        <v>2112</v>
       </c>
       <c r="H23" t="n">
         <v>27</v>
@@ -2903,81 +2903,81 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2358.232385767288</v>
+        <v>2312.159254162435</v>
       </c>
       <c r="K23" t="n">
-        <v>2358.029192192215</v>
+        <v>2313.42763101224</v>
       </c>
       <c r="L23" t="n">
-        <v>2357.950023076923</v>
+        <v>2312.412761538463</v>
       </c>
       <c r="M23" t="n">
-        <v>0.2031935750724188</v>
+        <v>-1.458184427322976</v>
       </c>
       <c r="N23" t="n">
-        <v>0.3663365437595501</v>
+        <v>-0.612750210784565</v>
       </c>
       <c r="O23" t="n">
-        <v>1.239999999516679</v>
+        <v>2.087308234956379</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.1311923076923449</v>
+        <v>-0.6988923076905849</v>
       </c>
       <c r="Q23" t="n">
-        <v>2359.624023076271</v>
+        <v>2315.230627655654</v>
       </c>
       <c r="R23" t="n">
-        <v>2354.776023077576</v>
+        <v>2308.094895421272</v>
       </c>
       <c r="S23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2351.41</v>
+        <v>2315.84</v>
       </c>
       <c r="V23" t="n">
-        <v>2356.41</v>
+        <v>2310.84</v>
       </c>
       <c r="W23" t="n">
-        <v>2356.41</v>
+        <v>2310.84</v>
       </c>
       <c r="X23" t="n">
-        <v>2355.71</v>
+        <v>2311.54</v>
       </c>
       <c r="Y23" t="b">
         <v>1</v>
       </c>
       <c r="Z23" s="2" t="n">
-        <v>45441.25</v>
+        <v>45420.23958333334</v>
       </c>
       <c r="AA23" s="2" t="n">
-        <v>45441.25</v>
+        <v>45420.23958333334</v>
       </c>
       <c r="AB23" s="2" t="n">
-        <v>45441.40065972223</v>
+        <v>45420.24600694444</v>
       </c>
       <c r="AC23" s="2" t="n">
-        <v>45441.25077546296</v>
+        <v>45420.44150462963</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE23" t="b">
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>35.8</v>
+        <v>125.46</v>
       </c>
       <c r="AG23" t="n">
-        <v>597.1799999999998</v>
+        <v>757.35</v>
       </c>
       <c r="AH23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
@@ -2985,25 +2985,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>2031</v>
+        <v>2524</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45443.26041666666</v>
+        <v>45420.45833333334</v>
       </c>
       <c r="C24" t="n">
-        <v>2338.48</v>
+        <v>2305.39</v>
       </c>
       <c r="D24" t="n">
-        <v>2340.12</v>
+        <v>2306.75</v>
       </c>
       <c r="E24" t="n">
-        <v>2336.95</v>
+        <v>2303.57</v>
       </c>
       <c r="F24" t="n">
-        <v>2339.59</v>
+        <v>2306.53</v>
       </c>
       <c r="G24" t="n">
-        <v>2243</v>
+        <v>2841</v>
       </c>
       <c r="H24" t="n">
         <v>27</v>
@@ -3012,31 +3012,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2343.179018216194</v>
+        <v>2312.275904226045</v>
       </c>
       <c r="K24" t="n">
-        <v>2343.558038383861</v>
+        <v>2313.936981001314</v>
       </c>
       <c r="L24" t="n">
-        <v>2343.979584615384</v>
+        <v>2313.406253846154</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.3790201676661127</v>
+        <v>-2.342005925576814</v>
       </c>
       <c r="N24" t="n">
-        <v>0.3694538984435957</v>
+        <v>-0.7883332169606524</v>
       </c>
       <c r="O24" t="n">
-        <v>2.062633833711566</v>
+        <v>4.090899452974837</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.7792692307712059</v>
+        <v>-1.711115384613549</v>
       </c>
       <c r="Q24" t="n">
-        <v>2346.764140290894</v>
+        <v>2318.92896810767</v>
       </c>
       <c r="R24" t="n">
-        <v>2339.695028939873</v>
+        <v>2306.383539584638</v>
       </c>
       <c r="S24" t="b">
         <v>1</v>
@@ -3045,48 +3045,48 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2346.59</v>
+        <v>2313.53</v>
       </c>
       <c r="V24" t="n">
-        <v>2341.59</v>
+        <v>2308.53</v>
       </c>
       <c r="W24" t="n">
-        <v>2341.59</v>
+        <v>2308.53</v>
       </c>
       <c r="X24" t="n">
-        <v>2342.29</v>
+        <v>2309.23</v>
       </c>
       <c r="Y24" t="b">
         <v>1</v>
       </c>
       <c r="Z24" s="2" t="n">
-        <v>45443.29166666666</v>
+        <v>45420.53125</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>45443.29166666666</v>
+        <v>45420.53125</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>45443.4137962963</v>
+        <v>45420.55322916667</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>45443.3134375</v>
+        <v>45420.67996527778</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE24" t="b">
         <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>35.8</v>
+        <v>125.46</v>
       </c>
       <c r="AG24" t="n">
-        <v>632.9799999999998</v>
+        <v>882.8100000000001</v>
       </c>
       <c r="AH24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI24" t="n">
         <v>0</v>
@@ -3094,25 +3094,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>2235</v>
+        <v>2615</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45447.46875</v>
+        <v>45421.44791666666</v>
       </c>
       <c r="C25" t="n">
-        <v>2335.05</v>
+        <v>2308.78</v>
       </c>
       <c r="D25" t="n">
-        <v>2337.02</v>
+        <v>2310.05</v>
       </c>
       <c r="E25" t="n">
-        <v>2334.74</v>
+        <v>2307.43</v>
       </c>
       <c r="F25" t="n">
-        <v>2335.1</v>
+        <v>2309.29</v>
       </c>
       <c r="G25" t="n">
-        <v>2898</v>
+        <v>2081</v>
       </c>
       <c r="H25" t="n">
         <v>27</v>
@@ -3121,31 +3121,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2342.067126489143</v>
+        <v>2312.689728294321</v>
       </c>
       <c r="K25" t="n">
-        <v>2344.605058295863</v>
+        <v>2312.758945912381</v>
       </c>
       <c r="L25" t="n">
-        <v>2342.214692307692</v>
+        <v>2314.461915384616</v>
       </c>
       <c r="M25" t="n">
-        <v>-2.53793180672028</v>
+        <v>-0.8173050660761874</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.133011740314576</v>
+        <v>0.3538432350459188</v>
       </c>
       <c r="O25" t="n">
-        <v>4.009961429397737</v>
+        <v>2.840875628111135</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.390276923075817</v>
+        <v>-0.6271769230775135</v>
       </c>
       <c r="Q25" t="n">
-        <v>2347.628140237378</v>
+        <v>2318.297097482566</v>
       </c>
       <c r="R25" t="n">
-        <v>2335.301244378005</v>
+        <v>2309.126733286666</v>
       </c>
       <c r="S25" t="b">
         <v>1</v>
@@ -3154,72 +3154,74 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>2342.1</v>
+        <v>2316.29</v>
       </c>
       <c r="V25" t="n">
-        <v>2332.74</v>
+        <v>2311.29</v>
       </c>
       <c r="W25" t="n">
-        <v>2337.1</v>
+        <v>2311.29</v>
       </c>
       <c r="X25" t="n">
-        <v>2337.8</v>
+        <v>2311.99</v>
       </c>
       <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z25" s="2" t="n">
+        <v>45421.48958333334</v>
+      </c>
       <c r="AA25" s="2" t="n">
-        <v>45448.33333333334</v>
+        <v>45421.48958333334</v>
       </c>
       <c r="AB25" s="2" t="n">
-        <v>45448.66273148148</v>
+        <v>45421.61857638889</v>
       </c>
       <c r="AC25" s="2" t="n">
-        <v>45447.49726851852</v>
+        <v>45421.49377314815</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>-42.26</v>
+        <v>35.84</v>
       </c>
       <c r="AG25" t="n">
-        <v>590.7199999999998</v>
+        <v>918.6500000000001</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>2299</v>
+        <v>2635</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45448.17708333334</v>
+        <v>45421.65625</v>
       </c>
       <c r="C26" t="n">
-        <v>2327.03</v>
+        <v>2327.42</v>
       </c>
       <c r="D26" t="n">
-        <v>2327.62</v>
+        <v>2329.24</v>
       </c>
       <c r="E26" t="n">
-        <v>2325.86</v>
+        <v>2325.34</v>
       </c>
       <c r="F26" t="n">
-        <v>2327.57</v>
+        <v>2326.61</v>
       </c>
       <c r="G26" t="n">
-        <v>1536</v>
+        <v>3484</v>
       </c>
       <c r="H26" t="n">
         <v>27</v>
@@ -3228,64 +3230,62 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2327.899601131568</v>
+        <v>2317.320836596942</v>
       </c>
       <c r="K26" t="n">
-        <v>2327.770491938504</v>
+        <v>2314.667908206249</v>
       </c>
       <c r="L26" t="n">
-        <v>2328.197076923077</v>
+        <v>2317.251553846154</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1291091930634138</v>
+        <v>3.367646437186977</v>
       </c>
       <c r="N26" t="n">
-        <v>0.116629672202005</v>
+        <v>1.302476894382021</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7919210809715667</v>
+        <v>4.906704698783318</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01968461538581323</v>
+        <v>2.114715384616375</v>
       </c>
       <c r="Q26" t="n">
-        <v>2330.766170382389</v>
+        <v>2325.375605189512</v>
       </c>
       <c r="R26" t="n">
-        <v>2327.127983463765</v>
+        <v>2310.627502502796</v>
       </c>
       <c r="S26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>2334.57</v>
+        <v>2319.61</v>
       </c>
       <c r="V26" t="n">
-        <v>2329.57</v>
+        <v>2331.24</v>
       </c>
       <c r="W26" t="n">
-        <v>2329.57</v>
+        <v>2324.61</v>
       </c>
       <c r="X26" t="n">
-        <v>2330.27</v>
+        <v>2323.91</v>
       </c>
       <c r="Y26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="2" t="n">
-        <v>45448.20833333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z26" t="inlineStr"/>
       <c r="AA26" s="2" t="n">
-        <v>45448.20833333334</v>
+        <v>45421.67708333334</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>45448.25472222222</v>
+        <v>45421.67392361111</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>45448.38762731481</v>
+        <v>45421.7149537037</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3296,13 +3296,13 @@
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>125.31</v>
+        <v>125.44</v>
       </c>
       <c r="AG26" t="n">
-        <v>716.0299999999997</v>
+        <v>1044.09</v>
       </c>
       <c r="AH26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI26" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>2511</v>
+        <v>2831</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45450.46875</v>
+        <v>45425.78125</v>
       </c>
       <c r="C27" t="n">
-        <v>2351.2</v>
+        <v>2333.54</v>
       </c>
       <c r="D27" t="n">
-        <v>2357.55</v>
+        <v>2335.94</v>
       </c>
       <c r="E27" t="n">
-        <v>2350.81</v>
+        <v>2333.34</v>
       </c>
       <c r="F27" t="n">
-        <v>2352.39</v>
+        <v>2335.88</v>
       </c>
       <c r="G27" t="n">
-        <v>3452</v>
+        <v>1998</v>
       </c>
       <c r="H27" t="n">
         <v>27</v>
@@ -3337,31 +3337,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2369.331859790674</v>
+        <v>2339.734497096699</v>
       </c>
       <c r="K27" t="n">
-        <v>2373.227240878358</v>
+        <v>2342.423507357395</v>
       </c>
       <c r="L27" t="n">
-        <v>2369.91743076923</v>
+        <v>2340.425176923078</v>
       </c>
       <c r="M27" t="n">
-        <v>-3.895381087683745</v>
+        <v>-2.524507998196896</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.9236006766582419</v>
+        <v>-1.337577466516001</v>
       </c>
       <c r="O27" t="n">
-        <v>8.379346275146146</v>
+        <v>3.857249754260618</v>
       </c>
       <c r="P27" t="n">
-        <v>-3.79126153846164</v>
+        <v>-1.054376923077143</v>
       </c>
       <c r="Q27" t="n">
-        <v>2381.229548240677</v>
+        <v>2345.632464091329</v>
       </c>
       <c r="R27" t="n">
-        <v>2357.105313297782</v>
+        <v>2333.717889754826</v>
       </c>
       <c r="S27" t="b">
         <v>1</v>
@@ -3370,72 +3370,74 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2359.39</v>
+        <v>2342.88</v>
       </c>
       <c r="V27" t="n">
-        <v>2348.81</v>
+        <v>2337.88</v>
       </c>
       <c r="W27" t="n">
-        <v>2354.39</v>
+        <v>2337.88</v>
       </c>
       <c r="X27" t="n">
-        <v>2355.09</v>
+        <v>2338.58</v>
       </c>
       <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z27" s="2" t="n">
+        <v>45426.13541666666</v>
+      </c>
       <c r="AA27" s="2" t="n">
-        <v>45463.72916666666</v>
+        <v>45426.13541666666</v>
       </c>
       <c r="AB27" s="2" t="n">
-        <v>45463.73726851852</v>
+        <v>45426.20903935185</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>45450.48311342593</v>
+        <v>45426.14709490741</v>
       </c>
       <c r="AD27" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>-64.09999999999999</v>
+        <v>35.83</v>
       </c>
       <c r="AG27" t="n">
-        <v>651.9299999999997</v>
+        <v>1079.92</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>2807</v>
+        <v>2897</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45455.67708333334</v>
+        <v>45426.51041666666</v>
       </c>
       <c r="C28" t="n">
-        <v>2340.62</v>
+        <v>2347.11</v>
       </c>
       <c r="D28" t="n">
-        <v>2340.96</v>
+        <v>2348.16</v>
       </c>
       <c r="E28" t="n">
-        <v>2335.86</v>
+        <v>2345.49</v>
       </c>
       <c r="F28" t="n">
-        <v>2340.34</v>
+        <v>2346.58</v>
       </c>
       <c r="G28" t="n">
-        <v>4307</v>
+        <v>2463</v>
       </c>
       <c r="H28" t="n">
         <v>27</v>
@@ -3444,31 +3446,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2325.12480764496</v>
+        <v>2342.253829078659</v>
       </c>
       <c r="K28" t="n">
-        <v>2319.774762935216</v>
+        <v>2341.498033121071</v>
       </c>
       <c r="L28" t="n">
-        <v>2325.657423076924</v>
+        <v>2340.954153846153</v>
       </c>
       <c r="M28" t="n">
-        <v>5.350044709743997</v>
+        <v>1.094322046526941</v>
       </c>
       <c r="N28" t="n">
-        <v>2.156742127260711</v>
+        <v>0.002927740927920724</v>
       </c>
       <c r="O28" t="n">
-        <v>8.922520439803591</v>
+        <v>2.908169642019661</v>
       </c>
       <c r="P28" t="n">
-        <v>3.32828461538611</v>
+        <v>0.6245307692297501</v>
       </c>
       <c r="Q28" t="n">
-        <v>2339.202825670659</v>
+        <v>2346.38018286288</v>
       </c>
       <c r="R28" t="n">
-        <v>2313.61202048319</v>
+        <v>2337.028124829426</v>
       </c>
       <c r="S28" t="b">
         <v>0</v>
@@ -3477,46 +3479,48 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>2333.34</v>
+        <v>2339.58</v>
       </c>
       <c r="V28" t="n">
-        <v>2342.96</v>
+        <v>2344.58</v>
       </c>
       <c r="W28" t="n">
-        <v>2338.34</v>
+        <v>2344.58</v>
       </c>
       <c r="X28" t="n">
-        <v>2337.64</v>
+        <v>2343.88</v>
       </c>
       <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" s="2" t="n">
+        <v>45426.60416666666</v>
+      </c>
       <c r="AA28" s="2" t="n">
-        <v>45455.69791666666</v>
+        <v>45426.60416666666</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>45455.68951388889</v>
+        <v>45426.64584490741</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>45463.35839120371</v>
+        <v>45426.62665509259</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AE28" t="b">
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>125.31</v>
+        <v>35.81</v>
       </c>
       <c r="AG28" t="n">
-        <v>777.2399999999998</v>
+        <v>1115.73</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
         <v>0</v>
@@ -3524,25 +3528,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>2832</v>
+        <v>3233</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45455.9375</v>
+        <v>45432.17708333334</v>
       </c>
       <c r="C29" t="n">
-        <v>2316.58</v>
+        <v>2434.12</v>
       </c>
       <c r="D29" t="n">
-        <v>2319.55</v>
+        <v>2434.13</v>
       </c>
       <c r="E29" t="n">
-        <v>2315.79</v>
+        <v>2426.35</v>
       </c>
       <c r="F29" t="n">
-        <v>2318.99</v>
+        <v>2433.1</v>
       </c>
       <c r="G29" t="n">
-        <v>2920</v>
+        <v>4198</v>
       </c>
       <c r="H29" t="n">
         <v>27</v>
@@ -3551,107 +3555,105 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2325.811121712777</v>
+        <v>2424.020299839164</v>
       </c>
       <c r="K29" t="n">
-        <v>2326.911373393169</v>
+        <v>2419.219891097793</v>
       </c>
       <c r="L29" t="n">
-        <v>2327.55993846154</v>
+        <v>2424.907876923079</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.100251680391921</v>
+        <v>4.00255412884917</v>
       </c>
       <c r="N29" t="n">
-        <v>1.327221125073226</v>
+        <v>2.494901628530274</v>
       </c>
       <c r="O29" t="n">
-        <v>6.196444733234181</v>
+        <v>5.006191998992139</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.8898769230750077</v>
+        <v>1.727500000002692</v>
       </c>
       <c r="Q29" t="n">
-        <v>2335.925138851406</v>
+        <v>2433.166236121718</v>
       </c>
       <c r="R29" t="n">
-        <v>2317.694738071674</v>
+        <v>2418.149517724439</v>
       </c>
       <c r="S29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>2325.99</v>
+        <v>2426.1</v>
       </c>
       <c r="V29" t="n">
-        <v>2320.99</v>
+        <v>2436.13</v>
       </c>
       <c r="W29" t="n">
-        <v>2320.99</v>
+        <v>2431.1</v>
       </c>
       <c r="X29" t="n">
-        <v>2321.69</v>
+        <v>2430.4</v>
       </c>
       <c r="Y29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="2" t="n">
-        <v>45455.96875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z29" t="inlineStr"/>
       <c r="AA29" s="2" t="n">
-        <v>45455.96875</v>
+        <v>45432.61458333334</v>
       </c>
       <c r="AB29" s="2" t="n">
-        <v>45456.65079861111</v>
+        <v>45432.62726851852</v>
       </c>
       <c r="AC29" s="2" t="n">
-        <v>45456.09047453704</v>
+        <v>45432.21189814815</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>35.8</v>
+        <v>-54.27</v>
       </c>
       <c r="AG29" t="n">
-        <v>813.0399999999997</v>
+        <v>1061.46</v>
       </c>
       <c r="AH29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>2893</v>
+        <v>3329</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45456.61458333334</v>
+        <v>45433.21875</v>
       </c>
       <c r="C30" t="n">
-        <v>2306.5</v>
+        <v>2417.91</v>
       </c>
       <c r="D30" t="n">
-        <v>2307.54</v>
+        <v>2421.2</v>
       </c>
       <c r="E30" t="n">
-        <v>2303.89</v>
+        <v>2417.81</v>
       </c>
       <c r="F30" t="n">
-        <v>2306.97</v>
+        <v>2418.64</v>
       </c>
       <c r="G30" t="n">
-        <v>2642</v>
+        <v>1913</v>
       </c>
       <c r="H30" t="n">
         <v>27</v>
@@ -3660,31 +3662,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2312.933602987801</v>
+        <v>2424.40306686498</v>
       </c>
       <c r="K30" t="n">
-        <v>2314.180530801013</v>
+        <v>2426.110553714956</v>
       </c>
       <c r="L30" t="n">
-        <v>2313.951284615385</v>
+        <v>2424.373769230769</v>
       </c>
       <c r="M30" t="n">
-        <v>-1.246927813211641</v>
+        <v>-2.001421059119821</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.2043846081931048</v>
+        <v>-0.8105035948067714</v>
       </c>
       <c r="O30" t="n">
-        <v>3.10938943610918</v>
+        <v>3.225408914207172</v>
       </c>
       <c r="P30" t="n">
-        <v>-1.39489999999978</v>
+        <v>-0.7138230769246547</v>
       </c>
       <c r="Q30" t="n">
-        <v>2318.148960354132</v>
+        <v>2428.728071264949</v>
       </c>
       <c r="R30" t="n">
-        <v>2308.253608876637</v>
+        <v>2418.519467196589</v>
       </c>
       <c r="S30" t="b">
         <v>1</v>
@@ -3693,72 +3695,72 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>2313.97</v>
+        <v>2425.64</v>
       </c>
       <c r="V30" t="n">
-        <v>2301.89</v>
+        <v>2415.81</v>
       </c>
       <c r="W30" t="n">
-        <v>2308.97</v>
+        <v>2420.64</v>
       </c>
       <c r="X30" t="n">
-        <v>2309.67</v>
+        <v>2421.34</v>
       </c>
       <c r="Y30" t="b">
         <v>0</v>
       </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" s="2" t="n">
-        <v>45456.65625</v>
+        <v>45433.44791666666</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>45456.64590277777</v>
+        <v>45433.63902777778</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>45456.78328703704</v>
+        <v>45433.23583333333</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>125.31</v>
+        <v>-50.69</v>
       </c>
       <c r="AG30" t="n">
-        <v>938.3499999999997</v>
+        <v>1010.77</v>
       </c>
       <c r="AH30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2939</v>
+        <v>3351</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45457.13541666666</v>
+        <v>45433.44791666666</v>
       </c>
       <c r="C31" t="n">
-        <v>2301.53</v>
+        <v>2421.73</v>
       </c>
       <c r="D31" t="n">
-        <v>2303.67</v>
+        <v>2422.1</v>
       </c>
       <c r="E31" t="n">
-        <v>2301.5</v>
+        <v>2417.51</v>
       </c>
       <c r="F31" t="n">
-        <v>2303.37</v>
+        <v>2419.15</v>
       </c>
       <c r="G31" t="n">
-        <v>713</v>
+        <v>2655</v>
       </c>
       <c r="H31" t="n">
         <v>27</v>
@@ -3767,64 +3769,64 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2302.763747419072</v>
+        <v>2416.386069703454</v>
       </c>
       <c r="K31" t="n">
-        <v>2303.556664570057</v>
+        <v>2417.349284276495</v>
       </c>
       <c r="L31" t="n">
-        <v>2303.079407692308</v>
+        <v>2415.54406923077</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.7929171509854314</v>
+        <v>0.3847014664947892</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.9791458296151492</v>
+        <v>-0.8146367736134597</v>
       </c>
       <c r="O31" t="n">
-        <v>0.8347804094641746</v>
+        <v>2.805595777039912</v>
       </c>
       <c r="P31" t="n">
-        <v>0.08634615384698918</v>
+        <v>1.406438461537618</v>
       </c>
       <c r="Q31" t="n">
-        <v>2305.706361245084</v>
+        <v>2420.831623529774</v>
       </c>
       <c r="R31" t="n">
-        <v>2301.952454139531</v>
+        <v>2411.756514931767</v>
       </c>
       <c r="S31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>2310.37</v>
+        <v>2412.15</v>
       </c>
       <c r="V31" t="n">
-        <v>2305.37</v>
+        <v>2417.15</v>
       </c>
       <c r="W31" t="n">
-        <v>2305.37</v>
+        <v>2417.15</v>
       </c>
       <c r="X31" t="n">
-        <v>2306.07</v>
+        <v>2416.45</v>
       </c>
       <c r="Y31" t="b">
         <v>1</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>45457.17708333334</v>
+        <v>45433.47916666666</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>45457.17708333334</v>
+        <v>45433.47916666666</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>45457.35988425926</v>
+        <v>45433.52934027778</v>
       </c>
       <c r="AC31" s="2" t="n">
-        <v>45457.18391203704</v>
+        <v>45433.48001157407</v>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
@@ -3835,13 +3837,13 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>35.8</v>
+        <v>35.81</v>
       </c>
       <c r="AG31" t="n">
-        <v>974.1499999999996</v>
+        <v>1046.58</v>
       </c>
       <c r="AH31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -3849,25 +3851,25 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3088</v>
+        <v>3386</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45460.72916666666</v>
+        <v>45433.8125</v>
       </c>
       <c r="C32" t="n">
-        <v>2326.01</v>
+        <v>2419.32</v>
       </c>
       <c r="D32" t="n">
-        <v>2327.55</v>
+        <v>2421.87</v>
       </c>
       <c r="E32" t="n">
-        <v>2323.85</v>
+        <v>2419.32</v>
       </c>
       <c r="F32" t="n">
-        <v>2324.94</v>
+        <v>2421.04</v>
       </c>
       <c r="G32" t="n">
-        <v>2918</v>
+        <v>2496</v>
       </c>
       <c r="H32" t="n">
         <v>27</v>
@@ -3876,107 +3878,105 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2321.940928727309</v>
+        <v>2424.074463513182</v>
       </c>
       <c r="K32" t="n">
-        <v>2321.318812599215</v>
+        <v>2423.709672519888</v>
       </c>
       <c r="L32" t="n">
-        <v>2321.773776923076</v>
+        <v>2426.516546153845</v>
       </c>
       <c r="M32" t="n">
-        <v>0.6221161280941487</v>
+        <v>-0.9065671424368702</v>
       </c>
       <c r="N32" t="n">
-        <v>0.04323554846195521</v>
+        <v>0.6507420979368967</v>
       </c>
       <c r="O32" t="n">
-        <v>1.975972587204874</v>
+        <v>4.026630394083747</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5866769230729005</v>
+        <v>-1.040876923076667</v>
       </c>
       <c r="Q32" t="n">
-        <v>2325.941339915802</v>
+        <v>2431.952497185859</v>
       </c>
       <c r="R32" t="n">
-        <v>2319.106213930349</v>
+        <v>2419.580595121832</v>
       </c>
       <c r="S32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2317.94</v>
+        <v>2428.04</v>
       </c>
       <c r="V32" t="n">
-        <v>2322.94</v>
+        <v>2417.32</v>
       </c>
       <c r="W32" t="n">
-        <v>2322.94</v>
+        <v>2423.04</v>
       </c>
       <c r="X32" t="n">
-        <v>2322.24</v>
+        <v>2423.74</v>
       </c>
       <c r="Y32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="2" t="n">
-        <v>45460.77083333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z32" t="inlineStr"/>
       <c r="AA32" s="2" t="n">
-        <v>45460.77083333334</v>
+        <v>45433.9375</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>45460.77172453704</v>
+        <v>132320.9911673006</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>45461.12627314815</v>
+        <v>45433.87665509259</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>125.33</v>
+        <v>-66.63</v>
       </c>
       <c r="AG32" t="n">
-        <v>1099.48</v>
+        <v>979.9499999999999</v>
       </c>
       <c r="AH32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3093</v>
+        <v>3421</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45460.78125</v>
+        <v>45434.21875</v>
       </c>
       <c r="C33" t="n">
-        <v>2311.39</v>
+        <v>2425.37</v>
       </c>
       <c r="D33" t="n">
-        <v>2313.16</v>
+        <v>2425.79</v>
       </c>
       <c r="E33" t="n">
-        <v>2309.9</v>
+        <v>2423.65</v>
       </c>
       <c r="F33" t="n">
-        <v>2312.48</v>
+        <v>2424.01</v>
       </c>
       <c r="G33" t="n">
-        <v>3206</v>
+        <v>1019</v>
       </c>
       <c r="H33" t="n">
         <v>27</v>
@@ -3985,81 +3985,79 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2319.128944182793</v>
+        <v>2422.295317469569</v>
       </c>
       <c r="K33" t="n">
-        <v>2320.130699616996</v>
+        <v>2422.04339074586</v>
       </c>
       <c r="L33" t="n">
-        <v>2319.686092307691</v>
+        <v>2421.883007692308</v>
       </c>
       <c r="M33" t="n">
-        <v>-1.001755434202551</v>
+        <v>0.4670005635753114</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.04763322444520954</v>
+        <v>0.04875833840295644</v>
       </c>
       <c r="O33" t="n">
-        <v>3.317064063101372</v>
+        <v>1.24890325110838</v>
       </c>
       <c r="P33" t="n">
-        <v>-1.201876923078999</v>
+        <v>0.3804076923056527</v>
       </c>
       <c r="Q33" t="n">
-        <v>2324.164128792878</v>
+        <v>2425.069027081304</v>
       </c>
       <c r="R33" t="n">
-        <v>2313.708055822504</v>
+        <v>2420.196988303312</v>
       </c>
       <c r="S33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>2319.48</v>
+        <v>2417.01</v>
       </c>
       <c r="V33" t="n">
-        <v>2314.48</v>
+        <v>2427.79</v>
       </c>
       <c r="W33" t="n">
-        <v>2314.48</v>
+        <v>2422.01</v>
       </c>
       <c r="X33" t="n">
-        <v>2315.18</v>
+        <v>2421.31</v>
       </c>
       <c r="Y33" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="2" t="n">
-        <v>45460.83333333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z33" t="inlineStr"/>
       <c r="AA33" s="2" t="n">
-        <v>45460.83333333334</v>
+        <v>45434.25</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>45460.92664351852</v>
+        <v>45434.24451388889</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>45460.8528125</v>
+        <v>132320.9911673006</v>
       </c>
       <c r="AD33" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AE33" t="b">
         <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>35.81</v>
+        <v>-67.70999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>1135.29</v>
+        <v>912.2399999999999</v>
       </c>
       <c r="AH33" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AI33" t="n">
         <v>0</v>
@@ -4067,25 +4065,25 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3299</v>
+        <v>3424</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45463.19791666666</v>
+        <v>45434.25</v>
       </c>
       <c r="C34" t="n">
-        <v>2337.39</v>
+        <v>2417.72</v>
       </c>
       <c r="D34" t="n">
-        <v>2337.83</v>
+        <v>2419.5</v>
       </c>
       <c r="E34" t="n">
-        <v>2335.97</v>
+        <v>2417.23</v>
       </c>
       <c r="F34" t="n">
-        <v>2336.24</v>
+        <v>2418.97</v>
       </c>
       <c r="G34" t="n">
-        <v>2188</v>
+        <v>1780</v>
       </c>
       <c r="H34" t="n">
         <v>27</v>
@@ -4094,107 +4092,105 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2332.06449840013</v>
+        <v>2421.141878721891</v>
       </c>
       <c r="K34" t="n">
-        <v>2330.653985574069</v>
+        <v>2421.508344276993</v>
       </c>
       <c r="L34" t="n">
-        <v>2332.213892307692</v>
+        <v>2421.264923076923</v>
       </c>
       <c r="M34" t="n">
-        <v>1.410512826060767</v>
+        <v>-0.469240116551191</v>
       </c>
       <c r="N34" t="n">
-        <v>0.6305781392599688</v>
+        <v>-0.06259688455993737</v>
       </c>
       <c r="O34" t="n">
-        <v>2.413959609998507</v>
+        <v>1.443520233309621</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6035923076915424</v>
+        <v>-0.2730846153831408</v>
       </c>
       <c r="Q34" t="n">
-        <v>2336.97273778119</v>
+        <v>2423.21367539189</v>
       </c>
       <c r="R34" t="n">
-        <v>2328.955046834194</v>
+        <v>2417.816170761955</v>
       </c>
       <c r="S34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2329.24</v>
+        <v>2425.97</v>
       </c>
       <c r="V34" t="n">
-        <v>2334.24</v>
+        <v>2415.23</v>
       </c>
       <c r="W34" t="n">
-        <v>2334.24</v>
+        <v>2420.97</v>
       </c>
       <c r="X34" t="n">
-        <v>2333.54</v>
+        <v>2421.67</v>
       </c>
       <c r="Y34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="2" t="n">
-        <v>45463.26041666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="Z34" t="inlineStr"/>
       <c r="AA34" s="2" t="n">
-        <v>45463.26041666666</v>
+        <v>132320.9911673006</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>132320.9911673006</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>45463.26679398148</v>
+        <v>45434.28174768519</v>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>35.81</v>
+        <v>-66.98999999999999</v>
       </c>
       <c r="AG34" t="n">
-        <v>1171.099999999999</v>
+        <v>845.2499999999999</v>
       </c>
       <c r="AH34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3392</v>
+        <v>3644</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45464.20833333334</v>
+        <v>45436.625</v>
       </c>
       <c r="C35" t="n">
-        <v>2359.53</v>
+        <v>2338.16</v>
       </c>
       <c r="D35" t="n">
-        <v>2361.53</v>
+        <v>2340.78</v>
       </c>
       <c r="E35" t="n">
-        <v>2358.97</v>
+        <v>2338.05</v>
       </c>
       <c r="F35" t="n">
-        <v>2361.47</v>
+        <v>2339.94</v>
       </c>
       <c r="G35" t="n">
-        <v>1566</v>
+        <v>2506</v>
       </c>
       <c r="H35" t="n">
         <v>27</v>
@@ -4203,83 +4199,1599 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
+        <v>2339.791004471361</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2338.749210630336</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2340.527653846154</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.4049875945852364</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.7943447047393726</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.751284100107725</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.03336153845975787</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2344.3918873813</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2338.163420311008</v>
+      </c>
+      <c r="S35" t="b">
+        <v>1</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2346.94</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2336.05</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2341.94</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2342.64</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" s="2" t="n">
+        <v>45436.6875</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>45436.68836805555</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>45436.64583333334</v>
+      </c>
+      <c r="AD35" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-69.67</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>775.5799999999999</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>3792</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45440.39583333334</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2342.54</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2344.95</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2341.73</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2343.4</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2800</v>
+      </c>
+      <c r="H36" t="n">
+        <v>27</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2348.630292079746</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2350.243977205743</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2348.378561538461</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-1.979984219820835</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.8643912514814558</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2.935055535937489</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-1.125592307691022</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2352.340886511976</v>
+      </c>
+      <c r="R36" t="n">
+        <v>2342.916236564945</v>
+      </c>
+      <c r="S36" t="b">
+        <v>1</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2350.4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2345.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2345.4</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2346.1</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="2" t="n">
+        <v>45440.625</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>45440.625</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>45440.63300925926</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>45441.49803240741</v>
+      </c>
+      <c r="AD36" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>125.35</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>900.9299999999999</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>3868</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45441.22916666666</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2359.71</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2360.79</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2357.87</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2358.41</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2358.232385767288</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2358.029192192215</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2357.950023076923</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.04703156682626286</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.06707938754455564</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.239999999568109</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.1311923076923449</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2359.62402307634</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2354.776023077506</v>
+      </c>
+      <c r="S37" t="b">
+        <v>0</v>
+      </c>
+      <c r="T37" t="b">
+        <v>1</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2351.41</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2356.41</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2356.41</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2355.71</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="2" t="n">
+        <v>45441.25</v>
+      </c>
+      <c r="AA37" s="2" t="n">
+        <v>45441.25</v>
+      </c>
+      <c r="AB37" s="2" t="n">
+        <v>45441.40065972223</v>
+      </c>
+      <c r="AC37" s="2" t="n">
+        <v>45441.25077546296</v>
+      </c>
+      <c r="AD37" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>936.74</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>4055</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45443.26041666666</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2338.48</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2340.12</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2336.95</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2339.59</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2243</v>
+      </c>
+      <c r="H38" t="n">
+        <v>27</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2343.179018216194</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2343.558038383861</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2343.979584615384</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.9428923409550407</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.05938216378550859</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2.062633833825092</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.7792692307712059</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2346.764140291048</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2339.69502893972</v>
+      </c>
+      <c r="S38" t="b">
+        <v>1</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2346.59</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2341.59</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2341.59</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2342.29</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="2" t="n">
+        <v>45443.29166666666</v>
+      </c>
+      <c r="AA38" s="2" t="n">
+        <v>45443.29166666666</v>
+      </c>
+      <c r="AB38" s="2" t="n">
+        <v>45443.4137962963</v>
+      </c>
+      <c r="AC38" s="2" t="n">
+        <v>45443.3134375</v>
+      </c>
+      <c r="AD38" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>35.81</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>972.55</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>4259</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45447.46875</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2335.05</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2337.02</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2334.74</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2335.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2898</v>
+      </c>
+      <c r="H39" t="n">
+        <v>27</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2342.067126489143</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2344.605058295863</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2342.214692307692</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-2.979023422370119</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-1.437803480810513</v>
+      </c>
+      <c r="O39" t="n">
+        <v>4.009961429450132</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-1.390276923075817</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2347.628140237449</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2335.301244377934</v>
+      </c>
+      <c r="S39" t="b">
+        <v>1</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2342.1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2332.74</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2337.1</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2337.8</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" s="2" t="n">
+        <v>45448.33333333334</v>
+      </c>
+      <c r="AB39" s="2" t="n">
+        <v>45448.66273148148</v>
+      </c>
+      <c r="AC39" s="2" t="n">
+        <v>45447.49726851852</v>
+      </c>
+      <c r="AD39" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>-42.27</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>930.28</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>4323</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45448.17708333334</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2327.03</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2327.62</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2325.86</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2327.57</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1536</v>
+      </c>
+      <c r="H40" t="n">
+        <v>27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2327.899601131568</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2327.770491938504</v>
+      </c>
+      <c r="L40" t="n">
+        <v>2328.197076923077</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.1255294227153172</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.2660225415082061</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.7919210815940934</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.01968461538581323</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2330.766170383229</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2327.127983462925</v>
+      </c>
+      <c r="S40" t="b">
+        <v>1</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2334.57</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2329.57</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2329.57</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2330.27</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="2" t="n">
+        <v>45448.20833333334</v>
+      </c>
+      <c r="AA40" s="2" t="n">
+        <v>45448.20833333334</v>
+      </c>
+      <c r="AB40" s="2" t="n">
+        <v>45448.25472222222</v>
+      </c>
+      <c r="AC40" s="2" t="n">
+        <v>45448.38762731481</v>
+      </c>
+      <c r="AD40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>125.34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>1055.62</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>4535</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45450.46875</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2351.2</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2357.55</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2350.81</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2352.39</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3452</v>
+      </c>
+      <c r="H41" t="n">
+        <v>27</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2369.331859790674</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2373.227240878358</v>
+      </c>
+      <c r="L41" t="n">
+        <v>2369.91743076923</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-5.325328477326821</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-1.896610695098111</v>
+      </c>
+      <c r="O41" t="n">
+        <v>8.379346275100925</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-3.79126153846164</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2381.229548240616</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2357.105313297844</v>
+      </c>
+      <c r="S41" t="b">
+        <v>1</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2359.39</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2348.81</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2354.39</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2355.09</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" s="2" t="n">
+        <v>45463.72916666666</v>
+      </c>
+      <c r="AB41" s="2" t="n">
+        <v>45463.73726851852</v>
+      </c>
+      <c r="AC41" s="2" t="n">
+        <v>45450.48311342593</v>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>-64.12</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>991.4999999999999</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>4831</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45455.67708333334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2340.62</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2340.96</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2335.86</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2340.34</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4307</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2325.12480764496</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2319.774762935216</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2325.657423076924</v>
+      </c>
+      <c r="M42" t="n">
+        <v>6.459048719059865</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.769285846599051</v>
+      </c>
+      <c r="O42" t="n">
+        <v>8.922520439849807</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.32828461538611</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2339.202825670722</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2313.612020483127</v>
+      </c>
+      <c r="S42" t="b">
+        <v>0</v>
+      </c>
+      <c r="T42" t="b">
+        <v>1</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2333.34</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2342.96</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2338.34</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2337.64</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" s="2" t="n">
+        <v>45455.69791666666</v>
+      </c>
+      <c r="AB42" s="2" t="n">
+        <v>45455.68951388889</v>
+      </c>
+      <c r="AC42" s="2" t="n">
+        <v>45463.35839120371</v>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>125.35</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>1116.85</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>4856</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45455.9375</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2316.58</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2319.55</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2315.79</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2318.99</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2920</v>
+      </c>
+      <c r="H43" t="n">
+        <v>27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2325.811121712777</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2326.911373393169</v>
+      </c>
+      <c r="L43" t="n">
+        <v>2327.55993846154</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-3.006284366185355</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.5340738717826864</v>
+      </c>
+      <c r="O43" t="n">
+        <v>6.196444733272796</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.8898769230750077</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2335.925138851459</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2317.694738071622</v>
+      </c>
+      <c r="S43" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2325.99</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2320.99</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2320.99</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2321.69</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="2" t="n">
+        <v>45455.96875</v>
+      </c>
+      <c r="AA43" s="2" t="n">
+        <v>45455.96875</v>
+      </c>
+      <c r="AB43" s="2" t="n">
+        <v>45456.65079861111</v>
+      </c>
+      <c r="AC43" s="2" t="n">
+        <v>45456.09047453704</v>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1152.67</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>4917</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45456.61458333334</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2306.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2307.54</v>
+      </c>
+      <c r="E44" t="n">
+        <v>2303.89</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2306.97</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2642</v>
+      </c>
+      <c r="H44" t="n">
+        <v>27</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2312.933602987801</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2314.180530801013</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2313.951284615385</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-1.741288112980328</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.2563305371151101</v>
+      </c>
+      <c r="O44" t="n">
+        <v>3.109389436254302</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-1.39489999999978</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2318.148960354328</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2308.253608876441</v>
+      </c>
+      <c r="S44" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2313.97</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2301.89</v>
+      </c>
+      <c r="W44" t="n">
+        <v>2308.97</v>
+      </c>
+      <c r="X44" t="n">
+        <v>2309.67</v>
+      </c>
+      <c r="Y44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" s="2" t="n">
+        <v>45456.65625</v>
+      </c>
+      <c r="AB44" s="2" t="n">
+        <v>45456.64590277777</v>
+      </c>
+      <c r="AC44" s="2" t="n">
+        <v>45456.78328703704</v>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE44" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>125.36</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1278.03</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>4963</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45457.13541666666</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2301.53</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2303.67</v>
+      </c>
+      <c r="E45" t="n">
+        <v>2301.5</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2303.37</v>
+      </c>
+      <c r="G45" t="n">
+        <v>713</v>
+      </c>
+      <c r="H45" t="n">
+        <v>27</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2302.763747419072</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2303.556664570057</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2303.079407692308</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.3045402967672999</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.3560963243583111</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.8347804102476358</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.08634615384698918</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2305.706361246142</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2301.952454138473</v>
+      </c>
+      <c r="S45" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2310.37</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2305.37</v>
+      </c>
+      <c r="W45" t="n">
+        <v>2305.37</v>
+      </c>
+      <c r="X45" t="n">
+        <v>2306.07</v>
+      </c>
+      <c r="Y45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>45457.17708333334</v>
+      </c>
+      <c r="AA45" s="2" t="n">
+        <v>45457.17708333334</v>
+      </c>
+      <c r="AB45" s="2" t="n">
+        <v>45457.35988425926</v>
+      </c>
+      <c r="AC45" s="2" t="n">
+        <v>45457.18391203704</v>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE45" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1313.85</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>5112</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45460.72916666666</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2326.01</v>
+      </c>
+      <c r="D46" t="n">
+        <v>2327.55</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2323.85</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2324.94</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2918</v>
+      </c>
+      <c r="H46" t="n">
+        <v>27</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2321.940928727309</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2321.318812599215</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2321.773776923076</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.9667711367301308</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.362090406487505</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.975972587382254</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.5866769230729005</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2325.941339916042</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2319.10621393011</v>
+      </c>
+      <c r="S46" t="b">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2317.94</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2322.94</v>
+      </c>
+      <c r="W46" t="n">
+        <v>2322.94</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2322.24</v>
+      </c>
+      <c r="Y46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z46" s="2" t="n">
+        <v>45460.77083333334</v>
+      </c>
+      <c r="AA46" s="2" t="n">
+        <v>45460.77083333334</v>
+      </c>
+      <c r="AB46" s="2" t="n">
+        <v>45460.77172453704</v>
+      </c>
+      <c r="AC46" s="2" t="n">
+        <v>45461.12627314815</v>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AE46" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>125.36</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1439.21</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>5117</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45460.78125</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2311.39</v>
+      </c>
+      <c r="D47" t="n">
+        <v>2313.16</v>
+      </c>
+      <c r="E47" t="n">
+        <v>2309.9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2312.48</v>
+      </c>
+      <c r="G47" t="n">
+        <v>3206</v>
+      </c>
+      <c r="H47" t="n">
+        <v>27</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2319.128944182793</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2320.130699616996</v>
+      </c>
+      <c r="L47" t="n">
+        <v>2319.686092307691</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-1.510977291231939</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.06415692199692166</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3.317064063209278</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-1.201876923078999</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>2324.164128793024</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2313.708055822358</v>
+      </c>
+      <c r="S47" t="b">
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2319.48</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2314.48</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2314.48</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2315.18</v>
+      </c>
+      <c r="Y47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>45460.83333333334</v>
+      </c>
+      <c r="AA47" s="2" t="n">
+        <v>45460.83333333334</v>
+      </c>
+      <c r="AB47" s="2" t="n">
+        <v>45460.92664351852</v>
+      </c>
+      <c r="AC47" s="2" t="n">
+        <v>45460.8528125</v>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1475.03</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>5323</v>
+      </c>
+      <c r="B48" s="2" t="n">
+        <v>45463.19791666666</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2337.39</v>
+      </c>
+      <c r="D48" t="n">
+        <v>2337.83</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2335.97</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2336.24</v>
+      </c>
+      <c r="G48" t="n">
+        <v>2188</v>
+      </c>
+      <c r="H48" t="n">
+        <v>27</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2332.06449840013</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2330.653985574069</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2332.213892307692</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.648120094961087</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.7072788843321033</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2.413959610088371</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.6035923076915424</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2336.972737781311</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2328.955046834073</v>
+      </c>
+      <c r="S48" t="b">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2329.24</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2334.24</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2334.24</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2333.54</v>
+      </c>
+      <c r="Y48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="2" t="n">
+        <v>45463.26041666666</v>
+      </c>
+      <c r="AA48" s="2" t="n">
+        <v>45463.26041666666</v>
+      </c>
+      <c r="AB48" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="AC48" s="2" t="n">
+        <v>45463.26679398148</v>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AE48" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1510.849999999999</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>5416</v>
+      </c>
+      <c r="B49" s="2" t="n">
+        <v>45464.20833333334</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2359.53</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2361.53</v>
+      </c>
+      <c r="E49" t="n">
+        <v>2358.97</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2361.47</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1566</v>
+      </c>
+      <c r="H49" t="n">
+        <v>27</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
         <v>2360.799459543979</v>
       </c>
-      <c r="K35" t="n">
+      <c r="K49" t="n">
         <v>2359.503650661006</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L49" t="n">
         <v>2361.580576923076</v>
       </c>
-      <c r="M35" t="n">
-        <v>1.295808882972324</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.710920156750212</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.497236342544712</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="M49" t="n">
+        <v>0.4154160763655455</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.7847660166992394</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.497236342452463</v>
+      </c>
+      <c r="P49" t="n">
         <v>0.06446153846127345</v>
       </c>
-      <c r="Q35" t="n">
-        <v>2365.101845985511</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2359.55930786064</v>
-      </c>
-      <c r="S35" t="b">
-        <v>1</v>
-      </c>
-      <c r="T35" t="b">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="Q49" t="n">
+        <v>2365.101845985386</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2359.559307860765</v>
+      </c>
+      <c r="S49" t="b">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+      <c r="U49" t="n">
         <v>2368.47</v>
       </c>
-      <c r="V35" t="n">
+      <c r="V49" t="n">
         <v>2363.47</v>
       </c>
-      <c r="W35" t="n">
+      <c r="W49" t="n">
         <v>2363.47</v>
       </c>
-      <c r="X35" t="n">
+      <c r="X49" t="n">
         <v>2364.17</v>
       </c>
-      <c r="Y35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="2" t="n">
+      <c r="Y49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="2" t="n">
         <v>45464.375</v>
       </c>
-      <c r="AA35" s="2" t="n">
+      <c r="AA49" s="2" t="n">
         <v>45464.375</v>
       </c>
-      <c r="AB35" s="2" t="n">
+      <c r="AB49" s="2" t="n">
         <v>132320.9911673006</v>
       </c>
-      <c r="AC35" s="2" t="n">
+      <c r="AC49" s="2" t="n">
         <v>45464.37663194445</v>
       </c>
-      <c r="AD35" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AE35" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>35.81</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>1206.909999999999</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AE49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>35.82</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1546.669999999999</v>
+      </c>
+      <c r="AH49" t="n">
         <v>8</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AI49" t="n">
         <v>0</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -706,10 +706,10 @@
         <v>1</v>
       </c>
       <c r="AF2" t="n">
-        <v>125.36</v>
+        <v>125.77</v>
       </c>
       <c r="AG2" t="n">
-        <v>425.36</v>
+        <v>425.77</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>35.83</v>
+        <v>35.93</v>
       </c>
       <c r="AG3" t="n">
-        <v>461.19</v>
+        <v>461.7</v>
       </c>
       <c r="AH3" t="n">
         <v>2</v>
@@ -924,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="AF4" t="n">
-        <v>125.41</v>
+        <v>125.76</v>
       </c>
       <c r="AG4" t="n">
-        <v>586.6</v>
+        <v>587.46</v>
       </c>
       <c r="AH4" t="n">
         <v>3</v>
@@ -1031,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="AF5" t="n">
-        <v>125.41</v>
+        <v>125.77</v>
       </c>
       <c r="AG5" t="n">
-        <v>712.01</v>
+        <v>713.23</v>
       </c>
       <c r="AH5" t="n">
         <v>4</v>
@@ -1140,10 +1140,10 @@
         <v>1</v>
       </c>
       <c r="AF6" t="n">
-        <v>125.39</v>
+        <v>125.77</v>
       </c>
       <c r="AG6" t="n">
-        <v>837.4</v>
+        <v>839</v>
       </c>
       <c r="AH6" t="n">
         <v>5</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>-80.45</v>
+        <v>-80.7</v>
       </c>
       <c r="AG7" t="n">
-        <v>756.9499999999999</v>
+        <v>758.3</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>-84.93000000000001</v>
+        <v>-85.19</v>
       </c>
       <c r="AG8" t="n">
-        <v>672.02</v>
+        <v>673.1099999999999</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
@@ -1461,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>-94.61</v>
+        <v>-94.90000000000001</v>
       </c>
       <c r="AG9" t="n">
-        <v>577.41</v>
+        <v>578.2099999999999</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1568,10 +1568,10 @@
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>-79.03</v>
+        <v>-79.26000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>498.38</v>
+        <v>498.9499999999999</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>-80.98999999999999</v>
+        <v>-81.23999999999999</v>
       </c>
       <c r="AG11" t="n">
-        <v>417.39</v>
+        <v>417.7099999999999</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
@@ -1784,10 +1784,10 @@
         <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>125.4</v>
+        <v>125.77</v>
       </c>
       <c r="AG12" t="n">
-        <v>542.79</v>
+        <v>543.4799999999999</v>
       </c>
       <c r="AH12" t="n">
         <v>1</v>
@@ -1893,10 +1893,10 @@
         <v>1</v>
       </c>
       <c r="AF13" t="n">
-        <v>35.83</v>
+        <v>35.93</v>
       </c>
       <c r="AG13" t="n">
-        <v>578.62</v>
+        <v>579.4099999999999</v>
       </c>
       <c r="AH13" t="n">
         <v>2</v>
@@ -2002,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="AF14" t="n">
-        <v>125.4</v>
+        <v>125.77</v>
       </c>
       <c r="AG14" t="n">
-        <v>704.02</v>
+        <v>705.1799999999998</v>
       </c>
       <c r="AH14" t="n">
         <v>3</v>
@@ -2109,10 +2109,10 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>-64.87</v>
+        <v>-65.06</v>
       </c>
       <c r="AG15" t="n">
-        <v>639.15</v>
+        <v>640.1199999999999</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>1</v>
       </c>
       <c r="AF16" t="n">
-        <v>125.41</v>
+        <v>125.77</v>
       </c>
       <c r="AG16" t="n">
-        <v>764.5599999999999</v>
+        <v>765.8899999999999</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="AF17" t="n">
-        <v>-74.73999999999999</v>
+        <v>-74.94</v>
       </c>
       <c r="AG17" t="n">
-        <v>689.8199999999999</v>
+        <v>690.9499999999998</v>
       </c>
       <c r="AH17" t="n">
         <v>0</v>
@@ -2432,10 +2432,10 @@
         <v>1</v>
       </c>
       <c r="AF18" t="n">
-        <v>125.43</v>
+        <v>125.77</v>
       </c>
       <c r="AG18" t="n">
-        <v>815.25</v>
+        <v>816.7199999999998</v>
       </c>
       <c r="AH18" t="n">
         <v>1</v>
@@ -2541,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="AF19" t="n">
-        <v>35.84</v>
+        <v>35.94</v>
       </c>
       <c r="AG19" t="n">
-        <v>851.09</v>
+        <v>852.6599999999999</v>
       </c>
       <c r="AH19" t="n">
         <v>2</v>
@@ -2648,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="AF20" t="n">
-        <v>-97.31999999999999</v>
+        <v>-97.59999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>753.77</v>
+        <v>755.0599999999998</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="AF21" t="n">
-        <v>-78.15000000000001</v>
+        <v>-78.38</v>
       </c>
       <c r="AG21" t="n">
-        <v>675.62</v>
+        <v>676.6799999999998</v>
       </c>
       <c r="AH21" t="n">
         <v>0</v>
@@ -2862,10 +2862,10 @@
         <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>-43.73</v>
+        <v>-43.86</v>
       </c>
       <c r="AG22" t="n">
-        <v>631.89</v>
+        <v>632.8199999999998</v>
       </c>
       <c r="AH22" t="n">
         <v>0</v>
@@ -2971,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="AF23" t="n">
-        <v>125.46</v>
+        <v>125.81</v>
       </c>
       <c r="AG23" t="n">
-        <v>757.35</v>
+        <v>758.6299999999999</v>
       </c>
       <c r="AH23" t="n">
         <v>1</v>
@@ -3080,10 +3080,10 @@
         <v>1</v>
       </c>
       <c r="AF24" t="n">
-        <v>125.46</v>
+        <v>125.81</v>
       </c>
       <c r="AG24" t="n">
-        <v>882.8100000000001</v>
+        <v>884.4399999999998</v>
       </c>
       <c r="AH24" t="n">
         <v>2</v>
@@ -3189,10 +3189,10 @@
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>35.84</v>
+        <v>35.95</v>
       </c>
       <c r="AG25" t="n">
-        <v>918.6500000000001</v>
+        <v>920.3899999999999</v>
       </c>
       <c r="AH25" t="n">
         <v>3</v>
@@ -3296,10 +3296,10 @@
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>125.44</v>
+        <v>125.81</v>
       </c>
       <c r="AG26" t="n">
-        <v>1044.09</v>
+        <v>1046.2</v>
       </c>
       <c r="AH26" t="n">
         <v>4</v>
@@ -3405,10 +3405,10 @@
         <v>1</v>
       </c>
       <c r="AF27" t="n">
-        <v>35.83</v>
+        <v>35.95</v>
       </c>
       <c r="AG27" t="n">
-        <v>1079.92</v>
+        <v>1082.15</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -3514,10 +3514,10 @@
         <v>1</v>
       </c>
       <c r="AF28" t="n">
-        <v>35.81</v>
+        <v>35.95</v>
       </c>
       <c r="AG28" t="n">
-        <v>1115.73</v>
+        <v>1118.1</v>
       </c>
       <c r="AH28" t="n">
         <v>6</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>-54.27</v>
+        <v>-54.48</v>
       </c>
       <c r="AG29" t="n">
-        <v>1061.46</v>
+        <v>1063.62</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -3728,10 +3728,10 @@
         <v>0</v>
       </c>
       <c r="AF30" t="n">
-        <v>-50.69</v>
+        <v>-50.88</v>
       </c>
       <c r="AG30" t="n">
-        <v>1010.77</v>
+        <v>1012.74</v>
       </c>
       <c r="AH30" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>1</v>
       </c>
       <c r="AF31" t="n">
-        <v>35.81</v>
+        <v>35.95</v>
       </c>
       <c r="AG31" t="n">
-        <v>1046.58</v>
+        <v>1048.69</v>
       </c>
       <c r="AH31" t="n">
         <v>1</v>
@@ -3944,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="AF32" t="n">
-        <v>-66.63</v>
+        <v>-66.88</v>
       </c>
       <c r="AG32" t="n">
-        <v>979.9499999999999</v>
+        <v>981.8099999999998</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4051,10 +4051,10 @@
         <v>1</v>
       </c>
       <c r="AF33" t="n">
-        <v>-67.70999999999999</v>
+        <v>-67.95999999999999</v>
       </c>
       <c r="AG33" t="n">
-        <v>912.2399999999999</v>
+        <v>913.8499999999998</v>
       </c>
       <c r="AH33" t="n">
         <v>1</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>-66.98999999999999</v>
+        <v>-67.23999999999999</v>
       </c>
       <c r="AG34" t="n">
-        <v>845.2499999999999</v>
+        <v>846.6099999999998</v>
       </c>
       <c r="AH34" t="n">
         <v>0</v>
@@ -4265,10 +4265,10 @@
         <v>0</v>
       </c>
       <c r="AF35" t="n">
-        <v>-69.67</v>
+        <v>-69.94</v>
       </c>
       <c r="AG35" t="n">
-        <v>775.5799999999999</v>
+        <v>776.6699999999998</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -4374,10 +4374,10 @@
         <v>1</v>
       </c>
       <c r="AF36" t="n">
-        <v>125.35</v>
+        <v>125.82</v>
       </c>
       <c r="AG36" t="n">
-        <v>900.9299999999999</v>
+        <v>902.4899999999998</v>
       </c>
       <c r="AH36" t="n">
         <v>1</v>
@@ -4483,10 +4483,10 @@
         <v>1</v>
       </c>
       <c r="AF37" t="n">
-        <v>35.81</v>
+        <v>35.95</v>
       </c>
       <c r="AG37" t="n">
-        <v>936.74</v>
+        <v>938.4399999999998</v>
       </c>
       <c r="AH37" t="n">
         <v>2</v>
@@ -4592,10 +4592,10 @@
         <v>1</v>
       </c>
       <c r="AF38" t="n">
-        <v>35.81</v>
+        <v>35.95</v>
       </c>
       <c r="AG38" t="n">
-        <v>972.55</v>
+        <v>974.3899999999999</v>
       </c>
       <c r="AH38" t="n">
         <v>3</v>
@@ -4699,10 +4699,10 @@
         <v>0</v>
       </c>
       <c r="AF39" t="n">
-        <v>-42.27</v>
+        <v>-42.43</v>
       </c>
       <c r="AG39" t="n">
-        <v>930.28</v>
+        <v>931.9599999999999</v>
       </c>
       <c r="AH39" t="n">
         <v>0</v>
@@ -4808,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="AF40" t="n">
-        <v>125.34</v>
+        <v>125.81</v>
       </c>
       <c r="AG40" t="n">
-        <v>1055.62</v>
+        <v>1057.77</v>
       </c>
       <c r="AH40" t="n">
         <v>1</v>
@@ -4915,10 +4915,10 @@
         <v>0</v>
       </c>
       <c r="AF41" t="n">
-        <v>-64.12</v>
+        <v>-64.36</v>
       </c>
       <c r="AG41" t="n">
-        <v>991.4999999999999</v>
+        <v>993.41</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -5022,10 +5022,10 @@
         <v>1</v>
       </c>
       <c r="AF42" t="n">
-        <v>125.35</v>
+        <v>125.81</v>
       </c>
       <c r="AG42" t="n">
-        <v>1116.85</v>
+        <v>1119.22</v>
       </c>
       <c r="AH42" t="n">
         <v>1</v>
@@ -5131,10 +5131,10 @@
         <v>1</v>
       </c>
       <c r="AF43" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="AG43" t="n">
-        <v>1152.67</v>
+        <v>1155.17</v>
       </c>
       <c r="AH43" t="n">
         <v>2</v>
@@ -5238,10 +5238,10 @@
         <v>1</v>
       </c>
       <c r="AF44" t="n">
-        <v>125.36</v>
+        <v>125.81</v>
       </c>
       <c r="AG44" t="n">
-        <v>1278.03</v>
+        <v>1280.98</v>
       </c>
       <c r="AH44" t="n">
         <v>3</v>
@@ -5347,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="AF45" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="AG45" t="n">
-        <v>1313.85</v>
+        <v>1316.93</v>
       </c>
       <c r="AH45" t="n">
         <v>4</v>
@@ -5456,10 +5456,10 @@
         <v>1</v>
       </c>
       <c r="AF46" t="n">
-        <v>125.36</v>
+        <v>125.82</v>
       </c>
       <c r="AG46" t="n">
-        <v>1439.21</v>
+        <v>1442.75</v>
       </c>
       <c r="AH46" t="n">
         <v>5</v>
@@ -5565,10 +5565,10 @@
         <v>1</v>
       </c>
       <c r="AF47" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="AG47" t="n">
-        <v>1475.03</v>
+        <v>1478.7</v>
       </c>
       <c r="AH47" t="n">
         <v>6</v>
@@ -5660,7 +5660,7 @@
         <v>45463.26041666666</v>
       </c>
       <c r="AB48" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45464.72574074074</v>
       </c>
       <c r="AC48" s="2" t="n">
         <v>45463.26679398148</v>
@@ -5674,10 +5674,10 @@
         <v>1</v>
       </c>
       <c r="AF48" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="AG48" t="n">
-        <v>1510.849999999999</v>
+        <v>1514.65</v>
       </c>
       <c r="AH48" t="n">
         <v>7</v>
@@ -5769,7 +5769,7 @@
         <v>45464.375</v>
       </c>
       <c r="AB49" s="2" t="n">
-        <v>132320.9911673006</v>
+        <v>45464.61050925926</v>
       </c>
       <c r="AC49" s="2" t="n">
         <v>45464.37663194445</v>
@@ -5783,10 +5783,10 @@
         <v>1</v>
       </c>
       <c r="AF49" t="n">
-        <v>35.82</v>
+        <v>35.95</v>
       </c>
       <c r="AG49" t="n">
-        <v>1546.669999999999</v>
+        <v>1550.6</v>
       </c>
       <c r="AH49" t="n">
         <v>8</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,25 +654,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45419.35416666666</v>
+        <v>45383.6875</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45419.35416666666</v>
+        <v>45383.6875</v>
       </c>
       <c r="C2" t="n">
-        <v>2322.58</v>
+        <v>2254.06</v>
       </c>
       <c r="D2" t="n">
-        <v>2322.59</v>
+        <v>2254.46</v>
       </c>
       <c r="E2" t="n">
-        <v>2320.26</v>
+        <v>2247.97</v>
       </c>
       <c r="F2" t="n">
-        <v>2321.06</v>
+        <v>2248.72</v>
       </c>
       <c r="G2" t="n">
-        <v>1686</v>
+        <v>4219</v>
       </c>
       <c r="H2" t="n">
         <v>27</v>
@@ -681,49 +681,49 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2320.282914401994</v>
+        <v>2224.823843961018</v>
       </c>
       <c r="K2" t="n">
-        <v>2324.9073822825</v>
+        <v>2254.46</v>
       </c>
       <c r="L2" t="n">
-        <v>2.264362201587026e-05</v>
+        <v>0.000404890104357201</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.690910125168262e-06</v>
+        <v>-0.0004131976161222646</v>
       </c>
       <c r="N2" t="n">
-        <v>2322.729998438892</v>
+        <v>2251.057857231652</v>
       </c>
       <c r="O2" t="n">
-        <v>2323.427454989681</v>
+        <v>2252.113699278337</v>
       </c>
       <c r="P2" t="n">
-        <v>2322.291025111799</v>
+        <v>2250.391461988303</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.2875555297623578</v>
+        <v>-0.5297091473262299</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.176446835873322</v>
+        <v>-0.5140010190448197</v>
       </c>
       <c r="S2" t="n">
-        <v>2.327092105334705</v>
+        <v>4.258357938609852</v>
       </c>
       <c r="T2" t="n">
-        <v>0.03370829033292466</v>
+        <v>0.2838458892347262</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3348675610609462</v>
+        <v>1.155940832470606</v>
       </c>
       <c r="V2" t="n">
-        <v>0.05388028895777097</v>
+        <v>1.373030615754942</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.932599454001</v>
+        <v>2257.640245205427</v>
       </c>
       <c r="X2" t="n">
-        <v>2319.149450769597</v>
+        <v>2244.64267877118</v>
       </c>
       <c r="Y2" t="b">
         <v>0</v>
@@ -732,51 +732,49 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>2318.06</v>
+        <v>2244.72</v>
       </c>
       <c r="AB2" t="n">
-        <v>2320.16</v>
+        <v>2251.92</v>
       </c>
       <c r="AC2" t="n">
-        <v>2320.16</v>
+        <v>2247.72</v>
       </c>
       <c r="AD2" t="n">
-        <v>2320.06</v>
+        <v>2247.52</v>
       </c>
       <c r="AE2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="3" t="n">
-        <v>45419.39583333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" s="3" t="n">
-        <v>45419.39583333334</v>
+        <v>45383.70833333334</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>45419.42768518518</v>
+        <v>45383.69984953704</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>45419.39810185185</v>
+        <v>45383.99978009259</v>
       </c>
       <c r="AJ2" t="n">
-        <v>83.9999999999994</v>
+        <v>100</v>
       </c>
       <c r="AK2" t="n">
-        <v>45.27</v>
+        <v>79.77</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM2" t="b">
         <v>1</v>
       </c>
       <c r="AN2" t="n">
-        <v>16.17</v>
+        <v>72.02</v>
       </c>
       <c r="AO2" t="n">
-        <v>316.17</v>
+        <v>372.02</v>
       </c>
       <c r="AP2" t="n">
         <v>1</v>
@@ -787,25 +785,25 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45419.61458333334</v>
+        <v>45384.22916666666</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>45419.61458333334</v>
+        <v>45384.22916666666</v>
       </c>
       <c r="C3" t="n">
-        <v>2313.86</v>
+        <v>2248.17</v>
       </c>
       <c r="D3" t="n">
-        <v>2313.86</v>
+        <v>2251.73</v>
       </c>
       <c r="E3" t="n">
-        <v>2312.08</v>
+        <v>2247.99</v>
       </c>
       <c r="F3" t="n">
-        <v>2312.33</v>
+        <v>2250.94</v>
       </c>
       <c r="G3" t="n">
-        <v>1710</v>
+        <v>1553</v>
       </c>
       <c r="H3" t="n">
         <v>27</v>
@@ -814,217 +812,217 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2311.686204600531</v>
+        <v>2247.989999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>2316.39231662916</v>
+        <v>2254.486270381487</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.822969769768713e-05</v>
+        <v>0.0001365603446611276</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.921887693261367e-05</v>
+        <v>0.0002630511364961815</v>
       </c>
       <c r="N3" t="n">
-        <v>2314.635847446498</v>
+        <v>2249.43111499598</v>
       </c>
       <c r="O3" t="n">
-        <v>2316.538150276923</v>
+        <v>2248.528435306449</v>
       </c>
       <c r="P3" t="n">
-        <v>2313.187502579978</v>
+        <v>2248.407643618851</v>
       </c>
       <c r="Q3" t="n">
-        <v>-1.152017593454275</v>
+        <v>0.6278202850667185</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.128430519596251</v>
+        <v>0.7245766214011748</v>
       </c>
       <c r="S3" t="n">
-        <v>3.022772016986198</v>
+        <v>2.992885619816687</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.1666322669461806</v>
+        <v>0.07554179566659514</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.0795975232181263</v>
+        <v>-0.401695906432451</v>
       </c>
       <c r="V3" t="n">
-        <v>0.3774647402842675</v>
+        <v>-0.6629033367757984</v>
       </c>
       <c r="W3" t="n">
-        <v>2317.268244802909</v>
+        <v>2253.948039205603</v>
       </c>
       <c r="X3" t="n">
-        <v>2307.606760357046</v>
+        <v>2244.367248032099</v>
       </c>
       <c r="Y3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>2309.33</v>
+        <v>2254.94</v>
       </c>
       <c r="AB3" t="n">
-        <v>2315.33</v>
+        <v>2247.74</v>
       </c>
       <c r="AC3" t="n">
-        <v>2311.43</v>
+        <v>2251.94</v>
       </c>
       <c r="AD3" t="n">
-        <v>2311.33</v>
+        <v>2252.14</v>
       </c>
       <c r="AE3" t="b">
         <v>0</v>
       </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" s="3" t="n">
-        <v>45420.19791666666</v>
+        <v>45384.25</v>
       </c>
       <c r="AH3" s="3" t="n">
-        <v>45420.19003472223</v>
+        <v>45384.24931712963</v>
       </c>
       <c r="AI3" s="3" t="n">
-        <v>45419.65234953703</v>
+        <v>132320.9911673006</v>
       </c>
       <c r="AJ3" t="n">
-        <v>80.99999999999454</v>
+        <v>100</v>
       </c>
       <c r="AK3" t="n">
-        <v>43.65</v>
+        <v>72.38</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" t="n">
-        <v>-53.98</v>
+        <v>-57.67</v>
       </c>
       <c r="AO3" t="n">
-        <v>262.19</v>
+        <v>314.35</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45419.98958333334</v>
+        <v>45384.3125</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>45419.98958333334</v>
+        <v>45384.3125</v>
       </c>
       <c r="C4" t="n">
-        <v>2313.79</v>
+        <v>2252.11</v>
       </c>
       <c r="D4" t="n">
-        <v>2313.96</v>
+        <v>2256.91</v>
       </c>
       <c r="E4" t="n">
-        <v>2312.48</v>
+        <v>2252.07</v>
       </c>
       <c r="F4" t="n">
-        <v>2313.57</v>
+        <v>2256.56</v>
       </c>
       <c r="G4" t="n">
-        <v>360</v>
+        <v>778</v>
       </c>
       <c r="H4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2311.385406153765</v>
+        <v>2251.465156151812</v>
       </c>
       <c r="K4" t="n">
-        <v>2314.682957352514</v>
+        <v>2259.593323007641</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.794912761312936e-05</v>
+        <v>6.122812886826691e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>-9.560412240969802e-05</v>
+        <v>9.498164214439952e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>2314.006319328699</v>
+        <v>2252.264334443867</v>
       </c>
       <c r="O4" t="n">
-        <v>2314.625908593862</v>
+        <v>2250.681742674598</v>
       </c>
       <c r="P4" t="n">
-        <v>2313.713470932231</v>
+        <v>2253.069914000689</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.4106620961420049</v>
+        <v>0.9069752357786456</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.4227163085536156</v>
+        <v>0.8211665239160921</v>
       </c>
       <c r="S4" t="n">
-        <v>1.065551031156924</v>
+        <v>2.265515026061135</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.002538699693559465</v>
+        <v>0.8955658754739488</v>
       </c>
       <c r="U4" t="n">
-        <v>-0.1326762985895584</v>
+        <v>0.1139869281055326</v>
       </c>
       <c r="V4" t="n">
-        <v>-0.05909184726488093</v>
+        <v>0.1125249397996413</v>
       </c>
       <c r="W4" t="n">
-        <v>2315.151964824293</v>
+        <v>2257.628359285871</v>
       </c>
       <c r="X4" t="n">
-        <v>2310.774977040169</v>
+        <v>2250.011468715506</v>
       </c>
       <c r="Y4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>2310.57</v>
+        <v>2260.56</v>
       </c>
       <c r="AB4" t="n">
-        <v>2316.57</v>
+        <v>2253.36</v>
       </c>
       <c r="AC4" t="n">
-        <v>2312.67</v>
+        <v>2257.56</v>
       </c>
       <c r="AD4" t="n">
-        <v>2312.57</v>
+        <v>2257.76</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" s="3" t="n">
-        <v>45420.19791666666</v>
+        <v>45384.46875</v>
       </c>
       <c r="AH4" s="3" t="n">
-        <v>45420.19003472223</v>
+        <v>45384.46268518519</v>
       </c>
       <c r="AI4" s="3" t="n">
-        <v>45420.05559027778</v>
+        <v>45384.36042824074</v>
       </c>
       <c r="AJ4" t="n">
-        <v>13.00000000001091</v>
+        <v>81.74999999999955</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.01</v>
+        <v>58.88</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
@@ -1035,39 +1033,39 @@
         <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>-53.98</v>
+        <v>-57.67</v>
       </c>
       <c r="AO4" t="n">
-        <v>208.21</v>
+        <v>256.6799999999999</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45420.63541666666</v>
+        <v>45384.40625</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>45420.63541666666</v>
+        <v>45384.40625</v>
       </c>
       <c r="C5" t="n">
-        <v>2316.43</v>
+        <v>2254.26</v>
       </c>
       <c r="D5" t="n">
-        <v>2318.39</v>
+        <v>2256.06</v>
       </c>
       <c r="E5" t="n">
-        <v>2315.47</v>
+        <v>2253.88</v>
       </c>
       <c r="F5" t="n">
-        <v>2317.89</v>
+        <v>2255.6</v>
       </c>
       <c r="G5" t="n">
-        <v>2748</v>
+        <v>1289</v>
       </c>
       <c r="H5" t="n">
         <v>27</v>
@@ -1076,49 +1074,49 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2313.88833924236</v>
+        <v>2252.576477073639</v>
       </c>
       <c r="K5" t="n">
-        <v>2322.206445633322</v>
+        <v>2259.131538671603</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002309069824619153</v>
+        <v>8.373958658345433e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003231151809852393</v>
+        <v>0.0003048534673916097</v>
       </c>
       <c r="N5" t="n">
-        <v>2314.836356889205</v>
+        <v>2254.155911640855</v>
       </c>
       <c r="O5" t="n">
-        <v>2313.866547812037</v>
+        <v>2252.696792362487</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.829373925009</v>
+        <v>2255.012776057792</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2377899993548453</v>
+        <v>0.9274458131035317</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.1035691053565436</v>
+        <v>0.9370672732902364</v>
       </c>
       <c r="S5" t="n">
-        <v>4.036759302542912</v>
+        <v>2.726863093980398</v>
       </c>
       <c r="T5" t="n">
-        <v>0.65176814585584</v>
+        <v>-0.07892672858679362</v>
       </c>
       <c r="U5" t="n">
-        <v>0.9187719298261072</v>
+        <v>-0.2532507739924768</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7644410044699725</v>
+        <v>-0.0396904024782998</v>
       </c>
       <c r="W5" t="n">
-        <v>2324.778998983442</v>
+        <v>2258.694041234665</v>
       </c>
       <c r="X5" t="n">
-        <v>2312.379748866576</v>
+        <v>2249.831510880918</v>
       </c>
       <c r="Y5" t="b">
         <v>1</v>
@@ -1127,78 +1125,78 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>2321.09</v>
+        <v>2259.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>2314.69</v>
+        <v>2252.4</v>
       </c>
       <c r="AC5" t="n">
-        <v>2318.79</v>
+        <v>2256.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>2318.89</v>
+        <v>2256.8</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" s="3" t="n">
-        <v>45420.79166666666</v>
+        <v>45384.46875</v>
       </c>
       <c r="AH5" s="3" t="n">
-        <v>45421.64642361111</v>
+        <v>45384.46255787037</v>
       </c>
       <c r="AI5" s="3" t="n">
-        <v>45420.65265046297</v>
+        <v>45384.77247685185</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.687500000003109</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="n">
-        <v>2.69</v>
+        <v>72.2</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5" t="n">
-        <v>-57.58</v>
+        <v>72.02</v>
       </c>
       <c r="AO5" t="n">
-        <v>150.63</v>
+        <v>328.6999999999999</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45421.125</v>
+        <v>45384.4375</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>45421.125</v>
+        <v>45384.4375</v>
       </c>
       <c r="C6" t="n">
-        <v>2308.86</v>
+        <v>2254.01</v>
       </c>
       <c r="D6" t="n">
-        <v>2309.19</v>
+        <v>2255.65</v>
       </c>
       <c r="E6" t="n">
-        <v>2307.82</v>
+        <v>2253.12</v>
       </c>
       <c r="F6" t="n">
-        <v>2307.95</v>
+        <v>2255.28</v>
       </c>
       <c r="G6" t="n">
-        <v>1219</v>
+        <v>1611</v>
       </c>
       <c r="H6" t="n">
         <v>27</v>
@@ -1207,129 +1205,129 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2307.819999999999</v>
+        <v>2253.141809951695</v>
       </c>
       <c r="K6" t="n">
-        <v>2310.672761009064</v>
+        <v>2262.447088847195</v>
       </c>
       <c r="L6" t="n">
-        <v>4.212131849599787e-06</v>
+        <v>8.37674444681994e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>-9.720956217433327e-06</v>
+        <v>0.0002358553094133181</v>
       </c>
       <c r="N6" t="n">
-        <v>2309.166205040644</v>
+        <v>2254.453699769675</v>
       </c>
       <c r="O6" t="n">
-        <v>2310.437091447361</v>
+        <v>2253.153742857484</v>
       </c>
       <c r="P6" t="n">
-        <v>2308.50744754042</v>
+        <v>2255.270515995873</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.7309130379439921</v>
+        <v>0.868626025406229</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.6944100652921307</v>
+        <v>0.9126276759120724</v>
       </c>
       <c r="S6" t="n">
-        <v>2.363057553254629</v>
+        <v>2.543851607303674</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.02060887512834597</v>
+        <v>0.2333470932248929</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06062607499234218</v>
+        <v>-0.007819057449523825</v>
       </c>
       <c r="V6" t="n">
-        <v>0.15033367732849</v>
+        <v>0.03221190230624416</v>
       </c>
       <c r="W6" t="n">
-        <v>2311.697575237314</v>
+        <v>2260.204715665733</v>
       </c>
       <c r="X6" t="n">
-        <v>2303.817319843527</v>
+        <v>2251.836316326013</v>
       </c>
       <c r="Y6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>2304.95</v>
+        <v>2259.28</v>
       </c>
       <c r="AB6" t="n">
-        <v>2310.95</v>
+        <v>2252.08</v>
       </c>
       <c r="AC6" t="n">
-        <v>2307.05</v>
+        <v>2256.28</v>
       </c>
       <c r="AD6" t="n">
-        <v>2306.95</v>
+        <v>2256.48</v>
       </c>
       <c r="AE6" t="b">
         <v>0</v>
       </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" s="3" t="n">
-        <v>45450.79166666666</v>
+        <v>45384.46875</v>
       </c>
       <c r="AH6" s="3" t="n">
-        <v>45450.7060300926</v>
+        <v>45384.46248842592</v>
       </c>
       <c r="AI6" s="3" t="n">
-        <v>45421.18430555556</v>
+        <v>45384.77247685185</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.666666666653933</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.05</v>
+        <v>72.02</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AM6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" t="n">
-        <v>-53.98</v>
+        <v>72.02</v>
       </c>
       <c r="AO6" t="n">
-        <v>96.65000000000001</v>
+        <v>400.7199999999999</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45422.16666666666</v>
+        <v>45385.125</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>45422.16666666666</v>
+        <v>45385.125</v>
       </c>
       <c r="C7" t="n">
-        <v>2347.52</v>
+        <v>2279.71</v>
       </c>
       <c r="D7" t="n">
-        <v>2352.64</v>
+        <v>2285.45</v>
       </c>
       <c r="E7" t="n">
-        <v>2347.28</v>
+        <v>2279.22</v>
       </c>
       <c r="F7" t="n">
-        <v>2350.55</v>
+        <v>2285</v>
       </c>
       <c r="G7" t="n">
-        <v>3147</v>
+        <v>1498</v>
       </c>
       <c r="H7" t="n">
         <v>27</v>
@@ -1338,49 +1336,49 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2347.059485762723</v>
+        <v>2273.635958889023</v>
       </c>
       <c r="K7" t="n">
-        <v>2352.64</v>
+        <v>2285.427347681727</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000122125895282804</v>
+        <v>0.000268467938090786</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001841612360298788</v>
+        <v>8.317971951542799e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>2347.001366421268</v>
+        <v>2280.48462463833</v>
       </c>
       <c r="O7" t="n">
-        <v>2343.180733014927</v>
+        <v>2275.946474650444</v>
       </c>
       <c r="P7" t="n">
-        <v>2348.431389748881</v>
+        <v>2283.879614723082</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.587172829518295</v>
+        <v>2.72632356319491</v>
       </c>
       <c r="R7" t="n">
-        <v>2.717780722179624</v>
+        <v>2.659531482130837</v>
       </c>
       <c r="S7" t="n">
-        <v>4.85122499995313</v>
+        <v>7.311988375269873</v>
       </c>
       <c r="T7" t="n">
-        <v>0.3764327485368995</v>
+        <v>0.3802476780188044</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.3590677674565086</v>
+        <v>-0.2383488132122693</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.1803439972504748</v>
+        <v>-0.08374269005526003</v>
       </c>
       <c r="W7" t="n">
-        <v>2356.480543498817</v>
+        <v>2295.250799029697</v>
       </c>
       <c r="X7" t="n">
-        <v>2341.882235998944</v>
+        <v>2274.008430416468</v>
       </c>
       <c r="Y7" t="b">
         <v>1</v>
@@ -1389,78 +1387,78 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>2353.75</v>
+        <v>2289</v>
       </c>
       <c r="AB7" t="n">
-        <v>2347.35</v>
+        <v>2281.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>2351.45</v>
+        <v>2286</v>
       </c>
       <c r="AD7" t="n">
-        <v>2351.55</v>
+        <v>2286.2</v>
       </c>
       <c r="AE7" t="b">
         <v>0</v>
       </c>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" s="3" t="n">
-        <v>45422.1875</v>
+        <v>45385.30208333334</v>
       </c>
       <c r="AH7" s="3" t="n">
-        <v>45422.17913194445</v>
+        <v>45385.80722222223</v>
       </c>
       <c r="AI7" s="3" t="n">
-        <v>45422.23356481481</v>
+        <v>45385.14002314815</v>
       </c>
       <c r="AJ7" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>63.06</v>
+        <v>-0.18</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AM7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>57.49</v>
+        <v>-57.67</v>
       </c>
       <c r="AO7" t="n">
-        <v>154.14</v>
+        <v>343.0499999999999</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45422.5</v>
+        <v>45385.80208333334</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>45422.5</v>
+        <v>45385.80208333334</v>
       </c>
       <c r="C8" t="n">
-        <v>2369.47</v>
+        <v>2284.04</v>
       </c>
       <c r="D8" t="n">
-        <v>2375.3</v>
+        <v>2292.9</v>
       </c>
       <c r="E8" t="n">
-        <v>2369.47</v>
+        <v>2282.98</v>
       </c>
       <c r="F8" t="n">
-        <v>2373.85</v>
+        <v>2291.57</v>
       </c>
       <c r="G8" t="n">
-        <v>2385</v>
+        <v>4048</v>
       </c>
       <c r="H8" t="n">
         <v>27</v>
@@ -1469,49 +1467,49 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2367.82961655688</v>
+        <v>2282.98</v>
       </c>
       <c r="K8" t="n">
-        <v>2376.154898876785</v>
+        <v>2294.719377425406</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004253902809476965</v>
+        <v>0.0003851130965400654</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003078555280462331</v>
+        <v>0.0001603306249622748</v>
       </c>
       <c r="N8" t="n">
-        <v>2366.996051144522</v>
+        <v>2282.885158139098</v>
       </c>
       <c r="O8" t="n">
-        <v>2361.671539849381</v>
+        <v>2279.478470180471</v>
       </c>
       <c r="P8" t="n">
-        <v>2371.88890608875</v>
+        <v>2287.189422084623</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.132689440096783</v>
+        <v>1.334184482298042</v>
       </c>
       <c r="R8" t="n">
-        <v>2.915838821280954</v>
+        <v>0.63226130581999</v>
       </c>
       <c r="S8" t="n">
-        <v>7.574771679748914</v>
+        <v>6.214597144365448</v>
       </c>
       <c r="T8" t="n">
-        <v>1.212669418642236</v>
+        <v>2.12612315101569</v>
       </c>
       <c r="U8" t="n">
-        <v>0.4962848297232085</v>
+        <v>0.6351496388015221</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5719470244239346</v>
+        <v>1.28110079119233</v>
       </c>
       <c r="W8" t="n">
-        <v>2383.614847856411</v>
+        <v>2297.079128229517</v>
       </c>
       <c r="X8" t="n">
-        <v>2361.662964321089</v>
+        <v>2278.79971593973</v>
       </c>
       <c r="Y8" t="b">
         <v>1</v>
@@ -1520,78 +1518,80 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>2377.05</v>
+        <v>2295.57</v>
       </c>
       <c r="AB8" t="n">
-        <v>2370.65</v>
+        <v>2292.57</v>
       </c>
       <c r="AC8" t="n">
-        <v>2374.75</v>
+        <v>2292.57</v>
       </c>
       <c r="AD8" t="n">
-        <v>2374.85</v>
+        <v>2292.77</v>
       </c>
       <c r="AE8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>45385.82291666666</v>
+      </c>
       <c r="AG8" s="3" t="n">
-        <v>45422.5625</v>
+        <v>45385.82291666666</v>
       </c>
       <c r="AH8" s="3" t="n">
-        <v>45422.56378472222</v>
+        <v>45385.8990625</v>
       </c>
       <c r="AI8" s="3" t="n">
-        <v>45422.520625</v>
+        <v>45385.82300925926</v>
       </c>
       <c r="AJ8" t="n">
-        <v>17.81250000000613</v>
+        <v>39.24999999999272</v>
       </c>
       <c r="AK8" t="n">
-        <v>10.24</v>
+        <v>28.27</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AM8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" t="n">
-        <v>-57.58</v>
+        <v>18.01</v>
       </c>
       <c r="AO8" t="n">
-        <v>96.56000000000002</v>
+        <v>361.0599999999999</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45425.16666666666</v>
+        <v>45385.89583333334</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>45425.16666666666</v>
+        <v>45385.89583333334</v>
       </c>
       <c r="C9" t="n">
-        <v>2363.89</v>
+        <v>2294.32</v>
       </c>
       <c r="D9" t="n">
-        <v>2364.05</v>
+        <v>2297.07</v>
       </c>
       <c r="E9" t="n">
-        <v>2358.74</v>
+        <v>2294.28</v>
       </c>
       <c r="F9" t="n">
-        <v>2359.42</v>
+        <v>2297.05</v>
       </c>
       <c r="G9" t="n">
-        <v>2904</v>
+        <v>1574</v>
       </c>
       <c r="H9" t="n">
         <v>27</v>
@@ -1600,103 +1600,105 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2358.74</v>
+        <v>2292.622253863599</v>
       </c>
       <c r="K9" t="n">
-        <v>2364.325544672763</v>
+        <v>2297.915938008068</v>
       </c>
       <c r="L9" t="n">
-        <v>-2.880901993547032e-05</v>
+        <v>0.0002286450592232586</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.735274547100587e-05</v>
+        <v>0.0001857995114907867</v>
       </c>
       <c r="N9" t="n">
-        <v>2361.922590758778</v>
+        <v>2291.793855121671</v>
       </c>
       <c r="O9" t="n">
-        <v>2362.913895990177</v>
+        <v>2286.75594723525</v>
       </c>
       <c r="P9" t="n">
-        <v>2361.439879600963</v>
+        <v>2296.548338493292</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.5908452159605986</v>
+        <v>2.554827386053603</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.5926776056824291</v>
+        <v>2.080250141117372</v>
       </c>
       <c r="S9" t="n">
-        <v>2.820725793183473</v>
+        <v>8.147167033196064</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3933505331974629</v>
+        <v>0.9125318197434353</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5540247678027299</v>
+        <v>0.3217612659118458</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5910698314437468</v>
+        <v>0.6638734090129219</v>
       </c>
       <c r="W9" t="n">
-        <v>2365.24785942176</v>
+        <v>2309.047013988106</v>
       </c>
       <c r="X9" t="n">
-        <v>2356.131899780165</v>
+        <v>2285.549662998477</v>
       </c>
       <c r="Y9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>2356.42</v>
+        <v>2301.05</v>
       </c>
       <c r="AB9" t="n">
-        <v>2362.42</v>
+        <v>2298.05</v>
       </c>
       <c r="AC9" t="n">
-        <v>2358.52</v>
+        <v>2298.05</v>
       </c>
       <c r="AD9" t="n">
-        <v>2358.42</v>
+        <v>2298.25</v>
       </c>
       <c r="AE9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>45385.97916666666</v>
+      </c>
       <c r="AG9" s="3" t="n">
-        <v>45425.1875</v>
+        <v>45385.97916666666</v>
       </c>
       <c r="AH9" s="3" t="n">
-        <v>45425.18635416667</v>
+        <v>45385.99690972222</v>
       </c>
       <c r="AI9" s="3" t="n">
-        <v>45427.42424768519</v>
+        <v>45385.98208333334</v>
       </c>
       <c r="AJ9" t="n">
-        <v>100</v>
+        <v>41.99999999999591</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>30.25</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AM9" t="b">
         <v>1</v>
       </c>
       <c r="AN9" t="n">
-        <v>53.89</v>
+        <v>18.01</v>
       </c>
       <c r="AO9" t="n">
-        <v>150.45</v>
+        <v>379.0699999999999</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ9" t="n">
         <v>0</v>
@@ -1704,76 +1706,76 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45425.25</v>
+        <v>45387.0625</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>45425.25</v>
+        <v>45387.0625</v>
       </c>
       <c r="C10" t="n">
-        <v>2358.9</v>
+        <v>2291.57</v>
       </c>
       <c r="D10" t="n">
-        <v>2359.29</v>
+        <v>2291.73</v>
       </c>
       <c r="E10" t="n">
-        <v>2357.51</v>
+        <v>2288.24</v>
       </c>
       <c r="F10" t="n">
-        <v>2357.85</v>
+        <v>2289.25</v>
       </c>
       <c r="G10" t="n">
-        <v>1557</v>
+        <v>586</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2351.720882654781</v>
+        <v>2288.261814372031</v>
       </c>
       <c r="K10" t="n">
-        <v>2361.119701321759</v>
+        <v>2298.596344765506</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0002138278871403561</v>
+        <v>-0.0008065513501398507</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0001537893690972259</v>
+        <v>-0.0005845531241951959</v>
       </c>
       <c r="N10" t="n">
-        <v>2359.160734414063</v>
+        <v>2291.305610367141</v>
       </c>
       <c r="O10" t="n">
-        <v>2360.698034010486</v>
+        <v>2291.911020965834</v>
       </c>
       <c r="P10" t="n">
-        <v>2358.007942896455</v>
+        <v>2290.206945304437</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.8812705260438634</v>
+        <v>-0.2288272226892332</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.8173057362063882</v>
+        <v>-0.07489174575293524</v>
       </c>
       <c r="S10" t="n">
-        <v>2.157145722236253</v>
+        <v>4.681101829003151</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.3553835569332477</v>
+        <v>-0.9160027519769756</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.2109666322653538</v>
+        <v>-0.7288063295491156</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.4243722050264296</v>
+        <v>-0.5897316821497043</v>
       </c>
       <c r="W10" t="n">
-        <v>2360.920089621474</v>
+        <v>2296.526432773591</v>
       </c>
       <c r="X10" t="n">
-        <v>2353.595796171436</v>
+        <v>2282.387457835282</v>
       </c>
       <c r="Y10" t="b">
         <v>0</v>
@@ -1782,37 +1784,37 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>2354.85</v>
+        <v>2285.25</v>
       </c>
       <c r="AB10" t="n">
-        <v>2356.95</v>
+        <v>2288.25</v>
       </c>
       <c r="AC10" t="n">
-        <v>2356.95</v>
+        <v>2288.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>2356.85</v>
+        <v>2288.05</v>
       </c>
       <c r="AE10" t="b">
         <v>1</v>
       </c>
       <c r="AF10" s="3" t="n">
-        <v>45425.27083333334</v>
+        <v>45387.13541666666</v>
       </c>
       <c r="AG10" s="3" t="n">
-        <v>45425.27083333334</v>
+        <v>45387.13541666666</v>
       </c>
       <c r="AH10" s="3" t="n">
-        <v>45425.31439814815</v>
+        <v>45387.14229166666</v>
       </c>
       <c r="AI10" s="3" t="n">
-        <v>45425.27259259259</v>
+        <v>45387.13552083333</v>
       </c>
       <c r="AJ10" t="n">
-        <v>44.33333333333091</v>
+        <v>32.50000000000455</v>
       </c>
       <c r="AK10" t="n">
-        <v>23.89</v>
+        <v>23.41</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
@@ -1823,13 +1825,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>16.17</v>
+        <v>18.01</v>
       </c>
       <c r="AO10" t="n">
-        <v>166.62</v>
+        <v>397.0799999999999</v>
       </c>
       <c r="AP10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -1837,25 +1839,25 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425.29166666666</v>
+        <v>45387.125</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>45425.29166666666</v>
+        <v>45387.125</v>
       </c>
       <c r="C11" t="n">
-        <v>2356.81</v>
+        <v>2288.79</v>
       </c>
       <c r="D11" t="n">
-        <v>2356.93</v>
+        <v>2290.26</v>
       </c>
       <c r="E11" t="n">
-        <v>2354.89</v>
+        <v>2287.71</v>
       </c>
       <c r="F11" t="n">
-        <v>2355.13</v>
+        <v>2287.96</v>
       </c>
       <c r="G11" t="n">
-        <v>630</v>
+        <v>1028</v>
       </c>
       <c r="H11" t="n">
         <v>27</v>
@@ -1864,49 +1866,49 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2354.912884000157</v>
+        <v>2269.738097392116</v>
       </c>
       <c r="K11" t="n">
-        <v>2356.945793727704</v>
+        <v>2290.260000000001</v>
       </c>
       <c r="L11" t="n">
-        <v>7.341687571954431e-06</v>
+        <v>-0.0001488035521939238</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0002508020180872732</v>
+        <v>-0.0003615206230414738</v>
       </c>
       <c r="N11" t="n">
-        <v>2357.815873133164</v>
+        <v>2290.073222347854</v>
       </c>
       <c r="O11" t="n">
-        <v>2359.576225047269</v>
+        <v>2291.011243020312</v>
       </c>
       <c r="P11" t="n">
-        <v>2356.329078087376</v>
+        <v>2288.130681114551</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.9963884721537397</v>
+        <v>-0.4236574608221417</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.8974981520614498</v>
+        <v>-0.2730140847528013</v>
       </c>
       <c r="S11" t="n">
-        <v>2.409118095960326</v>
+        <v>4.664194750096604</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.6290505675942768</v>
+        <v>0.1833195734461697</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.3239490884088809</v>
+        <v>-0.07336429308861625</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.2366219470227406</v>
+        <v>-0.2383763329880821</v>
       </c>
       <c r="W11" t="n">
-        <v>2359.581387516923</v>
+        <v>2295.927344027181</v>
       </c>
       <c r="X11" t="n">
-        <v>2351.57676865783</v>
+        <v>2281.834018201921</v>
       </c>
       <c r="Y11" t="b">
         <v>0</v>
@@ -1915,37 +1917,35 @@
         <v>1</v>
       </c>
       <c r="AA11" t="n">
-        <v>2352.13</v>
+        <v>2283.96</v>
       </c>
       <c r="AB11" t="n">
-        <v>2354.23</v>
+        <v>2291.16</v>
       </c>
       <c r="AC11" t="n">
-        <v>2354.23</v>
+        <v>2286.96</v>
       </c>
       <c r="AD11" t="n">
-        <v>2354.13</v>
+        <v>2286.76</v>
       </c>
       <c r="AE11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="3" t="n">
-        <v>45425.34375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" s="3" t="n">
-        <v>45425.34375</v>
+        <v>45387.14583333334</v>
       </c>
       <c r="AH11" s="3" t="n">
-        <v>45425.35215277778</v>
+        <v>45387.14578703704</v>
       </c>
       <c r="AI11" s="3" t="n">
-        <v>45425.37783564815</v>
+        <v>45387.46633101852</v>
       </c>
       <c r="AJ11" t="n">
         <v>100</v>
       </c>
       <c r="AK11" t="n">
-        <v>56.59</v>
+        <v>72.20999999999999</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
@@ -1956,13 +1956,13 @@
         <v>1</v>
       </c>
       <c r="AN11" t="n">
-        <v>53.89</v>
+        <v>72.03</v>
       </c>
       <c r="AO11" t="n">
-        <v>220.51</v>
+        <v>469.1099999999999</v>
       </c>
       <c r="AP11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ11" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45425.4375</v>
+        <v>45387.63541666666</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>45425.4375</v>
+        <v>45387.63541666666</v>
       </c>
       <c r="C12" t="n">
-        <v>2349.88</v>
+        <v>2291.11</v>
       </c>
       <c r="D12" t="n">
-        <v>2350.22</v>
+        <v>2296.12</v>
       </c>
       <c r="E12" t="n">
-        <v>2346.46</v>
+        <v>2290.21</v>
       </c>
       <c r="F12" t="n">
-        <v>2346.84</v>
+        <v>2295.85</v>
       </c>
       <c r="G12" t="n">
-        <v>1593</v>
+        <v>3153</v>
       </c>
       <c r="H12" t="n">
         <v>27</v>
@@ -1997,86 +1997,86 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2345.228046179038</v>
+        <v>2273.089732690213</v>
       </c>
       <c r="K12" t="n">
-        <v>2351.858298707112</v>
+        <v>2296.119999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0002943621483947171</v>
+        <v>0.001420192130242682</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0001750674759323328</v>
+        <v>0.001307495654425222</v>
       </c>
       <c r="N12" t="n">
-        <v>2351.074383195258</v>
+        <v>2292.044186144683</v>
       </c>
       <c r="O12" t="n">
-        <v>2353.983610101244</v>
+        <v>2289.361736574267</v>
       </c>
       <c r="P12" t="n">
-        <v>2348.745706914344</v>
+        <v>2294.04434124527</v>
       </c>
       <c r="Q12" t="n">
-        <v>-1.622151029810539</v>
+        <v>1.453755418623587</v>
       </c>
       <c r="R12" t="n">
-        <v>-1.429914553938629</v>
+        <v>1.315758872438595</v>
       </c>
       <c r="S12" t="n">
-        <v>3.58632602164803</v>
+        <v>4.887199334330748</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.838059855521351</v>
+        <v>0.7770485036098762</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.3114551083590413</v>
+        <v>-0.2136394908825423</v>
       </c>
       <c r="V12" t="n">
-        <v>-0.6063157894727738</v>
+        <v>-0.2527760577918343</v>
       </c>
       <c r="W12" t="n">
-        <v>2353.587247043569</v>
+        <v>2302.142060346616</v>
       </c>
       <c r="X12" t="n">
-        <v>2342.404166785119</v>
+        <v>2287.446622143923</v>
       </c>
       <c r="Y12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2343.84</v>
+        <v>2299.85</v>
       </c>
       <c r="AB12" t="n">
-        <v>2349.84</v>
+        <v>2292.65</v>
       </c>
       <c r="AC12" t="n">
-        <v>2345.94</v>
+        <v>2296.85</v>
       </c>
       <c r="AD12" t="n">
-        <v>2345.84</v>
+        <v>2297.05</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" s="3" t="n">
-        <v>45425.47916666666</v>
+        <v>45387.70833333334</v>
       </c>
       <c r="AH12" s="3" t="n">
-        <v>45425.47909722223</v>
+        <v>45387.70194444444</v>
       </c>
       <c r="AI12" s="3" t="n">
-        <v>45425.46226851852</v>
+        <v>45387.64585648148</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13.33333333333636</v>
+        <v>9.249999999997272</v>
       </c>
       <c r="AK12" t="n">
-        <v>7.19</v>
+        <v>6.66</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>-53.98</v>
+        <v>-57.67</v>
       </c>
       <c r="AO12" t="n">
-        <v>166.53</v>
+        <v>411.4399999999999</v>
       </c>
       <c r="AP12" t="n">
         <v>0</v>
@@ -2101,25 +2101,25 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45425.46875</v>
+        <v>45390.11458333334</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>45425.46875</v>
+        <v>45390.11458333334</v>
       </c>
       <c r="C13" t="n">
-        <v>2348.47</v>
+        <v>2311.74</v>
       </c>
       <c r="D13" t="n">
-        <v>2348.57</v>
+        <v>2313.06</v>
       </c>
       <c r="E13" t="n">
-        <v>2343.26</v>
+        <v>2309.67</v>
       </c>
       <c r="F13" t="n">
-        <v>2343.4</v>
+        <v>2311.18</v>
       </c>
       <c r="G13" t="n">
-        <v>1745</v>
+        <v>1434</v>
       </c>
       <c r="H13" t="n">
         <v>27</v>
@@ -2128,107 +2128,4061 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2343.26</v>
+        <v>2284.263982085014</v>
       </c>
       <c r="K13" t="n">
-        <v>2349.777161260216</v>
+        <v>2313.037745285101</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0002887676327303337</v>
+        <v>0.001618987478367658</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.000213971330326637</v>
+        <v>0.001598163197290715</v>
       </c>
       <c r="N13" t="n">
-        <v>2349.27351116654</v>
+        <v>2314.857130006301</v>
       </c>
       <c r="O13" t="n">
-        <v>2352.474552041454</v>
+        <v>2316.493621344591</v>
       </c>
       <c r="P13" t="n">
-        <v>2346.869009287925</v>
+        <v>2310.774815961471</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.780700405589869</v>
+        <v>0.3359352223465066</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.560764411619919</v>
+        <v>1.429834404608791</v>
       </c>
       <c r="S13" t="n">
-        <v>4.090472996309169</v>
+        <v>7.170232144104885</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.129198486410132</v>
+        <v>-0.9719539043717305</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.2917337461294665</v>
+        <v>-1.000870313037012</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.4557653938795738</v>
+        <v>-1.373212934296589</v>
       </c>
       <c r="W13" t="n">
-        <v>2352.391147832942</v>
+        <v>2320.454629356013</v>
       </c>
       <c r="X13" t="n">
-        <v>2339.846870742908</v>
+        <v>2299.595002566929</v>
       </c>
       <c r="Y13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2340.4</v>
+        <v>2315.18</v>
       </c>
       <c r="AB13" t="n">
-        <v>2342.5</v>
+        <v>2307.98</v>
       </c>
       <c r="AC13" t="n">
-        <v>2342.5</v>
+        <v>2312.18</v>
       </c>
       <c r="AD13" t="n">
-        <v>2342.4</v>
+        <v>2312.38</v>
       </c>
       <c r="AE13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="3" t="n">
-        <v>45425.52083333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" s="3" t="n">
-        <v>45425.52083333334</v>
+        <v>45390.1875</v>
       </c>
       <c r="AH13" s="3" t="n">
-        <v>45425.52271990741</v>
+        <v>45390.18796296296</v>
       </c>
       <c r="AI13" s="3" t="n">
-        <v>45425.554375</v>
+        <v>45390.13545138889</v>
       </c>
       <c r="AJ13" t="n">
+        <v>19.500000000005</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>353.7699999999999</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45391.22916666666</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45391.22916666666</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2342.36</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2343.09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2340.84</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2342.97</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1513</v>
+      </c>
+      <c r="H14" t="n">
+        <v>27</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2340.839999999999</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2346.146118217842</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0001031025695179462</v>
+      </c>
+      <c r="M14" t="n">
+        <v>6.191835123222611e-05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2341.328048779103</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2339.702355243105</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2342.652198142414</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.9842472388450005</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.9478261062853297</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.927139763253252</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0.2902407980741373</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0.3636326109358379</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.3139284485750977</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2346.753836822806</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2340.050559462022</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2346.97</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2343.97</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2343.97</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2344.17</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3" t="n">
+        <v>45391.25</v>
+      </c>
+      <c r="AG14" s="3" t="n">
+        <v>45391.25</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>45391.35788194444</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>45391.25299768519</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>60.75000000000728</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>371.7799999999999</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45391.30208333334</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>45391.30208333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2344.29</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2346.08</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2343.81</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2344.96</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1348</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2339.7021664487</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2346.057224231003</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.000177310074635947</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0003831937821592838</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2343.403700493746</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2341.630586639234</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2344.677643618851</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.084959814788817</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.053127459489554</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.453447098903886</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0.177189542484939</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0.197894736840226</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.1863777089779433</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2349.489797202371</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2341.36549003533</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2348.96</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2345.96</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2345.96</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2346.16</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3" t="n">
+        <v>45391.36458333334</v>
+      </c>
+      <c r="AG15" s="3" t="n">
+        <v>45391.36458333334</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>45391.4258912037</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>45391.37118055556</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>57.24999999999909</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41.24</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>389.7899999999998</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45391.33333333334</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>45391.33333333334</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2344.16</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2346.14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2343.86</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2345.68</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1049</v>
+      </c>
+      <c r="H16" t="n">
+        <v>27</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2339.454713457746</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2346.117268171715</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0002570223771346557</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0005080813511199113</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2343.931554554928</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2342.262554297517</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2344.927299621601</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.054525255867702</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.052444544753334</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.229852237359585</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0.1405228758167141</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.07037495700205909</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.1795080839360708</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2349.437600142037</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2341.916999101166</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2349.68</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2342.48</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2346.68</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2346.88</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" s="3" t="n">
+        <v>45391.42708333334</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>45391.42636574074</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>45391.7855787037</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>100</v>
       </c>
-      <c r="AK13" t="n">
-        <v>58.03</v>
-      </c>
-      <c r="AL13" t="inlineStr">
+      <c r="AK16" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="AL16" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AM13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>53.89</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>220.42</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ13" t="n">
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>461.8199999999998</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45391.41666666666</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45391.41666666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2344.34</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2355.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2344.27</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2355.08</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2567</v>
+      </c>
+      <c r="H17" t="n">
+        <v>27</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2344.27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2355.795754469408</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0003653869213180238</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0004459566613772531</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2346.472733169509</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2344.419792330423</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2347.312841417271</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.184086065929478</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.046251366131577</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.636684597583609</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.77316477468321</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.2496732026138488</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.03281389749099617</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2352.372365624009</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2343.753317210533</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2359.08</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2351.88</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2356.08</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2356.28</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" s="3" t="n">
+        <v>45391.48958333334</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>45391.48494212963</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>45391.42980324074</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>44.74999999999909</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>32.23</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>404.1499999999998</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45392.75</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>45392.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2346.19</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2347.57</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2330.04</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2332.08</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5090</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2328.933047204853</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2347.57</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.0001736467564679153</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.0001032777501000059</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2340.30696515496</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2343.177983714397</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2336.773144134847</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-1.761056909932449</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-1.800184215478129</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8.019154735204621</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-1.318063295491811</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.294836601306997</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.658902648777257</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2347.599003027374</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2324.447285242321</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2328.08</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2335.28</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2331.08</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2330.88</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" s="3" t="n">
+        <v>45392.84375</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>45392.83887731482</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>45392.76869212963</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>21.74999999999727</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>15.67</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>346.4799999999998</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45392.80208333334</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>45392.80208333334</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2338.25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2340.78</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2336.13</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2336.55</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2325.510278449718</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2352.098189852165</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2.719314458370537e-05</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.0005899765221933289</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2338.857393985805</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2341.467380220034</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2337.981589267286</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-1.678164035028203</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1.729378724793238</v>
+      </c>
+      <c r="S19" t="n">
+        <v>7.575889232766674</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.2454420364661019</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.5112693498440422</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.09308221534229233</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2349.709039731521</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2327.754138803051</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2332.55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2339.75</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2335.55</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2335.35</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" s="3" t="n">
+        <v>45392.84375</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>45392.83755787037</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>45392.82635416667</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>20.00000000000455</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>288.8099999999998</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45393.4375</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>45393.4375</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2338.69</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2339.03</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2335.91</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2336.51</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2677</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2322.174201089432</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2339.47175038403</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0002939735647309242</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-7.481965464331005e-07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2338.885709250946</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2339.460971112549</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2336.775356037152</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.001135836695539183</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.3332228912584892</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3.083275477014157</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.541922944619273</v>
+      </c>
+      <c r="U20" t="n">
+        <v>-0.3704987960068138</v>
+      </c>
+      <c r="V20" t="n">
+        <v>-0.4772342621267853</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2340.937777931121</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2331.112934143182</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2332.51</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2339.71</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2335.51</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2335.31</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" s="3" t="n">
+        <v>45393.46875</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>45393.46846064815</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>45393.64591435185</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>360.8399999999998</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45393.77083333334</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>45393.77083333334</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2338.25</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2345.07</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2337.59</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2343.71</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3489</v>
+      </c>
+      <c r="H21" t="n">
+        <v>27</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2335.8287170657</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2345.546825820543</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0007780919191625707</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0007011323355066308</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2339.598222645612</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2338.661458688037</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2340.650096319229</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.4297918111919898</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.3137875351849378</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.570864181187146</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0.8180667354649813</v>
+      </c>
+      <c r="U21" t="n">
+        <v>-0.1694289645683966</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.1815376676972846</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2346.970762963832</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2335.829429674627</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2347.71</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2344.71</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2344.71</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2344.91</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="3" t="n">
+        <v>45393.80208333334</v>
+      </c>
+      <c r="AG21" s="3" t="n">
+        <v>45393.80208333334</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>45393.82152777778</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>45393.80278935185</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>54.99999999999545</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>39.62</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>378.8499999999998</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45394.35416666666</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45394.35416666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2384.59</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2390.01</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2384.59</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2389.72</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2186</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2381.987167463473</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2394.312520914104</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0003947909910061363</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0002676057710428306</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2385.763783880813</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2382.603057238052</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2385.29964912281</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.641835833341247</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3.136153082790835</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5.125677288626956</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0.5167285861739401</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-1.06909872721053</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-1.081135190918758</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2393.719313462456</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2378.379984783164</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2393.72</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2386.52</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2390.72</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2390.92</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" s="3" t="n">
+        <v>45394.40625</v>
+      </c>
+      <c r="AH22" s="3" t="n">
+        <v>45394.40663194445</v>
+      </c>
+      <c r="AI22" s="3" t="n">
+        <v>45394.37503472222</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>4.000000000007731</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>321.1799999999998</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45394.55208333334</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45394.55208333334</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2397.53</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2399.55</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2395.83</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2399.49</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2430</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2388.952478691108</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2399.800392359237</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0001236579296634276</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0001985382040617122</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2396.207669707524</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2392.774604034422</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2398.687285861716</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.381645876013863</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.510939515284687</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5.468376297753174</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0.2669005847956214</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0.2527794977650046</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.07831441348525914</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2407.569593863683</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2391.304977859749</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2403.49</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2396.29</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2400.49</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2400.69</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" s="3" t="n">
+        <v>45394.69791666666</v>
+      </c>
+      <c r="AH23" s="3" t="n">
+        <v>45394.69640046296</v>
+      </c>
+      <c r="AI23" s="3" t="n">
+        <v>45394.58657407408</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>20.25000000001</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>263.5099999999998</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45397.125</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45397.125</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2364.69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2365.87</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2360.09</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2363.33</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3231</v>
+      </c>
+      <c r="H24" t="n">
+        <v>27</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2345.550872397234</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2365.869999999999</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0002992310691980458</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-6.122416455071055e-05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2357.963019332642</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2359.921490820792</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2364.021544547644</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-2.811234819542733</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-4.250249706374674</v>
+      </c>
+      <c r="S24" t="n">
+        <v>9.493576775923831</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.324282765738189</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.695765393875718</v>
+      </c>
+      <c r="V24" t="n">
+        <v>3.031145510838542</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2378.337873195141</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2351.205215900146</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2359.33</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2362.33</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2362.33</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2362.13</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="3" t="n">
+        <v>45397.14583333334</v>
+      </c>
+      <c r="AG24" s="3" t="n">
+        <v>45397.14583333334</v>
+      </c>
+      <c r="AH24" s="3" t="n">
+        <v>45397.14603009259</v>
+      </c>
+      <c r="AI24" s="3" t="n">
+        <v>45397.21783564815</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>75.98999999999999</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>335.5399999999997</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45397.29166666666</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45397.29166666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2358.36</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2358.53</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2355.94</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2356.48</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1046</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2353.05568479159</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2362.900427502312</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-0.000110769535968072</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-2.844411841875688e-05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2358.010642451737</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2358.486998220433</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2357.630846233229</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-0.9167668011868955</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-1.30326875878646</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.512540486180355</v>
+      </c>
+      <c r="T25" t="n">
+        <v>-0.1422841417274867</v>
+      </c>
+      <c r="U25" t="n">
+        <v>-0.06631234950145881</v>
+      </c>
+      <c r="V25" t="n">
+        <v>-0.03610595115151227</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2362.372775889572</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2351.388916576886</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2352.48</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2359.68</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2355.48</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2355.28</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" s="3" t="n">
+        <v>45397.34375</v>
+      </c>
+      <c r="AH25" s="3" t="n">
+        <v>45397.33869212963</v>
+      </c>
+      <c r="AI25" s="3" t="n">
+        <v>45397.36908564815</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>76.70999999999999</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>407.5699999999997</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45397.64583333334</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45397.64583333334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2354.76</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2358.79</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2351.08</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2356.8</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5630</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2320.859509818516</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2362.522036819052</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.000247604226915453</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.0003201072542559392</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2355.599288951859</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2354.885928113268</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2358.148782249743</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>-0.02417185022295598</v>
+      </c>
+      <c r="R26" t="n">
+        <v>-0.4259237961190115</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.825670965164064</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.8737839697309937</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.9632886136910201</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.8891124870956446</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2364.813438052714</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2352.984126446771</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2352.8</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2355.8</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2355.6</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" s="3" t="n">
+        <v>45397.67708333334</v>
+      </c>
+      <c r="AH26" s="3" t="n">
+        <v>45397.680625</v>
+      </c>
+      <c r="AI26" s="3" t="n">
+        <v>45397.66677083333</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>36.00000000000136</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>25.93</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>349.8999999999997</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45398.13541666666</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>45398.13541666666</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2381.17</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2384.91</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2380.71</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2384.85</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2050</v>
+      </c>
+      <c r="H27" t="n">
+        <v>27</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2378.992610164445</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2387.443097884332</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.322821874649647e-05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>6.152925548570224e-05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2382.947132295227</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2377.687271771664</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2384.233887168903</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3.535721061959521</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3.828817487671658</v>
+      </c>
+      <c r="S27" t="n">
+        <v>7.705856539056549</v>
+      </c>
+      <c r="T27" t="n">
+        <v>-0.4743171654636171</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-1.513347093221</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-1.419683522532523</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2394.636793496629</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2372.330980841177</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2388.85</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2385.85</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2385.85</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2386.05</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="3" t="n">
+        <v>45398.15625</v>
+      </c>
+      <c r="AG27" s="3" t="n">
+        <v>45398.15625</v>
+      </c>
+      <c r="AH27" s="3" t="n">
+        <v>45398.26892361111</v>
+      </c>
+      <c r="AI27" s="3" t="n">
+        <v>45398.15728009259</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>61.25000000000682</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>44.12</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>367.9099999999997</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45400.45833333334</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>45400.45833333334</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2377.68</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2380.18</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2377.35</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2379.25</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2286</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2377.164854731463</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2380.156383252452</v>
+      </c>
+      <c r="L28" t="n">
+        <v>7.079030514916273e-07</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0001529957357145067</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2377.419526485111</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2375.727482073935</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2378.895208118334</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.8392771895223632</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.7025693971828831</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.618603508332954</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.3723391812850423</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.1052287581715063</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.4216993464060579</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2383.930322854583</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2375.360093382084</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2383.25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2380.25</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2380.25</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2380.45</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="3" t="n">
+        <v>45400.5625</v>
+      </c>
+      <c r="AG28" s="3" t="n">
+        <v>45400.5625</v>
+      </c>
+      <c r="AH28" s="3" t="n">
+        <v>45400.56708333334</v>
+      </c>
+      <c r="AI28" s="3" t="n">
+        <v>45400.59296296296</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>73.11</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>439.9399999999997</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>45401.45833333334</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2385.29</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2385.29</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2379.56</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2383.44</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3493</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2378.373843713679</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2387.734242618266</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0001950445895956471</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.000178901555577094</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2385.972493180672</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2386.560377715378</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2385.327819057448</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.1321581263950975</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01430043766145649</v>
+      </c>
+      <c r="S29" t="n">
+        <v>8.075319952413542</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.06865153078751973</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.06186446508309018</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.9197316821464483</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2397.729500993206</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2374.426137121689</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2379.44</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>2386.64</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2382.44</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2382.24</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" s="3" t="n">
+        <v>45401.47916666666</v>
+      </c>
+      <c r="AH29" s="3" t="n">
+        <v>45401.47753472222</v>
+      </c>
+      <c r="AI29" s="3" t="n">
+        <v>45401.69358796296</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>77.61</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>511.9699999999997</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45404.125</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>45404.125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2386.42</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2386.46</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2382.65</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2383.27</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2043</v>
+      </c>
+      <c r="H30" t="n">
+        <v>27</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2382.673108964495</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2389.289282192946</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.000674238489401568</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.0005047542314144776</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2386.476387947548</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2388.045107418695</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2383.448503611972</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.5111995696743179</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.1466910610170919</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5.037760150489418</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.4465049879595426</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.01922600619309378</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.2300137598890615</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2390.249479815133</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2375.147527408812</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2379.27</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>2382.27</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2382.27</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2382.07</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3" t="n">
+        <v>45404.16666666666</v>
+      </c>
+      <c r="AG30" s="3" t="n">
+        <v>45404.16666666666</v>
+      </c>
+      <c r="AH30" s="3" t="n">
+        <v>45404.18297453703</v>
+      </c>
+      <c r="AI30" s="3" t="n">
+        <v>45404.16666666666</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>32.000000000005</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>529.9799999999997</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45404.14583333334</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>45404.14583333334</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2383.88</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2384.37</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2382</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2382.73</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1685</v>
+      </c>
+      <c r="H31" t="n">
+        <v>27</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2382.022995614239</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2386.219524415289</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0007720193377485344</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0004127655795895725</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2385.555520364813</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2387.362293740308</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2383.328028895768</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.6766135057168867</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.3229424143453602</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.764755922450753</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.231375988990294</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.1109012727861227</v>
+      </c>
+      <c r="V31" t="n">
+        <v>-0.4465049879595426</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2389.760449391077</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2375.395608400459</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2378.73</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2385.93</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2381.73</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2381.53</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" s="3" t="n">
+        <v>45404.1875</v>
+      </c>
+      <c r="AH31" s="3" t="n">
+        <v>45404.18327546296</v>
+      </c>
+      <c r="AI31" s="3" t="n">
+        <v>45427.82508101852</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>73.65000000000001</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>602.0099999999996</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45404.35416666666</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>45404.35416666666</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2369.3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2370.43</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2360.88</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2361.53</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4029</v>
+      </c>
+      <c r="H32" t="n">
+        <v>27</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2349.024009829358</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2370.430000000001</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.000204745360829963</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.00026939964929809</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2369.571068197452</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2374.185510454407</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2366.226480908154</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-2.604704792092889</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-2.370893997365117</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.997722653399734</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-1.13474716202154</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.07026831785196919</v>
+      </c>
+      <c r="V32" t="n">
+        <v>-0.2983212934277617</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2375.673406490243</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2355.279555326064</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2357.53</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2364.73</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2360.53</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2360.33</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" s="3" t="n">
+        <v>45404.40625</v>
+      </c>
+      <c r="AH32" s="3" t="n">
+        <v>45404.40671296296</v>
+      </c>
+      <c r="AI32" s="3" t="n">
+        <v>45404.37101851852</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>17.50000000000682</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>544.3399999999997</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45404.64583333334</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>45404.64583333334</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2346.59</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2350.29</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2341.74</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2341.98</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3795</v>
+      </c>
+      <c r="H33" t="n">
+        <v>27</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2330.353320190112</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2350.289999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.330822655855842e-05</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0003107130977283844</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2349.142953414758</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2355.120689186259</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2344.301286549709</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>-3.377109247921453</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-2.970913847448249</v>
+      </c>
+      <c r="S33" t="n">
+        <v>7.130374651256125</v>
+      </c>
+      <c r="T33" t="n">
+        <v>-1.921111111112168</v>
+      </c>
+      <c r="U33" t="n">
+        <v>-1.21786033711669</v>
+      </c>
+      <c r="V33" t="n">
+        <v>-1.642597179221866</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2353.927292328905</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2333.175280770513</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2337.98</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2345.18</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2340.98</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2340.78</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" s="3" t="n">
+        <v>45404.66666666666</v>
+      </c>
+      <c r="AH33" s="3" t="n">
+        <v>45404.66078703704</v>
+      </c>
+      <c r="AI33" s="3" t="n">
+        <v>45408.4312037037</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>82.47</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>616.3699999999997</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45404.75</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>45404.75</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2341.13</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2341.73</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2334.45</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2336.28</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3763</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2333.043919330321</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2341.730000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0002831555555728339</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0003495960761770483</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2340.559249369132</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2346.186044268733</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2336.354702442382</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>-3.59395860385257</v>
+      </c>
+      <c r="R34" t="n">
+        <v>-3.6558974519187</v>
+      </c>
+      <c r="S34" t="n">
+        <v>9.666619574630193</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.002989336086102412</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.9024011007900299</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.7036842105289907</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2350.904638868133</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2323.304766016631</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2332.28</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2335.28</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2335.28</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2335.08</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3" t="n">
+        <v>45404.77083333334</v>
+      </c>
+      <c r="AG34" s="3" t="n">
+        <v>45404.77083333334</v>
+      </c>
+      <c r="AH34" s="3" t="n">
+        <v>45404.80609953704</v>
+      </c>
+      <c r="AI34" s="3" t="n">
+        <v>45404.77101851852</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>51.50000000001</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>37.1</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>634.3799999999997</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45405.08333333334</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>45405.08333333334</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2330.41</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2330.63</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2328.33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2328.75</v>
+      </c>
+      <c r="G35" t="n">
+        <v>693</v>
+      </c>
+      <c r="H35" t="n">
+        <v>27</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2328.350773454014</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2340.051281954177</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-0.001290585521013753</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.0002724684825923276</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2329.329689912131</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2331.381748888427</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2329.464286205709</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>-1.858284015161644</v>
+      </c>
+      <c r="R35" t="n">
+        <v>-2.284997172837128</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.01685506022954</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.140997592018266</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.5848090815266005</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.5893842449254407</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2333.687040537019</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2326.7415318744</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2324.75</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>2331.95</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2327.75</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2327.55</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" s="3" t="n">
+        <v>45405.19791666666</v>
+      </c>
+      <c r="AH35" s="3" t="n">
+        <v>45405.19219907407</v>
+      </c>
+      <c r="AI35" s="3" t="n">
+        <v>45405.11109953704</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>17.25000000000136</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>576.7099999999997</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45405.375</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>45405.375</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2308.19</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2309.93</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2304.37</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2304.78</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2577</v>
+      </c>
+      <c r="H36" t="n">
+        <v>27</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2300.215799322092</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2314.45023092785</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0002943744232073807</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0002032307287036337</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2307.896886958407</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2312.366166871181</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2307.148493292054</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>-3.081895875007376</v>
+      </c>
+      <c r="R36" t="n">
+        <v>-3.354309829735436</v>
+      </c>
+      <c r="S36" t="n">
+        <v>11.67798772623035</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.3584898520812203</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.164320605434568</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.14302029584087</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2322.913776722465</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2289.883209861643</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2300.78</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2303.78</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2303.78</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2303.58</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3" t="n">
+        <v>45405.39583333334</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>45405.39583333334</v>
+      </c>
+      <c r="AH36" s="3" t="n">
+        <v>45405.40418981481</v>
+      </c>
+      <c r="AI36" s="3" t="n">
+        <v>45405.39671296296</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>59.25000000000864</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>42.68</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>594.7199999999997</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45407.16666666666</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>45407.16666666666</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2319.06</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2319.39</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2315.93</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2316.06</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2092</v>
+      </c>
+      <c r="H37" t="n">
+        <v>27</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2313.285113670144</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2325.718117782072</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0004490379192680136</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0002544101214982956</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2317.422106905266</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2318.419045660823</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2317.126367389062</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>-0.6212679258815115</v>
+      </c>
+      <c r="R37" t="n">
+        <v>-0.6504695968838368</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2.229166361522454</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.01728930168474108</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.7387891296880298</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.6476642586849266</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2320.135741977117</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2312.616992801006</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2312.06</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2319.26</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2315.06</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2314.86</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" s="3" t="n">
+        <v>45407.26041666666</v>
+      </c>
+      <c r="AH37" s="3" t="n">
+        <v>45407.2580787037</v>
+      </c>
+      <c r="AI37" s="3" t="n">
+        <v>45407.18648148148</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>3.499999999996817</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>537.0499999999997</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45407.47916666666</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>45407.47916666666</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2325.01</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2328.01</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2324.91</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2327.85</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1934</v>
+      </c>
+      <c r="H38" t="n">
+        <v>27</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2322.757428887724</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2327.986885903643</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0001049120052013428</v>
+      </c>
+      <c r="M38" t="n">
+        <v>9.062683273340011e-05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2322.942279876617</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2320.510649626232</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2326.121014791881</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.9564521567876909</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.4611637844713923</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5.359257566802882</v>
+      </c>
+      <c r="T38" t="n">
+        <v>1.072848297212204</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.6298692810464672</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.8988923288607111</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2334.856012507065</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2318.886017076697</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2331.85</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2324.65</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2328.85</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2329.05</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" s="3" t="n">
+        <v>45407.61458333334</v>
+      </c>
+      <c r="AH38" s="3" t="n">
+        <v>45407.6606712963</v>
+      </c>
+      <c r="AI38" s="3" t="n">
+        <v>45407.51965277778</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>2.250000000003638</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-57.67</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>479.3799999999997</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45407.64583333334</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45407.64583333334</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2325.96</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2331.8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2323.15</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2329.47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>6661</v>
+      </c>
+      <c r="H39" t="n">
+        <v>27</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2308.425145194139</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2335.177579969224</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0006138295024751131</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0005129551572842313</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2327.348050448043</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2325.373803806433</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2328.190880632957</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.204647455334452</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1.197441408856051</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2.585588263281666</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.4402442380492175</v>
+      </c>
+      <c r="U39" t="n">
+        <v>-0.2630443756438581</v>
+      </c>
+      <c r="V39" t="n">
+        <v>-0.209563123497901</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2333.181424788387</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2324.700336477527</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2333.47</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>2326.27</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2330.47</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2330.67</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" s="3" t="n">
+        <v>45407.73958333334</v>
+      </c>
+      <c r="AH39" s="3" t="n">
+        <v>45407.66112268518</v>
+      </c>
+      <c r="AI39" s="3" t="n">
+        <v>45407.66912037037</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>74.01000000000001</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>551.4099999999997</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45408.1875</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>45408.1875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2329.02</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2332.16</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2329.02</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2331.49</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1888</v>
+      </c>
+      <c r="H40" t="n">
+        <v>27</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2329.02</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2335.495252239797</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.0001508039207487695</v>
+      </c>
+      <c r="M40" t="n">
+        <v>9.77162335614356e-05</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2330.209274131007</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2330.552654837606</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2329.325376676985</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.04374796994488861</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.2387249474249465</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.752918994260592</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.2278328173370028</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.2438562091524545</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.5666976264169534</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2333.191817319237</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2326.958936034733</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2335.49</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>2332.49</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2332.49</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2332.69</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3" t="n">
+        <v>45408.21875</v>
+      </c>
+      <c r="AG40" s="3" t="n">
+        <v>45408.21875</v>
+      </c>
+      <c r="AH40" s="3" t="n">
+        <v>45408.22016203704</v>
+      </c>
+      <c r="AI40" s="3" t="n">
+        <v>45408.23980324074</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>72.03</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>623.4399999999997</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45408.36458333334</v>
+      </c>
+      <c r="B41" s="3" t="n">
+        <v>45408.36458333334</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2335.01</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2338.52</v>
+      </c>
+      <c r="E41" t="n">
+        <v>2334.77</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2337.79</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2029</v>
+      </c>
+      <c r="H41" t="n">
+        <v>27</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2331.663808620312</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2341.321916723103</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0004551463078919462</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.0004261997289490701</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2335.276240556763</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2333.915313486894</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2336.438892328861</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.7275828629594798</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.6080838142222781</v>
+      </c>
+      <c r="S41" t="n">
+        <v>2.834691458883583</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.2331338149283511</v>
+      </c>
+      <c r="U41" t="n">
+        <v>-0.3606948744391048</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.1565806673547741</v>
+      </c>
+      <c r="W41" t="n">
+        <v>2341.765725798354</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2332.612058859369</v>
+      </c>
+      <c r="Y41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>2341.79</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>2338.79</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>2338.79</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>2338.99</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3" t="n">
+        <v>45408.39583333334</v>
+      </c>
+      <c r="AG41" s="3" t="n">
+        <v>45408.39583333334</v>
+      </c>
+      <c r="AH41" s="3" t="n">
+        <v>45408.41041666667</v>
+      </c>
+      <c r="AI41" s="3" t="n">
+        <v>45408.39623842593</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>34.74999999999682</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>25.03</v>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>641.4499999999997</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45408.42708333334</v>
+      </c>
+      <c r="B42" s="3" t="n">
+        <v>45408.42708333334</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2338.65</v>
+      </c>
+      <c r="D42" t="n">
+        <v>2347.34</v>
+      </c>
+      <c r="E42" t="n">
+        <v>2338.04</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2344.15</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2401</v>
+      </c>
+      <c r="H42" t="n">
+        <v>27</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2338.04</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2351.237661316095</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.0002536813866772537</v>
+      </c>
+      <c r="M42" t="n">
+        <v>7.606968063672506e-05</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2338.79130581653</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2336.398844007347</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2340.786346749226</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.20889519421462</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.9319244617226616</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3.399720233636523</v>
+      </c>
+      <c r="T42" t="n">
+        <v>1.221757825936038</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.1842105263167468</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.8733161334689612</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2346.875969064635</v>
+      </c>
+      <c r="X42" t="n">
+        <v>2336.196724433817</v>
+      </c>
+      <c r="Y42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>2348.15</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>2345.15</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>2345.15</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>2345.35</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="3" t="n">
+        <v>45408.44791666666</v>
+      </c>
+      <c r="AG42" s="3" t="n">
+        <v>45408.44791666666</v>
+      </c>
+      <c r="AH42" s="3" t="n">
+        <v>45408.45965277778</v>
+      </c>
+      <c r="AI42" s="3" t="n">
+        <v>45408.44809027778</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>42.49999999999545</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>30.61</v>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM42" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>659.4599999999997</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45408.91666666666</v>
+      </c>
+      <c r="B43" s="3" t="n">
+        <v>45408.91666666666</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2340.85</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2340.87</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2338.14</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2338.77</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1205</v>
+      </c>
+      <c r="H43" t="n">
+        <v>27</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2335.975942906008</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2341.450610135027</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.000198465533406449</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.0001442481652950436</v>
+      </c>
+      <c r="N43" t="n">
+        <v>2338.609433207996</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2338.991438354238</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2339.761723426213</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.3939089819928085</v>
+      </c>
+      <c r="R43" t="n">
+        <v>-0.5853506859760343</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.406945210438287</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.09997592019362855</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.07991400068795</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.880567595458615</v>
+      </c>
+      <c r="W43" t="n">
+        <v>2345.861099460305</v>
+      </c>
+      <c r="X43" t="n">
+        <v>2335.162347392121</v>
+      </c>
+      <c r="Y43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2334.77</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>2337.77</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2337.77</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>2337.57</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="3" t="n">
+        <v>45408.98958333334</v>
+      </c>
+      <c r="AG43" s="3" t="n">
+        <v>45408.98958333334</v>
+      </c>
+      <c r="AH43" s="3" t="n">
+        <v>45411.0425462963</v>
+      </c>
+      <c r="AI43" s="3" t="n">
+        <v>45408.99929398148</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>66.99999999999591</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>48.26</v>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>18.01</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>677.4699999999997</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:AS40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,28 +656,33 @@
           <t>Week</t>
         </is>
       </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45383.6875</v>
+        <v>45446.63541666666</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>45383.6875</v>
+        <v>45446.63541666666</v>
       </c>
       <c r="C2" t="n">
-        <v>2254.06</v>
+        <v>2326.06</v>
       </c>
       <c r="D2" t="n">
-        <v>2254.46</v>
+        <v>2332.39</v>
       </c>
       <c r="E2" t="n">
-        <v>2247.97</v>
+        <v>2325.78</v>
       </c>
       <c r="F2" t="n">
-        <v>2248.72</v>
+        <v>2331.72</v>
       </c>
       <c r="G2" t="n">
-        <v>4219</v>
+        <v>2678</v>
       </c>
       <c r="H2" t="n">
         <v>27</v>
@@ -686,109 +691,5358 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2224.823843961018</v>
+        <v>2323.038432435463</v>
       </c>
       <c r="K2" t="n">
-        <v>2254.46</v>
+        <v>2333.70425956727</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004048901043570894</v>
+        <v>0.0004829740926656498</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.000413197616122376</v>
+        <v>0.0005663562659850516</v>
       </c>
       <c r="N2" t="n">
-        <v>2251.057857231652</v>
+        <v>2328.931462752036</v>
       </c>
       <c r="O2" t="n">
-        <v>2252.113699278337</v>
+        <v>2327.373148439613</v>
       </c>
       <c r="P2" t="n">
-        <v>2250.391461988303</v>
+        <v>2330.309267285862</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.5297091473262299</v>
+        <v>0.681954026011681</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.5140010190448197</v>
+        <v>0.481707967588021</v>
       </c>
       <c r="S2" t="n">
-        <v>4.258357938609852</v>
+        <v>3.825898020944599</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2838458892347262</v>
+        <v>0.5358582731360002</v>
       </c>
       <c r="U2" t="n">
-        <v>1.155940832470606</v>
+        <v>-0.6322531819760115</v>
       </c>
       <c r="V2" t="n">
-        <v>1.373030615754942</v>
+        <v>0.2011627106971901</v>
       </c>
       <c r="W2" t="n">
-        <v>2257.640245205427</v>
+        <v>2336.974229614137</v>
       </c>
       <c r="X2" t="n">
-        <v>2244.64267877118</v>
+        <v>2325.144304957587</v>
       </c>
       <c r="Y2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>2244.72</v>
+        <v>2335.72</v>
       </c>
       <c r="AB2" t="n">
-        <v>2251.92</v>
+        <v>2332.72</v>
       </c>
       <c r="AC2" t="n">
-        <v>2247.72</v>
+        <v>2332.72</v>
       </c>
       <c r="AD2" t="n">
-        <v>2247.52</v>
+        <v>2332.92</v>
       </c>
       <c r="AE2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>45446.65625</v>
+      </c>
       <c r="AG2" s="3" t="n">
-        <v>45383.70833333334</v>
+        <v>45446.65625</v>
       </c>
       <c r="AH2" s="3" t="n">
-        <v>45383.69984953704</v>
+        <v>45446.68006944445</v>
       </c>
       <c r="AI2" s="3" t="n">
-        <v>45383.99978009259</v>
+        <v>45446.65635416667</v>
       </c>
       <c r="AJ2" t="n">
+        <v>34.50000000000273</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>50.16</v>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>336.35</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45446.70833333334</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>45446.70833333334</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2335.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2342.48</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2334.78</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2339.39</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5276</v>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2330.654167100904</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2343.802839996705</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.0005074785359593974</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003847784098412673</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2332.955793123032</v>
+      </c>
+      <c r="O3" t="n">
+        <v>2330.354064832818</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2334.839401444787</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.259326421575224</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9478498276594611</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.586160295730274</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.253295493633686</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.05315789473797849</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2609666322669</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2341.180717844023</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2329.998085045551</v>
+      </c>
+      <c r="Y3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2343.39</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>2336.19</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>2340.39</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2340.59</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" s="3" t="n">
+        <v>45446.73958333334</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>45446.73559027778</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>45446.75361111111</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>100</v>
       </c>
-      <c r="AK2" t="n">
-        <v>80.29000000000001</v>
-      </c>
-      <c r="AL2" t="inlineStr">
+      <c r="AK3" t="n">
+        <v>175.56</v>
+      </c>
+      <c r="AL3" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>372.5</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>14</v>
+      <c r="AM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>481.74</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>45447.59375</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2328.23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2328.28</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2325.42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2325.45</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2403</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2325.441993401435</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2343.046814762924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.0003566800007916708</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.0002766612343550256</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2331.399289735586</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2335.964615491139</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2327.100890952872</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-2.38429878352872</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-2.004494172957798</v>
+      </c>
+      <c r="S4" t="n">
+        <v>7.979932163455064</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.869883040935747</v>
+      </c>
+      <c r="U4" t="n">
+        <v>-0.3526281389754331</v>
+      </c>
+      <c r="V4" t="n">
+        <v>-0.3911730306158461</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2337.873799373537</v>
+      </c>
+      <c r="X4" t="n">
+        <v>2314.827982532208</v>
+      </c>
+      <c r="Y4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2321.45</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2328.65</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2324.45</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2324.25</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" s="3" t="n">
+        <v>45447.70833333334</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>45447.71802083333</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>45447.62645833333</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>5.250000000000909</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-116.34</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>365.4</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45447.6875</v>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>45447.6875</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2337.22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2337.22</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2326.73</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2326.85</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5153</v>
+      </c>
+      <c r="H5" t="n">
+        <v>27</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2313.658366069155</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2337.22</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0002666618685645361</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.0003241526239678555</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2331.830883452802</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2333.836409886628</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2331.800990712074</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-1.559270953980104</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1.853708630353466</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4.092935906333063</v>
+      </c>
+      <c r="T5" t="n">
+        <v>-0.8214963880286632</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.452889576883081</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.113161334707911</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2337.326454185623</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2324.775527238524</v>
+      </c>
+      <c r="Y5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2322.85</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>2330.05</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>2325.85</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>2325.65</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" s="3" t="n">
+        <v>45447.70833333334</v>
+      </c>
+      <c r="AH5" s="3" t="n">
+        <v>45447.70650462963</v>
+      </c>
+      <c r="AI5" s="3" t="n">
+        <v>45447.70842592593</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>161.01</v>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>145.38</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>510.78</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45448.5625</v>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>45448.5625</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2331.67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2335.1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2331.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2334.9</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1990</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2328.407493285143</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2335.077276186663</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0002236684858197837</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.000425661235079532</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2332.696890318504</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2332.831507541714</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2332.733003095976</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.05907788095328215</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.1458500755901931</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.079810221426491</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.6272686618499392</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0.2891847265264005</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1459133126918459</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2338.390746894902</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2328.57525929705</v>
+      </c>
+      <c r="Y6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2338.9</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>2331.7</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>2335.9</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2336.1</v>
+      </c>
+      <c r="AE6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" s="3" t="n">
+        <v>45448.65625</v>
+      </c>
+      <c r="AH6" s="3" t="n">
+        <v>45448.65650462963</v>
+      </c>
+      <c r="AI6" s="3" t="n">
+        <v>45448.62217592593</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>14.99999999999773</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21.81</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-116.34</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>394.4399999999999</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45448.625</v>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>45448.625</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2332.46</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2335.54</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2332.36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2334.86</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2403</v>
+      </c>
+      <c r="H7" t="n">
+        <v>27</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2330.061002223417</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2340.451073943277</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0001857719233634119</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0005107529935485984</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2333.349238055523</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2333.152481713394</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2333.479938080497</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.1385641376814419</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.120035756031134</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.442301055028613</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.1773030615763673</v>
+      </c>
+      <c r="U7" t="n">
+        <v>-0.3404919160652753</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1606570347444176</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2336.927044504785</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2331.532831656208</v>
+      </c>
+      <c r="Y7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2338.86</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>2335.86</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>2335.86</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2336.06</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3" t="n">
+        <v>45448.65625</v>
+      </c>
+      <c r="AG7" s="3" t="n">
+        <v>45448.65625</v>
+      </c>
+      <c r="AH7" s="3" t="n">
+        <v>45448.65650462963</v>
+      </c>
+      <c r="AI7" s="3" t="n">
+        <v>45448.71578703704</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>151.93</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>539.8299999999999</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45448.98958333334</v>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>45448.98958333334</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2353.93</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2355.23</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2353.63</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2355.12</v>
+      </c>
+      <c r="G8" t="n">
+        <v>571</v>
+      </c>
+      <c r="H8" t="n">
+        <v>30</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2350.226533299789</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2356.593226269236</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0001641297549381318</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003409849242205581</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2353.990004419491</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2351.767867073029</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2354.439490884073</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.746960777433742</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.04225454585983</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.71262780546375</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01361197110600187</v>
+      </c>
+      <c r="U8" t="n">
+        <v>-0.08784657722981137</v>
+      </c>
+      <c r="V8" t="n">
+        <v>-0.2139869281036226</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2358.251538421449</v>
+      </c>
+      <c r="X8" t="n">
+        <v>2352.127443346697</v>
+      </c>
+      <c r="Y8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2359.12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>2356.12</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>2356.12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>2356.32</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3" t="n">
+        <v>45449.08333333334</v>
+      </c>
+      <c r="AG8" s="3" t="n">
+        <v>45449.08333333334</v>
+      </c>
+      <c r="AH8" s="3" t="n">
+        <v>45449.16956018518</v>
+      </c>
+      <c r="AI8" s="3" t="n">
+        <v>45449.09465277778</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>57.50000000000455</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>576.1799999999999</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45449.16666666666</v>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>45449.16666666666</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2355.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2363.87</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2355.52</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2363.6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3235</v>
+      </c>
+      <c r="H9" t="n">
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2355.52</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2372.585652645914</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0003792652085757195</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0001181878565885201</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2356.526638534691</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2354.732144635531</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2357.366529067768</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.279528354748436</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.32984021447276</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.997277313424289</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.46842449260339</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.1101719986245371</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1329927760589271</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2361.562853440891</v>
+      </c>
+      <c r="X9" t="n">
+        <v>2354.670204694645</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2367.6</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>2360.4</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>2364.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>2364.8</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" s="3" t="n">
+        <v>45449.1875</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>45449.18479166667</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>45449.48186342593</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>146.11</v>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>721.5699999999999</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45449.91666666666</v>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>45449.91666666666</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2371.97</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2373.65</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2371.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2373.65</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1597</v>
+      </c>
+      <c r="H10" t="n">
+        <v>27</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2370.176903695672</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2375.204587139845</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.000167267443051085</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.068822692772465e-05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2371.981926958404</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2369.814117021427</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2372.787530099758</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.316559685944412</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.322382421735011</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.894575133127522</v>
+      </c>
+      <c r="T10" t="n">
+        <v>-0.4389129686974229</v>
+      </c>
+      <c r="U10" t="n">
+        <v>-0.6963054695579558</v>
+      </c>
+      <c r="V10" t="n">
+        <v>-0.6319917440641802</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2380.74520652948</v>
+      </c>
+      <c r="X10" t="n">
+        <v>2363.329853670036</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2377.65</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>2374.65</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>2374.65</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>2374.85</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>45450</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>45450</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>45450.09909722222</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>45450.17503472222</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>145.76</v>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>145.39</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>866.9599999999999</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45450.15625</v>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>45450.15625</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2377.43</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2379.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2377.38</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2378.36</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1302</v>
+      </c>
+      <c r="H11" t="n">
+        <v>29</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2365.691004846417</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2379.6144471026</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.000244297940125781</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0001410015146075002</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2376.536575629562</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2374.688942316961</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2378.03530099759</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.199429545207295</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.214528992912567</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.241262070077414</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.4379428964548424</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.2879772961819071</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.04760577915385511</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2382.561004792194</v>
+      </c>
+      <c r="X11" t="n">
+        <v>2375.009597202985</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2382.36</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2375.16</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2379.36</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2379.56</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" s="3" t="n">
+        <v>45450.29166666666</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>45450.3090162037</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>45450.17475694444</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>39.74999999999227</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>57.79</v>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-116.34</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>750.6199999999999</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45450.22916666666</v>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>45450.22916666666</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2370.82</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2375.01</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2369.74</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2374.93</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2298</v>
+      </c>
+      <c r="H12" t="n">
+        <v>27</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2369.740000000001</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2381.956533180226</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0001533606628322408</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0002858591994630561</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2373.677146419376</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2373.710004784084</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2372.655108359136</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.365402661346252</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.6861966664851318</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.321565348373258</v>
+      </c>
+      <c r="T12" t="n">
+        <v>-0.004035087714328256</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-0.8483900928790717</v>
+      </c>
+      <c r="V12" t="n">
+        <v>-0.892824217409725</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2375.78922157944</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2368.020995138832</v>
+      </c>
+      <c r="Y12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2378.93</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2375.93</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>2375.93</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>2376.13</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="3" t="n">
+        <v>45450.25</v>
+      </c>
+      <c r="AG12" s="3" t="n">
+        <v>45450.25</v>
+      </c>
+      <c r="AH12" s="3" t="n">
+        <v>45450.27537037037</v>
+      </c>
+      <c r="AI12" s="3" t="n">
+        <v>45450.2505787037</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>50.49999999999955</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>73.43000000000001</v>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>786.9699999999999</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45450.64583333334</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>45450.64583333334</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2333.83</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2334.97</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2313.17</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2319.53</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7136</v>
+      </c>
+      <c r="H13" t="n">
+        <v>27</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2305.996232092848</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2334.97</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-9.249613272328964e-05</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.0007459074618812987</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2335.370790026041</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2345.416785558512</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2329.291861025112</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>-5.638939441631464</v>
+      </c>
+      <c r="R13" t="n">
+        <v>-5.147138942871917</v>
+      </c>
+      <c r="S13" t="n">
+        <v>17.22848162201312</v>
+      </c>
+      <c r="T13" t="n">
+        <v>-2.690089439285657</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.441919504645739</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.228699690403573</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2352.55031121483</v>
+      </c>
+      <c r="X13" t="n">
+        <v>2304.533410835395</v>
+      </c>
+      <c r="Y13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2315.53</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2322.73</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2318.53</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2318.33</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" s="3" t="n">
+        <v>45450.69791666666</v>
+      </c>
+      <c r="AH13" s="3" t="n">
+        <v>45450.65739583333</v>
+      </c>
+      <c r="AI13" s="3" t="n">
+        <v>45450.66944444444</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>154.49</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>932.3699999999999</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45450.6875</v>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>45450.6875</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2325.3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2326.41</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2316.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2316.95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4655</v>
+      </c>
+      <c r="H14" t="n">
+        <v>27</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2305.143109303611</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2326.409999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-9.245376318787709e-05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.0003982102270789488</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2327.998439717491</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2338.757210224265</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2322.553894048848</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-6.163241009154262</v>
+      </c>
+      <c r="R14" t="n">
+        <v>-5.683042512641418</v>
+      </c>
+      <c r="S14" t="n">
+        <v>14.19137322460469</v>
+      </c>
+      <c r="T14" t="n">
+        <v>-2.025077399381189</v>
+      </c>
+      <c r="U14" t="n">
+        <v>-0.5422635018908295</v>
+      </c>
+      <c r="V14" t="n">
+        <v>-2.029965600276228</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2341.712247902064</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2301.895540195631</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2312.95</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2320.15</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2315.95</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2315.75</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" s="3" t="n">
+        <v>45450.70833333334</v>
+      </c>
+      <c r="AH14" s="3" t="n">
+        <v>45450.70015046297</v>
+      </c>
+      <c r="AI14" s="3" t="n">
+        <v>45450.7246875</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>146.13</v>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1077.77</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45450.73958333334</v>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>45450.73958333334</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2318.28</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2318.41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2310.09</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2313.29</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4115</v>
+      </c>
+      <c r="H15" t="n">
+        <v>27</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2302.834982963903</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2318.409999999999</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.346269445563215e-05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.0002165289950274218</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2320.493283188591</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2331.027039158895</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2313.368627450979</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-6.371075529262725</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-6.192969338560275</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10.89701498882493</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-1.515359477126367</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-0.8416511867876579</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-0.9580529755789939</v>
+      </c>
+      <c r="W15" t="n">
+        <v>2328.079597685892</v>
+      </c>
+      <c r="X15" t="n">
+        <v>2297.157657216065</v>
+      </c>
+      <c r="Y15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2309.29</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2316.49</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2312.29</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2312.09</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" s="3" t="n">
+        <v>45450.77083333334</v>
+      </c>
+      <c r="AH15" s="3" t="n">
+        <v>45450.77012731481</v>
+      </c>
+      <c r="AI15" s="3" t="n">
+        <v>45454.64753472222</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>150.12</v>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>1223.17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45450.76041666666</v>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>45450.76041666666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2314.97</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2314.98</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2308.52</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2308.61</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3821</v>
+      </c>
+      <c r="H16" t="n">
+        <v>27</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2303.82181519687</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2319.409948851491</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.000120374674037703</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0.0003589507912726565</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2317.947380271122</v>
+      </c>
+      <c r="O16" t="n">
+        <v>2328.265897769971</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2310.462170622633</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-6.345230227987031</v>
+      </c>
+      <c r="R16" t="n">
+        <v>-6.237347420576471</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10.71823138395526</v>
+      </c>
+      <c r="T16" t="n">
+        <v>-1.982304781565745</v>
+      </c>
+      <c r="U16" t="n">
+        <v>-0.9241520467803639</v>
+      </c>
+      <c r="V16" t="n">
+        <v>-1.515359477126367</v>
+      </c>
+      <c r="W16" t="n">
+        <v>2324.931782990972</v>
+      </c>
+      <c r="X16" t="n">
+        <v>2294.492558254293</v>
+      </c>
+      <c r="Y16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2304.61</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2311.81</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2307.61</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2307.41</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" s="3" t="n">
+        <v>45450.79166666666</v>
+      </c>
+      <c r="AH16" s="3" t="n">
+        <v>45450.79143518519</v>
+      </c>
+      <c r="AI16" s="3" t="n">
+        <v>45450.81255787037</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>147.22</v>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>1368.57</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45453.22916666666</v>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>45453.22916666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2298.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2298.78</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2296.06</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2297.1</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1308</v>
+      </c>
+      <c r="H17" t="n">
+        <v>27</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2293.536350164562</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2298.78</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-5.695056563010076e-05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-5.532251355377279e-05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2297.226135732874</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2298.610918800754</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2297.504028207776</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-1.732191569580664</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-2.352110715662622</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.304095034946517</v>
+      </c>
+      <c r="T17" t="n">
+        <v>-0.1384451324383917</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.08488476092361452</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.2470244238038504</v>
+      </c>
+      <c r="W17" t="n">
+        <v>2301.964556504954</v>
+      </c>
+      <c r="X17" t="n">
+        <v>2291.543499910598</v>
+      </c>
+      <c r="Y17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2293.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2296.1</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2296.1</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2295.9</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="3" t="n">
+        <v>45453.28125</v>
+      </c>
+      <c r="AG17" s="3" t="n">
+        <v>45453.28125</v>
+      </c>
+      <c r="AH17" s="3" t="n">
+        <v>45453.29336805556</v>
+      </c>
+      <c r="AI17" s="3" t="n">
+        <v>45453.35469907407</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>146.13</v>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>1513.97</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45454.83333333334</v>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>45454.83333333334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2308.59</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2311.53</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2308.49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2308.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2785</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2307.24139757594</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2314.79269002735</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.000224746378849115</v>
+      </c>
+      <c r="M18" t="n">
+        <v>7.233119201666233e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2310.078256333715</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2310.239055082606</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2308.329931200548</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3100785323890705</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.6951533814744199</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.609216997264208</v>
+      </c>
+      <c r="T18" t="n">
+        <v>-0.2446302029588878</v>
+      </c>
+      <c r="U18" t="n">
+        <v>-0.7433539731700876</v>
+      </c>
+      <c r="V18" t="n">
+        <v>-1.374860681114569</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2313.202374146855</v>
+      </c>
+      <c r="X18" t="n">
+        <v>2301.957488254241</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2312.7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2309.7</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2309.7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2309.9</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="3" t="n">
+        <v>45454.86458333334</v>
+      </c>
+      <c r="AG18" s="3" t="n">
+        <v>45454.86458333334</v>
+      </c>
+      <c r="AH18" s="3" t="n">
+        <v>45454.8721412037</v>
+      </c>
+      <c r="AI18" s="3" t="n">
+        <v>45456.19197916667</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>146.49</v>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1659.37</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45455.23958333334</v>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>45455.23958333334</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2312.35</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2314.37</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2312.17</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2313.53</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1572</v>
+      </c>
+      <c r="H19" t="n">
+        <v>27</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2312.17</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2316.428027994119</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9.270849989840187e-06</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3.859494577346203e-05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2313.580903414157</v>
+      </c>
+      <c r="O19" t="n">
+        <v>2313.703047785109</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2312.59274509804</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.1068104452283478</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.2440787352659634</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.515389168943139</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-0.06027863777080711</v>
+      </c>
+      <c r="U19" t="n">
+        <v>-0.2712280701744021</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.2279497764011467</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2314.638520476114</v>
+      </c>
+      <c r="X19" t="n">
+        <v>2309.046969719967</v>
+      </c>
+      <c r="Y19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2317.53</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2314.53</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2314.53</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2314.73</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="3" t="n">
+        <v>45455.26041666666</v>
+      </c>
+      <c r="AG19" s="3" t="n">
+        <v>45455.26041666666</v>
+      </c>
+      <c r="AH19" s="3" t="n">
+        <v>45455.38990740741</v>
+      </c>
+      <c r="AI19" s="3" t="n">
+        <v>45455.26053240741</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>32.24999999999909</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1695.72</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45456.10416666666</v>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>45456.10416666666</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2321.46</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2322.25</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2320.78</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2321.1</v>
+      </c>
+      <c r="G20" t="n">
+        <v>416</v>
+      </c>
+      <c r="H20" t="n">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2315.961914278137</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2325.512596140707</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.0004277628467463926</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.0002864015421386923</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2322.549197044025</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2324.103844043252</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2321.31131750946</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.5410436709435089</v>
+      </c>
+      <c r="R20" t="n">
+        <v>-0.2419228314366185</v>
+      </c>
+      <c r="S20" t="n">
+        <v>6.515663256082639</v>
+      </c>
+      <c r="T20" t="n">
+        <v>-0.05517371860969433</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.6255349157208911</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.2821775025768147</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2330.107462905172</v>
+      </c>
+      <c r="X20" t="n">
+        <v>2311.015172113749</v>
+      </c>
+      <c r="Y20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2317.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2320.1</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2320.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2319.9</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="3" t="n">
+        <v>45456.13541666666</v>
+      </c>
+      <c r="AG20" s="3" t="n">
+        <v>45456.13541666666</v>
+      </c>
+      <c r="AH20" s="3" t="n">
+        <v>45456.17356481482</v>
+      </c>
+      <c r="AI20" s="3" t="n">
+        <v>45456.13875</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>62.99999999999955</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="AL20" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1732.07</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45456.14583333334</v>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>45456.14583333334</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2321.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2322.85</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2319.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2319.61</v>
+      </c>
+      <c r="G21" t="n">
+        <v>963</v>
+      </c>
+      <c r="H21" t="n">
+        <v>29</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2306.353585616882</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2322.85</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0001838173046710952</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.000249602588760168</v>
+      </c>
+      <c r="N21" t="n">
+        <v>2321.331328522166</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2323.029077243561</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2321.17315101479</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.7310040427328204</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.504765575905878</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4.369743966565459</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.2386240110104154</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.07214310285507963</v>
+      </c>
+      <c r="V21" t="n">
+        <v>-0.3201582387355302</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2327.072305369653</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2313.773996659927</v>
+      </c>
+      <c r="Y21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2315.61</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2322.81</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2318.61</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2318.41</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" s="3" t="n">
+        <v>45456.17708333334</v>
+      </c>
+      <c r="AH21" s="3" t="n">
+        <v>45456.17572916667</v>
+      </c>
+      <c r="AI21" s="3" t="n">
+        <v>45456.65034722222</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>159.94</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1877.47</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45456.16666666666</v>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>45456.16666666666</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2320.74</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2321.48</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2313.63</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2315.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3768</v>
+      </c>
+      <c r="H22" t="n">
+        <v>27</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2307.844615375195</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2321.48</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.449508536370517e-05</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.0002420273902186697</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2320.367637580959</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2322.319085428293</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2319.242786377708</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>-0.8754122770897084</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.6154331335384265</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.029960780824779</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-1.360533195732842</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.5698314413489243</v>
+      </c>
+      <c r="V22" t="n">
+        <v>-0.2386240110104154</v>
+      </c>
+      <c r="W22" t="n">
+        <v>2323.333233431822</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2313.652339323595</v>
+      </c>
+      <c r="Y22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2311.61</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2318.81</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2314.61</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2314.41</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" s="3" t="n">
+        <v>45456.1875</v>
+      </c>
+      <c r="AH22" s="3" t="n">
+        <v>45456.18436342593</v>
+      </c>
+      <c r="AI22" s="3" t="n">
+        <v>45456.55733796296</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>169.03</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>2022.87</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45456.22916666666</v>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>45456.22916666666</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2315.68</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2315.88</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2310.6</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2312.29</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1781</v>
+      </c>
+      <c r="H23" t="n">
+        <v>27</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2310.6</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2316.658506722162</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-7.126634944042041e-05</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-6.78178310526849e-05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2315.845454651419</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2318.914891113186</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2313.076848985208</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>-1.523280350589175</v>
+      </c>
+      <c r="R23" t="n">
+        <v>-1.20694405425778</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.112448581239849</v>
+      </c>
+      <c r="T23" t="n">
+        <v>-0.7785930512532104</v>
+      </c>
+      <c r="U23" t="n">
+        <v>-0.149411764706656</v>
+      </c>
+      <c r="V23" t="n">
+        <v>-0.6019298245641949</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2318.628654569881</v>
+      </c>
+      <c r="X23" t="n">
+        <v>2306.025043400534</v>
+      </c>
+      <c r="Y23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2308.29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>2315.49</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>2311.29</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>2311.09</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" s="3" t="n">
+        <v>45456.32291666666</v>
+      </c>
+      <c r="AH23" s="3" t="n">
+        <v>45456.61083333333</v>
+      </c>
+      <c r="AI23" s="3" t="n">
+        <v>45456.25496527777</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>-116.35</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1906.52</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45456.75</v>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>45456.75</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2313.49</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2317</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2307.99</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2309.57</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4340</v>
+      </c>
+      <c r="H24" t="n">
+        <v>27</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2296.50861615447</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2317</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-8.58642097488e-05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.0004341945180122625</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2312.470282446175</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2313.41620181701</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2312.693123495012</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>-0.4667767311075295</v>
+      </c>
+      <c r="R24" t="n">
+        <v>-0.3212347451522888</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.993005007009082</v>
+      </c>
+      <c r="T24" t="n">
+        <v>-0.1626418988630576</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0.501582387338658</v>
+      </c>
+      <c r="V24" t="n">
+        <v>-0.163890608876045</v>
+      </c>
+      <c r="W24" t="n">
+        <v>2319.433680254474</v>
+      </c>
+      <c r="X24" t="n">
+        <v>2304.45256673555</v>
+      </c>
+      <c r="Y24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2305.57</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>2312.77</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2308.57</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>2308.37</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" s="3" t="n">
+        <v>45456.78125</v>
+      </c>
+      <c r="AH24" s="3" t="n">
+        <v>45456.76253472222</v>
+      </c>
+      <c r="AI24" s="3" t="n">
+        <v>45457.41666666666</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>163.58</v>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>2051.920000000001</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45456.94791666666</v>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>45456.94791666666</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2304.54</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2304.67</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2303.17</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2303.31</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1064</v>
+      </c>
+      <c r="H25" t="n">
+        <v>27</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2303.012338553115</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2304.647005668524</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-5.186725152251914e-05</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-3.028703109617896e-05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2303.147736984042</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2304.887581414168</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2303.492972136225</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-1.300500552225458</v>
+      </c>
+      <c r="R25" t="n">
+        <v>-1.518231614370652</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4.463964157561342</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0.871922944619655</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.105280357755873</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.105534915721364</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2311.019323748933</v>
+      </c>
+      <c r="X25" t="n">
+        <v>2297.466620523518</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2299.31</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>2302.31</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>2302.31</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>2302.11</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="3" t="n">
+        <v>45457.10416666666</v>
+      </c>
+      <c r="AG25" s="3" t="n">
+        <v>45457.10416666666</v>
+      </c>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" s="3" t="n">
+        <v>45457.1061574074</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>35.50000000000182</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>2088.27</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45457.52083333334</v>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>45457.52083333334</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2316.74</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2319.88</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2316.54</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2319.77</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2786</v>
+      </c>
+      <c r="H26" t="n">
+        <v>27</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2316.54</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2330.048947888338</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0003427598098783388</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0003095786026931744</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2315.862494639882</v>
+      </c>
+      <c r="O26" t="n">
+        <v>2312.626379310277</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2318.866749226007</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.670054410850298</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.377076615524919</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5.245537214305536</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.5651909184744</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.1985448916398127</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.4692741658050181</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2327.448224465319</v>
+      </c>
+      <c r="X26" t="n">
+        <v>2311.785273986694</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2323.77</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>2320.77</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>2320.77</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>2320.97</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="3" t="n">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="AG26" s="3" t="n">
+        <v>45457.54166666666</v>
+      </c>
+      <c r="AH26" s="3" t="n">
+        <v>45457.54385416667</v>
+      </c>
+      <c r="AI26" s="3" t="n">
+        <v>45460.35418981482</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>148.67</v>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>2233.670000000001</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45457.75</v>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>45457.75</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2330.01</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2331.72</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2326.34</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2331.45</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3685</v>
+      </c>
+      <c r="H27" t="n">
+        <v>27</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2321.538600200011</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2331.719999999999</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.0003460561739357716</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.0001701129752184997</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2329.843076047734</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2326.73952303093</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2330.175686274509</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.228897774621601</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2.471219961834936</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.560235629877373</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.07901616787239618</v>
+      </c>
+      <c r="U27" t="n">
+        <v>-0.1619435844536383</v>
+      </c>
+      <c r="V27" t="n">
+        <v>-0.7595872033011801</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2337.832004374844</v>
+      </c>
+      <c r="X27" t="n">
+        <v>2324.019368174175</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>2335.45</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>2328.25</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>2332.45</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>2332.65</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" s="3" t="n">
+        <v>45457.85416666666</v>
+      </c>
+      <c r="AH27" s="3" t="n">
+        <v>45457.85862268518</v>
+      </c>
+      <c r="AI27" s="3" t="n">
+        <v>45457.76945601852</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17.25000000000136</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>25.08</v>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>-116.35</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>2117.320000000001</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>45457.79166666666</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2326.06</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2331.19</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2325.33</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2330.72</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3664</v>
+      </c>
+      <c r="H28" t="n">
+        <v>27</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2325.33</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2334.395982551465</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0002309766557900064</v>
+      </c>
+      <c r="M28" t="n">
+        <v>7.666297573164523e-05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2328.987319646191</v>
+      </c>
+      <c r="O28" t="n">
+        <v>2327.067510229653</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2328.765139318884</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.680856354440039</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.076054478142802</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.286079103326577</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.6456965944244075</v>
+      </c>
+      <c r="U28" t="n">
+        <v>-0.8520330237333837</v>
+      </c>
+      <c r="V28" t="n">
+        <v>-0.6686205710379909</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2333.351346108375</v>
+      </c>
+      <c r="X28" t="n">
+        <v>2325.678932529393</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2334.72</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>2331.72</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2331.72</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>2331.92</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="3" t="n">
+        <v>45457.85416666666</v>
+      </c>
+      <c r="AG28" s="3" t="n">
+        <v>45457.85416666666</v>
+      </c>
+      <c r="AH28" s="3" t="n">
+        <v>45457.85828703704</v>
+      </c>
+      <c r="AI28" s="3" t="n">
+        <v>45457.96228009259</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>149.4</v>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>2262.720000000001</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45460.20833333334</v>
+      </c>
+      <c r="B29" s="3" t="n">
+        <v>45460.20833333334</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2326.19</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2326.19</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2323.41</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2324.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1847</v>
+      </c>
+      <c r="H29" t="n">
+        <v>27</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2322.279288624512</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2326.166801236609</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0001200349623879974</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.15216978390374e-06</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2326.592891492845</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2327.985812523867</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2324.940990712074</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>-0.5026042751592286</v>
+      </c>
+      <c r="R29" t="n">
+        <v>-0.2271483655130519</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.890592672791669</v>
+      </c>
+      <c r="T29" t="n">
+        <v>-0.3480529755770476</v>
+      </c>
+      <c r="U29" t="n">
+        <v>-0.1103439972480373</v>
+      </c>
+      <c r="V29" t="n">
+        <v>-0.3501547987611957</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2328.843290820343</v>
+      </c>
+      <c r="X29" t="n">
+        <v>2319.538690603805</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>2320.25</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>2323.25</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>2323.25</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>2323.05</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="3" t="n">
+        <v>45460.25</v>
+      </c>
+      <c r="AG29" s="3" t="n">
+        <v>45460.25</v>
+      </c>
+      <c r="AH29" s="3" t="n">
+        <v>45460.35422453703</v>
+      </c>
+      <c r="AI29" s="3" t="n">
+        <v>45460.28685185185</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>65.49999999999727</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>2299.070000000001</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45460.22916666666</v>
+      </c>
+      <c r="B30" s="3" t="n">
+        <v>45460.22916666666</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2325.44</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2325.74</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2321.82</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2323.1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2033</v>
+      </c>
+      <c r="H30" t="n">
+        <v>27</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2321.809207500588</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2327.691594898463</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0001579704499757636</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-8.459833103909851e-05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2325.909348346948</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2327.451348185757</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2324.49940488476</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>-0.61639536903931</v>
+      </c>
+      <c r="R30" t="n">
+        <v>-0.3533593205693111</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.89956893347928</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.4811661506714699</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.03958032335776807</v>
+      </c>
+      <c r="V30" t="n">
+        <v>-0.3480529755770476</v>
+      </c>
+      <c r="W30" t="n">
+        <v>2328.413822944957</v>
+      </c>
+      <c r="X30" t="n">
+        <v>2319.084986824563</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>2319.1</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>2322.1</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>2322.1</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>2321.9</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="3" t="n">
+        <v>45460.34375</v>
+      </c>
+      <c r="AG30" s="3" t="n">
+        <v>45460.34375</v>
+      </c>
+      <c r="AH30" s="3" t="n">
+        <v>45460.35805555555</v>
+      </c>
+      <c r="AI30" s="3" t="n">
+        <v>45460.49574074074</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>2444.470000000001</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45460.33333333334</v>
+      </c>
+      <c r="B31" s="3" t="n">
+        <v>45460.33333333334</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2323.59</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2323.59</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2320.96</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2321.62</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1034</v>
+      </c>
+      <c r="H31" t="n">
+        <v>27</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2315.743831971243</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2323.590000000001</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-2.402799129071177e-05</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-7.661470334159359e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>2323.877278155575</v>
+      </c>
+      <c r="O31" t="n">
+        <v>2325.263844046584</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2322.914396284829</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>-0.7805688138446385</v>
+      </c>
+      <c r="R31" t="n">
+        <v>-0.735787286711469</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2.142819171093498</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.3357275541811759</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.08048159614736505</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.3232851737184319</v>
+      </c>
+      <c r="W31" t="n">
+        <v>2325.807202165805</v>
+      </c>
+      <c r="X31" t="n">
+        <v>2318.521590403853</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>2317.62</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>2320.62</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>2320.62</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>2320.42</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="3" t="n">
+        <v>45460.375</v>
+      </c>
+      <c r="AG31" s="3" t="n">
+        <v>45460.375</v>
+      </c>
+      <c r="AH31" s="3" t="n">
+        <v>45460.37793981482</v>
+      </c>
+      <c r="AI31" s="3" t="n">
+        <v>45460.47017361111</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>152.67</v>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>145.4</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>2589.870000000001</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45460.6875</v>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>45460.6875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2323.68</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2325.68</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2319.58</v>
+      </c>
+      <c r="F32" t="n">
+        <v>2319.68</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4012</v>
+      </c>
+      <c r="H32" t="n">
+        <v>27</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2319.602898975046</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2331.277325760619</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.000465752582187147</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-0.0004000284079304348</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2320.673093735446</v>
+      </c>
+      <c r="O32" t="n">
+        <v>2320.687591799141</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2320.565008599932</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-0.2115283664475101</v>
+      </c>
+      <c r="R32" t="n">
+        <v>-0.3730349029012328</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.815502685213766</v>
+      </c>
+      <c r="T32" t="n">
+        <v>-0.0227003783948021</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.6566253869978027</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.6593464052257332</v>
+      </c>
+      <c r="W32" t="n">
+        <v>2323.015937224971</v>
+      </c>
+      <c r="X32" t="n">
+        <v>2316.614079974894</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>2315.68</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>2322.88</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>2318.68</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>2318.48</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" s="3" t="n">
+        <v>45460.78125</v>
+      </c>
+      <c r="AH32" s="3" t="n">
+        <v>45460.77354166667</v>
+      </c>
+      <c r="AI32" s="3" t="n">
+        <v>45460.72417824074</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>35.49999999999045</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>51.62</v>
+      </c>
+      <c r="AL32" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>-116.35</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>2473.520000000001</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45461.07291666666</v>
+      </c>
+      <c r="B33" s="3" t="n">
+        <v>45461.07291666666</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2320.42</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2321.1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2320.24</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2320.95</v>
+      </c>
+      <c r="G33" t="n">
+        <v>246</v>
+      </c>
+      <c r="H33" t="n">
+        <v>32</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2319.091159500146</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2323.62757338309</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.537190190575614e-06</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.000107698973367503</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2319.581850821631</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2319.072153643447</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2320.643560371517</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.09561243723373991</v>
+      </c>
+      <c r="R33" t="n">
+        <v>-0.08993042775046155</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.349824319677586</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.06248022015734023</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.2588372893010273</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.3104162366735181</v>
+      </c>
+      <c r="W33" t="n">
+        <v>2325.315823203081</v>
+      </c>
+      <c r="X33" t="n">
+        <v>2317.471297539952</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>2324.95</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>2317.75</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>2321.95</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>2322.15</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" s="3" t="n">
+        <v>45461.15625</v>
+      </c>
+      <c r="AH33" s="3" t="n">
+        <v>45461.15246527778</v>
+      </c>
+      <c r="AI33" s="3" t="n">
+        <v>45461.42065972222</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>153.07</v>
+      </c>
+      <c r="AL33" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>145.44</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>2618.960000000001</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45461.11458333334</v>
+      </c>
+      <c r="B34" s="3" t="n">
+        <v>45461.11458333334</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2320.17</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2320.89</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2320.01</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2320.64</v>
+      </c>
+      <c r="G34" t="n">
+        <v>535</v>
+      </c>
+      <c r="H34" t="n">
+        <v>27</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2317.359417926499</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2325.179716646745</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.0001287306175917355</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2.871100334607774e-05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2319.831021248538</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2319.330846240639</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2320.39994496044</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1556050111767036</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.03830231202601644</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.728602807669393</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.01595803233476545</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.006769865839942213</v>
+      </c>
+      <c r="V34" t="n">
+        <v>-0.0778087375274481</v>
+      </c>
+      <c r="W34" t="n">
+        <v>2324.233558750794</v>
+      </c>
+      <c r="X34" t="n">
+        <v>2318.066331170086</v>
+      </c>
+      <c r="Y34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>2324.64</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>2321.64</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>2321.64</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>2321.84</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="3" t="n">
+        <v>45461.14583333334</v>
+      </c>
+      <c r="AG34" s="3" t="n">
+        <v>45461.14583333334</v>
+      </c>
+      <c r="AH34" s="3" t="n">
+        <v>45461.14927083333</v>
+      </c>
+      <c r="AI34" s="3" t="n">
+        <v>45461.17387731482</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>146.53</v>
+      </c>
+      <c r="AL34" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>145.44</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>2764.400000000001</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45462.125</v>
+      </c>
+      <c r="B35" s="3" t="n">
+        <v>45462.125</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2328.23</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2329.59</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2328.2</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2329.39</v>
+      </c>
+      <c r="G35" t="n">
+        <v>720</v>
+      </c>
+      <c r="H35" t="n">
+        <v>27</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2325.701155463559</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2329.718723141759</v>
+      </c>
+      <c r="L35" t="n">
+        <v>7.618525420381168e-05</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.976736934380597e-05</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2328.981875270824</v>
+      </c>
+      <c r="O35" t="n">
+        <v>2328.204040409367</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2328.683051255589</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.7594660378117624</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.9682071428404289</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.8241211480532152</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1087237702081438</v>
+      </c>
+      <c r="U35" t="n">
+        <v>-0.1720571035425564</v>
+      </c>
+      <c r="V35" t="n">
+        <v>-0.1413897488814655</v>
+      </c>
+      <c r="W35" t="n">
+        <v>2331.295614805461</v>
+      </c>
+      <c r="X35" t="n">
+        <v>2327.570487705717</v>
+      </c>
+      <c r="Y35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>2333.39</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>2330.39</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2330.39</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>2330.59</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="3" t="n">
+        <v>45462.23958333334</v>
+      </c>
+      <c r="AG35" s="3" t="n">
+        <v>45462.23958333334</v>
+      </c>
+      <c r="AH35" s="3" t="n">
+        <v>45462.4587962963</v>
+      </c>
+      <c r="AI35" s="3" t="n">
+        <v>45462.23965277777</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>31.00000000000591</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>45.08</v>
+      </c>
+      <c r="AL35" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>36.36</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>2800.760000000001</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45462.14583333334</v>
+      </c>
+      <c r="B36" s="3" t="n">
+        <v>45462.14583333334</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2328.05</v>
+      </c>
+      <c r="D36" t="n">
+        <v>2329.45</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2327.95</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2328.71</v>
+      </c>
+      <c r="G36" t="n">
+        <v>575</v>
+      </c>
+      <c r="H36" t="n">
+        <v>31</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2326.229560568479</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2330.043696985075</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.878216424496075e-05</v>
+      </c>
+      <c r="M36" t="n">
+        <v>6.977275682774629e-05</v>
+      </c>
+      <c r="N36" t="n">
+        <v>2328.820040874377</v>
+      </c>
+      <c r="O36" t="n">
+        <v>2328.231639582791</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2328.592115583076</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.6473582390126467</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.8596833380727287</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.7237200195301786</v>
+      </c>
+      <c r="T36" t="n">
+        <v>-0.05009631922848712</v>
+      </c>
+      <c r="U36" t="n">
+        <v>-0.04083935328526422</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1087237702081438</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2329.569137609441</v>
+      </c>
+      <c r="X36" t="n">
+        <v>2326.11509355671</v>
+      </c>
+      <c r="Y36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>2332.71</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>2329.71</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>2329.71</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>2329.91</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="3" t="n">
+        <v>45462.20833333334</v>
+      </c>
+      <c r="AG36" s="3" t="n">
+        <v>45462.20833333334</v>
+      </c>
+      <c r="AH36" s="3" t="n">
+        <v>45462.45876157407</v>
+      </c>
+      <c r="AI36" s="3" t="n">
+        <v>45462.20899305555</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>34.50000000000273</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="AL36" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>36.35</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>2837.110000000001</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45462.34375</v>
+      </c>
+      <c r="B37" s="3" t="n">
+        <v>45462.34375</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2327.97</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2328.58</v>
+      </c>
+      <c r="E37" t="n">
+        <v>2327.97</v>
+      </c>
+      <c r="F37" t="n">
+        <v>2328.42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>666</v>
+      </c>
+      <c r="H37" t="n">
+        <v>30</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>2326.403309786352</v>
+      </c>
+      <c r="K37" t="n">
+        <v>2329.087773545466</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.0001673429512434883</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.000215678141943363</v>
+      </c>
+      <c r="N37" t="n">
+        <v>2328.521411669947</v>
+      </c>
+      <c r="O37" t="n">
+        <v>2328.641841489612</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2328.326945304438</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.1136647229363916</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.2562152633372901</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.085305333382736</v>
+      </c>
+      <c r="T37" t="n">
+        <v>-0.07655314757494125</v>
+      </c>
+      <c r="U37" t="n">
+        <v>-0.2314998280012333</v>
+      </c>
+      <c r="V37" t="n">
+        <v>-0.3104506363920336</v>
+      </c>
+      <c r="W37" t="n">
+        <v>2329.792107504504</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2325.361783104371</v>
+      </c>
+      <c r="Y37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>2332.42</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>2329.42</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2329.42</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>2329.62</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="3" t="n">
+        <v>45462.41666666666</v>
+      </c>
+      <c r="AG37" s="3" t="n">
+        <v>45462.41666666666</v>
+      </c>
+      <c r="AH37" s="3" t="n">
+        <v>45462.42045138889</v>
+      </c>
+      <c r="AI37" s="3" t="n">
+        <v>45462.50697916667</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>149.42</v>
+      </c>
+      <c r="AL37" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>145.42</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>2982.530000000001</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="B38" s="3" t="n">
+        <v>45462.63541666666</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2329.65</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2330.64</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2326.62</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2327.11</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1613</v>
+      </c>
+      <c r="H38" t="n">
+        <v>27</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2324.033999764706</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2331.991548581783</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-2.422101068625785e-05</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-6.878636050433582e-05</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2328.849677123419</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2329.201586668041</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2327.427598899206</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>-0.09708174807929026</v>
+      </c>
+      <c r="R38" t="n">
+        <v>-0.002852854083483725</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2.02422264915092</v>
+      </c>
+      <c r="T38" t="n">
+        <v>-0.3529927760591818</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.04253181974308973</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.1617991056073151</v>
+      </c>
+      <c r="W38" t="n">
+        <v>2330.16029947556</v>
+      </c>
+      <c r="X38" t="n">
+        <v>2323.194898322853</v>
+      </c>
+      <c r="Y38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>2323.11</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>2330.31</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>2326.11</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>2325.91</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" s="3" t="n">
+        <v>45462.76041666666</v>
+      </c>
+      <c r="AH38" s="3" t="n">
+        <v>45464.83591435185</v>
+      </c>
+      <c r="AI38" s="3" t="n">
+        <v>45462.68318287037</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>48.75000000000682</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AM38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>-116.36</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>2866.170000000001</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45463.30208333334</v>
+      </c>
+      <c r="B39" s="3" t="n">
+        <v>45463.30208333334</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2335.1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2338.37</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2334.64</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2338.23</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1379</v>
+      </c>
+      <c r="H39" t="n">
+        <v>27</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2334.64</v>
+      </c>
+      <c r="K39" t="n">
+        <v>2344.083577992111</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0001147248211544992</v>
+      </c>
+      <c r="M39" t="n">
+        <v>6.452841483711299e-05</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2334.424046371932</v>
+      </c>
+      <c r="O39" t="n">
+        <v>2332.871319396883</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2336.212999656002</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.8171937410957071</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.6831168437666042</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3.070380432455829</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.6667492260071413</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.1877227382187812</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.001224630199430976</v>
+      </c>
+      <c r="W39" t="n">
+        <v>2341.858013239818</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2332.067986072187</v>
+      </c>
+      <c r="Y39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>2342.23</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>2339.23</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2339.23</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>2339.43</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="3" t="n">
+        <v>45463.33333333334</v>
+      </c>
+      <c r="AG39" s="3" t="n">
+        <v>45463.33333333334</v>
+      </c>
+      <c r="AH39" s="3" t="n">
+        <v>45463.35421296296</v>
+      </c>
+      <c r="AI39" s="3" t="n">
+        <v>45463.45138888889</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>160.69</v>
+      </c>
+      <c r="AL39" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>145.42</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>3011.590000000001</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45463.98958333334</v>
+      </c>
+      <c r="B40" s="3" t="n">
+        <v>45463.98958333334</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2358.95</v>
+      </c>
+      <c r="D40" t="n">
+        <v>2360.06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2358.7</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2359.76</v>
+      </c>
+      <c r="G40" t="n">
+        <v>320</v>
+      </c>
+      <c r="H40" t="n">
+        <v>32</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2357.89648758816</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2360.329328111843</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4.946742167959954e-05</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.0001555770177803226</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2358.484907219652</v>
+      </c>
+      <c r="O40" t="n">
+        <v>2355.85818425156</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2359.706845545236</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.893330132108531</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.089379855636799</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2.563279149850479</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1481045751634156</v>
+      </c>
+      <c r="U40" t="n">
+        <v>-0.02631922944510734</v>
+      </c>
+      <c r="V40" t="n">
+        <v>-0.04768489852131097</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2364.667272397534</v>
+      </c>
+      <c r="X40" t="n">
+        <v>2356.246418692938</v>
+      </c>
+      <c r="Y40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>2363.76</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>2360.76</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>2360.76</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>2360.96</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="3" t="n">
+        <v>45464.13541666666</v>
+      </c>
+      <c r="AG40" s="3" t="n">
+        <v>45464.13541666666</v>
+      </c>
+      <c r="AH40" s="3" t="n">
+        <v>45464.14650462963</v>
+      </c>
+      <c r="AI40" s="3" t="n">
+        <v>45464.17711805556</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>153.41</v>
+      </c>
+      <c r="AL40" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>145.42</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>3157.010000000001</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB15"/>
+  <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,25 +680,20 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>position_close_time</t>
+          <t>win_streak</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>win_streak</t>
+          <t>losing_streak</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>losing_streak</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -706,164 +701,157 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45441.375</v>
+        <v>45370.33333333334</v>
       </c>
       <c r="C2" t="n">
-        <v>68611.836</v>
+        <v>65247.637</v>
       </c>
       <c r="D2" t="n">
-        <v>68688.641</v>
+        <v>65475.039</v>
       </c>
       <c r="E2" t="n">
-        <v>68591.836</v>
+        <v>65061.738</v>
       </c>
       <c r="F2" t="n">
-        <v>68629.141</v>
+        <v>65433.227</v>
       </c>
       <c r="G2" t="n">
-        <v>884</v>
+        <v>3495</v>
       </c>
       <c r="H2" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45441.375</v>
+        <v>45370.33333333334</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45441.375</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-34.23604761905153</v>
-      </c>
+        <v>45370.33333333334</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="n">
-        <v>68702.19219047618</v>
+        <v>65123.52163095239</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004978551760017714</v>
+        <v>-0.007011988364687161</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0001443356762169757</v>
+        <v>-0.006698406827897622</v>
       </c>
       <c r="Q2" t="n">
-        <v>68742.23596428573</v>
+        <v>65392.48178571432</v>
       </c>
       <c r="R2" t="n">
-        <v>68628.54662679158</v>
+        <v>61733.94986180314</v>
       </c>
       <c r="S2" t="n">
-        <v>69030.76397625194</v>
+        <v>63705.22401024606</v>
       </c>
       <c r="T2" t="n">
-        <v>68724.85742268091</v>
+        <v>65418.88194043114</v>
       </c>
       <c r="U2" t="n">
-        <v>68670.21663312118</v>
+        <v>66084.9238286621</v>
       </c>
       <c r="V2" t="n">
-        <v>68764.15943137257</v>
+        <v>65083.36039250089</v>
       </c>
       <c r="W2" t="n">
-        <v>56.74890412305831</v>
-      </c>
-      <c r="X2" t="n">
-        <v>78.57631937509157</v>
-      </c>
+        <v>-438.9331245313224</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>167.7396632167888</v>
+        <v>862.0834079186338</v>
       </c>
       <c r="Z2" t="n">
-        <v>-30.24574750603642</v>
+        <v>15.8594760922424</v>
       </c>
       <c r="AA2" t="n">
-        <v>-51.92579463357106</v>
+        <v>-12.17543997255416</v>
       </c>
       <c r="AB2" t="n">
-        <v>-20.03254592366284</v>
+        <v>-72.82331062940648</v>
       </c>
       <c r="AC2" t="n">
-        <v>68990.60797671523</v>
+        <v>66248.67299319104</v>
       </c>
       <c r="AD2" t="n">
-        <v>68536.2108860299</v>
+        <v>63919.54779181073</v>
       </c>
       <c r="AE2" t="n">
-        <v>25.59106564132401</v>
+        <v>31.24546540904326</v>
       </c>
       <c r="AF2" t="n">
-        <v>38.27986911918126</v>
+        <v>18.46591409971273</v>
       </c>
       <c r="AG2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>68129.141</v>
+        <v>65933.227</v>
       </c>
       <c r="AJ2" t="n">
-        <v>68529.141</v>
+        <v>65033.227</v>
       </c>
       <c r="AK2" t="n">
-        <v>68529.141</v>
+        <v>65533.227</v>
       </c>
       <c r="AL2" t="n">
-        <v>68479.141</v>
+        <v>65583.227</v>
       </c>
       <c r="AM2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN2" s="2" t="n">
-        <v>45441.42708333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN2" t="inlineStr"/>
       <c r="AO2" s="2" t="n">
-        <v>45441.42708333334</v>
+        <v>45371.88541666666</v>
       </c>
       <c r="AP2" s="2" t="n">
-        <v>45441.43768518518</v>
+        <v>45371.90954861111</v>
       </c>
       <c r="AQ2" s="2" t="n">
-        <v>45442.69873842593</v>
+        <v>45370.34828703704</v>
       </c>
       <c r="AR2" t="n">
-        <v>100</v>
+        <v>7.462399999999615</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
         <v>450</v>
       </c>
-      <c r="AX2" t="inlineStr"/>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
       <c r="AY2" t="n">
         <v>1</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -871,257 +859,254 @@
         <v>40</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45441.41666666666</v>
+        <v>45370.41666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>68541.734</v>
+        <v>64723.84</v>
       </c>
       <c r="D3" t="n">
-        <v>68564.836</v>
+        <v>64731.738</v>
       </c>
       <c r="E3" t="n">
-        <v>68245.109</v>
+        <v>64352.348</v>
       </c>
       <c r="F3" t="n">
-        <v>68370.641</v>
+        <v>64420.539</v>
       </c>
       <c r="G3" t="n">
-        <v>1331</v>
+        <v>3222</v>
       </c>
       <c r="H3" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45441.41666666666</v>
+        <v>45370.41666666666</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45441.41666666666</v>
+        <v>45370.41666666666</v>
       </c>
       <c r="L3" t="n">
-        <v>-40.04377380954975</v>
+        <v>-194.0222619047709</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
-        <v>68451.82441666666</v>
+        <v>64430.44036904764</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0006818700096740069</v>
+        <v>-0.005404259222663951</v>
       </c>
       <c r="P3" t="n">
-        <v>1.579649302785503e-05</v>
+        <v>-0.005237343653660533</v>
       </c>
       <c r="Q3" t="n">
-        <v>68702.19219047618</v>
+        <v>64929.49936904762</v>
       </c>
       <c r="R3" t="n">
-        <v>67767.0575026833</v>
+        <v>61777.30916969468</v>
       </c>
       <c r="S3" t="n">
-        <v>68959.00637498753</v>
+        <v>63423.12333001781</v>
       </c>
       <c r="T3" t="n">
-        <v>68620.10737010157</v>
+        <v>64758.32747327931</v>
       </c>
       <c r="U3" t="n">
-        <v>68630.42234974148</v>
+        <v>65379.21773630431</v>
       </c>
       <c r="V3" t="n">
-        <v>68565.35362263503</v>
+        <v>64382.55501135193</v>
       </c>
       <c r="W3" t="n">
-        <v>25.55696377978893</v>
+        <v>-415.3113389678547</v>
       </c>
       <c r="X3" t="n">
-        <v>54.08235155602621</v>
+        <v>-433.731869641693</v>
       </c>
       <c r="Y3" t="n">
-        <v>159.8556746145674</v>
+        <v>609.0670779097288</v>
       </c>
       <c r="Z3" t="n">
-        <v>-77.24926900585706</v>
+        <v>-97.66005056760332</v>
       </c>
       <c r="AA3" t="n">
-        <v>-27.02967733053083</v>
+        <v>-25.08487891301047</v>
       </c>
       <c r="AB3" t="n">
-        <v>-62.2088290334068</v>
+        <v>-136.7418720329297</v>
       </c>
       <c r="AC3" t="n">
-        <v>68781.15878336469</v>
+        <v>65204.79556653007</v>
       </c>
       <c r="AD3" t="n">
-        <v>68348.04846190536</v>
+        <v>63558.8144561738</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.24755836955364</v>
+        <v>39.77178273063017</v>
       </c>
       <c r="AF3" t="n">
-        <v>12.36333322370907</v>
+        <v>33.63687876376105</v>
       </c>
       <c r="AG3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>67870.641</v>
+        <v>64920.539</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68270.641</v>
+        <v>64020.539</v>
       </c>
       <c r="AK3" t="n">
-        <v>68270.641</v>
+        <v>64520.539</v>
       </c>
       <c r="AL3" t="n">
-        <v>68220.641</v>
+        <v>64570.539</v>
       </c>
       <c r="AM3" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="2" t="n">
-        <v>45441.4375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr"/>
       <c r="AO3" s="2" t="n">
-        <v>45441.4375</v>
+        <v>45370.78125</v>
       </c>
       <c r="AP3" s="2" t="n">
-        <v>45441.45979166667</v>
+        <v>45370.7806712963</v>
       </c>
       <c r="AQ3" s="2" t="n">
-        <v>45441.44359953704</v>
+        <v>45370.43020833333</v>
       </c>
       <c r="AR3" t="n">
-        <v>55.36100000000152</v>
+        <v>3.439800000000105</v>
       </c>
       <c r="AS3" t="n">
-        <v>50.84</v>
+        <v>3.13</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>18.35</v>
+        <v>-73.69</v>
       </c>
       <c r="AW3" t="n">
-        <v>468.35</v>
-      </c>
-      <c r="AX3" t="inlineStr"/>
+        <v>376.31</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
       <c r="AY3" t="n">
         <v>2</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA3" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45441.625</v>
+        <v>45370.45833333334</v>
       </c>
       <c r="C4" t="n">
-        <v>67798.641</v>
+        <v>63510.227</v>
       </c>
       <c r="D4" t="n">
-        <v>67981.641</v>
+        <v>63883.84</v>
       </c>
       <c r="E4" t="n">
-        <v>67778.05499999999</v>
+        <v>63031.84</v>
       </c>
       <c r="F4" t="n">
-        <v>67980.734</v>
+        <v>63833.141</v>
       </c>
       <c r="G4" t="n">
-        <v>1327</v>
+        <v>6079</v>
       </c>
       <c r="H4" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45441.625</v>
+        <v>45370.45833333334</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45441.625</v>
+        <v>45370.45833333334</v>
       </c>
       <c r="L4" t="n">
-        <v>-106.0099404762004</v>
+        <v>-499.0589999999793</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>67839.56967857141</v>
+        <v>64188.23751190475</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.001380700772946547</v>
+        <v>-0.00540411360029639</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.001685287959177901</v>
+        <v>-0.004348797478887457</v>
       </c>
       <c r="Q4" t="n">
-        <v>67837.70820238096</v>
+        <v>64430.44036904764</v>
       </c>
       <c r="R4" t="n">
-        <v>66864.06159544564</v>
+        <v>61444.99221857581</v>
       </c>
       <c r="S4" t="n">
-        <v>67584.29506882094</v>
+        <v>63492.4731934849</v>
       </c>
       <c r="T4" t="n">
-        <v>67949.86768630182</v>
+        <v>64240.32730941782</v>
       </c>
       <c r="U4" t="n">
-        <v>68083.02113202168</v>
+        <v>64932.55570420775</v>
       </c>
       <c r="V4" t="n">
-        <v>67932.94734090127</v>
+        <v>63828.84027588578</v>
       </c>
       <c r="W4" t="n">
-        <v>-79.27072268389747</v>
+        <v>-439.9964031848867</v>
       </c>
       <c r="X4" t="n">
-        <v>-79.10266524525962</v>
+        <v>-436.0385250315345</v>
       </c>
       <c r="Y4" t="n">
-        <v>269.5577293440951</v>
+        <v>700.1463609807157</v>
       </c>
       <c r="Z4" t="n">
-        <v>36.46024664603465</v>
+        <v>-83.57793945648154</v>
       </c>
       <c r="AA4" t="n">
-        <v>-9.079369453058462</v>
+        <v>-158.8678624011518</v>
       </c>
       <c r="AB4" t="n">
-        <v>21.66519367047295</v>
+        <v>-160.7617100102871</v>
       </c>
       <c r="AC4" t="n">
-        <v>68298.3502755158</v>
+        <v>64774.03786320975</v>
       </c>
       <c r="AD4" t="n">
-        <v>67569.04440628675</v>
+        <v>62882.14268856182</v>
       </c>
       <c r="AE4" t="n">
-        <v>55.20405269249024</v>
+        <v>19.01192348944947</v>
       </c>
       <c r="AF4" t="n">
-        <v>55.70252252113838</v>
+        <v>15.96513554413313</v>
       </c>
       <c r="AG4" t="b">
         <v>1</v>
@@ -1130,37 +1115,37 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>68480.734</v>
+        <v>64333.141</v>
       </c>
       <c r="AJ4" t="n">
-        <v>68080.734</v>
+        <v>63933.141</v>
       </c>
       <c r="AK4" t="n">
-        <v>68080.734</v>
+        <v>63933.141</v>
       </c>
       <c r="AL4" t="n">
-        <v>68130.734</v>
+        <v>63983.141</v>
       </c>
       <c r="AM4" t="b">
         <v>1</v>
       </c>
       <c r="AN4" s="2" t="n">
-        <v>45441.67708333334</v>
+        <v>45370.5</v>
       </c>
       <c r="AO4" s="2" t="n">
-        <v>45441.67708333334</v>
+        <v>45370.5</v>
       </c>
       <c r="AP4" s="2" t="n">
-        <v>45442.69868055556</v>
+        <v>45370.75541666667</v>
       </c>
       <c r="AQ4" s="2" t="n">
-        <v>45441.67903935185</v>
+        <v>45370.50405092593</v>
       </c>
       <c r="AR4" t="n">
-        <v>66.0814000000013</v>
+        <v>69.33979999999865</v>
       </c>
       <c r="AS4" t="n">
-        <v>60.57</v>
+        <v>63.91</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -1171,119 +1156,118 @@
         <v>1</v>
       </c>
       <c r="AV4" t="n">
-        <v>18.35</v>
+        <v>18.42</v>
       </c>
       <c r="AW4" t="n">
-        <v>486.7</v>
-      </c>
-      <c r="AX4" t="inlineStr"/>
+        <v>394.73</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1</v>
+      </c>
       <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA4" t="n">
         <v>3</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45441.66666666666</v>
+        <v>45370.58333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>67926.141</v>
+        <v>63111.762</v>
       </c>
       <c r="D5" t="n">
-        <v>68286.641</v>
+        <v>63680.738</v>
       </c>
       <c r="E5" t="n">
-        <v>67841.836</v>
+        <v>63024.387</v>
       </c>
       <c r="F5" t="n">
-        <v>68218.141</v>
+        <v>63343.84</v>
       </c>
       <c r="G5" t="n">
-        <v>2164</v>
+        <v>5010</v>
       </c>
       <c r="H5" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45441.66666666666</v>
+        <v>45370.58333333334</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45441.66666666666</v>
+        <v>45370.58333333334</v>
       </c>
       <c r="L5" t="n">
-        <v>1.86147619044641</v>
+        <v>-328.8787857143398</v>
       </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>67852.96949999995</v>
+        <v>63365.78546428567</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0003238017516362696</v>
+        <v>-0.004005235148151744</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0007911016755441923</v>
+        <v>-0.004232723588173041</v>
       </c>
       <c r="Q5" t="n">
-        <v>67839.56967857141</v>
+        <v>63427.31048809525</v>
       </c>
       <c r="R5" t="n">
-        <v>67418.62289009223</v>
+        <v>61141.65562061861</v>
       </c>
       <c r="S5" t="n">
-        <v>68088.21716844746</v>
+        <v>62743.98635407454</v>
       </c>
       <c r="T5" t="n">
-        <v>67964.89659343669</v>
+        <v>63311.91336174849</v>
       </c>
       <c r="U5" t="n">
-        <v>68052.18818552194</v>
+        <v>63900.9668886893</v>
       </c>
       <c r="V5" t="n">
-        <v>67959.55343068461</v>
+        <v>62903.13532335736</v>
       </c>
       <c r="W5" t="n">
-        <v>-64.05009528491064</v>
+        <v>-399.6889685820352</v>
       </c>
       <c r="X5" t="n">
-        <v>-75.51038183619048</v>
+        <v>-420.4560630321016</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.5019201091386</v>
+        <v>757.3062383375317</v>
       </c>
       <c r="Z5" t="n">
-        <v>54.73922359826975</v>
+        <v>16.41639697280334</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.200030271793366</v>
+        <v>-20.54589129691885</v>
       </c>
       <c r="AB5" t="n">
-        <v>-29.13613691095088</v>
+        <v>-91.97299071209272</v>
       </c>
       <c r="AC5" t="n">
-        <v>68157.48102283194</v>
+        <v>63926.99874511303</v>
       </c>
       <c r="AD5" t="n">
-        <v>67763.12583853728</v>
+        <v>61880.77190160169</v>
       </c>
       <c r="AE5" t="n">
-        <v>69.36174758583481</v>
+        <v>36.57419897846768</v>
       </c>
       <c r="AF5" t="n">
-        <v>59.58118601285969</v>
+        <v>22.87744592681274</v>
       </c>
       <c r="AG5" t="b">
         <v>1</v>
@@ -1292,158 +1276,159 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>68718.141</v>
+        <v>63843.84</v>
       </c>
       <c r="AJ5" t="n">
-        <v>67818.141</v>
+        <v>63443.84</v>
       </c>
       <c r="AK5" t="n">
-        <v>68318.141</v>
+        <v>63443.84</v>
       </c>
       <c r="AL5" t="n">
-        <v>68368.141</v>
+        <v>63493.84</v>
       </c>
       <c r="AM5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>45370.61458333334</v>
+      </c>
       <c r="AO5" s="2" t="n">
-        <v>45442.70833333334</v>
+        <v>45370.61458333334</v>
       </c>
       <c r="AP5" s="2" t="n">
-        <v>45442.70982638889</v>
+        <v>45370.64319444444</v>
       </c>
       <c r="AQ5" s="2" t="n">
-        <v>45441.68063657408</v>
+        <v>45370.62788194444</v>
       </c>
       <c r="AR5" t="n">
-        <v>18.6</v>
+        <v>97.75940000000118</v>
       </c>
       <c r="AS5" t="n">
-        <v>17.07</v>
+        <v>90.06</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AU5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>-73.54000000000001</v>
+        <v>18.42</v>
       </c>
       <c r="AW5" t="n">
-        <v>413.16</v>
-      </c>
-      <c r="AX5" t="inlineStr"/>
+        <v>413.15</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2</v>
+      </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BA5" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45441.91666666666</v>
+        <v>45370.625</v>
       </c>
       <c r="C6" t="n">
-        <v>67417.156</v>
+        <v>63648.738</v>
       </c>
       <c r="D6" t="n">
-        <v>67567.43799999999</v>
+        <v>63748.738</v>
       </c>
       <c r="E6" t="n">
-        <v>67372.031</v>
+        <v>63331.84</v>
       </c>
       <c r="F6" t="n">
-        <v>67557.039</v>
+        <v>63369.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1234</v>
+        <v>4052</v>
       </c>
       <c r="H6" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45441.91666666666</v>
+        <v>45370.625</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45441.91666666666</v>
+        <v>45370.625</v>
       </c>
       <c r="L6" t="n">
-        <v>-64.48851190471032</v>
+        <v>-61.52502380957594</v>
       </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="n">
-        <v>67405.80520238097</v>
+        <v>63368.09966666668</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.001196883036531277</v>
+        <v>-0.003286538508748632</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.001322918130176256</v>
+        <v>-0.003499811328982324</v>
       </c>
       <c r="Q6" t="n">
-        <v>67509.57646428572</v>
+        <v>63365.78546428567</v>
       </c>
       <c r="R6" t="n">
-        <v>66542.05801434783</v>
+        <v>61295.05087690063</v>
       </c>
       <c r="S6" t="n">
-        <v>67402.34302996822</v>
+        <v>62987.97334111323</v>
       </c>
       <c r="T6" t="n">
-        <v>67519.19226270806</v>
+        <v>63405.51482844997</v>
       </c>
       <c r="U6" t="n">
-        <v>67622.6627232825</v>
+        <v>63795.16564620392</v>
       </c>
       <c r="V6" t="n">
-        <v>67486.04860681111</v>
+        <v>63208.73001100795</v>
       </c>
       <c r="W6" t="n">
-        <v>-72.02412711146462</v>
+        <v>-314.9194514403207</v>
       </c>
       <c r="X6" t="n">
-        <v>-77.58970190706518</v>
+        <v>-372.9018772442656</v>
       </c>
       <c r="Y6" t="n">
-        <v>214.5004356937766</v>
+        <v>537.0516482259335</v>
       </c>
       <c r="Z6" t="n">
-        <v>24.92118816640868</v>
+        <v>21.79330134156044</v>
       </c>
       <c r="AA6" t="n">
-        <v>-8.19983316132857</v>
+        <v>79.07196594440757</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.10576367386966</v>
+        <v>157.6580068798939</v>
       </c>
       <c r="AC6" t="n">
-        <v>67777.1241949977</v>
+        <v>63935.24973611296</v>
       </c>
       <c r="AD6" t="n">
-        <v>67196.47301862451</v>
+        <v>62483.71028590294</v>
       </c>
       <c r="AE6" t="n">
-        <v>54.2518904501276</v>
+        <v>62.89440828929717</v>
       </c>
       <c r="AF6" t="n">
-        <v>45.48510339170495</v>
+        <v>58.47520369215795</v>
       </c>
       <c r="AG6" t="b">
         <v>1</v>
@@ -1452,160 +1437,157 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>68057.039</v>
+        <v>63869.84</v>
       </c>
       <c r="AJ6" t="n">
-        <v>67657.039</v>
+        <v>62969.84</v>
       </c>
       <c r="AK6" t="n">
-        <v>67657.039</v>
+        <v>63469.84</v>
       </c>
       <c r="AL6" t="n">
-        <v>67707.039</v>
+        <v>63519.84</v>
       </c>
       <c r="AM6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2" t="n">
-        <v>45441.9375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN6" t="inlineStr"/>
       <c r="AO6" s="2" t="n">
-        <v>45441.9375</v>
+        <v>45370.64583333334</v>
       </c>
       <c r="AP6" s="2" t="n">
-        <v>45442.22302083333</v>
+        <v>45370.64325231482</v>
       </c>
       <c r="AQ6" s="2" t="n">
-        <v>45441.93842592592</v>
+        <v>45370.67350694445</v>
       </c>
       <c r="AR6" t="n">
-        <v>36.67979999999807</v>
+        <v>100</v>
       </c>
       <c r="AS6" t="n">
-        <v>33.59</v>
+        <v>92.64</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AU6" t="b">
         <v>1</v>
       </c>
       <c r="AV6" t="n">
-        <v>18.35</v>
+        <v>92.09</v>
       </c>
       <c r="AW6" t="n">
-        <v>431.51</v>
-      </c>
-      <c r="AX6" t="inlineStr"/>
+        <v>505.24</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>3</v>
+      </c>
       <c r="AY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45442</v>
+        <v>45370.75</v>
       </c>
       <c r="C7" t="n">
-        <v>67488.039</v>
+        <v>64060.188</v>
       </c>
       <c r="D7" t="n">
-        <v>67521.734</v>
+        <v>64653.137</v>
       </c>
       <c r="E7" t="n">
-        <v>67397.20299999999</v>
+        <v>63983.867</v>
       </c>
       <c r="F7" t="n">
-        <v>67435.906</v>
+        <v>64334.48</v>
       </c>
       <c r="G7" t="n">
-        <v>1281</v>
+        <v>4386</v>
       </c>
       <c r="H7" t="n">
-        <v>56421</v>
+        <v>36422</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45442</v>
+        <v>45370.75</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45442</v>
+        <v>45370.75</v>
       </c>
       <c r="L7" t="n">
-        <v>6.917916666629026</v>
+        <v>308.0541547619141</v>
       </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
-        <v>67516.75996428574</v>
+        <v>63987.28027380953</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001538779280379432</v>
+        <v>-0.0005227629421864345</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.0003423902513563236</v>
+        <v>0.001819592346359477</v>
       </c>
       <c r="Q7" t="n">
-        <v>67412.7231190476</v>
+        <v>63507.85363095237</v>
       </c>
       <c r="R7" t="n">
-        <v>67205.44790878586</v>
+        <v>62231.37251072028</v>
       </c>
       <c r="S7" t="n">
-        <v>67730.85751880711</v>
+        <v>65547.52596812902</v>
       </c>
       <c r="T7" t="n">
-        <v>67441.71363283787</v>
+        <v>63511.3229295878</v>
       </c>
       <c r="U7" t="n">
-        <v>67527.86912825436</v>
+        <v>63571.04859346533</v>
       </c>
       <c r="V7" t="n">
-        <v>67382.43103646369</v>
+        <v>63497.99028207768</v>
       </c>
       <c r="W7" t="n">
-        <v>-62.22466076890123</v>
+        <v>-138.5984536718606</v>
       </c>
       <c r="X7" t="n">
-        <v>-68.17881735037997</v>
+        <v>-224.3622205830238</v>
       </c>
       <c r="Y7" t="n">
-        <v>134.3469624008651</v>
+        <v>466.1846850356915</v>
       </c>
       <c r="Z7" t="n">
-        <v>2.351982800042606</v>
+        <v>170.2187272101219</v>
       </c>
       <c r="AA7" t="n">
-        <v>-9.633842449169606</v>
+        <v>99.93435810115625</v>
       </c>
       <c r="AB7" t="n">
-        <v>-35.34920261433581</v>
+        <v>110.2108775369852</v>
       </c>
       <c r="AC7" t="n">
-        <v>67565.29943570486</v>
+        <v>64128.83960687587</v>
       </c>
       <c r="AD7" t="n">
-        <v>67201.06263722252</v>
+        <v>62868.6409572795</v>
       </c>
       <c r="AE7" t="n">
-        <v>46.75349398484448</v>
+        <v>91.56058000577191</v>
       </c>
       <c r="AF7" t="n">
-        <v>39.17271157817665</v>
+        <v>73.80432248077676</v>
       </c>
       <c r="AG7" t="b">
         <v>1</v>
@@ -1614,162 +1596,157 @@
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>67935.906</v>
+        <v>64834.48</v>
       </c>
       <c r="AJ7" t="n">
-        <v>67535.906</v>
+        <v>63934.48</v>
       </c>
       <c r="AK7" t="n">
-        <v>67535.906</v>
+        <v>64434.48</v>
       </c>
       <c r="AL7" t="n">
-        <v>67585.906</v>
+        <v>64484.48</v>
       </c>
       <c r="AM7" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN7" s="2" t="n">
-        <v>45442.03125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" s="2" t="n">
-        <v>45442.03125</v>
+        <v>45370.78125</v>
       </c>
       <c r="AP7" s="2" t="n">
-        <v>45442.21234953704</v>
+        <v>45370.7800462963</v>
       </c>
       <c r="AQ7" s="2" t="n">
-        <v>45442.16828703704</v>
+        <v>45370.92010416667</v>
       </c>
       <c r="AR7" t="n">
-        <v>84.8859999999986</v>
+        <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>77.81999999999999</v>
+        <v>92.45</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AU7" t="b">
         <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>18.35</v>
+        <v>92.09</v>
       </c>
       <c r="AW7" t="n">
-        <v>449.8600000000001</v>
-      </c>
-      <c r="AX7" t="inlineStr"/>
+        <v>597.33</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>4</v>
+      </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>132</v>
+        <v>88</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45442.375</v>
+        <v>45370.91666666666</v>
       </c>
       <c r="C8" t="n">
-        <v>68162.141</v>
+        <v>64416.84</v>
       </c>
       <c r="D8" t="n">
-        <v>68206.641</v>
+        <v>64520.938</v>
       </c>
       <c r="E8" t="n">
-        <v>67915.141</v>
+        <v>63695.91</v>
       </c>
       <c r="F8" t="n">
-        <v>67968.336</v>
+        <v>63807.539</v>
       </c>
       <c r="G8" t="n">
-        <v>1803</v>
+        <v>4017</v>
       </c>
       <c r="H8" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45442.375</v>
+        <v>45370.91666666666</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45442.375</v>
+        <v>45370.91666666666</v>
       </c>
       <c r="L8" t="n">
-        <v>83.70969047618564</v>
-      </c>
-      <c r="M8" t="n">
-        <v>-111.3128772777563</v>
-      </c>
+        <v>15.82667857130582</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="n">
-        <v>68088.49377380949</v>
+        <v>64495.99954761901</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0008047772068978437</v>
+        <v>0.002962688159778126</v>
       </c>
       <c r="P8" t="n">
-        <v>0.001638545842977206</v>
+        <v>0.00441262959841473</v>
       </c>
       <c r="Q8" t="n">
-        <v>68132.93620238089</v>
+        <v>64693.3838928571</v>
       </c>
       <c r="R8" t="n">
-        <v>67980.16451749398</v>
+        <v>64317.67192633198</v>
       </c>
       <c r="S8" t="n">
-        <v>69146.11939077471</v>
+        <v>67868.74587340666</v>
       </c>
       <c r="T8" t="n">
-        <v>68076.17088859127</v>
+        <v>64526.84990681023</v>
       </c>
       <c r="U8" t="n">
-        <v>67979.02101521924</v>
+        <v>64371.92743443284</v>
       </c>
       <c r="V8" t="n">
-        <v>68152.77437839704</v>
+        <v>64642.57873890601</v>
       </c>
       <c r="W8" t="n">
-        <v>59.42138710098516</v>
+        <v>85.41195342373248</v>
       </c>
       <c r="X8" t="n">
-        <v>60.77673762333199</v>
+        <v>94.3173489690584</v>
       </c>
       <c r="Y8" t="n">
-        <v>190.6222789174773</v>
+        <v>881.9942505085953</v>
       </c>
       <c r="Z8" t="n">
-        <v>-42.85084176118835</v>
+        <v>-241.6487089783404</v>
       </c>
       <c r="AA8" t="n">
-        <v>-8.718087375309551</v>
+        <v>-192.4949625043737</v>
       </c>
       <c r="AB8" t="n">
-        <v>-5.331271757837385</v>
+        <v>-125.1554702442081</v>
       </c>
       <c r="AC8" t="n">
-        <v>68410.11445493562</v>
+        <v>65833.27097709262</v>
       </c>
       <c r="AD8" t="n">
-        <v>67893.93430185845</v>
+        <v>63450.38650071941</v>
       </c>
       <c r="AE8" t="n">
-        <v>31.20815026009236</v>
+        <v>17.71648175074789</v>
       </c>
       <c r="AF8" t="n">
-        <v>40.02059678062114</v>
+        <v>31.55464165092727</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1778,162 +1755,157 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>67468.336</v>
+        <v>63307.539</v>
       </c>
       <c r="AJ8" t="n">
-        <v>67868.336</v>
+        <v>64207.539</v>
       </c>
       <c r="AK8" t="n">
-        <v>67868.336</v>
+        <v>63707.539</v>
       </c>
       <c r="AL8" t="n">
-        <v>67818.336</v>
+        <v>63657.539</v>
       </c>
       <c r="AM8" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="2" t="n">
-        <v>45442.4375</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN8" t="inlineStr"/>
       <c r="AO8" s="2" t="n">
-        <v>45442.4375</v>
+        <v>45371.01041666666</v>
       </c>
       <c r="AP8" s="2" t="n">
-        <v>45442.46332175926</v>
+        <v>45371.01125</v>
       </c>
       <c r="AQ8" s="2" t="n">
-        <v>45442.44079861111</v>
+        <v>45370.94186342593</v>
       </c>
       <c r="AR8" t="n">
-        <v>33.73899999999848</v>
+        <v>49.41399999999994</v>
       </c>
       <c r="AS8" t="n">
-        <v>31.02</v>
+        <v>45.49</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>18.35</v>
+        <v>-73.69</v>
       </c>
       <c r="AW8" t="n">
-        <v>468.2100000000001</v>
-      </c>
-      <c r="AX8" t="inlineStr"/>
+        <v>523.6400000000001</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
       <c r="AY8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA8" t="n">
         <v>3</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45442.41666666666</v>
+        <v>45370.95833333334</v>
       </c>
       <c r="C9" t="n">
-        <v>67855.617</v>
+        <v>63782.203</v>
       </c>
       <c r="D9" t="n">
-        <v>67957.43799999999</v>
+        <v>63969.938</v>
       </c>
       <c r="E9" t="n">
-        <v>67735.242</v>
+        <v>63695.727</v>
       </c>
       <c r="F9" t="n">
-        <v>67904.734</v>
+        <v>63906.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2060</v>
+        <v>3112</v>
       </c>
       <c r="H9" t="n">
-        <v>36421</v>
+        <v>56422</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45442.41666666666</v>
+        <v>45370.95833333334</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45442.41666666666</v>
+        <v>45370.95833333334</v>
       </c>
       <c r="L9" t="n">
-        <v>-44.44242857140489</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-106.8426838114101</v>
-      </c>
+        <v>-197.3843452380897</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="n">
-        <v>67946.01694047615</v>
+        <v>64343.44839285714</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0001289550159050197</v>
+        <v>0.002564227994390262</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0009642678443979756</v>
+        <v>-0.0005576610259806322</v>
       </c>
       <c r="Q9" t="n">
-        <v>68088.49377380949</v>
+        <v>64495.99954761901</v>
       </c>
       <c r="R9" t="n">
-        <v>67570.97206656265</v>
+        <v>64224.84919012307</v>
       </c>
       <c r="S9" t="n">
-        <v>68927.19543036931</v>
+        <v>65487.40578017978</v>
       </c>
       <c r="T9" t="n">
-        <v>67999.76985924388</v>
+        <v>64185.50839030877</v>
       </c>
       <c r="U9" t="n">
-        <v>67963.93926430971</v>
+        <v>64226.19829268974</v>
       </c>
       <c r="V9" t="n">
-        <v>68009.0518228414</v>
+        <v>63893.55353594765</v>
       </c>
       <c r="W9" t="n">
-        <v>36.07681890885578</v>
+        <v>10.6447076963741</v>
       </c>
       <c r="X9" t="n">
-        <v>50.47006236624621</v>
+        <v>55.75396286102789</v>
       </c>
       <c r="Y9" t="n">
-        <v>156.0386166260692</v>
+        <v>680.87515003136</v>
       </c>
       <c r="Z9" t="n">
-        <v>-28.25850808390533</v>
+        <v>-115.7310175439416</v>
       </c>
       <c r="AA9" t="n">
-        <v>-37.1887131062831</v>
+        <v>-198.9633089095514</v>
       </c>
       <c r="AB9" t="n">
-        <v>-32.5555424837803</v>
+        <v>-197.0751093910294</v>
       </c>
       <c r="AC9" t="n">
-        <v>68219.70395528659</v>
+        <v>64812.73498848999</v>
       </c>
       <c r="AD9" t="n">
-        <v>67796.89969039621</v>
+        <v>62972.87208340531</v>
       </c>
       <c r="AE9" t="n">
-        <v>24.03720532514569</v>
+        <v>14.10664214452792</v>
       </c>
       <c r="AF9" t="n">
-        <v>22.96693543316237</v>
+        <v>11.15367807961867</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1942,37 +1914,37 @@
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>67404.734</v>
+        <v>63406.34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>67804.734</v>
+        <v>63806.34</v>
       </c>
       <c r="AK9" t="n">
-        <v>67804.734</v>
+        <v>63806.34</v>
       </c>
       <c r="AL9" t="n">
-        <v>67754.734</v>
+        <v>63756.34</v>
       </c>
       <c r="AM9" t="b">
         <v>1</v>
       </c>
       <c r="AN9" s="2" t="n">
-        <v>45442.45833333334</v>
+        <v>45371.01041666666</v>
       </c>
       <c r="AO9" s="2" t="n">
-        <v>45442.45833333334</v>
+        <v>45371.01041666666</v>
       </c>
       <c r="AP9" s="2" t="n">
-        <v>45442.46334490741</v>
+        <v>45371.0108912037</v>
       </c>
       <c r="AQ9" s="2" t="n">
-        <v>45442.56597222222</v>
+        <v>45371.56155092592</v>
       </c>
       <c r="AR9" t="n">
         <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>95.98999999999999</v>
+        <v>94.66</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -1983,158 +1955,157 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>91.77</v>
+        <v>92.09</v>
       </c>
       <c r="AW9" t="n">
-        <v>559.9800000000001</v>
-      </c>
-      <c r="AX9" t="inlineStr"/>
+        <v>615.7300000000001</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>1</v>
+      </c>
       <c r="AY9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>148</v>
+        <v>96</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45442.54166666666</v>
+        <v>45371</v>
       </c>
       <c r="C10" t="n">
-        <v>67769.469</v>
+        <v>63967.887</v>
       </c>
       <c r="D10" t="n">
-        <v>67781.836</v>
+        <v>64058.637</v>
       </c>
       <c r="E10" t="n">
-        <v>67623.992</v>
+        <v>63506.934</v>
       </c>
       <c r="F10" t="n">
-        <v>67624.008</v>
+        <v>63518.84</v>
       </c>
       <c r="G10" t="n">
-        <v>1138</v>
+        <v>4576</v>
       </c>
       <c r="H10" t="n">
-        <v>36421</v>
+        <v>56422</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45442.54166666666</v>
+        <v>45371</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45442.54166666666</v>
+        <v>45371</v>
       </c>
       <c r="L10" t="n">
-        <v>-69.21917857152584</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-120.8627568136581</v>
-      </c>
+        <v>-152.5511547618735</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>67775.8368452381</v>
+        <v>63636.92085714287</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.002324347746802154</v>
+        <v>-0.0002998511725679948</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.001053472744834975</v>
+        <v>-0.003450428371456192</v>
       </c>
       <c r="Q10" t="n">
-        <v>67759.95423809516</v>
+        <v>64343.44839285714</v>
       </c>
       <c r="R10" t="n">
-        <v>66200.29302027084</v>
+        <v>62406.67989470059</v>
       </c>
       <c r="S10" t="n">
-        <v>67728.56272305874</v>
+        <v>63755.86941744864</v>
       </c>
       <c r="T10" t="n">
-        <v>67689.31079062012</v>
+        <v>63991.00358924795</v>
       </c>
       <c r="U10" t="n">
-        <v>67767.1919578775</v>
+        <v>64112.51035405987</v>
       </c>
       <c r="V10" t="n">
-        <v>67543.48055452356</v>
+        <v>63678.04090746478</v>
       </c>
       <c r="W10" t="n">
-        <v>-31.48533389950171</v>
+        <v>-31.86899105433986</v>
       </c>
       <c r="X10" t="n">
-        <v>-19.41851949687488</v>
+        <v>12.60680762623294</v>
       </c>
       <c r="Y10" t="n">
-        <v>272.028186197251</v>
+        <v>571.0892048731555</v>
       </c>
       <c r="Z10" t="n">
-        <v>2.713209494322655</v>
+        <v>-99.39922119020048</v>
       </c>
       <c r="AA10" t="n">
-        <v>24.71930581354536</v>
+        <v>15.31068077063537</v>
       </c>
       <c r="AB10" t="n">
-        <v>-18.96062332298607</v>
+        <v>-21.59443894056312</v>
       </c>
       <c r="AC10" t="n">
-        <v>67912.21860588985</v>
+        <v>64449.01133404354</v>
       </c>
       <c r="AD10" t="n">
-        <v>67176.24250315726</v>
+        <v>62905.57048088602</v>
       </c>
       <c r="AE10" t="n">
-        <v>55.86421754006867</v>
+        <v>14.92604349068291</v>
       </c>
       <c r="AF10" t="n">
-        <v>52.71212318027629</v>
+        <v>17.46646362225216</v>
       </c>
       <c r="AG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>68124.008</v>
+        <v>63018.84</v>
       </c>
       <c r="AJ10" t="n">
-        <v>67724.008</v>
+        <v>63418.84</v>
       </c>
       <c r="AK10" t="n">
-        <v>67724.008</v>
+        <v>63418.84</v>
       </c>
       <c r="AL10" t="n">
-        <v>67774.008</v>
+        <v>63368.84</v>
       </c>
       <c r="AM10" t="b">
         <v>1</v>
       </c>
       <c r="AN10" s="2" t="n">
-        <v>45442.57291666666</v>
+        <v>45371.02083333334</v>
       </c>
       <c r="AO10" s="2" t="n">
-        <v>45442.57291666666</v>
+        <v>45371.02083333334</v>
       </c>
       <c r="AP10" s="2" t="n">
-        <v>45442.6034375</v>
-      </c>
-      <c r="AQ10" t="inlineStr"/>
+        <v>45371.02158564814</v>
+      </c>
+      <c r="AQ10" s="2" t="n">
+        <v>45371.12413194445</v>
+      </c>
       <c r="AR10" t="n">
         <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>92.31999999999999</v>
+        <v>94.48</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2145,121 +2116,120 @@
         <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>91.77</v>
+        <v>92.09</v>
       </c>
       <c r="AW10" t="n">
-        <v>651.7500000000001</v>
-      </c>
-      <c r="AX10" t="inlineStr"/>
+        <v>707.8200000000002</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2</v>
+      </c>
       <c r="AY10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45442.58333333334</v>
+        <v>45371.125</v>
       </c>
       <c r="C11" t="n">
-        <v>67955.42999999999</v>
+        <v>63262.086</v>
       </c>
       <c r="D11" t="n">
-        <v>68030.641</v>
+        <v>63286.039</v>
       </c>
       <c r="E11" t="n">
-        <v>67911.94500000001</v>
+        <v>62510.738</v>
       </c>
       <c r="F11" t="n">
-        <v>67987.93799999999</v>
+        <v>62737.039</v>
       </c>
       <c r="G11" t="n">
-        <v>1329</v>
+        <v>4351</v>
       </c>
       <c r="H11" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45442.58333333334</v>
+        <v>45371.125</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45442.58333333334</v>
+        <v>45371.125</v>
       </c>
       <c r="L11" t="n">
-        <v>15.88260714293574</v>
+        <v>-68.89492857144796</v>
       </c>
       <c r="M11" t="n">
-        <v>-101.2050483263447</v>
+        <v>-851.9740110039565</v>
       </c>
       <c r="N11" t="n">
-        <v>67777.10351190479</v>
+        <v>62541.70008333331</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.001431264423806735</v>
+        <v>-0.008333742569333401</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.0006690666776401657</v>
+        <v>-0.005296017784728921</v>
       </c>
       <c r="Q11" t="n">
-        <v>67775.8368452381</v>
+        <v>62805.81251190471</v>
       </c>
       <c r="R11" t="n">
-        <v>66467.56461835332</v>
+        <v>58550.48411616398</v>
       </c>
       <c r="S11" t="n">
-        <v>67947.20107097097</v>
+        <v>61941.30080005198</v>
       </c>
       <c r="T11" t="n">
-        <v>67800.97751246348</v>
+        <v>62791.69734441959</v>
       </c>
       <c r="U11" t="n">
-        <v>67804.95248984157</v>
+        <v>63165.05225374088</v>
       </c>
       <c r="V11" t="n">
-        <v>67776.02121396631</v>
+        <v>62267.85558617129</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.177881143114064</v>
+        <v>-211.3743638859596</v>
       </c>
       <c r="X11" t="n">
-        <v>-17.96505924703932</v>
+        <v>-203.6160024437814</v>
       </c>
       <c r="Y11" t="n">
-        <v>236.2489594850348</v>
+        <v>933.6206408914037</v>
       </c>
       <c r="Z11" t="n">
-        <v>73.53179738561448</v>
+        <v>25.64974165807507</v>
       </c>
       <c r="AA11" t="n">
-        <v>63.87539972482773</v>
+        <v>111.3996057791082</v>
       </c>
       <c r="AB11" t="n">
-        <v>64.35164258688746</v>
+        <v>41.59818403860845</v>
       </c>
       <c r="AC11" t="n">
-        <v>68096.45730927111</v>
+        <v>63529.74345137468</v>
       </c>
       <c r="AD11" t="n">
-        <v>67457.0851186615</v>
+        <v>61007.46772096789</v>
       </c>
       <c r="AE11" t="n">
-        <v>88.17954258959146</v>
+        <v>55.20318769339514</v>
       </c>
       <c r="AF11" t="n">
-        <v>77.56271084699007</v>
+        <v>51.04517827878831</v>
       </c>
       <c r="AG11" t="b">
         <v>1</v>
@@ -2268,162 +2238,159 @@
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>68487.93799999999</v>
+        <v>63237.039</v>
       </c>
       <c r="AJ11" t="n">
-        <v>68087.93799999999</v>
+        <v>62337.039</v>
       </c>
       <c r="AK11" t="n">
-        <v>68087.93799999999</v>
+        <v>62837.039</v>
       </c>
       <c r="AL11" t="n">
-        <v>68137.93799999999</v>
+        <v>62887.039</v>
       </c>
       <c r="AM11" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN11" s="2" t="n">
-        <v>45442.65625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN11" t="inlineStr"/>
       <c r="AO11" s="2" t="n">
-        <v>45442.65625</v>
+        <v>45371.1875</v>
       </c>
       <c r="AP11" s="2" t="n">
-        <v>45442.69869212963</v>
+        <v>45371.2230324074</v>
       </c>
       <c r="AQ11" s="2" t="n">
-        <v>45442.66945601852</v>
+        <v>45371.13846064815</v>
       </c>
       <c r="AR11" t="n">
-        <v>74.24060000000172</v>
+        <v>11.0601999999999</v>
       </c>
       <c r="AS11" t="n">
-        <v>68.09999999999999</v>
+        <v>10.13</v>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>18.35</v>
+        <v>-73.69</v>
       </c>
       <c r="AW11" t="n">
-        <v>670.1000000000001</v>
-      </c>
-      <c r="AX11" t="inlineStr"/>
+        <v>634.1300000000001</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
       <c r="AY11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>176</v>
+        <v>116</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45442.83333333334</v>
+        <v>45371.20833333334</v>
       </c>
       <c r="C12" t="n">
-        <v>68690.508</v>
+        <v>62911.738</v>
       </c>
       <c r="D12" t="n">
-        <v>68901.539</v>
+        <v>63166.238</v>
       </c>
       <c r="E12" t="n">
-        <v>68685.383</v>
+        <v>62783.84</v>
       </c>
       <c r="F12" t="n">
-        <v>68901.539</v>
+        <v>62882.738</v>
       </c>
       <c r="G12" t="n">
-        <v>951</v>
+        <v>3656</v>
       </c>
       <c r="H12" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45442.83333333334</v>
+        <v>45371.20833333334</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45442.83333333334</v>
+        <v>45371.20833333334</v>
       </c>
       <c r="L12" t="n">
-        <v>134.6803809524572</v>
+        <v>28.94003571432404</v>
       </c>
       <c r="M12" t="n">
-        <v>107.4335218300403</v>
+        <v>-868.42820427072</v>
       </c>
       <c r="N12" t="n">
-        <v>68890.33935714292</v>
+        <v>62312.97180952378</v>
       </c>
       <c r="O12" t="n">
-        <v>0.001864927739601356</v>
+        <v>-0.002725945490218493</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003042601312717424</v>
+        <v>-0.002264133022898208</v>
       </c>
       <c r="Q12" t="n">
-        <v>68591.32577380954</v>
+        <v>62570.64011904764</v>
       </c>
       <c r="R12" t="n">
-        <v>68939.71433738396</v>
+        <v>60236.61835950177</v>
       </c>
       <c r="S12" t="n">
-        <v>70433.44861557144</v>
+        <v>62925.01535718513</v>
       </c>
       <c r="T12" t="n">
-        <v>68526.55322370923</v>
+        <v>62774.59278223162</v>
       </c>
       <c r="U12" t="n">
-        <v>68351.06191302602</v>
+        <v>62962.616422532</v>
       </c>
       <c r="V12" t="n">
-        <v>68630.89398864811</v>
+        <v>62913.25528001375</v>
       </c>
       <c r="W12" t="n">
-        <v>95.33594375413668</v>
+        <v>-150.5250339449703</v>
       </c>
       <c r="X12" t="n">
-        <v>82.1285058496057</v>
+        <v>-184.4896769026139</v>
       </c>
       <c r="Y12" t="n">
-        <v>262.3853876396718</v>
+        <v>652.5144989429855</v>
       </c>
       <c r="Z12" t="n">
-        <v>74.21207774338836</v>
+        <v>86.41699931198673</v>
       </c>
       <c r="AA12" t="n">
-        <v>29.36420364635705</v>
+        <v>115.7418875128787</v>
       </c>
       <c r="AB12" t="n">
-        <v>-11.13229962153127</v>
+        <v>146.7314289645801</v>
       </c>
       <c r="AC12" t="n">
-        <v>68986.61426196167</v>
+        <v>63795.64985358678</v>
       </c>
       <c r="AD12" t="n">
-        <v>68276.67371533455</v>
+        <v>62032.36070644072</v>
       </c>
       <c r="AE12" t="n">
-        <v>77.79105148418716</v>
+        <v>69.30649737491846</v>
       </c>
       <c r="AF12" t="n">
-        <v>62.52825333747489</v>
+        <v>71.72329515799053</v>
       </c>
       <c r="AG12" t="b">
         <v>1</v>
@@ -2432,35 +2399,35 @@
         <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>69401.539</v>
+        <v>63382.738</v>
       </c>
       <c r="AJ12" t="n">
-        <v>68501.539</v>
+        <v>62482.738</v>
       </c>
       <c r="AK12" t="n">
-        <v>69001.539</v>
+        <v>62982.738</v>
       </c>
       <c r="AL12" t="n">
-        <v>69051.539</v>
+        <v>63032.738</v>
       </c>
       <c r="AM12" t="b">
         <v>0</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" s="2" t="n">
-        <v>45442.86458333334</v>
+        <v>45371.22916666666</v>
       </c>
       <c r="AP12" s="2" t="n">
-        <v>45442.86141203704</v>
+        <v>45371.22557870371</v>
       </c>
       <c r="AQ12" s="2" t="n">
-        <v>45442.95072916667</v>
+        <v>45371.24190972222</v>
       </c>
       <c r="AR12" t="n">
         <v>100</v>
       </c>
       <c r="AS12" t="n">
-        <v>92.31999999999999</v>
+        <v>93.37</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
@@ -2471,121 +2438,120 @@
         <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>91.77</v>
+        <v>92.09</v>
       </c>
       <c r="AW12" t="n">
-        <v>761.8700000000001</v>
-      </c>
-      <c r="AX12" t="inlineStr"/>
+        <v>726.2200000000001</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
       <c r="AY12" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA12" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45442.84375</v>
+        <v>45371.41666666666</v>
       </c>
       <c r="C13" t="n">
-        <v>68893.656</v>
+        <v>62966.738</v>
       </c>
       <c r="D13" t="n">
-        <v>69150.539</v>
+        <v>63227.539</v>
       </c>
       <c r="E13" t="n">
-        <v>68799.758</v>
+        <v>62735.598</v>
       </c>
       <c r="F13" t="n">
-        <v>69026.836</v>
+        <v>63016.539</v>
       </c>
       <c r="G13" t="n">
-        <v>2279</v>
+        <v>3495</v>
       </c>
       <c r="H13" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45442.83333333334</v>
+        <v>45371.41666666666</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45442.83333333334</v>
+        <v>45371.41666666666</v>
       </c>
       <c r="L13" t="n">
-        <v>134.6803809524572</v>
+        <v>230.063797619041</v>
       </c>
       <c r="M13" t="n">
-        <v>107.4335218300403</v>
+        <v>-904.7383238194234</v>
       </c>
       <c r="N13" t="n">
-        <v>68890.33935714292</v>
+        <v>62299.79327380954</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001864927739601356</v>
+        <v>-0.000912990639610162</v>
       </c>
       <c r="P13" t="n">
-        <v>0.003042601312717424</v>
+        <v>-0.0005473339859970801</v>
       </c>
       <c r="Q13" t="n">
-        <v>68591.32577380954</v>
+        <v>62025.29654761907</v>
       </c>
       <c r="R13" t="n">
-        <v>68939.71433738396</v>
+        <v>60392.19601973131</v>
       </c>
       <c r="S13" t="n">
-        <v>70433.44861557144</v>
+        <v>63191.94907196501</v>
       </c>
       <c r="T13" t="n">
-        <v>68603.51980467704</v>
+        <v>62395.33393974724</v>
       </c>
       <c r="U13" t="n">
-        <v>68401.11925280187</v>
+        <v>62362.64088332866</v>
       </c>
       <c r="V13" t="n">
-        <v>68710.42601651188</v>
+        <v>62546.74320949428</v>
       </c>
       <c r="W13" t="n">
-        <v>106.3876753240474</v>
+        <v>-66.09074811610481</v>
       </c>
       <c r="X13" t="n">
-        <v>86.98033974449405</v>
+        <v>-147.6062337509527</v>
       </c>
       <c r="Y13" t="n">
-        <v>286.0772413713978</v>
+        <v>676.9706570258882</v>
       </c>
       <c r="Z13" t="n">
-        <v>79.53202786376642</v>
+        <v>263.0178747849495</v>
       </c>
       <c r="AA13" t="n">
-        <v>74.21207774338836</v>
+        <v>312.1166288270033</v>
       </c>
       <c r="AB13" t="n">
-        <v>29.36420364635705</v>
+        <v>263.9206573786651</v>
       </c>
       <c r="AC13" t="n">
-        <v>69098.13029236326</v>
+        <v>63462.15359647923</v>
       </c>
       <c r="AD13" t="n">
-        <v>68324.22174066049</v>
+        <v>61632.83282250933</v>
       </c>
       <c r="AE13" t="n">
-        <v>89.62399313995415</v>
+        <v>91.59583135581296</v>
       </c>
       <c r="AF13" t="n">
-        <v>75.98015424876094</v>
+        <v>89.69844859205499</v>
       </c>
       <c r="AG13" t="b">
         <v>1</v>
@@ -2594,195 +2560,198 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>69526.836</v>
+        <v>63516.539</v>
       </c>
       <c r="AJ13" t="n">
-        <v>69126.836</v>
+        <v>63116.539</v>
       </c>
       <c r="AK13" t="n">
-        <v>69126.836</v>
+        <v>63116.539</v>
       </c>
       <c r="AL13" t="n">
-        <v>69176.836</v>
+        <v>63166.539</v>
       </c>
       <c r="AM13" t="b">
         <v>1</v>
       </c>
       <c r="AN13" s="2" t="n">
-        <v>45442.86458333334</v>
+        <v>45371.5</v>
       </c>
       <c r="AO13" s="2" t="n">
-        <v>45442.86458333334</v>
+        <v>45371.5</v>
       </c>
       <c r="AP13" s="2" t="n">
-        <v>45442.86971064815</v>
+        <v>45371.5596875</v>
       </c>
       <c r="AQ13" s="2" t="n">
-        <v>45442.88640046296</v>
+        <v>45371.50155092592</v>
       </c>
       <c r="AR13" t="n">
-        <v>100</v>
+        <v>46.41960000000108</v>
       </c>
       <c r="AS13" t="n">
-        <v>93.61</v>
+        <v>42.73</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AU13" t="b">
         <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>91.77</v>
+        <v>18.42</v>
       </c>
       <c r="AW13" t="n">
-        <v>853.6400000000001</v>
-      </c>
-      <c r="AX13" t="inlineStr"/>
+        <v>744.6400000000001</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2</v>
+      </c>
       <c r="AY13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA13" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45442.88541666666</v>
+        <v>45371.625</v>
       </c>
       <c r="C14" t="n">
-        <v>69168.67200000001</v>
+        <v>64067.586</v>
       </c>
       <c r="D14" t="n">
-        <v>69454.336</v>
+        <v>64088.84</v>
       </c>
       <c r="E14" t="n">
-        <v>69116.92200000001</v>
+        <v>63531.918</v>
       </c>
       <c r="F14" t="n">
-        <v>69320.43799999999</v>
+        <v>63571.34</v>
       </c>
       <c r="G14" t="n">
-        <v>1498</v>
+        <v>3321</v>
       </c>
       <c r="H14" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45442.875</v>
+        <v>45371.625</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45442.875</v>
+        <v>45371.625</v>
       </c>
       <c r="L14" t="n">
-        <v>299.013583333377</v>
+        <v>384.8310119047528</v>
       </c>
       <c r="M14" t="n">
-        <v>189.1915937396116</v>
+        <v>-408.9603522562466</v>
       </c>
       <c r="N14" t="n">
-        <v>69139.53548809521</v>
+        <v>63718.05750000004</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002220665577881831</v>
+        <v>0.003605945339630166</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003042809242497455</v>
+        <v>0.003582377692137908</v>
       </c>
       <c r="Q14" t="n">
-        <v>68890.33935714292</v>
+        <v>63646.78996428566</v>
       </c>
       <c r="R14" t="n">
-        <v>69244.95277714687</v>
+        <v>64024.205026838</v>
       </c>
       <c r="S14" t="n">
-        <v>70647.87874421444</v>
+        <v>65540.39151715508</v>
       </c>
       <c r="T14" t="n">
-        <v>68948.85353854125</v>
+        <v>63595.1308387225</v>
       </c>
       <c r="U14" t="n">
-        <v>68643.98344648557</v>
+        <v>63248.92907818178</v>
       </c>
       <c r="V14" t="n">
-        <v>69152.22721396631</v>
+        <v>63899.48353904364</v>
       </c>
       <c r="W14" t="n">
-        <v>154.833921348938</v>
+        <v>167.9599058472231</v>
       </c>
       <c r="X14" t="n">
-        <v>121.1308059687324</v>
+        <v>131.2709589367117</v>
       </c>
       <c r="Y14" t="n">
-        <v>395.5243864472496</v>
+        <v>475.5295376563097</v>
       </c>
       <c r="Z14" t="n">
-        <v>113.1933464052418</v>
+        <v>-2.807621947060397</v>
       </c>
       <c r="AA14" t="n">
-        <v>65.11993395253376</v>
+        <v>128.1220543515446</v>
       </c>
       <c r="AB14" t="n">
-        <v>112.7322676298791</v>
+        <v>131.3409380805751</v>
       </c>
       <c r="AC14" t="n">
-        <v>69687.68513567009</v>
+        <v>64541.44841487966</v>
       </c>
       <c r="AD14" t="n">
-        <v>68618.26929226253</v>
+        <v>63256.01866320762</v>
       </c>
       <c r="AE14" t="n">
-        <v>80.67539666718751</v>
+        <v>69.44109597009144</v>
       </c>
       <c r="AF14" t="n">
-        <v>84.9579504415991</v>
+        <v>77.45384137760817</v>
       </c>
       <c r="AG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>69820.43799999999</v>
+        <v>63071.34</v>
       </c>
       <c r="AJ14" t="n">
-        <v>68920.43799999999</v>
+        <v>63971.34</v>
       </c>
       <c r="AK14" t="n">
-        <v>69420.43799999999</v>
+        <v>63471.34</v>
       </c>
       <c r="AL14" t="n">
-        <v>69470.43799999999</v>
+        <v>63421.34</v>
       </c>
       <c r="AM14" t="b">
         <v>0</v>
       </c>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
+      <c r="AO14" s="2" t="n">
+        <v>45371.77083333334</v>
+      </c>
+      <c r="AP14" s="2" t="n">
+        <v>45371.76773148148</v>
+      </c>
       <c r="AQ14" s="2" t="n">
-        <v>45442.9417824074</v>
+        <v>45371.67408564815</v>
       </c>
       <c r="AR14" t="n">
-        <v>16.3</v>
+        <v>95.18039999999893</v>
       </c>
       <c r="AS14" t="n">
-        <v>15.05</v>
+        <v>87.66</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -2793,121 +2762,120 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-73.54000000000001</v>
+        <v>-73.69</v>
       </c>
       <c r="AW14" t="n">
-        <v>780.1000000000001</v>
-      </c>
-      <c r="AX14" t="inlineStr"/>
+        <v>670.95</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45442.95833333334</v>
+        <v>45371.70833333334</v>
       </c>
       <c r="C15" t="n">
-        <v>68686.836</v>
+        <v>64254.039</v>
       </c>
       <c r="D15" t="n">
-        <v>68693.734</v>
+        <v>64406.262</v>
       </c>
       <c r="E15" t="n">
-        <v>68047.656</v>
+        <v>63945.938</v>
       </c>
       <c r="F15" t="n">
-        <v>68201.734</v>
+        <v>64158.938</v>
       </c>
       <c r="G15" t="n">
-        <v>2687</v>
+        <v>3428</v>
       </c>
       <c r="H15" t="n">
-        <v>36421</v>
+        <v>36422</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45442.95833333334</v>
+        <v>45371.70833333334</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45442.95833333334</v>
+        <v>45371.70833333334</v>
       </c>
       <c r="L15" t="n">
-        <v>-92.74058333330322</v>
+        <v>186.698785714274</v>
       </c>
       <c r="M15" t="n">
-        <v>246.9329666286067</v>
+        <v>-223.4379288111086</v>
       </c>
       <c r="N15" t="n">
-        <v>68887.3152619047</v>
+        <v>63910.5463452381</v>
       </c>
       <c r="O15" t="n">
-        <v>-3.748869300118868e-05</v>
+        <v>0.001735136199551327</v>
       </c>
       <c r="P15" t="n">
-        <v>0.001694280796933144</v>
+        <v>0.003316233760838013</v>
       </c>
       <c r="Q15" t="n">
-        <v>69046.7949047619</v>
+        <v>63904.75628571431</v>
       </c>
       <c r="R15" t="n">
-        <v>68037.12630671513</v>
+        <v>63762.11237422573</v>
       </c>
       <c r="S15" t="n">
-        <v>70395.88966447469</v>
+        <v>65889.22581670612</v>
       </c>
       <c r="T15" t="n">
-        <v>68854.50318143316</v>
+        <v>63881.22645101271</v>
       </c>
       <c r="U15" t="n">
-        <v>68742.57156395463</v>
+        <v>63563.89968150075</v>
       </c>
       <c r="V15" t="n">
-        <v>69039.43027347783</v>
+        <v>64085.48845407634</v>
       </c>
       <c r="W15" t="n">
-        <v>99.6846551039489</v>
+        <v>177.2731604767614</v>
       </c>
       <c r="X15" t="n">
-        <v>133.1506591736351</v>
+        <v>160.4110562900788</v>
       </c>
       <c r="Y15" t="n">
-        <v>395.4527229019732</v>
+        <v>437.0886516152945</v>
       </c>
       <c r="Z15" t="n">
-        <v>-179.8546198830445</v>
+        <v>19.54990264878143</v>
       </c>
       <c r="AA15" t="n">
-        <v>-86.01411317507154</v>
+        <v>82.0083804609676</v>
       </c>
       <c r="AB15" t="n">
-        <v>-81.15099655999802</v>
+        <v>39.02517027858994</v>
       </c>
       <c r="AC15" t="n">
-        <v>69573.2914493955</v>
+        <v>64677.05813375698</v>
       </c>
       <c r="AD15" t="n">
-        <v>68504.06909756016</v>
+        <v>63495.41877439569</v>
       </c>
       <c r="AE15" t="n">
-        <v>21.53775445771038</v>
+        <v>82.15842023650524</v>
       </c>
       <c r="AF15" t="n">
-        <v>36.19150092641338</v>
+        <v>79.80513656122513</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -2916,60 +2884,224 @@
         <v>1</v>
       </c>
       <c r="AI15" t="n">
-        <v>67701.734</v>
+        <v>63658.938</v>
       </c>
       <c r="AJ15" t="n">
-        <v>68601.734</v>
+        <v>64058.938</v>
       </c>
       <c r="AK15" t="n">
-        <v>68101.734</v>
+        <v>64058.938</v>
       </c>
       <c r="AL15" t="n">
-        <v>68051.734</v>
+        <v>64008.938</v>
       </c>
       <c r="AM15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
+        <v>45371.72916666666</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>45371.72916666666</v>
+      </c>
+      <c r="AP15" s="2" t="n">
+        <v>45371.73136574074</v>
+      </c>
+      <c r="AQ15" s="2" t="n">
+        <v>45371.80237268518</v>
+      </c>
       <c r="AR15" t="n">
-        <v>25.97960000000021</v>
+        <v>100</v>
       </c>
       <c r="AS15" t="n">
-        <v>23.86</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AU15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>0</v>
+        <v>92.09</v>
       </c>
       <c r="AW15" t="n">
-        <v>780.1000000000001</v>
-      </c>
-      <c r="AX15" s="2" t="n">
-        <v>45443.08333333334</v>
+        <v>763.0400000000001</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
       </c>
       <c r="AY15" t="n">
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45371.75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>63630.738</v>
+      </c>
+      <c r="D16" t="n">
+        <v>63815.039</v>
+      </c>
+      <c r="E16" t="n">
+        <v>63318.977</v>
+      </c>
+      <c r="F16" t="n">
+        <v>63718.039</v>
+      </c>
+      <c r="G16" t="n">
+        <v>4019</v>
+      </c>
+      <c r="H16" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>45371.75</v>
+      </c>
+      <c r="K16" s="2" t="n">
+        <v>45371.75</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5.790059523787932</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-182.2688389089817</v>
+      </c>
+      <c r="N16" t="n">
+        <v>63672.70335714284</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.001419081521234961</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.001075612020836606</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>63910.5463452381</v>
+      </c>
+      <c r="R16" t="n">
+        <v>61685.36723678323</v>
+      </c>
+      <c r="S16" t="n">
+        <v>64922.40491621769</v>
+      </c>
+      <c r="T16" t="n">
+        <v>63792.78031971138</v>
+      </c>
+      <c r="U16" t="n">
+        <v>63601.3205350363</v>
+      </c>
+      <c r="V16" t="n">
+        <v>63868.19933126934</v>
+      </c>
+      <c r="W16" t="n">
+        <v>135.3844362717282</v>
+      </c>
+      <c r="X16" t="n">
+        <v>153.5914313359663</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>373.2166403711813</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>-49.30594186443341</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>-33.94636154110776</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-106.3642046783862</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>64372.04179577044</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>63362.85686676825</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>40.9488738889936</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>49.28217331659713</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>63218.039</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>64118.039</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>63618.039</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>63568.039</v>
+      </c>
+      <c r="AM16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="inlineStr"/>
+      <c r="AO16" s="2" t="n">
+        <v>45371.77083333334</v>
+      </c>
+      <c r="AP16" s="2" t="n">
+        <v>45371.76665509259</v>
+      </c>
+      <c r="AQ16" s="2" t="n">
+        <v>45371.80245370371</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>93.19</v>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU16" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>92.09</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>855.1300000000001</v>
+      </c>
+      <c r="AX16" t="n">
         <v>2</v>
       </c>
-      <c r="BA15" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>5</v>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-73.69</v>
+        <v>-73.70999999999999</v>
       </c>
       <c r="AW3" t="n">
-        <v>376.31</v>
+        <v>376.29</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>69.33979999999865</v>
       </c>
       <c r="AS4" t="n">
-        <v>63.91</v>
+        <v>63.93</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         <v>18.42</v>
       </c>
       <c r="AW4" t="n">
-        <v>394.73</v>
+        <v>394.71</v>
       </c>
       <c r="AX4" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>97.75940000000118</v>
       </c>
       <c r="AS5" t="n">
-        <v>90.06</v>
+        <v>90.08</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>18.42</v>
       </c>
       <c r="AW5" t="n">
-        <v>413.15</v>
+        <v>413.1300000000001</v>
       </c>
       <c r="AX5" t="n">
         <v>2</v>
@@ -1465,7 +1465,7 @@
         <v>100</v>
       </c>
       <c r="AS6" t="n">
-        <v>92.64</v>
+        <v>92.66</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>1</v>
       </c>
       <c r="AV6" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW6" t="n">
-        <v>505.24</v>
+        <v>505.2400000000001</v>
       </c>
       <c r="AX6" t="n">
         <v>3</v>
@@ -1624,7 +1624,7 @@
         <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>92.45</v>
+        <v>92.48</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -1635,10 +1635,10 @@
         <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW7" t="n">
-        <v>597.33</v>
+        <v>597.35</v>
       </c>
       <c r="AX7" t="n">
         <v>4</v>
@@ -1783,7 +1783,7 @@
         <v>49.41399999999994</v>
       </c>
       <c r="AS8" t="n">
-        <v>45.49</v>
+        <v>45.5</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
@@ -1794,10 +1794,10 @@
         <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>-73.69</v>
+        <v>-73.70999999999999</v>
       </c>
       <c r="AW8" t="n">
-        <v>523.6400000000001</v>
+        <v>523.64</v>
       </c>
       <c r="AX8" t="n">
         <v>0</v>
@@ -1944,7 +1944,7 @@
         <v>100</v>
       </c>
       <c r="AS9" t="n">
-        <v>94.66</v>
+        <v>94.69</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
         <v>1</v>
       </c>
       <c r="AV9" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW9" t="n">
-        <v>615.7300000000001</v>
+        <v>615.75</v>
       </c>
       <c r="AX9" t="n">
         <v>1</v>
@@ -2105,7 +2105,7 @@
         <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>94.48</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW10" t="n">
-        <v>707.8200000000002</v>
+        <v>707.86</v>
       </c>
       <c r="AX10" t="n">
         <v>2</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>-73.69</v>
+        <v>-73.70999999999999</v>
       </c>
       <c r="AW11" t="n">
-        <v>634.1300000000001</v>
+        <v>634.15</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
@@ -2427,7 +2427,7 @@
         <v>100</v>
       </c>
       <c r="AS12" t="n">
-        <v>93.37</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
@@ -2438,10 +2438,10 @@
         <v>1</v>
       </c>
       <c r="AV12" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW12" t="n">
-        <v>726.2200000000001</v>
+        <v>726.26</v>
       </c>
       <c r="AX12" t="n">
         <v>1</v>
@@ -2590,7 +2590,7 @@
         <v>46.41960000000108</v>
       </c>
       <c r="AS13" t="n">
-        <v>42.73</v>
+        <v>42.74</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>18.42</v>
       </c>
       <c r="AW13" t="n">
-        <v>744.6400000000001</v>
+        <v>744.6799999999999</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
@@ -2751,7 +2751,7 @@
         <v>95.18039999999893</v>
       </c>
       <c r="AS14" t="n">
-        <v>87.66</v>
+        <v>87.69</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -2762,10 +2762,10 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-73.69</v>
+        <v>-73.70999999999999</v>
       </c>
       <c r="AW14" t="n">
-        <v>670.95</v>
+        <v>670.9699999999999</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
@@ -2914,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="AS15" t="n">
-        <v>93.01000000000001</v>
+        <v>93.03</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW15" t="n">
-        <v>763.0400000000001</v>
+        <v>763.0799999999999</v>
       </c>
       <c r="AX15" t="n">
         <v>1</v>
@@ -3075,7 +3075,7 @@
         <v>100</v>
       </c>
       <c r="AS16" t="n">
-        <v>93.19</v>
+        <v>93.22</v>
       </c>
       <c r="AT16" t="inlineStr">
         <is>
@@ -3086,10 +3086,10 @@
         <v>1</v>
       </c>
       <c r="AV16" t="n">
-        <v>92.09</v>
+        <v>92.11</v>
       </c>
       <c r="AW16" t="n">
-        <v>855.1300000000001</v>
+        <v>855.1899999999999</v>
       </c>
       <c r="AX16" t="n">
         <v>2</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA16"/>
+  <dimension ref="A1:BA41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,154 +701,160 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45370.33333333334</v>
+        <v>45363.79166666666</v>
       </c>
       <c r="C2" t="n">
-        <v>65247.637</v>
+        <v>70540.69500000001</v>
       </c>
       <c r="D2" t="n">
-        <v>65475.039</v>
+        <v>70673.43799999999</v>
       </c>
       <c r="E2" t="n">
-        <v>65061.738</v>
+        <v>69592.04700000001</v>
       </c>
       <c r="F2" t="n">
-        <v>65433.227</v>
+        <v>69869.05499999999</v>
       </c>
       <c r="G2" t="n">
-        <v>3495</v>
+        <v>6326</v>
       </c>
       <c r="H2" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45370.33333333334</v>
+        <v>45363.79166666666</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>45370.33333333334</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+        <v>45363.79166666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-511.5082142857573</v>
+      </c>
+      <c r="M2" t="n">
+        <v>181.6815507883439</v>
+      </c>
       <c r="N2" t="n">
-        <v>65123.52163095239</v>
+        <v>71267.815</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.007011988364687161</v>
+        <v>-0.001395771169601964</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.006698406827897622</v>
+        <v>0.0003444109403486298</v>
       </c>
       <c r="Q2" t="n">
-        <v>65392.48178571432</v>
+        <v>71471.44379761899</v>
       </c>
       <c r="R2" t="n">
-        <v>61733.94986180314</v>
+        <v>70315.28113182737</v>
       </c>
       <c r="S2" t="n">
-        <v>63705.22401024606</v>
+        <v>72969.68634618743</v>
       </c>
       <c r="T2" t="n">
-        <v>65418.88194043114</v>
+        <v>71141.8711085683</v>
       </c>
       <c r="U2" t="n">
-        <v>66084.9238286621</v>
+        <v>71538.71436310478</v>
       </c>
       <c r="V2" t="n">
-        <v>65083.36039250089</v>
+        <v>70777.85148744409</v>
       </c>
       <c r="W2" t="n">
-        <v>-438.9331245313224</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
+        <v>-159.2714708004351</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-71.0189033375167</v>
+      </c>
       <c r="Y2" t="n">
-        <v>862.0834079186338</v>
+        <v>652.0454998137615</v>
       </c>
       <c r="Z2" t="n">
-        <v>15.8594760922424</v>
+        <v>-322.4027956655918</v>
       </c>
       <c r="AA2" t="n">
-        <v>-12.17543997255416</v>
+        <v>-254.1034007568524</v>
       </c>
       <c r="AB2" t="n">
-        <v>-72.82331062940648</v>
+        <v>-248.4049336084863</v>
       </c>
       <c r="AC2" t="n">
-        <v>66248.67299319104</v>
+        <v>71658.11291219266</v>
       </c>
       <c r="AD2" t="n">
-        <v>63919.54779181073</v>
+        <v>69896.09006269551</v>
       </c>
       <c r="AE2" t="n">
-        <v>31.24546540904326</v>
+        <v>13.46842073082515</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.46591409971273</v>
+        <v>17.48572454019424</v>
       </c>
       <c r="AG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>65933.227</v>
+        <v>69369.05499999999</v>
       </c>
       <c r="AJ2" t="n">
-        <v>65033.227</v>
+        <v>70269.05499999999</v>
       </c>
       <c r="AK2" t="n">
-        <v>65533.227</v>
+        <v>69769.05499999999</v>
       </c>
       <c r="AL2" t="n">
-        <v>65583.227</v>
+        <v>69719.05499999999</v>
       </c>
       <c r="AM2" t="b">
         <v>0</v>
       </c>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" s="2" t="n">
-        <v>45371.88541666666</v>
+        <v>45363.8125</v>
       </c>
       <c r="AP2" s="2" t="n">
-        <v>45371.90954861111</v>
+        <v>45363.80594907407</v>
       </c>
       <c r="AQ2" s="2" t="n">
-        <v>45370.34828703704</v>
+        <v>45363.81896990741</v>
       </c>
       <c r="AR2" t="n">
-        <v>7.462399999999615</v>
+        <v>100</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AU2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
         <v>450</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA2" t="n">
         <v>3</v>
@@ -856,98 +862,100 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.45833333334</v>
       </c>
       <c r="C3" t="n">
-        <v>64723.84</v>
+        <v>73493.234</v>
       </c>
       <c r="D3" t="n">
-        <v>64731.738</v>
+        <v>73681.734</v>
       </c>
       <c r="E3" t="n">
-        <v>64352.348</v>
+        <v>73461.836</v>
       </c>
       <c r="F3" t="n">
-        <v>64420.539</v>
+        <v>73671.836</v>
       </c>
       <c r="G3" t="n">
-        <v>3222</v>
+        <v>1606</v>
       </c>
       <c r="H3" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.45833333334</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>45370.41666666666</v>
+        <v>45364.45833333334</v>
       </c>
       <c r="L3" t="n">
-        <v>-194.0222619047709</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>310.370666666684</v>
+      </c>
+      <c r="M3" t="n">
+        <v>375.8862392621522</v>
+      </c>
       <c r="N3" t="n">
-        <v>64430.44036904764</v>
+        <v>73210.29590476191</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.005404259222663951</v>
+        <v>0.001215781033355791</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.005237343653660533</v>
+        <v>0.0002961448595613275</v>
       </c>
       <c r="Q3" t="n">
-        <v>64929.49936904762</v>
+        <v>72976.04509523814</v>
       </c>
       <c r="R3" t="n">
-        <v>61777.30916969468</v>
+        <v>68433.85148471722</v>
       </c>
       <c r="S3" t="n">
-        <v>63423.12333001781</v>
+        <v>73369.49809082845</v>
       </c>
       <c r="T3" t="n">
-        <v>64758.32747327931</v>
+        <v>73169.14435707391</v>
       </c>
       <c r="U3" t="n">
-        <v>65379.21773630431</v>
+        <v>72724.61213367646</v>
       </c>
       <c r="V3" t="n">
-        <v>64382.55501135193</v>
+        <v>73572.91805572758</v>
       </c>
       <c r="W3" t="n">
-        <v>-415.3113389678547</v>
+        <v>235.3422896006523</v>
       </c>
       <c r="X3" t="n">
-        <v>-433.731869641693</v>
+        <v>195.4876556926522</v>
       </c>
       <c r="Y3" t="n">
-        <v>609.0670779097288</v>
+        <v>563.9690226265614</v>
       </c>
       <c r="Z3" t="n">
-        <v>-97.66005056760332</v>
+        <v>126.8996990024316</v>
       </c>
       <c r="AA3" t="n">
-        <v>-25.08487891301047</v>
+        <v>103.3163801169139</v>
       </c>
       <c r="AB3" t="n">
-        <v>-136.7418720329297</v>
+        <v>158.5681348469807</v>
       </c>
       <c r="AC3" t="n">
-        <v>65204.79556653007</v>
+        <v>74335.77623627344</v>
       </c>
       <c r="AD3" t="n">
-        <v>63558.8144561738</v>
+        <v>72811.55987518173</v>
       </c>
       <c r="AE3" t="n">
-        <v>39.77178273063017</v>
+        <v>91.99741290703211</v>
       </c>
       <c r="AF3" t="n">
-        <v>33.63687876376105</v>
+        <v>91.31819826648916</v>
       </c>
       <c r="AG3" t="b">
         <v>1</v>
@@ -956,35 +964,31 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>64920.539</v>
+        <v>74171.836</v>
       </c>
       <c r="AJ3" t="n">
-        <v>64020.539</v>
+        <v>73271.836</v>
       </c>
       <c r="AK3" t="n">
-        <v>64520.539</v>
+        <v>73771.836</v>
       </c>
       <c r="AL3" t="n">
-        <v>64570.539</v>
+        <v>73821.836</v>
       </c>
       <c r="AM3" t="b">
         <v>0</v>
       </c>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" s="2" t="n">
-        <v>45370.78125</v>
-      </c>
-      <c r="AP3" s="2" t="n">
-        <v>45370.7806712963</v>
-      </c>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
       <c r="AQ3" s="2" t="n">
-        <v>45370.43020833333</v>
+        <v>45364.49168981481</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.439800000000105</v>
+        <v>1.179600000000209</v>
       </c>
       <c r="AS3" t="n">
-        <v>3.13</v>
+        <v>1.11</v>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
@@ -995,19 +999,19 @@
         <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-73.70999999999999</v>
+        <v>-74.02</v>
       </c>
       <c r="AW3" t="n">
-        <v>376.29</v>
+        <v>375.98</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
       </c>
       <c r="AY3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
@@ -1015,98 +1019,100 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45370.45833333334</v>
+        <v>45364.5</v>
       </c>
       <c r="C4" t="n">
-        <v>63510.227</v>
+        <v>73371.039</v>
       </c>
       <c r="D4" t="n">
-        <v>63883.84</v>
+        <v>73465.734</v>
       </c>
       <c r="E4" t="n">
-        <v>63031.84</v>
+        <v>73178.94500000001</v>
       </c>
       <c r="F4" t="n">
-        <v>63833.141</v>
+        <v>73432.141</v>
       </c>
       <c r="G4" t="n">
-        <v>6079</v>
+        <v>1875</v>
       </c>
       <c r="H4" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45370.45833333334</v>
+        <v>45364.5</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>45370.45833333334</v>
+        <v>45364.5</v>
       </c>
       <c r="L4" t="n">
-        <v>-499.0589999999793</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>234.2508095237717</v>
+      </c>
+      <c r="M4" t="n">
+        <v>430.7632994859305</v>
+      </c>
       <c r="N4" t="n">
-        <v>64188.23751190475</v>
+        <v>73342.77255952382</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.00540411360029639</v>
+        <v>0.001818645805516944</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.004348797478887457</v>
+        <v>0.0002961456586154165</v>
       </c>
       <c r="Q4" t="n">
-        <v>64430.44036904764</v>
+        <v>73210.29590476191</v>
       </c>
       <c r="R4" t="n">
-        <v>61444.99221857581</v>
+        <v>68484.06657198144</v>
       </c>
       <c r="S4" t="n">
-        <v>63492.4731934849</v>
+        <v>73391.16562882347</v>
       </c>
       <c r="T4" t="n">
-        <v>64240.32730941782</v>
+        <v>73298.79563782498</v>
       </c>
       <c r="U4" t="n">
-        <v>64932.55570420775</v>
+        <v>72913.75463386033</v>
       </c>
       <c r="V4" t="n">
-        <v>63828.84027588578</v>
+        <v>73683.73490643276</v>
       </c>
       <c r="W4" t="n">
-        <v>-439.9964031848867</v>
+        <v>226.967431363737</v>
       </c>
       <c r="X4" t="n">
-        <v>-436.0385250315345</v>
+        <v>216.94183241888</v>
       </c>
       <c r="Y4" t="n">
-        <v>700.1463609807157</v>
+        <v>575.582443796393</v>
       </c>
       <c r="Z4" t="n">
-        <v>-83.57793945648154</v>
+        <v>-1.932955624273745</v>
       </c>
       <c r="AA4" t="n">
-        <v>-158.8678624011518</v>
+        <v>1.355037495610304</v>
       </c>
       <c r="AB4" t="n">
-        <v>-160.7617100102871</v>
+        <v>33.22055142767204</v>
       </c>
       <c r="AC4" t="n">
-        <v>64774.03786320975</v>
+        <v>74460.77120555789</v>
       </c>
       <c r="AD4" t="n">
-        <v>62882.14268856182</v>
+        <v>72905.19860730763</v>
       </c>
       <c r="AE4" t="n">
-        <v>19.01192348944947</v>
+        <v>75.3961307238273</v>
       </c>
       <c r="AF4" t="n">
-        <v>15.96513554413313</v>
+        <v>80.54819049605202</v>
       </c>
       <c r="AG4" t="b">
         <v>1</v>
@@ -1115,60 +1121,56 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>64333.141</v>
+        <v>73932.141</v>
       </c>
       <c r="AJ4" t="n">
-        <v>63933.141</v>
+        <v>73032.141</v>
       </c>
       <c r="AK4" t="n">
-        <v>63933.141</v>
+        <v>73532.141</v>
       </c>
       <c r="AL4" t="n">
-        <v>63983.141</v>
+        <v>73582.141</v>
       </c>
       <c r="AM4" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>45370.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" s="2" t="n">
-        <v>45370.5</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>45370.75541666667</v>
-      </c>
+        <v>45365.26041666666</v>
+      </c>
+      <c r="AP4" t="inlineStr"/>
       <c r="AQ4" s="2" t="n">
-        <v>45370.50405092593</v>
+        <v>45364.60390046296</v>
       </c>
       <c r="AR4" t="n">
-        <v>69.33979999999865</v>
+        <v>21.17960000000021</v>
       </c>
       <c r="AS4" t="n">
-        <v>63.93</v>
+        <v>19.61</v>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>18.42</v>
+        <v>-74.02</v>
       </c>
       <c r="AW4" t="n">
-        <v>394.71</v>
+        <v>301.96</v>
       </c>
       <c r="AX4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA4" t="n">
         <v>3</v>
@@ -1176,160 +1178,162 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>56</v>
+        <v>359</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45370.58333333334</v>
+        <v>45365.75</v>
       </c>
       <c r="C5" t="n">
-        <v>63111.762</v>
+        <v>70886.234</v>
       </c>
       <c r="D5" t="n">
-        <v>63680.738</v>
+        <v>71196.539</v>
       </c>
       <c r="E5" t="n">
-        <v>63024.387</v>
+        <v>70231.836</v>
       </c>
       <c r="F5" t="n">
-        <v>63343.84</v>
+        <v>70549.039</v>
       </c>
       <c r="G5" t="n">
-        <v>5010</v>
+        <v>4763</v>
       </c>
       <c r="H5" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>45370.58333333334</v>
+        <v>45365.75</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>45370.58333333334</v>
+        <v>45365.75</v>
       </c>
       <c r="L5" t="n">
-        <v>-328.8787857143398</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>-577.5026428571146</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-208.5705859356967</v>
+      </c>
       <c r="N5" t="n">
-        <v>63365.78546428567</v>
+        <v>71405.75308333331</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.004005235148151744</v>
+        <v>-0.000923397978810458</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.004232723588173041</v>
+        <v>0.0002101788140644668</v>
       </c>
       <c r="Q5" t="n">
-        <v>63427.31048809525</v>
+        <v>71657.79120238098</v>
       </c>
       <c r="R5" t="n">
-        <v>61141.65562061861</v>
+        <v>71050.41869161511</v>
       </c>
       <c r="S5" t="n">
-        <v>62743.98635407454</v>
+        <v>73710.42870136548</v>
       </c>
       <c r="T5" t="n">
-        <v>63311.91336174849</v>
+        <v>71552.99782626636</v>
       </c>
       <c r="U5" t="n">
-        <v>63900.9668886893</v>
+        <v>72120.67129274574</v>
       </c>
       <c r="V5" t="n">
-        <v>62903.13532335736</v>
+        <v>71031.40260096325</v>
       </c>
       <c r="W5" t="n">
-        <v>-399.6889685820352</v>
+        <v>-267.9971994395892</v>
       </c>
       <c r="X5" t="n">
-        <v>-420.4560630321016</v>
+        <v>-188.3132701902304</v>
       </c>
       <c r="Y5" t="n">
-        <v>757.3062383375317</v>
+        <v>785.2244794378336</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.41639697280334</v>
+        <v>-245.7085682832985</v>
       </c>
       <c r="AA5" t="n">
-        <v>-20.54589129691885</v>
+        <v>-203.4987358102517</v>
       </c>
       <c r="AB5" t="n">
-        <v>-91.97299071209272</v>
+        <v>-203.2657801856985</v>
       </c>
       <c r="AC5" t="n">
-        <v>63926.99874511303</v>
+        <v>72091.45564820433</v>
       </c>
       <c r="AD5" t="n">
-        <v>61880.77190160169</v>
+        <v>69969.84955372218</v>
       </c>
       <c r="AE5" t="n">
-        <v>36.57419897846768</v>
+        <v>16.32016980899622</v>
       </c>
       <c r="AF5" t="n">
-        <v>22.87744592681274</v>
+        <v>17.44023673591843</v>
       </c>
       <c r="AG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>63843.84</v>
+        <v>70049.039</v>
       </c>
       <c r="AJ5" t="n">
-        <v>63443.84</v>
+        <v>70449.039</v>
       </c>
       <c r="AK5" t="n">
-        <v>63443.84</v>
+        <v>70449.039</v>
       </c>
       <c r="AL5" t="n">
-        <v>63493.84</v>
+        <v>70399.039</v>
       </c>
       <c r="AM5" t="b">
         <v>1</v>
       </c>
       <c r="AN5" s="2" t="n">
-        <v>45370.61458333334</v>
+        <v>45365.77083333334</v>
       </c>
       <c r="AO5" s="2" t="n">
-        <v>45370.61458333334</v>
+        <v>45365.77083333334</v>
       </c>
       <c r="AP5" s="2" t="n">
-        <v>45370.64319444444</v>
+        <v>45365.77146990741</v>
       </c>
       <c r="AQ5" s="2" t="n">
-        <v>45370.62788194444</v>
+        <v>45365.77283564815</v>
       </c>
       <c r="AR5" t="n">
-        <v>97.75940000000118</v>
+        <v>100</v>
       </c>
       <c r="AS5" t="n">
-        <v>90.08</v>
+        <v>101.58</v>
       </c>
       <c r="AT5" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AU5" t="b">
         <v>1</v>
       </c>
       <c r="AV5" t="n">
-        <v>18.42</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="AW5" t="n">
-        <v>413.1300000000001</v>
+        <v>394.47</v>
       </c>
       <c r="AX5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY5" t="n">
         <v>0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>3</v>
@@ -1337,135 +1341,137 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>60</v>
+        <v>371</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45370.625</v>
+        <v>45365.875</v>
       </c>
       <c r="C6" t="n">
-        <v>63648.738</v>
+        <v>70137.359</v>
       </c>
       <c r="D6" t="n">
-        <v>63748.738</v>
+        <v>70497.93799999999</v>
       </c>
       <c r="E6" t="n">
-        <v>63331.84</v>
+        <v>69738.336</v>
       </c>
       <c r="F6" t="n">
-        <v>63369.84</v>
+        <v>70069.734</v>
       </c>
       <c r="G6" t="n">
-        <v>4052</v>
+        <v>5576</v>
       </c>
       <c r="H6" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>45370.625</v>
+        <v>45365.875</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>45370.625</v>
+        <v>45365.875</v>
       </c>
       <c r="L6" t="n">
-        <v>-61.52502380957594</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>-466.1117976190144</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-485.3029444598214</v>
+      </c>
       <c r="N6" t="n">
-        <v>63368.09966666668</v>
+        <v>70172.5290238095</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.003286538508748632</v>
+        <v>-0.001687672320081868</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.003499811328982324</v>
+        <v>-0.0003338988938071352</v>
       </c>
       <c r="Q6" t="n">
-        <v>63365.78546428567</v>
+        <v>70701.05159523814</v>
       </c>
       <c r="R6" t="n">
-        <v>61295.05087690063</v>
+        <v>70691.27930351323</v>
       </c>
       <c r="S6" t="n">
-        <v>62987.97334111323</v>
+        <v>73991.29186021037</v>
       </c>
       <c r="T6" t="n">
-        <v>63405.51482844997</v>
+        <v>70704.10048402264</v>
       </c>
       <c r="U6" t="n">
-        <v>63795.16564620392</v>
+        <v>71240.57253008979</v>
       </c>
       <c r="V6" t="n">
-        <v>63208.73001100795</v>
+        <v>70407.46610251114</v>
       </c>
       <c r="W6" t="n">
-        <v>-314.9194514403207</v>
+        <v>-309.5172160382062</v>
       </c>
       <c r="X6" t="n">
-        <v>-372.9018772442656</v>
+        <v>-285.3820253300504</v>
       </c>
       <c r="Y6" t="n">
-        <v>537.0516482259335</v>
+        <v>750.9441721074154</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.79330134156044</v>
+        <v>-91.21374028212449</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.07196594440757</v>
+        <v>-74.76599002412695</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.6580068798939</v>
+        <v>-50.5103240453318</v>
       </c>
       <c r="AC6" t="n">
-        <v>63935.24973611296</v>
+        <v>71421.24073485615</v>
       </c>
       <c r="AD6" t="n">
-        <v>62483.71028590294</v>
+        <v>69392.19147016613</v>
       </c>
       <c r="AE6" t="n">
-        <v>62.89440828929717</v>
+        <v>33.26615054292094</v>
       </c>
       <c r="AF6" t="n">
-        <v>58.47520369215795</v>
+        <v>33.00374762387727</v>
       </c>
       <c r="AG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>63869.84</v>
+        <v>69569.734</v>
       </c>
       <c r="AJ6" t="n">
-        <v>62969.84</v>
+        <v>70469.734</v>
       </c>
       <c r="AK6" t="n">
-        <v>63469.84</v>
+        <v>69969.734</v>
       </c>
       <c r="AL6" t="n">
-        <v>63519.84</v>
+        <v>69919.734</v>
       </c>
       <c r="AM6" t="b">
         <v>0</v>
       </c>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" s="2" t="n">
-        <v>45370.64583333334</v>
+        <v>45365.89583333334</v>
       </c>
       <c r="AP6" s="2" t="n">
-        <v>45370.64325231482</v>
+        <v>45365.89008101852</v>
       </c>
       <c r="AQ6" s="2" t="n">
-        <v>45370.67350694445</v>
+        <v>45365.92872685185</v>
       </c>
       <c r="AR6" t="n">
         <v>100</v>
       </c>
       <c r="AS6" t="n">
-        <v>92.66</v>
+        <v>117.12</v>
       </c>
       <c r="AT6" t="inlineStr">
         <is>
@@ -1476,19 +1482,19 @@
         <v>1</v>
       </c>
       <c r="AV6" t="n">
-        <v>92.11</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="AW6" t="n">
-        <v>505.2400000000001</v>
+        <v>486.98</v>
       </c>
       <c r="AX6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY6" t="n">
         <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>3</v>
@@ -1496,135 +1502,137 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>72</v>
+        <v>407</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45370.75</v>
+        <v>45366.25</v>
       </c>
       <c r="C7" t="n">
-        <v>64060.188</v>
+        <v>68247.836</v>
       </c>
       <c r="D7" t="n">
-        <v>64653.137</v>
+        <v>68529.734</v>
       </c>
       <c r="E7" t="n">
-        <v>63983.867</v>
+        <v>67369.398</v>
       </c>
       <c r="F7" t="n">
-        <v>64334.48</v>
+        <v>68511.016</v>
       </c>
       <c r="G7" t="n">
-        <v>4386</v>
+        <v>6695</v>
       </c>
       <c r="H7" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>45370.75</v>
+        <v>45366.25</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>45370.75</v>
+        <v>45366.25</v>
       </c>
       <c r="L7" t="n">
-        <v>308.0541547619141</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>-1079.428499999965</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-722.8647343726043</v>
+      </c>
       <c r="N7" t="n">
-        <v>63987.28027380953</v>
+        <v>68833.54929761907</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0005227629421864345</v>
+        <v>-0.003217617969229519</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001819592346359477</v>
+        <v>-0.001097508194176798</v>
       </c>
       <c r="Q7" t="n">
-        <v>63507.85363095237</v>
+        <v>69914.30496428577</v>
       </c>
       <c r="R7" t="n">
-        <v>62231.37251072028</v>
+        <v>70363.30225136731</v>
       </c>
       <c r="S7" t="n">
-        <v>65547.52596812902</v>
+        <v>73593.11764879028</v>
       </c>
       <c r="T7" t="n">
-        <v>63511.3229295878</v>
+        <v>69454.45374199651</v>
       </c>
       <c r="U7" t="n">
-        <v>63571.04859346533</v>
+        <v>70247.44057564494</v>
       </c>
       <c r="V7" t="n">
-        <v>63497.99028207768</v>
+        <v>68514.40575301</v>
       </c>
       <c r="W7" t="n">
-        <v>-138.5984536718606</v>
+        <v>-329.8083063542435</v>
       </c>
       <c r="X7" t="n">
-        <v>-224.3622205830238</v>
+        <v>-170.4597775672348</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1846850356915</v>
+        <v>1460.154504060749</v>
       </c>
       <c r="Z7" t="n">
-        <v>170.2187272101219</v>
+        <v>-317.5955218437739</v>
       </c>
       <c r="AA7" t="n">
-        <v>99.93435810115625</v>
+        <v>-428.4757523220469</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.2108775369852</v>
+        <v>-456.3848517371662</v>
       </c>
       <c r="AC7" t="n">
-        <v>64128.83960687587</v>
+        <v>70485.61433349201</v>
       </c>
       <c r="AD7" t="n">
-        <v>62868.6409572795</v>
+        <v>66541.69717252799</v>
       </c>
       <c r="AE7" t="n">
-        <v>91.56058000577191</v>
+        <v>29.97996454155133</v>
       </c>
       <c r="AF7" t="n">
-        <v>73.80432248077676</v>
+        <v>25.56498461022818</v>
       </c>
       <c r="AG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>64834.48</v>
+        <v>68011.016</v>
       </c>
       <c r="AJ7" t="n">
-        <v>63934.48</v>
+        <v>68911.016</v>
       </c>
       <c r="AK7" t="n">
-        <v>64434.48</v>
+        <v>68411.016</v>
       </c>
       <c r="AL7" t="n">
-        <v>64484.48</v>
+        <v>68361.016</v>
       </c>
       <c r="AM7" t="b">
         <v>0</v>
       </c>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" s="2" t="n">
-        <v>45370.78125</v>
+        <v>45366.27083333334</v>
       </c>
       <c r="AP7" s="2" t="n">
-        <v>45370.7800462963</v>
+        <v>45366.26752314815</v>
       </c>
       <c r="AQ7" s="2" t="n">
-        <v>45370.92010416667</v>
+        <v>45366.86208333333</v>
       </c>
       <c r="AR7" t="n">
         <v>100</v>
       </c>
       <c r="AS7" t="n">
-        <v>92.48</v>
+        <v>93.25</v>
       </c>
       <c r="AT7" t="inlineStr">
         <is>
@@ -1635,19 +1643,19 @@
         <v>1</v>
       </c>
       <c r="AV7" t="n">
-        <v>92.11</v>
+        <v>92.51000000000001</v>
       </c>
       <c r="AW7" t="n">
-        <v>597.35</v>
+        <v>579.49</v>
       </c>
       <c r="AX7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY7" t="n">
         <v>0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA7" t="n">
         <v>3</v>
@@ -1655,98 +1663,100 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>88</v>
+        <v>411</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45370.91666666666</v>
+        <v>45366.29166666666</v>
       </c>
       <c r="C8" t="n">
-        <v>64416.84</v>
+        <v>67459.69500000001</v>
       </c>
       <c r="D8" t="n">
-        <v>64520.938</v>
+        <v>68276.539</v>
       </c>
       <c r="E8" t="n">
-        <v>63695.91</v>
+        <v>67395.383</v>
       </c>
       <c r="F8" t="n">
-        <v>63807.539</v>
+        <v>68034.141</v>
       </c>
       <c r="G8" t="n">
-        <v>4017</v>
+        <v>4878</v>
       </c>
       <c r="H8" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>45370.91666666666</v>
+        <v>45366.29166666666</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>45370.91666666666</v>
+        <v>45366.29166666666</v>
       </c>
       <c r="L8" t="n">
-        <v>15.82667857130582</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>-1080.755666666693</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-925.0966750997904</v>
+      </c>
       <c r="N8" t="n">
-        <v>64495.99954761901</v>
+        <v>67999.10733333336</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002962688159778126</v>
+        <v>-0.003254021717560417</v>
       </c>
       <c r="P8" t="n">
-        <v>0.00441262959841473</v>
+        <v>-0.001097371434471769</v>
       </c>
       <c r="Q8" t="n">
-        <v>64693.3838928571</v>
+        <v>68833.54929761907</v>
       </c>
       <c r="R8" t="n">
-        <v>64317.67192633198</v>
+        <v>70177.05476038251</v>
       </c>
       <c r="S8" t="n">
-        <v>67868.74587340666</v>
+        <v>73512.56216975304</v>
       </c>
       <c r="T8" t="n">
-        <v>64526.84990681023</v>
+        <v>68591.1850800242</v>
       </c>
       <c r="U8" t="n">
-        <v>64371.92743443284</v>
+        <v>69566.9053126637</v>
       </c>
       <c r="V8" t="n">
-        <v>64642.57873890601</v>
+        <v>67199.38986618508</v>
       </c>
       <c r="W8" t="n">
-        <v>85.41195342373248</v>
+        <v>-456.7810371356463</v>
       </c>
       <c r="X8" t="n">
-        <v>94.3173489690584</v>
+        <v>-323.0327250460406</v>
       </c>
       <c r="Y8" t="n">
-        <v>881.9942505085953</v>
+        <v>1827.435484115418</v>
       </c>
       <c r="Z8" t="n">
-        <v>-241.6487089783404</v>
+        <v>-142.3360137599229</v>
       </c>
       <c r="AA8" t="n">
-        <v>-192.4949625043737</v>
+        <v>-303.2692177502322</v>
       </c>
       <c r="AB8" t="n">
-        <v>-125.1554702442081</v>
+        <v>-521.6935380116774</v>
       </c>
       <c r="AC8" t="n">
-        <v>65833.27097709262</v>
+        <v>69666.4277697409</v>
       </c>
       <c r="AD8" t="n">
-        <v>63450.38650071941</v>
+        <v>64730.85196262927</v>
       </c>
       <c r="AE8" t="n">
-        <v>17.71648175074789</v>
+        <v>16.05710083153061</v>
       </c>
       <c r="AF8" t="n">
-        <v>31.55464165092727</v>
+        <v>18.67697152027385</v>
       </c>
       <c r="AG8" t="b">
         <v>0</v>
@@ -1755,58 +1765,60 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>63307.539</v>
+        <v>67534.141</v>
       </c>
       <c r="AJ8" t="n">
-        <v>64207.539</v>
+        <v>67934.141</v>
       </c>
       <c r="AK8" t="n">
-        <v>63707.539</v>
+        <v>67934.141</v>
       </c>
       <c r="AL8" t="n">
-        <v>63657.539</v>
+        <v>67884.141</v>
       </c>
       <c r="AM8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>45366.3125</v>
+      </c>
       <c r="AO8" s="2" t="n">
-        <v>45371.01041666666</v>
+        <v>45366.3125</v>
       </c>
       <c r="AP8" s="2" t="n">
-        <v>45371.01125</v>
+        <v>45366.32037037037</v>
       </c>
       <c r="AQ8" s="2" t="n">
-        <v>45370.94186342593</v>
+        <v>45366.31300925926</v>
       </c>
       <c r="AR8" t="n">
-        <v>49.41399999999994</v>
+        <v>57.76560000000173</v>
       </c>
       <c r="AS8" t="n">
-        <v>45.5</v>
+        <v>53.47</v>
       </c>
       <c r="AT8" t="inlineStr">
         <is>
-          <t>fail</t>
+          <t>even</t>
         </is>
       </c>
       <c r="AU8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8" t="n">
-        <v>-73.70999999999999</v>
+        <v>18.5</v>
       </c>
       <c r="AW8" t="n">
-        <v>523.64</v>
+        <v>597.99</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AY8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA8" t="n">
         <v>3</v>
@@ -1814,98 +1826,100 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>92</v>
+        <v>415</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45370.95833333334</v>
+        <v>45366.33333333334</v>
       </c>
       <c r="C9" t="n">
-        <v>63782.203</v>
+        <v>67465.641</v>
       </c>
       <c r="D9" t="n">
-        <v>63969.938</v>
+        <v>67905.539</v>
       </c>
       <c r="E9" t="n">
-        <v>63695.727</v>
+        <v>67434.977</v>
       </c>
       <c r="F9" t="n">
-        <v>63906.34</v>
+        <v>67786.734</v>
       </c>
       <c r="G9" t="n">
-        <v>3112</v>
+        <v>3936</v>
       </c>
       <c r="H9" t="n">
-        <v>56422</v>
+        <v>36421</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>45370.95833333334</v>
+        <v>45366.33333333334</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>45370.95833333334</v>
+        <v>45366.33333333334</v>
       </c>
       <c r="L9" t="n">
-        <v>-197.3843452380897</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>-834.4419642857101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-1073.372620967537</v>
+      </c>
       <c r="N9" t="n">
-        <v>64343.44839285714</v>
+        <v>67855.39184523807</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002564227994390262</v>
+        <v>-0.003254275405741861</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.0005576610259806322</v>
+        <v>-0.001097422049597477</v>
       </c>
       <c r="Q9" t="n">
-        <v>64495.99954761901</v>
+        <v>67999.10733333336</v>
       </c>
       <c r="R9" t="n">
-        <v>64224.84919012307</v>
+        <v>69948.34094089799</v>
       </c>
       <c r="S9" t="n">
-        <v>65487.40578017978</v>
+        <v>73431.46792080553</v>
       </c>
       <c r="T9" t="n">
-        <v>64185.50839030877</v>
+        <v>68109.31945753419</v>
       </c>
       <c r="U9" t="n">
-        <v>64226.19829268974</v>
+        <v>69045.54186627163</v>
       </c>
       <c r="V9" t="n">
-        <v>63893.55353594765</v>
+        <v>66967.03457722733</v>
       </c>
       <c r="W9" t="n">
-        <v>10.6447076963741</v>
+        <v>-492.0232033763023</v>
       </c>
       <c r="X9" t="n">
-        <v>55.75396286102789</v>
+        <v>-420.319622413407</v>
       </c>
       <c r="Y9" t="n">
-        <v>680.87515003136</v>
+        <v>1926.71770789069</v>
       </c>
       <c r="Z9" t="n">
-        <v>-115.7310175439416</v>
+        <v>79.573510147864</v>
       </c>
       <c r="AA9" t="n">
-        <v>-198.9633089095514</v>
+        <v>-51.21435190920602</v>
       </c>
       <c r="AB9" t="n">
-        <v>-197.0751093910294</v>
+        <v>-133.125346749177</v>
       </c>
       <c r="AC9" t="n">
-        <v>64812.73498848999</v>
+        <v>69569.60348287976</v>
       </c>
       <c r="AD9" t="n">
-        <v>62972.87208340531</v>
+        <v>64365.96567157489</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.10664214452792</v>
+        <v>23.70414507929613</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.15367807961867</v>
+        <v>21.14231987528461</v>
       </c>
       <c r="AG9" t="b">
         <v>0</v>
@@ -1914,60 +1928,58 @@
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>63406.34</v>
+        <v>67286.734</v>
       </c>
       <c r="AJ9" t="n">
-        <v>63806.34</v>
+        <v>68186.734</v>
       </c>
       <c r="AK9" t="n">
-        <v>63806.34</v>
+        <v>67686.734</v>
       </c>
       <c r="AL9" t="n">
-        <v>63756.34</v>
+        <v>67636.734</v>
       </c>
       <c r="AM9" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN9" s="2" t="n">
-        <v>45371.01041666666</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
       <c r="AO9" s="2" t="n">
-        <v>45371.01041666666</v>
+        <v>45366.44791666666</v>
       </c>
       <c r="AP9" s="2" t="n">
-        <v>45371.0108912037</v>
+        <v>45366.44907407407</v>
       </c>
       <c r="AQ9" s="2" t="n">
-        <v>45371.56155092592</v>
+        <v>45366.35168981482</v>
       </c>
       <c r="AR9" t="n">
-        <v>100</v>
+        <v>19.43420000000042</v>
       </c>
       <c r="AS9" t="n">
-        <v>94.69</v>
+        <v>17.94</v>
       </c>
       <c r="AT9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>92.11</v>
+        <v>-74.02</v>
       </c>
       <c r="AW9" t="n">
-        <v>615.75</v>
+        <v>523.97</v>
       </c>
       <c r="AX9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -1975,98 +1987,100 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>96</v>
+        <v>423</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45371</v>
+        <v>45366.41666666666</v>
       </c>
       <c r="C10" t="n">
-        <v>63967.887</v>
+        <v>68475.836</v>
       </c>
       <c r="D10" t="n">
-        <v>64058.637</v>
+        <v>68645.758</v>
       </c>
       <c r="E10" t="n">
-        <v>63506.934</v>
+        <v>68324.69500000001</v>
       </c>
       <c r="F10" t="n">
-        <v>63518.84</v>
+        <v>68389.539</v>
       </c>
       <c r="G10" t="n">
-        <v>4576</v>
+        <v>2584</v>
       </c>
       <c r="H10" t="n">
-        <v>56422</v>
+        <v>36421</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>45371</v>
+        <v>45366.41666666666</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>45371</v>
+        <v>45366.41666666666</v>
       </c>
       <c r="L10" t="n">
-        <v>-152.5511547618735</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>-64.95767857138708</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1089.131975062657</v>
+      </c>
       <c r="N10" t="n">
-        <v>63636.92085714287</v>
+        <v>67515.47304761906</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0002998511725679948</v>
+        <v>-0.003606454804293429</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.003450428371456192</v>
+        <v>-0.001097456408016061</v>
       </c>
       <c r="Q10" t="n">
-        <v>64343.44839285714</v>
+        <v>67790.43416666669</v>
       </c>
       <c r="R10" t="n">
-        <v>62406.67989470059</v>
+        <v>69812.01116587047</v>
       </c>
       <c r="S10" t="n">
-        <v>63755.86941744864</v>
+        <v>73270.57611436567</v>
       </c>
       <c r="T10" t="n">
-        <v>63991.00358924795</v>
+        <v>68393.91998513529</v>
       </c>
       <c r="U10" t="n">
-        <v>64112.51035405987</v>
+        <v>68795.61170964132</v>
       </c>
       <c r="V10" t="n">
-        <v>63678.04090746478</v>
+        <v>68446.18217303061</v>
       </c>
       <c r="W10" t="n">
-        <v>-31.86899105433986</v>
+        <v>-309.5007168293814</v>
       </c>
       <c r="X10" t="n">
-        <v>12.60680762623294</v>
+        <v>-367.3755784707356</v>
       </c>
       <c r="Y10" t="n">
-        <v>571.0892048731555</v>
+        <v>1019.642225840334</v>
       </c>
       <c r="Z10" t="n">
-        <v>-99.39922119020048</v>
+        <v>71.54549914004747</v>
       </c>
       <c r="AA10" t="n">
-        <v>15.31068077063537</v>
+        <v>24.29867526653106</v>
       </c>
       <c r="AB10" t="n">
-        <v>-21.59443894056312</v>
+        <v>224.4653209494863</v>
       </c>
       <c r="AC10" t="n">
-        <v>64449.01133404354</v>
+        <v>69824.19917791506</v>
       </c>
       <c r="AD10" t="n">
-        <v>62905.57048088602</v>
+        <v>67069.66516814617</v>
       </c>
       <c r="AE10" t="n">
-        <v>14.92604349068291</v>
+        <v>83.23238883516153</v>
       </c>
       <c r="AF10" t="n">
-        <v>17.46646362225216</v>
+        <v>83.01031178276401</v>
       </c>
       <c r="AG10" t="b">
         <v>0</v>
@@ -2075,37 +2089,35 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>63018.84</v>
+        <v>67889.539</v>
       </c>
       <c r="AJ10" t="n">
-        <v>63418.84</v>
+        <v>68789.539</v>
       </c>
       <c r="AK10" t="n">
-        <v>63418.84</v>
+        <v>68289.539</v>
       </c>
       <c r="AL10" t="n">
-        <v>63368.84</v>
+        <v>68239.539</v>
       </c>
       <c r="AM10" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN10" s="2" t="n">
-        <v>45371.02083333334</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AN10" t="inlineStr"/>
       <c r="AO10" s="2" t="n">
-        <v>45371.02083333334</v>
+        <v>45366.4375</v>
       </c>
       <c r="AP10" s="2" t="n">
-        <v>45371.02158564814</v>
+        <v>45366.43346064815</v>
       </c>
       <c r="AQ10" s="2" t="n">
-        <v>45371.12413194445</v>
+        <v>45366.86184027778</v>
       </c>
       <c r="AR10" t="n">
         <v>100</v>
       </c>
       <c r="AS10" t="n">
-        <v>94.51000000000001</v>
+        <v>100.45</v>
       </c>
       <c r="AT10" t="inlineStr">
         <is>
@@ -2116,19 +2128,19 @@
         <v>1</v>
       </c>
       <c r="AV10" t="n">
-        <v>92.11</v>
+        <v>92.5</v>
       </c>
       <c r="AW10" t="n">
-        <v>707.86</v>
+        <v>616.47</v>
       </c>
       <c r="AX10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY10" t="n">
         <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2136,137 +2148,137 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>108</v>
+        <v>427</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45371.125</v>
+        <v>45366.45833333334</v>
       </c>
       <c r="C11" t="n">
-        <v>63262.086</v>
+        <v>67099.234</v>
       </c>
       <c r="D11" t="n">
-        <v>63286.039</v>
+        <v>67381.836</v>
       </c>
       <c r="E11" t="n">
-        <v>62510.738</v>
+        <v>65561.836</v>
       </c>
       <c r="F11" t="n">
-        <v>62737.039</v>
+        <v>66163.69500000001</v>
       </c>
       <c r="G11" t="n">
-        <v>4351</v>
+        <v>7432</v>
       </c>
       <c r="H11" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>45371.125</v>
+        <v>45366.45833333334</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>45371.125</v>
+        <v>45366.45833333334</v>
       </c>
       <c r="L11" t="n">
-        <v>-68.89492857144796</v>
+        <v>-274.961119047628</v>
       </c>
       <c r="M11" t="n">
-        <v>-851.9740110039565</v>
+        <v>-1194.649003153812</v>
       </c>
       <c r="N11" t="n">
-        <v>62541.70008333331</v>
+        <v>67741.79524999995</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.008333742569333401</v>
+        <v>-0.00360660593965117</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.005296017784728921</v>
+        <v>-0.001193499268415312</v>
       </c>
       <c r="Q11" t="n">
-        <v>62805.81251190471</v>
+        <v>67515.47304761906</v>
       </c>
       <c r="R11" t="n">
-        <v>58550.48411616398</v>
+        <v>69566.40908497496</v>
       </c>
       <c r="S11" t="n">
-        <v>61941.30080005198</v>
+        <v>73253.17318528148</v>
       </c>
       <c r="T11" t="n">
-        <v>62791.69734441959</v>
+        <v>67727.09447961787</v>
       </c>
       <c r="U11" t="n">
-        <v>63165.05225374088</v>
+        <v>68342.37786724893</v>
       </c>
       <c r="V11" t="n">
-        <v>62267.85558617129</v>
+        <v>67748.55881561746</v>
       </c>
       <c r="W11" t="n">
-        <v>-211.3743638859596</v>
+        <v>-374.6531895610678</v>
       </c>
       <c r="X11" t="n">
-        <v>-203.6160024437814</v>
+        <v>-352.2441113398265</v>
       </c>
       <c r="Y11" t="n">
-        <v>933.6206408914037</v>
+        <v>671.9799545896509</v>
       </c>
       <c r="Z11" t="n">
-        <v>25.64974165807507</v>
+        <v>-423.8181437908643</v>
       </c>
       <c r="AA11" t="n">
-        <v>111.3996057791082</v>
+        <v>-158.9453113175114</v>
       </c>
       <c r="AB11" t="n">
-        <v>41.59818403860845</v>
+        <v>-55.88886240101419</v>
       </c>
       <c r="AC11" t="n">
-        <v>63529.74345137468</v>
+        <v>68655.73175431348</v>
       </c>
       <c r="AD11" t="n">
-        <v>61007.46772096789</v>
+        <v>66839.88587692144</v>
       </c>
       <c r="AE11" t="n">
-        <v>55.20318769339514</v>
+        <v>14.98003327836685</v>
       </c>
       <c r="AF11" t="n">
-        <v>51.04517827878831</v>
+        <v>26.19860708541451</v>
       </c>
       <c r="AG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>63237.039</v>
+        <v>65663.69500000001</v>
       </c>
       <c r="AJ11" t="n">
-        <v>62337.039</v>
+        <v>66563.69500000001</v>
       </c>
       <c r="AK11" t="n">
-        <v>62837.039</v>
+        <v>66063.69500000001</v>
       </c>
       <c r="AL11" t="n">
-        <v>62887.039</v>
+        <v>66013.69500000001</v>
       </c>
       <c r="AM11" t="b">
         <v>0</v>
       </c>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" s="2" t="n">
-        <v>45371.1875</v>
+        <v>45370.16666666666</v>
       </c>
       <c r="AP11" s="2" t="n">
-        <v>45371.2230324074</v>
+        <v>45370.16988425926</v>
       </c>
       <c r="AQ11" s="2" t="n">
-        <v>45371.13846064815</v>
+        <v>45366.47002314815</v>
       </c>
       <c r="AR11" t="n">
-        <v>11.0601999999999</v>
+        <v>36.03440000000118</v>
       </c>
       <c r="AS11" t="n">
-        <v>10.13</v>
+        <v>33.3</v>
       </c>
       <c r="AT11" t="inlineStr">
         <is>
@@ -2277,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>-73.70999999999999</v>
+        <v>-74.02</v>
       </c>
       <c r="AW11" t="n">
-        <v>634.15</v>
+        <v>542.45</v>
       </c>
       <c r="AX11" t="n">
         <v>0</v>
@@ -2289,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA11" t="n">
         <v>3</v>
@@ -2297,160 +2309,160 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>116</v>
+        <v>431</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45371.20833333334</v>
+        <v>45366.5</v>
       </c>
       <c r="C12" t="n">
-        <v>62911.738</v>
+        <v>67836.56299999999</v>
       </c>
       <c r="D12" t="n">
-        <v>63166.238</v>
+        <v>68137.93799999999</v>
       </c>
       <c r="E12" t="n">
-        <v>62783.84</v>
+        <v>67343.836</v>
       </c>
       <c r="F12" t="n">
-        <v>62882.738</v>
+        <v>67491.539</v>
       </c>
       <c r="G12" t="n">
-        <v>3656</v>
+        <v>4574</v>
       </c>
       <c r="H12" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>45371.20833333334</v>
+        <v>45366.5</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>45371.20833333334</v>
+        <v>45366.5</v>
       </c>
       <c r="L12" t="n">
-        <v>28.94003571432404</v>
+        <v>226.3222023808921</v>
       </c>
       <c r="M12" t="n">
-        <v>-868.42820427072</v>
+        <v>-1203.769808602388</v>
       </c>
       <c r="N12" t="n">
-        <v>62312.97180952378</v>
+        <v>67635.38267857143</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.002725945490218493</v>
+        <v>-0.003606354907844567</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.002264133022898208</v>
+        <v>-0.001413793075703407</v>
       </c>
       <c r="Q12" t="n">
-        <v>62570.64011904764</v>
+        <v>67741.79524999995</v>
       </c>
       <c r="R12" t="n">
-        <v>60236.61835950177</v>
+        <v>69309.38178998776</v>
       </c>
       <c r="S12" t="n">
-        <v>62925.01535718513</v>
+        <v>73292.78268776729</v>
       </c>
       <c r="T12" t="n">
-        <v>62774.59278223162</v>
+        <v>67625.06460320317</v>
       </c>
       <c r="U12" t="n">
-        <v>62962.616422532</v>
+        <v>68119.77023831077</v>
       </c>
       <c r="V12" t="n">
-        <v>62913.25528001375</v>
+        <v>67367.49870313036</v>
       </c>
       <c r="W12" t="n">
-        <v>-150.5250339449703</v>
+        <v>-334.5799129935913</v>
       </c>
       <c r="X12" t="n">
-        <v>-184.4896769026139</v>
+        <v>-352.0807399225134</v>
       </c>
       <c r="Y12" t="n">
-        <v>652.5144989429855</v>
+        <v>640.8349285028504</v>
       </c>
       <c r="Z12" t="n">
-        <v>86.41699931198673</v>
+        <v>-117.5856518747896</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.7418875128787</v>
+        <v>-12.63407808737247</v>
       </c>
       <c r="AB12" t="n">
-        <v>146.7314289645801</v>
+        <v>-46.15364981078892</v>
       </c>
       <c r="AC12" t="n">
-        <v>63795.64985358678</v>
+        <v>68232.62585660921</v>
       </c>
       <c r="AD12" t="n">
-        <v>62032.36070644072</v>
+        <v>66500.87154965151</v>
       </c>
       <c r="AE12" t="n">
-        <v>69.30649737491846</v>
+        <v>62.27389839492671</v>
       </c>
       <c r="AF12" t="n">
-        <v>71.72329515799053</v>
+        <v>53.68550211983349</v>
       </c>
       <c r="AG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12" t="n">
-        <v>63382.738</v>
+        <v>66991.539</v>
       </c>
       <c r="AJ12" t="n">
-        <v>62482.738</v>
+        <v>67891.539</v>
       </c>
       <c r="AK12" t="n">
-        <v>62982.738</v>
+        <v>67391.539</v>
       </c>
       <c r="AL12" t="n">
-        <v>63032.738</v>
+        <v>67341.539</v>
       </c>
       <c r="AM12" t="b">
         <v>0</v>
       </c>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" s="2" t="n">
-        <v>45371.22916666666</v>
+        <v>45366.54166666666</v>
       </c>
       <c r="AP12" s="2" t="n">
-        <v>45371.22557870371</v>
+        <v>45366.54806712963</v>
       </c>
       <c r="AQ12" s="2" t="n">
-        <v>45371.24190972222</v>
+        <v>45366.51424768518</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>10.21720000000205</v>
       </c>
       <c r="AS12" t="n">
-        <v>93.40000000000001</v>
+        <v>9.43</v>
       </c>
       <c r="AT12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="AU12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>92.11</v>
+        <v>-74.02</v>
       </c>
       <c r="AW12" t="n">
-        <v>726.26</v>
+        <v>468.4300000000001</v>
       </c>
       <c r="AX12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA12" t="n">
         <v>3</v>
@@ -2458,139 +2470,139 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45371.41666666666</v>
+        <v>45366.54166666666</v>
       </c>
       <c r="C13" t="n">
-        <v>62966.738</v>
+        <v>67290.641</v>
       </c>
       <c r="D13" t="n">
-        <v>63227.539</v>
+        <v>67592.234</v>
       </c>
       <c r="E13" t="n">
-        <v>62735.598</v>
+        <v>66781.836</v>
       </c>
       <c r="F13" t="n">
-        <v>63016.539</v>
+        <v>67306.516</v>
       </c>
       <c r="G13" t="n">
-        <v>3495</v>
+        <v>4709</v>
       </c>
       <c r="H13" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>45371.41666666666</v>
+        <v>45366.54166666666</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>45371.41666666666</v>
+        <v>45366.54166666666</v>
       </c>
       <c r="L13" t="n">
-        <v>230.063797619041</v>
+        <v>-106.4125714285183</v>
       </c>
       <c r="M13" t="n">
-        <v>-904.7383238194234</v>
+        <v>-1240.984299382879</v>
       </c>
       <c r="N13" t="n">
-        <v>62299.79327380954</v>
+        <v>67689.84116666667</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.000912990639610162</v>
+        <v>-0.003606620483054783</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.0005473339859970801</v>
+        <v>-0.001740557124737089</v>
       </c>
       <c r="Q13" t="n">
-        <v>62025.29654761907</v>
+        <v>67635.38267857143</v>
       </c>
       <c r="R13" t="n">
-        <v>60392.19601973131</v>
+        <v>69061.83470194251</v>
       </c>
       <c r="S13" t="n">
-        <v>63191.94907196501</v>
+        <v>73354.10508312848</v>
       </c>
       <c r="T13" t="n">
-        <v>62395.33393974724</v>
+        <v>67542.46782820972</v>
       </c>
       <c r="U13" t="n">
-        <v>62362.64088332866</v>
+        <v>67948.50044529146</v>
       </c>
       <c r="V13" t="n">
-        <v>62546.74320949428</v>
+        <v>67157.09955865153</v>
       </c>
       <c r="W13" t="n">
-        <v>-66.09074811610481</v>
+        <v>-293.3411284922331</v>
       </c>
       <c r="X13" t="n">
-        <v>-147.6062337509527</v>
+        <v>-321.9589518994294</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.9706570258882</v>
+        <v>613.973955345814</v>
       </c>
       <c r="Z13" t="n">
-        <v>263.0178747849495</v>
+        <v>-21.62447987616179</v>
       </c>
       <c r="AA13" t="n">
-        <v>312.1166288270033</v>
+        <v>-63.90189817680221</v>
       </c>
       <c r="AB13" t="n">
-        <v>263.9206573786651</v>
+        <v>-62.13884657721792</v>
       </c>
       <c r="AC13" t="n">
-        <v>63462.15359647923</v>
+        <v>67985.96439836838</v>
       </c>
       <c r="AD13" t="n">
-        <v>61632.83282250933</v>
+        <v>66326.73471893469</v>
       </c>
       <c r="AE13" t="n">
-        <v>91.59583135581296</v>
+        <v>55.29659418083585</v>
       </c>
       <c r="AF13" t="n">
-        <v>89.69844859205499</v>
+        <v>58.89837924609762</v>
       </c>
       <c r="AG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>63516.539</v>
+        <v>66806.516</v>
       </c>
       <c r="AJ13" t="n">
-        <v>63116.539</v>
+        <v>67206.516</v>
       </c>
       <c r="AK13" t="n">
-        <v>63116.539</v>
+        <v>67206.516</v>
       </c>
       <c r="AL13" t="n">
-        <v>63166.539</v>
+        <v>67156.516</v>
       </c>
       <c r="AM13" t="b">
         <v>1</v>
       </c>
       <c r="AN13" s="2" t="n">
-        <v>45371.5</v>
+        <v>45366.5625</v>
       </c>
       <c r="AO13" s="2" t="n">
-        <v>45371.5</v>
+        <v>45366.5625</v>
       </c>
       <c r="AP13" s="2" t="n">
-        <v>45371.5596875</v>
+        <v>45369.12726851852</v>
       </c>
       <c r="AQ13" s="2" t="n">
-        <v>45371.50155092592</v>
+        <v>45366.56332175926</v>
       </c>
       <c r="AR13" t="n">
-        <v>46.41960000000108</v>
+        <v>86.1564000000013</v>
       </c>
       <c r="AS13" t="n">
-        <v>42.74</v>
+        <v>79.73</v>
       </c>
       <c r="AT13" t="inlineStr">
         <is>
@@ -2601,19 +2613,19 @@
         <v>1</v>
       </c>
       <c r="AV13" t="n">
-        <v>18.42</v>
+        <v>18.5</v>
       </c>
       <c r="AW13" t="n">
-        <v>744.6799999999999</v>
+        <v>486.9300000000001</v>
       </c>
       <c r="AX13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA13" t="n">
         <v>3</v>
@@ -2621,100 +2633,100 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>156</v>
+        <v>439</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45371.625</v>
+        <v>45366.58333333334</v>
       </c>
       <c r="C14" t="n">
-        <v>64067.586</v>
+        <v>67799.125</v>
       </c>
       <c r="D14" t="n">
-        <v>64088.84</v>
+        <v>67956.836</v>
       </c>
       <c r="E14" t="n">
-        <v>63531.918</v>
+        <v>67520.391</v>
       </c>
       <c r="F14" t="n">
-        <v>63571.34</v>
+        <v>67636.336</v>
       </c>
       <c r="G14" t="n">
-        <v>3321</v>
+        <v>3539</v>
       </c>
       <c r="H14" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>45371.625</v>
+        <v>45366.58333333334</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>45371.625</v>
+        <v>45366.58333333334</v>
       </c>
       <c r="L14" t="n">
-        <v>384.8310119047528</v>
+        <v>54.45848809523159</v>
       </c>
       <c r="M14" t="n">
-        <v>-408.9603522562466</v>
+        <v>-1215.487546582604</v>
       </c>
       <c r="N14" t="n">
-        <v>63718.05750000004</v>
+        <v>67706.71026190474</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003605945339630166</v>
+        <v>-0.003606370847890081</v>
       </c>
       <c r="P14" t="n">
-        <v>0.003582377692137908</v>
+        <v>-0.002057286952293519</v>
       </c>
       <c r="Q14" t="n">
-        <v>63646.78996428566</v>
+        <v>67689.84116666667</v>
       </c>
       <c r="R14" t="n">
-        <v>64024.205026838</v>
+        <v>68810.32137882702</v>
       </c>
       <c r="S14" t="n">
-        <v>65540.39151715508</v>
+        <v>73362.53291352314</v>
       </c>
       <c r="T14" t="n">
-        <v>63595.1308387225</v>
+        <v>67525.55695587753</v>
       </c>
       <c r="U14" t="n">
-        <v>63248.92907818178</v>
+        <v>67824.79764417495</v>
       </c>
       <c r="V14" t="n">
-        <v>63899.48353904364</v>
+        <v>67349.75703164775</v>
       </c>
       <c r="W14" t="n">
-        <v>167.9599058472231</v>
+        <v>-244.0250439190131</v>
       </c>
       <c r="X14" t="n">
-        <v>131.2709589367117</v>
+        <v>-289.1977446326218</v>
       </c>
       <c r="Y14" t="n">
-        <v>475.5295376563097</v>
+        <v>632.4691386066579</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.807621947060397</v>
+        <v>119.4637874096661</v>
       </c>
       <c r="AA14" t="n">
-        <v>128.1220543515446</v>
+        <v>101.9292469900247</v>
       </c>
       <c r="AB14" t="n">
-        <v>131.3409380805751</v>
+        <v>46.79905331964255</v>
       </c>
       <c r="AC14" t="n">
-        <v>64541.44841487966</v>
+        <v>68205.09036876675</v>
       </c>
       <c r="AD14" t="n">
-        <v>63256.01866320762</v>
+        <v>66495.92369452876</v>
       </c>
       <c r="AE14" t="n">
-        <v>69.44109597009144</v>
+        <v>78.53014610661525</v>
       </c>
       <c r="AF14" t="n">
-        <v>77.45384137760817</v>
+        <v>66.45717742961527</v>
       </c>
       <c r="AG14" t="b">
         <v>0</v>
@@ -2723,35 +2735,35 @@
         <v>1</v>
       </c>
       <c r="AI14" t="n">
-        <v>63071.34</v>
+        <v>67136.336</v>
       </c>
       <c r="AJ14" t="n">
-        <v>63971.34</v>
+        <v>68036.336</v>
       </c>
       <c r="AK14" t="n">
-        <v>63471.34</v>
+        <v>67536.336</v>
       </c>
       <c r="AL14" t="n">
-        <v>63421.34</v>
+        <v>67486.336</v>
       </c>
       <c r="AM14" t="b">
         <v>0</v>
       </c>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" s="2" t="n">
-        <v>45371.77083333334</v>
+        <v>45369.125</v>
       </c>
       <c r="AP14" s="2" t="n">
-        <v>45371.76773148148</v>
+        <v>45369.12642361111</v>
       </c>
       <c r="AQ14" s="2" t="n">
-        <v>45371.67408564815</v>
+        <v>45366.60776620371</v>
       </c>
       <c r="AR14" t="n">
-        <v>95.18039999999893</v>
+        <v>19.78759999999893</v>
       </c>
       <c r="AS14" t="n">
-        <v>87.69</v>
+        <v>18.31</v>
       </c>
       <c r="AT14" t="inlineStr">
         <is>
@@ -2762,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>-73.70999999999999</v>
+        <v>-74.02</v>
       </c>
       <c r="AW14" t="n">
-        <v>670.9699999999999</v>
+        <v>412.9100000000001</v>
       </c>
       <c r="AX14" t="n">
         <v>0</v>
@@ -2774,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
         <v>3</v>
@@ -2782,100 +2794,100 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>164</v>
+        <v>443</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45371.70833333334</v>
+        <v>45366.625</v>
       </c>
       <c r="C15" t="n">
-        <v>64254.039</v>
+        <v>67940.461</v>
       </c>
       <c r="D15" t="n">
-        <v>64406.262</v>
+        <v>68404.539</v>
       </c>
       <c r="E15" t="n">
-        <v>63945.938</v>
+        <v>67816.375</v>
       </c>
       <c r="F15" t="n">
-        <v>64158.938</v>
+        <v>67981.734</v>
       </c>
       <c r="G15" t="n">
-        <v>3428</v>
+        <v>4344</v>
       </c>
       <c r="H15" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>45371.70833333334</v>
+        <v>45366.625</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>45371.70833333334</v>
+        <v>45366.625</v>
       </c>
       <c r="L15" t="n">
-        <v>186.698785714274</v>
+        <v>16.86909523807117</v>
       </c>
       <c r="M15" t="n">
-        <v>-223.4379288111086</v>
+        <v>-1170.301001835018</v>
       </c>
       <c r="N15" t="n">
-        <v>63910.5463452381</v>
+        <v>67871.55282142854</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001735136199551327</v>
+        <v>-0.003606368700168258</v>
       </c>
       <c r="P15" t="n">
-        <v>0.003316233760838013</v>
+        <v>-0.002329144406296402</v>
       </c>
       <c r="Q15" t="n">
-        <v>63904.75628571431</v>
+        <v>67706.71026190474</v>
       </c>
       <c r="R15" t="n">
-        <v>63762.11237422573</v>
+        <v>68562.95528704292</v>
       </c>
       <c r="S15" t="n">
-        <v>65889.22581670612</v>
+        <v>73307.33403180334</v>
       </c>
       <c r="T15" t="n">
-        <v>63881.22645101271</v>
+        <v>67694.22116484026</v>
       </c>
       <c r="U15" t="n">
-        <v>63563.89968150075</v>
+        <v>67834.98030835002</v>
       </c>
       <c r="V15" t="n">
-        <v>64085.48845407634</v>
+        <v>67852.86296284832</v>
       </c>
       <c r="W15" t="n">
-        <v>177.2731604767614</v>
+        <v>-166.9097335604019</v>
       </c>
       <c r="X15" t="n">
-        <v>160.4110562900788</v>
+        <v>-231.3159913602571</v>
       </c>
       <c r="Y15" t="n">
-        <v>437.0886516152945</v>
+        <v>558.8677127252142</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.54990264878143</v>
+        <v>111.7333006535628</v>
       </c>
       <c r="AA15" t="n">
-        <v>82.0083804609676</v>
+        <v>121.7166879945726</v>
       </c>
       <c r="AB15" t="n">
-        <v>39.02517027858994</v>
+        <v>119.680758513874</v>
       </c>
       <c r="AC15" t="n">
-        <v>64677.05813375698</v>
+        <v>68608.83437502736</v>
       </c>
       <c r="AD15" t="n">
-        <v>63495.41877439569</v>
+        <v>67098.39155066927</v>
       </c>
       <c r="AE15" t="n">
-        <v>82.15842023650524</v>
+        <v>79.47752487841265</v>
       </c>
       <c r="AF15" t="n">
-        <v>79.80513656122513</v>
+        <v>81.84803465725582</v>
       </c>
       <c r="AG15" t="b">
         <v>0</v>
@@ -2884,37 +2896,37 @@
         <v>1</v>
       </c>
       <c r="AI15" t="n">
-        <v>63658.938</v>
+        <v>67481.734</v>
       </c>
       <c r="AJ15" t="n">
-        <v>64058.938</v>
+        <v>67881.734</v>
       </c>
       <c r="AK15" t="n">
-        <v>64058.938</v>
+        <v>67881.734</v>
       </c>
       <c r="AL15" t="n">
-        <v>64008.938</v>
+        <v>67831.734</v>
       </c>
       <c r="AM15" t="b">
         <v>1</v>
       </c>
       <c r="AN15" s="2" t="n">
-        <v>45371.72916666666</v>
+        <v>45366.64583333334</v>
       </c>
       <c r="AO15" s="2" t="n">
-        <v>45371.72916666666</v>
+        <v>45366.64583333334</v>
       </c>
       <c r="AP15" s="2" t="n">
-        <v>45371.73136574074</v>
+        <v>45366.64630787037</v>
       </c>
       <c r="AQ15" s="2" t="n">
-        <v>45371.80237268518</v>
+        <v>45366.64936342592</v>
       </c>
       <c r="AR15" t="n">
         <v>100</v>
       </c>
       <c r="AS15" t="n">
-        <v>93.03</v>
+        <v>97.86</v>
       </c>
       <c r="AT15" t="inlineStr">
         <is>
@@ -2925,10 +2937,10 @@
         <v>1</v>
       </c>
       <c r="AV15" t="n">
-        <v>92.11</v>
+        <v>92.5</v>
       </c>
       <c r="AW15" t="n">
-        <v>763.0799999999999</v>
+        <v>505.4100000000001</v>
       </c>
       <c r="AX15" t="n">
         <v>1</v>
@@ -2937,7 +2949,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA15" t="n">
         <v>3</v>
@@ -2945,100 +2957,100 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>168</v>
+        <v>447</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45371.75</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="C16" t="n">
-        <v>63630.738</v>
+        <v>68471.734</v>
       </c>
       <c r="D16" t="n">
-        <v>63815.039</v>
+        <v>68597.734</v>
       </c>
       <c r="E16" t="n">
-        <v>63318.977</v>
+        <v>67882.719</v>
       </c>
       <c r="F16" t="n">
-        <v>63718.039</v>
+        <v>67981.734</v>
       </c>
       <c r="G16" t="n">
-        <v>4019</v>
+        <v>4616</v>
       </c>
       <c r="H16" t="n">
-        <v>36422</v>
+        <v>36421</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>45371.75</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>45371.75</v>
+        <v>45366.66666666666</v>
       </c>
       <c r="L16" t="n">
-        <v>5.790059523787932</v>
+        <v>164.8425595238077</v>
       </c>
       <c r="M16" t="n">
-        <v>-182.2688389089817</v>
+        <v>-1079.213310060295</v>
       </c>
       <c r="N16" t="n">
-        <v>63672.70335714284</v>
+        <v>68207.61558333336</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.001419081521234961</v>
+        <v>-0.003606274732498834</v>
       </c>
       <c r="P16" t="n">
-        <v>0.001075612020836606</v>
+        <v>-0.002620952319461196</v>
       </c>
       <c r="Q16" t="n">
-        <v>63910.5463452381</v>
+        <v>67871.55282142854</v>
       </c>
       <c r="R16" t="n">
-        <v>61685.36723678323</v>
+        <v>68314.51161967128</v>
       </c>
       <c r="S16" t="n">
-        <v>64922.40491621769</v>
+        <v>73219.34126266616</v>
       </c>
       <c r="T16" t="n">
-        <v>63792.78031971138</v>
+        <v>67892.45321979014</v>
       </c>
       <c r="U16" t="n">
-        <v>63601.3205350363</v>
+        <v>67903.4043814708</v>
       </c>
       <c r="V16" t="n">
-        <v>63868.19933126934</v>
+        <v>68017.2781644307</v>
       </c>
       <c r="W16" t="n">
-        <v>135.3844362717282</v>
+        <v>-93.76845773386594</v>
       </c>
       <c r="X16" t="n">
-        <v>153.5914313359663</v>
+        <v>-163.0776427887044</v>
       </c>
       <c r="Y16" t="n">
-        <v>373.2166403711813</v>
+        <v>482.863319665413</v>
       </c>
       <c r="Z16" t="n">
-        <v>-49.30594186443341</v>
+        <v>43.27231234950887</v>
       </c>
       <c r="AA16" t="n">
-        <v>-33.94636154110776</v>
+        <v>108.2323777089914</v>
       </c>
       <c r="AB16" t="n">
-        <v>-106.3642046783862</v>
+        <v>-19.34049707603117</v>
       </c>
       <c r="AC16" t="n">
-        <v>64372.04179577044</v>
+        <v>68670.643645979</v>
       </c>
       <c r="AD16" t="n">
-        <v>63362.85686676825</v>
+        <v>67365.41268288239</v>
       </c>
       <c r="AE16" t="n">
-        <v>40.9488738889936</v>
+        <v>77.00955223856708</v>
       </c>
       <c r="AF16" t="n">
-        <v>49.28217331659713</v>
+        <v>75.59686201439114</v>
       </c>
       <c r="AG16" t="b">
         <v>0</v>
@@ -3047,60 +3059,4089 @@
         <v>1</v>
       </c>
       <c r="AI16" t="n">
-        <v>63218.039</v>
+        <v>67481.734</v>
       </c>
       <c r="AJ16" t="n">
-        <v>64118.039</v>
+        <v>68381.734</v>
       </c>
       <c r="AK16" t="n">
-        <v>63618.039</v>
+        <v>67881.734</v>
       </c>
       <c r="AL16" t="n">
-        <v>63568.039</v>
+        <v>67831.734</v>
       </c>
       <c r="AM16" t="b">
         <v>0</v>
       </c>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" s="2" t="n">
-        <v>45371.77083333334</v>
+        <v>45366.76041666666</v>
       </c>
       <c r="AP16" s="2" t="n">
-        <v>45371.76665509259</v>
+        <v>45366.95099537037</v>
       </c>
       <c r="AQ16" s="2" t="n">
-        <v>45371.80245370371</v>
+        <v>45366.68413194444</v>
       </c>
       <c r="AR16" t="n">
+        <v>14.45779999999795</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>431.3900000000001</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45370.16666666666</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65880.93799999999</v>
+      </c>
+      <c r="D17" t="n">
+        <v>66143.516</v>
+      </c>
+      <c r="E17" t="n">
+        <v>65583.70299999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>66093.234</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4186</v>
+      </c>
+      <c r="H17" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45370.16666666666</v>
+      </c>
+      <c r="K17" s="2" t="n">
+        <v>45370.16666666666</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-487.7625952380913</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-417.7856405554048</v>
+      </c>
+      <c r="N17" t="n">
+        <v>66538.49189285714</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.0007662619197592832</v>
+      </c>
+      <c r="P17" t="n">
+        <v>-0.0006736972547034238</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>66982.39638095237</v>
+      </c>
+      <c r="R17" t="n">
+        <v>66434.51833427166</v>
+      </c>
+      <c r="S17" t="n">
+        <v>68893.3008435755</v>
+      </c>
+      <c r="T17" t="n">
+        <v>66804.34507716872</v>
+      </c>
+      <c r="U17" t="n">
+        <v>67129.95536791407</v>
+      </c>
+      <c r="V17" t="n">
+        <v>66529.5300206398</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-129.5305886006536</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-52.82853873754917</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>591.7583459657253</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-214.434546267672</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-272.1340873752342</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-259.6836174751079</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>67328.40378769352</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>65729.15625358607</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>11.52195000720028</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>10.89476494462014</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>65593.234</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>66493.234</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>65993.234</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>65943.234</v>
+      </c>
+      <c r="AM17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="inlineStr"/>
+      <c r="AO17" s="2" t="n">
+        <v>45370.20833333334</v>
+      </c>
+      <c r="AP17" s="2" t="n">
+        <v>45370.20159722222</v>
+      </c>
+      <c r="AQ17" s="2" t="n">
+        <v>45371.92246527778</v>
+      </c>
+      <c r="AR17" t="n">
         <v>100</v>
       </c>
-      <c r="AS16" t="n">
-        <v>93.22</v>
-      </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AS17" t="n">
+        <v>93.79000000000001</v>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU16" t="b">
-        <v>1</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>92.11</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>855.1899999999999</v>
-      </c>
-      <c r="AX16" t="n">
+      <c r="AU17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>523.8900000000001</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45370.20833333334</v>
+      </c>
+      <c r="C18" t="n">
+        <v>65898.383</v>
+      </c>
+      <c r="D18" t="n">
+        <v>66028.539</v>
+      </c>
+      <c r="E18" t="n">
+        <v>65665.102</v>
+      </c>
+      <c r="F18" t="n">
+        <v>65678.234</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4215</v>
+      </c>
+      <c r="H18" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45370.20833333334</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>45370.20833333334</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-443.9044880952279</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-494.5345601280424</v>
+      </c>
+      <c r="N18" t="n">
+        <v>66155.5968690476</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-0.001123295367142836</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.0006737014863735495</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>66538.49189285714</v>
+      </c>
+      <c r="R18" t="n">
+        <v>66193.50067511728</v>
+      </c>
+      <c r="S18" t="n">
+        <v>68847.15041263655</v>
+      </c>
+      <c r="T18" t="n">
+        <v>66391.11720796986</v>
+      </c>
+      <c r="U18" t="n">
+        <v>66824.58102401852</v>
+      </c>
+      <c r="V18" t="n">
+        <v>65807.9216580667</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-194.4886162390758</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-123.3595188096673</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>773.9879389935389</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-213.7014186446468</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-195.798497076059</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>-143.2389731682488</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>66852.80537570798</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>64761.53794042542</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>14.87715510794905</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>19.37875326928267</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>65178.234</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>66078.234</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>65578.234</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65528.234</v>
+      </c>
+      <c r="AM18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" s="2" t="n">
+        <v>45370.23958333334</v>
+      </c>
+      <c r="AP18" s="2" t="n">
+        <v>45370.23268518518</v>
+      </c>
+      <c r="AQ18" s="2" t="n">
+        <v>45371.92045138889</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>93.23999999999999</v>
+      </c>
+      <c r="AT18" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>616.3900000000001</v>
+      </c>
+      <c r="AX18" t="n">
         <v>2</v>
       </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>12</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BA18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45370.25</v>
+      </c>
+      <c r="C19" t="n">
+        <v>65906.977</v>
+      </c>
+      <c r="D19" t="n">
+        <v>66020.93799999999</v>
+      </c>
+      <c r="E19" t="n">
+        <v>65536.70299999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>65583.336</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3783</v>
+      </c>
+      <c r="H19" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45370.25</v>
+      </c>
+      <c r="K19" s="2" t="n">
+        <v>45370.25</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-382.8950238095422</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-548.123627484063</v>
+      </c>
+      <c r="N19" t="n">
+        <v>65719.11679761903</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-0.00112326740967529</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.0006736332639241925</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>66155.5968690476</v>
+      </c>
+      <c r="R19" t="n">
+        <v>66118.96050762229</v>
+      </c>
+      <c r="S19" t="n">
+        <v>68800.75168786262</v>
+      </c>
+      <c r="T19" t="n">
+        <v>66004.64881817467</v>
+      </c>
+      <c r="U19" t="n">
+        <v>66497.71939977013</v>
+      </c>
+      <c r="V19" t="n">
+        <v>65344.90190436881</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-243.9255699012137</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-189.2067062690357</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>916.2363668347964</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-61.81189886475477</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-27.85548606819066</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-195.0042146541527</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>66581.82099959579</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>64106.48280914183</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>24.14070418910056</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>15.59714424839587</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>65083.336</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>65983.336</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>65483.336</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>65433.336</v>
+      </c>
+      <c r="AM19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" s="2" t="n">
+        <v>45370.28125</v>
+      </c>
+      <c r="AP19" s="2" t="n">
+        <v>45370.26263888889</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>45371.90981481481</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="AT19" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>708.8900000000001</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45370.29166666666</v>
+      </c>
+      <c r="C20" t="n">
+        <v>65383.637</v>
+      </c>
+      <c r="D20" t="n">
+        <v>65654.836</v>
+      </c>
+      <c r="E20" t="n">
+        <v>65101.859</v>
+      </c>
+      <c r="F20" t="n">
+        <v>65107.137</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3992</v>
+      </c>
+      <c r="H20" t="n">
+        <v>36421</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45370.29166666666</v>
+      </c>
+      <c r="K20" s="2" t="n">
+        <v>45370.29166666666</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-436.4800714285666</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-626.0302229625959</v>
+      </c>
+      <c r="N20" t="n">
+        <v>65392.48178571432</v>
+      </c>
+      <c r="O20" t="n">
+        <v>-0.001164457210919537</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.000673684269387305</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>65719.11679761903</v>
+      </c>
+      <c r="R20" t="n">
+        <v>66017.22955340633</v>
+      </c>
+      <c r="S20" t="n">
+        <v>68754.72363024909</v>
+      </c>
+      <c r="T20" t="n">
+        <v>65687.04280448498</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66199.18651238276</v>
+      </c>
+      <c r="V20" t="n">
+        <v>65249.42270244233</v>
+      </c>
+      <c r="W20" t="n">
+        <v>-271.6663362655381</v>
+      </c>
+      <c r="X20" t="n">
+        <v>-231.4934502489417</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>971.1719866518704</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-43.89880667359103</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>6.214160646733944</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-19.48561369116942</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>66560.50488442235</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>63936.8405204623</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23.94633285289805</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>27.28983323251355</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>64607.137</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>65007.137</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>65007.137</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>64957.137</v>
+      </c>
+      <c r="AM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="2" t="n">
+        <v>45370.3125</v>
+      </c>
+      <c r="AO20" s="2" t="n">
+        <v>45370.3125</v>
+      </c>
+      <c r="AP20" s="2" t="n">
+        <v>45370.37754629629</v>
+      </c>
+      <c r="AQ20" s="2" t="n">
+        <v>45370.3140625</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>85.05940000000119</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="AT20" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AU20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>727.3900000000001</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="C21" t="n">
+        <v>65247.637</v>
+      </c>
+      <c r="D21" t="n">
+        <v>65475.039</v>
+      </c>
+      <c r="E21" t="n">
+        <v>65061.738</v>
+      </c>
+      <c r="F21" t="n">
+        <v>65433.227</v>
+      </c>
+      <c r="G21" t="n">
+        <v>3495</v>
+      </c>
+      <c r="H21" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="K21" s="2" t="n">
+        <v>45370.33333333334</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-326.6350119047129</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-690.7829091869644</v>
+      </c>
+      <c r="N21" t="n">
+        <v>65123.52163095239</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-0.001164498895475687</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.0006737076068532946</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>65392.48178571432</v>
+      </c>
+      <c r="R21" t="n">
+        <v>65940.40625864804</v>
+      </c>
+      <c r="S21" t="n">
+        <v>68708.56628554696</v>
+      </c>
+      <c r="T21" t="n">
+        <v>65417.01359225744</v>
+      </c>
+      <c r="U21" t="n">
+        <v>65909.83356408616</v>
+      </c>
+      <c r="V21" t="n">
+        <v>65083.36039250089</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-283.4033676049003</v>
+      </c>
+      <c r="X21" t="n">
+        <v>-266.279058493281</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>862.0834079184664</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>15.8594760922424</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>-12.17543997255416</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>-72.82331062940648</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>66248.67299319082</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>63919.54779181095</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>31.24546540904325</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>18.46591409971273</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>64933.227</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>65333.227</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>65333.227</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>65283.227</v>
+      </c>
+      <c r="AM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>45370.35416666666</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>45370.35416666666</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>45370.35797453704</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>45370.79489583334</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>94.53</v>
+      </c>
+      <c r="AT21" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>819.8900000000001</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45370.45833333334</v>
+      </c>
+      <c r="C22" t="n">
+        <v>63510.227</v>
+      </c>
+      <c r="D22" t="n">
+        <v>63883.84</v>
+      </c>
+      <c r="E22" t="n">
+        <v>63031.84</v>
+      </c>
+      <c r="F22" t="n">
+        <v>63833.141</v>
+      </c>
+      <c r="G22" t="n">
+        <v>6079</v>
+      </c>
+      <c r="H22" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45370.45833333334</v>
+      </c>
+      <c r="K22" s="2" t="n">
+        <v>45370.45833333334</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-499.0589999999793</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-954.5569335708715</v>
+      </c>
+      <c r="N22" t="n">
+        <v>64188.23751190475</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.002509435439260598</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.0008027372223797201</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>64430.44036904764</v>
+      </c>
+      <c r="R22" t="n">
+        <v>65889.03784289818</v>
+      </c>
+      <c r="S22" t="n">
+        <v>68649.76995947555</v>
+      </c>
+      <c r="T22" t="n">
+        <v>64240.07562877991</v>
+      </c>
+      <c r="U22" t="n">
+        <v>64863.02495113969</v>
+      </c>
+      <c r="V22" t="n">
+        <v>63828.84027588578</v>
+      </c>
+      <c r="W22" t="n">
+        <v>-361.6747841008546</v>
+      </c>
+      <c r="X22" t="n">
+        <v>-333.0472194329095</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>700.1463609804678</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-83.57793945648154</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-158.8678624011518</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>-160.7617100102871</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>64774.03786320941</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>62882.14268856215</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19.01192348944946</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>15.96513554413312</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>63333.141</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>63733.141</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>63733.141</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>63683.141</v>
+      </c>
+      <c r="AM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="2" t="n">
+        <v>45370.47916666666</v>
+      </c>
+      <c r="AO22" s="2" t="n">
+        <v>45370.47916666666</v>
+      </c>
+      <c r="AP22" s="2" t="n">
+        <v>45370.51197916667</v>
+      </c>
+      <c r="AQ22" s="2" t="n">
+        <v>45370.47935185185</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>39.94000000000087</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>37</v>
+      </c>
+      <c r="AT22" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AU22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>838.3900000000001</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B23" s="2" t="n">
+        <v>45370.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>64166.238</v>
+      </c>
+      <c r="D23" t="n">
+        <v>64179.84</v>
+      </c>
+      <c r="E23" t="n">
+        <v>63640.645</v>
+      </c>
+      <c r="F23" t="n">
+        <v>63679.84</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3947</v>
+      </c>
+      <c r="H23" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2" t="n">
+        <v>45370.5</v>
+      </c>
+      <c r="K23" s="2" t="n">
+        <v>45370.5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-242.2028571428891</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-997.7375166952916</v>
+      </c>
+      <c r="N23" t="n">
+        <v>63756.18927380958</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0.002717634389436859</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-0.001051926496484551</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>64188.23751190475</v>
+      </c>
+      <c r="R23" t="n">
+        <v>65876.37083000064</v>
+      </c>
+      <c r="S23" t="n">
+        <v>68730.42706157883</v>
+      </c>
+      <c r="T23" t="n">
+        <v>64016.74690385374</v>
+      </c>
+      <c r="U23" t="n">
+        <v>64574.88317720865</v>
+      </c>
+      <c r="V23" t="n">
+        <v>63540.12449294808</v>
+      </c>
+      <c r="W23" t="n">
+        <v>-348.2126507693974</v>
+      </c>
+      <c r="X23" t="n">
+        <v>-346.6397850555296</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>707.0110292217979</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-78.97923873406398</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-4.030765393828915</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>-108.4359745441907</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>64494.58938239751</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>62584.15960349866</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>36.6758708559797</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>32.5696067728672</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>63179.84</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>64079.84</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>63579.84</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>63529.84</v>
+      </c>
+      <c r="AM23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="inlineStr"/>
+      <c r="AO23" s="2" t="n">
+        <v>45370.52083333334</v>
+      </c>
+      <c r="AP23" s="2" t="n">
+        <v>45370.51256944444</v>
+      </c>
+      <c r="AQ23" s="2" t="n">
+        <v>45370.74234953704</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>100.45</v>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>92.48999999999999</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>930.8800000000001</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B24" s="2" t="n">
+        <v>45370.54166666666</v>
+      </c>
+      <c r="C24" t="n">
+        <v>63282.41</v>
+      </c>
+      <c r="D24" t="n">
+        <v>63347.738</v>
+      </c>
+      <c r="E24" t="n">
+        <v>62662.859</v>
+      </c>
+      <c r="F24" t="n">
+        <v>62713.273</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4855</v>
+      </c>
+      <c r="H24" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2" t="n">
+        <v>45370.54166666666</v>
+      </c>
+      <c r="K24" s="2" t="n">
+        <v>45370.54166666666</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-432.0482380951653</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-1090.738845163767</v>
+      </c>
+      <c r="N24" t="n">
+        <v>63427.31048809525</v>
+      </c>
+      <c r="O24" t="n">
+        <v>-0.002742877813122016</v>
+      </c>
+      <c r="P24" t="n">
+        <v>-0.001360348021723367</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>63756.18927380958</v>
+      </c>
+      <c r="R24" t="n">
+        <v>65683.17584005998</v>
+      </c>
+      <c r="S24" t="n">
+        <v>68806.16766959315</v>
+      </c>
+      <c r="T24" t="n">
+        <v>63541.52413722638</v>
+      </c>
+      <c r="U24" t="n">
+        <v>64172.12074240627</v>
+      </c>
+      <c r="V24" t="n">
+        <v>63130.57283247331</v>
+      </c>
+      <c r="W24" t="n">
+        <v>-379.491695867946</v>
+      </c>
+      <c r="X24" t="n">
+        <v>-360.2798794488576</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>754.0341533096761</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-151.9692710698728</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-52.07355314756569</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-69.36804127959476</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>64148.51893944137</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>62111.12672550524</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>12.67914353050253</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13.58756771696145</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>62213.273</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>63113.273</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>62613.273</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>62563.273</v>
+      </c>
+      <c r="AM24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" s="2" t="n">
+        <v>45371.05208333334</v>
+      </c>
+      <c r="AP24" s="2" t="n">
+        <v>45371.04459490741</v>
+      </c>
+      <c r="AQ24" s="2" t="n">
+        <v>45370.57258101852</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>37.36160000000091</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>34.59</v>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>856.8600000000001</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B25" s="2" t="n">
+        <v>45370.58333333334</v>
+      </c>
+      <c r="C25" t="n">
+        <v>63111.762</v>
+      </c>
+      <c r="D25" t="n">
+        <v>63680.738</v>
+      </c>
+      <c r="E25" t="n">
+        <v>63024.387</v>
+      </c>
+      <c r="F25" t="n">
+        <v>63343.84</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5010</v>
+      </c>
+      <c r="H25" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2" t="n">
+        <v>45370.58333333334</v>
+      </c>
+      <c r="K25" s="2" t="n">
+        <v>45370.58333333334</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-328.8787857143398</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-1164.177745301015</v>
+      </c>
+      <c r="N25" t="n">
+        <v>63365.78546428567</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-0.002743005391539596</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-0.001719244612792655</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>63427.31048809525</v>
+      </c>
+      <c r="R25" t="n">
+        <v>65501.97832466739</v>
+      </c>
+      <c r="S25" t="n">
+        <v>68858.59396868337</v>
+      </c>
+      <c r="T25" t="n">
+        <v>63311.87945846195</v>
+      </c>
+      <c r="U25" t="n">
+        <v>63873.35526999695</v>
+      </c>
+      <c r="V25" t="n">
+        <v>62903.13532335736</v>
+      </c>
+      <c r="W25" t="n">
+        <v>-362.34791474964</v>
+      </c>
+      <c r="X25" t="n">
+        <v>-370.3771899637919</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>757.306238337277</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>16.41639697280334</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-20.54589129691885</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>-91.97299071209272</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>63926.99874511269</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>61880.77190160203</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>36.57419897846768</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>22.87744592681274</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>62843.84</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>63243.84</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>63243.84</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>63193.84</v>
+      </c>
+      <c r="AM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="2" t="n">
+        <v>45370.60416666666</v>
+      </c>
+      <c r="AO25" s="2" t="n">
+        <v>45370.60416666666</v>
+      </c>
+      <c r="AP25" s="2" t="n">
+        <v>45370.67378472222</v>
+      </c>
+      <c r="AQ25" s="2" t="n">
+        <v>45370.60461805556</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>37.37</v>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AU25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>875.3600000000001</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B26" s="2" t="n">
+        <v>45370.625</v>
+      </c>
+      <c r="C26" t="n">
+        <v>63648.738</v>
+      </c>
+      <c r="D26" t="n">
+        <v>63748.738</v>
+      </c>
+      <c r="E26" t="n">
+        <v>63331.84</v>
+      </c>
+      <c r="F26" t="n">
+        <v>63369.84</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4052</v>
+      </c>
+      <c r="H26" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2" t="n">
+        <v>45370.625</v>
+      </c>
+      <c r="K26" s="2" t="n">
+        <v>45370.625</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-61.52502380957594</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-1166.185114407963</v>
+      </c>
+      <c r="N26" t="n">
+        <v>63368.09966666668</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-0.002742992786086785</v>
+      </c>
+      <c r="P26" t="n">
+        <v>-0.002133525328838105</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>63365.78546428567</v>
+      </c>
+      <c r="R26" t="n">
+        <v>65322.37290340507</v>
+      </c>
+      <c r="S26" t="n">
+        <v>68880.88634673748</v>
+      </c>
+      <c r="T26" t="n">
+        <v>63405.49744887579</v>
+      </c>
+      <c r="U26" t="n">
+        <v>63774.87028218101</v>
+      </c>
+      <c r="V26" t="n">
+        <v>63208.73001100795</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-285.9719825153734</v>
+      </c>
+      <c r="X26" t="n">
+        <v>-333.8637286861281</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>537.0516482255646</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21.79330134156044</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>79.07196594440757</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>157.6580068798939</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>63935.24973611246</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>62483.71028590344</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>62.89440828929716</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>58.47520369215795</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>62869.84</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>63769.84</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>63269.84</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>63219.84</v>
+      </c>
+      <c r="AM26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" s="2" t="n">
+        <v>45370.65625</v>
+      </c>
+      <c r="AP26" s="2" t="n">
+        <v>45370.67369212963</v>
+      </c>
+      <c r="AQ26" s="2" t="n">
+        <v>45370.64210648148</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>24.52739999999903</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>801.3400000000001</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B27" s="2" t="n">
+        <v>45370.70833333334</v>
+      </c>
+      <c r="C27" t="n">
+        <v>62910.238</v>
+      </c>
+      <c r="D27" t="n">
+        <v>63081.863</v>
+      </c>
+      <c r="E27" t="n">
+        <v>62631.84</v>
+      </c>
+      <c r="F27" t="n">
+        <v>62814.238</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4577</v>
+      </c>
+      <c r="H27" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>45370.70833333334</v>
+      </c>
+      <c r="K27" s="2" t="n">
+        <v>45370.70833333334</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-168.3001904762205</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-1195.151246472378</v>
+      </c>
+      <c r="N27" t="n">
+        <v>63507.85363095237</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-0.003065284621635412</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-0.003000380645934019</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>63199.79947619046</v>
+      </c>
+      <c r="R27" t="n">
+        <v>65259.1818842478</v>
+      </c>
+      <c r="S27" t="n">
+        <v>68761.3897189783</v>
+      </c>
+      <c r="T27" t="n">
+        <v>63120.1344118627</v>
+      </c>
+      <c r="U27" t="n">
+        <v>63449.08970572308</v>
+      </c>
+      <c r="V27" t="n">
+        <v>63137.03010079117</v>
+      </c>
+      <c r="W27" t="n">
+        <v>-239.8947179659372</v>
+      </c>
+      <c r="X27" t="n">
+        <v>-259.075404666916</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>422.1040219430582</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-70.33805813558138</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-64.1938572411018</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23.82987444095488</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>63706.8705304143</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>62565.68967116804</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>35.66199397724002</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>29.93414209441645</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>62314.238</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>63214.238</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>62714.238</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>62664.238</v>
+      </c>
+      <c r="AM27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" s="2" t="n">
+        <v>45371.05208333334</v>
+      </c>
+      <c r="AP27" s="2" t="n">
+        <v>45371.04412037037</v>
+      </c>
+      <c r="AQ27" s="2" t="n">
+        <v>45370.73070601852</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>40.11559999999881</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>37.18</v>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>727.3200000000002</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B28" s="2" t="n">
+        <v>45370.75</v>
+      </c>
+      <c r="C28" t="n">
+        <v>64060.188</v>
+      </c>
+      <c r="D28" t="n">
+        <v>64653.137</v>
+      </c>
+      <c r="E28" t="n">
+        <v>63983.867</v>
+      </c>
+      <c r="F28" t="n">
+        <v>64334.48</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4386</v>
+      </c>
+      <c r="H28" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>45370.75</v>
+      </c>
+      <c r="K28" s="2" t="n">
+        <v>45370.75</v>
+      </c>
+      <c r="L28" t="n">
+        <v>308.0541547619141</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-1116.875718843592</v>
+      </c>
+      <c r="N28" t="n">
+        <v>63987.28027380953</v>
+      </c>
+      <c r="O28" t="n">
+        <v>-0.003065462664527899</v>
+      </c>
+      <c r="P28" t="n">
+        <v>-0.002906979406829074</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>63507.85363095237</v>
+      </c>
+      <c r="R28" t="n">
+        <v>65055.28306936762</v>
+      </c>
+      <c r="S28" t="n">
+        <v>68540.30885361014</v>
+      </c>
+      <c r="T28" t="n">
+        <v>63511.32058842765</v>
+      </c>
+      <c r="U28" t="n">
+        <v>63562.98902517511</v>
+      </c>
+      <c r="V28" t="n">
+        <v>63497.99028207768</v>
+      </c>
+      <c r="W28" t="n">
+        <v>-125.3209719234583</v>
+      </c>
+      <c r="X28" t="n">
+        <v>-206.2270550534924</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>466.1846850352514</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>170.2187272101219</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>99.93435810115625</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>110.2108775369852</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>64128.83960687528</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>62868.64095728009</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>91.5605800057719</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>73.80432248077678</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>63834.48</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>64734.48</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>64234.48</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>64184.48</v>
+      </c>
+      <c r="AM28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" s="2" t="n">
+        <v>45370.92708333334</v>
+      </c>
+      <c r="AP28" s="2" t="n">
+        <v>45370.92122685185</v>
+      </c>
+      <c r="AQ28" s="2" t="n">
+        <v>45370.77899305556</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>32.06399999999994</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>653.3000000000002</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B29" s="2" t="n">
+        <v>45370.91666666666</v>
+      </c>
+      <c r="C29" t="n">
+        <v>64416.84</v>
+      </c>
+      <c r="D29" t="n">
+        <v>64520.938</v>
+      </c>
+      <c r="E29" t="n">
+        <v>63695.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>63807.539</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4017</v>
+      </c>
+      <c r="H29" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2" t="n">
+        <v>45370.91666666666</v>
+      </c>
+      <c r="K29" s="2" t="n">
+        <v>45370.91666666666</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15.82667857130582</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-705.5605620592905</v>
+      </c>
+      <c r="N29" t="n">
+        <v>64495.99954761901</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-0.003186152694088682</v>
+      </c>
+      <c r="P29" t="n">
+        <v>-0.002087459653359823</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>64693.3838928571</v>
+      </c>
+      <c r="R29" t="n">
+        <v>64333.14149571161</v>
+      </c>
+      <c r="S29" t="n">
+        <v>67864.51357353662</v>
+      </c>
+      <c r="T29" t="n">
+        <v>64526.84974514358</v>
+      </c>
+      <c r="U29" t="n">
+        <v>64369.57492327628</v>
+      </c>
+      <c r="V29" t="n">
+        <v>64642.57873890601</v>
+      </c>
+      <c r="W29" t="n">
+        <v>89.99514605329023</v>
+      </c>
+      <c r="X29" t="n">
+        <v>100.6421375008389</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>881.9942505083861</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>-241.6487089783404</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>-192.4949625043737</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>-125.1554702442081</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>65833.27097709234</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>63450.38650071969</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>17.71648175074788</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>31.55464165092728</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>63307.539</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>64207.539</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>63707.539</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>63657.539</v>
+      </c>
+      <c r="AM29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" s="2" t="n">
+        <v>45371.01041666666</v>
+      </c>
+      <c r="AP29" s="2" t="n">
+        <v>45371.01125</v>
+      </c>
+      <c r="AQ29" s="2" t="n">
+        <v>45370.94186342593</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>49.41399999999994</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>45.69</v>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>579.2800000000002</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45370.95833333334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>63782.203</v>
+      </c>
+      <c r="D30" t="n">
+        <v>63969.938</v>
+      </c>
+      <c r="E30" t="n">
+        <v>63695.727</v>
+      </c>
+      <c r="F30" t="n">
+        <v>63906.34</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3112</v>
+      </c>
+      <c r="H30" t="n">
+        <v>56422</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2" t="n">
+        <v>45370.95833333334</v>
+      </c>
+      <c r="K30" s="2" t="n">
+        <v>45370.95833333334</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-197.3843452380897</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-705.959434128883</v>
+      </c>
+      <c r="N30" t="n">
+        <v>64343.44839285714</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.003286864753268871</v>
+      </c>
+      <c r="P30" t="n">
+        <v>-0.002087207450761787</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>64495.99954761901</v>
+      </c>
+      <c r="R30" t="n">
+        <v>64179.79963268416</v>
+      </c>
+      <c r="S30" t="n">
+        <v>67723.62439458002</v>
+      </c>
+      <c r="T30" t="n">
+        <v>64185.50830743487</v>
+      </c>
+      <c r="U30" t="n">
+        <v>64224.46912676062</v>
+      </c>
+      <c r="V30" t="n">
+        <v>63893.55353594765</v>
+      </c>
+      <c r="W30" t="n">
+        <v>14.14746394834947</v>
+      </c>
+      <c r="X30" t="n">
+        <v>60.59637450386059</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>680.8751500310941</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>-115.7310175439416</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-198.9633089095514</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-197.0751093910294</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>64812.73498848962</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>62972.87208340567</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>14.10664214452791</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11.15367807961868</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>63406.34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>63806.34</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>63806.34</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>63756.34</v>
+      </c>
+      <c r="AM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN30" s="2" t="n">
+        <v>45371.01041666666</v>
+      </c>
+      <c r="AO30" s="2" t="n">
+        <v>45371.01041666666</v>
+      </c>
+      <c r="AP30" s="2" t="n">
+        <v>45371.0108912037</v>
+      </c>
+      <c r="AQ30" s="2" t="n">
+        <v>45371.56155092592</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>95.09</v>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>671.7800000000002</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="C31" t="n">
+        <v>63967.887</v>
+      </c>
+      <c r="D31" t="n">
+        <v>64058.637</v>
+      </c>
+      <c r="E31" t="n">
+        <v>63506.934</v>
+      </c>
+      <c r="F31" t="n">
+        <v>63518.84</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4576</v>
+      </c>
+      <c r="H31" t="n">
+        <v>56422</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="K31" s="2" t="n">
+        <v>45371</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-152.5511547618735</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-683.5490753899212</v>
+      </c>
+      <c r="N31" t="n">
+        <v>63636.92085714287</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.003286664901466513</v>
+      </c>
+      <c r="P31" t="n">
+        <v>-0.002087336362210789</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>64343.44839285714</v>
+      </c>
+      <c r="R31" t="n">
+        <v>63972.70108704548</v>
+      </c>
+      <c r="S31" t="n">
+        <v>67582.68202495264</v>
+      </c>
+      <c r="T31" t="n">
+        <v>63991.00354676496</v>
+      </c>
+      <c r="U31" t="n">
+        <v>64111.23936548153</v>
+      </c>
+      <c r="V31" t="n">
+        <v>63678.04090746478</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-29.19431239239202</v>
+      </c>
+      <c r="X31" t="n">
+        <v>16.31017739309654</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>571.0892048728407</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-99.39922119020048</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15.31068077063537</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>-21.59443894056312</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>64449.01133404312</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>62905.57048088645</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>14.92604349068291</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>17.46646362225217</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>63018.84</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>63418.84</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>63418.84</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>63368.84</v>
+      </c>
+      <c r="AM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="2" t="n">
+        <v>45371.02083333334</v>
+      </c>
+      <c r="AO31" s="2" t="n">
+        <v>45371.02083333334</v>
+      </c>
+      <c r="AP31" s="2" t="n">
+        <v>45371.02158564814</v>
+      </c>
+      <c r="AQ31" s="2" t="n">
+        <v>45371.12413194445</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>764.2800000000002</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45371.04166666666</v>
+      </c>
+      <c r="C32" t="n">
+        <v>62664.34</v>
+      </c>
+      <c r="D32" t="n">
+        <v>62831.738</v>
+      </c>
+      <c r="E32" t="n">
+        <v>61881.84</v>
+      </c>
+      <c r="F32" t="n">
+        <v>61956.738</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4692</v>
+      </c>
+      <c r="H32" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>45371.04166666666</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>45371.04166666666</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-706.5275357142673</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-762.0306339233139</v>
+      </c>
+      <c r="N32" t="n">
+        <v>62874.70744047616</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-0.003286824409665265</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-0.002087394751367474</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>63636.92085714287</v>
+      </c>
+      <c r="R32" t="n">
+        <v>63765.9325690808</v>
+      </c>
+      <c r="S32" t="n">
+        <v>67444.53083884179</v>
+      </c>
+      <c r="T32" t="n">
+        <v>63280.83902490058</v>
+      </c>
+      <c r="U32" t="n">
+        <v>63703.45191093503</v>
+      </c>
+      <c r="V32" t="n">
+        <v>62777.01101616791</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-160.8502779506962</v>
+      </c>
+      <c r="X32" t="n">
+        <v>-61.44841395755699</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>889.5759193385873</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-287.3753921568277</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-197.4996587547139</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>-244.2149858960911</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>63977.938507275</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>61574.58352506082</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>3.639389647758283</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>2.383979168799705</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>61456.738</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>61856.738</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>61856.738</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>61806.738</v>
+      </c>
+      <c r="AM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="2" t="n">
+        <v>45371.0625</v>
+      </c>
+      <c r="AO32" s="2" t="n">
+        <v>45371.0625</v>
+      </c>
+      <c r="AP32" s="2" t="n">
+        <v>45371.27376157408</v>
+      </c>
+      <c r="AQ32" s="2" t="n">
+        <v>45371.06268518518</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>59.73980000000011</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="AT32" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AU32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>782.7800000000002</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45371.08333333334</v>
+      </c>
+      <c r="C33" t="n">
+        <v>61955.84</v>
+      </c>
+      <c r="D33" t="n">
+        <v>62268.34</v>
+      </c>
+      <c r="E33" t="n">
+        <v>61867.238</v>
+      </c>
+      <c r="F33" t="n">
+        <v>62156.238</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4445</v>
+      </c>
+      <c r="H33" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2" t="n">
+        <v>45371.08333333334</v>
+      </c>
+      <c r="K33" s="2" t="n">
+        <v>45371.08333333334</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-762.2134166667092</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-871.3534432138913</v>
+      </c>
+      <c r="N33" t="n">
+        <v>62805.81251190471</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-0.003035252212530676</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-0.002087380466415662</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>62874.70744047616</v>
+      </c>
+      <c r="R33" t="n">
+        <v>63476.31065051586</v>
+      </c>
+      <c r="S33" t="n">
+        <v>67302.55500782108</v>
+      </c>
+      <c r="T33" t="n">
+        <v>62651.65886473056</v>
+      </c>
+      <c r="U33" t="n">
+        <v>63245.57953435471</v>
+      </c>
+      <c r="V33" t="n">
+        <v>62040.80492913658</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-263.3968241398834</v>
+      </c>
+      <c r="X33" t="n">
+        <v>-168.4645134851958</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1039.557488683816</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-86.99791812865442</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-155.4014454764692</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-184.1618555211462</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>63444.20753885973</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>60635.90231941342</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18.76209918109202</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.09219951414558</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>61656.238</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>62556.238</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>62056.238</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>62006.238</v>
+      </c>
+      <c r="AM33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="AP33" s="2" t="n">
+        <v>45371.24829861111</v>
+      </c>
+      <c r="AQ33" s="2" t="n">
+        <v>45371.09694444444</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>34.05999999999912</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>31.45</v>
+      </c>
+      <c r="AT33" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>708.7600000000002</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45371.125</v>
+      </c>
+      <c r="C34" t="n">
+        <v>63262.086</v>
+      </c>
+      <c r="D34" t="n">
+        <v>63286.039</v>
+      </c>
+      <c r="E34" t="n">
+        <v>62510.738</v>
+      </c>
+      <c r="F34" t="n">
+        <v>62737.039</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4351</v>
+      </c>
+      <c r="H34" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2" t="n">
+        <v>45371.125</v>
+      </c>
+      <c r="K34" s="2" t="n">
+        <v>45371.125</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-68.89492857144796</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-842.6137246442304</v>
+      </c>
+      <c r="N34" t="n">
+        <v>62541.70008333331</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-0.002700752713905802</v>
+      </c>
+      <c r="P34" t="n">
+        <v>-0.002087465708023116</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>62805.81251190471</v>
+      </c>
+      <c r="R34" t="n">
+        <v>63199.94889402085</v>
+      </c>
+      <c r="S34" t="n">
+        <v>67162.58840562211</v>
+      </c>
+      <c r="T34" t="n">
+        <v>62791.69733869683</v>
+      </c>
+      <c r="U34" t="n">
+        <v>63164.54752668933</v>
+      </c>
+      <c r="V34" t="n">
+        <v>62267.85558617129</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-210.1885129388538</v>
+      </c>
+      <c r="X34" t="n">
+        <v>-201.9682037690754</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>933.6206408911563</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>25.64974165807507</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>111.3996057791082</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>41.59818403860845</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>63529.74345137435</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>61007.46772096823</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>55.20318769339514</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>51.04517827878831</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>62237.039</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>63137.039</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>62637.039</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>62587.039</v>
+      </c>
+      <c r="AM34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" s="2" t="n">
+        <v>45371.14583333334</v>
+      </c>
+      <c r="AP34" s="2" t="n">
+        <v>45371.13851851852</v>
+      </c>
+      <c r="AQ34" s="2" t="n">
+        <v>45371.21298611111</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>93.98</v>
+      </c>
+      <c r="AT34" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>801.2600000000002</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>45371.16666666666</v>
+      </c>
+      <c r="C35" t="n">
+        <v>62411.84</v>
+      </c>
+      <c r="D35" t="n">
+        <v>62868.438</v>
+      </c>
+      <c r="E35" t="n">
+        <v>62257.375</v>
+      </c>
+      <c r="F35" t="n">
+        <v>62831.313</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4063</v>
+      </c>
+      <c r="H35" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2" t="n">
+        <v>45371.16666666666</v>
+      </c>
+      <c r="K35" s="2" t="n">
+        <v>45371.16666666666</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-264.1124285713959</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-878.5798855979883</v>
+      </c>
+      <c r="N35" t="n">
+        <v>62570.64011904764</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-0.002273474507925202</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-0.002087456678503426</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>62541.70008333331</v>
+      </c>
+      <c r="R35" t="n">
+        <v>62948.79333900773</v>
+      </c>
+      <c r="S35" t="n">
+        <v>67022.99886155112</v>
+      </c>
+      <c r="T35" t="n">
+        <v>62636.25686390043</v>
+      </c>
+      <c r="U35" t="n">
+        <v>62976.04721534661</v>
+      </c>
+      <c r="V35" t="n">
+        <v>62367.32594048843</v>
+      </c>
+      <c r="W35" t="n">
+        <v>-207.5409987941675</v>
+      </c>
+      <c r="X35" t="n">
+        <v>-210.351662263471</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>748.3377207521204</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>141.1220378397411</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>29.16876780177699</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-47.27985483314114</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>63379.08186350379</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>61357.07001747307</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>46.34928371516802</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>38.75628100815063</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>62331.313</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>63231.313</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>62731.313</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>62681.313</v>
+      </c>
+      <c r="AM35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="AP35" s="2" t="n">
+        <v>45371.24517361111</v>
+      </c>
+      <c r="AQ35" s="2" t="n">
+        <v>45371.22291666667</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>28.53360000000102</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="AT35" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>727.2400000000002</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B36" s="2" t="n">
+        <v>45371.20833333334</v>
+      </c>
+      <c r="C36" t="n">
+        <v>62911.738</v>
+      </c>
+      <c r="D36" t="n">
+        <v>63166.238</v>
+      </c>
+      <c r="E36" t="n">
+        <v>62783.84</v>
+      </c>
+      <c r="F36" t="n">
+        <v>62882.738</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3656</v>
+      </c>
+      <c r="H36" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>45371.20833333334</v>
+      </c>
+      <c r="K36" s="2" t="n">
+        <v>45371.20833333334</v>
+      </c>
+      <c r="L36" t="n">
+        <v>28.94003571432404</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-856.868292207364</v>
+      </c>
+      <c r="N36" t="n">
+        <v>62312.97180952378</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-0.00186149253876505</v>
+      </c>
+      <c r="P36" t="n">
+        <v>-0.002087302773526413</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>62570.64011904764</v>
+      </c>
+      <c r="R36" t="n">
+        <v>62756.26638760879</v>
+      </c>
+      <c r="S36" t="n">
+        <v>66882.2028675317</v>
+      </c>
+      <c r="T36" t="n">
+        <v>62774.59278072778</v>
+      </c>
+      <c r="U36" t="n">
+        <v>62962.34373421089</v>
+      </c>
+      <c r="V36" t="n">
+        <v>62913.25528001375</v>
+      </c>
+      <c r="W36" t="n">
+        <v>-149.8373838110638</v>
+      </c>
+      <c r="X36" t="n">
+        <v>-183.532531523954</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>652.5144989425903</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>86.41699931198673</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>115.7418875128787</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>146.7314289645801</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>63795.64985358625</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>62032.36070644125</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>69.30649737491846</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>71.72329515799056</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>62382.738</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>63282.738</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>62782.738</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>62732.738</v>
+      </c>
+      <c r="AM36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" s="2" t="n">
+        <v>45371.23958333334</v>
+      </c>
+      <c r="AP36" s="2" t="n">
+        <v>45371.24200231482</v>
+      </c>
+      <c r="AQ36" s="2" t="n">
+        <v>45371.22322916667</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>16.36239999999962</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="AT36" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>653.2200000000003</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B37" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>61866.648</v>
+      </c>
+      <c r="D37" t="n">
+        <v>62365.438</v>
+      </c>
+      <c r="E37" t="n">
+        <v>61708.816</v>
+      </c>
+      <c r="F37" t="n">
+        <v>62309.738</v>
+      </c>
+      <c r="G37" t="n">
+        <v>5103</v>
+      </c>
+      <c r="H37" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="K37" s="2" t="n">
+        <v>45371.25</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-257.6683095238623</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-913.5858724032296</v>
+      </c>
+      <c r="N37" t="n">
+        <v>62053.57199999995</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-0.00153801523384664</v>
+      </c>
+      <c r="P37" t="n">
+        <v>-0.002087494798451294</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>62312.97180952378</v>
+      </c>
+      <c r="R37" t="n">
+        <v>62620.76636236232</v>
+      </c>
+      <c r="S37" t="n">
+        <v>66745.35897290299</v>
+      </c>
+      <c r="T37" t="n">
+        <v>62634.92931930379</v>
+      </c>
+      <c r="U37" t="n">
+        <v>62847.96111390376</v>
+      </c>
+      <c r="V37" t="n">
+        <v>62711.93669177841</v>
+      </c>
+      <c r="W37" t="n">
+        <v>-147.8212206734825</v>
+      </c>
+      <c r="X37" t="n">
+        <v>-156.0746371839732</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>498.5096416958691</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>-111.790113175186</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>-228.3262370140146</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-35.45018851053464</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>63384.92470806783</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>62037.44867548898</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>32.27297308010049</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51.31474027242664</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>61809.738</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>62709.738</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>62209.738</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>62159.738</v>
+      </c>
+      <c r="AM37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" s="2" t="n">
+        <v>45371.27083333334</v>
+      </c>
+      <c r="AP37" s="2" t="n">
+        <v>45371.26711805556</v>
+      </c>
+      <c r="AQ37" s="2" t="n">
+        <v>45371.39460648148</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>98.23</v>
+      </c>
+      <c r="AT37" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>745.7200000000003</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B38" s="2" t="n">
+        <v>45371.29166666666</v>
+      </c>
+      <c r="C38" t="n">
+        <v>61670.238</v>
+      </c>
+      <c r="D38" t="n">
+        <v>61810.137</v>
+      </c>
+      <c r="E38" t="n">
+        <v>61034.852</v>
+      </c>
+      <c r="F38" t="n">
+        <v>61273.539</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4599</v>
+      </c>
+      <c r="H38" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2" t="n">
+        <v>45371.29166666666</v>
+      </c>
+      <c r="K38" s="2" t="n">
+        <v>45371.29166666666</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-259.3998095238276</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-962.6687871161994</v>
+      </c>
+      <c r="N38" t="n">
+        <v>61914.35835714285</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-0.001571560228747927</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-0.002088094833284015</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>62053.57199999995</v>
+      </c>
+      <c r="R38" t="n">
+        <v>62524.98630681082</v>
+      </c>
+      <c r="S38" t="n">
+        <v>66607.29761122441</v>
+      </c>
+      <c r="T38" t="n">
+        <v>62084.10806876253</v>
+      </c>
+      <c r="U38" t="n">
+        <v>62496.0733282578</v>
+      </c>
+      <c r="V38" t="n">
+        <v>61862.52014138279</v>
+      </c>
+      <c r="W38" t="n">
+        <v>-222.9025399630118</v>
+      </c>
+      <c r="X38" t="n">
+        <v>-182.1129123966436</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>593.1424006048719</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>-197.4795531477066</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-151.4922277261649</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-288.6358912967698</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>62663.26238219937</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>61060.27790056621</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>14.61453202470128</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>16.10002042000129</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>60773.539</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>61173.539</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>61173.539</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>61123.539</v>
+      </c>
+      <c r="AM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="2" t="n">
+        <v>45371.3125</v>
+      </c>
+      <c r="AO38" s="2" t="n">
+        <v>45371.3125</v>
+      </c>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" s="2" t="n">
+        <v>45371.31572916666</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>98.31559999999881</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>91.02</v>
+      </c>
+      <c r="AT38" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="AU38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>764.2200000000003</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B39" s="2" t="n">
+        <v>45371.33333333334</v>
+      </c>
+      <c r="C39" t="n">
+        <v>61577.086</v>
+      </c>
+      <c r="D39" t="n">
+        <v>61869.738</v>
+      </c>
+      <c r="E39" t="n">
+        <v>61546.531</v>
+      </c>
+      <c r="F39" t="n">
+        <v>61831.137</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3999</v>
+      </c>
+      <c r="H39" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="n">
+        <v>45371.33333333334</v>
+      </c>
+      <c r="K39" s="2" t="n">
+        <v>45371.33333333334</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-139.213642857103</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-997.6754264256015</v>
+      </c>
+      <c r="N39" t="n">
+        <v>61795.23275000002</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-0.001571603220082912</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-0.001390592998488558</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>61914.35835714285</v>
+      </c>
+      <c r="R39" t="n">
+        <v>62425.5725645019</v>
+      </c>
+      <c r="S39" t="n">
+        <v>66238.3941542305</v>
+      </c>
+      <c r="T39" t="n">
+        <v>61817.42801459166</v>
+      </c>
+      <c r="U39" t="n">
+        <v>62234.6893585416</v>
+      </c>
+      <c r="V39" t="n">
+        <v>61374.52442002067</v>
+      </c>
+      <c r="W39" t="n">
+        <v>-240.1218144710365</v>
+      </c>
+      <c r="X39" t="n">
+        <v>-219.6286781290026</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>674.2220871447081</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>-77.65670072236389</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>-109.387485380139</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>-110.4230956311512</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>62284.72423766602</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>60462.82460237531</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>31.59626264198512</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>22.60683520758363</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>61331.137</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>62231.137</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>61731.137</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>61681.137</v>
+      </c>
+      <c r="AM39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" s="2" t="n">
+        <v>45371.37971064815</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>31.7351999999999</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>29.41</v>
+      </c>
+      <c r="AT39" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>690.2000000000003</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45371.375</v>
+      </c>
+      <c r="C40" t="n">
+        <v>61780.539</v>
+      </c>
+      <c r="D40" t="n">
+        <v>62335.816</v>
+      </c>
+      <c r="E40" t="n">
+        <v>61744.379</v>
+      </c>
+      <c r="F40" t="n">
+        <v>62191.738</v>
+      </c>
+      <c r="G40" t="n">
+        <v>3399</v>
+      </c>
+      <c r="H40" t="n">
+        <v>36422</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>45371.375</v>
+      </c>
+      <c r="K40" s="2" t="n">
+        <v>45371.375</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-119.1256071428215</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-998.3853298568938</v>
+      </c>
+      <c r="N40" t="n">
+        <v>62025.29654761907</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-0.001571641746427695</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-0.001521956120581579</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>61795.23275000002</v>
+      </c>
+      <c r="R40" t="n">
+        <v>62327.22213207834</v>
+      </c>
+      <c r="S40" t="n">
+        <v>66178.95433910715</v>
+      </c>
+      <c r="T40" t="n">
+        <v>61899.02494253129</v>
+      </c>
+      <c r="U40" t="n">
+        <v>62166.95127989431</v>
+      </c>
+      <c r="V40" t="n">
+        <v>61506.21571792224</v>
+      </c>
+      <c r="W40" t="n">
+        <v>-189.7181366865188</v>
+      </c>
+      <c r="X40" t="n">
+        <v>-211.8654695128087</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>626.7041750259202</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>106.1623694530426</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>20.47292879247834</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>16.70775885810144</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>62353.76635420723</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>60660.16508163725</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>48.92059607966834</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>44.09013780012592</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH40" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>61691.738</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>62591.738</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>62091.738</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>62041.738</v>
+      </c>
+      <c r="AM40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" s="2" t="n">
+        <v>45371.39287037037</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>15.58279999999941</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="AT40" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="AU40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>-74.02</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>616.1800000000003</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45371.95833333334</v>
+      </c>
+      <c r="C41" t="n">
+        <v>67066.43799999999</v>
+      </c>
+      <c r="D41" t="n">
+        <v>67338.539</v>
+      </c>
+      <c r="E41" t="n">
+        <v>66926.836</v>
+      </c>
+      <c r="F41" t="n">
+        <v>67323.04700000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3160</v>
+      </c>
+      <c r="H41" t="n">
+        <v>56421</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>45371.95833333334</v>
+      </c>
+      <c r="K41" s="2" t="n">
+        <v>45371.95833333334</v>
+      </c>
+      <c r="L41" t="n">
+        <v>911.1057023809044</v>
+      </c>
+      <c r="M41" t="n">
+        <v>443.1564933802729</v>
+      </c>
+      <c r="N41" t="n">
+        <v>66645.50490476187</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.0013327511797759</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.001137582050067457</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>65770.53455952379</v>
+      </c>
+      <c r="R41" t="n">
+        <v>60629.15951258683</v>
+      </c>
+      <c r="S41" t="n">
+        <v>66544.81631389378</v>
+      </c>
+      <c r="T41" t="n">
+        <v>66153.39889965793</v>
+      </c>
+      <c r="U41" t="n">
+        <v>65234.23978589306</v>
+      </c>
+      <c r="V41" t="n">
+        <v>67121.59993154451</v>
+      </c>
+      <c r="W41" t="n">
+        <v>449.2059584276212</v>
+      </c>
+      <c r="X41" t="n">
+        <v>331.9683267845396</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>1397.817961483507</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>234.8037127622229</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>213.0591279669898</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>448.0638641210826</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>69010.15417954724</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>65234.54568354177</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>86.82679586116065</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>91.00091394779683</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>67823.04700000001</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>66923.04700000001</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>67423.04700000001</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>67473.04700000001</v>
+      </c>
+      <c r="AM41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" s="2" t="n">
+        <v>45371.97916666666</v>
+      </c>
+      <c r="AP41" s="2" t="n">
+        <v>45371.97708333333</v>
+      </c>
+      <c r="AQ41" t="inlineStr"/>
+      <c r="AR41" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>92.68000000000001</v>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="AU41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>708.6800000000003</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA41" t="n">
         <v>3</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BA41"/>
+  <dimension ref="A1:AY41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,50 +650,40 @@
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>max_completion</t>
+          <t>type</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>max_floating_profit</t>
+          <t>success</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>profit</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>account_balance</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>profit</t>
+          <t>win_streak</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>account_balance</t>
+          <t>losing_streak</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>win_streak</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>losing_streak</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -827,36 +817,30 @@
       <c r="AQ2" s="2" t="n">
         <v>45363.81896990741</v>
       </c>
-      <c r="AR2" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU2" t="b">
-        <v>1</v>
+      <c r="AS2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>450</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW2" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -984,36 +968,30 @@
       <c r="AQ3" s="2" t="n">
         <v>45364.49168981481</v>
       </c>
-      <c r="AR3" t="n">
-        <v>1.179600000000209</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU3" t="b">
-        <v>0</v>
+      <c r="AS3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-74.09</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>375.91</v>
       </c>
       <c r="AV3" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>375.98</v>
+        <v>1</v>
       </c>
       <c r="AX3" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1143,36 +1121,30 @@
       <c r="AQ4" s="2" t="n">
         <v>45364.60390046296</v>
       </c>
-      <c r="AR4" t="n">
-        <v>21.17960000000021</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>19.61</v>
-      </c>
-      <c r="AT4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU4" t="b">
-        <v>0</v>
+      <c r="AS4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-74.09</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>301.8199999999999</v>
       </c>
       <c r="AV4" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>301.96</v>
+        <v>2</v>
       </c>
       <c r="AX4" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1306,36 +1278,30 @@
       <c r="AQ5" s="2" t="n">
         <v>45365.77283564815</v>
       </c>
-      <c r="AR5" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101.58</v>
-      </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AR5" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU5" t="b">
-        <v>1</v>
+      <c r="AS5" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>394.42</v>
       </c>
       <c r="AV5" t="n">
-        <v>92.51000000000001</v>
+        <v>1</v>
       </c>
       <c r="AW5" t="n">
-        <v>394.47</v>
+        <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1467,36 +1433,30 @@
       <c r="AQ6" s="2" t="n">
         <v>45365.92872685185</v>
       </c>
-      <c r="AR6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>117.12</v>
-      </c>
-      <c r="AT6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU6" t="b">
-        <v>1</v>
+      <c r="AS6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>487.02</v>
       </c>
       <c r="AV6" t="n">
-        <v>92.51000000000001</v>
+        <v>2</v>
       </c>
       <c r="AW6" t="n">
-        <v>486.98</v>
+        <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1628,36 +1588,30 @@
       <c r="AQ7" s="2" t="n">
         <v>45366.86208333333</v>
       </c>
-      <c r="AR7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>93.25</v>
-      </c>
-      <c r="AT7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU7" t="b">
-        <v>1</v>
+      <c r="AS7" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>579.62</v>
       </c>
       <c r="AV7" t="n">
-        <v>92.51000000000001</v>
+        <v>3</v>
       </c>
       <c r="AW7" t="n">
-        <v>579.49</v>
+        <v>0</v>
       </c>
       <c r="AX7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1791,36 +1745,30 @@
       <c r="AQ8" s="2" t="n">
         <v>45366.31300925926</v>
       </c>
-      <c r="AR8" t="n">
-        <v>57.76560000000173</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>53.47</v>
-      </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU8" t="b">
-        <v>1</v>
+      <c r="AS8" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>598.14</v>
       </c>
       <c r="AV8" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="AW8" t="n">
-        <v>597.99</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1952,36 +1900,30 @@
       <c r="AQ9" s="2" t="n">
         <v>45366.35168981482</v>
       </c>
-      <c r="AR9" t="n">
-        <v>19.43420000000042</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>17.94</v>
-      </c>
-      <c r="AT9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU9" t="b">
-        <v>0</v>
+      <c r="AS9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-74.09</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>524.05</v>
       </c>
       <c r="AV9" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>523.97</v>
+        <v>1</v>
       </c>
       <c r="AX9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA9" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2113,36 +2055,30 @@
       <c r="AQ10" s="2" t="n">
         <v>45366.86184027778</v>
       </c>
-      <c r="AR10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>100.45</v>
-      </c>
-      <c r="AT10" t="inlineStr">
+      <c r="AR10" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU10" t="b">
-        <v>1</v>
+      <c r="AS10" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>616.67</v>
       </c>
       <c r="AV10" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW10" t="n">
-        <v>616.47</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2274,36 +2210,30 @@
       <c r="AQ11" s="2" t="n">
         <v>45366.47002314815</v>
       </c>
-      <c r="AR11" t="n">
-        <v>36.03440000000118</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="AT11" t="inlineStr">
+      <c r="AR11" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU11" t="b">
-        <v>0</v>
+      <c r="AS11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>542.5699999999999</v>
       </c>
       <c r="AV11" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>542.45</v>
+        <v>1</v>
       </c>
       <c r="AX11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2435,36 +2365,30 @@
       <c r="AQ12" s="2" t="n">
         <v>45366.51424768518</v>
       </c>
-      <c r="AR12" t="n">
-        <v>10.21720000000205</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>9.43</v>
-      </c>
-      <c r="AT12" t="inlineStr">
+      <c r="AR12" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU12" t="b">
-        <v>0</v>
+      <c r="AS12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>468.4699999999999</v>
       </c>
       <c r="AV12" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>468.4300000000001</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2598,36 +2522,30 @@
       <c r="AQ13" s="2" t="n">
         <v>45366.56332175926</v>
       </c>
-      <c r="AR13" t="n">
-        <v>86.1564000000013</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>79.73</v>
-      </c>
-      <c r="AT13" t="inlineStr">
+      <c r="AR13" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU13" t="b">
-        <v>1</v>
+      <c r="AS13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>486.9899999999999</v>
       </c>
       <c r="AV13" t="n">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="n">
-        <v>486.9300000000001</v>
+        <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2759,36 +2677,30 @@
       <c r="AQ14" s="2" t="n">
         <v>45366.60776620371</v>
       </c>
-      <c r="AR14" t="n">
-        <v>19.78759999999893</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>18.31</v>
-      </c>
-      <c r="AT14" t="inlineStr">
+      <c r="AR14" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU14" t="b">
-        <v>0</v>
+      <c r="AS14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>412.8899999999999</v>
       </c>
       <c r="AV14" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>412.9100000000001</v>
+        <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA14" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2922,36 +2834,30 @@
       <c r="AQ15" s="2" t="n">
         <v>45366.64936342592</v>
       </c>
-      <c r="AR15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>97.86</v>
-      </c>
-      <c r="AT15" t="inlineStr">
+      <c r="AR15" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU15" t="b">
-        <v>1</v>
+      <c r="AS15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>505.5099999999999</v>
       </c>
       <c r="AV15" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW15" t="n">
-        <v>505.4100000000001</v>
+        <v>0</v>
       </c>
       <c r="AX15" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3083,36 +2989,30 @@
       <c r="AQ16" s="2" t="n">
         <v>45366.68413194444</v>
       </c>
-      <c r="AR16" t="n">
-        <v>14.45779999999795</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="AT16" t="inlineStr">
+      <c r="AR16" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU16" t="b">
-        <v>0</v>
+      <c r="AS16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>431.4099999999999</v>
       </c>
       <c r="AV16" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>431.3900000000001</v>
+        <v>1</v>
       </c>
       <c r="AX16" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AY16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="BA16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3244,36 +3144,30 @@
       <c r="AQ17" s="2" t="n">
         <v>45371.92246527778</v>
       </c>
-      <c r="AR17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>93.79000000000001</v>
-      </c>
-      <c r="AT17" t="inlineStr">
+      <c r="AR17" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU17" t="b">
-        <v>1</v>
+      <c r="AS17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>524.0299999999999</v>
       </c>
       <c r="AV17" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW17" t="n">
-        <v>523.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3405,36 +3299,30 @@
       <c r="AQ18" s="2" t="n">
         <v>45371.92045138889</v>
       </c>
-      <c r="AR18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>93.23999999999999</v>
-      </c>
-      <c r="AT18" t="inlineStr">
+      <c r="AR18" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU18" t="b">
-        <v>1</v>
+      <c r="AS18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>616.6499999999999</v>
       </c>
       <c r="AV18" t="n">
-        <v>92.5</v>
+        <v>2</v>
       </c>
       <c r="AW18" t="n">
-        <v>616.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3566,36 +3454,30 @@
       <c r="AQ19" s="2" t="n">
         <v>45371.90981481481</v>
       </c>
-      <c r="AR19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="AT19" t="inlineStr">
+      <c r="AR19" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU19" t="b">
-        <v>1</v>
+      <c r="AS19" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>709.2699999999999</v>
       </c>
       <c r="AV19" t="n">
-        <v>92.5</v>
+        <v>3</v>
       </c>
       <c r="AW19" t="n">
-        <v>708.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX19" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3729,36 +3611,30 @@
       <c r="AQ20" s="2" t="n">
         <v>45370.3140625</v>
       </c>
-      <c r="AR20" t="n">
-        <v>85.05940000000119</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>78.62</v>
-      </c>
-      <c r="AT20" t="inlineStr">
+      <c r="AR20" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU20" t="b">
-        <v>1</v>
+      <c r="AS20" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>727.7999999999998</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>727.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX20" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3892,36 +3768,30 @@
       <c r="AQ21" s="2" t="n">
         <v>45370.79489583334</v>
       </c>
-      <c r="AR21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>94.53</v>
-      </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AR21" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU21" t="b">
-        <v>1</v>
+      <c r="AS21" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>820.4199999999998</v>
       </c>
       <c r="AV21" t="n">
-        <v>92.5</v>
+        <v>5</v>
       </c>
       <c r="AW21" t="n">
-        <v>819.8900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA21" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4055,36 +3925,30 @@
       <c r="AQ22" s="2" t="n">
         <v>45370.47935185185</v>
       </c>
-      <c r="AR22" t="n">
-        <v>39.94000000000087</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>37</v>
-      </c>
-      <c r="AT22" t="inlineStr">
+      <c r="AR22" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU22" t="b">
-        <v>1</v>
+      <c r="AS22" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>838.9499999999998</v>
       </c>
       <c r="AV22" t="n">
-        <v>18.5</v>
+        <v>6</v>
       </c>
       <c r="AW22" t="n">
-        <v>838.3900000000001</v>
+        <v>0</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA22" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4216,36 +4080,30 @@
       <c r="AQ23" s="2" t="n">
         <v>45370.74234953704</v>
       </c>
-      <c r="AR23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>100.45</v>
-      </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AR23" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU23" t="b">
-        <v>1</v>
+      <c r="AS23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>931.5799999999998</v>
       </c>
       <c r="AV23" t="n">
-        <v>92.48999999999999</v>
+        <v>7</v>
       </c>
       <c r="AW23" t="n">
-        <v>930.8800000000001</v>
+        <v>0</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4377,36 +4235,30 @@
       <c r="AQ24" s="2" t="n">
         <v>45370.57258101852</v>
       </c>
-      <c r="AR24" t="n">
-        <v>37.36160000000091</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>34.59</v>
-      </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AR24" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU24" t="b">
-        <v>0</v>
+      <c r="AS24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>857.4699999999998</v>
       </c>
       <c r="AV24" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>856.8600000000001</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4540,36 +4392,30 @@
       <c r="AQ25" s="2" t="n">
         <v>45370.60461805556</v>
       </c>
-      <c r="AR25" t="n">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>37.37</v>
-      </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AR25" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU25" t="b">
-        <v>1</v>
+      <c r="AS25" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>875.9999999999998</v>
       </c>
       <c r="AV25" t="n">
-        <v>18.5</v>
+        <v>1</v>
       </c>
       <c r="AW25" t="n">
-        <v>875.3600000000001</v>
+        <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4701,36 +4547,30 @@
       <c r="AQ26" s="2" t="n">
         <v>45370.64210648148</v>
       </c>
-      <c r="AR26" t="n">
-        <v>24.52739999999903</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AR26" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU26" t="b">
-        <v>0</v>
+      <c r="AS26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>801.8999999999997</v>
       </c>
       <c r="AV26" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>801.3400000000001</v>
+        <v>1</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA26" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4862,36 +4702,30 @@
       <c r="AQ27" s="2" t="n">
         <v>45370.73070601852</v>
       </c>
-      <c r="AR27" t="n">
-        <v>40.11559999999881</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>37.18</v>
-      </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AR27" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU27" t="b">
-        <v>0</v>
+      <c r="AS27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-74.09999999999999</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>727.7999999999997</v>
       </c>
       <c r="AV27" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW27" t="n">
-        <v>727.3200000000002</v>
+        <v>2</v>
       </c>
       <c r="AX27" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY27" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA27" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5023,36 +4857,30 @@
       <c r="AQ28" s="2" t="n">
         <v>45370.77899305556</v>
       </c>
-      <c r="AR28" t="n">
-        <v>32.06399999999994</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="AT28" t="inlineStr">
+      <c r="AR28" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU28" t="b">
-        <v>0</v>
+      <c r="AS28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>653.6899999999997</v>
       </c>
       <c r="AV28" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>653.3000000000002</v>
+        <v>3</v>
       </c>
       <c r="AX28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY28" t="n">
-        <v>3</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA28" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5184,36 +5012,30 @@
       <c r="AQ29" s="2" t="n">
         <v>45370.94186342593</v>
       </c>
-      <c r="AR29" t="n">
-        <v>49.41399999999994</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>45.69</v>
-      </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AR29" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU29" t="b">
-        <v>0</v>
+      <c r="AS29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>579.5799999999997</v>
       </c>
       <c r="AV29" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>579.2800000000002</v>
+        <v>4</v>
       </c>
       <c r="AX29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA29" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5347,36 +5169,30 @@
       <c r="AQ30" s="2" t="n">
         <v>45371.56155092592</v>
       </c>
-      <c r="AR30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>95.09</v>
-      </c>
-      <c r="AT30" t="inlineStr">
+      <c r="AR30" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU30" t="b">
-        <v>1</v>
+      <c r="AS30" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>672.1999999999997</v>
       </c>
       <c r="AV30" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW30" t="n">
-        <v>671.7800000000002</v>
+        <v>0</v>
       </c>
       <c r="AX30" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA30" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5510,36 +5326,30 @@
       <c r="AQ31" s="2" t="n">
         <v>45371.12413194445</v>
       </c>
-      <c r="AR31" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="AT31" t="inlineStr">
+      <c r="AR31" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU31" t="b">
-        <v>1</v>
+      <c r="AS31" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>764.8199999999997</v>
       </c>
       <c r="AV31" t="n">
-        <v>92.5</v>
+        <v>2</v>
       </c>
       <c r="AW31" t="n">
-        <v>764.2800000000002</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA31" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5673,36 +5483,30 @@
       <c r="AQ32" s="2" t="n">
         <v>45371.06268518518</v>
       </c>
-      <c r="AR32" t="n">
-        <v>59.73980000000011</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="AT32" t="inlineStr">
+      <c r="AR32" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU32" t="b">
-        <v>1</v>
+      <c r="AS32" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>783.3399999999997</v>
       </c>
       <c r="AV32" t="n">
-        <v>18.5</v>
+        <v>3</v>
       </c>
       <c r="AW32" t="n">
-        <v>782.7800000000002</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5834,36 +5638,30 @@
       <c r="AQ33" s="2" t="n">
         <v>45371.09694444444</v>
       </c>
-      <c r="AR33" t="n">
-        <v>34.05999999999912</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>31.45</v>
-      </c>
-      <c r="AT33" t="inlineStr">
+      <c r="AR33" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU33" t="b">
-        <v>0</v>
+      <c r="AS33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>709.2299999999997</v>
       </c>
       <c r="AV33" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>708.7600000000002</v>
+        <v>1</v>
       </c>
       <c r="AX33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5995,36 +5793,30 @@
       <c r="AQ34" s="2" t="n">
         <v>45371.21298611111</v>
       </c>
-      <c r="AR34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>93.98</v>
-      </c>
-      <c r="AT34" t="inlineStr">
+      <c r="AR34" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU34" t="b">
-        <v>1</v>
+      <c r="AS34" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>92.62</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>801.8499999999997</v>
       </c>
       <c r="AV34" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW34" t="n">
-        <v>801.2600000000002</v>
+        <v>0</v>
       </c>
       <c r="AX34" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA34" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6156,36 +5948,30 @@
       <c r="AQ35" s="2" t="n">
         <v>45371.22291666667</v>
       </c>
-      <c r="AR35" t="n">
-        <v>28.53360000000102</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>26.45</v>
-      </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AR35" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU35" t="b">
-        <v>0</v>
+      <c r="AS35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>727.7399999999997</v>
       </c>
       <c r="AV35" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>727.2400000000002</v>
+        <v>1</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA35" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6317,36 +6103,30 @@
       <c r="AQ36" s="2" t="n">
         <v>45371.22322916667</v>
       </c>
-      <c r="AR36" t="n">
-        <v>16.36239999999962</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AR36" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU36" t="b">
-        <v>0</v>
+      <c r="AS36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>653.6299999999997</v>
       </c>
       <c r="AV36" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>653.2200000000003</v>
+        <v>2</v>
       </c>
       <c r="AX36" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6478,36 +6258,30 @@
       <c r="AQ37" s="2" t="n">
         <v>45371.39460648148</v>
       </c>
-      <c r="AR37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>98.23</v>
-      </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AR37" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU37" t="b">
-        <v>1</v>
+      <c r="AS37" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>746.2599999999996</v>
       </c>
       <c r="AV37" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW37" t="n">
-        <v>745.7200000000003</v>
+        <v>0</v>
       </c>
       <c r="AX37" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA37" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6639,36 +6413,30 @@
       <c r="AQ38" s="2" t="n">
         <v>45371.31572916666</v>
       </c>
-      <c r="AR38" t="n">
-        <v>98.31559999999881</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>91.02</v>
-      </c>
-      <c r="AT38" t="inlineStr">
+      <c r="AR38" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="AU38" t="b">
-        <v>1</v>
+      <c r="AS38" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>18.53</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>764.7899999999996</v>
       </c>
       <c r="AV38" t="n">
-        <v>18.5</v>
+        <v>2</v>
       </c>
       <c r="AW38" t="n">
-        <v>764.2200000000003</v>
+        <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA38" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6796,36 +6564,30 @@
       <c r="AQ39" s="2" t="n">
         <v>45371.37971064815</v>
       </c>
-      <c r="AR39" t="n">
-        <v>31.7351999999999</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>29.41</v>
-      </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AR39" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU39" t="b">
-        <v>0</v>
+      <c r="AS39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>690.6799999999996</v>
       </c>
       <c r="AV39" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>690.2000000000003</v>
+        <v>1</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA39" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6953,36 +6715,30 @@
       <c r="AQ40" s="2" t="n">
         <v>45371.39287037037</v>
       </c>
-      <c r="AR40" t="n">
-        <v>15.58279999999941</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>14.43</v>
-      </c>
-      <c r="AT40" t="inlineStr">
+      <c r="AR40" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="AU40" t="b">
-        <v>0</v>
+      <c r="AS40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>-74.11</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>616.5699999999996</v>
       </c>
       <c r="AV40" t="n">
-        <v>-74.02</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>616.1800000000003</v>
+        <v>2</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AY40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AZ40" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -7112,36 +6868,30 @@
         <v>45371.97708333333</v>
       </c>
       <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="n">
-        <v>100</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>92.68000000000001</v>
-      </c>
-      <c r="AT41" t="inlineStr">
+      <c r="AR41" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="AU41" t="b">
-        <v>1</v>
+      <c r="AS41" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>92.63</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>709.1999999999996</v>
       </c>
       <c r="AV41" t="n">
-        <v>92.5</v>
+        <v>1</v>
       </c>
       <c r="AW41" t="n">
-        <v>708.6800000000003</v>
+        <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>12</v>
-      </c>
-      <c r="BA41" t="n">
         <v>3</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-74.09</v>
+        <v>-74.12</v>
       </c>
       <c r="AU3" t="n">
-        <v>375.91</v>
+        <v>375.88</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-74.09</v>
+        <v>-74.12</v>
       </c>
       <c r="AU4" t="n">
-        <v>301.8199999999999</v>
+        <v>301.76</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="AT5" t="n">
-        <v>92.59999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="AU5" t="n">
-        <v>394.42</v>
+        <v>394.38</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1442,10 +1442,10 @@
         <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>92.59999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="AU6" t="n">
-        <v>487.02</v>
+        <v>487</v>
       </c>
       <c r="AV6" t="n">
         <v>2</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>92.59999999999999</v>
+        <v>92.62</v>
       </c>
       <c r="AU7" t="n">
         <v>579.62</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>-74.09</v>
+        <v>-74.12</v>
       </c>
       <c r="AU9" t="n">
-        <v>524.05</v>
+        <v>524.02</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>92.62</v>
       </c>
       <c r="AU10" t="n">
-        <v>616.67</v>
+        <v>616.64</v>
       </c>
       <c r="AV10" t="n">
         <v>1</v>
@@ -2219,10 +2219,10 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU11" t="n">
-        <v>542.5699999999999</v>
+        <v>542.52</v>
       </c>
       <c r="AV11" t="n">
         <v>0</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU12" t="n">
-        <v>468.4699999999999</v>
+        <v>468.4</v>
       </c>
       <c r="AV12" t="n">
         <v>0</v>
@@ -2534,7 +2534,7 @@
         <v>18.52</v>
       </c>
       <c r="AU13" t="n">
-        <v>486.9899999999999</v>
+        <v>486.92</v>
       </c>
       <c r="AV13" t="n">
         <v>1</v>
@@ -2686,10 +2686,10 @@
         <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU14" t="n">
-        <v>412.8899999999999</v>
+        <v>412.8</v>
       </c>
       <c r="AV14" t="n">
         <v>0</v>
@@ -2846,7 +2846,7 @@
         <v>92.62</v>
       </c>
       <c r="AU15" t="n">
-        <v>505.5099999999999</v>
+        <v>505.42</v>
       </c>
       <c r="AV15" t="n">
         <v>1</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU16" t="n">
-        <v>431.4099999999999</v>
+        <v>431.3</v>
       </c>
       <c r="AV16" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>92.62</v>
       </c>
       <c r="AU17" t="n">
-        <v>524.0299999999999</v>
+        <v>523.92</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
@@ -3311,7 +3311,7 @@
         <v>92.62</v>
       </c>
       <c r="AU18" t="n">
-        <v>616.6499999999999</v>
+        <v>616.54</v>
       </c>
       <c r="AV18" t="n">
         <v>2</v>
@@ -3466,7 +3466,7 @@
         <v>92.62</v>
       </c>
       <c r="AU19" t="n">
-        <v>709.2699999999999</v>
+        <v>709.16</v>
       </c>
       <c r="AV19" t="n">
         <v>3</v>
@@ -3620,10 +3620,10 @@
         <v>1</v>
       </c>
       <c r="AT20" t="n">
-        <v>18.53</v>
+        <v>18.52</v>
       </c>
       <c r="AU20" t="n">
-        <v>727.7999999999998</v>
+        <v>727.6799999999999</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -3780,7 +3780,7 @@
         <v>92.62</v>
       </c>
       <c r="AU21" t="n">
-        <v>820.4199999999998</v>
+        <v>820.3</v>
       </c>
       <c r="AV21" t="n">
         <v>5</v>
@@ -3934,10 +3934,10 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>18.53</v>
+        <v>18.52</v>
       </c>
       <c r="AU22" t="n">
-        <v>838.9499999999998</v>
+        <v>838.8199999999999</v>
       </c>
       <c r="AV22" t="n">
         <v>6</v>
@@ -4089,10 +4089,10 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>92.63</v>
+        <v>92.62</v>
       </c>
       <c r="AU23" t="n">
-        <v>931.5799999999998</v>
+        <v>931.4399999999999</v>
       </c>
       <c r="AV23" t="n">
         <v>7</v>
@@ -4244,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU24" t="n">
-        <v>857.4699999999998</v>
+        <v>857.3199999999999</v>
       </c>
       <c r="AV24" t="n">
         <v>0</v>
@@ -4401,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="AT25" t="n">
-        <v>18.53</v>
+        <v>18.52</v>
       </c>
       <c r="AU25" t="n">
-        <v>875.9999999999998</v>
+        <v>875.8399999999999</v>
       </c>
       <c r="AV25" t="n">
         <v>1</v>
@@ -4556,10 +4556,10 @@
         <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU26" t="n">
-        <v>801.8999999999997</v>
+        <v>801.7199999999999</v>
       </c>
       <c r="AV26" t="n">
         <v>0</v>
@@ -4711,10 +4711,10 @@
         <v>0</v>
       </c>
       <c r="AT27" t="n">
-        <v>-74.09999999999999</v>
+        <v>-74.12</v>
       </c>
       <c r="AU27" t="n">
-        <v>727.7999999999997</v>
+        <v>727.5999999999999</v>
       </c>
       <c r="AV27" t="n">
         <v>0</v>
@@ -4866,10 +4866,10 @@
         <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU28" t="n">
-        <v>653.6899999999997</v>
+        <v>653.4799999999999</v>
       </c>
       <c r="AV28" t="n">
         <v>0</v>
@@ -5021,10 +5021,10 @@
         <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU29" t="n">
-        <v>579.5799999999997</v>
+        <v>579.3599999999999</v>
       </c>
       <c r="AV29" t="n">
         <v>0</v>
@@ -5178,10 +5178,10 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>92.62</v>
+        <v>92.63</v>
       </c>
       <c r="AU30" t="n">
-        <v>672.1999999999997</v>
+        <v>671.9899999999999</v>
       </c>
       <c r="AV30" t="n">
         <v>1</v>
@@ -5335,10 +5335,10 @@
         <v>1</v>
       </c>
       <c r="AT31" t="n">
-        <v>92.62</v>
+        <v>92.63</v>
       </c>
       <c r="AU31" t="n">
-        <v>764.8199999999997</v>
+        <v>764.6199999999999</v>
       </c>
       <c r="AV31" t="n">
         <v>2</v>
@@ -5492,10 +5492,10 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>18.52</v>
+        <v>18.53</v>
       </c>
       <c r="AU32" t="n">
-        <v>783.3399999999997</v>
+        <v>783.1499999999999</v>
       </c>
       <c r="AV32" t="n">
         <v>3</v>
@@ -5647,10 +5647,10 @@
         <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU33" t="n">
-        <v>709.2299999999997</v>
+        <v>709.0299999999999</v>
       </c>
       <c r="AV33" t="n">
         <v>0</v>
@@ -5802,10 +5802,10 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>92.62</v>
+        <v>92.63</v>
       </c>
       <c r="AU34" t="n">
-        <v>801.8499999999997</v>
+        <v>801.6599999999999</v>
       </c>
       <c r="AV34" t="n">
         <v>1</v>
@@ -5957,10 +5957,10 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU35" t="n">
-        <v>727.7399999999997</v>
+        <v>727.5399999999998</v>
       </c>
       <c r="AV35" t="n">
         <v>0</v>
@@ -6112,10 +6112,10 @@
         <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU36" t="n">
-        <v>653.6299999999997</v>
+        <v>653.4199999999998</v>
       </c>
       <c r="AV36" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>92.63</v>
       </c>
       <c r="AU37" t="n">
-        <v>746.2599999999996</v>
+        <v>746.0499999999998</v>
       </c>
       <c r="AV37" t="n">
         <v>1</v>
@@ -6425,7 +6425,7 @@
         <v>18.53</v>
       </c>
       <c r="AU38" t="n">
-        <v>764.7899999999996</v>
+        <v>764.5799999999998</v>
       </c>
       <c r="AV38" t="n">
         <v>2</v>
@@ -6573,10 +6573,10 @@
         <v>0</v>
       </c>
       <c r="AT39" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU39" t="n">
-        <v>690.6799999999996</v>
+        <v>690.4599999999998</v>
       </c>
       <c r="AV39" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>-74.11</v>
+        <v>-74.12</v>
       </c>
       <c r="AU40" t="n">
-        <v>616.5699999999996</v>
+        <v>616.3399999999998</v>
       </c>
       <c r="AV40" t="n">
         <v>0</v>
@@ -6880,7 +6880,7 @@
         <v>92.63</v>
       </c>
       <c r="AU41" t="n">
-        <v>709.1999999999996</v>
+        <v>708.9699999999998</v>
       </c>
       <c r="AV41" t="n">
         <v>1</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -834,16 +834,16 @@
         <v>1.103976700108335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005625621254012441</v>
+        <v>0.0005625621254012641</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.000132892167184748</v>
+        <v>-0.000132892167184728</v>
       </c>
       <c r="N2" t="n">
-        <v>3.717965388881562e-05</v>
+        <v>3.717965388884158e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0002810527295769741</v>
+        <v>-0.0002810527295769481</v>
       </c>
       <c r="P2" t="n">
         <v>1.102380053355647</v>
@@ -987,16 +987,16 @@
         <v>45293.5234837963</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN2" t="b">
         <v>1</v>
       </c>
       <c r="BO2" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP2" t="n">
-        <v>714.66</v>
+        <v>743.97</v>
       </c>
       <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="n">
@@ -1047,16 +1047,16 @@
         <v>1.10345</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0008297774663810043</v>
+        <v>-0.0008297774663809894</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0008212831803437468</v>
+        <v>-0.0008212831803437318</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0002527880739864354</v>
+        <v>-0.0002527880739864094</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0001902624927409818</v>
+        <v>-0.0001902624927409558</v>
       </c>
       <c r="P3" t="n">
         <v>1.102459642059706</v>
@@ -1078,10 +1078,10 @@
         <v>1.102219761904762</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0002491483076996399</v>
+        <v>-0.0002491483076996476</v>
       </c>
       <c r="X3" t="n">
-        <v>-7.154300701045606e-05</v>
+        <v>-7.15430070104637e-05</v>
       </c>
       <c r="Y3" t="n">
         <v>1.102443928571429</v>
@@ -1099,10 +1099,10 @@
         <v>1.103513897725263</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.339999611457545e-05</v>
+        <v>7.339999611458304e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>-4.568452957131297e-05</v>
+        <v>-4.568452957130536e-05</v>
       </c>
       <c r="AF3" t="n">
         <v>1.101844314213619</v>
@@ -1198,16 +1198,16 @@
       </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN3" t="b">
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP3" t="n">
-        <v>806.26</v>
+        <v>1018.8</v>
       </c>
       <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="n">
@@ -1258,16 +1258,16 @@
         <v>1.10195</v>
       </c>
       <c r="L4" t="n">
-        <v>3.107862077660194e-06</v>
+        <v>3.107862077680279e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0002822704977555949</v>
+        <v>-0.0002822704977555748</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0003128177301227008</v>
+        <v>-0.0003128177301226859</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0005472227570029678</v>
+        <v>-0.000547222757002953</v>
       </c>
       <c r="P4" t="n">
         <v>1.102781675974336</v>
@@ -1289,10 +1289,10 @@
         <v>1.102219761904762</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0002491483076996399</v>
+        <v>-0.0002491483076996476</v>
       </c>
       <c r="X4" t="n">
-        <v>-7.154300701045606e-05</v>
+        <v>-7.15430070104637e-05</v>
       </c>
       <c r="Y4" t="n">
         <v>1.102443928571429</v>
@@ -1310,10 +1310,10 @@
         <v>1.103513897725263</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.339999611457545e-05</v>
+        <v>7.339999611458304e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>-4.568452957131297e-05</v>
+        <v>-4.568452957130536e-05</v>
       </c>
       <c r="AF4" t="n">
         <v>1.101844314213619</v>
@@ -1411,16 +1411,16 @@
         <v>45293.52337962963</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN4" t="b">
         <v>1</v>
       </c>
       <c r="BO4" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP4" t="n">
-        <v>820.92</v>
+        <v>1062.77</v>
       </c>
       <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
@@ -1471,22 +1471,22 @@
         <v>1.10165</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0001663810363405276</v>
+        <v>0.0001663810363405462</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.0001818716511032766</v>
+        <v>-0.0001818716511032581</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0008113058846554884</v>
+        <v>-0.0008113058846554624</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0009951489981755083</v>
+        <v>-0.0009951489981754823</v>
       </c>
       <c r="P5" t="n">
         <v>1.10284332473382</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.10424924166338</v>
+        <v>1.104249241663379</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>45293.5</v>
@@ -1523,10 +1523,10 @@
         <v>1.104048270943628</v>
       </c>
       <c r="AD5" t="n">
-        <v>-7.154300701045606e-05</v>
+        <v>-7.15430070104637e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0002491483076996399</v>
+        <v>-0.0002491483076996476</v>
       </c>
       <c r="AF5" t="n">
         <v>1.101088104737873</v>
@@ -1624,16 +1624,16 @@
         <v>45293.55274305555</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN5" t="b">
         <v>1</v>
       </c>
       <c r="BO5" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP5" t="n">
-        <v>835.5799999999999</v>
+        <v>1106.74</v>
       </c>
       <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="n">
@@ -1684,16 +1684,16 @@
         <v>1.09182</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003423917784751058</v>
+        <v>0.0003423917784751243</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.858876562218149e-05</v>
+        <v>-1.858876562216295e-05</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0006405805642645864</v>
+        <v>-0.0006405805642645667</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0002777880620179127</v>
+        <v>-0.000277788062017893</v>
       </c>
       <c r="P6" t="n">
         <v>1.091313654939383</v>
@@ -1717,10 +1717,10 @@
         <v>1.091096428571429</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0004036387479401274</v>
+        <v>-0.0004036387479401299</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0002014665683177163</v>
+        <v>0.0002014665683177137</v>
       </c>
       <c r="Y6" t="n">
         <v>1.091590952380953</v>
@@ -1738,10 +1738,10 @@
         <v>1.093823903948947</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0002715814298317457</v>
+        <v>-0.000271581429831733</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.0002478393967054742</v>
+        <v>-0.0002478393967054616</v>
       </c>
       <c r="AF6" t="n">
         <v>1.090902357172989</v>
@@ -1841,16 +1841,16 @@
         <v>45294.88635416667</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN6" t="b">
         <v>1</v>
       </c>
       <c r="BO6" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP6" t="n">
-        <v>850.2399999999999</v>
+        <v>1150.71</v>
       </c>
       <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="n">
@@ -1901,22 +1901,22 @@
         <v>1.095563348454684</v>
       </c>
       <c r="L7" t="n">
-        <v>4.566971295858888e-06</v>
+        <v>4.566971295881142e-06</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.522000635435092e-05</v>
+        <v>-1.522000635432866e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0001719554089344839</v>
+        <v>0.0001719554089345061</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001202570469781759</v>
+        <v>0.0001202570469781982</v>
       </c>
       <c r="P7" t="n">
         <v>1.09462031980158</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.095040455958558</v>
+        <v>1.095040455958557</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>45296.125</v>
@@ -2060,16 +2060,16 @@
         <v>45296.67912037037</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN7" t="b">
         <v>1</v>
       </c>
       <c r="BO7" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP7" t="n">
-        <v>941.8399999999999</v>
+        <v>1425.54</v>
       </c>
       <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="n">
@@ -2120,16 +2120,16 @@
         <v>1.095519049906471</v>
       </c>
       <c r="L8" t="n">
-        <v>-5.75584870616731e-05</v>
+        <v>-5.755848706164931e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-6.803170005686655e-05</v>
+        <v>-6.803170005684278e-05</v>
       </c>
       <c r="N8" t="n">
-        <v>1.912508817831289e-05</v>
+        <v>1.912508817833886e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>1.869851155059669e-05</v>
+        <v>1.869851155062265e-05</v>
       </c>
       <c r="P8" t="n">
         <v>1.094941859953228</v>
@@ -2279,16 +2279,16 @@
         <v>45296.67912037037</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN8" t="b">
         <v>1</v>
       </c>
       <c r="BO8" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP8" t="n">
-        <v>1033.44</v>
+        <v>1700.37</v>
       </c>
       <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="n">
@@ -2339,16 +2339,16 @@
         <v>1.095457337865719</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0002365926659236495</v>
+        <v>-0.0002365926659236236</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0002366177027410276</v>
+        <v>-0.0002366177027410017</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.802777684450638e-05</v>
+        <v>-7.802777684449156e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>2.326338023844653e-05</v>
+        <v>2.326338023846137e-05</v>
       </c>
       <c r="P9" t="n">
         <v>1.094972315250603</v>
@@ -2498,16 +2498,16 @@
         <v>45296.67916666667</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN9" t="b">
         <v>1</v>
       </c>
       <c r="BO9" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP9" t="n">
-        <v>1125.04</v>
+        <v>1975.2</v>
       </c>
       <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="n">
@@ -2558,16 +2558,16 @@
         <v>1.095198678010586</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0002433948348646795</v>
+        <v>-0.0002433948348646684</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0002370817808695181</v>
+        <v>-0.000237081780869507</v>
       </c>
       <c r="N10" t="n">
-        <v>-6.803170005686655e-05</v>
+        <v>-6.803170005684278e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>-5.75584870616731e-05</v>
+        <v>-5.755848706164931e-05</v>
       </c>
       <c r="P10" t="n">
         <v>1.095004290390314</v>
@@ -2717,16 +2717,16 @@
         <v>45296.27300925926</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN10" t="b">
         <v>1</v>
       </c>
       <c r="BO10" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP10" t="n">
-        <v>1139.7</v>
+        <v>2019.17</v>
       </c>
       <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="n">
@@ -2777,16 +2777,16 @@
         <v>1.09495</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.0002345623796050615</v>
+        <v>-0.0002345623796050355</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.0002453497068003821</v>
+        <v>-0.0002453497068003561</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0001726120159934097</v>
+        <v>-0.0001726120159933949</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0001215075353745791</v>
+        <v>-0.0001215075353745643</v>
       </c>
       <c r="P11" t="n">
         <v>1.094997971200884</v>
@@ -2936,16 +2936,16 @@
         <v>45296.67077546296</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN11" t="b">
         <v>1</v>
       </c>
       <c r="BO11" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP11" t="n">
-        <v>1231.3</v>
+        <v>2294</v>
       </c>
       <c r="BQ11" t="inlineStr"/>
       <c r="BR11" t="n">
@@ -2996,16 +2996,16 @@
         <v>1.09468</v>
       </c>
       <c r="L12" t="n">
-        <v>-9.749792255601432e-05</v>
+        <v>-9.749792255599424e-05</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.0002013150342937231</v>
+        <v>-0.000201315034293703</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0002366177027410276</v>
+        <v>-0.0002366177027410017</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.0002365926659236495</v>
+        <v>-0.0002365926659236236</v>
       </c>
       <c r="P12" t="n">
         <v>1.095056650204181</v>
@@ -3155,16 +3155,16 @@
         <v>45296.67059027778</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN12" t="b">
         <v>1</v>
       </c>
       <c r="BO12" t="n">
-        <v>91.59</v>
+        <v>274.83</v>
       </c>
       <c r="BP12" t="n">
-        <v>1322.89</v>
+        <v>2568.83</v>
       </c>
       <c r="BQ12" t="inlineStr"/>
       <c r="BR12" t="n">
@@ -3215,22 +3215,22 @@
         <v>1.09442</v>
       </c>
       <c r="L13" t="n">
-        <v>-9.169988816471014e-05</v>
+        <v>-9.169988816469159e-05</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.0001525966927486224</v>
+        <v>-0.0001525966927486039</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0002370817808695181</v>
+        <v>-0.000237081780869507</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.0002433948348646795</v>
+        <v>-0.0002433948348646684</v>
       </c>
       <c r="P13" t="n">
         <v>1.094786055439249</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.09517534622503</v>
+        <v>1.095175346225029</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>45296.20833333334</v>
@@ -3374,16 +3374,16 @@
         <v>45296.39158564815</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN13" t="b">
         <v>1</v>
       </c>
       <c r="BO13" t="n">
-        <v>14.65</v>
+        <v>43.97</v>
       </c>
       <c r="BP13" t="n">
-        <v>1337.54</v>
+        <v>2612.8</v>
       </c>
       <c r="BQ13" t="inlineStr"/>
       <c r="BR13" t="n">
@@ -3434,16 +3434,16 @@
         <v>1.09394</v>
       </c>
       <c r="L14" t="n">
-        <v>1.800098932082572e-05</v>
+        <v>1.800098932084798e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0001215845248809404</v>
+        <v>0.0001215845248809627</v>
       </c>
       <c r="N14" t="n">
-        <v>-7.769775495846668e-05</v>
+        <v>-7.769775495845556e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>5.986598279755665e-05</v>
+        <v>5.986598279756778e-05</v>
       </c>
       <c r="P14" t="n">
         <v>1.09351586998174</v>
@@ -3467,10 +3467,10 @@
         <v>1.094217380952381</v>
       </c>
       <c r="W14" t="n">
-        <v>2.78498694367819e-05</v>
+        <v>2.784986943676417e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.0003415671670448203</v>
+        <v>-0.0003415671670448381</v>
       </c>
       <c r="Y14" t="n">
         <v>1.094871071428572</v>
@@ -3593,16 +3593,16 @@
         <v>45299.16766203703</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN14" t="b">
         <v>1</v>
       </c>
       <c r="BO14" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP14" t="n">
-        <v>1352.2</v>
+        <v>2656.79</v>
       </c>
       <c r="BQ14" t="inlineStr"/>
       <c r="BR14" t="n">
@@ -3653,16 +3653,16 @@
         <v>1.093999981197643</v>
       </c>
       <c r="L15" t="n">
-        <v>5.483896472687021e-05</v>
+        <v>5.483896472688504e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0001599464474829571</v>
+        <v>0.0001599464474829719</v>
       </c>
       <c r="N15" t="n">
-        <v>-7.035967669347469e-05</v>
+        <v>-7.035967669345463e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>5.638206634660495e-05</v>
+        <v>5.638206634662503e-05</v>
       </c>
       <c r="P15" t="n">
         <v>1.093573870980823</v>
@@ -3686,10 +3686,10 @@
         <v>1.094217380952381</v>
       </c>
       <c r="W15" t="n">
-        <v>2.78498694367819e-05</v>
+        <v>2.784986943676417e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.0003415671670448203</v>
+        <v>-0.0003415671670448381</v>
       </c>
       <c r="Y15" t="n">
         <v>1.094871071428572</v>
@@ -3812,16 +3812,16 @@
         <v>45299.16766203703</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN15" t="b">
         <v>1</v>
       </c>
       <c r="BO15" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP15" t="n">
-        <v>1366.86</v>
+        <v>2700.779999999999</v>
       </c>
       <c r="BQ15" t="inlineStr"/>
       <c r="BR15" t="n">
@@ -3872,16 +3872,16 @@
         <v>1.094331664122122</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0001645395217053621</v>
+        <v>0.0001645395217053732</v>
       </c>
       <c r="M16" t="n">
-        <v>1.675518023385628e-05</v>
+        <v>1.67551802338674e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>8.25439579583799e-05</v>
+        <v>8.254395795839102e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>5.152552583244453e-05</v>
+        <v>5.152552583245565e-05</v>
       </c>
       <c r="P16" t="n">
         <v>1.093645999264471</v>
@@ -3905,10 +3905,10 @@
         <v>1.094217380952381</v>
       </c>
       <c r="W16" t="n">
-        <v>2.78498694367819e-05</v>
+        <v>2.784986943676417e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0003415671670448203</v>
+        <v>-0.0003415671670448381</v>
       </c>
       <c r="Y16" t="n">
         <v>1.094871071428572</v>
@@ -4031,16 +4031,16 @@
         <v>45299.16256944444</v>
       </c>
       <c r="BM16" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN16" t="b">
         <v>1</v>
       </c>
       <c r="BO16" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP16" t="n">
-        <v>1381.52</v>
+        <v>2744.769999999999</v>
       </c>
       <c r="BQ16" t="inlineStr"/>
       <c r="BR16" t="n">
@@ -4091,16 +4091,16 @@
         <v>1.094339066701666</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001465291101249623</v>
+        <v>0.0001465291101249919</v>
       </c>
       <c r="M17" t="n">
-        <v>2.769693698910219e-05</v>
+        <v>2.769693698913186e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0001215845248809404</v>
+        <v>0.0001215845248809627</v>
       </c>
       <c r="O17" t="n">
-        <v>1.800098932082572e-05</v>
+        <v>1.800098932084798e-05</v>
       </c>
       <c r="P17" t="n">
         <v>1.093732707893472</v>
@@ -4124,10 +4124,10 @@
         <v>1.093953928571429</v>
       </c>
       <c r="W17" t="n">
-        <v>2.784895217010841e-05</v>
+        <v>2.784895217010334e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0004537699999650305</v>
+        <v>-0.0004537699999650356</v>
       </c>
       <c r="Y17" t="n">
         <v>1.094217380952381</v>
@@ -4145,10 +4145,10 @@
         <v>1.096625250419115</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.0003415671670448203</v>
+        <v>-0.0003415671670448381</v>
       </c>
       <c r="AE17" t="n">
-        <v>2.78498694367819e-05</v>
+        <v>2.784986943676417e-05</v>
       </c>
       <c r="AF17" t="n">
         <v>1.094246209619318</v>
@@ -4250,16 +4250,16 @@
         <v>45299.86118055556</v>
       </c>
       <c r="BM17" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN17" t="b">
         <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP17" t="n">
-        <v>1396.18</v>
+        <v>2788.759999999999</v>
       </c>
       <c r="BQ17" t="inlineStr"/>
       <c r="BR17" t="n">
@@ -4310,16 +4310,16 @@
         <v>1.094398154385114</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002151962591490006</v>
+        <v>0.0002151962591490117</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0001835583583854034</v>
+        <v>0.0001835583583854146</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001154879926281756</v>
+        <v>0.0001154879926281964</v>
       </c>
       <c r="O18" t="n">
-        <v>0.0002094712637320516</v>
+        <v>0.0002094712637320723</v>
       </c>
       <c r="P18" t="n">
         <v>1.093222555461569</v>
@@ -4469,16 +4469,16 @@
         <v>45299.86111111111</v>
       </c>
       <c r="BM18" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN18" t="b">
         <v>1</v>
       </c>
       <c r="BO18" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP18" t="n">
-        <v>1410.84</v>
+        <v>2832.749999999999</v>
       </c>
       <c r="BQ18" t="inlineStr"/>
       <c r="BR18" t="n">
@@ -4529,16 +4529,16 @@
         <v>1.094693597900951</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001007867353749572</v>
+        <v>0.0001007867353749831</v>
       </c>
       <c r="M19" t="n">
-        <v>8.71978060889806e-05</v>
+        <v>8.719780608900656e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0002421787871820618</v>
+        <v>0.0002421787871820781</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0002833812103911197</v>
+        <v>0.000283381210391136</v>
       </c>
       <c r="P19" t="n">
         <v>1.09337812157671</v>
@@ -4688,16 +4688,16 @@
         <v>45299.70575231482</v>
       </c>
       <c r="BM19" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN19" t="b">
         <v>1</v>
       </c>
       <c r="BO19" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP19" t="n">
-        <v>1425.5</v>
+        <v>2876.739999999998</v>
       </c>
       <c r="BQ19" t="inlineStr"/>
       <c r="BR19" t="n">
@@ -4748,16 +4748,16 @@
         <v>1.09362666272648</v>
       </c>
       <c r="L20" t="n">
-        <v>3.687107619642627e-05</v>
+        <v>3.687107619644264e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.524138289269439e-05</v>
+        <v>1.524138289271076e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.685887644104231e-05</v>
+        <v>-3.685887644101634e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>-1.982308317371669e-05</v>
+        <v>-1.982308317369073e-05</v>
       </c>
       <c r="P20" t="n">
         <v>1.093041396610646</v>
@@ -4907,16 +4907,16 @@
         <v>45299.39787037037</v>
       </c>
       <c r="BM20" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN20" t="b">
         <v>1</v>
       </c>
       <c r="BO20" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP20" t="n">
-        <v>1440.16</v>
+        <v>2920.729999999998</v>
       </c>
       <c r="BQ20" t="inlineStr"/>
       <c r="BR20" t="n">
@@ -4961,22 +4961,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.093293328600393</v>
+        <v>1.093293328600392</v>
       </c>
       <c r="K21" t="n">
         <v>1.093695469306475</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.896314874937632e-05</v>
+        <v>-2.896314874935036e-05</v>
       </c>
       <c r="M21" t="n">
-        <v>-3.243122297719778e-05</v>
+        <v>-3.243122297717182e-05</v>
       </c>
       <c r="N21" t="n">
-        <v>7.287855792004942e-05</v>
+        <v>7.287855792006425e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>9.978516543921928e-05</v>
+        <v>9.978516543923412e-05</v>
       </c>
       <c r="P21" t="n">
         <v>1.092911620236403</v>
@@ -5126,16 +5126,16 @@
         <v>45299.3978587963</v>
       </c>
       <c r="BM21" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN21" t="b">
         <v>1</v>
       </c>
       <c r="BO21" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP21" t="n">
-        <v>1454.82</v>
+        <v>2964.719999999998</v>
       </c>
       <c r="BQ21" t="inlineStr"/>
       <c r="BR21" t="n">
@@ -5186,16 +5186,16 @@
         <v>1.093565466262465</v>
       </c>
       <c r="L22" t="n">
-        <v>-2.744344210551127e-05</v>
+        <v>-2.74434421054853e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>3.157853218710008e-05</v>
+        <v>3.157853218712605e-05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.524138289269439e-05</v>
+        <v>1.524138289271076e-05</v>
       </c>
       <c r="O22" t="n">
-        <v>3.687107619642627e-05</v>
+        <v>3.687107619644264e-05</v>
       </c>
       <c r="P22" t="n">
         <v>1.093123602198057</v>
@@ -5219,10 +5219,10 @@
         <v>1.093561071428572</v>
       </c>
       <c r="W22" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="X22" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="Y22" t="n">
         <v>1.093680714285714</v>
@@ -5345,16 +5345,16 @@
         <v>45299.37511574074</v>
       </c>
       <c r="BM22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN22" t="b">
         <v>1</v>
       </c>
       <c r="BO22" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP22" t="n">
-        <v>1469.48</v>
+        <v>3008.709999999998</v>
       </c>
       <c r="BQ22" t="inlineStr"/>
       <c r="BR22" t="n">
@@ -5405,16 +5405,16 @@
         <v>1.0936</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0001189005331077108</v>
+        <v>0.0001189005331077219</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0001185748598529551</v>
+        <v>0.0001185748598529662</v>
       </c>
       <c r="N23" t="n">
-        <v>-3.243122297719778e-05</v>
+        <v>-3.243122297717182e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>-2.896314874937632e-05</v>
+        <v>-2.896314874935036e-05</v>
       </c>
       <c r="P23" t="n">
         <v>1.093290497385453</v>
@@ -5438,10 +5438,10 @@
         <v>1.093561071428572</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="Y23" t="n">
         <v>1.093680714285714</v>
@@ -5564,16 +5564,16 @@
         <v>45299.39787037037</v>
       </c>
       <c r="BM23" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN23" t="b">
         <v>1</v>
       </c>
       <c r="BO23" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP23" t="n">
-        <v>1484.140000000001</v>
+        <v>3052.699999999998</v>
       </c>
       <c r="BQ23" t="inlineStr"/>
       <c r="BR23" t="n">
@@ -5624,16 +5624,16 @@
         <v>1.093759997546536</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0001924139507230765</v>
+        <v>0.0001924139507230891</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0002422259383578991</v>
+        <v>0.0002422259383579118</v>
       </c>
       <c r="N24" t="n">
-        <v>3.157853218710008e-05</v>
+        <v>3.157853218712605e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>-2.744344210551127e-05</v>
+        <v>-2.74434421054853e-05</v>
       </c>
       <c r="P24" t="n">
         <v>1.093217315471899</v>
@@ -5657,10 +5657,10 @@
         <v>1.093561071428572</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="X24" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="Y24" t="n">
         <v>1.093680714285714</v>
@@ -5783,16 +5783,16 @@
         <v>45299.38880787037</v>
       </c>
       <c r="BM24" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN24" t="b">
         <v>1</v>
       </c>
       <c r="BO24" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP24" t="n">
-        <v>1498.800000000001</v>
+        <v>3096.689999999997</v>
       </c>
       <c r="BQ24" t="inlineStr"/>
       <c r="BR24" t="n">
@@ -5843,16 +5843,16 @@
         <v>1.094121680698759</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0001924203948790484</v>
+        <v>0.000192420394879078</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0001538278223032183</v>
+        <v>0.000153827822303248</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0001185748598529551</v>
+        <v>0.0001185748598529662</v>
       </c>
       <c r="O25" t="n">
-        <v>0.0001189005331077108</v>
+        <v>0.0001189005331077219</v>
       </c>
       <c r="P25" t="n">
         <v>1.093041701594922</v>
@@ -5897,10 +5897,10 @@
         <v>1.09521458675974</v>
       </c>
       <c r="AD25" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="AE25" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="AF25" t="n">
         <v>1.094198955374123</v>
@@ -6002,16 +6002,16 @@
         <v>45299.3868287037</v>
       </c>
       <c r="BM25" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN25" t="b">
         <v>1</v>
       </c>
       <c r="BO25" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP25" t="n">
-        <v>1513.460000000001</v>
+        <v>3140.679999999997</v>
       </c>
       <c r="BQ25" t="inlineStr"/>
       <c r="BR25" t="n">
@@ -6062,16 +6062,16 @@
         <v>1.094279119107935</v>
       </c>
       <c r="L26" t="n">
-        <v>6.369896866889888e-05</v>
+        <v>6.369896866890999e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0002682211871544195</v>
+        <v>0.0002682211871544305</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0002373996167340236</v>
+        <v>0.0002373996167340496</v>
       </c>
       <c r="O26" t="n">
-        <v>0.0002057577608285906</v>
+        <v>0.0002057577608286166</v>
       </c>
       <c r="P26" t="n">
         <v>1.093140331974908</v>
@@ -6116,10 +6116,10 @@
         <v>1.09521458675974</v>
       </c>
       <c r="AD26" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="AE26" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="AF26" t="n">
         <v>1.094198955374123</v>
@@ -6221,16 +6221,16 @@
         <v>45299.86123842592</v>
       </c>
       <c r="BM26" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN26" t="b">
         <v>1</v>
       </c>
       <c r="BO26" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP26" t="n">
-        <v>1528.120000000001</v>
+        <v>3184.669999999997</v>
       </c>
       <c r="BQ26" t="inlineStr"/>
       <c r="BR26" t="n">
@@ -6281,16 +6281,16 @@
         <v>1.095248353735171</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0001160558362192084</v>
+        <v>-0.0001160558362191825</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.067330008922471e-05</v>
+        <v>-8.067330008919878e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0001538278223032183</v>
+        <v>0.000153827822303248</v>
       </c>
       <c r="O27" t="n">
-        <v>0.0001924203948790484</v>
+        <v>0.000192420394879078</v>
       </c>
       <c r="P27" t="n">
         <v>1.093589002983599</v>
@@ -6335,10 +6335,10 @@
         <v>1.09521458675974</v>
       </c>
       <c r="AD27" t="n">
-        <v>-0.0003611163247181727</v>
+        <v>-0.0003611163247181741</v>
       </c>
       <c r="AE27" t="n">
-        <v>-0.0003199762793115579</v>
+        <v>-0.0003199762793115593</v>
       </c>
       <c r="AF27" t="n">
         <v>1.094198955374123</v>
@@ -6440,16 +6440,16 @@
         <v>45299.70601851852</v>
       </c>
       <c r="BM27" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN27" t="b">
         <v>1</v>
       </c>
       <c r="BO27" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP27" t="n">
-        <v>1542.780000000001</v>
+        <v>3228.659999999997</v>
       </c>
       <c r="BQ27" t="inlineStr"/>
       <c r="BR27" t="n">
@@ -6500,16 +6500,16 @@
         <v>1.095638573347635</v>
       </c>
       <c r="L28" t="n">
-        <v>9.563114742288485e-06</v>
+        <v>9.563114742310739e-06</v>
       </c>
       <c r="M28" t="n">
-        <v>-3.607630203588998e-05</v>
+        <v>-3.607630203586772e-05</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.0001827854208349958</v>
+        <v>-0.0001827854208349736</v>
       </c>
       <c r="O28" t="n">
-        <v>-7.756567496636651e-05</v>
+        <v>-7.756567496634426e-05</v>
       </c>
       <c r="P28" t="n">
         <v>1.095027200624277</v>
@@ -6659,16 +6659,16 @@
         <v>45300.24388888889</v>
       </c>
       <c r="BM28" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN28" t="b">
         <v>1</v>
       </c>
       <c r="BO28" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP28" t="n">
-        <v>1557.440000000001</v>
+        <v>3272.649999999996</v>
       </c>
       <c r="BQ28" t="inlineStr"/>
       <c r="BR28" t="n">
@@ -6719,16 +6719,16 @@
         <v>1.095720045085652</v>
       </c>
       <c r="L29" t="n">
-        <v>-3.624972089705441e-05</v>
+        <v>-3.624972089704327e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>-9.129309527565865e-05</v>
+        <v>-9.129309527564751e-05</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0001219623907828859</v>
+        <v>-0.0001219623907828599</v>
       </c>
       <c r="O29" t="n">
-        <v>8.176172185259821e-05</v>
+        <v>8.176172185262418e-05</v>
       </c>
       <c r="P29" t="n">
         <v>1.094809585735438</v>
@@ -6878,16 +6878,16 @@
         <v>45301.75846064815</v>
       </c>
       <c r="BM29" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN29" t="b">
         <v>1</v>
       </c>
       <c r="BO29" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP29" t="n">
-        <v>1572.100000000001</v>
+        <v>3316.639999999996</v>
       </c>
       <c r="BQ29" t="inlineStr"/>
       <c r="BR29" t="n">
@@ -6938,16 +6938,16 @@
         <v>1.09573339108126</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.000117862977768851</v>
+        <v>-0.0001178629777688287</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0001947662308731603</v>
+        <v>-0.000194766230873138</v>
       </c>
       <c r="N30" t="n">
-        <v>3.043032568696051e-05</v>
+        <v>3.043032568699018e-05</v>
       </c>
       <c r="O30" t="n">
-        <v>9.174943842120116e-05</v>
+        <v>9.174943842123083e-05</v>
       </c>
       <c r="P30" t="n">
         <v>1.094889161676116</v>
@@ -7097,16 +7097,16 @@
         <v>45301.7578587963</v>
       </c>
       <c r="BM30" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN30" t="b">
         <v>1</v>
       </c>
       <c r="BO30" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP30" t="n">
-        <v>1586.760000000001</v>
+        <v>3360.629999999996</v>
       </c>
       <c r="BQ30" t="inlineStr"/>
       <c r="BR30" t="n">
@@ -7157,16 +7157,16 @@
         <v>1.09514863543961</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.0006403038162890631</v>
+        <v>-0.0006403038162890519</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0006755405133144737</v>
+        <v>-0.0006755405133144624</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0001263533251140032</v>
+        <v>-0.000126353325113981</v>
       </c>
       <c r="O31" t="n">
-        <v>-2.77105406614553e-06</v>
+        <v>-2.771054066123277e-06</v>
       </c>
       <c r="P31" t="n">
         <v>1.093829727465642</v>
@@ -7211,10 +7211,10 @@
         <v>1.094746974458865</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.056829962460279e-05</v>
+        <v>7.056829962462052e-05</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.0001399353254739333</v>
+        <v>0.0001399353254739511</v>
       </c>
       <c r="AF31" t="n">
         <v>1.092618177893134</v>
@@ -7314,16 +7314,16 @@
         <v>45300.78858796296</v>
       </c>
       <c r="BM31" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN31" t="b">
         <v>1</v>
       </c>
       <c r="BO31" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP31" t="n">
-        <v>1601.420000000001</v>
+        <v>3404.599999999996</v>
       </c>
       <c r="BQ31" t="inlineStr"/>
       <c r="BR31" t="n">
@@ -7374,16 +7374,16 @@
         <v>1.09442</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0008058192201629285</v>
+        <v>-0.00080581922016291</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0006954670460662145</v>
+        <v>-0.0006954670460661958</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.0001915516331722961</v>
+        <v>-0.0001915516331722909</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.0002244265463311688</v>
+        <v>-0.0002244265463311636</v>
       </c>
       <c r="P32" t="n">
         <v>1.094164464865518</v>
@@ -7428,10 +7428,10 @@
         <v>1.094746974458865</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.056829962460279e-05</v>
+        <v>7.056829962462052e-05</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.0001399353254739333</v>
+        <v>0.0001399353254739511</v>
       </c>
       <c r="AF32" t="n">
         <v>1.092618177893134</v>
@@ -7531,16 +7531,16 @@
         <v>45300.77583333333</v>
       </c>
       <c r="BM32" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN32" t="b">
         <v>1</v>
       </c>
       <c r="BO32" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP32" t="n">
-        <v>1616.080000000001</v>
+        <v>3448.569999999996</v>
       </c>
       <c r="BQ32" t="inlineStr"/>
       <c r="BR32" t="n">
@@ -7591,16 +7591,16 @@
         <v>1.09367</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0005815679933305868</v>
+        <v>-0.0005815679933305645</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0002868969213305711</v>
+        <v>-0.0002868969213305489</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.0001934497241419134</v>
+        <v>-0.0001934497241419061</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.0003442420061110125</v>
+        <v>-0.0003442420061110052</v>
       </c>
       <c r="P33" t="n">
         <v>1.093896585334983</v>
@@ -7645,10 +7645,10 @@
         <v>1.094746974458865</v>
       </c>
       <c r="AD33" t="n">
-        <v>7.056829962460279e-05</v>
+        <v>7.056829962462052e-05</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.0001399353254739333</v>
+        <v>0.0001399353254739511</v>
       </c>
       <c r="AF33" t="n">
         <v>1.092618177893134</v>
@@ -7748,16 +7748,16 @@
         <v>45300.75185185186</v>
       </c>
       <c r="BM33" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN33" t="b">
         <v>1</v>
       </c>
       <c r="BO33" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP33" t="n">
-        <v>1630.740000000001</v>
+        <v>3492.539999999995</v>
       </c>
       <c r="BQ33" t="inlineStr"/>
       <c r="BR33" t="n">
@@ -7808,16 +7808,16 @@
         <v>1.09283</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0003435228761054585</v>
+        <v>0.0003435228761054734</v>
       </c>
       <c r="M34" t="n">
-        <v>2.412293530591065e-05</v>
+        <v>2.412293530592547e-05</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.0006755405133144737</v>
+        <v>-0.0006755405133144624</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.0006403038162890631</v>
+        <v>-0.0006403038162890519</v>
       </c>
       <c r="P34" t="n">
         <v>1.093748541090671</v>
@@ -7862,10 +7862,10 @@
         <v>1.094746974458865</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.056829962460279e-05</v>
+        <v>7.056829962462052e-05</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.0001399353254739333</v>
+        <v>0.0001399353254739511</v>
       </c>
       <c r="AF34" t="n">
         <v>1.092618177893134</v>
@@ -7959,7 +7959,7 @@
       <c r="BK34" t="inlineStr"/>
       <c r="BL34" t="inlineStr"/>
       <c r="BM34" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN34" t="b">
         <v>0</v>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="BP34" t="n">
-        <v>1630.740000000001</v>
+        <v>3492.539999999995</v>
       </c>
       <c r="BQ34" s="2" t="n">
         <v>45300.86458333334</v>
@@ -8021,16 +8021,16 @@
         <v>1.093966613142731</v>
       </c>
       <c r="L35" t="n">
-        <v>-8.213300119571091e-05</v>
+        <v>-8.213300119569977e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0.000225452780854009</v>
+        <v>0.0002254527808540201</v>
       </c>
       <c r="N35" t="n">
-        <v>8.814554379891707e-05</v>
+        <v>8.81455437989319e-05</v>
       </c>
       <c r="O35" t="n">
-        <v>8.655188842349919e-05</v>
+        <v>8.655188842351401e-05</v>
       </c>
       <c r="P35" t="n">
         <v>1.092214792814043</v>
@@ -8182,16 +8182,16 @@
         <v>45301.66534722222</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN35" t="b">
         <v>1</v>
       </c>
       <c r="BO35" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP35" t="n">
-        <v>1645.400000000001</v>
+        <v>3536.529999999995</v>
       </c>
       <c r="BQ35" t="inlineStr"/>
       <c r="BR35" t="n">
@@ -8242,16 +8242,16 @@
         <v>1.094620489071821</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0002242252333959542</v>
+        <v>-0.0002242252333959283</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0001466269266115309</v>
+        <v>-0.000146626926611505</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0003289604077041182</v>
+        <v>0.0003289604077041293</v>
       </c>
       <c r="O36" t="n">
-        <v>0.0001754285029585236</v>
+        <v>0.0001754285029585347</v>
       </c>
       <c r="P36" t="n">
         <v>1.092123959621022</v>
@@ -8403,16 +8403,16 @@
         <v>45301.52954861111</v>
       </c>
       <c r="BM36" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN36" t="b">
         <v>1</v>
       </c>
       <c r="BO36" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP36" t="n">
-        <v>1660.060000000002</v>
+        <v>3580.519999999995</v>
       </c>
       <c r="BQ36" t="inlineStr"/>
       <c r="BR36" t="n">
@@ -8463,16 +8463,16 @@
         <v>1.093936648842046</v>
       </c>
       <c r="L37" t="n">
-        <v>0.0004699312214960206</v>
+        <v>0.0004699312214960354</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0001950116177921601</v>
+        <v>0.0001950116177921749</v>
       </c>
       <c r="N37" t="n">
-        <v>0.000225452780854009</v>
+        <v>0.0002254527808540201</v>
       </c>
       <c r="O37" t="n">
-        <v>-8.213300119571091e-05</v>
+        <v>-8.213300119569977e-05</v>
       </c>
       <c r="P37" t="n">
         <v>1.092482019084543</v>
@@ -8496,10 +8496,10 @@
         <v>1.09319119047619</v>
       </c>
       <c r="W37" t="n">
-        <v>-4.161634156853066e-05</v>
+        <v>-4.161634156852304e-05</v>
       </c>
       <c r="X37" t="n">
-        <v>0.0003750924659700856</v>
+        <v>0.0003750924659700932</v>
       </c>
       <c r="Y37" t="n">
         <v>1.092739285714285</v>
@@ -8624,16 +8624,16 @@
         <v>45301.43761574074</v>
       </c>
       <c r="BM37" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN37" t="b">
         <v>1</v>
       </c>
       <c r="BO37" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP37" t="n">
-        <v>1674.720000000002</v>
+        <v>3624.509999999995</v>
       </c>
       <c r="BQ37" t="inlineStr"/>
       <c r="BR37" t="n">
@@ -8684,19 +8684,19 @@
         <v>1.09415</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0003599733784138874</v>
+        <v>0.0003599733784138985</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0002037752671927053</v>
+        <v>0.0002037752671927164</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.0001466269266115309</v>
+        <v>-0.000146626926611505</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.0002242252333959542</v>
+        <v>-0.0002242252333959283</v>
       </c>
       <c r="P38" t="n">
-        <v>1.092677893478819</v>
+        <v>1.092677893478818</v>
       </c>
       <c r="Q38" t="n">
         <v>1.094606065257322</v>
@@ -8717,10 +8717,10 @@
         <v>1.09319119047619</v>
       </c>
       <c r="W38" t="n">
-        <v>-4.161634156853066e-05</v>
+        <v>-4.161634156852304e-05</v>
       </c>
       <c r="X38" t="n">
-        <v>0.0003750924659700856</v>
+        <v>0.0003750924659700932</v>
       </c>
       <c r="Y38" t="n">
         <v>1.092739285714285</v>
@@ -8843,16 +8843,16 @@
         <v>45301.52885416667</v>
       </c>
       <c r="BM38" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN38" t="b">
         <v>1</v>
       </c>
       <c r="BO38" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP38" t="n">
-        <v>1689.380000000002</v>
+        <v>3668.499999999995</v>
       </c>
       <c r="BQ38" t="inlineStr"/>
       <c r="BR38" t="n">
@@ -8903,16 +8903,16 @@
         <v>1.094668641646441</v>
       </c>
       <c r="L39" t="n">
-        <v>0.000286627948482661</v>
+        <v>0.0002866279484826721</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0001374130669863471</v>
+        <v>0.0001374130669863582</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0001950116177921601</v>
+        <v>0.0001950116177921749</v>
       </c>
       <c r="O39" t="n">
-        <v>0.0004699312214960206</v>
+        <v>0.0004699312214960354</v>
       </c>
       <c r="P39" t="n">
         <v>1.092256244288922</v>
@@ -8936,10 +8936,10 @@
         <v>1.09319119047619</v>
       </c>
       <c r="W39" t="n">
-        <v>-4.161634156853066e-05</v>
+        <v>-4.161634156852304e-05</v>
       </c>
       <c r="X39" t="n">
-        <v>0.0003750924659700856</v>
+        <v>0.0003750924659700932</v>
       </c>
       <c r="Y39" t="n">
         <v>1.092739285714285</v>
@@ -9062,16 +9062,16 @@
         <v>45301.55368055555</v>
       </c>
       <c r="BM39" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN39" t="b">
         <v>1</v>
       </c>
       <c r="BO39" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP39" t="n">
-        <v>1704.040000000002</v>
+        <v>3712.489999999994</v>
       </c>
       <c r="BQ39" t="inlineStr"/>
       <c r="BR39" t="n">
@@ -9122,16 +9122,16 @@
         <v>1.093949275049066</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0005160229926786801</v>
+        <v>0.0005160229926786912</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0007671974318361747</v>
+        <v>0.0007671974318361859</v>
       </c>
       <c r="N40" t="n">
-        <v>-4.293934864932879e-05</v>
+        <v>-4.293934864931395e-05</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.0001014655067608644</v>
+        <v>-0.0001014655067608495</v>
       </c>
       <c r="P40" t="n">
         <v>1.093462838000153</v>
@@ -9283,16 +9283,16 @@
         <v>45302.64716435185</v>
       </c>
       <c r="BM40" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN40" t="b">
         <v>1</v>
       </c>
       <c r="BO40" t="n">
-        <v>91.62</v>
+        <v>274.96</v>
       </c>
       <c r="BP40" t="n">
-        <v>1795.660000000002</v>
+        <v>3987.449999999994</v>
       </c>
       <c r="BQ40" t="inlineStr"/>
       <c r="BR40" t="n">
@@ -9343,16 +9343,16 @@
         <v>1.094619128587409</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0006395176794942715</v>
+        <v>0.00063951767949429</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0008447268660506705</v>
+        <v>0.0008447268660506891</v>
       </c>
       <c r="N41" t="n">
-        <v>0.0002196074347078186</v>
+        <v>0.0002196074347078334</v>
       </c>
       <c r="O41" t="n">
-        <v>-6.097890499599546e-05</v>
+        <v>-6.097890499598063e-05</v>
       </c>
       <c r="P41" t="n">
         <v>1.093267311360706</v>
@@ -9502,16 +9502,16 @@
         <v>45301.77608796296</v>
       </c>
       <c r="BM41" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN41" t="b">
         <v>1</v>
       </c>
       <c r="BO41" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP41" t="n">
-        <v>1810.320000000002</v>
+        <v>4031.439999999994</v>
       </c>
       <c r="BQ41" t="inlineStr"/>
       <c r="BR41" t="n">
@@ -9562,16 +9562,16 @@
         <v>1.096006553956496</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0006714367380369944</v>
+        <v>0.000671436738037013</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0004227603251399778</v>
+        <v>0.0004227603251399964</v>
       </c>
       <c r="N42" t="n">
-        <v>0.0002965662372695397</v>
+        <v>0.0002965662372695509</v>
       </c>
       <c r="O42" t="n">
-        <v>0.0003392443626411938</v>
+        <v>0.000339244362641205</v>
       </c>
       <c r="P42" t="n">
         <v>1.092802747391172</v>
@@ -9721,16 +9721,16 @@
         <v>45301.77457175926</v>
       </c>
       <c r="BM42" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN42" t="b">
         <v>1</v>
       </c>
       <c r="BO42" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP42" t="n">
-        <v>1824.980000000002</v>
+        <v>4075.429999999994</v>
       </c>
       <c r="BQ42" t="inlineStr"/>
       <c r="BR42" t="n">
@@ -9781,16 +9781,16 @@
         <v>1.09679806625941</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0003046273073458498</v>
+        <v>0.0003046273073458795</v>
       </c>
       <c r="M43" t="n">
-        <v>1.911607080493514e-05</v>
+        <v>1.911607080496482e-05</v>
       </c>
       <c r="N43" t="n">
-        <v>0.0007671974318361747</v>
+        <v>0.0007671974318361859</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0005160229926786801</v>
+        <v>0.0005160229926786912</v>
       </c>
       <c r="P43" t="n">
         <v>1.0929985821775</v>
@@ -9940,16 +9940,16 @@
         <v>45302.46142361111</v>
       </c>
       <c r="BM43" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN43" t="b">
         <v>1</v>
       </c>
       <c r="BO43" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP43" t="n">
-        <v>1839.640000000002</v>
+        <v>4119.419999999994</v>
       </c>
       <c r="BQ43" t="inlineStr"/>
       <c r="BR43" t="n">
@@ -10000,16 +10000,16 @@
         <v>1.097236898269688</v>
       </c>
       <c r="L44" t="n">
-        <v>-0.0003313283486469271</v>
+        <v>-0.0003313283486469012</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0003617906686222876</v>
+        <v>-0.0003617906686222616</v>
       </c>
       <c r="N44" t="n">
-        <v>0.0008447268660506705</v>
+        <v>0.0008447268660506891</v>
       </c>
       <c r="O44" t="n">
-        <v>0.0006395176794942715</v>
+        <v>0.00063951767949429</v>
       </c>
       <c r="P44" t="n">
         <v>1.093305329726291</v>
@@ -10159,16 +10159,16 @@
         <v>45302.14809027778</v>
       </c>
       <c r="BM44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN44" t="b">
         <v>1</v>
       </c>
       <c r="BO44" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP44" t="n">
-        <v>1854.300000000002</v>
+        <v>4163.409999999993</v>
       </c>
       <c r="BQ44" t="inlineStr"/>
       <c r="BR44" t="n">
@@ -10219,16 +10219,16 @@
         <v>1.096360001220172</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0001505068231492556</v>
+        <v>0.0001505068231492815</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0001459156157301483</v>
+        <v>0.0001459156157301742</v>
       </c>
       <c r="N45" t="n">
-        <v>0.0003041324105882984</v>
+        <v>0.000304132410588317</v>
       </c>
       <c r="O45" t="n">
-        <v>0.0003103056322578072</v>
+        <v>0.0003103056322578257</v>
       </c>
       <c r="P45" t="n">
         <v>1.095101355488038</v>
@@ -10252,10 +10252,10 @@
         <v>1.095503928571429</v>
       </c>
       <c r="W45" t="n">
-        <v>0.000244794182467222</v>
+        <v>0.000244794182467217</v>
       </c>
       <c r="X45" t="n">
-        <v>0.0003557423958889447</v>
+        <v>0.0003557423958889396</v>
       </c>
       <c r="Y45" t="n">
         <v>1.094983333333334</v>
@@ -10378,16 +10378,16 @@
         <v>45306.59368055555</v>
       </c>
       <c r="BM45" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN45" t="b">
         <v>1</v>
       </c>
       <c r="BO45" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP45" t="n">
-        <v>1868.960000000002</v>
+        <v>4207.379999999994</v>
       </c>
       <c r="BQ45" t="inlineStr"/>
       <c r="BR45" t="n">
@@ -10438,16 +10438,16 @@
         <v>1.096706670008613</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.0001044746927127453</v>
+        <v>-0.0001044746927127305</v>
       </c>
       <c r="M46" t="n">
-        <v>-5.319390227458066e-05</v>
+        <v>-5.319390227456582e-05</v>
       </c>
       <c r="N46" t="n">
-        <v>0.0001459156157301483</v>
+        <v>0.0001459156157301742</v>
       </c>
       <c r="O46" t="n">
-        <v>0.0001505068231492556</v>
+        <v>0.0001505068231492815</v>
       </c>
       <c r="P46" t="n">
         <v>1.095960232955968</v>
@@ -10492,10 +10492,10 @@
         <v>1.094965858940674</v>
       </c>
       <c r="AD46" t="n">
-        <v>0.0003557423958889447</v>
+        <v>0.0003557423958889396</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.000244794182467222</v>
+        <v>0.000244794182467217</v>
       </c>
       <c r="AF46" t="n">
         <v>1.096250211418649</v>
@@ -10597,16 +10597,16 @@
         <v>45306.41700231482</v>
       </c>
       <c r="BM46" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN46" t="b">
         <v>1</v>
       </c>
       <c r="BO46" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP46" t="n">
-        <v>1883.620000000002</v>
+        <v>4251.349999999994</v>
       </c>
       <c r="BQ46" t="inlineStr"/>
       <c r="BR46" t="n">
@@ -10657,16 +10657,16 @@
         <v>1.096778638112405</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.0001365743121868875</v>
+        <v>-0.000136574312186869</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0001819879672668422</v>
+        <v>-0.0001819879672668236</v>
       </c>
       <c r="N47" t="n">
-        <v>-9.996058060133494e-06</v>
+        <v>-9.996058060117121e-06</v>
       </c>
       <c r="O47" t="n">
-        <v>5.806474138419917e-05</v>
+        <v>5.806474138421554e-05</v>
       </c>
       <c r="P47" t="n">
         <v>1.096115862073164</v>
@@ -10711,10 +10711,10 @@
         <v>1.094965858940674</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.0003557423958889447</v>
+        <v>0.0003557423958889396</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.000244794182467222</v>
+        <v>0.000244794182467217</v>
       </c>
       <c r="AF47" t="n">
         <v>1.096250211418649</v>
@@ -10816,16 +10816,16 @@
         <v>45306.41700231482</v>
       </c>
       <c r="BM47" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN47" t="b">
         <v>1</v>
       </c>
       <c r="BO47" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP47" t="n">
-        <v>1898.280000000002</v>
+        <v>4295.319999999994</v>
       </c>
       <c r="BQ47" t="inlineStr"/>
       <c r="BR47" t="n">
@@ -10876,16 +10876,16 @@
         <v>1.09659</v>
       </c>
       <c r="L48" t="n">
-        <v>-0.0001839923600832325</v>
+        <v>-0.0001839923600832102</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0001614257019392583</v>
+        <v>-0.000161425701939236</v>
       </c>
       <c r="N48" t="n">
-        <v>-3.60379597469401e-05</v>
+        <v>-3.603795974691414e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>-5.4289861030031e-05</v>
+        <v>-5.428986103000504e-05</v>
       </c>
       <c r="P48" t="n">
         <v>1.096414524565379</v>
@@ -10930,10 +10930,10 @@
         <v>1.094965858940674</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.0003557423958889447</v>
+        <v>0.0003557423958889396</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.000244794182467222</v>
+        <v>0.000244794182467217</v>
       </c>
       <c r="AF48" t="n">
         <v>1.096250211418649</v>
@@ -11035,16 +11035,16 @@
         <v>45306.41686342593</v>
       </c>
       <c r="BM48" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN48" t="b">
         <v>1</v>
       </c>
       <c r="BO48" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP48" t="n">
-        <v>1912.940000000002</v>
+        <v>4339.289999999995</v>
       </c>
       <c r="BQ48" t="inlineStr"/>
       <c r="BR48" t="n">
@@ -11095,16 +11095,16 @@
         <v>1.09638</v>
       </c>
       <c r="L49" t="n">
-        <v>-3.737229806377704e-05</v>
+        <v>-3.737229806376591e-05</v>
       </c>
       <c r="M49" t="n">
-        <v>-4.89363987682059e-05</v>
+        <v>-4.893639876819477e-05</v>
       </c>
       <c r="N49" t="n">
-        <v>-5.319390227458066e-05</v>
+        <v>-5.319390227456582e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>-0.0001044746927127453</v>
+        <v>-0.0001044746927127305</v>
       </c>
       <c r="P49" t="n">
         <v>1.096394027895432</v>
@@ -11128,10 +11128,10 @@
         <v>1.096172023809523</v>
       </c>
       <c r="W49" t="n">
-        <v>0.000404330496264879</v>
+        <v>0.0004043304962648714</v>
       </c>
       <c r="X49" t="n">
-        <v>0.000293815122697147</v>
+        <v>0.0002938151226971394</v>
       </c>
       <c r="Y49" t="n">
         <v>1.095915952380952</v>
@@ -11254,16 +11254,16 @@
         <v>45306.59296296296</v>
       </c>
       <c r="BM49" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN49" t="b">
         <v>1</v>
       </c>
       <c r="BO49" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP49" t="n">
-        <v>1927.600000000002</v>
+        <v>4383.259999999995</v>
       </c>
       <c r="BQ49" t="inlineStr"/>
       <c r="BR49" t="n">
@@ -11314,16 +11314,16 @@
         <v>1.09618</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0001368621009930009</v>
+        <v>0.000136862100993021</v>
       </c>
       <c r="M50" t="n">
-        <v>3.619704912588819e-05</v>
+        <v>3.619704912590828e-05</v>
       </c>
       <c r="N50" t="n">
-        <v>-0.0001819879672668422</v>
+        <v>-0.0001819879672668236</v>
       </c>
       <c r="O50" t="n">
-        <v>-0.0001365743121868875</v>
+        <v>-0.000136574312186869</v>
       </c>
       <c r="P50" t="n">
         <v>1.096276295703993</v>
@@ -11347,10 +11347,10 @@
         <v>1.096172023809523</v>
       </c>
       <c r="W50" t="n">
-        <v>0.000404330496264879</v>
+        <v>0.0004043304962648714</v>
       </c>
       <c r="X50" t="n">
-        <v>0.000293815122697147</v>
+        <v>0.0002938151226971394</v>
       </c>
       <c r="Y50" t="n">
         <v>1.095915952380952</v>
@@ -11473,16 +11473,16 @@
         <v>45306.59012731481</v>
       </c>
       <c r="BM50" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN50" t="b">
         <v>1</v>
       </c>
       <c r="BO50" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP50" t="n">
-        <v>1942.260000000002</v>
+        <v>4427.229999999995</v>
       </c>
       <c r="BQ50" t="inlineStr"/>
       <c r="BR50" t="n">
@@ -11527,22 +11527,22 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.096030951107922</v>
+        <v>1.096030951107921</v>
       </c>
       <c r="K51" t="n">
         <v>1.096423331723136</v>
       </c>
       <c r="L51" t="n">
-        <v>4.836765876699152e-05</v>
+        <v>4.836765876700635e-05</v>
       </c>
       <c r="M51" t="n">
-        <v>5.168333328438203e-05</v>
+        <v>5.168333328439686e-05</v>
       </c>
       <c r="N51" t="n">
-        <v>8.210155514622798e-05</v>
+        <v>8.210155514623911e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>7.024534684101715e-05</v>
+        <v>7.024534684102826e-05</v>
       </c>
       <c r="P51" t="n">
         <v>1.095807070838416</v>
@@ -11566,10 +11566,10 @@
         <v>1.096358928571429</v>
       </c>
       <c r="W51" t="n">
-        <v>0.0002603804570156963</v>
+        <v>0.0002603804570156887</v>
       </c>
       <c r="X51" t="n">
-        <v>0.0001660499423528917</v>
+        <v>0.0001660499423528841</v>
       </c>
       <c r="Y51" t="n">
         <v>1.096172023809523</v>
@@ -11587,10 +11587,10 @@
         <v>1.095885435587162</v>
       </c>
       <c r="AD51" t="n">
-        <v>0.000293815122697147</v>
+        <v>0.0002938151226971394</v>
       </c>
       <c r="AE51" t="n">
-        <v>0.000404330496264879</v>
+        <v>0.0004043304962648714</v>
       </c>
       <c r="AF51" t="n">
         <v>1.09629891237985</v>
@@ -11692,16 +11692,16 @@
         <v>45306.59368055555</v>
       </c>
       <c r="BM51" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN51" t="b">
         <v>1</v>
       </c>
       <c r="BO51" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP51" t="n">
-        <v>1956.920000000003</v>
+        <v>4471.199999999995</v>
       </c>
       <c r="BQ51" t="inlineStr"/>
       <c r="BR51" t="n">
@@ -11752,16 +11752,16 @@
         <v>1.09653</v>
       </c>
       <c r="L52" t="n">
-        <v>2.236728485216889e-05</v>
+        <v>2.236728485218372e-05</v>
       </c>
       <c r="M52" t="n">
-        <v>2.235942478839543e-05</v>
+        <v>2.235942478841026e-05</v>
       </c>
       <c r="N52" t="n">
-        <v>5.559526016092772e-05</v>
+        <v>5.559526016093143e-05</v>
       </c>
       <c r="O52" t="n">
-        <v>6.994076383339665e-05</v>
+        <v>6.994076383340035e-05</v>
       </c>
       <c r="P52" t="n">
         <v>1.095950395695311</v>
@@ -11785,10 +11785,10 @@
         <v>1.096358928571429</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0002603804570156963</v>
+        <v>0.0002603804570156887</v>
       </c>
       <c r="X52" t="n">
-        <v>0.0001660499423528917</v>
+        <v>0.0001660499423528841</v>
       </c>
       <c r="Y52" t="n">
         <v>1.096172023809523</v>
@@ -11806,10 +11806,10 @@
         <v>1.095885435587162</v>
       </c>
       <c r="AD52" t="n">
-        <v>0.000293815122697147</v>
+        <v>0.0002938151226971394</v>
       </c>
       <c r="AE52" t="n">
-        <v>0.000404330496264879</v>
+        <v>0.0004043304962648714</v>
       </c>
       <c r="AF52" t="n">
         <v>1.09629891237985</v>
@@ -11911,16 +11911,16 @@
         <v>45306.41686342593</v>
       </c>
       <c r="BM52" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN52" t="b">
         <v>1</v>
       </c>
       <c r="BO52" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP52" t="n">
-        <v>1971.580000000003</v>
+        <v>4515.169999999996</v>
       </c>
       <c r="BQ52" t="inlineStr"/>
       <c r="BR52" t="n">
@@ -11971,16 +11971,16 @@
         <v>1.096579034624727</v>
       </c>
       <c r="L53" t="n">
-        <v>-8.543559485837587e-05</v>
+        <v>-8.543559485836103e-05</v>
       </c>
       <c r="M53" t="n">
-        <v>-8.825935993925996e-06</v>
+        <v>-8.825935993911159e-06</v>
       </c>
       <c r="N53" t="n">
-        <v>3.23575419934731e-05</v>
+        <v>3.235754199348423e-05</v>
       </c>
       <c r="O53" t="n">
-        <v>1.868122493647574e-05</v>
+        <v>1.868122493648687e-05</v>
       </c>
       <c r="P53" t="n">
         <v>1.096161883851813</v>
@@ -12025,10 +12025,10 @@
         <v>1.096332595487097</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.0001660499423528917</v>
+        <v>0.0001660499423528841</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.0002603804570156963</v>
+        <v>0.0002603804570156887</v>
       </c>
       <c r="AF53" t="n">
         <v>1.096312970793283</v>
@@ -12130,16 +12130,16 @@
         <v>45306.41686342593</v>
       </c>
       <c r="BM53" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN53" t="b">
         <v>1</v>
       </c>
       <c r="BO53" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP53" t="n">
-        <v>1986.240000000003</v>
+        <v>4559.139999999996</v>
       </c>
       <c r="BQ53" t="inlineStr"/>
       <c r="BR53" t="n">
@@ -12190,16 +12190,16 @@
         <v>1.096723605658021</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0002494087665880966</v>
+        <v>-0.0002494087665880854</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0001683029425453077</v>
+        <v>-0.0001683029425452966</v>
       </c>
       <c r="N54" t="n">
-        <v>-1.324013790311485e-05</v>
+        <v>-1.324013790310373e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>2.765843803296942e-05</v>
+        <v>2.765843803298055e-05</v>
       </c>
       <c r="P54" t="n">
         <v>1.096192788103103</v>
@@ -12244,10 +12244,10 @@
         <v>1.096332595487097</v>
       </c>
       <c r="AD54" t="n">
-        <v>0.0001660499423528917</v>
+        <v>0.0001660499423528841</v>
       </c>
       <c r="AE54" t="n">
-        <v>0.0002603804570156963</v>
+        <v>0.0002603804570156887</v>
       </c>
       <c r="AF54" t="n">
         <v>1.096312970793283</v>
@@ -12349,16 +12349,16 @@
         <v>45306.41686342593</v>
       </c>
       <c r="BM54" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN54" t="b">
         <v>1</v>
       </c>
       <c r="BO54" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP54" t="n">
-        <v>2000.900000000003</v>
+        <v>4603.109999999996</v>
       </c>
       <c r="BQ54" t="inlineStr"/>
       <c r="BR54" t="n">
@@ -12409,16 +12409,16 @@
         <v>1.09228</v>
       </c>
       <c r="L55" t="n">
-        <v>-0.0002767635588450573</v>
+        <v>-0.0002767635588450462</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0005958883134139231</v>
+        <v>-0.0005958883134139119</v>
       </c>
       <c r="N55" t="n">
-        <v>-0.0001460426049436176</v>
+        <v>-0.0001460426049435916</v>
       </c>
       <c r="O55" t="n">
-        <v>-7.292088486141663e-05</v>
+        <v>-7.292088486139066e-05</v>
       </c>
       <c r="P55" t="n">
         <v>1.091153062017633</v>
@@ -12568,16 +12568,16 @@
         <v>45307.45105324074</v>
       </c>
       <c r="BM55" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN55" t="b">
         <v>1</v>
       </c>
       <c r="BO55" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP55" t="n">
-        <v>2015.560000000003</v>
+        <v>4647.079999999996</v>
       </c>
       <c r="BQ55" t="inlineStr"/>
       <c r="BR55" t="n">
@@ -12628,16 +12628,16 @@
         <v>1.09132</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.0001648613191584336</v>
+        <v>-0.0001648613191584077</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0004541738068885561</v>
+        <v>-0.0004541738068885302</v>
       </c>
       <c r="N56" t="n">
-        <v>-0.0001693895553554306</v>
+        <v>-0.0001693895553554195</v>
       </c>
       <c r="O56" t="n">
-        <v>-0.0007154449307752633</v>
+        <v>-0.0007154449307752522</v>
       </c>
       <c r="P56" t="n">
         <v>1.091663347561052</v>
@@ -12787,16 +12787,16 @@
         <v>45307.56864583334</v>
       </c>
       <c r="BM56" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN56" t="b">
         <v>1</v>
       </c>
       <c r="BO56" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP56" t="n">
-        <v>2030.220000000003</v>
+        <v>4691.049999999997</v>
       </c>
       <c r="BQ56" t="inlineStr"/>
       <c r="BR56" t="n">
@@ -12847,16 +12847,16 @@
         <v>1.08794</v>
       </c>
       <c r="L57" t="n">
-        <v>-0.0002699998993990631</v>
+        <v>-0.000269999899399052</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0003374586790348291</v>
+        <v>-0.000337458679034818</v>
       </c>
       <c r="N57" t="n">
-        <v>0.0001110909454272636</v>
+        <v>0.0001110909454272747</v>
       </c>
       <c r="O57" t="n">
-        <v>0.0001106574189924306</v>
+        <v>0.0001106574189924417</v>
       </c>
       <c r="P57" t="n">
         <v>1.086690046914906</v>
@@ -12901,10 +12901,10 @@
         <v>1.087417481285464</v>
       </c>
       <c r="AD57" t="n">
-        <v>-2.778376145087322e-05</v>
+        <v>-2.77837614508616e-05</v>
       </c>
       <c r="AE57" t="n">
-        <v>-0.0002980033360290462</v>
+        <v>-0.0002980033360290346</v>
       </c>
       <c r="AF57" t="n">
         <v>1.086644038848923</v>
@@ -13004,16 +13004,16 @@
         <v>45308.6600462963</v>
       </c>
       <c r="BM57" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN57" t="b">
         <v>1</v>
       </c>
       <c r="BO57" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP57" t="n">
-        <v>2044.880000000003</v>
+        <v>4735.019999999997</v>
       </c>
       <c r="BQ57" t="inlineStr"/>
       <c r="BR57" t="n">
@@ -13064,16 +13064,16 @@
         <v>1.08722</v>
       </c>
       <c r="L58" t="n">
-        <v>0.000137323633903266</v>
+        <v>0.0001373236339032845</v>
       </c>
       <c r="M58" t="n">
-        <v>2.120354695060017e-05</v>
+        <v>2.120354695061871e-05</v>
       </c>
       <c r="N58" t="n">
-        <v>-0.0001501619504116558</v>
+        <v>-0.0001501619504116325</v>
       </c>
       <c r="O58" t="n">
-        <v>-0.0001163071741888403</v>
+        <v>-0.000116307174188817</v>
       </c>
       <c r="P58" t="n">
         <v>1.086929500509976</v>
@@ -13118,10 +13118,10 @@
         <v>1.087417481285464</v>
       </c>
       <c r="AD58" t="n">
-        <v>-2.778376145087322e-05</v>
+        <v>-2.77837614508616e-05</v>
       </c>
       <c r="AE58" t="n">
-        <v>-0.0002980033360290462</v>
+        <v>-0.0002980033360290346</v>
       </c>
       <c r="AF58" t="n">
         <v>1.086644038848923</v>
@@ -13221,16 +13221,16 @@
         <v>45308.71116898148</v>
       </c>
       <c r="BM58" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN58" t="b">
         <v>1</v>
       </c>
       <c r="BO58" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP58" t="n">
-        <v>2059.540000000003</v>
+        <v>4778.989999999997</v>
       </c>
       <c r="BQ58" t="inlineStr"/>
       <c r="BR58" t="n">
@@ -13275,22 +13275,22 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1.08589168108321</v>
+        <v>1.085891681083209</v>
       </c>
       <c r="K59" t="n">
         <v>1.08693</v>
       </c>
       <c r="L59" t="n">
-        <v>0.000137342403494458</v>
+        <v>0.0001373424034944692</v>
       </c>
       <c r="M59" t="n">
-        <v>0.0002664443240790494</v>
+        <v>0.0002664443240790605</v>
       </c>
       <c r="N59" t="n">
-        <v>-0.0004444435632736407</v>
+        <v>-0.0004444435632736185</v>
       </c>
       <c r="O59" t="n">
-        <v>-0.0003860208427366535</v>
+        <v>-0.0003860208427366312</v>
       </c>
       <c r="P59" t="n">
         <v>1.087365145802173</v>
@@ -13438,16 +13438,16 @@
         <v>45308.71114583333</v>
       </c>
       <c r="BM59" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN59" t="b">
         <v>1</v>
       </c>
       <c r="BO59" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP59" t="n">
-        <v>2074.200000000003</v>
+        <v>4822.959999999997</v>
       </c>
       <c r="BQ59" t="inlineStr"/>
       <c r="BR59" t="n">
@@ -13498,16 +13498,16 @@
         <v>1.08685</v>
       </c>
       <c r="L60" t="n">
-        <v>0.0005873396901347584</v>
+        <v>0.0005873396901347695</v>
       </c>
       <c r="M60" t="n">
-        <v>0.0004472448187847434</v>
+        <v>0.0004472448187847546</v>
       </c>
       <c r="N60" t="n">
-        <v>-0.0003374586790348291</v>
+        <v>-0.000337458679034818</v>
       </c>
       <c r="O60" t="n">
-        <v>-0.0002699998993990631</v>
+        <v>-0.000269999899399052</v>
       </c>
       <c r="P60" t="n">
         <v>1.086819144446534</v>
@@ -13655,16 +13655,16 @@
         <v>45308.70951388889</v>
       </c>
       <c r="BM60" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN60" t="b">
         <v>1</v>
       </c>
       <c r="BO60" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP60" t="n">
-        <v>2088.860000000003</v>
+        <v>4866.929999999998</v>
       </c>
       <c r="BQ60" t="inlineStr"/>
       <c r="BR60" t="n">
@@ -13715,22 +13715,22 @@
         <v>1.08822</v>
       </c>
       <c r="L61" t="n">
-        <v>1.689442772352505e-05</v>
+        <v>1.689442772354731e-05</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.0002729877472858258</v>
+        <v>-0.0002729877472858036</v>
       </c>
       <c r="N61" t="n">
-        <v>0.0003753537959865728</v>
+        <v>0.000375353795986595</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0003407027007048869</v>
+        <v>0.0003407027007049092</v>
       </c>
       <c r="P61" t="n">
         <v>1.086220987833058</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.087537477275698</v>
+        <v>1.087537477275697</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>45308.5</v>
@@ -13872,16 +13872,16 @@
         <v>45308.66042824074</v>
       </c>
       <c r="BM61" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN61" t="b">
         <v>1</v>
       </c>
       <c r="BO61" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP61" t="n">
-        <v>2103.520000000003</v>
+        <v>4910.899999999998</v>
       </c>
       <c r="BQ61" t="inlineStr"/>
       <c r="BR61" t="n">
@@ -13932,16 +13932,16 @@
         <v>1.0874</v>
       </c>
       <c r="L62" t="n">
-        <v>9.481500759835891e-05</v>
+        <v>9.481500759837265e-05</v>
       </c>
       <c r="M62" t="n">
-        <v>8.555815293494057e-05</v>
+        <v>8.555815293495432e-05</v>
       </c>
       <c r="N62" t="n">
-        <v>-8.191051832197071e-05</v>
+        <v>-8.191051832195696e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>-0.0001469473317441356</v>
+        <v>-0.0001469473317441219</v>
       </c>
       <c r="P62" t="n">
         <v>1.087126661529335</v>
@@ -14089,16 +14089,16 @@
         <v>45308.65993055556</v>
       </c>
       <c r="BM62" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN62" t="b">
         <v>1</v>
       </c>
       <c r="BO62" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP62" t="n">
-        <v>2118.180000000003</v>
+        <v>4954.869999999998</v>
       </c>
       <c r="BQ62" t="inlineStr"/>
       <c r="BR62" t="n">
@@ -14149,16 +14149,16 @@
         <v>1.08643</v>
       </c>
       <c r="L63" t="n">
-        <v>0.0001611173345670897</v>
+        <v>0.0001611173345671008</v>
       </c>
       <c r="M63" t="n">
-        <v>9.861038494615833e-05</v>
+        <v>9.861038494616946e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>-1.688234184080952e-05</v>
+        <v>-1.68823418408021e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>-6.726313938965402e-05</v>
+        <v>-6.726313938964659e-05</v>
       </c>
       <c r="P63" t="n">
         <v>1.086173965087894</v>
@@ -14182,10 +14182,10 @@
         <v>1.085910595238095</v>
       </c>
       <c r="W63" t="n">
-        <v>0.0002819632505454501</v>
+        <v>0.0002819632505454425</v>
       </c>
       <c r="X63" t="n">
-        <v>0.0001648269140443464</v>
+        <v>0.0001648269140443388</v>
       </c>
       <c r="Y63" t="n">
         <v>1.085649523809524</v>
@@ -14300,7 +14300,7 @@
       <c r="BK63" t="inlineStr"/>
       <c r="BL63" t="inlineStr"/>
       <c r="BM63" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN63" t="b">
         <v>0</v>
@@ -14309,7 +14309,7 @@
         <v>0</v>
       </c>
       <c r="BP63" t="n">
-        <v>2118.180000000003</v>
+        <v>4954.869999999998</v>
       </c>
       <c r="BQ63" s="2" t="n">
         <v>45310.03125</v>
@@ -14362,16 +14362,16 @@
         <v>1.088648340580614</v>
       </c>
       <c r="L64" t="n">
-        <v>1.865315327086929e-05</v>
+        <v>1.865315327087933e-05</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.277759604938446e-05</v>
+        <v>-6.277759604937441e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.593962274520367e-05</v>
+        <v>5.593962274521479e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>-4.557950643182563e-05</v>
+        <v>-4.55795064318145e-05</v>
       </c>
       <c r="P64" t="n">
         <v>1.087485829472383</v>
@@ -14521,16 +14521,16 @@
         <v>45310.5678587963</v>
       </c>
       <c r="BM64" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN64" t="b">
         <v>1</v>
       </c>
       <c r="BO64" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP64" t="n">
-        <v>2132.840000000002</v>
+        <v>4998.859999999998</v>
       </c>
       <c r="BQ64" t="inlineStr"/>
       <c r="BR64" t="n">
@@ -14581,16 +14581,16 @@
         <v>1.088778809595401</v>
       </c>
       <c r="L65" t="n">
-        <v>-0.0001928689520151634</v>
+        <v>-0.0001928689520151448</v>
       </c>
       <c r="M65" t="n">
-        <v>-0.0002752872560228209</v>
+        <v>-0.0002752872560228023</v>
       </c>
       <c r="N65" t="n">
-        <v>0.000119183909233442</v>
+        <v>0.0001191839092334568</v>
       </c>
       <c r="O65" t="n">
-        <v>7.049977018280137e-05</v>
+        <v>7.049977018281622e-05</v>
       </c>
       <c r="P65" t="n">
         <v>1.08730984233653</v>
@@ -14740,16 +14740,16 @@
         <v>45313.0034837963</v>
       </c>
       <c r="BM65" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN65" t="b">
         <v>1</v>
       </c>
       <c r="BO65" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP65" t="n">
-        <v>2147.500000000002</v>
+        <v>5042.849999999998</v>
       </c>
       <c r="BQ65" t="inlineStr"/>
       <c r="BR65" t="n">
@@ -14800,16 +14800,16 @@
         <v>1.08787914403001</v>
       </c>
       <c r="L66" t="n">
-        <v>0.0002240760935483843</v>
+        <v>0.0002240760935484103</v>
       </c>
       <c r="M66" t="n">
-        <v>0.0002347393385482906</v>
+        <v>0.0002347393385483166</v>
       </c>
       <c r="N66" t="n">
-        <v>-6.715414530737773e-05</v>
+        <v>-6.715414530736289e-05</v>
       </c>
       <c r="O66" t="n">
-        <v>-0.000305076719462427</v>
+        <v>-0.0003050767194624121</v>
       </c>
       <c r="P66" t="n">
         <v>1.087375408118936</v>
@@ -14833,10 +14833,10 @@
         <v>1.087883452380952</v>
       </c>
       <c r="W66" t="n">
-        <v>-0.0003499429851549042</v>
+        <v>-0.0003499429851549142</v>
       </c>
       <c r="X66" t="n">
-        <v>-8.545928960595716e-05</v>
+        <v>-8.54592896059673e-05</v>
       </c>
       <c r="Y66" t="n">
         <v>1.088159761904762</v>
@@ -14959,16 +14959,16 @@
         <v>45310.58532407408</v>
       </c>
       <c r="BM66" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN66" t="b">
         <v>1</v>
       </c>
       <c r="BO66" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP66" t="n">
-        <v>2162.160000000002</v>
+        <v>5086.839999999997</v>
       </c>
       <c r="BQ66" t="inlineStr"/>
       <c r="BR66" t="n">
@@ -15025,10 +15025,10 @@
         <v>-0.0001650313095126969</v>
       </c>
       <c r="N67" t="n">
-        <v>0.0001739570188085625</v>
+        <v>0.0001739570188085847</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0001647376734383036</v>
+        <v>0.0001647376734383258</v>
       </c>
       <c r="P67" t="n">
         <v>1.089616970645408</v>
@@ -15052,10 +15052,10 @@
         <v>1.090371666666667</v>
       </c>
       <c r="W67" t="n">
-        <v>-3.643175845891594e-05</v>
+        <v>-3.643175845892354e-05</v>
       </c>
       <c r="X67" t="n">
-        <v>9.367648898294673e-06</v>
+        <v>9.36764889828707e-06</v>
       </c>
       <c r="Y67" t="n">
         <v>1.090335833333333</v>
@@ -15178,16 +15178,16 @@
         <v>45315.69791666666</v>
       </c>
       <c r="BM67" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN67" t="b">
         <v>1</v>
       </c>
       <c r="BO67" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP67" t="n">
-        <v>2176.820000000002</v>
+        <v>5130.829999999997</v>
       </c>
       <c r="BQ67" t="inlineStr"/>
       <c r="BR67" t="n">
@@ -15238,16 +15238,16 @@
         <v>1.088859137927411</v>
       </c>
       <c r="L68" t="n">
-        <v>0.0001898869701891442</v>
+        <v>0.000189886970189159</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0001381356431922387</v>
+        <v>0.0001381356431922535</v>
       </c>
       <c r="N68" t="n">
-        <v>-0.0002653487397194297</v>
+        <v>-0.0002653487397194037</v>
       </c>
       <c r="O68" t="n">
-        <v>-0.0001283794907116906</v>
+        <v>-0.0001283794907116647</v>
       </c>
       <c r="P68" t="n">
         <v>1.088608153766601</v>
@@ -15397,16 +15397,16 @@
         <v>45315.4050462963</v>
       </c>
       <c r="BM68" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN68" t="b">
         <v>1</v>
       </c>
       <c r="BO68" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP68" t="n">
-        <v>2268.420000000002</v>
+        <v>5405.659999999997</v>
       </c>
       <c r="BQ68" t="inlineStr"/>
       <c r="BR68" t="n">
@@ -15457,16 +15457,16 @@
         <v>1.088526666091105</v>
       </c>
       <c r="L69" t="n">
-        <v>0.0004012814196234476</v>
+        <v>0.0004012814196234587</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0002510729460928106</v>
+        <v>0.0002510729460928217</v>
       </c>
       <c r="N69" t="n">
-        <v>-0.0001516282902885026</v>
+        <v>-0.0001516282902884915</v>
       </c>
       <c r="O69" t="n">
-        <v>-0.0001100464640523308</v>
+        <v>-0.0001100464640523196</v>
       </c>
       <c r="P69" t="n">
         <v>1.087969922930233</v>
@@ -15616,16 +15616,16 @@
         <v>45314.59231481481</v>
       </c>
       <c r="BM69" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN69" t="b">
         <v>1</v>
       </c>
       <c r="BO69" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP69" t="n">
-        <v>2283.080000000002</v>
+        <v>5449.629999999997</v>
       </c>
       <c r="BQ69" t="inlineStr"/>
       <c r="BR69" t="n">
@@ -15676,16 +15676,16 @@
         <v>1.0893</v>
       </c>
       <c r="L70" t="n">
-        <v>6.349955170663855e-05</v>
+        <v>6.349955170664969e-05</v>
       </c>
       <c r="M70" t="n">
-        <v>5.860432305845516e-06</v>
+        <v>5.860432305856657e-06</v>
       </c>
       <c r="N70" t="n">
-        <v>0.0001423166744041486</v>
+        <v>0.0001423166744041597</v>
       </c>
       <c r="O70" t="n">
-        <v>5.232205259376909e-05</v>
+        <v>5.232205259378021e-05</v>
       </c>
       <c r="P70" t="n">
         <v>1.088434838204518</v>
@@ -15835,16 +15835,16 @@
         <v>45315.40631944445</v>
       </c>
       <c r="BM70" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN70" t="b">
         <v>1</v>
       </c>
       <c r="BO70" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP70" t="n">
-        <v>2374.680000000002</v>
+        <v>5724.459999999997</v>
       </c>
       <c r="BQ70" t="inlineStr"/>
       <c r="BR70" t="n">
@@ -15895,16 +15895,16 @@
         <v>1.08554</v>
       </c>
       <c r="L71" t="n">
-        <v>-0.0003088409320559346</v>
+        <v>-0.0003088409320559293</v>
       </c>
       <c r="M71" t="n">
-        <v>-6.027165874212962e-05</v>
+        <v>-6.027165874212438e-05</v>
       </c>
       <c r="N71" t="n">
-        <v>0.0001293651650291122</v>
+        <v>0.000129365165029127</v>
       </c>
       <c r="O71" t="n">
-        <v>0.0001876853000866244</v>
+        <v>0.0001876853000866393</v>
       </c>
       <c r="P71" t="n">
         <v>1.084506623907767</v>
@@ -16052,16 +16052,16 @@
         <v>45316.80274305555</v>
       </c>
       <c r="BM71" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN71" t="b">
         <v>1</v>
       </c>
       <c r="BO71" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP71" t="n">
-        <v>2389.340000000002</v>
+        <v>5768.429999999998</v>
       </c>
       <c r="BQ71" t="inlineStr"/>
       <c r="BR71" t="n">
@@ -16112,16 +16112,16 @@
         <v>1.08782</v>
       </c>
       <c r="L72" t="n">
-        <v>-9.635267139089107e-05</v>
+        <v>-9.635267139086513e-05</v>
       </c>
       <c r="M72" t="n">
-        <v>-0.0005276907869188702</v>
+        <v>-0.0005276907869188444</v>
       </c>
       <c r="N72" t="n">
-        <v>-0.0005263347235049277</v>
+        <v>-0.0005263347235049177</v>
       </c>
       <c r="O72" t="n">
-        <v>-0.0007361905193923054</v>
+        <v>-0.0007361905193922954</v>
       </c>
       <c r="P72" t="n">
         <v>1.087704180741968</v>
@@ -16271,16 +16271,16 @@
         <v>45317.50620370371</v>
       </c>
       <c r="BM72" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN72" t="b">
         <v>1</v>
       </c>
       <c r="BO72" t="n">
-        <v>91.59999999999999</v>
+        <v>274.83</v>
       </c>
       <c r="BP72" t="n">
-        <v>2480.940000000001</v>
+        <v>6043.259999999997</v>
       </c>
       <c r="BQ72" t="inlineStr"/>
       <c r="BR72" t="n">
@@ -16331,16 +16331,16 @@
         <v>1.084596667013578</v>
       </c>
       <c r="L73" t="n">
-        <v>-8.454410158035773e-05</v>
+        <v>-8.45441015803466e-05</v>
       </c>
       <c r="M73" t="n">
-        <v>4.302473614896926e-05</v>
+        <v>4.302473614898039e-05</v>
       </c>
       <c r="N73" t="n">
-        <v>-2.305045295242192e-05</v>
+        <v>-2.305045295240554e-05</v>
       </c>
       <c r="O73" t="n">
-        <v>-0.000113729608614082</v>
+        <v>-0.0001137296086140656</v>
       </c>
       <c r="P73" t="n">
         <v>1.084446637986344</v>
@@ -16488,16 +16488,16 @@
         <v>45317.45226851852</v>
       </c>
       <c r="BM73" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN73" t="b">
         <v>1</v>
       </c>
       <c r="BO73" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP73" t="n">
-        <v>2495.600000000001</v>
+        <v>6087.229999999998</v>
       </c>
       <c r="BQ73" t="inlineStr"/>
       <c r="BR73" t="n">
@@ -16548,16 +16548,16 @@
         <v>1.084838332410422</v>
       </c>
       <c r="L74" t="n">
-        <v>-0.0001473537159695313</v>
+        <v>-0.000147353715969525</v>
       </c>
       <c r="M74" t="n">
-        <v>-0.0001467403554085816</v>
+        <v>-0.0001467403554085753</v>
       </c>
       <c r="N74" t="n">
-        <v>-5.493208504987834e-05</v>
+        <v>-5.493208504985979e-05</v>
       </c>
       <c r="O74" t="n">
-        <v>1.229861895603879e-05</v>
+        <v>1.229861895605735e-05</v>
       </c>
       <c r="P74" t="n">
         <v>1.08419774474296</v>
@@ -16705,16 +16705,16 @@
         <v>45317.44694444445</v>
       </c>
       <c r="BM74" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN74" t="b">
         <v>1</v>
       </c>
       <c r="BO74" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP74" t="n">
-        <v>2510.260000000001</v>
+        <v>6131.199999999998</v>
       </c>
       <c r="BQ74" t="inlineStr"/>
       <c r="BR74" t="n">
@@ -16765,16 +16765,16 @@
         <v>1.084216662148805</v>
       </c>
       <c r="L75" t="n">
-        <v>7.074003174319477e-05</v>
+        <v>7.074003174320961e-05</v>
       </c>
       <c r="M75" t="n">
-        <v>7.993051694864062e-05</v>
+        <v>7.993051694865546e-05</v>
       </c>
       <c r="N75" t="n">
-        <v>-0.0001467403554085816</v>
+        <v>-0.0001467403554085753</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.0001473537159695313</v>
+        <v>-0.000147353715969525</v>
       </c>
       <c r="P75" t="n">
         <v>1.084237147405597</v>
@@ -16922,16 +16922,16 @@
         <v>45317.44428240741</v>
       </c>
       <c r="BM75" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN75" t="b">
         <v>1</v>
       </c>
       <c r="BO75" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP75" t="n">
-        <v>2524.920000000001</v>
+        <v>6175.169999999998</v>
       </c>
       <c r="BQ75" t="inlineStr"/>
       <c r="BR75" t="n">
@@ -16982,16 +16982,16 @@
         <v>1.08439</v>
       </c>
       <c r="L76" t="n">
-        <v>0.0001007148998698613</v>
+        <v>0.0001007148998698761</v>
       </c>
       <c r="M76" t="n">
-        <v>5.50758939202299e-05</v>
+        <v>5.507589392024476e-05</v>
       </c>
       <c r="N76" t="n">
-        <v>-4.328355400389261e-05</v>
+        <v>-4.328355400388148e-05</v>
       </c>
       <c r="O76" t="n">
-        <v>-8.381752046966036e-05</v>
+        <v>-8.381752046964922e-05</v>
       </c>
       <c r="P76" t="n">
         <v>1.083854356363811</v>
@@ -17139,16 +17139,16 @@
         <v>45317.44435185185</v>
       </c>
       <c r="BM76" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN76" t="b">
         <v>1</v>
       </c>
       <c r="BO76" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP76" t="n">
-        <v>2539.580000000001</v>
+        <v>6219.139999999999</v>
       </c>
       <c r="BQ76" t="inlineStr"/>
       <c r="BR76" t="n">
@@ -17199,16 +17199,16 @@
         <v>1.08468</v>
       </c>
       <c r="L77" t="n">
-        <v>-6.406889722468916e-06</v>
+        <v>-6.406889722454079e-06</v>
       </c>
       <c r="M77" t="n">
-        <v>-9.99557388214501e-06</v>
+        <v>-9.995573882130173e-06</v>
       </c>
       <c r="N77" t="n">
-        <v>-3.609315467684786e-05</v>
+        <v>-3.609315467683302e-05</v>
       </c>
       <c r="O77" t="n">
-        <v>3.332572376274667e-06</v>
+        <v>3.332572376289507e-06</v>
       </c>
       <c r="P77" t="n">
         <v>1.084330292665992</v>
@@ -17356,16 +17356,16 @@
         <v>45317.44900462963</v>
       </c>
       <c r="BM77" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN77" t="b">
         <v>1</v>
       </c>
       <c r="BO77" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP77" t="n">
-        <v>2554.240000000001</v>
+        <v>6263.109999999999</v>
       </c>
       <c r="BQ77" t="inlineStr"/>
       <c r="BR77" t="n">
@@ -17416,16 +17416,16 @@
         <v>1.084677482244784</v>
       </c>
       <c r="L78" t="n">
-        <v>-7.35298883449287e-05</v>
+        <v>-7.352988834491387e-05</v>
       </c>
       <c r="M78" t="n">
-        <v>-7.298889914976349e-05</v>
+        <v>-7.298889914974866e-05</v>
       </c>
       <c r="N78" t="n">
-        <v>-5.685442160007611e-05</v>
+        <v>-5.685442160005974e-05</v>
       </c>
       <c r="O78" t="n">
-        <v>-3.842281680098009e-05</v>
+        <v>-3.842281680096372e-05</v>
       </c>
       <c r="P78" t="n">
         <v>1.084368286714039</v>
@@ -17449,10 +17449,10 @@
         <v>1.084368452380952</v>
       </c>
       <c r="W78" t="n">
-        <v>0.0001668512050274914</v>
+        <v>0.0001668512050275015</v>
       </c>
       <c r="X78" t="n">
-        <v>4.634792760407175e-05</v>
+        <v>4.634792760408189e-05</v>
       </c>
       <c r="Y78" t="n">
         <v>1.084397380952381</v>
@@ -17573,16 +17573,16 @@
         <v>45317.451875</v>
       </c>
       <c r="BM78" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN78" t="b">
         <v>1</v>
       </c>
       <c r="BO78" t="n">
-        <v>14.66</v>
+        <v>43.97</v>
       </c>
       <c r="BP78" t="n">
-        <v>2568.900000000001</v>
+        <v>6307.079999999999</v>
       </c>
       <c r="BQ78" t="inlineStr"/>
       <c r="BR78" t="n">
@@ -17633,16 +17633,16 @@
         <v>1.084149031485052</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.0002924405146451338</v>
+        <v>-0.0002924405146451227</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.0003596252865616362</v>
+        <v>-0.000359625286561625</v>
       </c>
       <c r="N79" t="n">
-        <v>-9.838876115918767e-05</v>
+        <v>-9.838876115916913e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0001380349531237681</v>
+        <v>-0.0001380349531237495</v>
       </c>
       <c r="P79" t="n">
         <v>1.083807963603524</v>
@@ -17687,10 +17687,10 @@
         <v>1.084967306848545</v>
       </c>
       <c r="AD79" t="n">
-        <v>-0.0001376906105274169</v>
+        <v>-0.000137690610527427</v>
       </c>
       <c r="AE79" t="n">
-        <v>-3.358675051104162e-05</v>
+        <v>-3.358675051105176e-05</v>
       </c>
       <c r="AF79" t="n">
         <v>1.083287097288879</v>
@@ -17792,16 +17792,16 @@
         <v>45320.00349537037</v>
       </c>
       <c r="BM79" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN79" t="b">
         <v>1</v>
       </c>
       <c r="BO79" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP79" t="n">
-        <v>2583.56</v>
+        <v>6351.069999999999</v>
       </c>
       <c r="BQ79" t="inlineStr"/>
       <c r="BR79" t="n">
@@ -17852,16 +17852,16 @@
         <v>1.082286779532044</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0004466859528581979</v>
+        <v>0.0004466859528582201</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0003909663768079895</v>
+        <v>0.0003909663768080117</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.0003297433527697997</v>
+        <v>-0.0003297433527697774</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.0002110678364731794</v>
+        <v>-0.0002110678364731572</v>
       </c>
       <c r="P80" t="n">
         <v>1.08166031358037</v>
@@ -17885,10 +17885,10 @@
         <v>1.0830575</v>
       </c>
       <c r="W80" t="n">
-        <v>-0.0007159414236435653</v>
+        <v>-0.0007159414236435526</v>
       </c>
       <c r="X80" t="n">
-        <v>-0.0001974063047646891</v>
+        <v>-0.0001974063047646764</v>
       </c>
       <c r="Y80" t="n">
         <v>1.083722023809523</v>
@@ -18013,16 +18013,16 @@
         <v>45320.47018518519</v>
       </c>
       <c r="BM80" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN80" t="b">
         <v>1</v>
       </c>
       <c r="BO80" t="n">
-        <v>91.62</v>
+        <v>274.95</v>
       </c>
       <c r="BP80" t="n">
-        <v>2675.18</v>
+        <v>6626.019999999999</v>
       </c>
       <c r="BQ80" t="inlineStr"/>
       <c r="BR80" t="n">
@@ -18073,16 +18073,16 @@
         <v>1.085855047134534</v>
       </c>
       <c r="L81" t="n">
-        <v>0.000510147478706203</v>
+        <v>0.0005101474787062217</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0002255597940001753</v>
+        <v>0.0002255597940001938</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0004162866921833151</v>
+        <v>0.0004162866921833251</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0003073049455700355</v>
+        <v>0.0003073049455700456</v>
       </c>
       <c r="P81" t="n">
         <v>1.083388095812372</v>
@@ -18232,16 +18232,16 @@
         <v>45317.64806712963</v>
       </c>
       <c r="BM81" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN81" t="b">
         <v>1</v>
       </c>
       <c r="BO81" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP81" t="n">
-        <v>2689.84</v>
+        <v>6670.009999999998</v>
       </c>
       <c r="BQ81" t="inlineStr"/>
       <c r="BR81" t="n">
@@ -18292,16 +18292,16 @@
         <v>1.086950433126484</v>
       </c>
       <c r="L82" t="n">
-        <v>1.341841110362991e-05</v>
+        <v>1.341841110365216e-05</v>
       </c>
       <c r="M82" t="n">
-        <v>-5.56003334734509e-05</v>
+        <v>-5.560033347342865e-05</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0001062210418154794</v>
+        <v>0.000106221041815498</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0001477674285609826</v>
+        <v>0.0001477674285610011</v>
       </c>
       <c r="P82" t="n">
         <v>1.085523317694237</v>
@@ -18346,10 +18346,10 @@
         <v>1.088540314171624</v>
       </c>
       <c r="AD82" t="n">
-        <v>-1.931777360131826e-05</v>
+        <v>-1.931777360130813e-05</v>
       </c>
       <c r="AE82" t="n">
-        <v>-0.000211781585088158</v>
+        <v>-0.0002117815850881479</v>
       </c>
       <c r="AF82" t="n">
         <v>1.086497449357267</v>
@@ -18451,16 +18451,16 @@
         <v>45322.71143518519</v>
       </c>
       <c r="BM82" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN82" t="b">
         <v>1</v>
       </c>
       <c r="BO82" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP82" t="n">
-        <v>2704.5</v>
+        <v>6713.999999999998</v>
       </c>
       <c r="BQ82" t="inlineStr"/>
       <c r="BR82" t="n">
@@ -18511,16 +18511,16 @@
         <v>1.086849990307265</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.0001132972256291768</v>
+        <v>-0.0001132972256291619</v>
       </c>
       <c r="M83" t="n">
-        <v>5.980674361389748e-05</v>
+        <v>5.98067436139123e-05</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0001020094894602029</v>
+        <v>0.0001020094894602214</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0001293109763268944</v>
+        <v>0.0001293109763269129</v>
       </c>
       <c r="P83" t="n">
         <v>1.085831639514052</v>
@@ -18565,10 +18565,10 @@
         <v>1.088540314171624</v>
       </c>
       <c r="AD83" t="n">
-        <v>-1.931777360131826e-05</v>
+        <v>-1.931777360130813e-05</v>
       </c>
       <c r="AE83" t="n">
-        <v>-0.000211781585088158</v>
+        <v>-0.0002117815850881479</v>
       </c>
       <c r="AF83" t="n">
         <v>1.086497449357267</v>
@@ -18670,16 +18670,16 @@
         <v>45322.70023148148</v>
       </c>
       <c r="BM83" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN83" t="b">
         <v>1</v>
       </c>
       <c r="BO83" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP83" t="n">
-        <v>2719.16</v>
+        <v>6757.989999999998</v>
       </c>
       <c r="BQ83" t="inlineStr"/>
       <c r="BR83" t="n">
@@ -18730,16 +18730,16 @@
         <v>1.086048730509265</v>
       </c>
       <c r="L84" t="n">
-        <v>5.105058764825697e-05</v>
+        <v>5.10505876482596e-05</v>
       </c>
       <c r="M84" t="n">
-        <v>3.721831789101097e-05</v>
+        <v>3.72183178910136e-05</v>
       </c>
       <c r="N84" t="n">
-        <v>2.807409927074805e-06</v>
+        <v>2.807409927085931e-06</v>
       </c>
       <c r="O84" t="n">
-        <v>6.423015288197401e-05</v>
+        <v>6.423015288198515e-05</v>
       </c>
       <c r="P84" t="n">
         <v>1.085346591196924</v>
@@ -18763,10 +18763,10 @@
         <v>1.085907142857143</v>
       </c>
       <c r="W84" t="n">
-        <v>-3.659905441116271e-05</v>
+        <v>-3.659905441117789e-05</v>
       </c>
       <c r="X84" t="n">
-        <v>-0.0002392706821506122</v>
+        <v>-0.0002392706821506273</v>
       </c>
       <c r="Y84" t="n">
         <v>1.08609880952381</v>
@@ -18889,16 +18889,16 @@
         <v>45322.72554398148</v>
       </c>
       <c r="BM84" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="BN84" t="b">
         <v>1</v>
       </c>
       <c r="BO84" t="n">
-        <v>14.66</v>
+        <v>43.99</v>
       </c>
       <c r="BP84" t="n">
-        <v>2733.82</v>
+        <v>6801.979999999998</v>
       </c>
       <c r="BQ84" t="inlineStr"/>
       <c r="BR84" t="n">

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU84"/>
+  <dimension ref="A1:BS83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,70 +730,60 @@
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>time_updated</t>
+          <t>sl_updated</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>sl_updated</t>
+          <t>time_to_trail</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>time_to_trail</t>
+          <t>time_tp_hit</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>time_tp_hit</t>
+          <t>time_sl_hit</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>time_sl_hit</t>
+          <t>lot_size</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>lot_size</t>
+          <t>success</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>profit</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>profit</t>
+          <t>account_balance</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>account_balance</t>
+          <t>win_streak</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>position_close_time</t>
+          <t>losing_streak</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>win_streak</t>
+          <t>Week</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>losing_streak</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -966,49 +956,45 @@
         <v>1.10068</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.10068</v>
+        <v>1.09988</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.10048</v>
-      </c>
-      <c r="BH2" s="2" t="n">
-        <v>45293.51041666666</v>
-      </c>
-      <c r="BI2" t="b">
-        <v>1</v>
+        <v>1.09948</v>
+      </c>
+      <c r="BH2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>45293.55208333334</v>
       </c>
       <c r="BJ2" s="2" t="n">
-        <v>45293.51041666666</v>
+        <v>45293.59641203703</v>
       </c>
       <c r="BK2" s="2" t="n">
-        <v>45293.59641203703</v>
-      </c>
-      <c r="BL2" s="2" t="n">
         <v>45293.5234837963</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BL2" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN2" t="b">
-        <v>1</v>
+      <c r="BM2" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO2" t="n">
-        <v>43.97</v>
+        <v>744.05</v>
       </c>
       <c r="BP2" t="n">
-        <v>743.97</v>
-      </c>
-      <c r="BQ2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
       <c r="BR2" t="n">
         <v>1</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,50 +1162,48 @@
         <v>1.09692</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.10112</v>
+        <v>1.09872</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.10112</v>
+        <v>1.09792</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.10092</v>
-      </c>
-      <c r="BH3" s="2" t="n">
-        <v>45293.51041666666</v>
-      </c>
-      <c r="BI3" t="b">
-        <v>1</v>
+        <v>1.096920000000001</v>
+      </c>
+      <c r="BH3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>45293.58333333334</v>
       </c>
       <c r="BJ3" s="2" t="n">
-        <v>45293.51041666666</v>
+        <v>45293.57409722222</v>
       </c>
       <c r="BK3" s="2" t="n">
-        <v>45293.57409722222</v>
-      </c>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="n">
+        <v>45296.70958333334</v>
+      </c>
+      <c r="BL3" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN3" t="b">
-        <v>1</v>
+      <c r="BM3" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>275.3</v>
       </c>
       <c r="BO3" t="n">
-        <v>274.83</v>
+        <v>1019.35</v>
       </c>
       <c r="BP3" t="n">
-        <v>1018.8</v>
-      </c>
-      <c r="BQ3" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
       <c r="BR3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1390,49 +1374,45 @@
         <v>1.10067</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.10067</v>
+        <v>1.09987</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.10047</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>45293.51041666666</v>
-      </c>
-      <c r="BI4" t="b">
-        <v>1</v>
+        <v>1.09947</v>
+      </c>
+      <c r="BH4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI4" s="2" t="n">
+        <v>45293.55208333334</v>
       </c>
       <c r="BJ4" s="2" t="n">
-        <v>45293.51041666666</v>
+        <v>45293.5971875</v>
       </c>
       <c r="BK4" s="2" t="n">
-        <v>45293.5971875</v>
-      </c>
-      <c r="BL4" s="2" t="n">
         <v>45293.52337962963</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BL4" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN4" t="b">
-        <v>1</v>
+      <c r="BM4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO4" t="n">
-        <v>43.97</v>
+        <v>1063.4</v>
       </c>
       <c r="BP4" t="n">
-        <v>1062.77</v>
-      </c>
-      <c r="BQ4" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>0</v>
+      </c>
       <c r="BR4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,49 +1583,45 @@
         <v>1.09915</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.09915</v>
+        <v>1.09835</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.09895</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>45293.55208333334</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>1</v>
+        <v>1.09795</v>
+      </c>
+      <c r="BH5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>45293.57291666666</v>
       </c>
       <c r="BJ5" s="2" t="n">
-        <v>45293.55208333334</v>
+        <v>45293.66476851852</v>
       </c>
       <c r="BK5" s="2" t="n">
-        <v>45293.66476851852</v>
-      </c>
-      <c r="BL5" s="2" t="n">
         <v>45293.55274305555</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BL5" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN5" t="b">
-        <v>1</v>
+      <c r="BM5" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO5" t="n">
-        <v>43.97</v>
+        <v>1107.45</v>
       </c>
       <c r="BP5" t="n">
-        <v>1106.74</v>
-      </c>
-      <c r="BQ5" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
       <c r="BR5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,47 +1798,41 @@
         <v>1.08999</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.08999</v>
+        <v>1.08919</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.08979</v>
-      </c>
-      <c r="BH6" s="2" t="n">
-        <v>45294.88541666666</v>
-      </c>
-      <c r="BI6" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ6" s="2" t="n">
-        <v>45294.88541666666</v>
-      </c>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" s="2" t="n">
+        <v>1.08879</v>
+      </c>
+      <c r="BH6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="inlineStr"/>
+      <c r="BJ6" t="inlineStr"/>
+      <c r="BK6" s="2" t="n">
         <v>45294.88635416667</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BL6" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN6" t="b">
-        <v>1</v>
+      <c r="BM6" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO6" t="n">
-        <v>43.97</v>
+        <v>1151.5</v>
       </c>
       <c r="BP6" t="n">
-        <v>1150.71</v>
-      </c>
-      <c r="BQ6" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
       <c r="BR6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,59 +1999,53 @@
       </c>
       <c r="BC7" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD7" t="n">
         <v>1.09013</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.09433</v>
+        <v>1.09193</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.09433</v>
+        <v>1.09113</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.09413</v>
-      </c>
-      <c r="BH7" s="2" t="n">
-        <v>45296.22916666666</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>1</v>
-      </c>
+        <v>1.09013</v>
+      </c>
+      <c r="BH7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI7" t="inlineStr"/>
       <c r="BJ7" s="2" t="n">
-        <v>45296.22916666666</v>
+        <v>45296.64585648148</v>
       </c>
       <c r="BK7" s="2" t="n">
-        <v>45296.64585648148</v>
-      </c>
-      <c r="BL7" s="2" t="n">
-        <v>45296.67912037037</v>
-      </c>
-      <c r="BM7" t="n">
+        <v>45296.47329861111</v>
+      </c>
+      <c r="BL7" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN7" t="b">
-        <v>1</v>
+      <c r="BM7" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>176.2</v>
       </c>
       <c r="BO7" t="n">
-        <v>274.83</v>
+        <v>1327.7</v>
       </c>
       <c r="BP7" t="n">
-        <v>1425.54</v>
-      </c>
-      <c r="BQ7" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>0</v>
+      </c>
       <c r="BR7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2248,59 +2212,53 @@
       </c>
       <c r="BC8" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD8" t="n">
         <v>1.0901</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.0943</v>
+        <v>1.0919</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.0943</v>
+        <v>1.0911</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.0941</v>
-      </c>
-      <c r="BH8" s="2" t="n">
-        <v>45296.22916666666</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>1</v>
-      </c>
+        <v>1.090100000000001</v>
+      </c>
+      <c r="BH8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="inlineStr"/>
       <c r="BJ8" s="2" t="n">
-        <v>45296.22916666666</v>
+        <v>45296.64585648148</v>
       </c>
       <c r="BK8" s="2" t="n">
-        <v>45296.64585648148</v>
-      </c>
-      <c r="BL8" s="2" t="n">
-        <v>45296.67912037037</v>
-      </c>
-      <c r="BM8" t="n">
+        <v>45296.47327546297</v>
+      </c>
+      <c r="BL8" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN8" t="b">
-        <v>1</v>
+      <c r="BM8" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>176.2</v>
       </c>
       <c r="BO8" t="n">
-        <v>274.83</v>
+        <v>1503.9</v>
       </c>
       <c r="BP8" t="n">
-        <v>1700.37</v>
-      </c>
-      <c r="BQ8" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>0</v>
+      </c>
       <c r="BR8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2467,59 +2425,53 @@
       </c>
       <c r="BC9" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD9" t="n">
         <v>1.09015</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.09435</v>
+        <v>1.09195</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.09435</v>
+        <v>1.091150000000001</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.09415</v>
-      </c>
-      <c r="BH9" s="2" t="n">
-        <v>45296.22916666666</v>
-      </c>
-      <c r="BI9" t="b">
-        <v>1</v>
-      </c>
+        <v>1.090150000000001</v>
+      </c>
+      <c r="BH9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI9" t="inlineStr"/>
       <c r="BJ9" s="2" t="n">
-        <v>45296.22916666666</v>
+        <v>45296.64585648148</v>
       </c>
       <c r="BK9" s="2" t="n">
-        <v>45296.64585648148</v>
-      </c>
-      <c r="BL9" s="2" t="n">
-        <v>45296.67916666667</v>
-      </c>
-      <c r="BM9" t="n">
+        <v>45296.47329861111</v>
+      </c>
+      <c r="BL9" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN9" t="b">
-        <v>1</v>
+      <c r="BM9" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>176.2</v>
       </c>
       <c r="BO9" t="n">
-        <v>274.83</v>
+        <v>1680.1</v>
       </c>
       <c r="BP9" t="n">
-        <v>1975.2</v>
-      </c>
-      <c r="BQ9" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>0</v>
+      </c>
       <c r="BR9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,49 +2648,45 @@
         <v>1.09402</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.09402</v>
+        <v>1.09322</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.09382</v>
-      </c>
-      <c r="BH10" s="2" t="n">
-        <v>45296.26041666666</v>
-      </c>
-      <c r="BI10" t="b">
-        <v>1</v>
+        <v>1.09282</v>
+      </c>
+      <c r="BH10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI10" s="2" t="n">
+        <v>45296.35416666666</v>
       </c>
       <c r="BJ10" s="2" t="n">
-        <v>45296.26041666666</v>
+        <v>45296.64585648148</v>
       </c>
       <c r="BK10" s="2" t="n">
-        <v>45296.64585648148</v>
-      </c>
-      <c r="BL10" s="2" t="n">
         <v>45296.27300925926</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BL10" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN10" t="b">
-        <v>1</v>
+      <c r="BM10" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO10" t="n">
-        <v>43.97</v>
+        <v>1724.15</v>
       </c>
       <c r="BP10" t="n">
-        <v>2019.17</v>
-      </c>
-      <c r="BQ10" t="inlineStr"/>
+        <v>9</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
       <c r="BR10" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2905,59 +2853,55 @@
       </c>
       <c r="BC11" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD11" t="n">
         <v>1.08962</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.09382</v>
+        <v>1.09302</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.09382</v>
+        <v>1.09222</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.09362</v>
-      </c>
-      <c r="BH11" s="2" t="n">
-        <v>45296.30208333334</v>
-      </c>
-      <c r="BI11" t="b">
-        <v>1</v>
+        <v>1.09162</v>
+      </c>
+      <c r="BH11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI11" s="2" t="n">
+        <v>45296.44791666666</v>
       </c>
       <c r="BJ11" s="2" t="n">
-        <v>45296.30208333334</v>
+        <v>45296.64586805556</v>
       </c>
       <c r="BK11" s="2" t="n">
-        <v>45296.64586805556</v>
-      </c>
-      <c r="BL11" s="2" t="n">
-        <v>45296.67077546296</v>
-      </c>
-      <c r="BM11" t="n">
+        <v>45296.38440972222</v>
+      </c>
+      <c r="BL11" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN11" t="b">
-        <v>1</v>
+      <c r="BM11" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO11" t="n">
-        <v>274.83</v>
+        <v>1812.25</v>
       </c>
       <c r="BP11" t="n">
-        <v>2294</v>
-      </c>
-      <c r="BQ11" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>0</v>
+      </c>
       <c r="BR11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3124,59 +3068,53 @@
       </c>
       <c r="BC12" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD12" t="n">
         <v>1.08931</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.09351</v>
+        <v>1.09191</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.09351</v>
+        <v>1.09111</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.09331</v>
-      </c>
-      <c r="BH12" s="2" t="n">
-        <v>45296.34375</v>
-      </c>
-      <c r="BI12" t="b">
-        <v>1</v>
-      </c>
+        <v>1.090310000000001</v>
+      </c>
+      <c r="BH12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI12" t="inlineStr"/>
       <c r="BJ12" s="2" t="n">
-        <v>45296.34375</v>
+        <v>45296.64589120371</v>
       </c>
       <c r="BK12" s="2" t="n">
-        <v>45296.64589120371</v>
-      </c>
-      <c r="BL12" s="2" t="n">
-        <v>45296.67059027778</v>
-      </c>
-      <c r="BM12" t="n">
+        <v>45296.47327546297</v>
+      </c>
+      <c r="BL12" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN12" t="b">
-        <v>1</v>
+      <c r="BM12" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>132.15</v>
       </c>
       <c r="BO12" t="n">
-        <v>274.83</v>
+        <v>1944.4</v>
       </c>
       <c r="BP12" t="n">
-        <v>2568.83</v>
-      </c>
-      <c r="BQ12" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>0</v>
+      </c>
       <c r="BR12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,49 +3291,45 @@
         <v>1.09322</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.09322</v>
+        <v>1.09242</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.09302</v>
-      </c>
-      <c r="BH13" s="2" t="n">
-        <v>45296.35416666666</v>
-      </c>
-      <c r="BI13" t="b">
-        <v>1</v>
+        <v>1.09202</v>
+      </c>
+      <c r="BH13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI13" s="2" t="n">
+        <v>45296.4375</v>
       </c>
       <c r="BJ13" s="2" t="n">
-        <v>45296.35416666666</v>
+        <v>45296.64594907407</v>
       </c>
       <c r="BK13" s="2" t="n">
-        <v>45296.64594907407</v>
-      </c>
-      <c r="BL13" s="2" t="n">
         <v>45296.39158564815</v>
       </c>
-      <c r="BM13" t="n">
+      <c r="BL13" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN13" t="b">
-        <v>1</v>
+      <c r="BM13" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO13" t="n">
-        <v>43.97</v>
+        <v>1988.45</v>
       </c>
       <c r="BP13" t="n">
-        <v>2612.8</v>
-      </c>
-      <c r="BQ13" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
       <c r="BR13" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3515,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.093998431599321</v>
+        <v>1.09399843159932</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
@@ -3574,47 +3508,45 @@
         <v>1.09461</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.09461</v>
+        <v>1.09541</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.09481</v>
-      </c>
-      <c r="BH14" s="2" t="n">
-        <v>45299.13541666666</v>
-      </c>
-      <c r="BI14" t="b">
-        <v>1</v>
+        <v>1.09581</v>
+      </c>
+      <c r="BH14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI14" s="2" t="n">
+        <v>45299.70833333334</v>
       </c>
       <c r="BJ14" s="2" t="n">
-        <v>45299.13541666666</v>
-      </c>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" s="2" t="n">
+        <v>45302.61628472222</v>
+      </c>
+      <c r="BK14" s="2" t="n">
         <v>45299.16766203703</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BL14" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN14" t="b">
-        <v>1</v>
+      <c r="BM14" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO14" t="n">
-        <v>43.99</v>
+        <v>2032.54</v>
       </c>
       <c r="BP14" t="n">
-        <v>2656.79</v>
-      </c>
-      <c r="BQ14" t="inlineStr"/>
+        <v>13</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
       <c r="BR14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3734,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.093998431599321</v>
+        <v>1.09399843159932</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
@@ -3793,47 +3725,45 @@
         <v>1.09464</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.09464</v>
+        <v>1.09544</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.09484</v>
-      </c>
-      <c r="BH15" s="2" t="n">
-        <v>45299.13541666666</v>
-      </c>
-      <c r="BI15" t="b">
-        <v>1</v>
+        <v>1.09584</v>
+      </c>
+      <c r="BH15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI15" s="2" t="n">
+        <v>45299.70833333334</v>
       </c>
       <c r="BJ15" s="2" t="n">
-        <v>45299.13541666666</v>
-      </c>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" s="2" t="n">
+        <v>45302.61855324074</v>
+      </c>
+      <c r="BK15" s="2" t="n">
         <v>45299.16766203703</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BL15" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN15" t="b">
-        <v>1</v>
+      <c r="BM15" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO15" t="n">
-        <v>43.99</v>
+        <v>2076.63</v>
       </c>
       <c r="BP15" t="n">
-        <v>2700.779999999999</v>
-      </c>
-      <c r="BQ15" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
       <c r="BR15" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.093998431599321</v>
+        <v>1.09399843159932</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
@@ -4012,47 +3942,43 @@
         <v>1.09482</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.09482</v>
+        <v>1.09562</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.09502</v>
-      </c>
-      <c r="BH16" s="2" t="n">
-        <v>45299.15625</v>
-      </c>
-      <c r="BI16" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ16" s="2" t="n">
-        <v>45299.15625</v>
-      </c>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" s="2" t="n">
+        <v>1.09602</v>
+      </c>
+      <c r="BH16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI16" s="2" t="n">
+        <v>45299.71875</v>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" s="2" t="n">
         <v>45299.16256944444</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BL16" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN16" t="b">
-        <v>1</v>
+      <c r="BM16" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO16" t="n">
-        <v>43.99</v>
+        <v>2120.72</v>
       </c>
       <c r="BP16" t="n">
-        <v>2744.769999999999</v>
-      </c>
-      <c r="BQ16" t="inlineStr"/>
+        <v>15</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
       <c r="BR16" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="BS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,50 +4154,46 @@
         <v>1.0993</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.0951</v>
+        <v>1.0967</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.0951</v>
+        <v>1.0975</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.0953</v>
-      </c>
-      <c r="BH17" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BI17" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" s="2" t="n">
-        <v>45299.86118055556</v>
-      </c>
-      <c r="BM17" t="n">
+        <v>1.0983</v>
+      </c>
+      <c r="BH17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI17" s="2" t="n">
+        <v>45302.36458333334</v>
+      </c>
+      <c r="BJ17" t="inlineStr"/>
+      <c r="BK17" s="2" t="n">
+        <v>45299.80826388889</v>
+      </c>
+      <c r="BL17" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN17" t="b">
-        <v>1</v>
+      <c r="BM17" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>132.27</v>
       </c>
       <c r="BO17" t="n">
-        <v>43.99</v>
+        <v>2252.99</v>
       </c>
       <c r="BP17" t="n">
-        <v>2788.759999999999</v>
-      </c>
-      <c r="BQ17" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
       <c r="BR17" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="BS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT17" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4447,50 +4369,46 @@
         <v>1.09932</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.09512</v>
+        <v>1.09672</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.09512</v>
+        <v>1.09752</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.09532</v>
-      </c>
-      <c r="BH18" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BI18" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ18" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" s="2" t="n">
-        <v>45299.86111111111</v>
-      </c>
-      <c r="BM18" t="n">
+        <v>1.09832</v>
+      </c>
+      <c r="BH18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI18" s="2" t="n">
+        <v>45302.36458333334</v>
+      </c>
+      <c r="BJ18" t="inlineStr"/>
+      <c r="BK18" s="2" t="n">
+        <v>45299.80741898148</v>
+      </c>
+      <c r="BL18" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN18" t="b">
-        <v>1</v>
+      <c r="BM18" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>132.27</v>
       </c>
       <c r="BO18" t="n">
-        <v>43.99</v>
+        <v>2385.26</v>
       </c>
       <c r="BP18" t="n">
-        <v>2832.749999999999</v>
-      </c>
-      <c r="BQ18" t="inlineStr"/>
+        <v>17</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
       <c r="BR18" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4669,47 +4587,43 @@
         <v>1.09538</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.09538</v>
+        <v>1.09618</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.09558</v>
-      </c>
-      <c r="BH19" s="2" t="n">
-        <v>45299.69791666666</v>
-      </c>
-      <c r="BI19" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="2" t="n">
-        <v>45299.69791666666</v>
-      </c>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" s="2" t="n">
+        <v>1.09658</v>
+      </c>
+      <c r="BH19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI19" s="2" t="n">
+        <v>45299.72916666666</v>
+      </c>
+      <c r="BJ19" t="inlineStr"/>
+      <c r="BK19" s="2" t="n">
         <v>45299.70575231482</v>
       </c>
-      <c r="BM19" t="n">
+      <c r="BL19" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN19" t="b">
-        <v>1</v>
+      <c r="BM19" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO19" t="n">
-        <v>43.99</v>
+        <v>2429.35</v>
       </c>
       <c r="BP19" t="n">
-        <v>2876.739999999998</v>
-      </c>
-      <c r="BQ19" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
       <c r="BR19" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="BS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4888,47 +4802,45 @@
         <v>1.09434</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.09434</v>
+        <v>1.09514</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.09454</v>
-      </c>
-      <c r="BH20" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BI20" t="b">
-        <v>1</v>
+        <v>1.09554</v>
+      </c>
+      <c r="BH20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI20" s="2" t="n">
+        <v>45299.69791666666</v>
       </c>
       <c r="BJ20" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" s="2" t="n">
+        <v>45302.3556712963</v>
+      </c>
+      <c r="BK20" s="2" t="n">
         <v>45299.39787037037</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BL20" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN20" t="b">
-        <v>1</v>
+      <c r="BM20" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO20" t="n">
-        <v>43.99</v>
+        <v>2473.44</v>
       </c>
       <c r="BP20" t="n">
-        <v>2920.729999999998</v>
-      </c>
-      <c r="BQ20" t="inlineStr"/>
+        <v>19</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
       <c r="BR20" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="BS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT20" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5107,47 +5019,45 @@
         <v>1.09435</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.09435</v>
+        <v>1.09515</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.09455</v>
-      </c>
-      <c r="BH21" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BI21" t="b">
-        <v>1</v>
+        <v>1.09555</v>
+      </c>
+      <c r="BH21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI21" s="2" t="n">
+        <v>45299.69791666666</v>
       </c>
       <c r="BJ21" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" s="2" t="n">
+        <v>45302.3556712963</v>
+      </c>
+      <c r="BK21" s="2" t="n">
         <v>45299.3978587963</v>
       </c>
-      <c r="BM21" t="n">
+      <c r="BL21" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN21" t="b">
-        <v>1</v>
+      <c r="BM21" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO21" t="n">
-        <v>43.99</v>
+        <v>2517.53</v>
       </c>
       <c r="BP21" t="n">
-        <v>2964.719999999998</v>
-      </c>
-      <c r="BQ21" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
       <c r="BR21" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5326,47 +5236,45 @@
         <v>1.09429</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.09429</v>
+        <v>1.09509</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.09449</v>
-      </c>
-      <c r="BH22" s="2" t="n">
-        <v>45299.375</v>
-      </c>
-      <c r="BI22" t="b">
-        <v>1</v>
+        <v>1.09549</v>
+      </c>
+      <c r="BH22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI22" s="2" t="n">
+        <v>45299.67708333334</v>
       </c>
       <c r="BJ22" s="2" t="n">
-        <v>45299.375</v>
-      </c>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" s="2" t="n">
+        <v>45302.35530092593</v>
+      </c>
+      <c r="BK22" s="2" t="n">
         <v>45299.37511574074</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BL22" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN22" t="b">
-        <v>1</v>
+      <c r="BM22" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO22" t="n">
-        <v>43.99</v>
+        <v>2561.62</v>
       </c>
       <c r="BP22" t="n">
-        <v>3008.709999999998</v>
-      </c>
-      <c r="BQ22" t="inlineStr"/>
+        <v>21</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>0</v>
+      </c>
       <c r="BR22" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,47 +5453,45 @@
         <v>1.09433</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.09433</v>
+        <v>1.09513</v>
       </c>
       <c r="BG23" t="n">
-        <v>1.09453</v>
-      </c>
-      <c r="BH23" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BI23" t="b">
-        <v>1</v>
+        <v>1.09553</v>
+      </c>
+      <c r="BH23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI23" s="2" t="n">
+        <v>45299.67708333334</v>
       </c>
       <c r="BJ23" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" s="2" t="n">
+        <v>45302.3556712963</v>
+      </c>
+      <c r="BK23" s="2" t="n">
         <v>45299.39787037037</v>
       </c>
-      <c r="BM23" t="n">
+      <c r="BL23" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN23" t="b">
-        <v>1</v>
+      <c r="BM23" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO23" t="n">
-        <v>43.99</v>
+        <v>2605.71</v>
       </c>
       <c r="BP23" t="n">
-        <v>3052.699999999998</v>
-      </c>
-      <c r="BQ23" t="inlineStr"/>
+        <v>22</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>0</v>
+      </c>
       <c r="BR23" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5764,47 +5670,45 @@
         <v>1.09447</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.09447</v>
+        <v>1.09527</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.09467</v>
-      </c>
-      <c r="BH24" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BI24" t="b">
-        <v>1</v>
+        <v>1.09567</v>
+      </c>
+      <c r="BH24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI24" s="2" t="n">
+        <v>45299.70833333334</v>
       </c>
       <c r="BJ24" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" s="2" t="n">
+        <v>45302.35850694445</v>
+      </c>
+      <c r="BK24" s="2" t="n">
         <v>45299.38880787037</v>
       </c>
-      <c r="BM24" t="n">
+      <c r="BL24" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN24" t="b">
-        <v>1</v>
+      <c r="BM24" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO24" t="n">
-        <v>43.99</v>
+        <v>2649.800000000001</v>
       </c>
       <c r="BP24" t="n">
-        <v>3096.689999999997</v>
-      </c>
-      <c r="BQ24" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>0</v>
+      </c>
       <c r="BR24" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="BS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT24" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5983,47 +5887,45 @@
         <v>1.09476</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.09476</v>
+        <v>1.09556</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.09496</v>
-      </c>
-      <c r="BH25" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>1</v>
+        <v>1.09596</v>
+      </c>
+      <c r="BH25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI25" s="2" t="n">
+        <v>45299.70833333334</v>
       </c>
       <c r="BJ25" s="2" t="n">
-        <v>45299.38541666666</v>
-      </c>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" s="2" t="n">
+        <v>45302.62030092593</v>
+      </c>
+      <c r="BK25" s="2" t="n">
         <v>45299.3868287037</v>
       </c>
-      <c r="BM25" t="n">
+      <c r="BL25" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN25" t="b">
-        <v>1</v>
+      <c r="BM25" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO25" t="n">
-        <v>43.99</v>
+        <v>2693.890000000001</v>
       </c>
       <c r="BP25" t="n">
-        <v>3140.679999999997</v>
-      </c>
-      <c r="BQ25" t="inlineStr"/>
+        <v>24</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>0</v>
+      </c>
       <c r="BR25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="BS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6199,50 +6101,46 @@
         <v>1.09926</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.09506</v>
+        <v>1.09666</v>
       </c>
       <c r="BF26" t="n">
-        <v>1.09506</v>
+        <v>1.09746</v>
       </c>
       <c r="BG26" t="n">
-        <v>1.09526</v>
-      </c>
-      <c r="BH26" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BI26" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ26" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" s="2" t="n">
-        <v>45299.86123842592</v>
-      </c>
-      <c r="BM26" t="n">
+        <v>1.09826</v>
+      </c>
+      <c r="BH26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI26" s="2" t="n">
+        <v>45302.35416666666</v>
+      </c>
+      <c r="BJ26" t="inlineStr"/>
+      <c r="BK26" s="2" t="n">
+        <v>45299.81137731481</v>
+      </c>
+      <c r="BL26" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN26" t="b">
-        <v>1</v>
+      <c r="BM26" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>132.28</v>
       </c>
       <c r="BO26" t="n">
-        <v>43.99</v>
+        <v>2826.170000000001</v>
       </c>
       <c r="BP26" t="n">
-        <v>3184.669999999997</v>
-      </c>
-      <c r="BQ26" t="inlineStr"/>
+        <v>25</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
       <c r="BR26" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="BS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT26" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6421,47 +6319,43 @@
         <v>1.09531</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.09531</v>
+        <v>1.09611</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.09551</v>
-      </c>
-      <c r="BH27" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BI27" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="2" t="n">
-        <v>45299.67708333334</v>
-      </c>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" s="2" t="n">
+        <v>1.09651</v>
+      </c>
+      <c r="BH27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI27" s="2" t="n">
+        <v>45299.72916666666</v>
+      </c>
+      <c r="BJ27" t="inlineStr"/>
+      <c r="BK27" s="2" t="n">
         <v>45299.70601851852</v>
       </c>
-      <c r="BM27" t="n">
+      <c r="BL27" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN27" t="b">
-        <v>1</v>
+      <c r="BM27" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO27" t="n">
-        <v>43.99</v>
+        <v>2870.260000000001</v>
       </c>
       <c r="BP27" t="n">
-        <v>3228.659999999997</v>
-      </c>
-      <c r="BQ27" t="inlineStr"/>
+        <v>26</v>
+      </c>
+      <c r="BQ27" t="n">
+        <v>0</v>
+      </c>
       <c r="BR27" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="BS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT27" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6640,47 +6534,43 @@
         <v>1.09612</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.09612</v>
+        <v>1.09692</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.09632</v>
-      </c>
-      <c r="BH28" s="2" t="n">
-        <v>45300.23958333334</v>
-      </c>
-      <c r="BI28" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ28" s="2" t="n">
-        <v>45300.23958333334</v>
-      </c>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" s="2" t="n">
+        <v>1.09732</v>
+      </c>
+      <c r="BH28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI28" s="2" t="n">
+        <v>45302.08333333334</v>
+      </c>
+      <c r="BJ28" t="inlineStr"/>
+      <c r="BK28" s="2" t="n">
         <v>45300.24388888889</v>
       </c>
-      <c r="BM28" t="n">
+      <c r="BL28" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN28" t="b">
-        <v>1</v>
+      <c r="BM28" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO28" t="n">
-        <v>43.99</v>
+        <v>2914.350000000001</v>
       </c>
       <c r="BP28" t="n">
-        <v>3272.649999999996</v>
-      </c>
-      <c r="BQ28" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
       <c r="BR28" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="BS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT28" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6859,47 +6749,43 @@
         <v>1.09621</v>
       </c>
       <c r="BF29" t="n">
-        <v>1.09621</v>
+        <v>1.09701</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.09641</v>
-      </c>
-      <c r="BH29" s="2" t="n">
-        <v>45301.75</v>
-      </c>
-      <c r="BI29" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ29" s="2" t="n">
-        <v>45301.75</v>
-      </c>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" s="2" t="n">
+        <v>1.09741</v>
+      </c>
+      <c r="BH29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI29" s="2" t="n">
+        <v>45302.10416666666</v>
+      </c>
+      <c r="BJ29" t="inlineStr"/>
+      <c r="BK29" s="2" t="n">
         <v>45301.75846064815</v>
       </c>
-      <c r="BM29" t="n">
+      <c r="BL29" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN29" t="b">
-        <v>1</v>
+      <c r="BM29" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO29" t="n">
-        <v>43.99</v>
+        <v>2958.440000000001</v>
       </c>
       <c r="BP29" t="n">
-        <v>3316.639999999996</v>
-      </c>
-      <c r="BQ29" t="inlineStr"/>
+        <v>28</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>0</v>
+      </c>
       <c r="BR29" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="BS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,47 +6964,43 @@
         <v>1.09629</v>
       </c>
       <c r="BF30" t="n">
-        <v>1.09629</v>
+        <v>1.09709</v>
       </c>
       <c r="BG30" t="n">
-        <v>1.09649</v>
-      </c>
-      <c r="BH30" s="2" t="n">
-        <v>45301.75</v>
-      </c>
-      <c r="BI30" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ30" s="2" t="n">
-        <v>45301.75</v>
-      </c>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" s="2" t="n">
+        <v>1.09749</v>
+      </c>
+      <c r="BH30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI30" s="2" t="n">
+        <v>45302.10416666666</v>
+      </c>
+      <c r="BJ30" t="inlineStr"/>
+      <c r="BK30" s="2" t="n">
         <v>45301.7578587963</v>
       </c>
-      <c r="BM30" t="n">
+      <c r="BL30" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN30" t="b">
-        <v>1</v>
+      <c r="BM30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO30" t="n">
-        <v>43.99</v>
+        <v>3002.530000000002</v>
       </c>
       <c r="BP30" t="n">
-        <v>3360.629999999996</v>
-      </c>
-      <c r="BQ30" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
       <c r="BR30" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="BS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7292,50 +7174,48 @@
         <v>1.08908</v>
       </c>
       <c r="BE31" t="n">
-        <v>1.09328</v>
+        <v>1.09248</v>
       </c>
       <c r="BF31" t="n">
-        <v>1.09328</v>
+        <v>1.09168</v>
       </c>
       <c r="BG31" t="n">
-        <v>1.09308</v>
-      </c>
-      <c r="BH31" s="2" t="n">
-        <v>45300.73958333334</v>
-      </c>
-      <c r="BI31" t="b">
-        <v>1</v>
+        <v>1.09108</v>
+      </c>
+      <c r="BH31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI31" s="2" t="n">
+        <v>45307.44791666666</v>
       </c>
       <c r="BJ31" s="2" t="n">
-        <v>45300.73958333334</v>
-      </c>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" s="2" t="n">
-        <v>45300.78858796296</v>
-      </c>
-      <c r="BM31" t="n">
+        <v>45307.46193287037</v>
+      </c>
+      <c r="BK31" s="2" t="n">
+        <v>45300.76708333333</v>
+      </c>
+      <c r="BL31" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN31" t="b">
-        <v>1</v>
+      <c r="BM31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO31" t="n">
-        <v>43.97</v>
+        <v>3090.630000000001</v>
       </c>
       <c r="BP31" t="n">
-        <v>3404.599999999996</v>
-      </c>
-      <c r="BQ31" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>0</v>
+      </c>
       <c r="BR31" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="BS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7509,50 +7389,48 @@
         <v>1.08864</v>
       </c>
       <c r="BE32" t="n">
-        <v>1.09284</v>
+        <v>1.09204</v>
       </c>
       <c r="BF32" t="n">
-        <v>1.09284</v>
+        <v>1.09124</v>
       </c>
       <c r="BG32" t="n">
-        <v>1.09264</v>
-      </c>
-      <c r="BH32" s="2" t="n">
-        <v>45300.75</v>
-      </c>
-      <c r="BI32" t="b">
-        <v>1</v>
+        <v>1.09064</v>
+      </c>
+      <c r="BH32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI32" s="2" t="n">
+        <v>45307.44791666666</v>
       </c>
       <c r="BJ32" s="2" t="n">
-        <v>45300.75</v>
-      </c>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" s="2" t="n">
-        <v>45300.77583333333</v>
-      </c>
-      <c r="BM32" t="n">
+        <v>45307.48643518519</v>
+      </c>
+      <c r="BK32" s="2" t="n">
+        <v>45300.76428240741</v>
+      </c>
+      <c r="BL32" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN32" t="b">
-        <v>1</v>
+      <c r="BM32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO32" t="n">
-        <v>43.97</v>
+        <v>3178.730000000001</v>
       </c>
       <c r="BP32" t="n">
-        <v>3448.569999999996</v>
-      </c>
-      <c r="BQ32" t="inlineStr"/>
+        <v>31</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>0</v>
+      </c>
       <c r="BR32" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="BS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT32" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7729,47 +7607,45 @@
         <v>1.09199</v>
       </c>
       <c r="BF33" t="n">
-        <v>1.09199</v>
+        <v>1.09119</v>
       </c>
       <c r="BG33" t="n">
-        <v>1.09179</v>
-      </c>
-      <c r="BH33" s="2" t="n">
-        <v>45300.75</v>
-      </c>
-      <c r="BI33" t="b">
-        <v>1</v>
+        <v>1.09079</v>
+      </c>
+      <c r="BH33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI33" s="2" t="n">
+        <v>45307.44791666666</v>
       </c>
       <c r="BJ33" s="2" t="n">
-        <v>45300.75</v>
-      </c>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" s="2" t="n">
+        <v>45307.54368055556</v>
+      </c>
+      <c r="BK33" s="2" t="n">
         <v>45300.75185185186</v>
       </c>
-      <c r="BM33" t="n">
+      <c r="BL33" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN33" t="b">
-        <v>1</v>
+      <c r="BM33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO33" t="n">
-        <v>43.97</v>
+        <v>3222.780000000002</v>
       </c>
       <c r="BP33" t="n">
-        <v>3492.539999999995</v>
-      </c>
-      <c r="BQ33" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>0</v>
+      </c>
       <c r="BR33" t="n">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="BS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT33" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7936,53 +7812,55 @@
       </c>
       <c r="BC34" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD34" t="n">
         <v>1.08672</v>
       </c>
       <c r="BE34" t="n">
-        <v>1.10072</v>
+        <v>1.08852</v>
       </c>
       <c r="BF34" t="n">
-        <v>1.09092</v>
+        <v>1.08772</v>
       </c>
       <c r="BG34" t="n">
-        <v>1.09072</v>
-      </c>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="n">
+        <v>1.086720000000001</v>
+      </c>
+      <c r="BH34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI34" s="2" t="n">
+        <v>45307.80208333334</v>
+      </c>
+      <c r="BJ34" s="2" t="n">
+        <v>45307.70204861111</v>
+      </c>
+      <c r="BK34" s="2" t="n">
+        <v>45307.56126157408</v>
+      </c>
+      <c r="BL34" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN34" t="b">
-        <v>0</v>
+      <c r="BM34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>176.2</v>
       </c>
       <c r="BO34" t="n">
-        <v>0</v>
+        <v>3398.980000000001</v>
       </c>
       <c r="BP34" t="n">
-        <v>3492.539999999995</v>
-      </c>
-      <c r="BQ34" s="2" t="n">
-        <v>45300.86458333334</v>
+        <v>33</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>0</v>
       </c>
       <c r="BR34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BS34" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT34" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8158,52 +8036,48 @@
         <v>1.09824</v>
       </c>
       <c r="BE35" t="n">
-        <v>1.09404</v>
+        <v>1.09484</v>
       </c>
       <c r="BF35" t="n">
-        <v>1.09404</v>
+        <v>1.09564</v>
       </c>
       <c r="BG35" t="n">
-        <v>1.09424</v>
-      </c>
-      <c r="BH35" s="2" t="n">
-        <v>45301.45833333334</v>
-      </c>
-      <c r="BI35" t="b">
-        <v>1</v>
+        <v>1.09624</v>
+      </c>
+      <c r="BH35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI35" s="2" t="n">
+        <v>45301.73958333334</v>
       </c>
       <c r="BJ35" s="2" t="n">
-        <v>45301.45833333334</v>
+        <v>45302.17805555555</v>
       </c>
       <c r="BK35" s="2" t="n">
-        <v>45302.17805555555</v>
-      </c>
-      <c r="BL35" s="2" t="n">
-        <v>45301.66534722222</v>
-      </c>
-      <c r="BM35" t="n">
+        <v>45301.52885416667</v>
+      </c>
+      <c r="BL35" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN35" t="b">
-        <v>1</v>
+      <c r="BM35" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO35" t="n">
-        <v>43.99</v>
+        <v>3487.160000000001</v>
       </c>
       <c r="BP35" t="n">
-        <v>3536.529999999995</v>
-      </c>
-      <c r="BQ35" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="BQ35" t="n">
+        <v>0</v>
+      </c>
       <c r="BR35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT35" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8382,49 +8256,45 @@
         <v>1.09473</v>
       </c>
       <c r="BF36" t="n">
-        <v>1.09473</v>
+        <v>1.09553</v>
       </c>
       <c r="BG36" t="n">
-        <v>1.09493</v>
-      </c>
-      <c r="BH36" s="2" t="n">
-        <v>45301.51041666666</v>
-      </c>
-      <c r="BI36" t="b">
-        <v>1</v>
+        <v>1.09593</v>
+      </c>
+      <c r="BH36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI36" s="2" t="n">
+        <v>45301.73958333334</v>
       </c>
       <c r="BJ36" s="2" t="n">
-        <v>45301.51041666666</v>
+        <v>45302.62030092593</v>
       </c>
       <c r="BK36" s="2" t="n">
-        <v>45302.62030092593</v>
-      </c>
-      <c r="BL36" s="2" t="n">
         <v>45301.52954861111</v>
       </c>
-      <c r="BM36" t="n">
+      <c r="BL36" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN36" t="b">
-        <v>1</v>
+      <c r="BM36" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO36" t="n">
-        <v>43.99</v>
+        <v>3531.250000000001</v>
       </c>
       <c r="BP36" t="n">
-        <v>3580.519999999995</v>
-      </c>
-      <c r="BQ36" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="BQ36" t="n">
+        <v>0</v>
+      </c>
       <c r="BR36" t="n">
         <v>2</v>
       </c>
       <c r="BS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT36" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8544,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="AM37" t="n">
-        <v>1.094252528711243</v>
+        <v>1.094252528711244</v>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
@@ -8603,49 +8473,45 @@
         <v>1.09382</v>
       </c>
       <c r="BF37" t="n">
-        <v>1.09382</v>
+        <v>1.09462</v>
       </c>
       <c r="BG37" t="n">
-        <v>1.09402</v>
-      </c>
-      <c r="BH37" s="2" t="n">
-        <v>45301.4375</v>
-      </c>
-      <c r="BI37" t="b">
-        <v>1</v>
+        <v>1.09502</v>
+      </c>
+      <c r="BH37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI37" s="2" t="n">
+        <v>45301.51041666666</v>
       </c>
       <c r="BJ37" s="2" t="n">
-        <v>45301.4375</v>
+        <v>45302.17746527777</v>
       </c>
       <c r="BK37" s="2" t="n">
-        <v>45302.17746527777</v>
-      </c>
-      <c r="BL37" s="2" t="n">
         <v>45301.43761574074</v>
       </c>
-      <c r="BM37" t="n">
+      <c r="BL37" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN37" t="b">
-        <v>1</v>
+      <c r="BM37" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO37" t="n">
-        <v>43.99</v>
+        <v>3575.340000000002</v>
       </c>
       <c r="BP37" t="n">
-        <v>3624.509999999995</v>
-      </c>
-      <c r="BQ37" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="BQ37" t="n">
+        <v>0</v>
+      </c>
       <c r="BR37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8765,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="AM38" t="n">
-        <v>1.094252528711243</v>
+        <v>1.094252528711244</v>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
@@ -8824,47 +8690,43 @@
         <v>1.09483</v>
       </c>
       <c r="BF38" t="n">
-        <v>1.09483</v>
+        <v>1.09563</v>
       </c>
       <c r="BG38" t="n">
-        <v>1.09503</v>
-      </c>
-      <c r="BH38" s="2" t="n">
-        <v>45301.51041666666</v>
-      </c>
-      <c r="BI38" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ38" s="2" t="n">
-        <v>45301.51041666666</v>
-      </c>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" s="2" t="n">
+        <v>1.09603</v>
+      </c>
+      <c r="BH38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI38" s="2" t="n">
+        <v>45301.73958333334</v>
+      </c>
+      <c r="BJ38" t="inlineStr"/>
+      <c r="BK38" s="2" t="n">
         <v>45301.52885416667</v>
       </c>
-      <c r="BM38" t="n">
+      <c r="BL38" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN38" t="b">
-        <v>1</v>
+      <c r="BM38" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO38" t="n">
-        <v>43.99</v>
+        <v>3619.430000000002</v>
       </c>
       <c r="BP38" t="n">
-        <v>3668.499999999995</v>
-      </c>
-      <c r="BQ38" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="BQ38" t="n">
+        <v>0</v>
+      </c>
       <c r="BR38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8984,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="AM39" t="n">
-        <v>1.094252528711243</v>
+        <v>1.094252528711244</v>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
@@ -9043,47 +8905,43 @@
         <v>1.09508</v>
       </c>
       <c r="BF39" t="n">
-        <v>1.09508</v>
+        <v>1.09588</v>
       </c>
       <c r="BG39" t="n">
-        <v>1.09528</v>
-      </c>
-      <c r="BH39" s="2" t="n">
-        <v>45301.55208333334</v>
-      </c>
-      <c r="BI39" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ39" s="2" t="n">
-        <v>45301.55208333334</v>
-      </c>
-      <c r="BK39" t="inlineStr"/>
-      <c r="BL39" s="2" t="n">
+        <v>1.09628</v>
+      </c>
+      <c r="BH39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI39" s="2" t="n">
+        <v>45301.73958333334</v>
+      </c>
+      <c r="BJ39" t="inlineStr"/>
+      <c r="BK39" s="2" t="n">
         <v>45301.55368055555</v>
       </c>
-      <c r="BM39" t="n">
+      <c r="BL39" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN39" t="b">
-        <v>1</v>
+      <c r="BM39" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO39" t="n">
-        <v>43.99</v>
+        <v>3663.520000000002</v>
       </c>
       <c r="BP39" t="n">
-        <v>3712.489999999994</v>
-      </c>
-      <c r="BQ39" t="inlineStr"/>
+        <v>38</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>0</v>
+      </c>
       <c r="BR39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9252,59 +9110,55 @@
       </c>
       <c r="BC40" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD40" t="n">
         <v>1.09893</v>
       </c>
       <c r="BE40" t="n">
-        <v>1.09473</v>
+        <v>1.09553</v>
       </c>
       <c r="BF40" t="n">
-        <v>1.09473</v>
+        <v>1.09633</v>
       </c>
       <c r="BG40" t="n">
-        <v>1.09493</v>
-      </c>
-      <c r="BH40" s="2" t="n">
-        <v>45301.73958333334</v>
-      </c>
-      <c r="BI40" t="b">
-        <v>1</v>
+        <v>1.09693</v>
+      </c>
+      <c r="BH40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI40" s="2" t="n">
+        <v>45301.91666666666</v>
       </c>
       <c r="BJ40" s="2" t="n">
-        <v>45301.73958333334</v>
+        <v>45302.62030092593</v>
       </c>
       <c r="BK40" s="2" t="n">
-        <v>45302.62030092593</v>
-      </c>
-      <c r="BL40" s="2" t="n">
-        <v>45302.64716435185</v>
-      </c>
-      <c r="BM40" t="n">
+        <v>45301.77282407408</v>
+      </c>
+      <c r="BL40" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN40" t="b">
-        <v>1</v>
+      <c r="BM40" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO40" t="n">
-        <v>274.96</v>
+        <v>3751.700000000002</v>
       </c>
       <c r="BP40" t="n">
-        <v>3987.449999999994</v>
-      </c>
-      <c r="BQ40" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="BQ40" t="n">
+        <v>0</v>
+      </c>
       <c r="BR40" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT40" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9480,50 +9334,46 @@
         <v>1.0994</v>
       </c>
       <c r="BE41" t="n">
-        <v>1.0952</v>
+        <v>1.096</v>
       </c>
       <c r="BF41" t="n">
-        <v>1.0952</v>
+        <v>1.0968</v>
       </c>
       <c r="BG41" t="n">
-        <v>1.0954</v>
-      </c>
-      <c r="BH41" s="2" t="n">
-        <v>45301.73958333334</v>
-      </c>
-      <c r="BI41" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ41" s="2" t="n">
-        <v>45301.73958333334</v>
-      </c>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" s="2" t="n">
-        <v>45301.77608796296</v>
-      </c>
-      <c r="BM41" t="n">
+        <v>1.0974</v>
+      </c>
+      <c r="BH41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI41" s="2" t="n">
+        <v>45302.10416666666</v>
+      </c>
+      <c r="BJ41" t="inlineStr"/>
+      <c r="BK41" s="2" t="n">
+        <v>45301.76049768519</v>
+      </c>
+      <c r="BL41" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN41" t="b">
-        <v>1</v>
+      <c r="BM41" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO41" t="n">
-        <v>43.99</v>
+        <v>3839.880000000001</v>
       </c>
       <c r="BP41" t="n">
-        <v>4031.439999999994</v>
-      </c>
-      <c r="BQ41" t="inlineStr"/>
+        <v>40</v>
+      </c>
+      <c r="BQ41" t="n">
+        <v>0</v>
+      </c>
       <c r="BR41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9699,50 +9549,46 @@
         <v>1.09965</v>
       </c>
       <c r="BE42" t="n">
-        <v>1.09545</v>
+        <v>1.09625</v>
       </c>
       <c r="BF42" t="n">
-        <v>1.09545</v>
+        <v>1.09705</v>
       </c>
       <c r="BG42" t="n">
-        <v>1.09565</v>
-      </c>
-      <c r="BH42" s="2" t="n">
-        <v>45301.73958333334</v>
-      </c>
-      <c r="BI42" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ42" s="2" t="n">
-        <v>45301.73958333334</v>
-      </c>
-      <c r="BK42" t="inlineStr"/>
-      <c r="BL42" s="2" t="n">
-        <v>45301.77457175926</v>
-      </c>
-      <c r="BM42" t="n">
+        <v>1.09765</v>
+      </c>
+      <c r="BH42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI42" s="2" t="n">
+        <v>45302.125</v>
+      </c>
+      <c r="BJ42" t="inlineStr"/>
+      <c r="BK42" s="2" t="n">
+        <v>45301.75844907408</v>
+      </c>
+      <c r="BL42" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN42" t="b">
-        <v>1</v>
+      <c r="BM42" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO42" t="n">
-        <v>43.99</v>
+        <v>3928.060000000001</v>
       </c>
       <c r="BP42" t="n">
-        <v>4075.429999999994</v>
-      </c>
-      <c r="BQ42" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="BQ42" t="n">
+        <v>0</v>
+      </c>
       <c r="BR42" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9918,50 +9764,44 @@
         <v>1.10129</v>
       </c>
       <c r="BE43" t="n">
-        <v>1.09709</v>
+        <v>1.09789</v>
       </c>
       <c r="BF43" t="n">
-        <v>1.09709</v>
+        <v>1.09869</v>
       </c>
       <c r="BG43" t="n">
-        <v>1.09729</v>
-      </c>
-      <c r="BH43" s="2" t="n">
-        <v>45302.08333333334</v>
-      </c>
-      <c r="BI43" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ43" s="2" t="n">
-        <v>45302.08333333334</v>
-      </c>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" s="2" t="n">
-        <v>45302.46142361111</v>
-      </c>
-      <c r="BM43" t="n">
+        <v>1.09929</v>
+      </c>
+      <c r="BH43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI43" t="inlineStr"/>
+      <c r="BJ43" t="inlineStr"/>
+      <c r="BK43" s="2" t="n">
+        <v>45302.40600694445</v>
+      </c>
+      <c r="BL43" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN43" t="b">
-        <v>1</v>
+      <c r="BM43" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO43" t="n">
-        <v>43.99</v>
+        <v>4016.240000000001</v>
       </c>
       <c r="BP43" t="n">
-        <v>4119.419999999994</v>
-      </c>
-      <c r="BQ43" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="BQ43" t="n">
+        <v>0</v>
+      </c>
       <c r="BR43" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT43" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10140,47 +9980,43 @@
         <v>1.09747</v>
       </c>
       <c r="BF44" t="n">
-        <v>1.09747</v>
+        <v>1.09827</v>
       </c>
       <c r="BG44" t="n">
-        <v>1.09767</v>
-      </c>
-      <c r="BH44" s="2" t="n">
-        <v>45302.125</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ44" s="2" t="n">
-        <v>45302.125</v>
-      </c>
-      <c r="BK44" t="inlineStr"/>
-      <c r="BL44" s="2" t="n">
+        <v>1.09867</v>
+      </c>
+      <c r="BH44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI44" s="2" t="n">
+        <v>45302.64583333334</v>
+      </c>
+      <c r="BJ44" t="inlineStr"/>
+      <c r="BK44" s="2" t="n">
         <v>45302.14809027778</v>
       </c>
-      <c r="BM44" t="n">
+      <c r="BL44" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN44" t="b">
-        <v>1</v>
+      <c r="BM44" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO44" t="n">
-        <v>43.99</v>
+        <v>4060.330000000001</v>
       </c>
       <c r="BP44" t="n">
-        <v>4163.409999999993</v>
-      </c>
-      <c r="BQ44" t="inlineStr"/>
+        <v>43</v>
+      </c>
+      <c r="BQ44" t="n">
+        <v>0</v>
+      </c>
       <c r="BR44" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT44" t="n">
-        <v>2</v>
-      </c>
-      <c r="BU44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10354,52 +10190,48 @@
         <v>1.09121</v>
       </c>
       <c r="BE45" t="n">
-        <v>1.09541</v>
+        <v>1.09461</v>
       </c>
       <c r="BF45" t="n">
-        <v>1.09541</v>
+        <v>1.09381</v>
       </c>
       <c r="BG45" t="n">
-        <v>1.09521</v>
-      </c>
-      <c r="BH45" s="2" t="n">
-        <v>45306.48958333334</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>1</v>
+        <v>1.09321</v>
+      </c>
+      <c r="BH45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="2" t="n">
+        <v>45307.11458333334</v>
       </c>
       <c r="BJ45" s="2" t="n">
-        <v>45306.48958333334</v>
+        <v>45307.32010416667</v>
       </c>
       <c r="BK45" s="2" t="n">
-        <v>45307.32010416667</v>
-      </c>
-      <c r="BL45" s="2" t="n">
-        <v>45306.59368055555</v>
-      </c>
-      <c r="BM45" t="n">
+        <v>45306.56361111111</v>
+      </c>
+      <c r="BL45" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN45" t="b">
-        <v>1</v>
+      <c r="BM45" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO45" t="n">
-        <v>43.97</v>
+        <v>4148.430000000001</v>
       </c>
       <c r="BP45" t="n">
-        <v>4207.379999999994</v>
-      </c>
-      <c r="BQ45" t="inlineStr"/>
+        <v>44</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>0</v>
+      </c>
       <c r="BR45" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10576,49 +10408,45 @@
         <v>1.09568</v>
       </c>
       <c r="BF46" t="n">
-        <v>1.09568</v>
+        <v>1.09488</v>
       </c>
       <c r="BG46" t="n">
-        <v>1.09548</v>
-      </c>
-      <c r="BH46" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>1</v>
+        <v>1.09448</v>
+      </c>
+      <c r="BH46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI46" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ46" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.13375</v>
       </c>
       <c r="BK46" s="2" t="n">
-        <v>45307.13375</v>
-      </c>
-      <c r="BL46" s="2" t="n">
         <v>45306.41700231482</v>
       </c>
-      <c r="BM46" t="n">
+      <c r="BL46" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN46" t="b">
-        <v>1</v>
+      <c r="BM46" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO46" t="n">
-        <v>43.97</v>
+        <v>4192.480000000001</v>
       </c>
       <c r="BP46" t="n">
-        <v>4251.349999999994</v>
-      </c>
-      <c r="BQ46" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="BQ46" t="n">
+        <v>0</v>
+      </c>
       <c r="BR46" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="BS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT46" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10795,49 +10623,45 @@
         <v>1.09568</v>
       </c>
       <c r="BF47" t="n">
-        <v>1.09568</v>
+        <v>1.09488</v>
       </c>
       <c r="BG47" t="n">
-        <v>1.09548</v>
-      </c>
-      <c r="BH47" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI47" t="b">
-        <v>1</v>
+        <v>1.09448</v>
+      </c>
+      <c r="BH47" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ47" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.13375</v>
       </c>
       <c r="BK47" s="2" t="n">
-        <v>45307.13375</v>
-      </c>
-      <c r="BL47" s="2" t="n">
         <v>45306.41700231482</v>
       </c>
-      <c r="BM47" t="n">
+      <c r="BL47" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN47" t="b">
-        <v>1</v>
+      <c r="BM47" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO47" t="n">
-        <v>43.97</v>
+        <v>4236.530000000002</v>
       </c>
       <c r="BP47" t="n">
-        <v>4295.319999999994</v>
-      </c>
-      <c r="BQ47" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="BQ47" t="n">
+        <v>0</v>
+      </c>
       <c r="BR47" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT47" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11014,49 +10838,45 @@
         <v>1.09555</v>
       </c>
       <c r="BF48" t="n">
-        <v>1.09555</v>
+        <v>1.09475</v>
       </c>
       <c r="BG48" t="n">
-        <v>1.09535</v>
-      </c>
-      <c r="BH48" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI48" t="b">
-        <v>1</v>
+        <v>1.09435</v>
+      </c>
+      <c r="BH48" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI48" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ48" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.28384259259</v>
       </c>
       <c r="BK48" s="2" t="n">
-        <v>45307.28384259259</v>
-      </c>
-      <c r="BL48" s="2" t="n">
         <v>45306.41686342593</v>
       </c>
-      <c r="BM48" t="n">
+      <c r="BL48" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN48" t="b">
-        <v>1</v>
+      <c r="BM48" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO48" t="n">
-        <v>43.97</v>
+        <v>4280.580000000002</v>
       </c>
       <c r="BP48" t="n">
-        <v>4339.289999999995</v>
-      </c>
-      <c r="BQ48" t="inlineStr"/>
+        <v>47</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>0</v>
+      </c>
       <c r="BR48" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="BS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11230,52 +11050,48 @@
         <v>1.09112</v>
       </c>
       <c r="BE49" t="n">
-        <v>1.09532</v>
+        <v>1.09452</v>
       </c>
       <c r="BF49" t="n">
-        <v>1.09532</v>
+        <v>1.09372</v>
       </c>
       <c r="BG49" t="n">
-        <v>1.09512</v>
-      </c>
-      <c r="BH49" s="2" t="n">
-        <v>45306.48958333334</v>
-      </c>
-      <c r="BI49" t="b">
-        <v>1</v>
+        <v>1.09312</v>
+      </c>
+      <c r="BH49" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI49" s="2" t="n">
+        <v>45307.125</v>
       </c>
       <c r="BJ49" s="2" t="n">
-        <v>45306.48958333334</v>
+        <v>45307.3828125</v>
       </c>
       <c r="BK49" s="2" t="n">
-        <v>45307.3828125</v>
-      </c>
-      <c r="BL49" s="2" t="n">
-        <v>45306.59296296296</v>
-      </c>
-      <c r="BM49" t="n">
+        <v>45306.56222222222</v>
+      </c>
+      <c r="BL49" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN49" t="b">
-        <v>1</v>
+      <c r="BM49" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO49" t="n">
-        <v>43.97</v>
+        <v>4368.680000000002</v>
       </c>
       <c r="BP49" t="n">
-        <v>4383.259999999995</v>
-      </c>
-      <c r="BQ49" t="inlineStr"/>
+        <v>48</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>0</v>
+      </c>
       <c r="BR49" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="BS49" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11449,52 +11265,48 @@
         <v>1.09085</v>
       </c>
       <c r="BE50" t="n">
-        <v>1.09505</v>
+        <v>1.09425</v>
       </c>
       <c r="BF50" t="n">
-        <v>1.09505</v>
+        <v>1.09345</v>
       </c>
       <c r="BG50" t="n">
-        <v>1.09485</v>
-      </c>
-      <c r="BH50" s="2" t="n">
-        <v>45306.48958333334</v>
-      </c>
-      <c r="BI50" t="b">
-        <v>1</v>
+        <v>1.09285</v>
+      </c>
+      <c r="BH50" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI50" s="2" t="n">
+        <v>45307.125</v>
       </c>
       <c r="BJ50" s="2" t="n">
-        <v>45306.48958333334</v>
+        <v>45307.38913194444</v>
       </c>
       <c r="BK50" s="2" t="n">
-        <v>45307.38913194444</v>
-      </c>
-      <c r="BL50" s="2" t="n">
-        <v>45306.59012731481</v>
-      </c>
-      <c r="BM50" t="n">
+        <v>45306.55445601852</v>
+      </c>
+      <c r="BL50" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN50" t="b">
-        <v>1</v>
+      <c r="BM50" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO50" t="n">
-        <v>43.97</v>
+        <v>4456.780000000002</v>
       </c>
       <c r="BP50" t="n">
-        <v>4427.229999999995</v>
-      </c>
-      <c r="BQ50" t="inlineStr"/>
+        <v>49</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>0</v>
+      </c>
       <c r="BR50" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="BS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT50" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11668,52 +11480,48 @@
         <v>1.09121</v>
       </c>
       <c r="BE51" t="n">
-        <v>1.09541</v>
+        <v>1.09461</v>
       </c>
       <c r="BF51" t="n">
-        <v>1.09541</v>
+        <v>1.09381</v>
       </c>
       <c r="BG51" t="n">
-        <v>1.09521</v>
-      </c>
-      <c r="BH51" s="2" t="n">
-        <v>45306.48958333334</v>
-      </c>
-      <c r="BI51" t="b">
-        <v>1</v>
+        <v>1.09321</v>
+      </c>
+      <c r="BH51" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI51" s="2" t="n">
+        <v>45307.11458333334</v>
       </c>
       <c r="BJ51" s="2" t="n">
-        <v>45306.48958333334</v>
+        <v>45307.32010416667</v>
       </c>
       <c r="BK51" s="2" t="n">
-        <v>45307.32010416667</v>
-      </c>
-      <c r="BL51" s="2" t="n">
-        <v>45306.59368055555</v>
-      </c>
-      <c r="BM51" t="n">
+        <v>45306.56361111111</v>
+      </c>
+      <c r="BL51" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN51" t="b">
-        <v>1</v>
+      <c r="BM51" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO51" t="n">
-        <v>43.97</v>
+        <v>4544.880000000003</v>
       </c>
       <c r="BP51" t="n">
-        <v>4471.199999999995</v>
-      </c>
-      <c r="BQ51" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="BQ51" t="n">
+        <v>0</v>
+      </c>
       <c r="BR51" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="BS51" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT51" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11890,49 +11698,45 @@
         <v>1.09553</v>
       </c>
       <c r="BF52" t="n">
-        <v>1.09553</v>
+        <v>1.09473</v>
       </c>
       <c r="BG52" t="n">
-        <v>1.09533</v>
-      </c>
-      <c r="BH52" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI52" t="b">
-        <v>1</v>
+        <v>1.09433</v>
+      </c>
+      <c r="BH52" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI52" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ52" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.28673611111</v>
       </c>
       <c r="BK52" s="2" t="n">
-        <v>45307.28673611111</v>
-      </c>
-      <c r="BL52" s="2" t="n">
         <v>45306.41686342593</v>
       </c>
-      <c r="BM52" t="n">
+      <c r="BL52" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN52" t="b">
-        <v>1</v>
+      <c r="BM52" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO52" t="n">
-        <v>43.97</v>
+        <v>4588.930000000003</v>
       </c>
       <c r="BP52" t="n">
-        <v>4515.169999999996</v>
-      </c>
-      <c r="BQ52" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BQ52" t="n">
+        <v>0</v>
+      </c>
       <c r="BR52" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="BS52" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT52" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12109,49 +11913,45 @@
         <v>1.09556</v>
       </c>
       <c r="BF53" t="n">
-        <v>1.09556</v>
+        <v>1.09476</v>
       </c>
       <c r="BG53" t="n">
-        <v>1.09536</v>
-      </c>
-      <c r="BH53" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI53" t="b">
-        <v>1</v>
+        <v>1.09436</v>
+      </c>
+      <c r="BH53" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI53" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ53" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.28383101852</v>
       </c>
       <c r="BK53" s="2" t="n">
-        <v>45307.28383101852</v>
-      </c>
-      <c r="BL53" s="2" t="n">
         <v>45306.41686342593</v>
       </c>
-      <c r="BM53" t="n">
+      <c r="BL53" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN53" t="b">
-        <v>1</v>
+      <c r="BM53" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO53" t="n">
-        <v>43.97</v>
+        <v>4632.980000000003</v>
       </c>
       <c r="BP53" t="n">
-        <v>4559.139999999996</v>
-      </c>
-      <c r="BQ53" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="BQ53" t="n">
+        <v>0</v>
+      </c>
       <c r="BR53" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="BS53" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12328,49 +12128,45 @@
         <v>1.09552</v>
       </c>
       <c r="BF54" t="n">
-        <v>1.09552</v>
+        <v>1.09472</v>
       </c>
       <c r="BG54" t="n">
-        <v>1.09532</v>
-      </c>
-      <c r="BH54" s="2" t="n">
-        <v>45306.41666666666</v>
-      </c>
-      <c r="BI54" t="b">
-        <v>1</v>
+        <v>1.09432</v>
+      </c>
+      <c r="BH54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI54" s="2" t="n">
+        <v>45306.51041666666</v>
       </c>
       <c r="BJ54" s="2" t="n">
-        <v>45306.41666666666</v>
+        <v>45307.28876157408</v>
       </c>
       <c r="BK54" s="2" t="n">
-        <v>45307.28876157408</v>
-      </c>
-      <c r="BL54" s="2" t="n">
         <v>45306.41686342593</v>
       </c>
-      <c r="BM54" t="n">
+      <c r="BL54" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN54" t="b">
-        <v>1</v>
+      <c r="BM54" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO54" t="n">
-        <v>43.97</v>
+        <v>4677.030000000003</v>
       </c>
       <c r="BP54" t="n">
-        <v>4603.109999999996</v>
-      </c>
-      <c r="BQ54" t="inlineStr"/>
+        <v>53</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>0</v>
+      </c>
       <c r="BR54" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="BS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12547,49 +12343,45 @@
         <v>1.09031</v>
       </c>
       <c r="BF55" t="n">
-        <v>1.09031</v>
+        <v>1.08951</v>
       </c>
       <c r="BG55" t="n">
-        <v>1.09011</v>
-      </c>
-      <c r="BH55" s="2" t="n">
-        <v>45307.44791666666</v>
-      </c>
-      <c r="BI55" t="b">
-        <v>1</v>
+        <v>1.08911</v>
+      </c>
+      <c r="BH55" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI55" s="2" t="n">
+        <v>45307.48958333334</v>
       </c>
       <c r="BJ55" s="2" t="n">
-        <v>45307.44791666666</v>
+        <v>45308.32497685185</v>
       </c>
       <c r="BK55" s="2" t="n">
-        <v>45308.32497685185</v>
-      </c>
-      <c r="BL55" s="2" t="n">
         <v>45307.45105324074</v>
       </c>
-      <c r="BM55" t="n">
+      <c r="BL55" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN55" t="b">
-        <v>1</v>
+      <c r="BM55" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO55" t="n">
-        <v>43.97</v>
+        <v>4721.080000000004</v>
       </c>
       <c r="BP55" t="n">
-        <v>4647.079999999996</v>
-      </c>
-      <c r="BQ55" t="inlineStr"/>
+        <v>54</v>
+      </c>
+      <c r="BQ55" t="n">
+        <v>0</v>
+      </c>
       <c r="BR55" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="BS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT55" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12763,52 +12555,48 @@
         <v>1.08507</v>
       </c>
       <c r="BE56" t="n">
-        <v>1.08927</v>
+        <v>1.08847</v>
       </c>
       <c r="BF56" t="n">
-        <v>1.08927</v>
+        <v>1.08767</v>
       </c>
       <c r="BG56" t="n">
-        <v>1.08907</v>
-      </c>
-      <c r="BH56" s="2" t="n">
-        <v>45307.48958333334</v>
-      </c>
-      <c r="BI56" t="b">
-        <v>1</v>
+        <v>1.08707</v>
+      </c>
+      <c r="BH56" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI56" s="2" t="n">
+        <v>45307.80208333334</v>
       </c>
       <c r="BJ56" s="2" t="n">
-        <v>45307.48958333334</v>
+        <v>45308.64693287037</v>
       </c>
       <c r="BK56" s="2" t="n">
-        <v>45308.64693287037</v>
-      </c>
-      <c r="BL56" s="2" t="n">
-        <v>45307.56864583334</v>
-      </c>
-      <c r="BM56" t="n">
+        <v>45307.56121527778</v>
+      </c>
+      <c r="BL56" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN56" t="b">
-        <v>1</v>
+      <c r="BM56" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>88.09</v>
       </c>
       <c r="BO56" t="n">
-        <v>43.97</v>
+        <v>4809.170000000004</v>
       </c>
       <c r="BP56" t="n">
-        <v>4691.049999999997</v>
-      </c>
-      <c r="BQ56" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="BQ56" t="n">
+        <v>0</v>
+      </c>
       <c r="BR56" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="BS56" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12985,47 +12773,45 @@
         <v>1.08634</v>
       </c>
       <c r="BF57" t="n">
-        <v>1.08634</v>
+        <v>1.08554</v>
       </c>
       <c r="BG57" t="n">
-        <v>1.08614</v>
-      </c>
-      <c r="BH57" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BI57" t="b">
-        <v>1</v>
+        <v>1.08514</v>
+      </c>
+      <c r="BH57" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="2" t="n">
+        <v>45308.70833333334</v>
       </c>
       <c r="BJ57" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" s="2" t="n">
+        <v>45314.73782407407</v>
+      </c>
+      <c r="BK57" s="2" t="n">
         <v>45308.6600462963</v>
       </c>
-      <c r="BM57" t="n">
+      <c r="BL57" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN57" t="b">
-        <v>1</v>
+      <c r="BM57" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO57" t="n">
-        <v>43.97</v>
+        <v>4853.220000000004</v>
       </c>
       <c r="BP57" t="n">
-        <v>4735.019999999997</v>
-      </c>
-      <c r="BQ57" t="inlineStr"/>
+        <v>56</v>
+      </c>
+      <c r="BQ57" t="n">
+        <v>0</v>
+      </c>
       <c r="BR57" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="BS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT57" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13202,47 +12988,43 @@
         <v>1.0858</v>
       </c>
       <c r="BF58" t="n">
-        <v>1.0858</v>
+        <v>1.085</v>
       </c>
       <c r="BG58" t="n">
-        <v>1.0856</v>
-      </c>
-      <c r="BH58" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BI58" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ58" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" s="2" t="n">
+        <v>1.0846</v>
+      </c>
+      <c r="BH58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI58" s="2" t="n">
+        <v>45314.72916666666</v>
+      </c>
+      <c r="BJ58" t="inlineStr"/>
+      <c r="BK58" s="2" t="n">
         <v>45308.71116898148</v>
       </c>
-      <c r="BM58" t="n">
+      <c r="BL58" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN58" t="b">
-        <v>1</v>
+      <c r="BM58" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO58" t="n">
-        <v>43.97</v>
+        <v>4897.270000000004</v>
       </c>
       <c r="BP58" t="n">
-        <v>4778.989999999997</v>
-      </c>
-      <c r="BQ58" t="inlineStr"/>
+        <v>57</v>
+      </c>
+      <c r="BQ58" t="n">
+        <v>0</v>
+      </c>
       <c r="BR58" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="BS58" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT58" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13360,7 +13142,7 @@
         <v>-1</v>
       </c>
       <c r="AM59" t="n">
-        <v>1.087168306450525</v>
+        <v>1.087168306450524</v>
       </c>
       <c r="AN59" t="inlineStr">
         <is>
@@ -13419,47 +13201,43 @@
         <v>1.08578</v>
       </c>
       <c r="BF59" t="n">
-        <v>1.08578</v>
+        <v>1.08498</v>
       </c>
       <c r="BG59" t="n">
-        <v>1.08558</v>
-      </c>
-      <c r="BH59" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BI59" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ59" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BK59" t="inlineStr"/>
-      <c r="BL59" s="2" t="n">
+        <v>1.08458</v>
+      </c>
+      <c r="BH59" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI59" s="2" t="n">
+        <v>45314.72916666666</v>
+      </c>
+      <c r="BJ59" t="inlineStr"/>
+      <c r="BK59" s="2" t="n">
         <v>45308.71114583333</v>
       </c>
-      <c r="BM59" t="n">
+      <c r="BL59" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN59" t="b">
-        <v>1</v>
+      <c r="BM59" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO59" t="n">
-        <v>43.97</v>
+        <v>4941.320000000004</v>
       </c>
       <c r="BP59" t="n">
-        <v>4822.959999999997</v>
-      </c>
-      <c r="BQ59" t="inlineStr"/>
+        <v>58</v>
+      </c>
+      <c r="BQ59" t="n">
+        <v>0</v>
+      </c>
       <c r="BR59" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="BS59" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT59" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13577,7 +13355,7 @@
         <v>-1</v>
       </c>
       <c r="AM60" t="n">
-        <v>1.087168306450525</v>
+        <v>1.087168306450524</v>
       </c>
       <c r="AN60" t="inlineStr">
         <is>
@@ -13636,47 +13414,43 @@
         <v>1.0854</v>
       </c>
       <c r="BF60" t="n">
-        <v>1.0854</v>
+        <v>1.0846</v>
       </c>
       <c r="BG60" t="n">
-        <v>1.0852</v>
-      </c>
-      <c r="BH60" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BI60" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ60" s="2" t="n">
-        <v>45308.70833333334</v>
-      </c>
-      <c r="BK60" t="inlineStr"/>
-      <c r="BL60" s="2" t="n">
+        <v>1.0842</v>
+      </c>
+      <c r="BH60" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI60" s="2" t="n">
+        <v>45314.72916666666</v>
+      </c>
+      <c r="BJ60" t="inlineStr"/>
+      <c r="BK60" s="2" t="n">
         <v>45308.70951388889</v>
       </c>
-      <c r="BM60" t="n">
+      <c r="BL60" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN60" t="b">
-        <v>1</v>
+      <c r="BM60" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO60" t="n">
-        <v>43.97</v>
+        <v>4985.370000000004</v>
       </c>
       <c r="BP60" t="n">
-        <v>4866.929999999998</v>
-      </c>
-      <c r="BQ60" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="BQ60" t="n">
+        <v>0</v>
+      </c>
       <c r="BR60" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="BS60" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT60" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13853,47 +13627,45 @@
         <v>1.08654</v>
       </c>
       <c r="BF61" t="n">
-        <v>1.08654</v>
+        <v>1.08574</v>
       </c>
       <c r="BG61" t="n">
-        <v>1.08634</v>
-      </c>
-      <c r="BH61" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BI61" t="b">
-        <v>1</v>
+        <v>1.08534</v>
+      </c>
+      <c r="BH61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI61" s="2" t="n">
+        <v>45308.70833333334</v>
       </c>
       <c r="BJ61" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BK61" t="inlineStr"/>
-      <c r="BL61" s="2" t="n">
+        <v>45314.73762731482</v>
+      </c>
+      <c r="BK61" s="2" t="n">
         <v>45308.66042824074</v>
       </c>
-      <c r="BM61" t="n">
+      <c r="BL61" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN61" t="b">
-        <v>1</v>
+      <c r="BM61" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO61" t="n">
-        <v>43.97</v>
+        <v>5029.420000000005</v>
       </c>
       <c r="BP61" t="n">
-        <v>4910.899999999998</v>
-      </c>
-      <c r="BQ61" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="BQ61" t="n">
+        <v>0</v>
+      </c>
       <c r="BR61" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="BS61" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT61" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14070,47 +13842,43 @@
         <v>1.08628</v>
       </c>
       <c r="BF62" t="n">
-        <v>1.08628</v>
+        <v>1.08548</v>
       </c>
       <c r="BG62" t="n">
-        <v>1.08608</v>
-      </c>
-      <c r="BH62" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BI62" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ62" s="2" t="n">
-        <v>45308.65625</v>
-      </c>
-      <c r="BK62" t="inlineStr"/>
-      <c r="BL62" s="2" t="n">
+        <v>1.08508</v>
+      </c>
+      <c r="BH62" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI62" s="2" t="n">
+        <v>45308.70833333334</v>
+      </c>
+      <c r="BJ62" t="inlineStr"/>
+      <c r="BK62" s="2" t="n">
         <v>45308.65993055556</v>
       </c>
-      <c r="BM62" t="n">
+      <c r="BL62" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN62" t="b">
-        <v>1</v>
+      <c r="BM62" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO62" t="n">
-        <v>43.97</v>
+        <v>5073.470000000005</v>
       </c>
       <c r="BP62" t="n">
-        <v>4954.869999999998</v>
-      </c>
-      <c r="BQ62" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>0</v>
+      </c>
       <c r="BR62" t="n">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="BS62" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14277,53 +14045,53 @@
       </c>
       <c r="BC63" t="inlineStr">
         <is>
-          <t>running</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD63" t="n">
         <v>1.08111</v>
       </c>
       <c r="BE63" t="n">
-        <v>1.09511</v>
+        <v>1.08371</v>
       </c>
       <c r="BF63" t="n">
-        <v>1.08531</v>
+        <v>1.08291</v>
       </c>
       <c r="BG63" t="n">
-        <v>1.08511</v>
-      </c>
-      <c r="BH63" t="inlineStr"/>
-      <c r="BI63" t="b">
-        <v>0</v>
+        <v>1.08211</v>
+      </c>
+      <c r="BH63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI63" s="2" t="n">
+        <v>45317.39583333334</v>
       </c>
       <c r="BJ63" t="inlineStr"/>
-      <c r="BK63" t="inlineStr"/>
-      <c r="BL63" t="inlineStr"/>
-      <c r="BM63" t="n">
+      <c r="BK63" s="2" t="n">
+        <v>45314.75251157407</v>
+      </c>
+      <c r="BL63" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN63" t="b">
-        <v>0</v>
+      <c r="BM63" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>132.15</v>
       </c>
       <c r="BO63" t="n">
-        <v>0</v>
+        <v>5205.620000000004</v>
       </c>
       <c r="BP63" t="n">
-        <v>4954.869999999998</v>
-      </c>
-      <c r="BQ63" s="2" t="n">
-        <v>45310.03125</v>
+        <v>62</v>
+      </c>
+      <c r="BQ63" t="n">
+        <v>0</v>
       </c>
       <c r="BR63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BS63" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT63" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14502,47 +14270,45 @@
         <v>1.08858</v>
       </c>
       <c r="BF64" t="n">
-        <v>1.08858</v>
+        <v>1.08938</v>
       </c>
       <c r="BG64" t="n">
-        <v>1.08878</v>
-      </c>
-      <c r="BH64" s="2" t="n">
-        <v>45310.5625</v>
-      </c>
-      <c r="BI64" t="b">
-        <v>1</v>
+        <v>1.08978</v>
+      </c>
+      <c r="BH64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI64" s="2" t="n">
+        <v>45313.125</v>
       </c>
       <c r="BJ64" s="2" t="n">
-        <v>45310.5625</v>
-      </c>
-      <c r="BK64" t="inlineStr"/>
-      <c r="BL64" s="2" t="n">
+        <v>45315.68137731482</v>
+      </c>
+      <c r="BK64" s="2" t="n">
         <v>45310.5678587963</v>
       </c>
-      <c r="BM64" t="n">
+      <c r="BL64" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN64" t="b">
-        <v>1</v>
+      <c r="BM64" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO64" t="n">
-        <v>43.99</v>
+        <v>5249.710000000005</v>
       </c>
       <c r="BP64" t="n">
-        <v>4998.859999999998</v>
-      </c>
-      <c r="BQ64" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="BQ64" t="n">
+        <v>0</v>
+      </c>
       <c r="BR64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BS64" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14721,47 +14487,43 @@
         <v>1.08929</v>
       </c>
       <c r="BF65" t="n">
-        <v>1.08929</v>
+        <v>1.09009</v>
       </c>
       <c r="BG65" t="n">
-        <v>1.08949</v>
-      </c>
-      <c r="BH65" s="2" t="n">
-        <v>45310.98958333334</v>
-      </c>
-      <c r="BI65" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ65" s="2" t="n">
-        <v>45310.98958333334</v>
-      </c>
-      <c r="BK65" t="inlineStr"/>
-      <c r="BL65" s="2" t="n">
+        <v>1.09049</v>
+      </c>
+      <c r="BH65" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI65" s="2" t="n">
+        <v>45313.1875</v>
+      </c>
+      <c r="BJ65" t="inlineStr"/>
+      <c r="BK65" s="2" t="n">
         <v>45313.0034837963</v>
       </c>
-      <c r="BM65" t="n">
+      <c r="BL65" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN65" t="b">
-        <v>1</v>
+      <c r="BM65" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO65" t="n">
-        <v>43.99</v>
+        <v>5293.800000000005</v>
       </c>
       <c r="BP65" t="n">
-        <v>5042.849999999998</v>
-      </c>
-      <c r="BQ65" t="inlineStr"/>
+        <v>64</v>
+      </c>
+      <c r="BQ65" t="n">
+        <v>0</v>
+      </c>
       <c r="BR65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS65" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT65" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -14940,47 +14702,45 @@
         <v>1.08845</v>
       </c>
       <c r="BF66" t="n">
-        <v>1.08845</v>
+        <v>1.08925</v>
       </c>
       <c r="BG66" t="n">
-        <v>1.08865</v>
-      </c>
-      <c r="BH66" s="2" t="n">
-        <v>45310.5625</v>
-      </c>
-      <c r="BI66" t="b">
-        <v>1</v>
+        <v>1.08965</v>
+      </c>
+      <c r="BH66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI66" s="2" t="n">
+        <v>45311</v>
       </c>
       <c r="BJ66" s="2" t="n">
-        <v>45310.5625</v>
-      </c>
-      <c r="BK66" t="inlineStr"/>
-      <c r="BL66" s="2" t="n">
+        <v>45315.66519675926</v>
+      </c>
+      <c r="BK66" s="2" t="n">
         <v>45310.58532407408</v>
       </c>
-      <c r="BM66" t="n">
+      <c r="BL66" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN66" t="b">
-        <v>1</v>
+      <c r="BM66" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO66" t="n">
-        <v>43.99</v>
+        <v>5337.890000000005</v>
       </c>
       <c r="BP66" t="n">
-        <v>5086.839999999997</v>
-      </c>
-      <c r="BQ66" t="inlineStr"/>
+        <v>65</v>
+      </c>
+      <c r="BQ66" t="n">
+        <v>0</v>
+      </c>
       <c r="BR66" t="n">
         <v>3</v>
       </c>
       <c r="BS66" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BU66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15156,50 +14916,44 @@
         <v>1.09579</v>
       </c>
       <c r="BE67" t="n">
-        <v>1.09159</v>
+        <v>1.09239</v>
       </c>
       <c r="BF67" t="n">
-        <v>1.09159</v>
+        <v>1.09319</v>
       </c>
       <c r="BG67" t="n">
-        <v>1.09179</v>
-      </c>
-      <c r="BH67" s="2" t="n">
-        <v>45315.66666666666</v>
-      </c>
-      <c r="BI67" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ67" s="2" t="n">
-        <v>45315.66666666666</v>
-      </c>
-      <c r="BK67" t="inlineStr"/>
-      <c r="BL67" s="2" t="n">
-        <v>45315.69791666666</v>
-      </c>
-      <c r="BM67" t="n">
+        <v>1.09379</v>
+      </c>
+      <c r="BH67" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI67" t="inlineStr"/>
+      <c r="BJ67" t="inlineStr"/>
+      <c r="BK67" s="2" t="n">
+        <v>45315.69403935185</v>
+      </c>
+      <c r="BL67" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN67" t="b">
-        <v>1</v>
+      <c r="BM67" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO67" t="n">
-        <v>43.99</v>
+        <v>5426.070000000005</v>
       </c>
       <c r="BP67" t="n">
-        <v>5130.829999999997</v>
-      </c>
-      <c r="BQ67" t="inlineStr"/>
+        <v>66</v>
+      </c>
+      <c r="BQ67" t="n">
+        <v>0</v>
+      </c>
       <c r="BR67" t="n">
         <v>4</v>
       </c>
       <c r="BS67" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT67" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15366,59 +15120,55 @@
       </c>
       <c r="BC68" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD68" t="n">
         <v>1.08346</v>
       </c>
       <c r="BE68" t="n">
-        <v>1.08766</v>
+        <v>1.08686</v>
       </c>
       <c r="BF68" t="n">
-        <v>1.08766</v>
+        <v>1.08606</v>
       </c>
       <c r="BG68" t="n">
-        <v>1.08746</v>
-      </c>
-      <c r="BH68" s="2" t="n">
-        <v>45314.54166666666</v>
-      </c>
-      <c r="BI68" t="b">
-        <v>1</v>
+        <v>1.08546</v>
+      </c>
+      <c r="BH68" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI68" s="2" t="n">
+        <v>45314.70833333334</v>
       </c>
       <c r="BJ68" s="2" t="n">
-        <v>45314.54166666666</v>
+        <v>45314.7271875</v>
       </c>
       <c r="BK68" s="2" t="n">
-        <v>45314.7271875</v>
-      </c>
-      <c r="BL68" s="2" t="n">
-        <v>45315.4050462963</v>
-      </c>
-      <c r="BM68" t="n">
+        <v>45314.58928240741</v>
+      </c>
+      <c r="BL68" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN68" t="b">
-        <v>1</v>
+      <c r="BM68" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO68" t="n">
-        <v>274.83</v>
+        <v>5514.170000000006</v>
       </c>
       <c r="BP68" t="n">
-        <v>5405.659999999997</v>
-      </c>
-      <c r="BQ68" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>0</v>
+      </c>
       <c r="BR68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BS68" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15595,49 +15345,45 @@
         <v>1.08701</v>
       </c>
       <c r="BF69" t="n">
-        <v>1.08701</v>
+        <v>1.08621</v>
       </c>
       <c r="BG69" t="n">
-        <v>1.08681</v>
-      </c>
-      <c r="BH69" s="2" t="n">
-        <v>45314.5625</v>
-      </c>
-      <c r="BI69" t="b">
-        <v>1</v>
+        <v>1.08581</v>
+      </c>
+      <c r="BH69" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI69" s="2" t="n">
+        <v>45314.69791666666</v>
       </c>
       <c r="BJ69" s="2" t="n">
-        <v>45314.5625</v>
+        <v>45314.73721064815</v>
       </c>
       <c r="BK69" s="2" t="n">
-        <v>45314.73721064815</v>
-      </c>
-      <c r="BL69" s="2" t="n">
         <v>45314.59231481481</v>
       </c>
-      <c r="BM69" t="n">
+      <c r="BL69" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN69" t="b">
-        <v>1</v>
+      <c r="BM69" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO69" t="n">
-        <v>43.97</v>
+        <v>5558.220000000006</v>
       </c>
       <c r="BP69" t="n">
-        <v>5449.629999999997</v>
-      </c>
-      <c r="BQ69" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="BQ69" t="n">
+        <v>0</v>
+      </c>
       <c r="BR69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BS69" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT69" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15804,59 +15550,55 @@
       </c>
       <c r="BC70" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD70" t="n">
         <v>1.08367</v>
       </c>
       <c r="BE70" t="n">
-        <v>1.08787</v>
+        <v>1.08707</v>
       </c>
       <c r="BF70" t="n">
-        <v>1.08787</v>
+        <v>1.08627</v>
       </c>
       <c r="BG70" t="n">
-        <v>1.08767</v>
-      </c>
-      <c r="BH70" s="2" t="n">
-        <v>45314.54166666666</v>
-      </c>
-      <c r="BI70" t="b">
-        <v>1</v>
+        <v>1.08567</v>
+      </c>
+      <c r="BH70" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI70" s="2" t="n">
+        <v>45314.70833333334</v>
       </c>
       <c r="BJ70" s="2" t="n">
-        <v>45314.54166666666</v>
+        <v>45314.72540509259</v>
       </c>
       <c r="BK70" s="2" t="n">
-        <v>45314.72540509259</v>
-      </c>
-      <c r="BL70" s="2" t="n">
-        <v>45315.40631944445</v>
-      </c>
-      <c r="BM70" t="n">
+        <v>45314.5925462963</v>
+      </c>
+      <c r="BL70" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN70" t="b">
-        <v>1</v>
+      <c r="BM70" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO70" t="n">
-        <v>274.83</v>
+        <v>5646.320000000006</v>
       </c>
       <c r="BP70" t="n">
-        <v>5724.459999999997</v>
-      </c>
-      <c r="BQ70" t="inlineStr"/>
+        <v>69</v>
+      </c>
+      <c r="BQ70" t="n">
+        <v>0</v>
+      </c>
       <c r="BR70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT70" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -15974,7 +15716,7 @@
         <v>-1</v>
       </c>
       <c r="AM71" t="n">
-        <v>1.086408144918339</v>
+        <v>1.08640814491834</v>
       </c>
       <c r="AN71" t="inlineStr">
         <is>
@@ -16033,47 +15775,45 @@
         <v>1.0843</v>
       </c>
       <c r="BF71" t="n">
-        <v>1.0843</v>
+        <v>1.0835</v>
       </c>
       <c r="BG71" t="n">
-        <v>1.0841</v>
-      </c>
-      <c r="BH71" s="2" t="n">
-        <v>45316.73958333334</v>
-      </c>
-      <c r="BI71" t="b">
-        <v>1</v>
+        <v>1.0831</v>
+      </c>
+      <c r="BH71" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI71" s="2" t="n">
+        <v>45316.875</v>
       </c>
       <c r="BJ71" s="2" t="n">
-        <v>45316.73958333334</v>
-      </c>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" s="2" t="n">
+        <v>45320.72145833333</v>
+      </c>
+      <c r="BK71" s="2" t="n">
         <v>45316.80274305555</v>
       </c>
-      <c r="BM71" t="n">
+      <c r="BL71" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN71" t="b">
-        <v>1</v>
+      <c r="BM71" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO71" t="n">
-        <v>43.97</v>
+        <v>5690.370000000006</v>
       </c>
       <c r="BP71" t="n">
-        <v>5768.429999999998</v>
-      </c>
-      <c r="BQ71" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="BQ71" t="n">
+        <v>0</v>
+      </c>
       <c r="BR71" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BS71" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT71" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16191,7 +15931,7 @@
         <v>-1</v>
       </c>
       <c r="AM72" t="n">
-        <v>1.086439697185834</v>
+        <v>1.086438471011663</v>
       </c>
       <c r="AN72" t="inlineStr">
         <is>
@@ -16240,59 +15980,55 @@
       </c>
       <c r="BC72" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD72" t="n">
         <v>1.08136</v>
       </c>
       <c r="BE72" t="n">
-        <v>1.08556</v>
+        <v>1.08396</v>
       </c>
       <c r="BF72" t="n">
-        <v>1.08556</v>
+        <v>1.08316</v>
       </c>
       <c r="BG72" t="n">
-        <v>1.08536</v>
-      </c>
-      <c r="BH72" s="2" t="n">
-        <v>45316.71875</v>
-      </c>
-      <c r="BI72" t="b">
-        <v>1</v>
+        <v>1.08236</v>
+      </c>
+      <c r="BH72" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI72" s="2" t="n">
+        <v>45317.39583333334</v>
       </c>
       <c r="BJ72" s="2" t="n">
-        <v>45316.71875</v>
+        <v>45317.40659722222</v>
       </c>
       <c r="BK72" s="2" t="n">
-        <v>45317.40659722222</v>
-      </c>
-      <c r="BL72" s="2" t="n">
-        <v>45317.50620370371</v>
-      </c>
-      <c r="BM72" t="n">
+        <v>45316.80239583334</v>
+      </c>
+      <c r="BL72" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN72" t="b">
-        <v>1</v>
+      <c r="BM72" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>132.15</v>
       </c>
       <c r="BO72" t="n">
-        <v>274.83</v>
+        <v>5822.520000000006</v>
       </c>
       <c r="BP72" t="n">
-        <v>6043.259999999997</v>
-      </c>
-      <c r="BQ72" t="inlineStr"/>
+        <v>71</v>
+      </c>
+      <c r="BQ72" t="n">
+        <v>0</v>
+      </c>
       <c r="BR72" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BS72" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT72" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16410,7 +16146,7 @@
         <v>-1</v>
       </c>
       <c r="AM73" t="n">
-        <v>1.085203128903241</v>
+        <v>1.08519417055344</v>
       </c>
       <c r="AN73" t="inlineStr">
         <is>
@@ -16466,50 +16202,48 @@
         <v>1.07949</v>
       </c>
       <c r="BE73" t="n">
-        <v>1.08369</v>
+        <v>1.08289</v>
       </c>
       <c r="BF73" t="n">
-        <v>1.08369</v>
+        <v>1.08209</v>
       </c>
       <c r="BG73" t="n">
-        <v>1.08349</v>
-      </c>
-      <c r="BH73" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BI73" t="b">
-        <v>1</v>
+        <v>1.08149</v>
+      </c>
+      <c r="BH73" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI73" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ73" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" s="2" t="n">
-        <v>45317.45226851852</v>
-      </c>
-      <c r="BM73" t="n">
+        <v>45322.93892361111</v>
+      </c>
+      <c r="BK73" s="2" t="n">
+        <v>45317.44259259259</v>
+      </c>
+      <c r="BL73" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN73" t="b">
-        <v>1</v>
+      <c r="BM73" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO73" t="n">
-        <v>43.97</v>
+        <v>5910.620000000006</v>
       </c>
       <c r="BP73" t="n">
-        <v>6087.229999999998</v>
-      </c>
-      <c r="BQ73" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="BQ73" t="n">
+        <v>0</v>
+      </c>
       <c r="BR73" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BS73" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT73" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16627,7 +16361,7 @@
         <v>-1</v>
       </c>
       <c r="AM74" t="n">
-        <v>1.085203128903241</v>
+        <v>1.08519417055344</v>
       </c>
       <c r="AN74" t="inlineStr">
         <is>
@@ -16683,50 +16417,48 @@
         <v>1.07928</v>
       </c>
       <c r="BE74" t="n">
-        <v>1.08348</v>
+        <v>1.08268</v>
       </c>
       <c r="BF74" t="n">
-        <v>1.08348</v>
+        <v>1.08188</v>
       </c>
       <c r="BG74" t="n">
-        <v>1.08328</v>
-      </c>
-      <c r="BH74" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BI74" t="b">
-        <v>1</v>
+        <v>1.08128</v>
+      </c>
+      <c r="BH74" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI74" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ74" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BK74" t="inlineStr"/>
-      <c r="BL74" s="2" t="n">
-        <v>45317.44694444445</v>
-      </c>
-      <c r="BM74" t="n">
+        <v>45323.37502314815</v>
+      </c>
+      <c r="BK74" s="2" t="n">
+        <v>45317.42549768519</v>
+      </c>
+      <c r="BL74" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN74" t="b">
-        <v>1</v>
+      <c r="BM74" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO74" t="n">
-        <v>43.97</v>
+        <v>5998.720000000007</v>
       </c>
       <c r="BP74" t="n">
-        <v>6131.199999999998</v>
-      </c>
-      <c r="BQ74" t="inlineStr"/>
+        <v>73</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>0</v>
+      </c>
       <c r="BR74" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BS74" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16844,7 +16576,7 @@
         <v>-1</v>
       </c>
       <c r="AM75" t="n">
-        <v>1.085126286237183</v>
+        <v>1.085115434367174</v>
       </c>
       <c r="AN75" t="inlineStr">
         <is>
@@ -16900,50 +16632,48 @@
         <v>1.07877</v>
       </c>
       <c r="BE75" t="n">
-        <v>1.08297</v>
+        <v>1.08217</v>
       </c>
       <c r="BF75" t="n">
-        <v>1.08297</v>
+        <v>1.08137</v>
       </c>
       <c r="BG75" t="n">
-        <v>1.08277</v>
-      </c>
-      <c r="BH75" s="2" t="n">
-        <v>45317.38541666666</v>
-      </c>
-      <c r="BI75" t="b">
-        <v>1</v>
+        <v>1.08077</v>
+      </c>
+      <c r="BH75" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI75" s="2" t="n">
+        <v>45320.69791666666</v>
       </c>
       <c r="BJ75" s="2" t="n">
-        <v>45317.38541666666</v>
-      </c>
-      <c r="BK75" t="inlineStr"/>
-      <c r="BL75" s="2" t="n">
-        <v>45317.44428240741</v>
-      </c>
-      <c r="BM75" t="n">
+        <v>45323.38751157407</v>
+      </c>
+      <c r="BK75" s="2" t="n">
+        <v>45317.42417824074</v>
+      </c>
+      <c r="BL75" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN75" t="b">
-        <v>1</v>
+      <c r="BM75" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO75" t="n">
-        <v>43.97</v>
+        <v>6086.820000000007</v>
       </c>
       <c r="BP75" t="n">
-        <v>6175.169999999998</v>
-      </c>
-      <c r="BQ75" t="inlineStr"/>
+        <v>74</v>
+      </c>
+      <c r="BQ75" t="n">
+        <v>0</v>
+      </c>
       <c r="BR75" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT75" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17061,7 +16791,7 @@
         <v>-1</v>
       </c>
       <c r="AM76" t="n">
-        <v>1.085126286237183</v>
+        <v>1.085115434367174</v>
       </c>
       <c r="AN76" t="inlineStr">
         <is>
@@ -17117,50 +16847,48 @@
         <v>1.07893</v>
       </c>
       <c r="BE76" t="n">
-        <v>1.08313</v>
+        <v>1.08233</v>
       </c>
       <c r="BF76" t="n">
-        <v>1.08313</v>
+        <v>1.08153</v>
       </c>
       <c r="BG76" t="n">
-        <v>1.08293</v>
-      </c>
-      <c r="BH76" s="2" t="n">
-        <v>45317.375</v>
-      </c>
-      <c r="BI76" t="b">
-        <v>1</v>
+        <v>1.08093</v>
+      </c>
+      <c r="BH76" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI76" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ76" s="2" t="n">
-        <v>45317.375</v>
-      </c>
-      <c r="BK76" t="inlineStr"/>
-      <c r="BL76" s="2" t="n">
-        <v>45317.44435185185</v>
-      </c>
-      <c r="BM76" t="n">
+        <v>45323.38703703704</v>
+      </c>
+      <c r="BK76" s="2" t="n">
+        <v>45317.42427083333</v>
+      </c>
+      <c r="BL76" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN76" t="b">
-        <v>1</v>
+      <c r="BM76" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO76" t="n">
-        <v>43.97</v>
+        <v>6174.920000000007</v>
       </c>
       <c r="BP76" t="n">
-        <v>6219.139999999999</v>
-      </c>
-      <c r="BQ76" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="BQ76" t="n">
+        <v>0</v>
+      </c>
       <c r="BR76" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT76" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17278,7 +17006,7 @@
         <v>-1</v>
       </c>
       <c r="AM77" t="n">
-        <v>1.085017991404517</v>
+        <v>1.085001796386809</v>
       </c>
       <c r="AN77" t="inlineStr">
         <is>
@@ -17334,50 +17062,48 @@
         <v>1.07936</v>
       </c>
       <c r="BE77" t="n">
-        <v>1.08356</v>
+        <v>1.08276</v>
       </c>
       <c r="BF77" t="n">
-        <v>1.08356</v>
+        <v>1.08196</v>
       </c>
       <c r="BG77" t="n">
-        <v>1.08336</v>
-      </c>
-      <c r="BH77" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BI77" t="b">
-        <v>1</v>
+        <v>1.08136</v>
+      </c>
+      <c r="BH77" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI77" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ77" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" s="2" t="n">
-        <v>45317.44900462963</v>
-      </c>
-      <c r="BM77" t="n">
+        <v>45323.37392361111</v>
+      </c>
+      <c r="BK77" s="2" t="n">
+        <v>45317.43412037037</v>
+      </c>
+      <c r="BL77" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN77" t="b">
-        <v>1</v>
+      <c r="BM77" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO77" t="n">
-        <v>43.97</v>
+        <v>6263.020000000008</v>
       </c>
       <c r="BP77" t="n">
-        <v>6263.109999999999</v>
-      </c>
-      <c r="BQ77" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="BQ77" t="n">
+        <v>0</v>
+      </c>
       <c r="BR77" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="BS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17495,7 +17221,7 @@
         <v>-1</v>
       </c>
       <c r="AM78" t="n">
-        <v>1.084985986318886</v>
+        <v>1.0849659393985</v>
       </c>
       <c r="AN78" t="inlineStr">
         <is>
@@ -17551,74 +17277,72 @@
         <v>1.07943</v>
       </c>
       <c r="BE78" t="n">
-        <v>1.08363</v>
+        <v>1.08283</v>
       </c>
       <c r="BF78" t="n">
-        <v>1.08363</v>
+        <v>1.08203</v>
       </c>
       <c r="BG78" t="n">
-        <v>1.08343</v>
-      </c>
-      <c r="BH78" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BI78" t="b">
-        <v>1</v>
+        <v>1.08143</v>
+      </c>
+      <c r="BH78" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI78" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ78" s="2" t="n">
-        <v>45317.36458333334</v>
-      </c>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" s="2" t="n">
-        <v>45317.451875</v>
-      </c>
-      <c r="BM78" t="n">
+        <v>45322.94043981482</v>
+      </c>
+      <c r="BK78" s="2" t="n">
+        <v>45317.43565972222</v>
+      </c>
+      <c r="BL78" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN78" t="b">
-        <v>1</v>
+      <c r="BM78" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO78" t="n">
-        <v>43.97</v>
+        <v>6351.120000000008</v>
       </c>
       <c r="BP78" t="n">
-        <v>6307.079999999999</v>
-      </c>
-      <c r="BQ78" t="inlineStr"/>
+        <v>77</v>
+      </c>
+      <c r="BQ78" t="n">
+        <v>0</v>
+      </c>
       <c r="BR78" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="BS78" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT78" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>1761</v>
+        <v>1767</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>45317.34375</v>
+        <v>45317.40625</v>
       </c>
       <c r="C79" t="n">
-        <v>1.08361</v>
+        <v>1.08151</v>
       </c>
       <c r="D79" t="n">
-        <v>1.08388</v>
+        <v>1.08192</v>
       </c>
       <c r="E79" t="n">
-        <v>1.08351</v>
+        <v>1.08123</v>
       </c>
       <c r="F79" t="n">
-        <v>1.08378</v>
+        <v>1.08189</v>
       </c>
       <c r="G79" t="n">
-        <v>347</v>
+        <v>989</v>
       </c>
       <c r="H79" t="n">
         <v>12</v>
@@ -17627,94 +17351,94 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>1.083266744767579</v>
+        <v>1.081186941101216</v>
       </c>
       <c r="K79" t="n">
-        <v>1.084149031485052</v>
+        <v>1.082286779532044</v>
       </c>
       <c r="L79" t="n">
-        <v>-0.0002924405146451227</v>
+        <v>0.0004466859528582201</v>
       </c>
       <c r="M79" t="n">
-        <v>-0.000359625286561625</v>
+        <v>0.0003909663768080117</v>
       </c>
       <c r="N79" t="n">
-        <v>-9.838876115916913e-05</v>
+        <v>-0.0003297433527697774</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0001380349531237495</v>
+        <v>-0.0002110678364731572</v>
       </c>
       <c r="P79" t="n">
-        <v>1.083807963603524</v>
+        <v>1.08166031358037</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.084414785039306</v>
+        <v>1.082951892768677</v>
       </c>
       <c r="R79" s="2" t="n">
-        <v>45317.33333333334</v>
+        <v>45317.375</v>
       </c>
       <c r="S79" s="2" t="n">
-        <v>45317.33333333334</v>
+        <v>45317.375</v>
       </c>
       <c r="T79" t="n">
-        <v>-1.702380952384175e-05</v>
+        <v>-0.0004284523809534591</v>
       </c>
       <c r="U79" t="n">
-        <v>-0.0005616244132458093</v>
+        <v>-0.0006548714926724042</v>
       </c>
       <c r="V79" t="n">
+        <v>1.0830575</v>
+      </c>
+      <c r="W79" t="n">
+        <v>-0.0007159414236435526</v>
+      </c>
+      <c r="X79" t="n">
+        <v>-0.0001974063047646764</v>
+      </c>
+      <c r="Y79" t="n">
         <v>1.083722023809523</v>
       </c>
-      <c r="W79" t="n">
+      <c r="Z79" t="n">
+        <v>1.084269725445745</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>1.084835423798695</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.084309421565662</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.084810111570582</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>-0.0001411460334502634</v>
+      </c>
+      <c r="AE79" t="n">
         <v>-0.0003623957172289898</v>
       </c>
-      <c r="X79" t="n">
-        <v>-0.0001411460334502634</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>1.084150476190477</v>
-      </c>
-      <c r="Z79" t="n">
-        <v>1.084309421565662</v>
-      </c>
-      <c r="AA79" t="n">
-        <v>1.084810111570582</v>
-      </c>
-      <c r="AB79" t="n">
-        <v>1.08384705777011</v>
-      </c>
-      <c r="AC79" t="n">
-        <v>1.084967306848545</v>
-      </c>
-      <c r="AD79" t="n">
-        <v>-0.000137690610527427</v>
-      </c>
-      <c r="AE79" t="n">
-        <v>-3.358675051105176e-05</v>
-      </c>
       <c r="AF79" t="n">
-        <v>1.083287097288879</v>
+        <v>1.082355699096293</v>
       </c>
       <c r="AG79" t="n">
-        <v>1.085088109901597</v>
+        <v>1.084832261109469</v>
       </c>
       <c r="AH79" t="n">
-        <v>24.5421245421161</v>
+        <v>9.722165849490535</v>
       </c>
       <c r="AI79" t="n">
-        <v>31.48851148850542</v>
+        <v>6.219053897555256</v>
       </c>
       <c r="AJ79" t="n">
-        <v>-0.0007455115985113291</v>
+        <v>-0.0007273835773435441</v>
       </c>
       <c r="AK79" t="n">
-        <v>1.082202168</v>
+        <v>1.08225172464</v>
       </c>
       <c r="AL79" t="n">
         <v>1</v>
       </c>
       <c r="AM79" t="n">
-        <v>1.084969261329972</v>
+        <v>1.084934888606656</v>
       </c>
       <c r="AN79" t="inlineStr">
         <is>
@@ -17722,37 +17446,37 @@
         </is>
       </c>
       <c r="AO79" t="n">
-        <v>1.084039501403269</v>
+        <v>1.082805644077791</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.084163752490393</v>
+        <v>1.083423496537917</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.083844678362573</v>
+        <v>1.082236752665979</v>
       </c>
       <c r="AR79" t="n">
-        <v>-0.0001242510871237723</v>
+        <v>-0.0006178524601263558</v>
       </c>
       <c r="AS79" t="n">
-        <v>-7.272842258668313e-05</v>
+        <v>-0.000364572920382706</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.0002952541278154873</v>
+        <v>0.0009625447175701606</v>
       </c>
       <c r="AU79" t="n">
-        <v>-8.022359821135971e-05</v>
+        <v>-0.000244052287582619</v>
       </c>
       <c r="AV79" t="n">
-        <v>-0.0001326694186449817</v>
+        <v>-0.0003525111799091984</v>
       </c>
       <c r="AW79" t="n">
-        <v>-1.883728930085482e-05</v>
+        <v>-0.0003951427588584355</v>
       </c>
       <c r="AX79" t="n">
-        <v>1.084139932490388</v>
+        <v>1.083199297383549</v>
       </c>
       <c r="AY79" t="n">
-        <v>1.083549424234758</v>
+        <v>1.081274207948409</v>
       </c>
       <c r="AZ79" t="inlineStr"/>
       <c r="BA79" t="b">
@@ -17767,77 +17491,75 @@
         </is>
       </c>
       <c r="BD79" t="n">
-        <v>1.08878</v>
+        <v>1.08689</v>
       </c>
       <c r="BE79" t="n">
-        <v>1.08458</v>
+        <v>1.08349</v>
       </c>
       <c r="BF79" t="n">
-        <v>1.08458</v>
+        <v>1.08429</v>
       </c>
       <c r="BG79" t="n">
-        <v>1.08478</v>
-      </c>
-      <c r="BH79" s="2" t="n">
+        <v>1.08489</v>
+      </c>
+      <c r="BH79" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI79" s="2" t="n">
         <v>45317.51041666666</v>
       </c>
-      <c r="BI79" t="b">
-        <v>1</v>
-      </c>
       <c r="BJ79" s="2" t="n">
-        <v>45317.51041666666</v>
-      </c>
-      <c r="BK79" t="inlineStr"/>
-      <c r="BL79" s="2" t="n">
-        <v>45320.00349537037</v>
-      </c>
-      <c r="BM79" t="n">
+        <v>45317.54915509259</v>
+      </c>
+      <c r="BK79" s="2" t="n">
+        <v>45317.47469907408</v>
+      </c>
+      <c r="BL79" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN79" t="b">
-        <v>1</v>
+      <c r="BM79" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>88.18000000000001</v>
       </c>
       <c r="BO79" t="n">
-        <v>43.99</v>
+        <v>6439.300000000008</v>
       </c>
       <c r="BP79" t="n">
-        <v>6351.069999999999</v>
-      </c>
-      <c r="BQ79" t="inlineStr"/>
+        <v>78</v>
+      </c>
+      <c r="BQ79" t="n">
+        <v>0</v>
+      </c>
       <c r="BR79" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BS79" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>1767</v>
+        <v>1776</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>45317.40625</v>
+        <v>45317.5</v>
       </c>
       <c r="C80" t="n">
-        <v>1.08151</v>
+        <v>1.08436</v>
       </c>
       <c r="D80" t="n">
-        <v>1.08192</v>
+        <v>1.08565</v>
       </c>
       <c r="E80" t="n">
-        <v>1.08123</v>
+        <v>1.08436</v>
       </c>
       <c r="F80" t="n">
-        <v>1.08189</v>
+        <v>1.08553</v>
       </c>
       <c r="G80" t="n">
-        <v>989</v>
+        <v>880</v>
       </c>
       <c r="H80" t="n">
         <v>12</v>
@@ -17846,94 +17568,94 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1.081186941101216</v>
+        <v>1.08436</v>
       </c>
       <c r="K80" t="n">
-        <v>1.082286779532044</v>
+        <v>1.085855047134534</v>
       </c>
       <c r="L80" t="n">
-        <v>0.0004466859528582201</v>
+        <v>0.0005101474787062217</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0003909663768080117</v>
+        <v>0.0002255597940001938</v>
       </c>
       <c r="N80" t="n">
-        <v>-0.0003297433527697774</v>
+        <v>0.0004162866921833251</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.0002110678364731572</v>
+        <v>0.0003073049455700456</v>
       </c>
       <c r="P80" t="n">
-        <v>1.08166031358037</v>
+        <v>1.083388095812372</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.082951892768677</v>
+        <v>1.084355563912337</v>
       </c>
       <c r="R80" s="2" t="n">
-        <v>45317.375</v>
+        <v>45317.5</v>
       </c>
       <c r="S80" s="2" t="n">
-        <v>45317.375</v>
+        <v>45317.5</v>
       </c>
       <c r="T80" t="n">
-        <v>-0.0004284523809534591</v>
+        <v>0.0002921428571422968</v>
       </c>
       <c r="U80" t="n">
-        <v>-0.0006548714926724042</v>
+        <v>-0.0005107241539030749</v>
       </c>
       <c r="V80" t="n">
-        <v>1.0830575</v>
+        <v>1.084429285714286</v>
       </c>
       <c r="W80" t="n">
-        <v>-0.0007159414236435526</v>
+        <v>0.0004893346577266976</v>
       </c>
       <c r="X80" t="n">
-        <v>-0.0001974063047646764</v>
+        <v>0.0005388046762418723</v>
       </c>
       <c r="Y80" t="n">
-        <v>1.083722023809523</v>
+        <v>1.083450714285714</v>
       </c>
       <c r="Z80" t="n">
-        <v>1.084269725445745</v>
+        <v>1.080655746150962</v>
       </c>
       <c r="AA80" t="n">
-        <v>1.084835423798695</v>
+        <v>1.084258416935779</v>
       </c>
       <c r="AB80" t="n">
-        <v>1.084309421565662</v>
+        <v>1.081605634425968</v>
       </c>
       <c r="AC80" t="n">
-        <v>1.084810111570582</v>
+        <v>1.084323126869329</v>
       </c>
       <c r="AD80" t="n">
-        <v>-0.0001411460334502634</v>
+        <v>0.0001568821691259243</v>
       </c>
       <c r="AE80" t="n">
-        <v>-0.0003623957172289898</v>
+        <v>-0.0001810058183109062</v>
       </c>
       <c r="AF80" t="n">
-        <v>1.082355699096293</v>
+        <v>1.085620581448011</v>
       </c>
       <c r="AG80" t="n">
-        <v>1.084832261109469</v>
+        <v>1.08486392325881</v>
       </c>
       <c r="AH80" t="n">
-        <v>9.722165849490535</v>
+        <v>91.72634850494758</v>
       </c>
       <c r="AI80" t="n">
-        <v>6.219053897555256</v>
+        <v>85.56830157503089</v>
       </c>
       <c r="AJ80" t="n">
-        <v>-0.0007273835773435441</v>
+        <v>-0.0006853787555898565</v>
       </c>
       <c r="AK80" t="n">
-        <v>1.08225172464</v>
+        <v>1.08123</v>
       </c>
       <c r="AL80" t="n">
         <v>1</v>
       </c>
       <c r="AM80" t="n">
-        <v>1.084986267050946</v>
+        <v>1.084978591635288</v>
       </c>
       <c r="AN80" t="inlineStr">
         <is>
@@ -17941,37 +17663,37 @@
         </is>
       </c>
       <c r="AO80" t="n">
-        <v>1.082805644077791</v>
+        <v>1.083887496386475</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.083423496537917</v>
+        <v>1.083717610465716</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.082236752665979</v>
+        <v>1.083970330237358</v>
       </c>
       <c r="AR80" t="n">
-        <v>-0.0006178524601263558</v>
+        <v>0.0001698859207588388</v>
       </c>
       <c r="AS80" t="n">
-        <v>-0.000364572920382706</v>
+        <v>-0.0001495451137899355</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.0009625447175701606</v>
+        <v>0.0009771937712930447</v>
       </c>
       <c r="AU80" t="n">
-        <v>-0.000244052287582619</v>
+        <v>0.0005232507739936221</v>
       </c>
       <c r="AV80" t="n">
-        <v>-0.0003525111799091984</v>
+        <v>0.0002778224974195886</v>
       </c>
       <c r="AW80" t="n">
-        <v>-0.0003951427588584355</v>
+        <v>0.0003405538355691906</v>
       </c>
       <c r="AX80" t="n">
-        <v>1.083199297383549</v>
+        <v>1.084947524008651</v>
       </c>
       <c r="AY80" t="n">
-        <v>1.081274207948409</v>
+        <v>1.082993136466065</v>
       </c>
       <c r="AZ80" t="inlineStr"/>
       <c r="BA80" t="b">
@@ -17982,83 +17704,77 @@
       </c>
       <c r="BC80" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>even</t>
         </is>
       </c>
       <c r="BD80" t="n">
-        <v>1.08689</v>
+        <v>1.09053</v>
       </c>
       <c r="BE80" t="n">
-        <v>1.08269</v>
+        <v>1.08633</v>
       </c>
       <c r="BF80" t="n">
-        <v>1.08269</v>
+        <v>1.08713</v>
       </c>
       <c r="BG80" t="n">
-        <v>1.08289</v>
-      </c>
-      <c r="BH80" s="2" t="n">
-        <v>45317.44791666666</v>
-      </c>
-      <c r="BI80" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ80" s="2" t="n">
-        <v>45317.44791666666</v>
-      </c>
+        <v>1.08753</v>
+      </c>
+      <c r="BH80" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI80" s="2" t="n">
+        <v>45322.70833333334</v>
+      </c>
+      <c r="BJ80" t="inlineStr"/>
       <c r="BK80" s="2" t="n">
-        <v>45317.54915509259</v>
-      </c>
-      <c r="BL80" s="2" t="n">
-        <v>45320.47018518519</v>
-      </c>
-      <c r="BM80" t="n">
+        <v>45317.64806712963</v>
+      </c>
+      <c r="BL80" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN80" t="b">
-        <v>1</v>
+      <c r="BM80" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>44.09</v>
       </c>
       <c r="BO80" t="n">
-        <v>274.95</v>
+        <v>6483.390000000009</v>
       </c>
       <c r="BP80" t="n">
-        <v>6626.019999999999</v>
-      </c>
-      <c r="BQ80" t="inlineStr"/>
+        <v>79</v>
+      </c>
+      <c r="BQ80" t="n">
+        <v>0</v>
+      </c>
       <c r="BR80" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="BS80" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT80" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>1776</v>
+        <v>1853</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>45317.5</v>
+        <v>45320.30208333334</v>
       </c>
       <c r="C81" t="n">
-        <v>1.08436</v>
+        <v>1.08413</v>
       </c>
       <c r="D81" t="n">
-        <v>1.08565</v>
+        <v>1.08425</v>
       </c>
       <c r="E81" t="n">
-        <v>1.08436</v>
+        <v>1.08391</v>
       </c>
       <c r="F81" t="n">
-        <v>1.08553</v>
+        <v>1.08402</v>
       </c>
       <c r="G81" t="n">
-        <v>880</v>
+        <v>241</v>
       </c>
       <c r="H81" t="n">
         <v>12</v>
@@ -18067,139 +17783,137 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>1.08436</v>
+        <v>1.083918570162827</v>
       </c>
       <c r="K81" t="n">
-        <v>1.085855047134534</v>
+        <v>1.08425</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0005101474787062217</v>
+        <v>-2.108778701259783e-05</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0002255597940001938</v>
+        <v>-3.330240397976164e-06</v>
       </c>
       <c r="N81" t="n">
-        <v>0.0004162866921833251</v>
+        <v>-0.0002024846850071659</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0003073049455700456</v>
+        <v>-0.0001518144766057121</v>
       </c>
       <c r="P81" t="n">
-        <v>1.083388095812372</v>
+        <v>1.084306719505292</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.084355563912337</v>
+        <v>1.084891109515441</v>
       </c>
       <c r="R81" s="2" t="n">
-        <v>45317.5</v>
+        <v>45320.29166666666</v>
       </c>
       <c r="S81" s="2" t="n">
-        <v>45317.5</v>
+        <v>45320.29166666666</v>
       </c>
       <c r="T81" t="n">
-        <v>0.0002921428571422968</v>
+        <v>6.416666666608783e-05</v>
       </c>
       <c r="U81" t="n">
-        <v>-0.0005107241539030749</v>
+        <v>-0.0003145247704923193</v>
       </c>
       <c r="V81" t="n">
-        <v>1.084429285714286</v>
+        <v>1.084233571428572</v>
       </c>
       <c r="W81" t="n">
-        <v>0.0004893346577266976</v>
+        <v>6.401314215532857e-06</v>
       </c>
       <c r="X81" t="n">
-        <v>0.0005388046762418723</v>
+        <v>-3.354694022462871e-05</v>
       </c>
       <c r="Y81" t="n">
-        <v>1.083450714285714</v>
+        <v>1.084323571428571</v>
       </c>
       <c r="Z81" t="n">
-        <v>1.080655746150962</v>
+        <v>1.083873620875469</v>
       </c>
       <c r="AA81" t="n">
-        <v>1.084258416935779</v>
+        <v>1.084806237976726</v>
       </c>
       <c r="AB81" t="n">
-        <v>1.081605634425968</v>
+        <v>1.083803264407601</v>
       </c>
       <c r="AC81" t="n">
-        <v>1.084323126869329</v>
+        <v>1.084860077039811</v>
       </c>
       <c r="AD81" t="n">
-        <v>0.0001568821691259243</v>
+        <v>-4.020050054706313e-05</v>
       </c>
       <c r="AE81" t="n">
-        <v>-0.0001810058183109062</v>
+        <v>3.68947190574605e-05</v>
       </c>
       <c r="AF81" t="n">
-        <v>1.085620581448011</v>
+        <v>1.084083328056767</v>
       </c>
       <c r="AG81" t="n">
-        <v>1.08486392325881</v>
+        <v>1.084968716081209</v>
       </c>
       <c r="AH81" t="n">
-        <v>91.72634850494758</v>
+        <v>35.05448884276891</v>
       </c>
       <c r="AI81" t="n">
-        <v>85.56830157503089</v>
+        <v>53.26933056565193</v>
       </c>
       <c r="AJ81" t="n">
-        <v>-0.0006853787555898565</v>
-      </c>
-      <c r="AK81" t="n">
-        <v>1.08123</v>
-      </c>
+        <v>-0.0001802274232159691</v>
+      </c>
+      <c r="AK81" t="inlineStr"/>
       <c r="AL81" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM81" t="n">
-        <v>1.08508552210605</v>
+        <v>1.083850716015935</v>
       </c>
       <c r="AN81" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO81" t="n">
-        <v>1.083887496386475</v>
+        <v>1.084339968528064</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.083717610465716</v>
+        <v>1.084493553697466</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.083970330237358</v>
+        <v>1.084308073615412</v>
       </c>
       <c r="AR81" t="n">
-        <v>0.0001698859207588388</v>
+        <v>-0.000153585169401893</v>
       </c>
       <c r="AS81" t="n">
-        <v>-0.0001495451137899355</v>
+        <v>-0.0001730301553208852</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.0009771937712930447</v>
+        <v>0.0001780514906640655</v>
       </c>
       <c r="AU81" t="n">
-        <v>0.0005232507739936221</v>
+        <v>-7.127966976216982e-05</v>
       </c>
       <c r="AV81" t="n">
-        <v>0.0002778224974195886</v>
+        <v>-6.896800825617611e-05</v>
       </c>
       <c r="AW81" t="n">
-        <v>0.0003405538355691906</v>
+        <v>-1.36704506372709e-05</v>
       </c>
       <c r="AX81" t="n">
-        <v>1.084947524008651</v>
+        <v>1.084486125106076</v>
       </c>
       <c r="AY81" t="n">
-        <v>1.082993136466065</v>
+        <v>1.084130022124748</v>
       </c>
       <c r="AZ81" t="inlineStr"/>
       <c r="BA81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC81" t="inlineStr">
         <is>
@@ -18207,77 +17921,75 @@
         </is>
       </c>
       <c r="BD81" t="n">
-        <v>1.09053</v>
+        <v>1.07902</v>
       </c>
       <c r="BE81" t="n">
-        <v>1.08633</v>
+        <v>1.08242</v>
       </c>
       <c r="BF81" t="n">
-        <v>1.08633</v>
+        <v>1.08162</v>
       </c>
       <c r="BG81" t="n">
-        <v>1.08653</v>
-      </c>
-      <c r="BH81" s="2" t="n">
-        <v>45317.55208333334</v>
-      </c>
-      <c r="BI81" t="b">
-        <v>1</v>
+        <v>1.08102</v>
+      </c>
+      <c r="BH81" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI81" s="2" t="n">
+        <v>45320.67708333334</v>
       </c>
       <c r="BJ81" s="2" t="n">
-        <v>45317.55208333334</v>
-      </c>
-      <c r="BK81" t="inlineStr"/>
-      <c r="BL81" s="2" t="n">
-        <v>45317.64806712963</v>
-      </c>
-      <c r="BM81" t="n">
+        <v>45323.38349537037</v>
+      </c>
+      <c r="BK81" s="2" t="n">
+        <v>45320.54856481482</v>
+      </c>
+      <c r="BL81" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN81" t="b">
-        <v>1</v>
+      <c r="BM81" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>88.09999999999999</v>
       </c>
       <c r="BO81" t="n">
-        <v>43.99</v>
+        <v>6571.490000000009</v>
       </c>
       <c r="BP81" t="n">
-        <v>6670.009999999998</v>
-      </c>
-      <c r="BQ81" t="inlineStr"/>
+        <v>80</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>0</v>
+      </c>
       <c r="BR81" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="BS81" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT81" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU81" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>1801</v>
+        <v>1863</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>45317.76041666666</v>
+        <v>45320.40625</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0861</v>
+        <v>1.08463</v>
       </c>
       <c r="D82" t="n">
-        <v>1.08679</v>
+        <v>1.08473</v>
       </c>
       <c r="E82" t="n">
-        <v>1.0861</v>
+        <v>1.08343</v>
       </c>
       <c r="F82" t="n">
-        <v>1.08657</v>
+        <v>1.08366</v>
       </c>
       <c r="G82" t="n">
-        <v>1033</v>
+        <v>853</v>
       </c>
       <c r="H82" t="n">
         <v>12</v>
@@ -18286,139 +17998,137 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.08608627846346</v>
+        <v>1.083271657797559</v>
       </c>
       <c r="K82" t="n">
-        <v>1.086950433126484</v>
+        <v>1.08473</v>
       </c>
       <c r="L82" t="n">
-        <v>1.341841110365216e-05</v>
+        <v>-9.996575608513445e-06</v>
       </c>
       <c r="M82" t="n">
-        <v>-5.560033347342865e-05</v>
+        <v>-0.0001877482891561017</v>
       </c>
       <c r="N82" t="n">
-        <v>0.000106221041815498</v>
+        <v>9.064664580410262e-05</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0001477674285610011</v>
+        <v>-0.0002063255941590944</v>
       </c>
       <c r="P82" t="n">
-        <v>1.085523317694237</v>
+        <v>1.084082854545923</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.086453316776583</v>
+        <v>1.084761223885647</v>
       </c>
       <c r="R82" s="2" t="n">
-        <v>45317.75</v>
+        <v>45320.375</v>
       </c>
       <c r="S82" s="2" t="n">
-        <v>45317.75</v>
+        <v>45320.375</v>
       </c>
       <c r="T82" t="n">
-        <v>-0.0003029761904767003</v>
+        <v>0.0001123809523801977</v>
       </c>
       <c r="U82" t="n">
-        <v>0.0005802084436634658</v>
+        <v>-0.0003011229452347663</v>
       </c>
       <c r="V82" t="n">
-        <v>1.086937500000001</v>
+        <v>1.084103928571429</v>
       </c>
       <c r="W82" t="n">
-        <v>-4.567807826548575e-05</v>
+        <v>-0.0001754863780044674</v>
       </c>
       <c r="X82" t="n">
-        <v>-0.0004253415879016737</v>
+        <v>8.014864827868321e-05</v>
       </c>
       <c r="Y82" t="n">
-        <v>1.087179642857142</v>
+        <v>1.084345952380952</v>
       </c>
       <c r="Z82" t="n">
-        <v>1.085615477106494</v>
+        <v>1.08417548956934</v>
       </c>
       <c r="AA82" t="n">
-        <v>1.088924687090997</v>
+        <v>1.084609210942145</v>
       </c>
       <c r="AB82" t="n">
-        <v>1.086010857659169</v>
+        <v>1.083889998653599</v>
       </c>
       <c r="AC82" t="n">
-        <v>1.088540314171624</v>
+        <v>1.084653942011703</v>
       </c>
       <c r="AD82" t="n">
-        <v>-1.931777360130813e-05</v>
+        <v>2.212958193948331e-05</v>
       </c>
       <c r="AE82" t="n">
-        <v>-0.0002117815850881479</v>
+        <v>-9.417037105029664e-06</v>
       </c>
       <c r="AF82" t="n">
-        <v>1.086497449357267</v>
+        <v>1.083911480895196</v>
       </c>
       <c r="AG82" t="n">
-        <v>1.085642697069305</v>
+        <v>1.084835409291135</v>
       </c>
       <c r="AH82" t="n">
-        <v>28.83771929824528</v>
+        <v>59.66061544235236</v>
       </c>
       <c r="AI82" t="n">
-        <v>24.01315789473646</v>
+        <v>70.51075773212376</v>
       </c>
       <c r="AJ82" t="n">
-        <v>0.0001437484529587667</v>
-      </c>
-      <c r="AK82" t="n">
-        <v>1.083182763162184</v>
-      </c>
+        <v>-0.0002323930681559195</v>
+      </c>
+      <c r="AK82" t="inlineStr"/>
       <c r="AL82" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM82" t="n">
-        <v>1.085377870234137</v>
+        <v>1.083589055015647</v>
       </c>
       <c r="AN82" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO82" t="n">
-        <v>1.08646532818844</v>
+        <v>1.084298685985478</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.086215176847374</v>
+        <v>1.084385320708566</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.086263419332645</v>
+        <v>1.08426725490196</v>
       </c>
       <c r="AR82" t="n">
-        <v>0.000250151341065763</v>
+        <v>-8.663472308811926e-05</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.0004384185991266276</v>
+        <v>-9.673544834131454e-05</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.0005224940191117356</v>
+        <v>0.0002385281255132201</v>
       </c>
       <c r="AU82" t="n">
-        <v>9.243206053888287e-06</v>
+        <v>-0.0001341898864817281</v>
       </c>
       <c r="AV82" t="n">
-        <v>-0.0001283281733739372</v>
+        <v>6.733402132863553e-05</v>
       </c>
       <c r="AW82" t="n">
-        <v>-7.158582731370267e-05</v>
+        <v>5.357757137858243e-05</v>
       </c>
       <c r="AX82" t="n">
-        <v>1.086785913351757</v>
+        <v>1.084505783027474</v>
       </c>
       <c r="AY82" t="n">
-        <v>1.085740925313534</v>
+        <v>1.084028726776447</v>
       </c>
       <c r="AZ82" t="inlineStr"/>
       <c r="BA82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC82" t="inlineStr">
         <is>
@@ -18426,77 +18136,75 @@
         </is>
       </c>
       <c r="BD82" t="n">
-        <v>1.09157</v>
+        <v>1.07866</v>
       </c>
       <c r="BE82" t="n">
-        <v>1.08737</v>
+        <v>1.08286</v>
       </c>
       <c r="BF82" t="n">
-        <v>1.08737</v>
+        <v>1.08206</v>
       </c>
       <c r="BG82" t="n">
-        <v>1.08757</v>
-      </c>
-      <c r="BH82" s="2" t="n">
-        <v>45322.70833333334</v>
-      </c>
-      <c r="BI82" t="b">
-        <v>1</v>
+        <v>1.08166</v>
+      </c>
+      <c r="BH82" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI82" s="2" t="n">
+        <v>45320.52083333334</v>
       </c>
       <c r="BJ82" s="2" t="n">
-        <v>45322.70833333334</v>
-      </c>
-      <c r="BK82" t="inlineStr"/>
-      <c r="BL82" s="2" t="n">
-        <v>45322.71143518519</v>
-      </c>
-      <c r="BM82" t="n">
+        <v>45323.38783564815</v>
+      </c>
+      <c r="BK82" s="2" t="n">
+        <v>45320.4794675926</v>
+      </c>
+      <c r="BL82" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN82" t="b">
-        <v>1</v>
+      <c r="BM82" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>44.05</v>
       </c>
       <c r="BO82" t="n">
-        <v>43.99</v>
+        <v>6615.540000000009</v>
       </c>
       <c r="BP82" t="n">
-        <v>6713.999999999998</v>
-      </c>
-      <c r="BQ82" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BQ82" t="n">
+        <v>0</v>
+      </c>
       <c r="BR82" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BS82" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT82" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU82" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>1803</v>
+        <v>1864</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>45317.78125</v>
+        <v>45320.41666666666</v>
       </c>
       <c r="C83" t="n">
-        <v>1.08637</v>
+        <v>1.08366</v>
       </c>
       <c r="D83" t="n">
-        <v>1.08661</v>
+        <v>1.08395</v>
       </c>
       <c r="E83" t="n">
-        <v>1.08625</v>
+        <v>1.08325</v>
       </c>
       <c r="F83" t="n">
-        <v>1.08643</v>
+        <v>1.08363</v>
       </c>
       <c r="G83" t="n">
-        <v>860</v>
+        <v>973</v>
       </c>
       <c r="H83" t="n">
         <v>12</v>
@@ -18505,139 +18213,137 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.08625</v>
+        <v>1.08325</v>
       </c>
       <c r="K83" t="n">
-        <v>1.086849990307265</v>
+        <v>1.084029996137773</v>
       </c>
       <c r="L83" t="n">
-        <v>-0.0001132972256291619</v>
+        <v>3.328124199346816e-06</v>
       </c>
       <c r="M83" t="n">
-        <v>5.98067436139123e-05</v>
+        <v>4.612383886624275e-05</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0001020094894602214</v>
+        <v>-0.0001928220020180929</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0001293109763269129</v>
+        <v>-0.0003456466731106335</v>
       </c>
       <c r="P83" t="n">
-        <v>1.085831639514052</v>
+        <v>1.084159902071014</v>
       </c>
       <c r="Q83" t="n">
-        <v>1.0866774656516</v>
+        <v>1.08513159495523</v>
       </c>
       <c r="R83" s="2" t="n">
-        <v>45317.75</v>
+        <v>45320.41666666666</v>
       </c>
       <c r="S83" s="2" t="n">
-        <v>45317.75</v>
+        <v>45320.41666666666</v>
       </c>
       <c r="T83" t="n">
-        <v>-0.0003029761904767003</v>
+        <v>-0.0002420238095235394</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0005802084436634658</v>
+        <v>-0.0003585626261595198</v>
       </c>
       <c r="V83" t="n">
-        <v>1.086937500000001</v>
+        <v>1.083839880952381</v>
       </c>
       <c r="W83" t="n">
-        <v>-4.567807826548575e-05</v>
+        <v>-0.0002172300697880306</v>
       </c>
       <c r="X83" t="n">
-        <v>-0.0004253415879016737</v>
+        <v>7.742283296252241e-05</v>
       </c>
       <c r="Y83" t="n">
-        <v>1.087179642857142</v>
+        <v>1.084103928571429</v>
       </c>
       <c r="Z83" t="n">
-        <v>1.085615477106494</v>
+        <v>1.084117425893664</v>
       </c>
       <c r="AA83" t="n">
-        <v>1.088924687090997</v>
+        <v>1.084704756762545</v>
       </c>
       <c r="AB83" t="n">
-        <v>1.086010857659169</v>
+        <v>1.08417548956934</v>
       </c>
       <c r="AC83" t="n">
-        <v>1.088540314171624</v>
+        <v>1.084609210942145</v>
       </c>
       <c r="AD83" t="n">
-        <v>-1.931777360130813e-05</v>
+        <v>8.014864827868321e-05</v>
       </c>
       <c r="AE83" t="n">
-        <v>-0.0002117815850881479</v>
+        <v>-0.0001754863780044674</v>
       </c>
       <c r="AF83" t="n">
-        <v>1.086497449357267</v>
+        <v>1.083570493631732</v>
       </c>
       <c r="AG83" t="n">
-        <v>1.085642697069305</v>
+        <v>1.084720576547844</v>
       </c>
       <c r="AH83" t="n">
-        <v>32.01754385964777</v>
+        <v>36.13120367764519</v>
       </c>
       <c r="AI83" t="n">
-        <v>29.75146198830329</v>
+        <v>56.41070144166323</v>
       </c>
       <c r="AJ83" t="n">
-        <v>0.0001437484529587667</v>
-      </c>
-      <c r="AK83" t="n">
-        <v>1.083182763162184</v>
-      </c>
+        <v>-0.0002576269797566395</v>
+      </c>
+      <c r="AK83" t="inlineStr"/>
       <c r="AL83" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM83" t="n">
-        <v>1.085377870234137</v>
+        <v>1.083460103600818</v>
       </c>
       <c r="AN83" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO83" t="n">
-        <v>1.08643837106983</v>
+        <v>1.084195811218482</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.086236907448023</v>
+        <v>1.08432937102645</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.086215118679051</v>
+        <v>1.084133092535259</v>
       </c>
       <c r="AR83" t="n">
-        <v>0.000201463621806397</v>
+        <v>-0.0001335598079685862</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.0003558299139880781</v>
+        <v>-0.0001041003202667689</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.0004927616056550032</v>
+        <v>0.0002754795818096547</v>
       </c>
       <c r="AU83" t="n">
-        <v>-2.337117302975145e-05</v>
+        <v>-0.0001341623667010516</v>
       </c>
       <c r="AV83" t="n">
-        <v>-2.492948056453947e-05</v>
+        <v>-0.0001341898864817281</v>
       </c>
       <c r="AW83" t="n">
-        <v>9.243206053888287e-06</v>
+        <v>6.733402132863553e-05</v>
       </c>
       <c r="AX83" t="n">
-        <v>1.086707880284706</v>
+        <v>1.084408572117069</v>
       </c>
       <c r="AY83" t="n">
-        <v>1.085722357073396</v>
+        <v>1.08385761295345</v>
       </c>
       <c r="AZ83" t="inlineStr"/>
       <c r="BA83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC83" t="inlineStr">
         <is>
@@ -18645,272 +18351,51 @@
         </is>
       </c>
       <c r="BD83" t="n">
-        <v>1.09143</v>
+        <v>1.07863</v>
       </c>
       <c r="BE83" t="n">
-        <v>1.08723</v>
+        <v>1.08203</v>
       </c>
       <c r="BF83" t="n">
-        <v>1.08723</v>
+        <v>1.08123</v>
       </c>
       <c r="BG83" t="n">
-        <v>1.08743</v>
-      </c>
-      <c r="BH83" s="2" t="n">
-        <v>45322.69791666666</v>
-      </c>
-      <c r="BI83" t="b">
-        <v>1</v>
+        <v>1.08063</v>
+      </c>
+      <c r="BH83" t="b">
+        <v>1</v>
+      </c>
+      <c r="BI83" s="2" t="n">
+        <v>45320.72916666666</v>
       </c>
       <c r="BJ83" s="2" t="n">
-        <v>45322.69791666666</v>
-      </c>
-      <c r="BK83" t="inlineStr"/>
-      <c r="BL83" s="2" t="n">
-        <v>45322.70023148148</v>
-      </c>
-      <c r="BM83" t="n">
+        <v>45323.38784722222</v>
+      </c>
+      <c r="BK83" s="2" t="n">
+        <v>45320.54260416667</v>
+      </c>
+      <c r="BL83" t="n">
         <v>0.03</v>
       </c>
-      <c r="BN83" t="b">
-        <v>1</v>
+      <c r="BM83" t="b">
+        <v>1</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>88.09</v>
       </c>
       <c r="BO83" t="n">
-        <v>43.99</v>
+        <v>6703.630000000009</v>
       </c>
       <c r="BP83" t="n">
-        <v>6757.989999999998</v>
-      </c>
-      <c r="BQ83" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="BQ83" t="n">
+        <v>0</v>
+      </c>
       <c r="BR83" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="BS83" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT83" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU83" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>1814</v>
-      </c>
-      <c r="B84" s="2" t="n">
-        <v>45317.89583333334</v>
-      </c>
-      <c r="C84" t="n">
-        <v>1.08561</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.08595</v>
-      </c>
-      <c r="E84" t="n">
-        <v>1.08555</v>
-      </c>
-      <c r="F84" t="n">
-        <v>1.08592</v>
-      </c>
-      <c r="G84" t="n">
-        <v>553</v>
-      </c>
-      <c r="H84" t="n">
-        <v>12</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1.08555</v>
-      </c>
-      <c r="K84" t="n">
-        <v>1.086048730509265</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.10505876482596e-05</v>
-      </c>
-      <c r="M84" t="n">
-        <v>3.72183178910136e-05</v>
-      </c>
-      <c r="N84" t="n">
-        <v>2.807409927085931e-06</v>
-      </c>
-      <c r="O84" t="n">
-        <v>6.423015288198515e-05</v>
-      </c>
-      <c r="P84" t="n">
-        <v>1.085346591196924</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>1.085930251292846</v>
-      </c>
-      <c r="R84" s="2" t="n">
-        <v>45317.875</v>
-      </c>
-      <c r="S84" s="2" t="n">
-        <v>45317.875</v>
-      </c>
-      <c r="T84" t="n">
-        <v>-0.0004619047619047745</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0.0003556322254782973</v>
-      </c>
-      <c r="V84" t="n">
-        <v>1.085907142857143</v>
-      </c>
-      <c r="W84" t="n">
-        <v>-3.659905441117789e-05</v>
-      </c>
-      <c r="X84" t="n">
-        <v>-0.0002392706821506273</v>
-      </c>
-      <c r="Y84" t="n">
-        <v>1.08609880952381</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>1.085456732006762</v>
-      </c>
-      <c r="AA84" t="n">
-        <v>1.087478884496593</v>
-      </c>
-      <c r="AB84" t="n">
-        <v>1.085496462224136</v>
-      </c>
-      <c r="AC84" t="n">
-        <v>1.087922673446725</v>
-      </c>
-      <c r="AD84" t="n">
-        <v>-0.0002970801348701722</v>
-      </c>
-      <c r="AE84" t="n">
-        <v>-3.659341790146041e-05</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>1.085758424050269</v>
-      </c>
-      <c r="AG84" t="n">
-        <v>1.085685222095503</v>
-      </c>
-      <c r="AH84" t="n">
-        <v>27.47474747475</v>
-      </c>
-      <c r="AI84" t="n">
-        <v>23.50301258196236</v>
-      </c>
-      <c r="AJ84" t="n">
-        <v>0.0002931259528986433</v>
-      </c>
-      <c r="AK84" t="n">
-        <v>1.084359531481234</v>
-      </c>
-      <c r="AL84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM84" t="n">
-        <v>1.085514602415742</v>
-      </c>
-      <c r="AN84" t="inlineStr">
-        <is>
-          <t>bullish</t>
-        </is>
-      </c>
-      <c r="AO84" t="n">
-        <v>1.08602249215175</v>
-      </c>
-      <c r="AP84" t="n">
-        <v>1.086107598735003</v>
-      </c>
-      <c r="AQ84" t="n">
-        <v>1.085940257997935</v>
-      </c>
-      <c r="AR84" t="n">
-        <v>-8.5106583253447e-05</v>
-      </c>
-      <c r="AS84" t="n">
-        <v>2.771861017641109e-05</v>
-      </c>
-      <c r="AT84" t="n">
-        <v>0.0004905099387426616</v>
-      </c>
-      <c r="AU84" t="n">
-        <v>-3.465084279419273e-05</v>
-      </c>
-      <c r="AV84" t="n">
-        <v>-1.95493636052646e-05</v>
-      </c>
-      <c r="AW84" t="n">
-        <v>-2.415204678363203e-05</v>
-      </c>
-      <c r="AX84" t="n">
-        <v>1.086430767936678</v>
-      </c>
-      <c r="AY84" t="n">
-        <v>1.085449748059192</v>
-      </c>
-      <c r="AZ84" t="inlineStr"/>
-      <c r="BA84" t="b">
-        <v>1</v>
-      </c>
-      <c r="BB84" t="b">
-        <v>0</v>
-      </c>
-      <c r="BC84" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="BD84" t="n">
-        <v>1.09092</v>
-      </c>
-      <c r="BE84" t="n">
-        <v>1.08672</v>
-      </c>
-      <c r="BF84" t="n">
-        <v>1.08672</v>
-      </c>
-      <c r="BG84" t="n">
-        <v>1.08692</v>
-      </c>
-      <c r="BH84" s="2" t="n">
-        <v>45322.69791666666</v>
-      </c>
-      <c r="BI84" t="b">
-        <v>1</v>
-      </c>
-      <c r="BJ84" s="2" t="n">
-        <v>45322.69791666666</v>
-      </c>
-      <c r="BK84" t="inlineStr"/>
-      <c r="BL84" s="2" t="n">
-        <v>45322.72554398148</v>
-      </c>
-      <c r="BM84" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="BN84" t="b">
-        <v>1</v>
-      </c>
-      <c r="BO84" t="n">
-        <v>43.99</v>
-      </c>
-      <c r="BP84" t="n">
-        <v>6801.979999999998</v>
-      </c>
-      <c r="BQ84" t="inlineStr"/>
-      <c r="BR84" t="n">
-        <v>21</v>
-      </c>
-      <c r="BS84" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT84" t="n">
-        <v>4</v>
-      </c>
-      <c r="BU84" t="n">
         <v>1</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BZ29"/>
+  <dimension ref="A1:BZ34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -826,25 +826,25 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>106</v>
+        <v>696</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45497.36805555555</v>
+        <v>45476.41666666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08518</v>
+        <v>1.07463</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0852</v>
+        <v>1.07527</v>
       </c>
       <c r="E2" t="n">
-        <v>1.08508</v>
+        <v>1.07463</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08512</v>
+        <v>1.07517</v>
       </c>
       <c r="G2" t="n">
-        <v>131</v>
+        <v>425</v>
       </c>
       <c r="H2" t="n">
         <v>12</v>
@@ -853,173 +853,183 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.085090006239561</v>
+        <v>1.07463</v>
       </c>
       <c r="K2" t="n">
-        <v>1.085330006806509</v>
+        <v>1.0755650134635</v>
       </c>
       <c r="L2" t="n">
-        <v>-9.216962347682279e-05</v>
+        <v>0.0001366806345544006</v>
       </c>
       <c r="M2" t="n">
-        <v>-6.45048639438054e-05</v>
+        <v>-6.044769740818253e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>5.068580219985425e-05</v>
+        <v>0.0003099306122613315</v>
       </c>
       <c r="O2" t="n">
-        <v>6.17017474468809e-05</v>
+        <v>0.0001970494870238051</v>
       </c>
       <c r="P2" t="n">
-        <v>1.084895468349245</v>
+        <v>1.073872047600957</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.08509448999207</v>
+        <v>1.074284131798108</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>45497.33333333334</v>
+        <v>45476.41666666666</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>45497.33333333334</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>45476.41666666666</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.000147261904761109</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0001751102985125819</v>
+      </c>
       <c r="V2" t="n">
-        <v>1.084685476190477</v>
+        <v>1.074752857142857</v>
       </c>
       <c r="W2" t="n">
-        <v>6.879346025542168e-05</v>
+        <v>3.65808551750718e-05</v>
       </c>
       <c r="X2" t="n">
-        <v>6.432977165316948e-05</v>
+        <v>0.0003907477723530576</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.08445130952381</v>
+        <v>1.074187380952381</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.084052347960716</v>
+        <v>1.073495057864677</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.084975706182612</v>
+        <v>1.074460069831632</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.084257720911651</v>
+        <v>1.074126772929716</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.085056016837128</v>
+        <v>1.074601990916434</v>
       </c>
       <c r="AD2" t="n">
-        <v>-8.628624592123659e-05</v>
+        <v>3.50619209669822e-05</v>
       </c>
       <c r="AE2" t="n">
-        <v>-7.100943438002735e-05</v>
+        <v>-0.0001802570303130087</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.084979455875629</v>
-      </c>
-      <c r="AG2" t="inlineStr"/>
+        <v>1.07408240186562</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1.074162116907808</v>
+      </c>
       <c r="AH2" t="n">
-        <v>93.50641025641654</v>
+        <v>94.19079828083794</v>
       </c>
       <c r="AI2" t="n">
-        <v>95.0243010771182</v>
-      </c>
-      <c r="AJ2" t="inlineStr"/>
+        <v>90.25495440392787</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.0002377350025618965</v>
+      </c>
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.084510905651403</v>
+        <v>0.07161057991602768</v>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>bearish</t>
+          <t>bullish</t>
         </is>
       </c>
       <c r="AO2" t="n">
-        <v>1.084901826276423</v>
+        <v>1.074201359584458</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.084740339107365</v>
+        <v>1.074072806077068</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.085070787753698</v>
+        <v>1.074300543515652</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.0001614871690573949</v>
+        <v>0.0001285535073904942</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0001086677127287799</v>
+        <v>-2.352752903403631e-05</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0002438968361157165</v>
+        <v>0.0003444696406477076</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.883728930193953e-05</v>
+        <v>0.0002361953904370662</v>
       </c>
       <c r="AV2" t="n">
-        <v>7.837633298879432e-05</v>
+        <v>0.0001354626762992694</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.000000000096819e-05</v>
+        <v>7.888544891576643e-05</v>
       </c>
       <c r="AX2" t="n">
-        <v>1.085314684589814</v>
+        <v>1.0746450131563</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.084826890917582</v>
+        <v>1.073956073875004</v>
       </c>
       <c r="AZ2" t="inlineStr"/>
       <c r="BA2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.07512</v>
+        <v>1.08517</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.08352</v>
+        <v>1.07537</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.08272</v>
+        <v>1.07617</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.08212</v>
+        <v>1.07717</v>
       </c>
       <c r="BH2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ2" t="b">
         <v>1</v>
       </c>
-      <c r="BK2" t="inlineStr"/>
+      <c r="BK2" s="2" t="n">
+        <v>45476.65277777778</v>
+      </c>
       <c r="BL2" t="inlineStr"/>
       <c r="BM2" s="2" t="n">
-        <v>45497.48650462963</v>
+        <v>45476.54071759259</v>
       </c>
       <c r="BN2" s="2" t="n">
-        <v>45497.37152777778</v>
+        <v>45476.42013888889</v>
       </c>
       <c r="BO2" t="n">
-        <v>1.08512</v>
+        <v>1.07517</v>
       </c>
       <c r="BP2" s="2" t="n">
-        <v>45497.48650462963</v>
+        <v>45476.54071759259</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.08352</v>
+        <v>1.07537</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
@@ -1030,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="BU2" t="n">
-        <v>116.95</v>
+        <v>3.68</v>
       </c>
       <c r="BV2" t="n">
-        <v>6299.33</v>
+        <v>703.6799999999999</v>
       </c>
       <c r="BW2" t="n">
         <v>1</v>
@@ -1042,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BZ2" t="n">
         <v>7</v>
@@ -1050,25 +1060,25 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>487</v>
+        <v>1345</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45498.69444444445</v>
+        <v>45478.67013888889</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08315</v>
+        <v>1.08235</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08409</v>
+        <v>1.08321</v>
       </c>
       <c r="E3" t="n">
-        <v>1.08304</v>
+        <v>1.08208</v>
       </c>
       <c r="F3" t="n">
-        <v>1.08408</v>
+        <v>1.08287</v>
       </c>
       <c r="G3" t="n">
-        <v>726</v>
+        <v>1074</v>
       </c>
       <c r="H3" t="n">
         <v>12</v>
@@ -1077,94 +1087,92 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.08304</v>
+        <v>1.08208</v>
       </c>
       <c r="K3" t="n">
-        <v>1.084319998486603</v>
+        <v>1.083538383590827</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002063862223984512</v>
+        <v>8.95726313747103e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>6.916368746670086e-05</v>
+        <v>-0.0001738747530587951</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0001662469955727635</v>
+        <v>5.077917240333749e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0003861360368764429</v>
+        <v>-1.257091106363511e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>1.08376287766809</v>
+        <v>1.082119725943106</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.084605442975844</v>
+        <v>1.083139376790036</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>45498.66666666666</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>45498.66666666666</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="T3" t="n">
-        <v>6.73809523812352e-05</v>
+        <v>0.0001691666666665537</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0001738872700873806</v>
+        <v>0.0004379855105005603</v>
       </c>
       <c r="V3" t="n">
-        <v>1.084630357142858</v>
+        <v>1.082296309523809</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.0003185273139293264</v>
+        <v>-0.0007781486006033508</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0001792255227173943</v>
+        <v>0.0003570786159907788</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.08490261904762</v>
+        <v>1.082522023809524</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.084312878296327</v>
+        <v>1.082377687774075</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.085998094885036</v>
+        <v>1.08302965870382</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.084256128707058</v>
+        <v>1.08216513166686</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.085977777911204</v>
+        <v>1.083002813984721</v>
       </c>
       <c r="AD3" t="n">
-        <v>-7.093419768810834e-05</v>
+        <v>0.0002724049481127003</v>
       </c>
       <c r="AE3" t="n">
-        <v>-0.0001662544425856967</v>
+        <v>-0.0005297518667675266</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.084178449986143</v>
+        <v>1.080161264573555</v>
       </c>
       <c r="AG3" t="n">
-        <v>1.084392305500709</v>
+        <v>1.081542076730356</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.53320870107176</v>
+        <v>65.56603773584882</v>
       </c>
       <c r="AI3" t="n">
-        <v>18.60488026884949</v>
+        <v>62.81446540880425</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.132067399011642e-05</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1.08323009536</v>
-      </c>
+        <v>0.0004906773930288644</v>
+      </c>
+      <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="n">
         <v>1</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.084738802026355</v>
+        <v>0.07925677911001489</v>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
@@ -1172,37 +1180,37 @@
         </is>
       </c>
       <c r="AO3" t="n">
-        <v>1.084171948762841</v>
+        <v>1.082506361073287</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.084442841736745</v>
+        <v>1.082421563060797</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.083928892328862</v>
+        <v>1.082682091503268</v>
       </c>
       <c r="AR3" t="n">
-        <v>-0.0002708929739045907</v>
+        <v>8.479801249094976e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>-0.0001703023806324966</v>
+        <v>3.067980347351122e-05</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0005078047525059853</v>
+        <v>0.0003583187593327629</v>
       </c>
       <c r="AU3" t="n">
-        <v>-3.025455796290544e-05</v>
+        <v>7.852769177829622e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.0002341520467843416</v>
+        <v>-1.996560027461847e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>-0.0001914413484680466</v>
+        <v>0.0001081389748875949</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.084436697081368</v>
+        <v>1.083040410262601</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.083421087576356</v>
+        <v>1.082323772743935</v>
       </c>
       <c r="AZ3" t="inlineStr"/>
       <c r="BA3" t="b">
@@ -1215,45 +1223,47 @@
         <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.09408</v>
+        <v>1.09287</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.08568</v>
+        <v>1.08307</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.08648</v>
+        <v>1.08387</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.08708</v>
+        <v>1.08487</v>
       </c>
       <c r="BH3" t="n">
         <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ3" t="b">
         <v>1</v>
       </c>
-      <c r="BK3" t="inlineStr"/>
+      <c r="BK3" s="2" t="n">
+        <v>45484.50347222222</v>
+      </c>
       <c r="BL3" t="inlineStr"/>
       <c r="BM3" s="2" t="n">
-        <v>45498.77123842593</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BN3" s="2" t="n">
-        <v>45498.69791666666</v>
+        <v>45478.67361111111</v>
       </c>
       <c r="BO3" t="n">
-        <v>1.08408</v>
+        <v>1.08287</v>
       </c>
       <c r="BP3" s="2" t="n">
-        <v>45498.77123842593</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.08566</v>
+        <v>1.08009</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS3" t="inlineStr">
         <is>
@@ -1264,10 +1274,10 @@
         <v>1</v>
       </c>
       <c r="BU3" t="n">
-        <v>115.68</v>
+        <v>-51.14</v>
       </c>
       <c r="BV3" t="n">
-        <v>6415.01</v>
+        <v>652.54</v>
       </c>
       <c r="BW3" t="n">
         <v>2</v>
@@ -1276,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BZ3" t="n">
         <v>7</v>
@@ -1284,25 +1294,25 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>488</v>
+        <v>1346</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45498.69791666666</v>
+        <v>45478.67361111111</v>
       </c>
       <c r="C4" t="n">
-        <v>1.08407</v>
+        <v>1.08288</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08433</v>
+        <v>1.08335</v>
       </c>
       <c r="E4" t="n">
-        <v>1.08401</v>
+        <v>1.08283</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08426</v>
+        <v>1.083</v>
       </c>
       <c r="G4" t="n">
-        <v>584</v>
+        <v>938</v>
       </c>
       <c r="H4" t="n">
         <v>12</v>
@@ -1311,94 +1321,92 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.084012546163988</v>
+        <v>1.082681659228393</v>
       </c>
       <c r="K4" t="n">
-        <v>1.084651722902314</v>
+        <v>1.08335</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0001391867818110251</v>
+        <v>-0.0001485695341651229</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.0001675543615839228</v>
+        <v>-0.0001141147596725821</v>
       </c>
       <c r="N4" t="n">
-        <v>6.122912814246769e-05</v>
+        <v>4.590395257457691e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>6.38949234154798e-05</v>
+        <v>4.001473526054013e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>1.08290720481018</v>
+        <v>1.081996857360794</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.084125369981938</v>
+        <v>1.083193964645341</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>45498.66666666666</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>45498.66666666666</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="T4" t="n">
-        <v>6.73809523812352e-05</v>
+        <v>0.0001691666666665537</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001738872700873806</v>
+        <v>0.0004379855105005603</v>
       </c>
       <c r="V4" t="n">
-        <v>1.084630357142858</v>
+        <v>1.082296309523809</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.0003185273139293264</v>
+        <v>-0.0007781486006033508</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.0001792255227173943</v>
+        <v>0.0003570786159907788</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.08490261904762</v>
+        <v>1.082522023809524</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.084312878296327</v>
+        <v>1.082377687774075</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.085998094885036</v>
+        <v>1.08302965870382</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.084256128707058</v>
+        <v>1.08216513166686</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.085977777911204</v>
+        <v>1.083002813984721</v>
       </c>
       <c r="AD4" t="n">
-        <v>-7.093419768810834e-05</v>
+        <v>0.0002724049481127003</v>
       </c>
       <c r="AE4" t="n">
-        <v>-0.0001662544425856967</v>
+        <v>-0.0005297518667675266</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.084178449986143</v>
+        <v>1.080161264573555</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.084392305500709</v>
+        <v>1.081542076730356</v>
       </c>
       <c r="AH4" t="n">
-        <v>35.36585365853776</v>
+        <v>66.43081761006309</v>
       </c>
       <c r="AI4" t="n">
-        <v>22.11610596024115</v>
+        <v>64.49161425576493</v>
       </c>
       <c r="AJ4" t="n">
-        <v>6.132067399011642e-05</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1.08323009536</v>
-      </c>
+        <v>0.0004906773930288644</v>
+      </c>
+      <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
         <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.084738802026355</v>
+        <v>0.07925677911001489</v>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
@@ -1406,37 +1414,37 @@
         </is>
       </c>
       <c r="AO4" t="n">
-        <v>1.084185495107019</v>
+        <v>1.082582305523551</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.084429297904394</v>
+        <v>1.082464410241478</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.08396807361541</v>
+        <v>1.082781403508772</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.0002438027973745704</v>
+        <v>0.000117895282072622</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.0001850024639809113</v>
+        <v>4.812289919333338e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0005103064438820719</v>
+        <v>0.0003812807364086289</v>
       </c>
       <c r="AU4" t="n">
-        <v>3.918128654811781e-05</v>
+        <v>9.931200550372665e-05</v>
       </c>
       <c r="AV4" t="n">
-        <v>-3.025455796290544e-05</v>
+        <v>7.852769177829622e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.0002341520467843416</v>
+        <v>-1.996560027461847e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>1.084478380059292</v>
+        <v>1.08316268424518</v>
       </c>
       <c r="AY4" t="n">
-        <v>1.083457767171528</v>
+        <v>1.082400122772363</v>
       </c>
       <c r="AZ4" t="inlineStr"/>
       <c r="BA4" t="b">
@@ -1449,45 +1457,47 @@
         <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>1.09426</v>
+        <v>1.093</v>
       </c>
       <c r="BE4" t="n">
-        <v>1.08586</v>
+        <v>1.0832</v>
       </c>
       <c r="BF4" t="n">
-        <v>1.08666</v>
+        <v>1.084</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.08726</v>
+        <v>1.085</v>
       </c>
       <c r="BH4" t="n">
         <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ4" t="b">
         <v>1</v>
       </c>
-      <c r="BK4" t="inlineStr"/>
+      <c r="BK4" s="2" t="n">
+        <v>45484.50694444445</v>
+      </c>
       <c r="BL4" t="inlineStr"/>
       <c r="BM4" s="2" t="n">
-        <v>45498.85321759259</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BN4" s="2" t="n">
-        <v>45498.70138888889</v>
+        <v>45478.67708333334</v>
       </c>
       <c r="BO4" t="n">
-        <v>1.08426</v>
+        <v>1.083</v>
       </c>
       <c r="BP4" s="2" t="n">
-        <v>45498.85321759259</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1.08585</v>
+        <v>1.08009</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS4" t="inlineStr">
         <is>
@@ -1498,10 +1508,10 @@
         <v>1</v>
       </c>
       <c r="BU4" t="n">
-        <v>116.41</v>
+        <v>-53.54</v>
       </c>
       <c r="BV4" t="n">
-        <v>6531.42</v>
+        <v>599</v>
       </c>
       <c r="BW4" t="n">
         <v>3</v>
@@ -1510,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BZ4" t="n">
         <v>7</v>
@@ -1518,25 +1528,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>565</v>
+        <v>1348</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45498.96527777778</v>
+        <v>45478.68055555555</v>
       </c>
       <c r="C5" t="n">
-        <v>1.08449</v>
+        <v>1.08261</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08458</v>
+        <v>1.08288</v>
       </c>
       <c r="E5" t="n">
-        <v>1.08446</v>
+        <v>1.08236</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08456</v>
+        <v>1.08284</v>
       </c>
       <c r="G5" t="n">
-        <v>108</v>
+        <v>740</v>
       </c>
       <c r="H5" t="n">
         <v>12</v>
@@ -1545,94 +1555,92 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.08446</v>
+        <v>1.082319186558668</v>
       </c>
       <c r="K5" t="n">
-        <v>1.08462166892073</v>
+        <v>1.082923762294144</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.662842922243352e-05</v>
+        <v>5.618650547401638e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>-4.763887071895401e-05</v>
+        <v>5.116548167149981e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.406218925658718e-05</v>
+        <v>-0.0001738747530587951</v>
       </c>
       <c r="O5" t="n">
-        <v>9.221469157233896e-06</v>
+        <v>8.95726313747103e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.084380812086859</v>
+        <v>1.082087713999069</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.084677000888984</v>
+        <v>1.083523389464927</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45478.66666666666</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.0002719047619050841</v>
+        <v>0.0001691666666665537</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001684969891508903</v>
+        <v>0.0004379855105005603</v>
       </c>
       <c r="V5" t="n">
-        <v>1.084920595238096</v>
+        <v>1.082296309523809</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>-0.0007781486006033508</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0003570786159907788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.085164642857143</v>
+        <v>1.082522023809524</v>
       </c>
       <c r="Z5" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082377687774075</v>
       </c>
       <c r="AA5" t="n">
-        <v>1.08761457730313</v>
+        <v>1.08302965870382</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.085361951827683</v>
+        <v>1.08216513166686</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.087515998992182</v>
+        <v>1.083002813984721</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0.0002808914792025505</v>
+        <v>0.0002724049481127003</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0.0002048965966906887</v>
+        <v>-0.0005297518667675266</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.084538755578412</v>
+        <v>1.080161264573555</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.084721911562734</v>
+        <v>1.081542076730356</v>
       </c>
       <c r="AH5" t="n">
-        <v>14.85507246377642</v>
+        <v>68.16037735848987</v>
       </c>
       <c r="AI5" t="n">
-        <v>13.43276361610952</v>
+        <v>67.66247379454882</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0002122956903974066</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>1.0833967920384</v>
-      </c>
+        <v>0.0004906773930288644</v>
+      </c>
+      <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
         <v>1</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.085027299544736</v>
+        <v>0.07925677911001489</v>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
@@ -1640,37 +1648,37 @@
         </is>
       </c>
       <c r="AO5" t="n">
-        <v>1.084723140394974</v>
+        <v>1.082622952475442</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.084917860712579</v>
+        <v>1.082500845543105</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.084693003095974</v>
+        <v>1.082797495700035</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0.0001947203176055901</v>
+        <v>0.0001221069323364965</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0.0001837990016328856</v>
+        <v>7.278421836775937e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.0002079318798773871</v>
+        <v>0.0003960946855944739</v>
       </c>
       <c r="AU5" t="n">
-        <v>-3.089095287389654e-05</v>
+        <v>2.130374957043379e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>-4.721018231790275e-05</v>
+        <v>-5.211558307349762e-06</v>
       </c>
       <c r="AW5" t="n">
-        <v>-3.535947712451915e-05</v>
+        <v>9.931200550372665e-05</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.084900934975852</v>
+        <v>1.083193590385629</v>
       </c>
       <c r="AY5" t="n">
-        <v>1.084485071216097</v>
+        <v>1.08240140101444</v>
       </c>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="b">
@@ -1683,47 +1691,47 @@
         <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.09456</v>
+        <v>1.09284</v>
       </c>
       <c r="BE5" t="n">
-        <v>1.08536</v>
+        <v>1.08304</v>
       </c>
       <c r="BF5" t="n">
-        <v>1.08616</v>
+        <v>1.08384</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.08656</v>
+        <v>1.08484</v>
       </c>
       <c r="BH5" t="n">
         <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ5" t="b">
         <v>1</v>
       </c>
       <c r="BK5" s="2" t="n">
-        <v>45499.71875</v>
+        <v>45484.50347222222</v>
       </c>
       <c r="BL5" t="inlineStr"/>
       <c r="BM5" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BN5" s="2" t="n">
-        <v>45498.96875</v>
+        <v>45478.68402777778</v>
       </c>
       <c r="BO5" t="n">
-        <v>1.08456</v>
+        <v>1.08284</v>
       </c>
       <c r="BP5" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1.08537</v>
+        <v>1.08009</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS5" t="inlineStr">
         <is>
@@ -1734,10 +1742,10 @@
         <v>1</v>
       </c>
       <c r="BU5" t="n">
-        <v>59.3</v>
+        <v>-50.59</v>
       </c>
       <c r="BV5" t="n">
-        <v>6590.72</v>
+        <v>548.41</v>
       </c>
       <c r="BW5" t="n">
         <v>4</v>
@@ -1746,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BZ5" t="n">
         <v>7</v>
@@ -1754,121 +1762,119 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>570</v>
+        <v>1442</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45498.98263888889</v>
+        <v>45481.00694444445</v>
       </c>
       <c r="C6" t="n">
-        <v>1.08435</v>
+        <v>1.08053</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08446</v>
+        <v>1.08102</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08428</v>
+        <v>1.0805</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08437</v>
+        <v>1.08102</v>
       </c>
       <c r="G6" t="n">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.08428</v>
+        <v>1.0805</v>
       </c>
       <c r="K6" t="n">
-        <v>1.084466664558436</v>
+        <v>1.081563317580187</v>
       </c>
       <c r="L6" t="n">
-        <v>4.943889154346265e-05</v>
+        <v>0.0002222866634488903</v>
       </c>
       <c r="M6" t="n">
-        <v>4.303102545799432e-05</v>
+        <v>-3.0673981093046e-06</v>
       </c>
       <c r="N6" t="n">
-        <v>-6.586219663510952e-06</v>
+        <v>-0.0008993995184308562</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.766525088841931e-05</v>
+        <v>-0.0002399427367702453</v>
       </c>
       <c r="P6" t="n">
-        <v>1.084357568777576</v>
+        <v>1.079858892338852</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.084480849139814</v>
+        <v>1.083854054118658</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0002719047619050841</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0001684969891508903</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V6" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.085164642857143</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z6" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA6" t="n">
-        <v>1.08761457730313</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.085361951827683</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.087515998992182</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.0002808914792025505</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE6" t="n">
-        <v>-0.0002048965966906887</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.084538755578412</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.084721911562734</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.411255411260703</v>
+        <v>22.29880352571101</v>
       </c>
       <c r="AI6" t="n">
-        <v>6.168831168832628</v>
+        <v>19.26187581270299</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.0002122956903974066</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1.0833967920384</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
         <v>1</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.085027299544736</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
@@ -1876,37 +1882,37 @@
         </is>
       </c>
       <c r="AO6" t="n">
-        <v>1.084538983346713</v>
+        <v>1.082573515527032</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.084753808764757</v>
+        <v>1.083097738561441</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.084380994152047</v>
+        <v>1.082139129686963</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.0002148254180442954</v>
+        <v>-0.0005242230344089105</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0.0002010933979150807</v>
+        <v>-0.0001132980892895133</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.0002449809516434773</v>
+        <v>0.001109454370379162</v>
       </c>
       <c r="AU6" t="n">
-        <v>-6.680770553857407e-05</v>
+        <v>-0.0004112039903669817</v>
       </c>
       <c r="AV6" t="n">
-        <v>-8.092191262498716e-05</v>
+        <v>-0.0005581630546960259</v>
       </c>
       <c r="AW6" t="n">
-        <v>-6.469556243504648e-05</v>
+        <v>-0.0006656002751985746</v>
       </c>
       <c r="AX6" t="n">
-        <v>1.08462597510369</v>
+        <v>1.083248584057342</v>
       </c>
       <c r="AY6" t="n">
-        <v>1.084136013200403</v>
+        <v>1.081029675316584</v>
       </c>
       <c r="AZ6" t="inlineStr"/>
       <c r="BA6" t="b">
@@ -1919,47 +1925,49 @@
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.09437</v>
+        <v>1.09102</v>
       </c>
       <c r="BE6" t="n">
-        <v>1.08517</v>
+        <v>1.08202</v>
       </c>
       <c r="BF6" t="n">
-        <v>1.08597</v>
+        <v>1.08282</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.08637</v>
+        <v>1.08402</v>
       </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ6" t="b">
         <v>1</v>
       </c>
       <c r="BK6" s="2" t="n">
-        <v>45499.70833333334</v>
-      </c>
-      <c r="BL6" t="inlineStr"/>
+        <v>45481.46875</v>
+      </c>
+      <c r="BL6" s="2" t="n">
+        <v>45485.75210648148</v>
+      </c>
       <c r="BM6" s="2" t="n">
-        <v>45499.16746527778</v>
+        <v>45481.1541087963</v>
       </c>
       <c r="BN6" s="2" t="n">
-        <v>45498.98611111111</v>
+        <v>45481.01041666666</v>
       </c>
       <c r="BO6" t="n">
-        <v>1.08437</v>
+        <v>1.08102</v>
       </c>
       <c r="BP6" s="2" t="n">
-        <v>45499.16746527778</v>
+        <v>45481.1541087963</v>
       </c>
       <c r="BQ6" t="n">
-        <v>1.08517</v>
+        <v>1.08203</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS6" t="inlineStr">
         <is>
@@ -1970,10 +1978,10 @@
         <v>1</v>
       </c>
       <c r="BU6" t="n">
-        <v>58.57</v>
+        <v>18.58</v>
       </c>
       <c r="BV6" t="n">
-        <v>6649.29</v>
+        <v>566.99</v>
       </c>
       <c r="BW6" t="n">
         <v>5</v>
@@ -1982,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ6" t="n">
         <v>7</v>
@@ -1990,121 +1998,119 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>571</v>
+        <v>1443</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45498.98611111111</v>
+        <v>45481.01041666666</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08438</v>
+        <v>1.08103</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08447</v>
+        <v>1.08156</v>
       </c>
       <c r="E7" t="n">
-        <v>1.08435</v>
+        <v>1.08093</v>
       </c>
       <c r="F7" t="n">
-        <v>1.08447</v>
+        <v>1.08119</v>
       </c>
       <c r="G7" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="H7" t="n">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.08435</v>
+        <v>1.080940797512709</v>
       </c>
       <c r="K7" t="n">
-        <v>1.084566667910234</v>
+        <v>1.08156</v>
       </c>
       <c r="L7" t="n">
-        <v>2.485073483418139e-05</v>
+        <v>4.60068955228638e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>-6.148013698793294e-06</v>
+        <v>4.905824513512622e-05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.634612743723408e-06</v>
+        <v>0.0003980465350697</v>
       </c>
       <c r="O7" t="n">
-        <v>-1.229609127115289e-05</v>
+        <v>0.0004075222538858897</v>
       </c>
       <c r="P7" t="n">
-        <v>1.084305583970213</v>
+        <v>1.079654345546101</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.084460231688837</v>
+        <v>1.080302804301248</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0002719047619050841</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0001684969891508903</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V7" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.085164642857143</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA7" t="n">
-        <v>1.08761457730313</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.085361951827683</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.087515998992182</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD7" t="n">
-        <v>-0.0002808914792025505</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0.0002048965966906887</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.084538755578412</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.084721911562734</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH7" t="n">
-        <v>10.22727272728264</v>
+        <v>29.17946162867268</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.731131187657541</v>
+        <v>22.31551203864283</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.0002122956903974066</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1.0833967920384</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="n">
         <v>1</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.085027299544736</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
@@ -2112,37 +2118,37 @@
         </is>
       </c>
       <c r="AO7" t="n">
-        <v>1.084528370524142</v>
+        <v>1.082360666984411</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.084732785893294</v>
+        <v>1.082956424593926</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.084335558995528</v>
+        <v>1.081790945992432</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.0002044153691520556</v>
+        <v>-0.0005957576095150241</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.0002017577921624757</v>
+        <v>-0.0002097899933346155</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.0002407959025147924</v>
+        <v>0.001201174841542154</v>
       </c>
       <c r="AU7" t="n">
-        <v>-4.543515651911356e-05</v>
+        <v>-0.0003481836945311567</v>
       </c>
       <c r="AV7" t="n">
-        <v>-6.680770553857407e-05</v>
+        <v>-0.0004112039903669817</v>
       </c>
       <c r="AW7" t="n">
-        <v>-8.092191262498716e-05</v>
+        <v>-0.0005581630546960259</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.084576354898042</v>
+        <v>1.082992120833974</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.084094763093013</v>
+        <v>1.08058977115089</v>
       </c>
       <c r="AZ7" t="inlineStr"/>
       <c r="BA7" t="b">
@@ -2155,47 +2161,49 @@
         <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.09447</v>
+        <v>1.09119</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.08527</v>
+        <v>1.08219</v>
       </c>
       <c r="BF7" t="n">
-        <v>1.08607</v>
+        <v>1.08299</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.08647</v>
+        <v>1.08419</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ7" t="b">
         <v>1</v>
       </c>
       <c r="BK7" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL7" t="inlineStr"/>
+        <v>45481.66666666666</v>
+      </c>
+      <c r="BL7" s="2" t="n">
+        <v>45488.52645833333</v>
+      </c>
       <c r="BM7" s="2" t="n">
-        <v>45499.37842592593</v>
+        <v>45481.35928240741</v>
       </c>
       <c r="BN7" s="2" t="n">
-        <v>45498.98958333334</v>
+        <v>45481.01388888889</v>
       </c>
       <c r="BO7" t="n">
-        <v>1.08447</v>
+        <v>1.08119</v>
       </c>
       <c r="BP7" s="2" t="n">
-        <v>45499.37842592593</v>
+        <v>45481.35928240741</v>
       </c>
       <c r="BQ7" t="n">
-        <v>1.08527</v>
+        <v>1.0822</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS7" t="inlineStr">
         <is>
@@ -2206,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="BU7" t="n">
-        <v>58.57</v>
+        <v>18.58</v>
       </c>
       <c r="BV7" t="n">
-        <v>6707.86</v>
+        <v>585.5700000000001</v>
       </c>
       <c r="BW7" t="n">
         <v>6</v>
@@ -2218,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="BY7" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ7" t="n">
         <v>7</v>
@@ -2226,121 +2234,119 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>572</v>
+        <v>1444</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45498.98958333334</v>
+        <v>45481.01388888889</v>
       </c>
       <c r="C8" t="n">
-        <v>1.08448</v>
+        <v>1.08119</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08456</v>
+        <v>1.08126</v>
       </c>
       <c r="E8" t="n">
-        <v>1.08447</v>
+        <v>1.08117</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08451</v>
+        <v>1.08125</v>
       </c>
       <c r="G8" t="n">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.084433333082761</v>
+        <v>1.081010029043044</v>
       </c>
       <c r="K8" t="n">
-        <v>1.08456</v>
+        <v>1.081280009748991</v>
       </c>
       <c r="L8" t="n">
-        <v>-6.147526233342467e-06</v>
+        <v>3.698763050673952e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.921878917266719e-05</v>
+        <v>0.0002080389158962363</v>
       </c>
       <c r="N8" t="n">
-        <v>2.433015199943383e-05</v>
+        <v>0.0003453301288201406</v>
       </c>
       <c r="O8" t="n">
-        <v>6.147742309484211e-05</v>
+        <v>0.0003241101090826546</v>
       </c>
       <c r="P8" t="n">
-        <v>1.0842187508981</v>
+        <v>1.08015734790056</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.084472140597528</v>
+        <v>1.080842424259614</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>45498.95833333334</v>
+        <v>45481</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.0002719047619050841</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0001684969891508903</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V8" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.085164642857143</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z8" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.08761457730313</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.085361951827683</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.087515998992182</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.0002808914792025505</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE8" t="n">
-        <v>-0.0002048965966906887</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.084538755578412</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.084721911562734</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH8" t="n">
-        <v>20.18398268399809</v>
+        <v>34.61249059443361</v>
       </c>
       <c r="AI8" t="n">
-        <v>11.94083694084716</v>
+        <v>28.69691858293911</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.0002122956903974066</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>1.0833967920384</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="n">
         <v>1</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.085027299544736</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
@@ -2348,37 +2354,37 @@
         </is>
       </c>
       <c r="AO8" t="n">
-        <v>1.084525544289658</v>
+        <v>1.082189795140656</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.084716283234531</v>
+        <v>1.082830022772154</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.08431488132095</v>
+        <v>1.081497165462677</v>
       </c>
       <c r="AR8" t="n">
-        <v>-0.0001907389448729813</v>
+        <v>-0.0006402276314982913</v>
       </c>
       <c r="AS8" t="n">
-        <v>-0.0001995540227045768</v>
+        <v>-0.0002958775209673507</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.0002374082278854903</v>
+        <v>0.00127184472320887</v>
       </c>
       <c r="AU8" t="n">
-        <v>-2.067767457769598e-05</v>
+        <v>-0.0002937805297551499</v>
       </c>
       <c r="AV8" t="n">
-        <v>-4.543515651911356e-05</v>
+        <v>-0.0003481836945311567</v>
       </c>
       <c r="AW8" t="n">
-        <v>-6.680770553857407e-05</v>
+        <v>-0.0004112039903669817</v>
       </c>
       <c r="AX8" t="n">
-        <v>1.084552289548836</v>
+        <v>1.082769010185886</v>
       </c>
       <c r="AY8" t="n">
-        <v>1.084077473093064</v>
+        <v>1.080225320739468</v>
       </c>
       <c r="AZ8" t="inlineStr"/>
       <c r="BA8" t="b">
@@ -2391,47 +2397,49 @@
         <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.09451</v>
+        <v>1.09125</v>
       </c>
       <c r="BE8" t="n">
-        <v>1.08531</v>
+        <v>1.08225</v>
       </c>
       <c r="BF8" t="n">
-        <v>1.08611</v>
+        <v>1.08305</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.08651</v>
+        <v>1.08425</v>
       </c>
       <c r="BH8" t="n">
         <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ8" t="b">
         <v>1</v>
       </c>
       <c r="BK8" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL8" t="inlineStr"/>
+        <v>45481.66666666666</v>
+      </c>
+      <c r="BL8" s="2" t="n">
+        <v>45488.53896990741</v>
+      </c>
       <c r="BM8" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.3590625</v>
       </c>
       <c r="BN8" s="2" t="n">
-        <v>45498.99305555555</v>
+        <v>45481.01736111111</v>
       </c>
       <c r="BO8" t="n">
-        <v>1.08451</v>
+        <v>1.08125</v>
       </c>
       <c r="BP8" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.3590625</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1.08533</v>
+        <v>1.08225</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS8" t="inlineStr">
         <is>
@@ -2442,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="BU8" t="n">
-        <v>60.04</v>
+        <v>18.4</v>
       </c>
       <c r="BV8" t="n">
-        <v>6767.9</v>
+        <v>603.97</v>
       </c>
       <c r="BW8" t="n">
         <v>7</v>
@@ -2454,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ8" t="n">
         <v>7</v>
@@ -2462,121 +2470,119 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>576</v>
+        <v>1445</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45499.00347222222</v>
+        <v>45481.01736111111</v>
       </c>
       <c r="C9" t="n">
-        <v>1.08449</v>
+        <v>1.08122</v>
       </c>
       <c r="D9" t="n">
-        <v>1.08452</v>
+        <v>1.08143</v>
       </c>
       <c r="E9" t="n">
-        <v>1.08449</v>
+        <v>1.08121</v>
       </c>
       <c r="F9" t="n">
-        <v>1.08452</v>
+        <v>1.08125</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.084473332545338</v>
+        <v>1.080823448913885</v>
       </c>
       <c r="K9" t="n">
-        <v>1.084571667810398</v>
+        <v>1.081585016688327</v>
       </c>
       <c r="L9" t="n">
-        <v>-1.997901183220338e-05</v>
+        <v>0.0002465881209067975</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.997841865684126e-05</v>
+        <v>0.00013403809502731</v>
       </c>
       <c r="N9" t="n">
-        <v>-1.255260006547594e-05</v>
+        <v>-3.0673981093046e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>3.073670796764266e-05</v>
+        <v>0.0002222866634488903</v>
       </c>
       <c r="P9" t="n">
-        <v>1.084389373366049</v>
+        <v>1.080518762548921</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.084548895401032</v>
+        <v>1.081563058417824</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0002440476190472829</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U9" t="n">
-        <v>8.977149948141694e-05</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V9" t="n">
-        <v>1.084555238095239</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X9" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z9" t="n">
-        <v>1.084909806566411</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.086882904959809</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.08761457730313</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE9" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.084492918526137</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.084701758637715</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH9" t="n">
-        <v>53.6904761904589</v>
+        <v>36.34311512415487</v>
       </c>
       <c r="AI9" t="n">
-        <v>40.34271284271588</v>
+        <v>33.37835578242039</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0001877908522142086</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>1.083538120356864</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
         <v>1</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.085066226138253</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
@@ -2584,37 +2590,37 @@
         </is>
       </c>
       <c r="AO9" t="n">
-        <v>1.084508599626935</v>
+        <v>1.082045211272863</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.084656053933529</v>
+        <v>1.082712984048291</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.084393367733058</v>
+        <v>1.081257681458549</v>
       </c>
       <c r="AR9" t="n">
-        <v>-0.0001474543065946854</v>
+        <v>-0.0006677727754282881</v>
       </c>
       <c r="AS9" t="n">
-        <v>-0.0001773108137452041</v>
+        <v>-0.0003702565718595381</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0002425812578648349</v>
+        <v>0.001328022590152254</v>
       </c>
       <c r="AU9" t="n">
-        <v>3.232542139586236e-05</v>
+        <v>-0.0002394840041279878</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.657378741011129e-05</v>
+        <v>-0.0002937805297551499</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.576883384979411e-05</v>
+        <v>-0.0003481836945311567</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.084635948990923</v>
+        <v>1.082585704048701</v>
       </c>
       <c r="AY9" t="n">
-        <v>1.084150786475193</v>
+        <v>1.079929658868397</v>
       </c>
       <c r="AZ9" t="inlineStr"/>
       <c r="BA9" t="b">
@@ -2627,47 +2633,49 @@
         <v>0</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.09452</v>
+        <v>1.09125</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.08532</v>
+        <v>1.08225</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.08612</v>
+        <v>1.08305</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.08652</v>
+        <v>1.08425</v>
       </c>
       <c r="BH9" t="n">
         <v>0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ9" t="b">
         <v>1</v>
       </c>
       <c r="BK9" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL9" t="inlineStr"/>
+        <v>45481.66666666666</v>
+      </c>
+      <c r="BL9" s="2" t="n">
+        <v>45488.53896990741</v>
+      </c>
       <c r="BM9" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.3590625</v>
       </c>
       <c r="BN9" s="2" t="n">
-        <v>45499.00694444445</v>
+        <v>45481.02083333334</v>
       </c>
       <c r="BO9" t="n">
-        <v>1.08452</v>
+        <v>1.08125</v>
       </c>
       <c r="BP9" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.3590625</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.08533</v>
+        <v>1.08225</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS9" t="inlineStr">
         <is>
@@ -2678,10 +2686,10 @@
         <v>1</v>
       </c>
       <c r="BU9" t="n">
-        <v>59.3</v>
+        <v>18.4</v>
       </c>
       <c r="BV9" t="n">
-        <v>6827.2</v>
+        <v>622.37</v>
       </c>
       <c r="BW9" t="n">
         <v>8</v>
@@ -2690,7 +2698,7 @@
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ9" t="n">
         <v>7</v>
@@ -2698,121 +2706,119 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>577</v>
+        <v>1446</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45499.00694444445</v>
+        <v>45481.02083333334</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0845</v>
+        <v>1.08128</v>
       </c>
       <c r="D10" t="n">
-        <v>1.08455</v>
+        <v>1.08173</v>
       </c>
       <c r="E10" t="n">
-        <v>1.0845</v>
+        <v>1.08109</v>
       </c>
       <c r="F10" t="n">
-        <v>1.08455</v>
+        <v>1.08166</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.084411666530493</v>
+        <v>1.08109</v>
       </c>
       <c r="K10" t="n">
-        <v>1.084539158964547</v>
+        <v>1.081806657993044</v>
       </c>
       <c r="L10" t="n">
-        <v>1.69062313678124e-05</v>
+        <v>0.0001358733770301373</v>
       </c>
       <c r="M10" t="n">
-        <v>1.25522642955702e-05</v>
+        <v>7.086808859294468e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>1.203497654233977e-05</v>
+        <v>4.905824513512622e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>2.125754239318404e-05</v>
+        <v>4.60068955228638e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>1.084432711838989</v>
+        <v>1.080944701227832</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.084501059362599</v>
+        <v>1.081564165009132</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="T10" t="n">
-        <v>-0.0002440476190472829</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U10" t="n">
-        <v>8.977149948141694e-05</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V10" t="n">
-        <v>1.084555238095239</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.084909806566411</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.086882904959809</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.08761457730313</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.084492918526137</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG10" t="n">
-        <v>1.084701758637715</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH10" t="n">
-        <v>74.16666666662796</v>
+        <v>39.8796087283684</v>
       </c>
       <c r="AI10" t="n">
-        <v>55.09920634919047</v>
+        <v>36.94507148231897</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0001877908522142086</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1.083538120356864</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="n">
         <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.085066226138253</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
@@ -2820,37 +2826,37 @@
         </is>
       </c>
       <c r="AO10" t="n">
-        <v>1.084514968915099</v>
+        <v>1.081985948000115</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.084648198086601</v>
+        <v>1.082634985229899</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.084429432404539</v>
+        <v>1.081124850361197</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.0001332291715026024</v>
+        <v>-0.0006490372297844882</v>
       </c>
       <c r="AS10" t="n">
-        <v>-0.0001684944852966837</v>
+        <v>-0.0004260127034445281</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0002431926533989923</v>
+        <v>0.001350590981739139</v>
       </c>
       <c r="AU10" t="n">
-        <v>3.606467148120629e-05</v>
+        <v>-0.0001328310973520708</v>
       </c>
       <c r="AV10" t="n">
-        <v>3.232542139586236e-05</v>
+        <v>-0.0002394840041279878</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.657378741011129e-05</v>
+        <v>-0.0002937805297551499</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.084672625057938</v>
+        <v>1.082475441342936</v>
       </c>
       <c r="AY10" t="n">
-        <v>1.08418623975114</v>
+        <v>1.079774259379458</v>
       </c>
       <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="b">
@@ -2863,47 +2869,49 @@
         <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.09455</v>
+        <v>1.09166</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.08535</v>
+        <v>1.08186</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.08615</v>
+        <v>1.08266</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.08655</v>
+        <v>1.08366</v>
       </c>
       <c r="BH10" t="n">
         <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ10" t="b">
         <v>1</v>
       </c>
       <c r="BK10" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL10" t="inlineStr"/>
+        <v>45481.46180555555</v>
+      </c>
+      <c r="BL10" s="2" t="n">
+        <v>45488.55648148148</v>
+      </c>
       <c r="BM10" s="2" t="n">
-        <v>45499.28149305555</v>
+        <v>45481.16108796297</v>
       </c>
       <c r="BN10" s="2" t="n">
-        <v>45499.01041666666</v>
+        <v>45481.02430555555</v>
       </c>
       <c r="BO10" t="n">
-        <v>1.08455</v>
+        <v>1.08166</v>
       </c>
       <c r="BP10" s="2" t="n">
-        <v>45499.28149305555</v>
+        <v>45481.16108796297</v>
       </c>
       <c r="BQ10" t="n">
-        <v>1.08534</v>
+        <v>1.08187</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS10" t="inlineStr">
         <is>
@@ -2914,10 +2922,10 @@
         <v>1</v>
       </c>
       <c r="BU10" t="n">
-        <v>57.84</v>
+        <v>3.86</v>
       </c>
       <c r="BV10" t="n">
-        <v>6885.04</v>
+        <v>626.23</v>
       </c>
       <c r="BW10" t="n">
         <v>9</v>
@@ -2926,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="BY10" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ10" t="n">
         <v>7</v>
@@ -2934,121 +2942,119 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>580</v>
+        <v>1448</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45499.01736111111</v>
+        <v>45481.02777777778</v>
       </c>
       <c r="C11" t="n">
-        <v>1.08449</v>
+        <v>1.08173</v>
       </c>
       <c r="D11" t="n">
-        <v>1.08458</v>
+        <v>1.08196</v>
       </c>
       <c r="E11" t="n">
-        <v>1.08449</v>
+        <v>1.08169</v>
       </c>
       <c r="F11" t="n">
-        <v>1.08453</v>
+        <v>1.08179</v>
       </c>
       <c r="G11" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.08449</v>
+        <v>1.081549998294055</v>
       </c>
       <c r="K11" t="n">
-        <v>1.084569157531473</v>
+        <v>1.081949186738973</v>
       </c>
       <c r="L11" t="n">
-        <v>1.87005524305108e-05</v>
+        <v>-2.311471954123281e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>1.562564468224848e-05</v>
+        <v>1.873518422938653e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>1.25522642955702e-05</v>
+        <v>0.00013403809502731</v>
       </c>
       <c r="O11" t="n">
-        <v>1.69062313678124e-05</v>
+        <v>0.0002465881209067975</v>
       </c>
       <c r="P11" t="n">
-        <v>1.084413154219734</v>
+        <v>1.080844402000549</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.084540263649576</v>
+        <v>1.081596414148615</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0002440476190472829</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U11" t="n">
-        <v>8.977149948141694e-05</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V11" t="n">
-        <v>1.084555238095239</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z11" t="n">
-        <v>1.084909806566411</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.086882904959809</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB11" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.08761457730313</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE11" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.084492918526137</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG11" t="n">
-        <v>1.084701758637715</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH11" t="n">
-        <v>75.2490421455705</v>
+        <v>47.85398081522396</v>
       </c>
       <c r="AI11" t="n">
-        <v>77.57343550443578</v>
+        <v>43.76672698857155</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.0001877908522142086</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1.083538120356864</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="n">
         <v>1</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.085066226138253</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
@@ -3056,37 +3062,37 @@
         </is>
       </c>
       <c r="AO11" t="n">
-        <v>1.084511280667272</v>
+        <v>1.08192378525452</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.084618545704575</v>
+        <v>1.082511009284893</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.084493594771243</v>
+        <v>1.080984943240453</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.0001072650373030726</v>
+        <v>-0.0005872240303730347</v>
       </c>
       <c r="AS11" t="n">
-        <v>-0.0001426076146089206</v>
+        <v>-0.0004893857653084499</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0002242416850933788</v>
+        <v>0.001362987894280735</v>
       </c>
       <c r="AU11" t="n">
-        <v>1.500171998713995e-05</v>
+        <v>-4.696594427300305e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>1.814585483250752e-05</v>
+        <v>-9.294117647029587e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.101479188361012e-05</v>
+        <v>-0.0001328310973520708</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.084717836456336</v>
+        <v>1.082347931134734</v>
       </c>
       <c r="AY11" t="n">
-        <v>1.084269353086149</v>
+        <v>1.079621955346173</v>
       </c>
       <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="b">
@@ -3099,47 +3105,49 @@
         <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>1.09453</v>
+        <v>1.09179</v>
       </c>
       <c r="BE11" t="n">
-        <v>1.08533</v>
+        <v>1.08199</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.08613</v>
+        <v>1.08279</v>
       </c>
       <c r="BG11" t="n">
-        <v>1.08653</v>
+        <v>1.08379</v>
       </c>
       <c r="BH11" t="n">
         <v>0</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ11" t="b">
         <v>1</v>
       </c>
       <c r="BK11" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL11" t="inlineStr"/>
+        <v>45481.46180555555</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>45488.55649305556</v>
+      </c>
       <c r="BM11" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.1541087963</v>
       </c>
       <c r="BN11" s="2" t="n">
-        <v>45499.02083333334</v>
+        <v>45481.03125</v>
       </c>
       <c r="BO11" t="n">
-        <v>1.08453</v>
+        <v>1.08179</v>
       </c>
       <c r="BP11" s="2" t="n">
-        <v>45499.37792824074</v>
+        <v>45481.1541087963</v>
       </c>
       <c r="BQ11" t="n">
-        <v>1.08533</v>
+        <v>1.08203</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS11" t="inlineStr">
         <is>
@@ -3150,10 +3158,10 @@
         <v>1</v>
       </c>
       <c r="BU11" t="n">
-        <v>58.57</v>
+        <v>4.42</v>
       </c>
       <c r="BV11" t="n">
-        <v>6943.61</v>
+        <v>630.65</v>
       </c>
       <c r="BW11" t="n">
         <v>10</v>
@@ -3162,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ11" t="n">
         <v>7</v>
@@ -3170,121 +3178,119 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>581</v>
+        <v>1450</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45499.02083333334</v>
+        <v>45481.03472222222</v>
       </c>
       <c r="C12" t="n">
-        <v>1.08453</v>
+        <v>1.08178</v>
       </c>
       <c r="D12" t="n">
-        <v>1.08456</v>
+        <v>1.08193</v>
       </c>
       <c r="E12" t="n">
-        <v>1.08453</v>
+        <v>1.0815</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08456</v>
+        <v>1.08193</v>
       </c>
       <c r="G12" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="H12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.08453</v>
+        <v>1.081197003701355</v>
       </c>
       <c r="K12" t="n">
-        <v>1.084576666171359</v>
+        <v>1.081919193668529</v>
       </c>
       <c r="L12" t="n">
-        <v>4.610434325744703e-06</v>
+        <v>0.0002556679889743077</v>
       </c>
       <c r="M12" t="n">
-        <v>1.997690173612629e-05</v>
+        <v>0.0005361694572918694</v>
       </c>
       <c r="N12" t="n">
-        <v>3.227244029006413e-05</v>
+        <v>-9.241962062955812e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>3.161470662392031e-05</v>
+        <v>-2.848905281887422e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>1.084432782980666</v>
+        <v>1.081590010226453</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.084512839261893</v>
+        <v>1.081969212052285</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>45499</v>
+        <v>45481</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0002440476190472829</v>
+        <v>0.0002332142857144337</v>
       </c>
       <c r="U12" t="n">
-        <v>8.977149948141694e-05</v>
+        <v>0.0005082241638598717</v>
       </c>
       <c r="V12" t="n">
-        <v>1.084555238095239</v>
+        <v>1.083069047619047</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.0006499760723446679</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>-0.0001099614176589997</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.084920595238096</v>
+        <v>1.083610476190477</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.084909806566411</v>
+        <v>1.082375276750982</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.086882904959809</v>
+        <v>1.084408303142233</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.085385948673859</v>
+        <v>1.082016926075231</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.08761457730313</v>
+        <v>1.082992140495143</v>
       </c>
       <c r="AD12" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0003786078698457261</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>0.000328733535363884</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.084492918526137</v>
+        <v>1.080916343129594</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.084701758637715</v>
+        <v>1.08221625770992</v>
       </c>
       <c r="AH12" t="n">
-        <v>83.02681992334499</v>
+        <v>51.12301585194663</v>
       </c>
       <c r="AI12" t="n">
-        <v>78.5823754788989</v>
+        <v>49.39547559204158</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.0001877908522142086</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1.083538120356864</v>
-      </c>
+        <v>0.000425941774437365</v>
+      </c>
+      <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="n">
         <v>1</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.085066226138253</v>
+        <v>0.08001324709454662</v>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
@@ -3292,37 +3298,37 @@
         </is>
       </c>
       <c r="AO12" t="n">
-        <v>1.08451877594923</v>
+        <v>1.081906023762112</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.084614208985718</v>
+        <v>1.082417833749051</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.084514365325076</v>
+        <v>1.081025968352253</v>
       </c>
       <c r="AR12" t="n">
-        <v>-9.543303648751333e-05</v>
+        <v>-0.0005118099869387827</v>
       </c>
       <c r="AS12" t="n">
-        <v>-0.0001331726989846391</v>
+        <v>-0.0005044002476399975</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.0001921223568457224</v>
+        <v>0.001350004074051826</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.077055383375992e-05</v>
+        <v>5.415892672844258e-05</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.500171998713995e-05</v>
+        <v>-1.313381492895616e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>1.814585483250752e-05</v>
+        <v>-4.696594427300305e-05</v>
       </c>
       <c r="AX12" t="n">
-        <v>1.084706487681922</v>
+        <v>1.082375972426305</v>
       </c>
       <c r="AY12" t="n">
-        <v>1.084322242968231</v>
+        <v>1.079675964278201</v>
       </c>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="b">
@@ -3335,47 +3341,49 @@
         <v>0</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.09456</v>
+        <v>1.09193</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.08536</v>
+        <v>1.08213</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.08616</v>
+        <v>1.08293</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.08656</v>
+        <v>1.08393</v>
       </c>
       <c r="BH12" t="n">
         <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ12" t="b">
         <v>1</v>
       </c>
       <c r="BK12" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL12" t="inlineStr"/>
+        <v>45481.46180555555</v>
+      </c>
+      <c r="BL12" s="2" t="n">
+        <v>45488.55667824074</v>
+      </c>
       <c r="BM12" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45481.08377314815</v>
       </c>
       <c r="BN12" s="2" t="n">
-        <v>45499.02430555555</v>
+        <v>45481.03819444445</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.08456</v>
+        <v>1.08193</v>
       </c>
       <c r="BP12" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45481.08377314815</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1.08537</v>
+        <v>1.08213</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS12" t="inlineStr">
         <is>
@@ -3386,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="BU12" t="n">
-        <v>59.3</v>
+        <v>3.68</v>
       </c>
       <c r="BV12" t="n">
-        <v>7002.91</v>
+        <v>634.3299999999999</v>
       </c>
       <c r="BW12" t="n">
         <v>11</v>
@@ -3398,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="BY12" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ12" t="n">
         <v>7</v>
@@ -3406,235 +3414,231 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>582</v>
+        <v>2171</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45499.02430555555</v>
+        <v>45483.53819444445</v>
       </c>
       <c r="C13" t="n">
-        <v>1.08456</v>
+        <v>1.0819</v>
       </c>
       <c r="D13" t="n">
-        <v>1.08457</v>
+        <v>1.08193</v>
       </c>
       <c r="E13" t="n">
-        <v>1.08455</v>
+        <v>1.08168</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08457</v>
+        <v>1.08181</v>
       </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>208</v>
       </c>
       <c r="H13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.08455</v>
+        <v>1.081609994527144</v>
       </c>
       <c r="K13" t="n">
-        <v>1.084623733354056</v>
+        <v>1.082015428842533</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.818315224433093e-05</v>
+        <v>-0.0001571952816635718</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.344067822031152e-05</v>
+        <v>-0.0001251713376759733</v>
       </c>
       <c r="N13" t="n">
-        <v>7.684686526132421e-06</v>
+        <v>-8.650349974391194e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>2.458825804083473e-05</v>
+        <v>-3.697525801539653e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.08446549937581</v>
+        <v>1.081806854030326</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.084572342007168</v>
+        <v>1.082192638628449</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>45499</v>
+        <v>45483.5</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>45499</v>
+        <v>45483.5</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.0002440476190472829</v>
+        <v>-0.0001383333333335734</v>
       </c>
       <c r="U13" t="n">
-        <v>8.977149948141694e-05</v>
+        <v>1.013077565170661e-06</v>
       </c>
       <c r="V13" t="n">
-        <v>1.084555238095239</v>
+        <v>1.081707976190477</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.000114673641972119</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>1.884839666687853e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.084920595238096</v>
+        <v>1.081713809523809</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.084909806566411</v>
+        <v>1.081482239655631</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.086882904959809</v>
+        <v>1.08237999678754</v>
       </c>
       <c r="AB13" t="n">
-        <v>1.085385948673859</v>
+        <v>1.081657027618437</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.08761457730313</v>
+        <v>1.082094969551464</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.0006851844710636212</v>
+        <v>0.0001059541173636271</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0.0003198404968687841</v>
+        <v>-0.0001266315248236524</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.084492918526137</v>
+        <v>1.081825066590902</v>
       </c>
       <c r="AG13" t="n">
-        <v>1.084701758637715</v>
+        <v>1.081707056466024</v>
       </c>
       <c r="AH13" t="n">
-        <v>91.11111111108313</v>
+        <v>51.06227711002907</v>
       </c>
       <c r="AI13" t="n">
-        <v>83.12899105999954</v>
+        <v>58.75790663203418</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.0001877908522142086</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1.083538120356864</v>
-      </c>
+        <v>-5.282332707495508e-05</v>
+      </c>
+      <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.085066226138253</v>
+        <v>0.07855396484867792</v>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO13" t="n">
-        <v>1.084526656572426</v>
+        <v>1.081908694721184</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.084610934246035</v>
+        <v>1.081848264334985</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.08453120743034</v>
+        <v>1.082135940832473</v>
       </c>
       <c r="AR13" t="n">
-        <v>-8.427767360941196e-05</v>
+        <v>6.043038619862884e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>-0.0001233936939095937</v>
+        <v>4.699794338245461e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0001588888500380601</v>
+        <v>0.0003198577808331291</v>
       </c>
       <c r="AU13" t="n">
-        <v>1.684210526398111e-05</v>
+        <v>-1.488476092270652e-05</v>
       </c>
       <c r="AV13" t="n">
-        <v>2.077055383375992e-05</v>
+        <v>-1.500859993064374e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.500171998713995e-05</v>
+        <v>3.099415204710354e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.084690096280378</v>
+        <v>1.082455798613306</v>
       </c>
       <c r="AY13" t="n">
-        <v>1.084372318580302</v>
+        <v>1.081816083051639</v>
       </c>
       <c r="AZ13" t="inlineStr"/>
       <c r="BA13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD13" t="n">
-        <v>1.09457</v>
+        <v>1.07181</v>
       </c>
       <c r="BE13" t="n">
-        <v>1.08537</v>
+        <v>1.08781</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.08617</v>
+        <v>1.08161</v>
       </c>
       <c r="BG13" t="n">
-        <v>1.08657</v>
+        <v>1.08081</v>
       </c>
       <c r="BH13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ13" t="b">
-        <v>1</v>
-      </c>
-      <c r="BK13" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="BK13" t="inlineStr"/>
       <c r="BL13" t="inlineStr"/>
       <c r="BM13" s="2" t="n">
-        <v>45499.28146990741</v>
+        <v>45484.6459375</v>
       </c>
       <c r="BN13" s="2" t="n">
-        <v>45499.02777777778</v>
+        <v>45483.54166666666</v>
       </c>
       <c r="BO13" t="n">
-        <v>1.08457</v>
+        <v>1.08181</v>
       </c>
       <c r="BP13" s="2" t="n">
-        <v>45499.28146990741</v>
+        <v>45484.6459375</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1.08541</v>
+        <v>1.0876</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS13" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="BT13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU13" t="n">
-        <v>61.5</v>
+        <v>-106.5</v>
       </c>
       <c r="BV13" t="n">
-        <v>7064.41</v>
+        <v>527.8299999999999</v>
       </c>
       <c r="BW13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ13" t="n">
         <v>7</v>
@@ -3642,25 +3646,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>587</v>
+        <v>2176</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45483.55555555555</v>
       </c>
       <c r="C14" t="n">
-        <v>1.08451</v>
+        <v>1.0817</v>
       </c>
       <c r="D14" t="n">
-        <v>1.0846</v>
+        <v>1.08192</v>
       </c>
       <c r="E14" t="n">
-        <v>1.08431</v>
+        <v>1.08167</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08456</v>
+        <v>1.08191</v>
       </c>
       <c r="G14" t="n">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="H14" t="n">
         <v>12</v>
@@ -3669,94 +3673,92 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.08431</v>
+        <v>1.08167</v>
       </c>
       <c r="K14" t="n">
-        <v>1.084596664827418</v>
+        <v>1.081933339661879</v>
       </c>
       <c r="L14" t="n">
-        <v>9.553951034066893e-05</v>
+        <v>9.885088974224748e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>5.224488290313973e-05</v>
+        <v>0.0001878969423384543</v>
       </c>
       <c r="N14" t="n">
-        <v>9.480045864042287e-06</v>
+        <v>9.527810965683704e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>-7.402540403691839e-05</v>
+        <v>0.0001344426054645669</v>
       </c>
       <c r="P14" t="n">
-        <v>1.084544309188107</v>
+        <v>1.08125606926647</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.084569988881591</v>
+        <v>1.081608113171294</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45483.54166666666</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45483.54166666666</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-5.833333332150303e-06</v>
       </c>
       <c r="U14" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>2.05738693848101e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>1.084431071428571</v>
+        <v>1.081803333333334</v>
       </c>
       <c r="W14" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-3.328863114687315e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>8.868950536504088e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.084555238095239</v>
+        <v>1.081707976190477</v>
       </c>
       <c r="Z14" t="n">
-        <v>1.084446911938508</v>
+        <v>1.081189140891227</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.0854009939189</v>
+        <v>1.08242115740524</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.084909806566411</v>
+        <v>1.081482239655631</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.086882904959809</v>
+        <v>1.08237999678754</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>1.884839666687853e-05</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.000114673641972119</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.084590972842046</v>
+        <v>1.081835456136357</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.084696817946698</v>
+        <v>1.081737691948743</v>
       </c>
       <c r="AH14" t="n">
-        <v>45.21505376349512</v>
+        <v>39.49579831933063</v>
       </c>
       <c r="AI14" t="n">
-        <v>49.30431591200543</v>
+        <v>30.45181035377606</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>-3.814388778300204e-05</v>
+      </c>
+      <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="n">
         <v>1</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.085104333844343</v>
+        <v>0.07855780557663555</v>
       </c>
       <c r="AN14" t="inlineStr">
         <is>
@@ -3764,37 +3766,37 @@
         </is>
       </c>
       <c r="AO14" t="n">
-        <v>1.084523144976193</v>
+        <v>1.081787264865056</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.084582235578392</v>
+        <v>1.081794121811253</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.084545029239767</v>
+        <v>1.081811520467836</v>
       </c>
       <c r="AR14" t="n">
-        <v>-5.909060219888573e-05</v>
+        <v>-6.856946196176494e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>-8.505295145765206e-05</v>
+        <v>1.169137416128634e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>6.083310501608784e-05</v>
+        <v>0.0003218177537460309</v>
       </c>
       <c r="AU14" t="n">
-        <v>-2.315101478966852e-06</v>
+        <v>-2.605091159257888e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>-1.166838665334069e-05</v>
+        <v>-5.86205710355614e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>-4.757481939288155e-06</v>
+        <v>-7.638114895103243e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.084605862344783</v>
+        <v>1.082133338221582</v>
       </c>
       <c r="AY14" t="n">
-        <v>1.084484196134751</v>
+        <v>1.08148970271409</v>
       </c>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="b">
@@ -3807,47 +3809,49 @@
         <v>0</v>
       </c>
       <c r="BD14" t="n">
-        <v>1.09456</v>
+        <v>1.09191</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.08536</v>
+        <v>1.086909999999999</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.08616</v>
+        <v>1.087709999999999</v>
       </c>
       <c r="BG14" t="n">
-        <v>1.08656</v>
+        <v>1.089909999999999</v>
       </c>
       <c r="BH14" t="n">
         <v>0</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ14" t="b">
         <v>1</v>
       </c>
       <c r="BK14" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL14" t="inlineStr"/>
+        <v>45485.73263888889</v>
+      </c>
+      <c r="BL14" s="2" t="n">
+        <v>45488.55667824074</v>
+      </c>
       <c r="BM14" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45484.69643518519</v>
       </c>
       <c r="BN14" s="2" t="n">
-        <v>45499.04513888889</v>
+        <v>45483.55902777778</v>
       </c>
       <c r="BO14" t="n">
-        <v>1.08456</v>
+        <v>1.08191</v>
       </c>
       <c r="BP14" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45484.69643518519</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1.08537</v>
+        <v>1.08693</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS14" t="inlineStr">
         <is>
@@ -3858,19 +3862,19 @@
         <v>1</v>
       </c>
       <c r="BU14" t="n">
-        <v>59.3</v>
+        <v>92.36</v>
       </c>
       <c r="BV14" t="n">
-        <v>7123.71</v>
+        <v>620.1899999999999</v>
       </c>
       <c r="BW14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BX14" t="n">
         <v>0</v>
       </c>
       <c r="BY14" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ14" t="n">
         <v>7</v>
@@ -3878,121 +3882,119 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>588</v>
+        <v>2177</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45499.04513888889</v>
+        <v>45483.55902777778</v>
       </c>
       <c r="C15" t="n">
-        <v>1.08455</v>
+        <v>1.0819</v>
       </c>
       <c r="D15" t="n">
-        <v>1.08458</v>
+        <v>1.08192</v>
       </c>
       <c r="E15" t="n">
-        <v>1.08451</v>
+        <v>1.08182</v>
       </c>
       <c r="F15" t="n">
-        <v>1.08456</v>
+        <v>1.08191</v>
       </c>
       <c r="G15" t="n">
+        <v>111</v>
+      </c>
+      <c r="H15" t="n">
         <v>12</v>
       </c>
-      <c r="H15" t="n">
-        <v>13</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.08451</v>
+        <v>1.08182</v>
       </c>
       <c r="K15" t="n">
-        <v>1.084686664807098</v>
+        <v>1.082326655278777</v>
       </c>
       <c r="L15" t="n">
-        <v>4.80744698135699e-05</v>
+        <v>6.803186870134151e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>2.151307161264464e-05</v>
+        <v>1.232958542635298e-05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.222446646008859e-06</v>
+        <v>0.0001186349503564079</v>
       </c>
       <c r="O15" t="n">
-        <v>-4.610701791939036e-05</v>
+        <v>0.0001344403828203641</v>
       </c>
       <c r="P15" t="n">
-        <v>1.084405934588774</v>
+        <v>1.081401445732558</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.084580371744703</v>
+        <v>1.081673426066943</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45483.54166666666</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45483.54166666666</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-5.833333332150303e-06</v>
       </c>
       <c r="U15" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>2.05738693848101e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>1.084431071428571</v>
+        <v>1.081803333333334</v>
       </c>
       <c r="W15" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-3.328863114687315e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>8.868950536504088e-06</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.084555238095239</v>
+        <v>1.081707976190477</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.084446911938508</v>
+        <v>1.081189140891227</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.0854009939189</v>
+        <v>1.08242115740524</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.084909806566411</v>
+        <v>1.081482239655631</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.086882904959809</v>
+        <v>1.08237999678754</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>1.884839666687853e-05</v>
       </c>
       <c r="AE15" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>-0.000114673641972119</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.084590972842046</v>
+        <v>1.081835456136357</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.084696817946698</v>
+        <v>1.081737691948743</v>
       </c>
       <c r="AH15" t="n">
-        <v>62.0967741935792</v>
+        <v>47.61904761904759</v>
       </c>
       <c r="AI15" t="n">
-        <v>49.70065047130995</v>
+        <v>38.56209150327104</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>-3.814388778300204e-05</v>
+      </c>
+      <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
         <v>1</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.085104333844343</v>
+        <v>0.07855780557663555</v>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
@@ -4000,37 +4002,37 @@
         </is>
       </c>
       <c r="AO15" t="n">
-        <v>1.084528814979856</v>
+        <v>1.081806147193509</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.084580588498511</v>
+        <v>1.081802705380789</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.084542813897489</v>
+        <v>1.081784585483316</v>
       </c>
       <c r="AR15" t="n">
-        <v>-5.177351865537361e-05</v>
+        <v>3.441812719939819e-06</v>
       </c>
       <c r="AS15" t="n">
-        <v>-7.839706489719637e-05</v>
+        <v>1.004146187301704e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>6.15846301109717e-05</v>
+        <v>0.0003056414020155581</v>
       </c>
       <c r="AU15" t="n">
-        <v>-2.215342277400723e-06</v>
+        <v>-2.693498451966647e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>-2.315101478966852e-06</v>
+        <v>-2.605091159257888e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>-1.166838665334069e-05</v>
+        <v>-5.86205710355614e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>1.0846043985276</v>
+        <v>1.082090226885332</v>
       </c>
       <c r="AY15" t="n">
-        <v>1.084481229267378</v>
+        <v>1.081478944081301</v>
       </c>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="b">
@@ -4043,47 +4045,49 @@
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>1.09456</v>
+        <v>1.09191</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.08536</v>
+        <v>1.086909999999999</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.08616</v>
+        <v>1.087709999999999</v>
       </c>
       <c r="BG15" t="n">
-        <v>1.08656</v>
+        <v>1.089909999999999</v>
       </c>
       <c r="BH15" t="n">
         <v>0</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ15" t="b">
         <v>1</v>
       </c>
       <c r="BK15" s="2" t="n">
-        <v>45499.71875</v>
-      </c>
-      <c r="BL15" t="inlineStr"/>
+        <v>45485.73263888889</v>
+      </c>
+      <c r="BL15" s="2" t="n">
+        <v>45488.55667824074</v>
+      </c>
       <c r="BM15" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45484.69643518519</v>
       </c>
       <c r="BN15" s="2" t="n">
-        <v>45499.04861111111</v>
+        <v>45483.5625</v>
       </c>
       <c r="BO15" t="n">
-        <v>1.08456</v>
+        <v>1.08191</v>
       </c>
       <c r="BP15" s="2" t="n">
-        <v>45499.28148148148</v>
+        <v>45484.69643518519</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.08537</v>
+        <v>1.08693</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS15" t="inlineStr">
         <is>
@@ -4094,19 +4098,19 @@
         <v>1</v>
       </c>
       <c r="BU15" t="n">
-        <v>59.3</v>
+        <v>92.37</v>
       </c>
       <c r="BV15" t="n">
-        <v>7183.01</v>
+        <v>712.5599999999999</v>
       </c>
       <c r="BW15" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BX15" t="n">
         <v>0</v>
       </c>
       <c r="BY15" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ15" t="n">
         <v>7</v>
@@ -4114,25 +4118,25 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>589</v>
+        <v>2492</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45499.04861111111</v>
+        <v>45484.65277777778</v>
       </c>
       <c r="C16" t="n">
-        <v>1.08456</v>
+        <v>1.08791</v>
       </c>
       <c r="D16" t="n">
-        <v>1.08471</v>
+        <v>1.08966</v>
       </c>
       <c r="E16" t="n">
-        <v>1.08456</v>
+        <v>1.08784</v>
       </c>
       <c r="F16" t="n">
-        <v>1.08466</v>
+        <v>1.08964</v>
       </c>
       <c r="G16" t="n">
-        <v>31</v>
+        <v>1454</v>
       </c>
       <c r="H16" t="n">
         <v>12</v>
@@ -4141,94 +4145,92 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.08456</v>
+        <v>1.08784</v>
       </c>
       <c r="K16" t="n">
-        <v>1.084709999562613</v>
+        <v>1.089893373299219</v>
       </c>
       <c r="L16" t="n">
-        <v>2.484419745530141e-05</v>
+        <v>0.0001810011943175938</v>
       </c>
       <c r="M16" t="n">
-        <v>4.609707337606265e-06</v>
+        <v>1.221512864735402e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.571273557150212e-05</v>
+        <v>0.0006852189773328977</v>
       </c>
       <c r="O16" t="n">
-        <v>8.29906161289757e-05</v>
+        <v>0.001476249518745271</v>
       </c>
       <c r="P16" t="n">
-        <v>1.084227328577038</v>
+        <v>1.083037435495696</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.084554450122916</v>
+        <v>1.088627875615607</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45484.625</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45484.625</v>
       </c>
       <c r="T16" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>0.0004259523809519994</v>
       </c>
       <c r="U16" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>0.0005895022737234523</v>
       </c>
       <c r="V16" t="n">
-        <v>1.084431071428571</v>
+        <v>1.086312023809524</v>
       </c>
       <c r="W16" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>0.0001358802634679147</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>0.001200391348302527</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.084555238095239</v>
+        <v>1.084932976190476</v>
       </c>
       <c r="Z16" t="n">
-        <v>1.084446911938508</v>
+        <v>1.083773295916985</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.0854009939189</v>
+        <v>1.084809774813158</v>
       </c>
       <c r="AB16" t="n">
-        <v>1.084909806566411</v>
+        <v>1.083203587384483</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.086882904959809</v>
+        <v>1.08443282069227</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>0.0003687044006618323</v>
       </c>
       <c r="AE16" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>0.00037842534192988</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.084590972842046</v>
+        <v>1.083129526013591</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.084696817946698</v>
+        <v>1.083927084126019</v>
       </c>
       <c r="AH16" t="n">
-        <v>82.9301075268871</v>
+        <v>86.09756900147691</v>
       </c>
       <c r="AI16" t="n">
-        <v>63.41397849465383</v>
+        <v>61.59296175084367</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>0.0004386373931385516</v>
+      </c>
+      <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="n">
         <v>1</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.085104333844343</v>
+        <v>0.08128740746403393</v>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
@@ -4236,37 +4238,37 @@
         </is>
       </c>
       <c r="AO16" t="n">
-        <v>1.084548997290647</v>
+        <v>1.086522638760177</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.084586470831955</v>
+        <v>1.085764036468679</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.084565521155831</v>
+        <v>1.08697396628827</v>
       </c>
       <c r="AR16" t="n">
-        <v>-3.747354130734237e-05</v>
+        <v>0.0007586022914982671</v>
       </c>
       <c r="AS16" t="n">
-        <v>-7.021236017922557e-05</v>
+        <v>0.0003481207386525305</v>
       </c>
       <c r="AT16" t="n">
-        <v>6.971848152369812e-05</v>
+        <v>0.001280439117359272</v>
       </c>
       <c r="AU16" t="n">
-        <v>2.270725834141452e-05</v>
+        <v>0.0007452700378400845</v>
       </c>
       <c r="AV16" t="n">
-        <v>-2.215342277400723e-06</v>
+        <v>0.0004575782593745359</v>
       </c>
       <c r="AW16" t="n">
-        <v>-2.315101478966852e-06</v>
+        <v>0.0006593016855862555</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.084635239637354</v>
+        <v>1.08825440540563</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.084495802674307</v>
+        <v>1.085693527170911</v>
       </c>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="b">
@@ -4279,45 +4281,47 @@
         <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.09466</v>
+        <v>1.09964</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.08546</v>
+        <v>1.08984</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.08626</v>
+        <v>1.09064</v>
       </c>
       <c r="BG16" t="n">
-        <v>1.08666</v>
+        <v>1.09164</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ16" t="b">
         <v>1</v>
       </c>
-      <c r="BK16" t="inlineStr"/>
+      <c r="BK16" s="2" t="n">
+        <v>45488.72916666666</v>
+      </c>
       <c r="BL16" t="inlineStr"/>
       <c r="BM16" s="2" t="n">
-        <v>45499.23648148148</v>
+        <v>45488.00005787037</v>
       </c>
       <c r="BN16" s="2" t="n">
-        <v>45499.05208333334</v>
+        <v>45484.65625</v>
       </c>
       <c r="BO16" t="n">
-        <v>1.08466</v>
+        <v>1.08964</v>
       </c>
       <c r="BP16" s="2" t="n">
-        <v>45499.23648148148</v>
+        <v>45488.00005787037</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1.08545</v>
+        <v>1.08821</v>
       </c>
       <c r="BR16" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS16" t="inlineStr">
         <is>
@@ -4328,19 +4332,19 @@
         <v>1</v>
       </c>
       <c r="BU16" t="n">
-        <v>57.84</v>
+        <v>-26.31</v>
       </c>
       <c r="BV16" t="n">
-        <v>7240.85</v>
+        <v>686.25</v>
       </c>
       <c r="BW16" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="BX16" t="n">
         <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BZ16" t="n">
         <v>7</v>
@@ -4348,25 +4352,25 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>591</v>
+        <v>2882</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45499.05555555555</v>
+        <v>45488.00694444445</v>
       </c>
       <c r="C17" t="n">
-        <v>1.08469</v>
+        <v>1.0885</v>
       </c>
       <c r="D17" t="n">
-        <v>1.08472</v>
+        <v>1.08917</v>
       </c>
       <c r="E17" t="n">
-        <v>1.08467</v>
+        <v>1.0885</v>
       </c>
       <c r="F17" t="n">
-        <v>1.0847</v>
+        <v>1.0889</v>
       </c>
       <c r="G17" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="H17" t="n">
         <v>12</v>
@@ -4375,94 +4379,92 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.08465333277116</v>
+        <v>1.0885</v>
       </c>
       <c r="K17" t="n">
-        <v>1.084719999911435</v>
+        <v>1.08917</v>
       </c>
       <c r="L17" t="n">
-        <v>-1.997580031470156e-05</v>
+        <v>0.0001594657028966168</v>
       </c>
       <c r="M17" t="n">
-        <v>-9.219069220929655e-06</v>
+        <v>1.336503407071494e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>2.151307161264464e-05</v>
+        <v>-0.0004406871903322324</v>
       </c>
       <c r="O17" t="n">
-        <v>4.80744698135699e-05</v>
+        <v>-0.0001068558215826627</v>
       </c>
       <c r="P17" t="n">
-        <v>1.08451423894609</v>
+        <v>1.087896342243618</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.084688562020064</v>
+        <v>1.090559067875911</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-2.154761904571423e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>0.0008744467567298742</v>
       </c>
       <c r="V17" t="n">
-        <v>1.084431071428571</v>
+        <v>1.089959166666666</v>
       </c>
       <c r="W17" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-0.0005167481578983035</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>-0.0003108463766938675</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.084555238095239</v>
+        <v>1.090640952380953</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.084446911938508</v>
+        <v>1.089992853751601</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.0854009939189</v>
+        <v>1.091698730010432</v>
       </c>
       <c r="AB17" t="n">
-        <v>1.084909806566411</v>
+        <v>1.089844886573082</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.086882904959809</v>
+        <v>1.090535594145354</v>
       </c>
       <c r="AD17" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>0.000165020077180545</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>9.356179663581442e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.084590972842046</v>
+        <v>1.087094667353514</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.084696817946698</v>
+        <v>1.088704242319673</v>
       </c>
       <c r="AH17" t="n">
-        <v>89.20731707315925</v>
+        <v>25.34246575342309</v>
       </c>
       <c r="AI17" t="n">
-        <v>85.5063816767137</v>
+        <v>29.67031836894321</v>
       </c>
       <c r="AJ17" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>0.0008489768240539704</v>
+      </c>
+      <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="n">
         <v>1</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.085104333844343</v>
+        <v>0.08666337839787808</v>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
@@ -4470,37 +4472,37 @@
         </is>
       </c>
       <c r="AO17" t="n">
-        <v>1.084585376758392</v>
+        <v>1.089754504076365</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.084599237681717</v>
+        <v>1.090128026756952</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.084613075335397</v>
+        <v>1.089477832817337</v>
       </c>
       <c r="AR17" t="n">
-        <v>-1.38609233244491e-05</v>
+        <v>-0.0003735226805861025</v>
       </c>
       <c r="AS17" t="n">
-        <v>-5.197057953881069e-05</v>
+        <v>-0.0001431649626032063</v>
       </c>
       <c r="AT17" t="n">
-        <v>8.436033822879846e-05</v>
+        <v>0.0007190681468966589</v>
       </c>
       <c r="AU17" t="n">
-        <v>2.599931200575334e-05</v>
+        <v>-0.0002290608875135103</v>
       </c>
       <c r="AV17" t="n">
-        <v>2.155486756016955e-05</v>
+        <v>-0.0003291434468528642</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.270725834141452e-05</v>
+        <v>-0.0004204059167518537</v>
       </c>
       <c r="AX17" t="n">
-        <v>1.084697435673625</v>
+        <v>1.090196900964234</v>
       </c>
       <c r="AY17" t="n">
-        <v>1.084528714997168</v>
+        <v>1.08875876467044</v>
       </c>
       <c r="AZ17" t="inlineStr"/>
       <c r="BA17" t="b">
@@ -4513,45 +4515,47 @@
         <v>0</v>
       </c>
       <c r="BD17" t="n">
-        <v>1.0947</v>
+        <v>1.0989</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.0855</v>
+        <v>1.0907</v>
       </c>
       <c r="BF17" t="n">
-        <v>1.0863</v>
+        <v>1.0915</v>
       </c>
       <c r="BG17" t="n">
-        <v>1.0867</v>
+        <v>1.0929</v>
       </c>
       <c r="BH17" t="n">
         <v>0</v>
       </c>
       <c r="BI17" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ17" t="b">
         <v>1</v>
       </c>
-      <c r="BK17" t="inlineStr"/>
+      <c r="BK17" s="2" t="n">
+        <v>45490.48958333334</v>
+      </c>
       <c r="BL17" t="inlineStr"/>
       <c r="BM17" s="2" t="n">
-        <v>45499.21287037037</v>
+        <v>45488.7941087963</v>
       </c>
       <c r="BN17" s="2" t="n">
-        <v>45499.05902777778</v>
+        <v>45488.01041666666</v>
       </c>
       <c r="BO17" t="n">
-        <v>1.0847</v>
+        <v>1.0889</v>
       </c>
       <c r="BP17" s="2" t="n">
-        <v>45499.21287037037</v>
+        <v>45488.7941087963</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1.08552</v>
+        <v>1.09073</v>
       </c>
       <c r="BR17" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS17" t="inlineStr">
         <is>
@@ -4562,19 +4566,19 @@
         <v>1</v>
       </c>
       <c r="BU17" t="n">
-        <v>60.04</v>
+        <v>33.67</v>
       </c>
       <c r="BV17" t="n">
-        <v>7300.89</v>
+        <v>719.92</v>
       </c>
       <c r="BW17" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BX17" t="n">
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ17" t="n">
         <v>7</v>
@@ -4582,121 +4586,119 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>593</v>
+        <v>2883</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45499.0625</v>
+        <v>45488.01041666666</v>
       </c>
       <c r="C18" t="n">
-        <v>1.08466</v>
+        <v>1.08889</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0847</v>
+        <v>1.08913</v>
       </c>
       <c r="E18" t="n">
-        <v>1.08461</v>
+        <v>1.08882</v>
       </c>
       <c r="F18" t="n">
-        <v>1.0847</v>
+        <v>1.08913</v>
       </c>
       <c r="G18" t="n">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.08458000085355</v>
+        <v>1.08882</v>
       </c>
       <c r="K18" t="n">
-        <v>1.084689158125255</v>
+        <v>1.08917867071425</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.934930557695333e-10</v>
+        <v>5.843406494163694e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>2.791523891398034e-05</v>
+        <v>1.876874774370642e-05</v>
       </c>
       <c r="N18" t="n">
-        <v>-4.609509813036386e-06</v>
+        <v>0.0003551315499056768</v>
       </c>
       <c r="O18" t="n">
-        <v>-3.332399516047189e-06</v>
+        <v>0.0003187945797238695</v>
       </c>
       <c r="P18" t="n">
-        <v>1.084620549253379</v>
+        <v>1.08781960833906</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.084724593517721</v>
+        <v>1.088429679018262</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="T18" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-2.154761904571423e-05</v>
       </c>
       <c r="U18" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>0.0008744467567298742</v>
       </c>
       <c r="V18" t="n">
-        <v>1.084431071428571</v>
+        <v>1.089959166666666</v>
       </c>
       <c r="W18" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-0.0005167481578983035</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>-0.0003108463766938675</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.084555238095239</v>
+        <v>1.090640952380953</v>
       </c>
       <c r="Z18" t="n">
-        <v>1.084446911938508</v>
+        <v>1.089992853751601</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.0854009939189</v>
+        <v>1.091698730010432</v>
       </c>
       <c r="AB18" t="n">
-        <v>1.084909806566411</v>
+        <v>1.089844886573082</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.086882904959809</v>
+        <v>1.090535594145354</v>
       </c>
       <c r="AD18" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>0.000165020077180545</v>
       </c>
       <c r="AE18" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>9.356179663581442e-05</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.084590972842046</v>
+        <v>1.087094667353514</v>
       </c>
       <c r="AG18" t="n">
-        <v>1.084696817946698</v>
+        <v>1.088704242319673</v>
       </c>
       <c r="AH18" t="n">
-        <v>90.24390243905124</v>
+        <v>36.07305936072823</v>
       </c>
       <c r="AI18" t="n">
-        <v>88.77371273713494</v>
+        <v>31.53319283455971</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>0.0008489768240539704</v>
+      </c>
+      <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="n">
         <v>1</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.085104333844343</v>
+        <v>0.08666337839787808</v>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
@@ -4704,37 +4706,37 @@
         </is>
       </c>
       <c r="AO18" t="n">
-        <v>1.084610121821098</v>
+        <v>1.089658426526155</v>
       </c>
       <c r="AP18" t="n">
-        <v>1.084609497326575</v>
+        <v>1.090054098849029</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.084643333333333</v>
+        <v>1.089313722050224</v>
       </c>
       <c r="AR18" t="n">
-        <v>6.244945227606991e-07</v>
+        <v>-0.0003956723228739634</v>
       </c>
       <c r="AS18" t="n">
-        <v>-3.449255658853425e-05</v>
+        <v>-0.0001936664346573577</v>
       </c>
       <c r="AT18" t="n">
-        <v>9.004073152146368e-05</v>
+        <v>0.0007568921102434392</v>
       </c>
       <c r="AU18" t="n">
-        <v>2.072239422057365e-05</v>
+        <v>-0.0001641107671128683</v>
       </c>
       <c r="AV18" t="n">
-        <v>9.535603715971064e-06</v>
+        <v>-0.0002290608875135103</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.599931200575334e-05</v>
+        <v>-0.0003291434468528642</v>
       </c>
       <c r="AX18" t="n">
-        <v>1.084733374064855</v>
+        <v>1.090070614160467</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.084553292601812</v>
+        <v>1.088556829939981</v>
       </c>
       <c r="AZ18" t="inlineStr"/>
       <c r="BA18" t="b">
@@ -4747,45 +4749,47 @@
         <v>0</v>
       </c>
       <c r="BD18" t="n">
-        <v>1.0947</v>
+        <v>1.09913</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.0855</v>
+        <v>1.09013</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.0863</v>
+        <v>1.09093</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.0867</v>
+        <v>1.09213</v>
       </c>
       <c r="BH18" t="n">
         <v>0</v>
       </c>
       <c r="BI18" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ18" t="b">
         <v>1</v>
       </c>
-      <c r="BK18" t="inlineStr"/>
+      <c r="BK18" s="2" t="n">
+        <v>45490.48611111111</v>
+      </c>
       <c r="BL18" t="inlineStr"/>
       <c r="BM18" s="2" t="n">
-        <v>45499.21287037037</v>
+        <v>45488.82315972223</v>
       </c>
       <c r="BN18" s="2" t="n">
-        <v>45499.06597222222</v>
+        <v>45488.01388888889</v>
       </c>
       <c r="BO18" t="n">
-        <v>1.0847</v>
+        <v>1.08913</v>
       </c>
       <c r="BP18" s="2" t="n">
-        <v>45499.21287037037</v>
+        <v>45488.82315972223</v>
       </c>
       <c r="BQ18" t="n">
-        <v>1.08552</v>
+        <v>1.09014</v>
       </c>
       <c r="BR18" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS18" t="inlineStr">
         <is>
@@ -4796,19 +4800,19 @@
         <v>1</v>
       </c>
       <c r="BU18" t="n">
-        <v>60.04</v>
+        <v>18.58</v>
       </c>
       <c r="BV18" t="n">
-        <v>7360.93</v>
+        <v>738.5</v>
       </c>
       <c r="BW18" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BX18" t="n">
         <v>0</v>
       </c>
       <c r="BY18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ18" t="n">
         <v>7</v>
@@ -4816,121 +4820,119 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>595</v>
+        <v>2885</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45499.06944444445</v>
+        <v>45488.01736111111</v>
       </c>
       <c r="C19" t="n">
-        <v>1.08462</v>
+        <v>1.08903</v>
       </c>
       <c r="D19" t="n">
-        <v>1.08468</v>
+        <v>1.0891</v>
       </c>
       <c r="E19" t="n">
-        <v>1.08458</v>
+        <v>1.08901</v>
       </c>
       <c r="F19" t="n">
-        <v>1.08466</v>
+        <v>1.08908</v>
       </c>
       <c r="G19" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.08458</v>
+        <v>1.088983330434521</v>
       </c>
       <c r="K19" t="n">
-        <v>1.084788332537473</v>
+        <v>1.089253676387826</v>
       </c>
       <c r="L19" t="n">
-        <v>1.869707940136386e-05</v>
+        <v>-4.285393152764729e-05</v>
       </c>
       <c r="M19" t="n">
-        <v>-7.68128604018984e-06</v>
+        <v>-2.254720556115342e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>-9.218792814435706e-06</v>
+        <v>1.336503407071494e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.646477000694229e-05</v>
+        <v>0.0001594657028966168</v>
       </c>
       <c r="P19" t="n">
-        <v>1.084632122126665</v>
+        <v>1.088514812120508</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.084709187357585</v>
+        <v>1.089171242180037</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-2.154761904571423e-05</v>
       </c>
       <c r="U19" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>0.0008744467567298742</v>
       </c>
       <c r="V19" t="n">
-        <v>1.084431071428571</v>
+        <v>1.089959166666666</v>
       </c>
       <c r="W19" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-0.0005167481578983035</v>
       </c>
       <c r="X19" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>-0.0003108463766938675</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.084555238095239</v>
+        <v>1.090640952380953</v>
       </c>
       <c r="Z19" t="n">
-        <v>1.084446911938508</v>
+        <v>1.089992853751601</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.0854009939189</v>
+        <v>1.091698730010432</v>
       </c>
       <c r="AB19" t="n">
-        <v>1.084909806566411</v>
+        <v>1.089844886573082</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.086882904959809</v>
+        <v>1.090535594145354</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>0.000165020077180545</v>
       </c>
       <c r="AE19" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>9.356179663581442e-05</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.084590972842046</v>
+        <v>1.087094667353514</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.084696817946698</v>
+        <v>1.088704242319673</v>
       </c>
       <c r="AH19" t="n">
-        <v>86.17886178863637</v>
+        <v>44.40639269406282</v>
       </c>
       <c r="AI19" t="n">
-        <v>86.99186991872297</v>
+        <v>40.9436834094351</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>0.0008489768240539704</v>
+      </c>
+      <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
         <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.085104333844343</v>
+        <v>0.08666337839787808</v>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
@@ -4938,37 +4940,37 @@
         </is>
       </c>
       <c r="AO19" t="n">
-        <v>1.084620383079011</v>
+        <v>1.089490234376715</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.084614644484375</v>
+        <v>1.089913075144915</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.084664224286205</v>
+        <v>1.089016938424492</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.738594635928962e-06</v>
+        <v>-0.0004228407682005386</v>
       </c>
       <c r="AS19" t="n">
-        <v>-2.058128379469488e-05</v>
+        <v>-0.0002748984656288459</v>
       </c>
       <c r="AT19" t="n">
-        <v>7.574738719236174e-05</v>
+        <v>0.0008094870803274316</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.377364981158813e-05</v>
+        <v>-0.0001323770209846753</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.117303060244495e-06</v>
+        <v>-0.0001644066047470361</v>
       </c>
       <c r="AW19" t="n">
-        <v>2.072239422057365e-05</v>
+        <v>-0.0001641107671128683</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.084739971673397</v>
+        <v>1.08982642550482</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.084588476899013</v>
+        <v>1.088207451344165</v>
       </c>
       <c r="AZ19" t="inlineStr"/>
       <c r="BA19" t="b">
@@ -4981,45 +4983,47 @@
         <v>0</v>
       </c>
       <c r="BD19" t="n">
-        <v>1.09466</v>
+        <v>1.09908</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.08546</v>
+        <v>1.09088</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.08626</v>
+        <v>1.09168</v>
       </c>
       <c r="BG19" t="n">
-        <v>1.08666</v>
+        <v>1.09308</v>
       </c>
       <c r="BH19" t="n">
         <v>0</v>
       </c>
       <c r="BI19" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ19" t="b">
         <v>1</v>
       </c>
-      <c r="BK19" t="inlineStr"/>
+      <c r="BK19" s="2" t="n">
+        <v>45490.48958333334</v>
+      </c>
       <c r="BL19" t="inlineStr"/>
       <c r="BM19" s="2" t="n">
-        <v>45499.23648148148</v>
+        <v>45488.79267361111</v>
       </c>
       <c r="BN19" s="2" t="n">
-        <v>45499.07291666666</v>
+        <v>45488.02083333334</v>
       </c>
       <c r="BO19" t="n">
-        <v>1.08466</v>
+        <v>1.08908</v>
       </c>
       <c r="BP19" s="2" t="n">
-        <v>45499.23648148148</v>
+        <v>45488.79267361111</v>
       </c>
       <c r="BQ19" t="n">
-        <v>1.08545</v>
+        <v>1.09086</v>
       </c>
       <c r="BR19" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS19" t="inlineStr">
         <is>
@@ -5030,19 +5034,19 @@
         <v>1</v>
       </c>
       <c r="BU19" t="n">
-        <v>57.84</v>
+        <v>32.75</v>
       </c>
       <c r="BV19" t="n">
-        <v>7418.77</v>
+        <v>771.25</v>
       </c>
       <c r="BW19" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BX19" t="n">
         <v>0</v>
       </c>
       <c r="BY19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ19" t="n">
         <v>7</v>
@@ -5050,121 +5054,119 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>596</v>
+        <v>2889</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45499.07291666666</v>
+        <v>45488.03125</v>
       </c>
       <c r="C20" t="n">
-        <v>1.08468</v>
+        <v>1.08896</v>
       </c>
       <c r="D20" t="n">
-        <v>1.08478</v>
+        <v>1.08902</v>
       </c>
       <c r="E20" t="n">
-        <v>1.08468</v>
+        <v>1.08894</v>
       </c>
       <c r="F20" t="n">
-        <v>1.08474</v>
+        <v>1.08901</v>
       </c>
       <c r="G20" t="n">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.084682535230885</v>
+        <v>1.08894</v>
       </c>
       <c r="K20" t="n">
-        <v>1.084769158403824</v>
+        <v>1.0892082243556</v>
       </c>
       <c r="L20" t="n">
-        <v>-1.921822948062062e-05</v>
+        <v>-5.469615938587325e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>2.484048744998031e-05</v>
+        <v>2.835724668958818e-05</v>
       </c>
       <c r="N20" t="n">
-        <v>2.791523891398034e-05</v>
+        <v>-3.254047659855081e-05</v>
       </c>
       <c r="O20" t="n">
-        <v>-3.934930557695333e-10</v>
+        <v>9.183047011744697e-06</v>
       </c>
       <c r="P20" t="n">
-        <v>1.084580000818836</v>
+        <v>1.088880853343326</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.084691621060849</v>
+        <v>1.089236977695666</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>45499.04166666666</v>
+        <v>45488</v>
       </c>
       <c r="T20" t="n">
-        <v>-0.0003653571428567925</v>
+        <v>-2.154761904571423e-05</v>
       </c>
       <c r="U20" t="n">
-        <v>3.42385313276683e-05</v>
+        <v>0.0008744467567298742</v>
       </c>
       <c r="V20" t="n">
-        <v>1.084431071428571</v>
+        <v>1.089959166666666</v>
       </c>
       <c r="W20" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>-0.0005167481578983035</v>
       </c>
       <c r="X20" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>-0.0003108463766938675</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.084555238095239</v>
+        <v>1.090640952380953</v>
       </c>
       <c r="Z20" t="n">
-        <v>1.084446911938508</v>
+        <v>1.089992853751601</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.0854009939189</v>
+        <v>1.091698730010432</v>
       </c>
       <c r="AB20" t="n">
-        <v>1.084909806566411</v>
+        <v>1.089844886573082</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.086882904959809</v>
+        <v>1.090535594145354</v>
       </c>
       <c r="AD20" t="n">
-        <v>-0.0005343284134164165</v>
+        <v>0.000165020077180545</v>
       </c>
       <c r="AE20" t="n">
-        <v>-0.0002064957703685635</v>
+        <v>9.356179663581442e-05</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.084590972842046</v>
+        <v>1.087094667353514</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.084696817946698</v>
+        <v>1.088704242319673</v>
       </c>
       <c r="AH20" t="n">
-        <v>84.9679986161657</v>
+        <v>42.40455317618609</v>
       </c>
       <c r="AI20" t="n">
-        <v>85.23323531109446</v>
+        <v>42.5626217335635</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.0001570803880369006</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1.083673795542589</v>
-      </c>
+        <v>0.0008489768240539704</v>
+      </c>
+      <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="n">
         <v>1</v>
       </c>
       <c r="AM20" t="n">
-        <v>1.085104333844343</v>
+        <v>0.08666337839787808</v>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
@@ -5172,37 +5174,37 @@
         </is>
       </c>
       <c r="AO20" t="n">
-        <v>1.08463878568224</v>
+        <v>1.089249500420485</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.084623930078125</v>
+        <v>1.089670310793639</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.084685775713794</v>
+        <v>1.088666277949776</v>
       </c>
       <c r="AR20" t="n">
-        <v>1.485560411529363e-05</v>
+        <v>-0.0004208103731542234</v>
       </c>
       <c r="AS20" t="n">
-        <v>-1.349390621269718e-05</v>
+        <v>-0.0003646226972422503</v>
       </c>
       <c r="AT20" t="n">
-        <v>8.180260794479361e-05</v>
+        <v>0.0008507265521621317</v>
       </c>
       <c r="AU20" t="n">
-        <v>2.155142758941686e-05</v>
+        <v>-3.792913656752717e-05</v>
       </c>
       <c r="AV20" t="n">
-        <v>1.377364981158813e-05</v>
+        <v>-8.410388716839634e-05</v>
       </c>
       <c r="AW20" t="n">
-        <v>7.117303060244495e-06</v>
+        <v>-0.0001024423804607544</v>
       </c>
       <c r="AX20" t="n">
-        <v>1.084767578321739</v>
+        <v>1.089517004501938</v>
       </c>
       <c r="AY20" t="n">
-        <v>1.08460397310585</v>
+        <v>1.087815551397614</v>
       </c>
       <c r="AZ20" t="inlineStr"/>
       <c r="BA20" t="b">
@@ -5215,45 +5217,47 @@
         <v>0</v>
       </c>
       <c r="BD20" t="n">
-        <v>1.09474</v>
+        <v>1.09901</v>
       </c>
       <c r="BE20" t="n">
-        <v>1.08554</v>
+        <v>1.09081</v>
       </c>
       <c r="BF20" t="n">
-        <v>1.08634</v>
+        <v>1.09161</v>
       </c>
       <c r="BG20" t="n">
-        <v>1.08674</v>
+        <v>1.09301</v>
       </c>
       <c r="BH20" t="n">
         <v>0</v>
       </c>
       <c r="BI20" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ20" t="b">
         <v>1</v>
       </c>
-      <c r="BK20" t="inlineStr"/>
+      <c r="BK20" s="2" t="n">
+        <v>45490.48958333334</v>
+      </c>
       <c r="BL20" t="inlineStr"/>
       <c r="BM20" s="2" t="n">
-        <v>45499.21113425926</v>
+        <v>45488.79305555556</v>
       </c>
       <c r="BN20" s="2" t="n">
-        <v>45499.07638888889</v>
+        <v>45488.03472222222</v>
       </c>
       <c r="BO20" t="n">
-        <v>1.08474</v>
+        <v>1.08901</v>
       </c>
       <c r="BP20" s="2" t="n">
-        <v>45499.21113425926</v>
+        <v>45488.79305555556</v>
       </c>
       <c r="BQ20" t="n">
-        <v>1.08557</v>
+        <v>1.09082</v>
       </c>
       <c r="BR20" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS20" t="inlineStr">
         <is>
@@ -5264,19 +5268,19 @@
         <v>1</v>
       </c>
       <c r="BU20" t="n">
-        <v>60.77</v>
+        <v>33.3</v>
       </c>
       <c r="BV20" t="n">
-        <v>7479.540000000001</v>
+        <v>804.55</v>
       </c>
       <c r="BW20" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="BX20" t="n">
         <v>0</v>
       </c>
       <c r="BY20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ20" t="n">
         <v>7</v>
@@ -5284,121 +5288,119 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>599</v>
+        <v>2890</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45499.08333333334</v>
+        <v>45488.03472222222</v>
       </c>
       <c r="C21" t="n">
-        <v>1.08465</v>
+        <v>1.089</v>
       </c>
       <c r="D21" t="n">
-        <v>1.08485</v>
+        <v>1.08925</v>
       </c>
       <c r="E21" t="n">
-        <v>1.08462</v>
+        <v>1.089</v>
       </c>
       <c r="F21" t="n">
-        <v>1.08478</v>
+        <v>1.0892</v>
       </c>
       <c r="G21" t="n">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.08462</v>
+        <v>1.088954587106525</v>
       </c>
       <c r="K21" t="n">
-        <v>1.08485</v>
+        <v>1.089388240780283</v>
       </c>
       <c r="L21" t="n">
-        <v>5.864660618092481e-05</v>
+        <v>-0.0001327848818859221</v>
       </c>
       <c r="M21" t="n">
-        <v>9.218025935147739e-06</v>
+        <v>-0.0001185396461956462</v>
       </c>
       <c r="N21" t="n">
-        <v>2.484048744998031e-05</v>
+        <v>2.713754489379558e-05</v>
       </c>
       <c r="O21" t="n">
-        <v>-1.921822948062062e-05</v>
+        <v>4.509835162096221e-05</v>
       </c>
       <c r="P21" t="n">
-        <v>1.084680838869283</v>
+        <v>1.088856869401368</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.084771351211952</v>
+        <v>1.08915296817464</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>45499.08333333334</v>
+        <v>45488</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>45499.08333333334</v>
+        <v>45488</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.0001241666666673691</v>
+        <v>-2.154761904571423e-05</v>
       </c>
       <c r="U21" t="n">
-        <v>1.388886121334032e-05</v>
+        <v>0.0008744467567298742</v>
       </c>
       <c r="V21" t="n">
-        <v>1.08457119047619</v>
+        <v>1.089959166666666</v>
       </c>
       <c r="W21" t="n">
-        <v>8.840599780514635e-06</v>
+        <v>-0.0005167481578983035</v>
       </c>
       <c r="X21" t="n">
-        <v>-5.547811797580976e-05</v>
+        <v>-0.0003108463766938675</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.084431071428571</v>
+        <v>1.090640952380953</v>
       </c>
       <c r="Z21" t="n">
-        <v>1.084282025148799</v>
+        <v>1.089992853751601</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.085305084117655</v>
+        <v>1.091698730010432</v>
       </c>
       <c r="AB21" t="n">
-        <v>1.084446911938508</v>
+        <v>1.089844886573082</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.0854009939189</v>
+        <v>1.090535594145354</v>
       </c>
       <c r="AD21" t="n">
-        <v>-0.0001021246162418738</v>
+        <v>0.000165020077180545</v>
       </c>
       <c r="AE21" t="n">
-        <v>-8.022204225427218e-05</v>
+        <v>9.356179663581442e-05</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.084910324280682</v>
+        <v>1.087094667353514</v>
       </c>
       <c r="AG21" t="n">
-        <v>1.084726672510962</v>
+        <v>1.088704242319673</v>
       </c>
       <c r="AH21" t="n">
-        <v>80.7853953244062</v>
+        <v>45.07710557532422</v>
       </c>
       <c r="AI21" t="n">
-        <v>83.45847721676883</v>
+        <v>43.23326761483043</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.0001284420826721886</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1.083804043720886</v>
-      </c>
+        <v>0.0008489768240539704</v>
+      </c>
+      <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>1.085141602185145</v>
+        <v>0.08666337839787808</v>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
@@ -5406,37 +5408,37 @@
         </is>
       </c>
       <c r="AO21" t="n">
-        <v>1.084668513310451</v>
+        <v>1.08924188497118</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.084642059008825</v>
+        <v>1.089635472957074</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.084723529411765</v>
+        <v>1.088685490196079</v>
       </c>
       <c r="AR21" t="n">
-        <v>2.645430162639961e-05</v>
+        <v>-0.0003935879858938396</v>
       </c>
       <c r="AS21" t="n">
-        <v>3.624885354912116e-06</v>
+        <v>-0.0003704157549725682</v>
       </c>
       <c r="AT21" t="n">
-        <v>8.888756943549846e-05</v>
+        <v>0.000846878188734557</v>
       </c>
       <c r="AU21" t="n">
-        <v>2.646370829051392e-05</v>
+        <v>1.921224630230256e-05</v>
       </c>
       <c r="AV21" t="n">
-        <v>-7.7743378024131e-07</v>
+        <v>-3.792913656752717e-05</v>
       </c>
       <c r="AW21" t="n">
-        <v>1.20674234600493e-05</v>
+        <v>-8.410388716839634e-05</v>
       </c>
       <c r="AX21" t="n">
-        <v>1.0848124169812</v>
+        <v>1.089532368384813</v>
       </c>
       <c r="AY21" t="n">
-        <v>1.084634641842329</v>
+        <v>1.087838612007344</v>
       </c>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="b">
@@ -5449,45 +5451,47 @@
         <v>0</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.09478</v>
+        <v>1.0992</v>
       </c>
       <c r="BE21" t="n">
-        <v>1.08558</v>
+        <v>1.0902</v>
       </c>
       <c r="BF21" t="n">
-        <v>1.08638</v>
+        <v>1.091</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.08678</v>
+        <v>1.0922</v>
       </c>
       <c r="BH21" t="n">
         <v>0</v>
       </c>
       <c r="BI21" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ21" t="b">
         <v>1</v>
       </c>
-      <c r="BK21" t="inlineStr"/>
+      <c r="BK21" s="2" t="n">
+        <v>45490.48611111111</v>
+      </c>
       <c r="BL21" t="inlineStr"/>
       <c r="BM21" s="2" t="n">
-        <v>45499.21063657408</v>
+        <v>45488.63891203704</v>
       </c>
       <c r="BN21" s="2" t="n">
-        <v>45499.08680555555</v>
+        <v>45488.03819444445</v>
       </c>
       <c r="BO21" t="n">
-        <v>1.08478</v>
+        <v>1.0892</v>
       </c>
       <c r="BP21" s="2" t="n">
-        <v>45499.21063657408</v>
+        <v>45488.63891203704</v>
       </c>
       <c r="BQ21" t="n">
-        <v>1.08559</v>
+        <v>1.09021</v>
       </c>
       <c r="BR21" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS21" t="inlineStr">
         <is>
@@ -5498,19 +5502,19 @@
         <v>1</v>
       </c>
       <c r="BU21" t="n">
-        <v>59.3</v>
+        <v>18.58</v>
       </c>
       <c r="BV21" t="n">
-        <v>7538.840000000001</v>
+        <v>823.13</v>
       </c>
       <c r="BW21" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="BX21" t="n">
         <v>0</v>
       </c>
       <c r="BY21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ21" t="n">
         <v>7</v>
@@ -5518,25 +5522,25 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>691</v>
+        <v>3119</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45499.40277777778</v>
+        <v>45488.82986111111</v>
       </c>
       <c r="C22" t="n">
-        <v>1.08502</v>
+        <v>1.09031</v>
       </c>
       <c r="D22" t="n">
-        <v>1.08518</v>
+        <v>1.09064</v>
       </c>
       <c r="E22" t="n">
-        <v>1.08502</v>
+        <v>1.09031</v>
       </c>
       <c r="F22" t="n">
-        <v>1.08516</v>
+        <v>1.09055</v>
       </c>
       <c r="G22" t="n">
-        <v>187</v>
+        <v>450</v>
       </c>
       <c r="H22" t="n">
         <v>12</v>
@@ -5545,94 +5549,92 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.08502</v>
+        <v>1.089611637980039</v>
       </c>
       <c r="K22" t="n">
-        <v>1.085178571075164</v>
+        <v>1.090710475083661</v>
       </c>
       <c r="L22" t="n">
-        <v>1.88243607313837e-05</v>
+        <v>1.68517521337089e-05</v>
       </c>
       <c r="M22" t="n">
-        <v>2.501151179293487e-05</v>
+        <v>-0.0001288005696283137</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.868966284766295e-05</v>
+        <v>-0.0003149137771030976</v>
       </c>
       <c r="O22" t="n">
-        <v>-7.680107130091467e-06</v>
+        <v>5.423074044472116e-05</v>
       </c>
       <c r="P22" t="n">
-        <v>1.085007651915294</v>
+        <v>1.089886906766132</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.085228342357665</v>
+        <v>1.091630200921364</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>45499.375</v>
+        <v>45488.79166666666</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>45499.375</v>
+        <v>45488.79166666666</v>
       </c>
       <c r="T22" t="n">
-        <v>9.761904762317641e-06</v>
+        <v>-9.357142857191469e-05</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002588628025783635</v>
+        <v>0.0005544513073176827</v>
       </c>
       <c r="V22" t="n">
-        <v>1.085578452380952</v>
+        <v>1.091025833333334</v>
       </c>
       <c r="W22" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-4.79674828630151e-05</v>
       </c>
       <c r="X22" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>0.0002705715133414216</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.085778571428572</v>
+        <v>1.091225</v>
       </c>
       <c r="Z22" t="n">
-        <v>1.085402226937276</v>
+        <v>1.09014546724766</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.085979732510367</v>
+        <v>1.09130942440613</v>
       </c>
       <c r="AB22" t="n">
-        <v>1.085139074794069</v>
+        <v>1.089927974750606</v>
       </c>
       <c r="AC22" t="n">
-        <v>1.085990261938873</v>
+        <v>1.091436108947541</v>
       </c>
       <c r="AD22" t="n">
-        <v>-2.627969922551853e-07</v>
+        <v>0.0001692513742468191</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.0001017523076688671</v>
+        <v>0.0002231448855131531</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.085342629320659</v>
+        <v>1.088721296475115</v>
       </c>
       <c r="AG22" t="n">
-        <v>1.085091734522754</v>
+        <v>1.090011252516051</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.627062706273366</v>
+        <v>25.43352601155604</v>
       </c>
       <c r="AI22" t="n">
-        <v>11.34983498350231</v>
+        <v>18.24627854517786</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.0001943135240035856</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1.084581008037383</v>
-      </c>
+        <v>0.0004475031437316355</v>
+      </c>
+      <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="n">
         <v>1</v>
       </c>
       <c r="AM22" t="n">
-        <v>1.085377641183141</v>
+        <v>0.08717245305338503</v>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
@@ -5640,37 +5642,37 @@
         </is>
       </c>
       <c r="AO22" t="n">
-        <v>1.085275095031897</v>
+        <v>1.090486557364757</v>
       </c>
       <c r="AP22" t="n">
-        <v>1.085437440870268</v>
+        <v>1.090736565775432</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.085042669418646</v>
+        <v>1.090168190574476</v>
       </c>
       <c r="AR22" t="n">
-        <v>-0.0001623458383714915</v>
+        <v>-0.0002500084106751288</v>
       </c>
       <c r="AS22" t="n">
-        <v>-0.0001080547956696281</v>
+        <v>-0.0002330512607297429</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.0003021213884217091</v>
+        <v>0.0005856426668302218</v>
       </c>
       <c r="AU22" t="n">
-        <v>-4.15376676985435e-05</v>
+        <v>2.89267285873418e-05</v>
       </c>
       <c r="AV22" t="n">
-        <v>-7.792569659303972e-05</v>
+        <v>-2.201926384670649e-05</v>
       </c>
       <c r="AW22" t="n">
-        <v>-8.400756794113562e-05</v>
+        <v>-3.126934984587493e-05</v>
       </c>
       <c r="AX22" t="n">
-        <v>1.085344790807067</v>
+        <v>1.090753833241306</v>
       </c>
       <c r="AY22" t="n">
-        <v>1.084740548030224</v>
+        <v>1.089582547907646</v>
       </c>
       <c r="AZ22" t="inlineStr"/>
       <c r="BA22" t="b">
@@ -5683,22 +5685,22 @@
         <v>0</v>
       </c>
       <c r="BD22" t="n">
-        <v>1.09516</v>
+        <v>1.10055</v>
       </c>
       <c r="BE22" t="n">
-        <v>1.08596</v>
+        <v>1.09235</v>
       </c>
       <c r="BF22" t="n">
-        <v>1.08676</v>
+        <v>1.09315</v>
       </c>
       <c r="BG22" t="n">
-        <v>1.08716</v>
+        <v>1.094549999999999</v>
       </c>
       <c r="BH22" t="n">
         <v>0</v>
       </c>
       <c r="BI22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ22" t="b">
         <v>1</v>
@@ -5706,22 +5708,22 @@
       <c r="BK22" t="inlineStr"/>
       <c r="BL22" t="inlineStr"/>
       <c r="BM22" s="2" t="n">
-        <v>45499.63151620371</v>
+        <v>45490.80935185185</v>
       </c>
       <c r="BN22" s="2" t="n">
-        <v>45499.40625</v>
+        <v>45488.83333333334</v>
       </c>
       <c r="BO22" t="n">
-        <v>1.08516</v>
+        <v>1.09055</v>
       </c>
       <c r="BP22" s="2" t="n">
-        <v>45499.63151620371</v>
+        <v>45490.80935185185</v>
       </c>
       <c r="BQ22" t="n">
-        <v>1.08595</v>
+        <v>1.09234</v>
       </c>
       <c r="BR22" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS22" t="inlineStr">
         <is>
@@ -5732,19 +5734,19 @@
         <v>1</v>
       </c>
       <c r="BU22" t="n">
-        <v>57.84</v>
+        <v>32.94</v>
       </c>
       <c r="BV22" t="n">
-        <v>7596.680000000001</v>
+        <v>856.0699999999999</v>
       </c>
       <c r="BW22" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="BX22" t="n">
         <v>0</v>
       </c>
       <c r="BY22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ22" t="n">
         <v>7</v>
@@ -5752,25 +5754,25 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>693</v>
+        <v>3860</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45499.40972222222</v>
+        <v>45491.40277777778</v>
       </c>
       <c r="C23" t="n">
-        <v>1.08511</v>
+        <v>1.09284</v>
       </c>
       <c r="D23" t="n">
-        <v>1.08524</v>
+        <v>1.093</v>
       </c>
       <c r="E23" t="n">
-        <v>1.08505</v>
+        <v>1.09279</v>
       </c>
       <c r="F23" t="n">
-        <v>1.08514</v>
+        <v>1.093</v>
       </c>
       <c r="G23" t="n">
-        <v>138</v>
+        <v>358</v>
       </c>
       <c r="H23" t="n">
         <v>12</v>
@@ -5779,94 +5781,92 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.085060850199869</v>
+        <v>1.09279</v>
       </c>
       <c r="K23" t="n">
-        <v>1.085229148181053</v>
+        <v>1.093023330360882</v>
       </c>
       <c r="L23" t="n">
-        <v>2.810829012268738e-06</v>
+        <v>6.737933654795397e-05</v>
       </c>
       <c r="M23" t="n">
-        <v>6.475785582414518e-05</v>
+        <v>7.166288570249002e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>2.830269711024532e-05</v>
+        <v>-5.031581019773132e-05</v>
       </c>
       <c r="O23" t="n">
-        <v>9.875127298077288e-06</v>
+        <v>-7.62544999137171e-05</v>
       </c>
       <c r="P23" t="n">
-        <v>1.085018730942555</v>
+        <v>1.092849247105429</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.085150367754791</v>
+        <v>1.093180111775589</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>45499.375</v>
+        <v>45491.375</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>45499.375</v>
+        <v>45491.375</v>
       </c>
       <c r="T23" t="n">
-        <v>9.761904762317641e-06</v>
+        <v>4.833333333320589e-05</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0002588628025783635</v>
+        <v>0.0002225397309394417</v>
       </c>
       <c r="V23" t="n">
-        <v>1.085578452380952</v>
+        <v>1.093248095238095</v>
       </c>
       <c r="W23" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-0.0001077225611086279</v>
       </c>
       <c r="X23" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>6.827093433446061e-05</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.085778571428572</v>
+        <v>1.093363452380952</v>
       </c>
       <c r="Z23" t="n">
-        <v>1.085402226937276</v>
+        <v>1.093150452718757</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.085979732510367</v>
+        <v>1.093532651932749</v>
       </c>
       <c r="AB23" t="n">
-        <v>1.085139074794069</v>
+        <v>1.093184105082848</v>
       </c>
       <c r="AC23" t="n">
-        <v>1.085990261938873</v>
+        <v>1.093837741617979</v>
       </c>
       <c r="AD23" t="n">
-        <v>-2.627969922551853e-07</v>
+        <v>-2.306795991341832e-05</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.0001017523076688671</v>
+        <v>-2.329175265006874e-05</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.085342629320659</v>
+        <v>1.091904087843039</v>
       </c>
       <c r="AG23" t="n">
-        <v>1.085091734522754</v>
+        <v>1.092953407332466</v>
       </c>
       <c r="AH23" t="n">
-        <v>16.25860966475553</v>
+        <v>19.01985725390375</v>
       </c>
       <c r="AI23" t="n">
-        <v>12.45561769112453</v>
+        <v>16.29684592372712</v>
       </c>
       <c r="AJ23" t="n">
-        <v>0.0001943135240035856</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1.084581008037383</v>
-      </c>
+        <v>0.0003933881230484937</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
         <v>1</v>
       </c>
       <c r="AM23" t="n">
-        <v>1.085377641183141</v>
+        <v>0.08928007801278606</v>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
@@ -5874,37 +5874,37 @@
         </is>
       </c>
       <c r="AO23" t="n">
-        <v>1.085232819519879</v>
+        <v>1.093173704670966</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.085392949991656</v>
+        <v>1.093275225160656</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.084979088407293</v>
+        <v>1.093090371517029</v>
       </c>
       <c r="AR23" t="n">
-        <v>-0.000160130471777542</v>
+        <v>-0.0001015204896896993</v>
       </c>
       <c r="AS23" t="n">
-        <v>-0.0001273395947470607</v>
+        <v>-3.758008423292207e-05</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.0003200770740641817</v>
+        <v>0.0002190114149318024</v>
       </c>
       <c r="AU23" t="n">
-        <v>-1.831441348421059e-05</v>
+        <v>-6.838321293267668e-05</v>
       </c>
       <c r="AV23" t="n">
-        <v>-4.526659786807663e-05</v>
+        <v>-0.0001114275885798488</v>
       </c>
       <c r="AW23" t="n">
-        <v>-4.15376676985435e-05</v>
+        <v>-8.566563467438115e-05</v>
       </c>
       <c r="AX23" t="n">
-        <v>1.085299165481358</v>
+        <v>1.093309382931961</v>
       </c>
       <c r="AY23" t="n">
-        <v>1.084659011333229</v>
+        <v>1.092871360102097</v>
       </c>
       <c r="AZ23" t="inlineStr"/>
       <c r="BA23" t="b">
@@ -5917,68 +5917,68 @@
         <v>0</v>
       </c>
       <c r="BD23" t="n">
-        <v>1.09514</v>
+        <v>1.103</v>
       </c>
       <c r="BE23" t="n">
-        <v>1.08594</v>
+        <v>1.087</v>
       </c>
       <c r="BF23" t="n">
-        <v>1.08674</v>
+        <v>1.0932</v>
       </c>
       <c r="BG23" t="n">
-        <v>1.08714</v>
+        <v>1.094</v>
       </c>
       <c r="BH23" t="n">
         <v>0</v>
       </c>
       <c r="BI23" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK23" t="inlineStr"/>
       <c r="BL23" t="inlineStr"/>
       <c r="BM23" s="2" t="n">
-        <v>45499.63181712963</v>
+        <v>45496.46375</v>
       </c>
       <c r="BN23" s="2" t="n">
-        <v>45499.41319444445</v>
+        <v>45491.40625</v>
       </c>
       <c r="BO23" t="n">
-        <v>1.08514</v>
+        <v>1.093</v>
       </c>
       <c r="BP23" s="2" t="n">
-        <v>45499.63181712963</v>
+        <v>45496.46375</v>
       </c>
       <c r="BQ23" t="n">
-        <v>1.08595</v>
+        <v>1.08706</v>
       </c>
       <c r="BR23" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS23" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="BT23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU23" t="n">
-        <v>59.3</v>
+        <v>-109.29</v>
       </c>
       <c r="BV23" t="n">
-        <v>7655.980000000001</v>
+        <v>746.78</v>
       </c>
       <c r="BW23" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="BX23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ23" t="n">
         <v>7</v>
@@ -5986,25 +5986,25 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>694</v>
+        <v>3861</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45499.41319444445</v>
+        <v>45491.40625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08515</v>
+        <v>1.09302</v>
       </c>
       <c r="D24" t="n">
-        <v>1.08526</v>
+        <v>1.09305</v>
       </c>
       <c r="E24" t="n">
-        <v>1.08509</v>
+        <v>1.09287</v>
       </c>
       <c r="F24" t="n">
-        <v>1.08517</v>
+        <v>1.09304</v>
       </c>
       <c r="G24" t="n">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
@@ -6013,94 +6013,92 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.085100848888876</v>
+        <v>1.092880921593538</v>
       </c>
       <c r="K24" t="n">
-        <v>1.085306661215373</v>
+        <v>1.093039088662875</v>
       </c>
       <c r="L24" t="n">
-        <v>-8.321275627185382e-05</v>
+        <v>2.411837803162094e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>6.142530917007557e-05</v>
+        <v>0.0001222395535961747</v>
       </c>
       <c r="N24" t="n">
-        <v>2.501151179293487e-05</v>
+        <v>-2.772676951083244e-05</v>
       </c>
       <c r="O24" t="n">
-        <v>1.88243607313837e-05</v>
+        <v>3.050528782642123e-05</v>
       </c>
       <c r="P24" t="n">
-        <v>1.085021669456795</v>
+        <v>1.092659632980449</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.085180789570224</v>
+        <v>1.093127303632909</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>45499.375</v>
+        <v>45491.375</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>45499.375</v>
+        <v>45491.375</v>
       </c>
       <c r="T24" t="n">
-        <v>9.761904762317641e-06</v>
+        <v>4.833333333320589e-05</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0002588628025783635</v>
+        <v>0.0002225397309394417</v>
       </c>
       <c r="V24" t="n">
-        <v>1.085578452380952</v>
+        <v>1.093248095238095</v>
       </c>
       <c r="W24" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-0.0001077225611086279</v>
       </c>
       <c r="X24" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>6.827093433446061e-05</v>
       </c>
       <c r="Y24" t="n">
-        <v>1.085778571428572</v>
+        <v>1.093363452380952</v>
       </c>
       <c r="Z24" t="n">
-        <v>1.085402226937276</v>
+        <v>1.093150452718757</v>
       </c>
       <c r="AA24" t="n">
-        <v>1.085979732510367</v>
+        <v>1.093532651932749</v>
       </c>
       <c r="AB24" t="n">
-        <v>1.085139074794069</v>
+        <v>1.093184105082848</v>
       </c>
       <c r="AC24" t="n">
-        <v>1.085990261938873</v>
+        <v>1.093837741617979</v>
       </c>
       <c r="AD24" t="n">
-        <v>-2.627969922551853e-07</v>
+        <v>-2.306795991341832e-05</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.0001017523076688671</v>
+        <v>-2.329175265006874e-05</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.085342629320659</v>
+        <v>1.091904087843039</v>
       </c>
       <c r="AG24" t="n">
-        <v>1.085091734522754</v>
+        <v>1.092953407332466</v>
       </c>
       <c r="AH24" t="n">
-        <v>17.90901616882351</v>
+        <v>25.15723270440528</v>
       </c>
       <c r="AI24" t="n">
-        <v>15.21626884530791</v>
+        <v>20.43789602619448</v>
       </c>
       <c r="AJ24" t="n">
-        <v>0.0001943135240035856</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1.084581008037383</v>
-      </c>
+        <v>0.0003933881230484937</v>
+      </c>
+      <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="n">
         <v>1</v>
       </c>
       <c r="AM24" t="n">
-        <v>1.085377641183141</v>
+        <v>0.08928007801278606</v>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
@@ -6108,37 +6106,37 @@
         </is>
       </c>
       <c r="AO24" t="n">
-        <v>1.085223154978359</v>
+        <v>1.093153134721587</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.085376435177459</v>
+        <v>1.093257801074681</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.08498195390437</v>
+        <v>1.093033357413141</v>
       </c>
       <c r="AR24" t="n">
-        <v>-0.0001532801991004362</v>
+        <v>-0.0001046663530945846</v>
       </c>
       <c r="AS24" t="n">
-        <v>-0.0001325277156177358</v>
+        <v>-5.099733800525458e-05</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.0003231552774461454</v>
+        <v>0.0002260162233199821</v>
       </c>
       <c r="AU24" t="n">
-        <v>2.865497076287582e-06</v>
+        <v>-5.70141038875871e-05</v>
       </c>
       <c r="AV24" t="n">
-        <v>-1.831441348421059e-05</v>
+        <v>-6.838321293267668e-05</v>
       </c>
       <c r="AW24" t="n">
-        <v>-4.526659786807663e-05</v>
+        <v>-0.0001114275885798488</v>
       </c>
       <c r="AX24" t="n">
-        <v>1.085305109181816</v>
+        <v>1.093259373636462</v>
       </c>
       <c r="AY24" t="n">
-        <v>1.084658798626924</v>
+        <v>1.092807341189821</v>
       </c>
       <c r="AZ24" t="inlineStr"/>
       <c r="BA24" t="b">
@@ -6151,68 +6149,68 @@
         <v>0</v>
       </c>
       <c r="BD24" t="n">
-        <v>1.09517</v>
+        <v>1.10304</v>
       </c>
       <c r="BE24" t="n">
-        <v>1.08597</v>
+        <v>1.08704</v>
       </c>
       <c r="BF24" t="n">
-        <v>1.08677</v>
+        <v>1.09324</v>
       </c>
       <c r="BG24" t="n">
-        <v>1.08717</v>
+        <v>1.09404</v>
       </c>
       <c r="BH24" t="n">
         <v>0</v>
       </c>
       <c r="BI24" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK24" t="inlineStr"/>
       <c r="BL24" t="inlineStr"/>
       <c r="BM24" s="2" t="n">
-        <v>45499.63053240741</v>
+        <v>45496.46359953703</v>
       </c>
       <c r="BN24" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45491.40972222222</v>
       </c>
       <c r="BO24" t="n">
-        <v>1.08517</v>
+        <v>1.09304</v>
       </c>
       <c r="BP24" s="2" t="n">
-        <v>45499.63053240741</v>
+        <v>45496.46359953703</v>
       </c>
       <c r="BQ24" t="n">
-        <v>1.08597</v>
+        <v>1.08704</v>
       </c>
       <c r="BR24" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS24" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="BT24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU24" t="n">
-        <v>58.57</v>
+        <v>-110.4</v>
       </c>
       <c r="BV24" t="n">
-        <v>7714.550000000001</v>
+        <v>636.38</v>
       </c>
       <c r="BW24" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="BX24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BY24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ24" t="n">
         <v>7</v>
@@ -6220,25 +6218,25 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>696</v>
+        <v>3862</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45499.42013888889</v>
+        <v>45491.40972222222</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08513</v>
+        <v>1.09304</v>
       </c>
       <c r="D25" t="n">
-        <v>1.08544</v>
+        <v>1.09318</v>
       </c>
       <c r="E25" t="n">
-        <v>1.08507</v>
+        <v>1.093</v>
       </c>
       <c r="F25" t="n">
-        <v>1.08531</v>
+        <v>1.0931</v>
       </c>
       <c r="G25" t="n">
-        <v>263</v>
+        <v>287</v>
       </c>
       <c r="H25" t="n">
         <v>12</v>
@@ -6247,94 +6245,92 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.084935009603397</v>
+        <v>1.092920013570056</v>
       </c>
       <c r="K25" t="n">
-        <v>1.08544</v>
+        <v>1.093173335285561</v>
       </c>
       <c r="L25" t="n">
-        <v>-9.679352650092523e-05</v>
+        <v>1.829305803611954e-05</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0001297702542452123</v>
+        <v>0.0001219533016914301</v>
       </c>
       <c r="N25" t="n">
-        <v>6.475785582414518e-05</v>
+        <v>5.155767279936518e-05</v>
       </c>
       <c r="O25" t="n">
-        <v>2.810829012268738e-06</v>
+        <v>8.735290375151658e-05</v>
       </c>
       <c r="P25" t="n">
-        <v>1.085061099883655</v>
+        <v>1.092698496740494</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.085234901478552</v>
+        <v>1.093005016384481</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45491.375</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45491.375</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.0002001190476201842</v>
+        <v>4.833333333320589e-05</v>
       </c>
       <c r="U25" t="n">
-        <v>0.0001962304194009779</v>
+        <v>0.0002225397309394417</v>
       </c>
       <c r="V25" t="n">
-        <v>1.085304880952381</v>
+        <v>1.093248095238095</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.0002095165083607325</v>
+        <v>-0.0001077225611086279</v>
       </c>
       <c r="X25" t="n">
-        <v>-7.460781016720016e-05</v>
+        <v>6.827093433446061e-05</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.085578452380952</v>
+        <v>1.093363452380952</v>
       </c>
       <c r="Z25" t="n">
-        <v>1.085321478485915</v>
+        <v>1.093150452718757</v>
       </c>
       <c r="AA25" t="n">
-        <v>1.08615545980143</v>
+        <v>1.093532651932749</v>
       </c>
       <c r="AB25" t="n">
-        <v>1.085402226937276</v>
+        <v>1.093184105082848</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.085979732510367</v>
+        <v>1.093837741617979</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>-2.306795991341832e-05</v>
       </c>
       <c r="AE25" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-2.329175265006874e-05</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.08502087644022</v>
+        <v>1.091904087843039</v>
       </c>
       <c r="AG25" t="n">
-        <v>1.085073195760934</v>
+        <v>1.092953407332466</v>
       </c>
       <c r="AH25" t="n">
-        <v>28.52202402622091</v>
+        <v>34.02332539537324</v>
       </c>
       <c r="AI25" t="n">
-        <v>21.71007572897586</v>
+        <v>26.06680511789414</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0.000194696903083064</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1.084674967715888</v>
-      </c>
+        <v>0.0003933881230484937</v>
+      </c>
+      <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
         <v>1</v>
       </c>
       <c r="AM25" t="n">
-        <v>1.085407450856461</v>
+        <v>0.08928007801278606</v>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
@@ -6342,37 +6338,37 @@
         </is>
       </c>
       <c r="AO25" t="n">
-        <v>1.085223087292198</v>
+        <v>1.093144960149035</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.085353925906601</v>
+        <v>1.093246112106186</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.085037526659788</v>
+        <v>1.093005321637427</v>
       </c>
       <c r="AR25" t="n">
-        <v>-0.0001308386144029949</v>
+        <v>-0.0001011519571514352</v>
       </c>
       <c r="AS25" t="n">
-        <v>-0.0001350102604664351</v>
+        <v>-6.102826183449071e-05</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.000320872768151062</v>
+        <v>0.0002295829549506882</v>
       </c>
       <c r="AU25" t="n">
-        <v>4.984864121304611e-05</v>
+        <v>-2.803577571408589e-05</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.724114205296615e-06</v>
+        <v>-5.70141038875871e-05</v>
       </c>
       <c r="AW25" t="n">
-        <v>2.865497076287582e-06</v>
+        <v>-6.838321293267668e-05</v>
       </c>
       <c r="AX25" t="n">
-        <v>1.085358399427939</v>
+        <v>1.093234904592378</v>
       </c>
       <c r="AY25" t="n">
-        <v>1.084716653891637</v>
+        <v>1.092775738682477</v>
       </c>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="b">
@@ -6385,68 +6381,68 @@
         <v>0</v>
       </c>
       <c r="BD25" t="n">
-        <v>1.09531</v>
+        <v>1.1031</v>
       </c>
       <c r="BE25" t="n">
-        <v>1.08611</v>
+        <v>1.0871</v>
       </c>
       <c r="BF25" t="n">
-        <v>1.08691</v>
+        <v>1.0933</v>
       </c>
       <c r="BG25" t="n">
-        <v>1.08731</v>
+        <v>1.0941</v>
       </c>
       <c r="BH25" t="n">
         <v>0</v>
       </c>
       <c r="BI25" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" t="inlineStr"/>
       <c r="BL25" t="inlineStr"/>
       <c r="BM25" s="2" t="n">
-        <v>45499.70033564815</v>
+        <v>45496.46359953703</v>
       </c>
       <c r="BN25" s="2" t="n">
-        <v>45499.42361111111</v>
+        <v>45491.41319444445</v>
       </c>
       <c r="BO25" t="n">
-        <v>1.08531</v>
+        <v>1.0931</v>
       </c>
       <c r="BP25" s="2" t="n">
-        <v>45499.70033564815</v>
+        <v>45496.46359953703</v>
       </c>
       <c r="BQ25" t="n">
-        <v>1.08612</v>
+        <v>1.08704</v>
       </c>
       <c r="BR25" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS25" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="BT25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU25" t="n">
-        <v>59.3</v>
+        <v>-111.5</v>
       </c>
       <c r="BV25" t="n">
-        <v>7773.850000000001</v>
+        <v>524.88</v>
       </c>
       <c r="BW25" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BX25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BZ25" t="n">
         <v>7</v>
@@ -6454,25 +6450,25 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>699</v>
+        <v>4461</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45499.43055555555</v>
+        <v>45495.48958333334</v>
       </c>
       <c r="C26" t="n">
-        <v>1.08476</v>
+        <v>1.0887</v>
       </c>
       <c r="D26" t="n">
-        <v>1.08502</v>
+        <v>1.08872</v>
       </c>
       <c r="E26" t="n">
-        <v>1.08469</v>
+        <v>1.08842</v>
       </c>
       <c r="F26" t="n">
-        <v>1.08493</v>
+        <v>1.08853</v>
       </c>
       <c r="G26" t="n">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="H26" t="n">
         <v>12</v>
@@ -6481,183 +6477,183 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08469</v>
+        <v>1.08842</v>
       </c>
       <c r="K26" t="n">
-        <v>1.085218313987691</v>
+        <v>1.088838228382952</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0001415878437441682</v>
+        <v>6.511849554451499e-05</v>
       </c>
       <c r="M26" t="n">
-        <v>0.000129766267725784</v>
+        <v>6.509800285474256e-05</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.0001297702542452123</v>
+        <v>-0.0001959014330669921</v>
       </c>
       <c r="O26" t="n">
-        <v>-9.679352650092523e-05</v>
+        <v>-0.0001405766872835513</v>
       </c>
       <c r="P26" t="n">
-        <v>1.084926449315842</v>
+        <v>1.088877015214408</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.085428517969113</v>
+        <v>1.089375289480356</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45495.45833333334</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45495.45833333334</v>
       </c>
       <c r="T26" t="n">
-        <v>-0.0002001190476201842</v>
+        <v>5.29761904759507e-05</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0001962304194009779</v>
+        <v>-9.119054709350038e-05</v>
       </c>
       <c r="V26" t="n">
-        <v>1.085304880952381</v>
+        <v>1.088526666666667</v>
       </c>
       <c r="W26" t="n">
-        <v>-0.0002095165083607325</v>
+        <v>-5.973045542646819e-05</v>
       </c>
       <c r="X26" t="n">
-        <v>-7.460781016720016e-05</v>
+        <v>-9.380360640496848e-06</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.085578452380952</v>
+        <v>1.088445238095237</v>
       </c>
       <c r="Z26" t="n">
-        <v>1.085321478485915</v>
+        <v>1.087954435304197</v>
       </c>
       <c r="AA26" t="n">
-        <v>1.08615545980143</v>
+        <v>1.089209131230763</v>
       </c>
       <c r="AB26" t="n">
-        <v>1.085402226937276</v>
+        <v>1.088873591147126</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.085979732510367</v>
+        <v>1.089308529611743</v>
       </c>
       <c r="AD26" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>-0.0001097771360096537</v>
       </c>
       <c r="AE26" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-0.0003289385342736104</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.08502087644022</v>
+        <v>1.089419140081128</v>
       </c>
       <c r="AG26" t="n">
-        <v>1.085073195760934</v>
+        <v>1.088850445985667</v>
       </c>
       <c r="AH26" t="n">
-        <v>13.94766505637202</v>
+        <v>42.50319284802793</v>
       </c>
       <c r="AI26" t="n">
-        <v>18.44006529546677</v>
+        <v>60.917438319209</v>
       </c>
       <c r="AJ26" t="n">
-        <v>0.000194696903083064</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1.084674967715888</v>
-      </c>
+        <v>-5.567427240545809e-05</v>
+      </c>
+      <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM26" t="n">
-        <v>1.085407450856461</v>
+        <v>0.0848612984914589</v>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO26" t="n">
-        <v>1.085077919520216</v>
+        <v>1.088732056524425</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.085250471589221</v>
+        <v>1.088653521500207</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.084949370485036</v>
+        <v>1.088864609563125</v>
       </c>
       <c r="AR26" t="n">
-        <v>-0.0001725520690043503</v>
+        <v>7.853502421717451e-05</v>
       </c>
       <c r="AS26" t="n">
-        <v>-0.0001503592494731677</v>
+        <v>8.487375657227889e-05</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.0003497651593188268</v>
+        <v>0.0002875836108715525</v>
       </c>
       <c r="AU26" t="n">
-        <v>-6.226350189209029e-06</v>
+        <v>-7.821465428192731e-05</v>
       </c>
       <c r="AV26" t="n">
-        <v>-4.796009631946596e-05</v>
+        <v>-2.28242174056259e-05</v>
       </c>
       <c r="AW26" t="n">
-        <v>-3.396972824343258e-05</v>
+        <v>1.022015823881617e-05</v>
       </c>
       <c r="AX26" t="n">
-        <v>1.085299135644355</v>
+        <v>1.089152193173996</v>
       </c>
       <c r="AY26" t="n">
-        <v>1.084599605325717</v>
+        <v>1.088577025952253</v>
       </c>
       <c r="AZ26" t="inlineStr"/>
       <c r="BA26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" t="n">
-        <v>1.09493</v>
+        <v>1.07853</v>
       </c>
       <c r="BE26" t="n">
-        <v>1.08573</v>
+        <v>1.08833</v>
       </c>
       <c r="BF26" t="n">
+        <v>1.08753</v>
+      </c>
+      <c r="BG26" t="n">
         <v>1.08653</v>
       </c>
-      <c r="BG26" t="n">
-        <v>1.08693</v>
-      </c>
       <c r="BH26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI26" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ26" t="b">
         <v>1</v>
       </c>
-      <c r="BK26" t="inlineStr"/>
+      <c r="BK26" s="2" t="n">
+        <v>45496.54861111111</v>
+      </c>
       <c r="BL26" t="inlineStr"/>
       <c r="BM26" s="2" t="n">
-        <v>45499.64048611111</v>
+        <v>45495.6904050926</v>
       </c>
       <c r="BN26" s="2" t="n">
-        <v>45499.43402777778</v>
+        <v>45495.49305555555</v>
       </c>
       <c r="BO26" t="n">
-        <v>1.08493</v>
+        <v>1.08853</v>
       </c>
       <c r="BP26" s="2" t="n">
-        <v>45499.64048611111</v>
+        <v>45495.6904050926</v>
       </c>
       <c r="BQ26" t="n">
-        <v>1.08576</v>
+        <v>1.08832</v>
       </c>
       <c r="BR26" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS26" t="inlineStr">
         <is>
@@ -6668,13 +6664,13 @@
         <v>1</v>
       </c>
       <c r="BU26" t="n">
-        <v>60.77</v>
+        <v>3.86</v>
       </c>
       <c r="BV26" t="n">
-        <v>7834.620000000002</v>
+        <v>528.74</v>
       </c>
       <c r="BW26" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="BX26" t="n">
         <v>0</v>
@@ -6688,25 +6684,25 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>700</v>
+        <v>5002</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45499.43402777778</v>
+        <v>45497.36805555555</v>
       </c>
       <c r="C27" t="n">
-        <v>1.08494</v>
+        <v>1.08518</v>
       </c>
       <c r="D27" t="n">
-        <v>1.08537</v>
+        <v>1.0852</v>
       </c>
       <c r="E27" t="n">
-        <v>1.08489</v>
+        <v>1.08508</v>
       </c>
       <c r="F27" t="n">
-        <v>1.08523</v>
+        <v>1.08512</v>
       </c>
       <c r="G27" t="n">
-        <v>338</v>
+        <v>131</v>
       </c>
       <c r="H27" t="n">
         <v>12</v>
@@ -6715,183 +6711,183 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.08489</v>
+        <v>1.085090006239561</v>
       </c>
       <c r="K27" t="n">
-        <v>1.085593349843477</v>
+        <v>1.085330006806509</v>
       </c>
       <c r="L27" t="n">
-        <v>2.791097470443453e-05</v>
+        <v>-9.216962347682279e-05</v>
       </c>
       <c r="M27" t="n">
-        <v>-8.599339456404149e-05</v>
+        <v>-6.45048639438054e-05</v>
       </c>
       <c r="N27" t="n">
-        <v>1.509829459140522e-05</v>
+        <v>5.068580219985425e-05</v>
       </c>
       <c r="O27" t="n">
-        <v>-1.690325005376338e-05</v>
+        <v>6.17017474468809e-05</v>
       </c>
       <c r="P27" t="n">
-        <v>1.084725170504929</v>
+        <v>1.084895468349245</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.085311340270656</v>
+        <v>1.08509448999207</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.33333333334</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.33333333334</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0002001190476201842</v>
+        <v>-3.452380951340928e-06</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0001962304194009779</v>
+        <v>-0.0005048600393815494</v>
       </c>
       <c r="V27" t="n">
-        <v>1.085304880952381</v>
+        <v>1.084685476190477</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0002095165083607325</v>
+        <v>6.879346025542168e-05</v>
       </c>
       <c r="X27" t="n">
-        <v>-7.460781016720016e-05</v>
+        <v>6.432977165316948e-05</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.085578452380952</v>
+        <v>1.08445130952381</v>
       </c>
       <c r="Z27" t="n">
-        <v>1.085321478485915</v>
+        <v>1.084052347960716</v>
       </c>
       <c r="AA27" t="n">
-        <v>1.08615545980143</v>
+        <v>1.084975706182612</v>
       </c>
       <c r="AB27" t="n">
-        <v>1.085402226937276</v>
+        <v>1.084257720911651</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.085979732510367</v>
+        <v>1.085056016837128</v>
       </c>
       <c r="AD27" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>-8.628624592123659e-05</v>
       </c>
       <c r="AE27" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>-7.100943438002735e-05</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.08502087644022</v>
+        <v>1.086721888827567</v>
       </c>
       <c r="AG27" t="n">
-        <v>1.085073195760934</v>
+        <v>1.085600703001512</v>
       </c>
       <c r="AH27" t="n">
-        <v>36.981481481485</v>
+        <v>93.50641025641653</v>
       </c>
       <c r="AI27" t="n">
-        <v>23.3768476458377</v>
+        <v>95.02430107711824</v>
       </c>
       <c r="AJ27" t="n">
-        <v>0.000194696903083064</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1.084674967715888</v>
-      </c>
+        <v>-0.0005894392681992318</v>
+      </c>
+      <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM27" t="n">
-        <v>1.085407450856461</v>
+        <v>0.08115036516148461</v>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO27" t="n">
-        <v>1.085101316517106</v>
+        <v>1.084901826276643</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.085248955175204</v>
+        <v>1.084740231994806</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.085012865497077</v>
+        <v>1.085070787753698</v>
       </c>
       <c r="AR27" t="n">
-        <v>-0.0001476386580983036</v>
+        <v>0.0001615942818364857</v>
       </c>
       <c r="AS27" t="n">
-        <v>-0.0001498151311981949</v>
+        <v>0.0001088252323077569</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.0003327476521426458</v>
+        <v>0.00024389683596814</v>
       </c>
       <c r="AU27" t="n">
-        <v>6.349501204061525e-05</v>
+        <v>4.883728930193953e-05</v>
       </c>
       <c r="AV27" t="n">
-        <v>-6.226350189209029e-06</v>
+        <v>7.837633298879432e-05</v>
       </c>
       <c r="AW27" t="n">
-        <v>-4.796009631946596e-05</v>
+        <v>8.000000000096819e-05</v>
       </c>
       <c r="AX27" t="n">
-        <v>1.085345613149219</v>
+        <v>1.085314684589666</v>
       </c>
       <c r="AY27" t="n">
-        <v>1.084680117844934</v>
+        <v>1.08482689091773</v>
       </c>
       <c r="AZ27" t="inlineStr"/>
       <c r="BA27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD27" t="n">
-        <v>1.09523</v>
+        <v>1.07512</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.08603</v>
+        <v>1.08412</v>
       </c>
       <c r="BF27" t="n">
-        <v>1.08683</v>
+        <v>1.08332</v>
       </c>
       <c r="BG27" t="n">
-        <v>1.08723</v>
+        <v>1.08212</v>
       </c>
       <c r="BH27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI27" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ27" t="b">
         <v>1</v>
       </c>
-      <c r="BK27" t="inlineStr"/>
+      <c r="BK27" s="2" t="n">
+        <v>45502.62152777778</v>
+      </c>
       <c r="BL27" t="inlineStr"/>
       <c r="BM27" s="2" t="n">
-        <v>45499.6912962963</v>
+        <v>45497.54533564814</v>
       </c>
       <c r="BN27" s="2" t="n">
-        <v>45499.4375</v>
+        <v>45497.37152777778</v>
       </c>
       <c r="BO27" t="n">
-        <v>1.08523</v>
+        <v>1.08512</v>
       </c>
       <c r="BP27" s="2" t="n">
-        <v>45499.6912962963</v>
+        <v>45497.54533564814</v>
       </c>
       <c r="BQ27" t="n">
-        <v>1.08605</v>
+        <v>1.08413</v>
       </c>
       <c r="BR27" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS27" t="inlineStr">
         <is>
@@ -6902,13 +6898,13 @@
         <v>1</v>
       </c>
       <c r="BU27" t="n">
-        <v>60.04</v>
+        <v>18.21</v>
       </c>
       <c r="BV27" t="n">
-        <v>7894.660000000002</v>
+        <v>546.95</v>
       </c>
       <c r="BW27" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="BX27" t="n">
         <v>0</v>
@@ -6922,25 +6918,25 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>701</v>
+        <v>5021</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45499.4375</v>
+        <v>45497.43402777778</v>
       </c>
       <c r="C28" t="n">
-        <v>1.08523</v>
+        <v>1.08486</v>
       </c>
       <c r="D28" t="n">
-        <v>1.0855</v>
+        <v>1.08491</v>
       </c>
       <c r="E28" t="n">
-        <v>1.08523</v>
+        <v>1.08459</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08529</v>
+        <v>1.08459</v>
       </c>
       <c r="G28" t="n">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="H28" t="n">
         <v>12</v>
@@ -6949,183 +6945,183 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.08523</v>
+        <v>1.083413217838109</v>
       </c>
       <c r="K28" t="n">
-        <v>1.085498590907332</v>
+        <v>1.08491</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0001152023015471191</v>
+        <v>-0.0002429819146163645</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0001224211955424056</v>
+        <v>-0.0004829795217668497</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0001240053869145952</v>
+        <v>-3.530621829472963e-05</v>
       </c>
       <c r="O28" t="n">
-        <v>0.0001920188883264877</v>
+        <v>5.609914159467167e-05</v>
       </c>
       <c r="P28" t="n">
-        <v>1.084498783109328</v>
+        <v>1.084244939119635</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.08510101317437</v>
+        <v>1.085365207896454</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.41666666666</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.41666666666</v>
       </c>
       <c r="T28" t="n">
-        <v>-0.0002001190476201842</v>
+        <v>-0.000112023809523798</v>
       </c>
       <c r="U28" t="n">
-        <v>0.0001962304194009779</v>
+        <v>-0.0004151053278813599</v>
       </c>
       <c r="V28" t="n">
-        <v>1.085304880952381</v>
+        <v>1.084026785714285</v>
       </c>
       <c r="W28" t="n">
-        <v>-0.0002095165083607325</v>
+        <v>-0.0003947781262633824</v>
       </c>
       <c r="X28" t="n">
-        <v>-7.460781016720016e-05</v>
+        <v>3.724646300001887e-05</v>
       </c>
       <c r="Y28" t="n">
-        <v>1.085578452380952</v>
+        <v>1.084573452380953</v>
       </c>
       <c r="Z28" t="n">
-        <v>1.085321478485915</v>
+        <v>1.084186678687318</v>
       </c>
       <c r="AA28" t="n">
-        <v>1.08615545980143</v>
+        <v>1.085171531165085</v>
       </c>
       <c r="AB28" t="n">
-        <v>1.085402226937276</v>
+        <v>1.084122230355201</v>
       </c>
       <c r="AC28" t="n">
-        <v>1.085979732510367</v>
+        <v>1.084772688731747</v>
       </c>
       <c r="AD28" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>0.0001538582787820922</v>
       </c>
       <c r="AE28" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>1.594985681655235e-05</v>
       </c>
       <c r="AF28" t="n">
-        <v>1.08502087644022</v>
+        <v>1.086478075768931</v>
       </c>
       <c r="AG28" t="n">
-        <v>1.085073195760934</v>
+        <v>1.08528357102048</v>
       </c>
       <c r="AH28" t="n">
-        <v>59.35802469136394</v>
+        <v>51.30434782608908</v>
       </c>
       <c r="AI28" t="n">
-        <v>36.76239040974033</v>
+        <v>43.99787296972729</v>
       </c>
       <c r="AJ28" t="n">
-        <v>0.000194696903083064</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>1.084674967715888</v>
-      </c>
+        <v>-0.0005237000564993329</v>
+      </c>
+      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM28" t="n">
-        <v>1.085407450856461</v>
+        <v>0.08116974116349104</v>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO28" t="n">
-        <v>1.085130344745244</v>
+        <v>1.084591609751882</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.085251995532597</v>
+        <v>1.084625485788339</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.085058558651531</v>
+        <v>1.084443832129344</v>
       </c>
       <c r="AR28" t="n">
-        <v>-0.0001216507873531558</v>
+        <v>-3.38760364573254e-05</v>
       </c>
       <c r="AS28" t="n">
-        <v>-0.000144182262429187</v>
+        <v>-4.8306432840241e-05</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.0003086216669962687</v>
+        <v>0.0003138805504136185</v>
       </c>
       <c r="AU28" t="n">
-        <v>4.569315445435151e-05</v>
+        <v>4.081527347876701e-05</v>
       </c>
       <c r="AV28" t="n">
-        <v>6.349501204061525e-05</v>
+        <v>8.09115927074e-05</v>
       </c>
       <c r="AW28" t="n">
-        <v>-6.226350189209029e-06</v>
+        <v>8.144822841460453e-05</v>
       </c>
       <c r="AX28" t="n">
-        <v>1.085367180318527</v>
+        <v>1.084757712679758</v>
       </c>
       <c r="AY28" t="n">
-        <v>1.084749936984535</v>
+        <v>1.08412995157893</v>
       </c>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD28" t="n">
-        <v>1.09529</v>
+        <v>1.07459</v>
       </c>
       <c r="BE28" t="n">
-        <v>1.08609</v>
+        <v>1.08439</v>
       </c>
       <c r="BF28" t="n">
-        <v>1.08689</v>
+        <v>1.08359</v>
       </c>
       <c r="BG28" t="n">
-        <v>1.08729</v>
+        <v>1.08259</v>
       </c>
       <c r="BH28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI28" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ28" t="b">
         <v>1</v>
       </c>
-      <c r="BK28" t="inlineStr"/>
+      <c r="BK28" s="2" t="n">
+        <v>45502.61458333334</v>
+      </c>
       <c r="BL28" t="inlineStr"/>
       <c r="BM28" s="2" t="n">
-        <v>45499.71210648148</v>
+        <v>45497.55856481481</v>
       </c>
       <c r="BN28" s="2" t="n">
-        <v>45499.44097222222</v>
+        <v>45497.4375</v>
       </c>
       <c r="BO28" t="n">
-        <v>1.08529</v>
+        <v>1.08459</v>
       </c>
       <c r="BP28" s="2" t="n">
-        <v>45499.71210648148</v>
+        <v>45497.55856481481</v>
       </c>
       <c r="BQ28" t="n">
-        <v>1.08612</v>
+        <v>1.08439</v>
       </c>
       <c r="BR28" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS28" t="inlineStr">
         <is>
@@ -7136,13 +7132,13 @@
         <v>1</v>
       </c>
       <c r="BU28" t="n">
-        <v>60.77</v>
+        <v>3.68</v>
       </c>
       <c r="BV28" t="n">
-        <v>7955.430000000002</v>
+        <v>550.63</v>
       </c>
       <c r="BW28" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="BX28" t="n">
         <v>0</v>
@@ -7156,25 +7152,25 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>706</v>
+        <v>5022</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45499.45486111111</v>
+        <v>45497.4375</v>
       </c>
       <c r="C29" t="n">
-        <v>1.08476</v>
+        <v>1.0839</v>
       </c>
       <c r="D29" t="n">
-        <v>1.08487</v>
+        <v>1.0839</v>
       </c>
       <c r="E29" t="n">
-        <v>1.08442</v>
+        <v>1.08315</v>
       </c>
       <c r="F29" t="n">
-        <v>1.08486</v>
+        <v>1.08343</v>
       </c>
       <c r="G29" t="n">
-        <v>331</v>
+        <v>776</v>
       </c>
       <c r="H29" t="n">
         <v>12</v>
@@ -7183,160 +7179,158 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.08442</v>
+        <v>1.08315</v>
       </c>
       <c r="K29" t="n">
-        <v>1.084896666460741</v>
+        <v>1.0839</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0001617357364149146</v>
+        <v>-3.655141565588258e-05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0001489936217020452</v>
+        <v>-0.0001940544066106631</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0001108461922715871</v>
+        <v>-0.0003195630761386242</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.0001723364536807936</v>
+        <v>-0.0003473381257951869</v>
       </c>
       <c r="P29" t="n">
-        <v>1.084965570515225</v>
+        <v>1.084259821510934</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.08521020210587</v>
+        <v>1.085575817063213</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.41666666666</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>45499.41666666666</v>
+        <v>45497.41666666666</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.0002001190476201842</v>
+        <v>-0.000112023809523798</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0001962304194009779</v>
+        <v>-0.0004151053278813599</v>
       </c>
       <c r="V29" t="n">
-        <v>1.085304880952381</v>
+        <v>1.084026785714285</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.0002095165083607325</v>
+        <v>-0.0003947781262633824</v>
       </c>
       <c r="X29" t="n">
-        <v>-7.460781016720016e-05</v>
+        <v>3.724646300001887e-05</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.085578452380952</v>
+        <v>1.084573452380953</v>
       </c>
       <c r="Z29" t="n">
-        <v>1.085321478485915</v>
+        <v>1.084186678687318</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.08615545980143</v>
+        <v>1.085171531165085</v>
       </c>
       <c r="AB29" t="n">
-        <v>1.085402226937276</v>
+        <v>1.084122230355201</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.085979732510367</v>
+        <v>1.084772688731747</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.395134854466023e-06</v>
+        <v>0.0001538582787820922</v>
       </c>
       <c r="AE29" t="n">
-        <v>-9.694703292123229e-05</v>
+        <v>1.594985681655235e-05</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.08502087644022</v>
+        <v>1.086478075768931</v>
       </c>
       <c r="AG29" t="n">
-        <v>1.085073195760934</v>
+        <v>1.08528357102048</v>
       </c>
       <c r="AH29" t="n">
-        <v>25.10288065843916</v>
+        <v>35.87554846429919</v>
       </c>
       <c r="AI29" t="n">
-        <v>31.27572016461759</v>
+        <v>45.50975471988232</v>
       </c>
       <c r="AJ29" t="n">
-        <v>0.000194696903083064</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>1.084674967715888</v>
-      </c>
+        <v>-0.0005237000564993329</v>
+      </c>
+      <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AM29" t="n">
-        <v>1.085407450856461</v>
+        <v>0.08116974116349104</v>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AO29" t="n">
-        <v>1.085011167599621</v>
+        <v>1.084412900559285</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.085150931837039</v>
+        <v>1.084536931285499</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.084965056759547</v>
+        <v>1.084253983488132</v>
       </c>
       <c r="AR29" t="n">
-        <v>-0.0001397642374179053</v>
+        <v>-0.0001240307262144746</v>
       </c>
       <c r="AS29" t="n">
-        <v>-0.0001317802379557121</v>
+        <v>-6.345129151508773e-05</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.0002026902398687928</v>
+        <v>0.0004062031510567196</v>
       </c>
       <c r="AU29" t="n">
-        <v>-2.983832129155317e-05</v>
+        <v>-0.000189848641212631</v>
       </c>
       <c r="AV29" t="n">
-        <v>-5.489852081397295e-05</v>
+        <v>4.081527347876701e-05</v>
       </c>
       <c r="AW29" t="n">
-        <v>-4.048159614544744e-05</v>
+        <v>8.09115927074e-05</v>
       </c>
       <c r="AX29" t="n">
-        <v>1.085167746999416</v>
+        <v>1.084660186639188</v>
       </c>
       <c r="AY29" t="n">
-        <v>1.084762366519678</v>
+        <v>1.083847780337075</v>
       </c>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.09486</v>
+        <v>1.07343</v>
       </c>
       <c r="BE29" t="n">
-        <v>1.08566</v>
+        <v>1.08163</v>
       </c>
       <c r="BF29" t="n">
-        <v>1.08646</v>
+        <v>1.08083</v>
       </c>
       <c r="BG29" t="n">
-        <v>1.08686</v>
+        <v>1.07943</v>
       </c>
       <c r="BH29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI29" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BJ29" t="b">
         <v>1</v>
@@ -7344,22 +7338,22 @@
       <c r="BK29" t="inlineStr"/>
       <c r="BL29" t="inlineStr"/>
       <c r="BM29" s="2" t="n">
-        <v>45499.64118055555</v>
+        <v>45502.75028935185</v>
       </c>
       <c r="BN29" s="2" t="n">
-        <v>45499.45833333334</v>
+        <v>45497.44097222222</v>
       </c>
       <c r="BO29" t="n">
-        <v>1.08486</v>
+        <v>1.08343</v>
       </c>
       <c r="BP29" s="2" t="n">
-        <v>45499.64118055555</v>
+        <v>45502.75028935185</v>
       </c>
       <c r="BQ29" t="n">
-        <v>1.08566</v>
+        <v>1.08164</v>
       </c>
       <c r="BR29" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="BS29" t="inlineStr">
         <is>
@@ -7370,13 +7364,13 @@
         <v>1</v>
       </c>
       <c r="BU29" t="n">
-        <v>58.57</v>
+        <v>32.93</v>
       </c>
       <c r="BV29" t="n">
-        <v>8014.000000000002</v>
+        <v>583.5599999999999</v>
       </c>
       <c r="BW29" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="BX29" t="n">
         <v>0</v>
@@ -7385,6 +7379,1166 @@
         <v>30</v>
       </c>
       <c r="BZ29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>5023</v>
+      </c>
+      <c r="B30" s="2" t="n">
+        <v>45497.44097222222</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.08344</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.08357</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.08319</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.08335</v>
+      </c>
+      <c r="G30" t="n">
+        <v>488</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.08319</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.083587576719066</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.000119790749587889</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.0001469445888316722</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.0006025442113055204</v>
+      </c>
+      <c r="O30" t="n">
+        <v>-0.000722663721644052</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.084653883748869</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.08551153846854</v>
+      </c>
+      <c r="R30" s="2" t="n">
+        <v>45497.41666666666</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>45497.41666666666</v>
+      </c>
+      <c r="T30" t="n">
+        <v>-0.000112023809523798</v>
+      </c>
+      <c r="U30" t="n">
+        <v>-0.0004151053278813599</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.084026785714285</v>
+      </c>
+      <c r="W30" t="n">
+        <v>-0.0003947781262633824</v>
+      </c>
+      <c r="X30" t="n">
+        <v>3.724646300001887e-05</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.084573452380953</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.084186678687318</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.085171531165085</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>1.084122230355201</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>1.084772688731747</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.0001538582787820922</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>1.594985681655235e-05</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.086478075768931</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1.08528357102048</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19.22350751229733</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>35.46780126756192</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>-0.0005237000564993329</v>
+      </c>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.08116974116349104</v>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AO30" t="n">
+        <v>1.084249377396318</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>1.084449010449536</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.084070708634332</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>-0.000199633053218351</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>-9.068764385574039e-05</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0.0004817305608555669</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.0001832748537997642</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.000189848641212631</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>4.081527347876701e-05</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>1.084552439195187</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>1.083588978073476</v>
+      </c>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.07335</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>1.08155</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>1.08075</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.07935</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK30" t="inlineStr"/>
+      <c r="BL30" t="inlineStr"/>
+      <c r="BM30" s="2" t="n">
+        <v>45502.75019675926</v>
+      </c>
+      <c r="BN30" s="2" t="n">
+        <v>45497.44444444445</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>1.08335</v>
+      </c>
+      <c r="BP30" s="2" t="n">
+        <v>45502.75019675926</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>1.08155</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="BT30" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>33.11</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>616.67</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>5024</v>
+      </c>
+      <c r="B31" s="2" t="n">
+        <v>45497.44444444445</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.08335</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.08335</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.08306</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.08315</v>
+      </c>
+      <c r="G31" t="n">
+        <v>441</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.083070813824741</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.083440031922751</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-0.0001726446268511344</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.0001477181368008456</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.0004829795217668497</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0.0002429819146163645</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.083392191367661</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.084868147966491</v>
+      </c>
+      <c r="R31" s="2" t="n">
+        <v>45497.41666666666</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>45497.41666666666</v>
+      </c>
+      <c r="T31" t="n">
+        <v>-0.000112023809523798</v>
+      </c>
+      <c r="U31" t="n">
+        <v>-0.0004151053278813599</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.084026785714285</v>
+      </c>
+      <c r="W31" t="n">
+        <v>-0.0003947781262633824</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3.724646300001887e-05</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>1.084573452380953</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>1.084186678687318</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>1.085171531165085</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>1.084122230355201</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>1.084772688731747</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.0001538582787820922</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>1.594985681655235e-05</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>1.086478075768931</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>1.08528357102048</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>8.661035444367901</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21.25336380698819</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>-0.0005237000564993329</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.08116974116349104</v>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AO31" t="n">
+        <v>1.084080242412269</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1.084352787453274</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>1.083884375644995</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>-0.0002725450410054897</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.0001270591232856903</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>0.0005551050950911308</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.0001863329893363463</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.0001832748537997642</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>-0.000189848641212631</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>1.084439480740087</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>1.083329270549904</v>
+      </c>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.07315</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>1.08215</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>1.08135</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.08015</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK31" t="inlineStr"/>
+      <c r="BL31" t="inlineStr"/>
+      <c r="BM31" s="2" t="n">
+        <v>45502.75403935185</v>
+      </c>
+      <c r="BN31" s="2" t="n">
+        <v>45497.44791666666</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>1.08315</v>
+      </c>
+      <c r="BP31" s="2" t="n">
+        <v>45502.75403935185</v>
+      </c>
+      <c r="BQ31" t="n">
+        <v>1.08211</v>
+      </c>
+      <c r="BR31" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="BT31" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>635.8</v>
+      </c>
+      <c r="BW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX31" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY31" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>5587</v>
+      </c>
+      <c r="B32" s="2" t="n">
+        <v>45499.40277777778</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.08502</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.08518</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.08502</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.08516</v>
+      </c>
+      <c r="G32" t="n">
+        <v>187</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.08502</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.085178571075164</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.88243607313837e-05</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2.501151179293487e-05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.868966284766295e-05</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-7.680107130091467e-06</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.085007651915294</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.085228342357665</v>
+      </c>
+      <c r="R32" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="T32" t="n">
+        <v>9.761904762317641e-06</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.0002569164249688338</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.085578452380952</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-9.694703292123229e-05</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.395134854466023e-06</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>1.085778571428572</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>1.085402226937276</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>1.085979732510367</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1.085139074794069</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>1.085990261938873</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-2.627969922551853e-07</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.0001017523076688671</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>1.085139567528515</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>1.085104114995203</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>9.627062706273355</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>11.34983498350236</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.0001903628472931569</v>
+      </c>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.08220707933026865</v>
+      </c>
+      <c r="AN32" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AO32" t="n">
+        <v>1.085275095031897</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>1.085437440870268</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>1.085042669418646</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>-0.0001623458383714915</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>-0.0001080547956696281</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>0.0003021213882830574</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>-4.15376676985435e-05</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>-7.792569659303972e-05</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>-8.400756794113562e-05</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>1.085344790806929</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>1.084740548030363</v>
+      </c>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>1.09516</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>1.08536</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.08616</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.08716</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK32" t="inlineStr"/>
+      <c r="BL32" t="inlineStr"/>
+      <c r="BM32" s="2" t="n">
+        <v>45499.6437962963</v>
+      </c>
+      <c r="BN32" s="2" t="n">
+        <v>45499.40625</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>1.08516</v>
+      </c>
+      <c r="BP32" s="2" t="n">
+        <v>45499.6437962963</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>1.0854</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS32" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="BT32" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>640.2199999999999</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>7</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>5589</v>
+      </c>
+      <c r="B33" s="2" t="n">
+        <v>45499.40972222222</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.08511</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.08524</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.08505</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.08514</v>
+      </c>
+      <c r="G33" t="n">
+        <v>138</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1.085060850199869</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.085229148181053</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2.810829012268738e-06</v>
+      </c>
+      <c r="M33" t="n">
+        <v>6.475785582414518e-05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.830269711024532e-05</v>
+      </c>
+      <c r="O33" t="n">
+        <v>9.875127298077288e-06</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.085018730942555</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.085150367754791</v>
+      </c>
+      <c r="R33" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="S33" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="T33" t="n">
+        <v>9.761904762317641e-06</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.0002569164249688338</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.085578452380952</v>
+      </c>
+      <c r="W33" t="n">
+        <v>-9.694703292123229e-05</v>
+      </c>
+      <c r="X33" t="n">
+        <v>6.395134854466023e-06</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>1.085778571428572</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>1.085402226937276</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>1.085979732510367</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>1.085139074794069</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>1.085990261938873</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>-2.627969922551853e-07</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.0001017523076688671</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>1.085139567528515</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>1.085104114995203</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>16.25860966475552</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12.45561769112458</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.0001903628472931569</v>
+      </c>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.08220707933026865</v>
+      </c>
+      <c r="AN33" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AO33" t="n">
+        <v>1.085232819519879</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>1.085392949991656</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>1.084979088407293</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-0.000160130471777542</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>-0.0001273395947470607</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>0.0003200770739341185</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>-1.831441348421059e-05</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-4.526659786807663e-05</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>-4.15376676985435e-05</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>1.085299165481228</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>1.084659011333359</v>
+      </c>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.09514</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>1.08534</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>1.08614</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.08714</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="inlineStr"/>
+      <c r="BL33" t="inlineStr"/>
+      <c r="BM33" s="2" t="n">
+        <v>45499.64408564815</v>
+      </c>
+      <c r="BN33" s="2" t="n">
+        <v>45499.41319444445</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>1.08514</v>
+      </c>
+      <c r="BP33" s="2" t="n">
+        <v>45499.64408564815</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>1.08532</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS33" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="BT33" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>643.5299999999999</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>8</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>5590</v>
+      </c>
+      <c r="B34" s="2" t="n">
+        <v>45499.41319444445</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.08515</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.08526</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.08509</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.08517</v>
+      </c>
+      <c r="G34" t="n">
+        <v>175</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.085100848888876</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.085306661215373</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-8.321275627185382e-05</v>
+      </c>
+      <c r="M34" t="n">
+        <v>6.142530917007557e-05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.501151179293487e-05</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.88243607313837e-05</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.085021669456795</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.085180789570224</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>45499.375</v>
+      </c>
+      <c r="T34" t="n">
+        <v>9.761904762317641e-06</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0002569164249688338</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.085578452380952</v>
+      </c>
+      <c r="W34" t="n">
+        <v>-9.694703292123229e-05</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6.395134854466023e-06</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>1.085778571428572</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>1.085402226937276</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>1.085979732510367</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>1.085139074794069</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>1.085990261938873</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-2.627969922551853e-07</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.0001017523076688671</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>1.085139567528515</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>1.085104114995203</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>17.9090161688235</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15.21626884530796</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.0001903628472931569</v>
+      </c>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.08220707933026865</v>
+      </c>
+      <c r="AN34" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AO34" t="n">
+        <v>1.085223154978359</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>1.085376435177459</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>1.08498195390437</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.0001532801991004362</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.0001325277156177358</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>0.000323155277317742</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>2.865497076287582e-06</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-1.831441348421059e-05</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>-4.526659786807663e-05</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>1.085305109181687</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>1.084658798627052</v>
+      </c>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.09517</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>1.08537</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>1.08617</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.08717</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BJ34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BK34" t="inlineStr"/>
+      <c r="BL34" t="inlineStr"/>
+      <c r="BM34" s="2" t="n">
+        <v>45499.64236111111</v>
+      </c>
+      <c r="BN34" s="2" t="n">
+        <v>45499.41666666666</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>1.08517</v>
+      </c>
+      <c r="BP34" s="2" t="n">
+        <v>45499.64236111111</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>1.08539</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BS34" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="BT34" t="b">
+        <v>1</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>647.5799999999998</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>9</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>30</v>
+      </c>
+      <c r="BZ34" t="n">
         <v>7</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CV10"/>
+  <dimension ref="A1:DJ22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +660,7 @@
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>wma_10</t>
+          <t>wma_50</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
@@ -680,255 +680,325 @@
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
+          <t>nadaraya_watson</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>prev_nadaraya_lower_band</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>prev_nadaraya_upper_band</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>prev_HSpan_A</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>prev_HSpan_B</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>support_trendline</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>resistance_trendline</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
           <t>4_hour_time</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>time4h</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>4H_ema_50</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>prev_4fixed_support_gradient</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>prev_4fixed_support_trendline</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>prev_4fixed_resistance_gradient</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>prev_4fixed_resistance_trendline</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>prev_4nadaraya_watson_trend</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>4H_hour_lsma</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>4lsma_upper_band</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>4lsma_lower_band</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>4HSpan_A</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>4HSpan_B</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>ema_short</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>ema_long</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>lsma</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>macd_line</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>macd_signal</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>lsma_stddev</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>lsma_slope</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_1</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>prev_lsma_slope_2</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>lsma_upper_band</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>lsma_lower_band</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>stoch_k</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>stoch_d</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>is_doji</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>is_doji_star</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>3whitesoldiers</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>3blackcrows</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>engulfing</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>ticket</t>
         </is>
       </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>is_buy2</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>is_sell2</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>be_condition</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>order_type</t>
         </is>
       </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>lot</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="CL1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>lot_size</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -936,128 +1006,130 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>64</v>
+        <v>433</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45448.66666666666</v>
+        <v>45329.72916666666</v>
       </c>
       <c r="C2" t="n">
-        <v>1.08833</v>
+        <v>2038.9</v>
       </c>
       <c r="D2" t="n">
-        <v>1.0891</v>
+        <v>2041.12</v>
       </c>
       <c r="E2" t="n">
-        <v>1.08809</v>
+        <v>2037.23</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08881</v>
+        <v>2040.49</v>
       </c>
       <c r="G2" t="n">
-        <v>5658</v>
+        <v>3754</v>
       </c>
       <c r="H2" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.084858322480327</v>
+        <v>2034.981792937232</v>
       </c>
       <c r="K2" t="n">
-        <v>1.0891</v>
+        <v>2041.775800036098</v>
       </c>
       <c r="L2" t="n">
-        <v>0.00015718085937599</v>
+        <v>-6.278001816622867e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0001910204898140451</v>
+        <v>-0.0001560771790588343</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.08388500612445983</v>
+        <v>7.619716660767679</v>
       </c>
       <c r="P2" t="n">
-        <v>0.08353293096998386</v>
+        <v>7.619455773629365</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001091834446826991</v>
+        <v>0.0003221438499288614</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0002104114730763795</v>
+        <v>0.0001292162366739231</v>
       </c>
       <c r="S2" t="n">
-        <v>1.087491124453907</v>
+        <v>2030.652861943079</v>
       </c>
       <c r="T2" t="n">
-        <v>1.088040428193735</v>
+        <v>2038.948910229596</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>45448.66666666666</v>
+        <v>45329.70833333334</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>45448.66666666666</v>
+        <v>45329.70833333334</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0003504242424237081</v>
+        <v>2.571757575759193</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0001466868126427379</v>
+        <v>1.288986862153479</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.087715393939394</v>
+        <v>2037.575272727274</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.001250710864176195</v>
+        <v>0.0001767380410636762</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0006796919245184017</v>
+        <v>4.899417889068279e-05</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.087293636363636</v>
+        <v>2036.77690909091</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.086845652895696</v>
+        <v>2013.20038429748</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.08842294271019</v>
+        <v>2039.401465151465</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.085979362124238</v>
+        <v>2012.844156228045</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.086986888332383</v>
+        <v>2039.301575424858</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.001379191097891749</v>
+        <v>4.8991517273712e-05</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0007548645214246304</v>
-      </c>
-      <c r="AI2" t="inlineStr"/>
+        <v>0.0001767357040742486</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>2036.768644145628</v>
+      </c>
       <c r="AJ2" t="n">
-        <v>1.087774090562136</v>
+        <v>2036.560017772787</v>
       </c>
       <c r="AK2" t="n">
-        <v>47.03656317012954</v>
+        <v>75.68928978809068</v>
       </c>
       <c r="AL2" t="n">
-        <v>32.05389517043538</v>
+        <v>62.27417044965946</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.000165079381357201</v>
+        <v>0.7500793249752753</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.08591</v>
+        <v>2030.469999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>-1</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.087653155803471</v>
+        <v>2034.848915048351</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
@@ -1065,297 +1137,339 @@
         </is>
       </c>
       <c r="AR2" t="n">
-        <v>1.090457289663669</v>
+        <v>2039.078289796179</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.085008422257908</v>
+        <v>2031.241738276925</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.087705490196079</v>
+        <v>2032.95317029703</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.08388500612445983</v>
+        <v>7.618923310441655</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.08353293096998386</v>
-      </c>
-      <c r="AX2" s="2" t="n">
-        <v>45448.66666666666</v>
-      </c>
-      <c r="AY2" s="2" t="n">
-        <v>45448.66666666666</v>
+        <v>7.615572167757415</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2035.156242122046</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2030.92101070313</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.087473238688773</v>
+        <v>2038.784416159997</v>
       </c>
       <c r="BA2" t="n">
-        <v>3.45155754154623e-06</v>
+        <v>7.618709760236969</v>
       </c>
       <c r="BB2" t="n">
-        <v>1.085819073871521</v>
+        <v>7.615572167757415</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.0002849217160123903</v>
+        <v>2019.929199065987</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.09159465587908</v>
-      </c>
-      <c r="BE2" t="inlineStr"/>
-      <c r="BF2" t="n">
-        <v>1.087602619047619</v>
+        <v>2043.160487912999</v>
+      </c>
+      <c r="BE2" s="2" t="n">
+        <v>45329.66666666666</v>
+      </c>
+      <c r="BF2" s="2" t="n">
+        <v>45329.66666666666</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.089465557586595</v>
+        <v>2034.770649970406</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.085739680508644</v>
+        <v>0.0006274897013499491</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.087754462011625</v>
+        <v>2028.731202324596</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.08776798186135</v>
+        <v>0.0003309126687001536</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.087601385354141</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>4.394672150742629e-05</v>
+        <v>2041.21287430391</v>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
       </c>
       <c r="BM2" t="n">
-        <v>-0.0001434049476318975</v>
+        <v>2035.521904761905</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0006629068981063788</v>
+        <v>2041.980277041358</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.000104083553422063</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-0.0001529440576220065</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>-0.0002738055222093472</v>
-      </c>
+        <v>2029.063532482453</v>
+      </c>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
       <c r="BR2" t="n">
-        <v>1.088595745701301</v>
+        <v>2037.724211413207</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.086607025006981</v>
+        <v>2036.095736298492</v>
       </c>
       <c r="BT2" t="n">
-        <v>77.27219360287106</v>
+        <v>2040.410714285715</v>
       </c>
       <c r="BU2" t="n">
-        <v>54.79232951145135</v>
-      </c>
-      <c r="BV2" t="inlineStr"/>
-      <c r="BW2" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="b">
-        <v>0</v>
+        <v>1.486987822213905</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.8800247957351299</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>2.722234726253388</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.4842857142853063</v>
       </c>
       <c r="BY2" t="n">
-        <v>0</v>
+        <v>0.1028571428578289</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.09881</v>
+        <v>0.5450000000012096</v>
       </c>
       <c r="CA2" t="n">
-        <v>1.08581</v>
+        <v>2043.132949011968</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.08901</v>
+        <v>2037.688479559461</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.08931</v>
+        <v>65.73743149868993</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>71.69246043197761</v>
       </c>
       <c r="CE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ2" t="inlineStr"/>
+      <c r="CK2" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>2049.49</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>2037.49</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>2043.49</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>2044.49</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS2" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CG2" s="2" t="n">
-        <v>45449.20833333334</v>
-      </c>
-      <c r="CH2" t="inlineStr"/>
-      <c r="CI2" s="2" t="n">
-        <v>45448.79453703704</v>
-      </c>
-      <c r="CJ2" s="2" t="n">
-        <v>45448.70833333334</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1.08881</v>
-      </c>
-      <c r="CL2" s="2" t="n">
-        <v>45448.79453703704</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1.08582</v>
-      </c>
-      <c r="CN2" t="n">
+      <c r="CT2" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="inlineStr"/>
+      <c r="CV2" t="inlineStr"/>
+      <c r="CW2" s="2" t="n">
+        <v>45329.78089120371</v>
+      </c>
+      <c r="CX2" s="2" t="n">
+        <v>45329.73958333334</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>2040.49</v>
+      </c>
+      <c r="CZ2" s="2" t="n">
+        <v>45329.78089120371</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>2037.5</v>
+      </c>
+      <c r="DB2" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO2" t="inlineStr">
+      <c r="DC2" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="CP2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>-54.86</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>645.14</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV2" t="n">
+      <c r="DD2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>-54.58</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>645.42</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45449.25</v>
+        <v>45329.75</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08911</v>
+        <v>2038.21</v>
       </c>
       <c r="D3" t="n">
-        <v>1.08929</v>
+        <v>2040.8</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0889</v>
+        <v>2037.8</v>
       </c>
       <c r="F3" t="n">
-        <v>1.089</v>
+        <v>2040.75</v>
       </c>
       <c r="G3" t="n">
-        <v>1826</v>
+        <v>2782</v>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.088570313672887</v>
+        <v>2034.111300512636</v>
       </c>
       <c r="K3" t="n">
-        <v>1.089279293424707</v>
+        <v>2041.128796166317</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.000281685476595326</v>
+        <v>-1.239739928574025e-05</v>
       </c>
       <c r="M3" t="n">
-        <v>8.674181384483675e-05</v>
+        <v>-0.0001512984029575372</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08413294652876364</v>
+        <v>7.619716660767679</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08475982358218842</v>
+        <v>7.619455773629365</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0002203705191421835</v>
+        <v>0.000322129932656603</v>
       </c>
       <c r="R3" t="n">
-        <v>0.000263930797297411</v>
+        <v>0.0001292202154994728</v>
       </c>
       <c r="S3" t="n">
-        <v>1.085597758489756</v>
+        <v>2031.177706371377</v>
       </c>
       <c r="T3" t="n">
-        <v>1.087690436158303</v>
+        <v>2040.263268086353</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>45449.25</v>
+        <v>45329.75</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>45449.25</v>
+        <v>45329.75</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0003783030303028401</v>
+        <v>0.798363636364229</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0003593009352187426</v>
+        <v>1.38290641786125</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.088774303030304</v>
+        <v>2038.206727272728</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.0001469454531797413</v>
+        <v>0.0001767534063591665</v>
       </c>
       <c r="AA3" t="n">
-        <v>-0.0002111228993009067</v>
+        <v>8.653959024560371e-05</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.088508909090909</v>
+        <v>2037.575272727274</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.088753640415063</v>
+        <v>2013.556499464455</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.089500388483715</v>
+        <v>2035.722172053841</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.088191208764649</v>
+        <v>2013.20038429748</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.089373661354229</v>
+        <v>2039.401465151465</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.0001468613665284913</v>
+        <v>4.899417889068279e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0005512439896126894</v>
-      </c>
-      <c r="AI3" t="inlineStr"/>
+        <v>0.0001767380410636762</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>2036.79877000413</v>
+      </c>
       <c r="AJ3" t="n">
-        <v>1.087875220043461</v>
+        <v>2036.944458267723</v>
       </c>
       <c r="AK3" t="n">
-        <v>87.95161024000197</v>
+        <v>77.22549674435714</v>
       </c>
       <c r="AL3" t="n">
-        <v>74.0932035865405</v>
+        <v>72.6126255194272</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.595253349395721e-05</v>
+        <v>0.8766447435524702</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.0854498</v>
+        <v>2031.029599999999</v>
       </c>
       <c r="AO3" t="n">
         <v>-1</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.087555780315311</v>
+        <v>2035.156242122046</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
@@ -1363,1199 +1477,1369 @@
         </is>
       </c>
       <c r="AR3" t="n">
-        <v>1.090285603205762</v>
+        <v>2039.366420773698</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.085091634429368</v>
+        <v>2031.558463673686</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.087832222222222</v>
+        <v>2032.991431683168</v>
       </c>
       <c r="AU3" t="n">
         <v>1</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.08413294652876364</v>
+        <v>7.619001031991877</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.08475982358218842</v>
-      </c>
-      <c r="AX3" s="2" t="n">
-        <v>45449.16666666666</v>
-      </c>
-      <c r="AY3" s="2" t="n">
-        <v>45449.16666666666</v>
+        <v>7.615572167757415</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>2035.458698341658</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>2031.241738276925</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1.087907255907785</v>
+        <v>2039.078289796179</v>
       </c>
       <c r="BA3" t="n">
-        <v>-6.1950762210411e-05</v>
+        <v>7.618923310441655</v>
       </c>
       <c r="BB3" t="n">
-        <v>1.085835097023266</v>
+        <v>7.615572167757415</v>
       </c>
       <c r="BC3" t="n">
-        <v>7.362296886675169e-05</v>
+        <v>2019.935558465544</v>
       </c>
       <c r="BD3" t="n">
-        <v>1.088545633997335</v>
-      </c>
-      <c r="BE3" t="inlineStr"/>
-      <c r="BF3" t="n">
-        <v>1.087721428571428</v>
+        <v>2040.801079611017</v>
+      </c>
+      <c r="BE3" s="2" t="n">
+        <v>45329.66666666666</v>
+      </c>
+      <c r="BF3" s="2" t="n">
+        <v>45329.66666666666</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.088801207483984</v>
+        <v>2034.770649970406</v>
       </c>
       <c r="BH3" t="n">
-        <v>1.086641649658872</v>
+        <v>0.0006274897013499491</v>
       </c>
       <c r="BI3" t="n">
-        <v>1.088034278830416</v>
+        <v>2028.731202324596</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1.087759582708945</v>
+        <v>0.0003309126687001536</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.087257947659063</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>0.0005156177878395951</v>
+        <v>2041.21287430391</v>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
       </c>
       <c r="BM3" t="n">
-        <v>0.0001449363038194428</v>
+        <v>2035.521904761905</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.0009547314922129089</v>
+        <v>2041.980277041358</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.0001846117647066325</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0.0002088096038390663</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0.0002010136854753153</v>
-      </c>
+        <v>2029.063532482453</v>
+      </c>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
       <c r="BR3" t="n">
-        <v>1.088690044897383</v>
+        <v>2038.254257875728</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.085825850420744</v>
+        <v>2036.586193671547</v>
       </c>
       <c r="BT3" t="n">
-        <v>87.45029102699117</v>
+        <v>2039.660714285714</v>
       </c>
       <c r="BU3" t="n">
-        <v>90.28654342846171</v>
-      </c>
-      <c r="BV3" t="inlineStr"/>
-      <c r="BW3" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="b">
-        <v>1</v>
+        <v>1.510079828311518</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>1.089974375203532</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>1.356132455972614</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>-0.1164285714303332</v>
       </c>
       <c r="BY3" t="n">
-        <v>1</v>
+        <v>-0.6335714285703489</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.079</v>
+        <v>0.4842857142853063</v>
       </c>
       <c r="CA3" t="n">
-        <v>1.088</v>
+        <v>2041.016846741687</v>
       </c>
       <c r="CB3" t="n">
-        <v>1.0872</v>
+        <v>2038.304581829742</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.0865</v>
+        <v>65.55307801106466</v>
       </c>
       <c r="CD3" t="n">
-        <v>1</v>
+        <v>64.55613282602182</v>
       </c>
       <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>100</v>
+      </c>
+      <c r="CJ3" t="inlineStr"/>
+      <c r="CK3" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>2049.75</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>2037.75</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>2043.75</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>2044.75</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG3" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="CH3" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI3" s="2" t="n">
-        <v>45449.63601851852</v>
-      </c>
-      <c r="CJ3" s="2" t="n">
-        <v>45449.29166666666</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>1.089</v>
-      </c>
-      <c r="CL3" s="2" t="n">
-        <v>45449.63601851852</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>1.08801</v>
-      </c>
-      <c r="CN3" t="n">
+      <c r="CT3" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU3" t="inlineStr"/>
+      <c r="CV3" t="inlineStr"/>
+      <c r="CW3" s="2" t="n">
+        <v>45329.78087962963</v>
+      </c>
+      <c r="CX3" s="2" t="n">
+        <v>45329.76041666666</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>2040.75</v>
+      </c>
+      <c r="CZ3" s="2" t="n">
+        <v>45329.78087962963</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>2037.98</v>
+      </c>
+      <c r="DB3" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO3" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="CP3" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>663.29</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV3" t="n">
+      <c r="DC3" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE3" t="n">
+        <v>-50.56</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>594.8599999999999</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI3" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>79</v>
+        <v>517</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45449.29166666666</v>
+        <v>45330.64583333334</v>
       </c>
       <c r="C4" t="n">
-        <v>1.089</v>
+        <v>2025.34</v>
       </c>
       <c r="D4" t="n">
-        <v>1.08901</v>
+        <v>2025.68</v>
       </c>
       <c r="E4" t="n">
-        <v>1.08859</v>
+        <v>2021.64</v>
       </c>
       <c r="F4" t="n">
-        <v>1.08865</v>
+        <v>2022.76</v>
       </c>
       <c r="G4" t="n">
-        <v>1047</v>
+        <v>4262</v>
       </c>
       <c r="H4" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.088263727780535</v>
+        <v>2018.700544862695</v>
       </c>
       <c r="K4" t="n">
-        <v>1.088999155337306</v>
+        <v>2033.545728075026</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0002816861817922553</v>
+        <v>0.0003390772450618422</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0001297358581795104</v>
+        <v>4.600799995033844e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08413294652876364</v>
+        <v>7.614758839105097</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08464987608167668</v>
+        <v>7.615841459460214</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0002711457999783154</v>
+        <v>-0.0004336391158699541</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000280964432090317</v>
+        <v>-0.0001941473053252308</v>
       </c>
       <c r="S4" t="n">
-        <v>1.085830309600143</v>
+        <v>2026.133380601058</v>
       </c>
       <c r="T4" t="n">
-        <v>1.087614236720196</v>
+        <v>2037.828921778264</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>45449.29166666666</v>
+        <v>45330.625</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>45449.29166666666</v>
+        <v>45330.625</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0002653939393946203</v>
+        <v>-2.018787878789453</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0004200537775151947</v>
+        <v>-1.627652730886894</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.088949272727272</v>
+        <v>2027.287212121211</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.0002847263854718179</v>
+        <v>-1.947360110283265e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>-0.0002570829857976209</v>
+        <v>0.0001331746111232193</v>
       </c>
       <c r="AB4" t="n">
-        <v>1.088774303030304</v>
+        <v>2030.388303030302</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.088873666140191</v>
+        <v>2022.873324433935</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.089266216219977</v>
+        <v>2036.474701887674</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.088753640415063</v>
+        <v>2022.780208944279</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.089500388483715</v>
+        <v>2036.203992831772</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0.0002111228993009067</v>
+        <v>0.0001331726304624351</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0001469454531797413</v>
-      </c>
-      <c r="AI4" t="inlineStr"/>
+        <v>8.269814131137111e-06</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>2035.490197033684</v>
+      </c>
       <c r="AJ4" t="n">
-        <v>1.087961306705299</v>
+        <v>2028.923015552026</v>
       </c>
       <c r="AK4" t="n">
-        <v>92.44335738945641</v>
+        <v>30.90092636340653</v>
       </c>
       <c r="AL4" t="n">
-        <v>85.27703347000816</v>
+        <v>44.59126763201834</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0001047727822982047</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1.085612608</v>
-      </c>
+        <v>-0.6767735927802039</v>
+      </c>
+      <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="n">
         <v>-1</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.087685518510451</v>
+        <v>2033.291652491951</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AR4" t="n">
+        <v>2035.991180239064</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>2028.480222963023</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2032.151792079207</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>7.616335427676068</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>7.617081234446932</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>2032.232231621693</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>2029.595485483949</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>2036.99455071839</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>7.617025255180291</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7.617563472066696</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>2020.24267161598</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2046.886504596267</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>45330.5</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>45330.5</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2030.327698761535</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>-0.0001655609135889331</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2029.27413467253</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>0.0002562068585684162</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2045.831968922877</v>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
           <t>bullish</t>
         </is>
       </c>
-      <c r="AR4" t="n">
-        <v>1.090374907051048</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>1.085203015731952</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>1.087952745098039</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0.08413294652876364</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>0.08464987608167668</v>
-      </c>
-      <c r="AX4" s="2" t="n">
-        <v>45449.16666666666</v>
-      </c>
-      <c r="AY4" s="2" t="n">
-        <v>45449.16666666666</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1.087907255907785</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>-6.1950762210411e-05</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1.085835097023266</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>7.362296886675169e-05</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>1.088545633997335</v>
-      </c>
-      <c r="BE4" t="inlineStr"/>
-      <c r="BF4" t="n">
-        <v>1.087721428571428</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1.088801207483984</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>1.086641649658872</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>1.088129005164198</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1.08782553954532</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>1.087420396158463</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>0.0004943227827818308</v>
-      </c>
       <c r="BM4" t="n">
-        <v>0.0002148135996119205</v>
+        <v>2030.438333333334</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.0009733156391088848</v>
+        <v>2037.281630966785</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0001624484994000586</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0.0001846117647066325</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>0.0002088096038390663</v>
-      </c>
+        <v>2023.595035699882</v>
+      </c>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
       <c r="BR4" t="n">
-        <v>1.088880369617127</v>
+        <v>2027.198190567468</v>
       </c>
       <c r="BS4" t="n">
-        <v>1.0859604226998</v>
+        <v>2029.645156239597</v>
       </c>
       <c r="BT4" t="n">
-        <v>74.52004517221627</v>
+        <v>2024.02857142857</v>
       </c>
       <c r="BU4" t="n">
-        <v>85.35198606978533</v>
-      </c>
-      <c r="BV4" t="inlineStr"/>
-      <c r="BW4" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX4" t="b">
-        <v>1</v>
+        <v>-2.204222374248502</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>-1.436654366110448</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1.626969136652972</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>-0.8242857142863613</v>
       </c>
       <c r="BY4" t="n">
-        <v>1</v>
+        <v>-0.09000000000060027</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1.07865</v>
+        <v>-0.602857142856692</v>
       </c>
       <c r="CA4" t="n">
-        <v>1.08765</v>
+        <v>2025.655540565223</v>
       </c>
       <c r="CB4" t="n">
-        <v>1.08685</v>
+        <v>2022.401602291917</v>
       </c>
       <c r="CC4" t="n">
-        <v>1.08615</v>
+        <v>11.25112806628941</v>
       </c>
       <c r="CD4" t="n">
-        <v>1</v>
+        <v>10.51391340453675</v>
       </c>
       <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="inlineStr"/>
+      <c r="CK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2013.76</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>2025.76</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>2019.76</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>2018.76</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS4" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG4" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="CH4" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI4" s="2" t="n">
-        <v>45449.63584490741</v>
-      </c>
-      <c r="CJ4" s="2" t="n">
-        <v>45449.33333333334</v>
-      </c>
-      <c r="CK4" t="n">
-        <v>1.08865</v>
-      </c>
-      <c r="CL4" s="2" t="n">
-        <v>45449.63584490741</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>1.08747</v>
-      </c>
-      <c r="CN4" t="n">
+      <c r="CT4" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2" t="n">
+        <v>45334.6875</v>
+      </c>
+      <c r="CV4" s="2" t="n">
+        <v>45334.69047453703</v>
+      </c>
+      <c r="CW4" s="2" t="n">
+        <v>45330.68460648148</v>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>45330.65625</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>2022.76</v>
+      </c>
+      <c r="CZ4" s="2" t="n">
+        <v>45330.68460648148</v>
+      </c>
+      <c r="DA4" t="n">
+        <v>2025.68</v>
+      </c>
+      <c r="DB4" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="CP4" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>21.64</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>684.9299999999999</v>
-      </c>
-      <c r="CS4" t="n">
+      <c r="DC4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE4" t="n">
+        <v>-53.3</v>
+      </c>
+      <c r="DF4" t="n">
+        <v>541.5599999999999</v>
+      </c>
+      <c r="DG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>6</v>
+      </c>
+      <c r="DJ4" t="n">
         <v>2</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>45331.5</v>
       </c>
       <c r="C5" t="n">
-        <v>1.08864</v>
+        <v>2031.48</v>
       </c>
       <c r="D5" t="n">
-        <v>1.08869</v>
+        <v>2032.11</v>
       </c>
       <c r="E5" t="n">
-        <v>1.08815</v>
+        <v>2030.96</v>
       </c>
       <c r="F5" t="n">
-        <v>1.08841</v>
+        <v>2031.29</v>
       </c>
       <c r="G5" t="n">
-        <v>1548</v>
+        <v>702</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.087650780913461</v>
+        <v>2030.980008661927</v>
       </c>
       <c r="K5" t="n">
-        <v>1.088679227309447</v>
+        <v>2032.703911793618</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.0002347351401142845</v>
+        <v>-0.0002102030687353607</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0001902445331508493</v>
+        <v>0.0001557128851457848</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>0.08413754761462007</v>
+        <v>7.616986901795098</v>
       </c>
       <c r="P5" t="n">
-        <v>0.08451240769853867</v>
+        <v>7.617208053637761</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0002838892691737518</v>
+        <v>-6.63823052041006e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0001864424171529329</v>
+        <v>-7.590406713781703e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.086342793870468</v>
+        <v>2031.095696224525</v>
       </c>
       <c r="T5" t="n">
-        <v>1.087840971658546</v>
+        <v>2034.756736455061</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>45331.5</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>45331.5</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001749696969686187</v>
+        <v>-0.3999999999969077</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0004127951554606657</v>
+        <v>-0.0006176955173486931</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.088985212121212</v>
+        <v>2032.367090909093</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0.0004042844928490629</v>
+        <v>-0.0001763863602198376</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0.0002938810951130264</v>
+        <v>-0.0001211816388610203</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.088949272727272</v>
+        <v>2032.60072727273</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.088552727388402</v>
+        <v>2031.641766107746</v>
       </c>
       <c r="AD5" t="n">
-        <v>1.088982887262256</v>
+        <v>2046.785898570234</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.088873666140191</v>
+        <v>2032.144856141996</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.089266216219977</v>
+        <v>2047.033991807273</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0.0002570829857976209</v>
+        <v>-0.0001211864700708491</v>
       </c>
       <c r="AH5" t="n">
-        <v>-0.0002847263854718179</v>
-      </c>
-      <c r="AI5" t="inlineStr"/>
+        <v>-0.0001785197324494949</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>2034.574988949875</v>
+      </c>
       <c r="AJ5" t="n">
-        <v>1.088011161515821</v>
+        <v>2032.70114577885</v>
       </c>
       <c r="AK5" t="n">
-        <v>85.62248995983823</v>
+        <v>41.14795054200525</v>
       </c>
       <c r="AL5" t="n">
-        <v>88.67248586309887</v>
+        <v>57.13603323963398</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0001663772569306969</v>
+        <v>0.1868103135598509</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.08576890368</v>
+        <v>2026.163845144879</v>
       </c>
       <c r="AO5" t="n">
         <v>-1</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.087785887668269</v>
+        <v>2032.698532945852</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AR5" t="n">
-        <v>1.090438464594242</v>
+        <v>2036.259569614575</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.08529557939743</v>
+        <v>2029.19888343578</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.088034117647059</v>
+        <v>2032.558003960394</v>
       </c>
       <c r="AU5" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.08413754761462007</v>
+        <v>7.6162605590421</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.08451240769853867</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>45449.33333333334</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>7.616888209093872</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>2032.72616086066</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>2029.159573840702</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1.08782817060519</v>
+        <v>2036.243664178473</v>
       </c>
       <c r="BA5" t="n">
-        <v>-0.000119846441338759</v>
+        <v>7.6162605590421</v>
       </c>
       <c r="BB5" t="n">
-        <v>1.086139690582475</v>
+        <v>7.616888209093872</v>
       </c>
       <c r="BC5" t="n">
-        <v>9.421114565132498e-05</v>
+        <v>2024.280518739316</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.088605298330754</v>
-      </c>
-      <c r="BE5" t="inlineStr"/>
-      <c r="BF5" t="n">
-        <v>1.087774523809524</v>
+        <v>2037.602024666015</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>45331.5</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>45331.5</v>
       </c>
       <c r="BG5" t="n">
-        <v>1.088852031350101</v>
+        <v>2030.581540083317</v>
       </c>
       <c r="BH5" t="n">
-        <v>1.086697016268947</v>
+        <v>-0.0003816265865635611</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.088172235138937</v>
+        <v>2018.053891495721</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1.087868832912333</v>
+        <v>-0.0002552305756430181</v>
       </c>
       <c r="BK5" t="n">
-        <v>1.087568274189674</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>0.0004330615909993174</v>
+        <v>2036.489352787421</v>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM5" t="n">
-        <v>0.0002584631978893999</v>
+        <v>2030.965119047619</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.000952636108677348</v>
+        <v>2038.061551954368</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.0001478780312109684</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>0.0001624484994000586</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>0.0001846117647066325</v>
-      </c>
+        <v>2023.868686140869</v>
+      </c>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
       <c r="BR5" t="n">
-        <v>1.08899722835269</v>
+        <v>2032.210865397075</v>
       </c>
       <c r="BS5" t="n">
-        <v>1.086139320026658</v>
+        <v>2032.637697039916</v>
       </c>
       <c r="BT5" t="n">
-        <v>52.47035573122184</v>
+        <v>2031.688571428572</v>
       </c>
       <c r="BU5" t="n">
-        <v>71.48023064347642</v>
-      </c>
-      <c r="BV5" t="inlineStr"/>
-      <c r="BW5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX5" t="b">
-        <v>1</v>
+        <v>-0.3909926022079162</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>-0.2626802053927267</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0.5030478535795739</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>-0.2307142857141571</v>
       </c>
       <c r="BY5" t="n">
-        <v>1</v>
+        <v>-0.3528571428569194</v>
       </c>
       <c r="BZ5" t="n">
-        <v>1.07841</v>
+        <v>0.2542857142861976</v>
       </c>
       <c r="CA5" t="n">
-        <v>1.08741</v>
+        <v>2032.191619282151</v>
       </c>
       <c r="CB5" t="n">
-        <v>1.08661</v>
+        <v>2031.185523574992</v>
       </c>
       <c r="CC5" t="n">
-        <v>1.08591</v>
+        <v>30.16591251885312</v>
       </c>
       <c r="CD5" t="n">
-        <v>1</v>
+        <v>35.24384112619362</v>
       </c>
       <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="inlineStr"/>
+      <c r="CK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>2022.29</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>2028.2892</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>2028.2884</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>2027.288</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS5" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="CH5" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI5" s="2" t="n">
-        <v>45449.63583333333</v>
-      </c>
-      <c r="CJ5" s="2" t="n">
-        <v>45449.375</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>1.08841</v>
-      </c>
-      <c r="CL5" s="2" t="n">
-        <v>45449.63583333333</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>1.08735</v>
-      </c>
-      <c r="CN5" t="n">
+      <c r="CT5" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="2" t="n">
+        <v>45331.66666666666</v>
+      </c>
+      <c r="CV5" s="2" t="n">
+        <v>45331.72575231481</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>45331.64651620371</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>45331.51041666666</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>2031.29</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>45331.64651620371</v>
+      </c>
+      <c r="DA5" t="n">
+        <v>2027.36</v>
+      </c>
+      <c r="DB5" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO5" t="inlineStr">
+      <c r="DC5" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="CP5" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>19.44</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>704.37</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV5" t="n">
+      <c r="DD5" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE5" t="n">
+        <v>71.72</v>
+      </c>
+      <c r="DF5" t="n">
+        <v>613.28</v>
+      </c>
+      <c r="DG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>81</v>
+        <v>597</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45449.375</v>
+        <v>45331.52083333334</v>
       </c>
       <c r="C6" t="n">
-        <v>1.08841</v>
+        <v>2032.94</v>
       </c>
       <c r="D6" t="n">
-        <v>1.08842</v>
+        <v>2032.94</v>
       </c>
       <c r="E6" t="n">
-        <v>1.08764</v>
+        <v>2031.56</v>
       </c>
       <c r="F6" t="n">
-        <v>1.08833</v>
+        <v>2031.86</v>
       </c>
       <c r="G6" t="n">
-        <v>3133</v>
+        <v>615</v>
       </c>
       <c r="H6" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.086609829434158</v>
+        <v>2031.220069775542</v>
       </c>
       <c r="K6" t="n">
-        <v>1.08846129808749</v>
+        <v>2035.901150583506</v>
       </c>
       <c r="L6" t="n">
-        <v>-9.017769919118269e-05</v>
+        <v>-0.000256816864706963</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0002553182325218036</v>
+        <v>5.069305746803823e-05</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0.08413984812579363</v>
+        <v>7.61698207707791</v>
       </c>
       <c r="P6" t="n">
-        <v>0.08451240769853867</v>
+        <v>7.617208053637761</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0001368845675613785</v>
+        <v>-6.638119592559876e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>0.0001045436140395899</v>
+        <v>-5.988702786480349e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>1.086626744486974</v>
+        <v>2030.709819157848</v>
       </c>
       <c r="T6" t="n">
-        <v>1.088776312022687</v>
+        <v>2034.486578714913</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>45449.375</v>
+        <v>45331.5</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>45449.375</v>
+        <v>45331.5</v>
       </c>
       <c r="W6" t="n">
-        <v>3.593939393953249e-05</v>
+        <v>-0.3999999999969077</v>
       </c>
       <c r="X6" t="n">
-        <v>0.000370917709214158</v>
+        <v>-0.0006176955173486931</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.088876484848485</v>
+        <v>2032.367090909093</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.0004687928908097924</v>
+        <v>-0.0001763863602198376</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0.0002480404433001605</v>
+        <v>-0.0001211816388610203</v>
       </c>
       <c r="AB6" t="n">
-        <v>1.088985212121212</v>
+        <v>2032.60072727273</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.088106819736973</v>
+        <v>2031.641766107746</v>
       </c>
       <c r="AD6" t="n">
-        <v>1.088667142935056</v>
+        <v>2046.785898570234</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.088552727388402</v>
+        <v>2032.144856141996</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.088982887262256</v>
+        <v>2047.033991807273</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.0002938810951130264</v>
+        <v>-0.0001211864700708491</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.0004042844928490629</v>
-      </c>
-      <c r="AI6" t="inlineStr"/>
+        <v>-0.0001785197324494949</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2034.574988949875</v>
+      </c>
       <c r="AJ6" t="n">
-        <v>1.088046588014063</v>
+        <v>2032.70114577885</v>
       </c>
       <c r="AK6" t="n">
-        <v>79.91967871485855</v>
+        <v>41.14795054200525</v>
       </c>
       <c r="AL6" t="n">
-        <v>85.99517535471773</v>
+        <v>57.13603323963398</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.0002072853473873892</v>
+        <v>0.1868103135598509</v>
       </c>
       <c r="AN6" t="n">
-        <v>1.0859189475328</v>
+        <v>2026.163845144879</v>
       </c>
       <c r="AO6" t="n">
         <v>-1</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.087863982871504</v>
+        <v>2032.698532945852</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AR6" t="n">
-        <v>1.09049038454643</v>
+        <v>2036.259569614575</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.085377913209203</v>
+        <v>2029.19888343578</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.088106078431373</v>
+        <v>2032.558003960394</v>
       </c>
       <c r="AU6" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.08413984812579363</v>
+        <v>7.6162605590421</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.08451240769853867</v>
-      </c>
-      <c r="AX6" s="2" t="n">
-        <v>45449.33333333334</v>
-      </c>
-      <c r="AY6" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>7.616888209093872</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>2032.72616086066</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>2029.159573840702</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1.08782817060519</v>
+        <v>2036.243664178473</v>
       </c>
       <c r="BA6" t="n">
-        <v>-0.000119846441338759</v>
+        <v>7.6162605590421</v>
       </c>
       <c r="BB6" t="n">
-        <v>1.086139690582475</v>
+        <v>7.616888209093872</v>
       </c>
       <c r="BC6" t="n">
-        <v>9.421114565132498e-05</v>
+        <v>2024.280518739316</v>
       </c>
       <c r="BD6" t="n">
-        <v>1.088605298330754</v>
-      </c>
-      <c r="BE6" t="inlineStr"/>
-      <c r="BF6" t="n">
-        <v>1.087774523809524</v>
+        <v>2037.602024666015</v>
+      </c>
+      <c r="BE6" s="2" t="n">
+        <v>45331.5</v>
+      </c>
+      <c r="BF6" s="2" t="n">
+        <v>45331.5</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.088852031350101</v>
+        <v>2030.581540083317</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.086697016268947</v>
+        <v>-0.0003816265865635611</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.088196506656023</v>
+        <v>2018.053891495721</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.087902993437346</v>
+        <v>-0.0002552305756430181</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.087722363985594</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>0.0003690801967277668</v>
+        <v>2036.489352787421</v>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM6" t="n">
-        <v>0.0002805865976570733</v>
+        <v>2030.965119047619</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.0008313817147108472</v>
+        <v>2038.061551954368</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.0001540897959200205</v>
-      </c>
-      <c r="BP6" t="n">
-        <v>0.0001478780312109684</v>
-      </c>
-      <c r="BQ6" t="n">
-        <v>0.0001624484994000586</v>
-      </c>
+        <v>2023.868686140869</v>
+      </c>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
       <c r="BR6" t="n">
-        <v>1.088969436557661</v>
+        <v>2032.250501260628</v>
       </c>
       <c r="BS6" t="n">
-        <v>1.086475291413528</v>
+        <v>2032.600138065771</v>
       </c>
       <c r="BT6" t="n">
-        <v>38.9072968351399</v>
+        <v>2032.062857142857</v>
       </c>
       <c r="BU6" t="n">
-        <v>55.299232579526</v>
-      </c>
-      <c r="BV6" t="inlineStr"/>
-      <c r="BW6" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX6" t="b">
-        <v>1</v>
+        <v>-0.3161593499653463</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>-0.2804044605656329</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>0.6085971379526909</v>
+      </c>
+      <c r="BX6" t="n">
+        <v>-0.02714285714250764</v>
       </c>
       <c r="BY6" t="n">
-        <v>1</v>
+        <v>0.4014285714276866</v>
       </c>
       <c r="BZ6" t="n">
-        <v>1.07833</v>
+        <v>-0.2307142857141571</v>
       </c>
       <c r="CA6" t="n">
-        <v>1.08813</v>
+        <v>2032.67145428081</v>
       </c>
       <c r="CB6" t="n">
-        <v>1.08733</v>
+        <v>2031.454260004904</v>
       </c>
       <c r="CC6" t="n">
-        <v>1.08683</v>
+        <v>37.76641091219003</v>
       </c>
       <c r="CD6" t="n">
-        <v>1</v>
+        <v>33.85577196318828</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="inlineStr"/>
+      <c r="CK6" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>2022.86</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>2028.8592</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>2028.8584</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>2027.858</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS6" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="2" t="n">
-        <v>45449.625</v>
-      </c>
-      <c r="CH6" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI6" s="2" t="n">
-        <v>45449.53668981481</v>
-      </c>
-      <c r="CJ6" s="2" t="n">
-        <v>45449.41666666666</v>
-      </c>
-      <c r="CK6" t="n">
-        <v>1.08833</v>
-      </c>
-      <c r="CL6" s="2" t="n">
-        <v>45449.53668981481</v>
-      </c>
-      <c r="CM6" t="n">
-        <v>1.08809</v>
-      </c>
-      <c r="CN6" t="n">
+      <c r="CT6" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU6" s="2" t="n">
+        <v>45331.66666666666</v>
+      </c>
+      <c r="CV6" s="2" t="n">
+        <v>45331.70993055555</v>
+      </c>
+      <c r="CW6" s="2" t="n">
+        <v>45331.64652777778</v>
+      </c>
+      <c r="CX6" s="2" t="n">
+        <v>45331.53125</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>2031.86</v>
+      </c>
+      <c r="CZ6" s="2" t="n">
+        <v>45331.64652777778</v>
+      </c>
+      <c r="DA6" t="n">
+        <v>2028.24</v>
+      </c>
+      <c r="DB6" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO6" t="inlineStr">
+      <c r="DC6" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="CP6" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="CR6" t="n">
-        <v>708.77</v>
-      </c>
-      <c r="CS6" t="n">
-        <v>4</v>
-      </c>
-      <c r="CT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU6" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV6" t="n">
+      <c r="DD6" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE6" t="n">
+        <v>66.06</v>
+      </c>
+      <c r="DF6" t="n">
+        <v>679.3399999999999</v>
+      </c>
+      <c r="DG6" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45449.41666666666</v>
+        <v>45331.57291666666</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08833</v>
+        <v>2032.12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.08875</v>
+        <v>2032.36</v>
       </c>
       <c r="E7" t="n">
-        <v>1.08752</v>
+        <v>2031.38</v>
       </c>
       <c r="F7" t="n">
-        <v>1.08776</v>
+        <v>2031.44</v>
       </c>
       <c r="G7" t="n">
-        <v>2958</v>
+        <v>1005</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.085728857793733</v>
+        <v>2028.394829897703</v>
       </c>
       <c r="K7" t="n">
-        <v>1.089243378609498</v>
+        <v>2044.417592332817</v>
       </c>
       <c r="L7" t="n">
-        <v>9.00482114795122e-05</v>
+        <v>-0.0002372572195900583</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0001627296080823246</v>
+        <v>-0.000509441371731782</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0.08425484670183911</v>
+        <v>7.616969782761815</v>
       </c>
       <c r="P7" t="n">
-        <v>0.08451240769853867</v>
+        <v>7.617124522532056</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.903480139844624e-05</v>
+        <v>-3.987855604679858e-05</v>
       </c>
       <c r="R7" t="n">
-        <v>8.286644676401458e-05</v>
+        <v>3.1410559582586e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.086727575301476</v>
+        <v>2030.586878417084</v>
       </c>
       <c r="T7" t="n">
-        <v>1.089225507728865</v>
+        <v>2034.222041665495</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>45449.41666666666</v>
+        <v>45331.54166666666</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>45449.41666666666</v>
+        <v>45331.54166666666</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.0001087272727269273</v>
+        <v>-0.2336363636363785</v>
       </c>
       <c r="X7" t="n">
-        <v>0.0003239180498531002</v>
+        <v>-0.0007127453748125845</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.088562424242425</v>
+        <v>2032.021757575759</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.0001103349728172046</v>
+        <v>-0.0001680218529165323</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0003031517132623708</v>
+        <v>-0.0001211905153384107</v>
       </c>
       <c r="AB7" t="n">
-        <v>1.088876484848485</v>
+        <v>2032.367090909093</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.087629905184667</v>
+        <v>2030.750203242683</v>
       </c>
       <c r="AD7" t="n">
-        <v>1.088447750057614</v>
+        <v>2046.537987875218</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.088106819736973</v>
+        <v>2031.641766107746</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.088667142935056</v>
+        <v>2046.785898570234</v>
       </c>
       <c r="AG7" t="n">
-        <v>-0.0002480404433001605</v>
+        <v>-0.0001211816388610203</v>
       </c>
       <c r="AH7" t="n">
-        <v>-0.0004687928908097924</v>
-      </c>
-      <c r="AI7" t="inlineStr"/>
+        <v>-0.0001763863602198376</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>2034.512909960768</v>
+      </c>
       <c r="AJ7" t="n">
-        <v>1.088014744901389</v>
+        <v>2032.420891161328</v>
       </c>
       <c r="AK7" t="n">
-        <v>72.85936948928811</v>
+        <v>35.50135501354976</v>
       </c>
       <c r="AL7" t="n">
-        <v>79.46717938799496</v>
+        <v>45.65532368017475</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0002306118878805314</v>
+        <v>0.1493057017729182</v>
       </c>
       <c r="AN7" t="n">
-        <v>1.086062989631488</v>
+        <v>2026.530891339084</v>
       </c>
       <c r="AO7" t="n">
         <v>-1</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.087931145777942</v>
+        <v>2032.72616086066</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
@@ -2563,893 +2847,1027 @@
         </is>
       </c>
       <c r="AR7" t="n">
-        <v>1.090494367356794</v>
+        <v>2036.172017041711</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.085409916081092</v>
+        <v>2029.132662365592</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.088117843137255</v>
+        <v>2032.566142574256</v>
       </c>
       <c r="AU7" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.08425484670183911</v>
+        <v>7.616240902249686</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.08451240769853867</v>
-      </c>
-      <c r="AX7" s="2" t="n">
-        <v>45449.33333333334</v>
-      </c>
-      <c r="AY7" s="2" t="n">
-        <v>45449.33333333334</v>
+        <v>7.616888209093872</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>2032.649292419665</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>2029.19888343578</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.08782817060519</v>
+        <v>2036.259569614575</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.000119846441338759</v>
+        <v>7.6162605590421</v>
       </c>
       <c r="BB7" t="n">
-        <v>1.086139690582475</v>
+        <v>7.616888209093872</v>
       </c>
       <c r="BC7" t="n">
-        <v>9.421114565132498e-05</v>
+        <v>2023.605593340063</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.088605298330754</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
-      <c r="BF7" t="n">
-        <v>1.087774523809524</v>
+        <v>2037.441537641586</v>
+      </c>
+      <c r="BE7" s="2" t="n">
+        <v>45331.5</v>
+      </c>
+      <c r="BF7" s="2" t="n">
+        <v>45331.5</v>
       </c>
       <c r="BG7" t="n">
-        <v>1.088852031350101</v>
+        <v>2030.581540083317</v>
       </c>
       <c r="BH7" t="n">
-        <v>1.086697016268947</v>
+        <v>-0.0003816265865635611</v>
       </c>
       <c r="BI7" t="n">
-        <v>1.088129351785866</v>
+        <v>2018.053891495721</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1.087892401330876</v>
+        <v>-0.0002552305756430181</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.087815964465786</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0.00023700703952656</v>
+        <v>2036.489352787421</v>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM7" t="n">
-        <v>0.0002718706860309706</v>
+        <v>2030.965119047619</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.0007270098577963885</v>
+        <v>2038.061551954368</v>
       </c>
       <c r="BO7" t="n">
-        <v>9.360048019124712e-05</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0.0001540897959200205</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>0.0001478780312109684</v>
-      </c>
+        <v>2023.868686140869</v>
+      </c>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
       <c r="BR7" t="n">
-        <v>1.08890647925248</v>
+        <v>2032.243133909138</v>
       </c>
       <c r="BS7" t="n">
-        <v>1.086725449679091</v>
+        <v>2032.502967395255</v>
       </c>
       <c r="BT7" t="n">
-        <v>23.27555569492677</v>
+        <v>2032.084285714285</v>
       </c>
       <c r="BU7" t="n">
-        <v>38.21773608709616</v>
-      </c>
-      <c r="BV7" t="inlineStr"/>
-      <c r="BW7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="b">
-        <v>1</v>
+        <v>-0.2298301309897397</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>-0.2294037880171073</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0.5599234642747367</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>-0.4700000000007094</v>
       </c>
       <c r="BY7" t="n">
-        <v>1</v>
+        <v>-0.1528571428568739</v>
       </c>
       <c r="BZ7" t="n">
-        <v>1.07776</v>
+        <v>0.2564285714292964</v>
       </c>
       <c r="CA7" t="n">
-        <v>1.08756</v>
+        <v>2032.64420917856</v>
       </c>
       <c r="CB7" t="n">
-        <v>1.08676</v>
+        <v>2031.52436225001</v>
       </c>
       <c r="CC7" t="n">
-        <v>1.08626</v>
+        <v>47.14096535396553</v>
       </c>
       <c r="CD7" t="n">
-        <v>1</v>
+        <v>57.18568016561822</v>
       </c>
       <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="inlineStr"/>
+      <c r="CK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>2022.44</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>2028.4392</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>2028.4384</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>2027.438</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS7" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG7" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="CH7" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI7" s="2" t="n">
-        <v>45449.63584490741</v>
-      </c>
-      <c r="CJ7" s="2" t="n">
-        <v>45449.45833333334</v>
-      </c>
-      <c r="CK7" t="n">
-        <v>1.08776</v>
-      </c>
-      <c r="CL7" s="2" t="n">
-        <v>45449.63584490741</v>
-      </c>
-      <c r="CM7" t="n">
-        <v>1.08747</v>
-      </c>
-      <c r="CN7" t="n">
+      <c r="CT7" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU7" s="2" t="n">
+        <v>45331.66666666666</v>
+      </c>
+      <c r="CV7" s="2" t="n">
+        <v>45331.72572916667</v>
+      </c>
+      <c r="CW7" s="2" t="n">
+        <v>45331.64652777778</v>
+      </c>
+      <c r="CX7" s="2" t="n">
+        <v>45331.58333333334</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>2031.44</v>
+      </c>
+      <c r="CZ7" s="2" t="n">
+        <v>45331.64652777778</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>2028.24</v>
+      </c>
+      <c r="DB7" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO7" t="inlineStr">
+      <c r="DC7" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="CP7" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ7" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="CR7" t="n">
-        <v>714.09</v>
-      </c>
-      <c r="CS7" t="n">
-        <v>5</v>
-      </c>
-      <c r="CT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU7" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV7" t="n">
+      <c r="DD7" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>737.7399999999999</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>84</v>
+        <v>605</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45449.5</v>
+        <v>45331.60416666666</v>
       </c>
       <c r="C8" t="n">
-        <v>1.08763</v>
+        <v>2030.96</v>
       </c>
       <c r="D8" t="n">
-        <v>1.08814</v>
+        <v>2031.17</v>
       </c>
       <c r="E8" t="n">
-        <v>1.08749</v>
+        <v>2029.46</v>
       </c>
       <c r="F8" t="n">
-        <v>1.08792</v>
+        <v>2030.04</v>
       </c>
       <c r="G8" t="n">
-        <v>2380</v>
+        <v>1349</v>
       </c>
       <c r="H8" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.085738419624996</v>
+        <v>2026.958028111047</v>
       </c>
       <c r="K8" t="n">
-        <v>1.090409212018016</v>
+        <v>2040.811677959101</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0001756930265263276</v>
+        <v>-0.0002381924601334581</v>
       </c>
       <c r="M8" t="n">
-        <v>-8.536482413846145e-05</v>
+        <v>-0.0004501866673803589</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O8" t="n">
-        <v>0.08421575312092541</v>
+        <v>7.616672997500247</v>
       </c>
       <c r="P8" t="n">
-        <v>0.08424194290508369</v>
+        <v>7.616888062336708</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.0001433919895285554</v>
+        <v>-2.177107265741867e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>-2.979680269351134e-05</v>
+        <v>-2.724139599813488e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.087317269845619</v>
+        <v>2030.109404979581</v>
       </c>
       <c r="T8" t="n">
-        <v>1.089819332994192</v>
+        <v>2033.726919159002</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>45449.5</v>
+        <v>45331.58333333334</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>45449.5</v>
+        <v>45331.58333333334</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.0003390909090903449</v>
+        <v>-0.3453333333345654</v>
       </c>
       <c r="X8" t="n">
-        <v>0.0001328785707639391</v>
+        <v>-0.1407608602053187</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.087952969696969</v>
+        <v>2031.010848484847</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.0004046733654477839</v>
+        <v>-0.0001594817153456401</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002757341416019839</v>
+        <v>-0.0001211869889878528</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.088223333333334</v>
+        <v>2032.021757575759</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.087087069971803</v>
+        <v>2029.882709152415</v>
       </c>
       <c r="AD8" t="n">
-        <v>1.087865280767933</v>
+        <v>2046.290090890931</v>
       </c>
       <c r="AE8" t="n">
-        <v>1.087480497607052</v>
+        <v>2030.750203242683</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.088673495106631</v>
+        <v>2046.537987875218</v>
       </c>
       <c r="AG8" t="n">
-        <v>-0.0008361836349550198</v>
+        <v>-0.0001211905153384107</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.0004322725773797304</v>
-      </c>
-      <c r="AI8" t="inlineStr"/>
+        <v>-0.0001680218529165323</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>2034.397802832832</v>
+      </c>
       <c r="AJ8" t="n">
-        <v>1.087970168810974</v>
+        <v>2031.59402645881</v>
       </c>
       <c r="AK8" t="n">
-        <v>47.41708681323704</v>
+        <v>29.67479674796759</v>
       </c>
       <c r="AL8" t="n">
-        <v>60.18940734782952</v>
+        <v>35.44136743450753</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.0002093822261280697</v>
+        <v>0.09129238937727081</v>
       </c>
       <c r="AN8" t="n">
-        <v>1.086334019244379</v>
+        <v>2026.88325568552</v>
       </c>
       <c r="AO8" t="n">
         <v>-1</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.087954718232315</v>
+        <v>2032.649292419665</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AR8" t="n">
-        <v>1.090491485324609</v>
+        <v>2035.874798986344</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.085462626087841</v>
+        <v>2028.842545388582</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.08812522875817</v>
+        <v>2032.520166336632</v>
       </c>
       <c r="AU8" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.08421575312092541</v>
+        <v>7.615996991378522</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.08424194290508369</v>
-      </c>
-      <c r="AX8" s="2" t="n">
-        <v>45449.5</v>
-      </c>
-      <c r="AY8" s="2" t="n">
-        <v>45449.5</v>
+        <v>7.616888209093872</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>2032.355630608955</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>2029.132662365592</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.08791878040346</v>
+        <v>2036.172017041711</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.000145202005674274</v>
+        <v>7.616240902249686</v>
       </c>
       <c r="BB8" t="n">
-        <v>1.086145021899968</v>
+        <v>7.616888209093872</v>
       </c>
       <c r="BC8" t="n">
-        <v>9.421320422461058e-05</v>
+        <v>2022.929525685747</v>
       </c>
       <c r="BD8" t="n">
-        <v>1.088707751799769</v>
-      </c>
-      <c r="BE8" t="inlineStr"/>
-      <c r="BF8" t="n">
-        <v>1.08796</v>
+        <v>2037.279435878862</v>
+      </c>
+      <c r="BE8" s="2" t="n">
+        <v>45331.5</v>
+      </c>
+      <c r="BF8" s="2" t="n">
+        <v>45331.5</v>
       </c>
       <c r="BG8" t="n">
-        <v>1.089049266955342</v>
+        <v>2030.581540083317</v>
       </c>
       <c r="BH8" t="n">
-        <v>1.086870733044657</v>
+        <v>-0.0003816265865635611</v>
       </c>
       <c r="BI8" t="n">
-        <v>1.08803734654491</v>
+        <v>2018.053891495721</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.087879191813165</v>
+        <v>-0.0002552305756430181</v>
       </c>
       <c r="BK8" t="n">
-        <v>1.087952706842737</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>8.956779619939681e-05</v>
+        <v>2036.489352787421</v>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM8" t="n">
-        <v>0.0002126907565690375</v>
+        <v>2030.965119047619</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0005835152097413382</v>
+        <v>2038.061551954368</v>
       </c>
       <c r="BO8" t="n">
-        <v>6.722737094766451e-05</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>6.951500600371752e-05</v>
-      </c>
-      <c r="BQ8" t="n">
-        <v>9.360048019124712e-05</v>
-      </c>
+        <v>2023.868686140869</v>
+      </c>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
       <c r="BR8" t="n">
-        <v>1.088827979657349</v>
+        <v>2031.682435700074</v>
       </c>
       <c r="BS8" t="n">
-        <v>1.087077434028125</v>
+        <v>2032.166777704154</v>
       </c>
       <c r="BT8" t="n">
-        <v>32.12281522778198</v>
+        <v>2030.83</v>
       </c>
       <c r="BU8" t="n">
-        <v>27.56546839142432</v>
-      </c>
-      <c r="BV8" t="inlineStr"/>
-      <c r="BW8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX8" t="b">
-        <v>1</v>
+        <v>-0.4354659624048054</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>-0.2868894779797748</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0.9759000730180363</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>-0.630714285712429</v>
       </c>
       <c r="BY8" t="n">
-        <v>1</v>
+        <v>-0.4950000000017099</v>
       </c>
       <c r="BZ8" t="n">
-        <v>1.07792</v>
+        <v>-0.1285714285706945</v>
       </c>
       <c r="CA8" t="n">
-        <v>1.08772</v>
+        <v>2031.805900073018</v>
       </c>
       <c r="CB8" t="n">
-        <v>1.08692</v>
+        <v>2029.854099926982</v>
       </c>
       <c r="CC8" t="n">
-        <v>1.08642</v>
+        <v>18.75438631939685</v>
       </c>
       <c r="CD8" t="n">
-        <v>1</v>
+        <v>25.22974059310905</v>
       </c>
       <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="inlineStr"/>
+      <c r="CK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>2021.04</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>2033.04</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>2027.04</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>2026.04</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS8" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF8" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG8" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="CH8" s="2" t="n">
-        <v>45453.00002314815</v>
-      </c>
-      <c r="CI8" s="2" t="n">
-        <v>45449.63586805556</v>
-      </c>
-      <c r="CJ8" s="2" t="n">
-        <v>45449.54166666666</v>
-      </c>
-      <c r="CK8" t="n">
-        <v>1.08792</v>
-      </c>
-      <c r="CL8" s="2" t="n">
-        <v>45449.63586805556</v>
-      </c>
-      <c r="CM8" t="n">
-        <v>1.08766</v>
-      </c>
-      <c r="CN8" t="n">
+      <c r="CT8" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU8" s="2" t="n">
+        <v>45331.6875</v>
+      </c>
+      <c r="CV8" s="2" t="n">
+        <v>45331.75103009259</v>
+      </c>
+      <c r="CW8" s="2" t="n">
+        <v>45331.64673611111</v>
+      </c>
+      <c r="CX8" s="2" t="n">
+        <v>45331.61458333334</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>2030.04</v>
+      </c>
+      <c r="CZ8" s="2" t="n">
+        <v>45331.64673611111</v>
+      </c>
+      <c r="DA8" t="n">
+        <v>2032.89</v>
+      </c>
+      <c r="DB8" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO8" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="CP8" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ8" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="CR8" t="n">
-        <v>718.86</v>
-      </c>
-      <c r="CS8" t="n">
+      <c r="DC8" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE8" t="n">
+        <v>-52.02</v>
+      </c>
+      <c r="DF8" t="n">
+        <v>685.7199999999999</v>
+      </c>
+      <c r="DG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI8" t="n">
         <v>6</v>
       </c>
-      <c r="CT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU8" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV8" t="n">
-        <v>6</v>
+      <c r="DJ8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>88</v>
+        <v>632</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45449.66666666666</v>
+        <v>45331.88541666666</v>
       </c>
       <c r="C9" t="n">
-        <v>1.08806</v>
+        <v>2025.54</v>
       </c>
       <c r="D9" t="n">
-        <v>1.08901</v>
+        <v>2026.06</v>
       </c>
       <c r="E9" t="n">
-        <v>1.08711</v>
+        <v>2024.52</v>
       </c>
       <c r="F9" t="n">
-        <v>1.08845</v>
+        <v>2025</v>
       </c>
       <c r="G9" t="n">
-        <v>7111</v>
+        <v>1050</v>
       </c>
       <c r="H9" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.087041424955202</v>
+        <v>2023.685240645416</v>
       </c>
       <c r="K9" t="n">
-        <v>1.08901</v>
+        <v>2026.510705874671</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0001642627175834279</v>
+        <v>-7.671479585901629e-06</v>
       </c>
       <c r="M9" t="n">
-        <v>6.407292704136751e-05</v>
+        <v>6.379931799042425e-06</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="O9" t="n">
-        <v>0.08428164142479672</v>
+        <v>7.613934174537426</v>
       </c>
       <c r="P9" t="n">
-        <v>0.08410894893488824</v>
+        <v>7.615129443887614</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001297358581795104</v>
+        <v>-3.222221875120374e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.0002816861817922553</v>
+        <v>3.717198794312844e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.088237746644962</v>
+        <v>2020.331156629989</v>
       </c>
       <c r="T9" t="n">
-        <v>1.089011129732181</v>
+        <v>2026.783374863337</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>45449.66666666666</v>
+        <v>45331.875</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>45449.66666666666</v>
+        <v>45331.875</v>
       </c>
       <c r="W9" t="n">
-        <v>0.0001304848484866561</v>
+        <v>-0.5787878787905356</v>
       </c>
       <c r="X9" t="n">
-        <v>-5.26481028839676e-05</v>
+        <v>-2.466863642768431</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.08769212121212</v>
+        <v>2022.638727272727</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.0007453858277916549</v>
+        <v>-9.20061289662647e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>-0.001027922756592054</v>
+        <v>-7.992790117469313e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.087432545454547</v>
+        <v>2022.662969696969</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.086368629090752</v>
+        <v>2024.421458742887</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.090035030648973</v>
+        <v>2044.523101790278</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.086135200078903</v>
+        <v>2025.221972076289</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.087840927167743</v>
+        <v>2044.686468577829</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.002295871537262477</v>
+        <v>-7.991390533882751e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.000165710512508994</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
+        <v>-0.0001044433855889168</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2033.053569243917</v>
+      </c>
       <c r="AJ9" t="n">
-        <v>1.087893568274615</v>
+        <v>2025.297460450186</v>
       </c>
       <c r="AK9" t="n">
-        <v>32.34678811310194</v>
+        <v>17.93660169324642</v>
       </c>
       <c r="AL9" t="n">
-        <v>32.98488028883779</v>
+        <v>13.20895327568888</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.122043049810685e-05</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1.08612</v>
-      </c>
+        <v>-1.627668345413515</v>
+      </c>
+      <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="n">
         <v>-1</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.087898803849131</v>
+        <v>2028.581930784905</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>bearish</t>
         </is>
       </c>
       <c r="AR9" t="n">
-        <v>1.090423921677296</v>
+        <v>2031.630028044611</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.085469386846551</v>
+        <v>2024.541763446304</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.088030522875817</v>
+        <v>2031.582538613859</v>
       </c>
       <c r="AU9" t="n">
         <v>-1</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.08428164142479672</v>
+        <v>7.615129443887614</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.08410894893488824</v>
-      </c>
-      <c r="AX9" s="2" t="n">
-        <v>45449.66666666666</v>
-      </c>
-      <c r="AY9" s="2" t="n">
-        <v>45449.66666666666</v>
+        <v>7.616888209093872</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>2028.08279901189</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>2025.029968457218</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.087985853602307</v>
+        <v>2032.140123359342</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.429657293405864e-05</v>
+        <v>7.615129443887614</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.085266748390844</v>
+        <v>7.616888209093872</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0001632895221266564</v>
+        <v>2023.288534848401</v>
       </c>
       <c r="BD9" t="n">
-        <v>1.0885441230526</v>
-      </c>
-      <c r="BE9" t="inlineStr"/>
-      <c r="BF9" t="n">
-        <v>1.088077023809524</v>
+        <v>2032.923471274815</v>
+      </c>
+      <c r="BE9" s="2" t="n">
+        <v>45331.83333333334</v>
+      </c>
+      <c r="BF9" s="2" t="n">
+        <v>45331.83333333334</v>
       </c>
       <c r="BG9" t="n">
-        <v>1.089141758518267</v>
+        <v>2027.177351148141</v>
       </c>
       <c r="BH9" t="n">
-        <v>1.087012289100782</v>
+        <v>1.315270113823697e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>1.087918120190611</v>
+        <v>2020.192571377763</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.087843550840108</v>
+        <v>-9.895412487396947e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>1.087866424489795</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>2.841991754820583e-05</v>
+        <v>2037.217990574717</v>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM9" t="n">
-        <v>6.082789044385185e-05</v>
+        <v>2026.365833333335</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0005715903739185515</v>
+        <v>2034.040047299598</v>
       </c>
       <c r="BO9" t="n">
-        <v>5.272508996068126e-07</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>-4.70108043271189e-06</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>-9.038511404613203e-05</v>
-      </c>
+        <v>2018.691619367072</v>
+      </c>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
       <c r="BR9" t="n">
-        <v>1.088723810050673</v>
+        <v>2024.114732799012</v>
       </c>
       <c r="BS9" t="n">
-        <v>1.087009038928917</v>
+        <v>2025.061221574218</v>
       </c>
       <c r="BT9" t="n">
-        <v>43.17817623242237</v>
+        <v>2024.527857142858</v>
       </c>
       <c r="BU9" t="n">
-        <v>37.2633880395037</v>
-      </c>
-      <c r="BV9" t="inlineStr"/>
-      <c r="BW9" t="b">
-        <v>1</v>
-      </c>
-      <c r="BX9" t="b">
-        <v>0</v>
+        <v>-0.7641154287532572</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>-1.280790887318559</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0.916603461127114</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0.2121428571440447</v>
       </c>
       <c r="BY9" t="n">
-        <v>0</v>
+        <v>0.4128571428559553</v>
       </c>
       <c r="BZ9" t="n">
-        <v>1.09845</v>
+        <v>-0.06642857142810499</v>
       </c>
       <c r="CA9" t="n">
-        <v>1.08865</v>
+        <v>2025.444460603985</v>
       </c>
       <c r="CB9" t="n">
-        <v>1.08945</v>
+        <v>2023.61125368173</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.08995</v>
+        <v>74.90326147042582</v>
       </c>
       <c r="CD9" t="n">
-        <v>0</v>
+        <v>63.53072931850497</v>
       </c>
       <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="inlineStr"/>
+      <c r="CK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>2016</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>2021.996</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>2021.9952</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>2020.994</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS9" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG9" t="inlineStr"/>
-      <c r="CH9" t="inlineStr"/>
-      <c r="CI9" s="2" t="n">
-        <v>45449.88057870371</v>
-      </c>
-      <c r="CJ9" s="2" t="n">
-        <v>45449.70833333334</v>
-      </c>
-      <c r="CK9" t="n">
-        <v>1.08845</v>
-      </c>
-      <c r="CL9" s="2" t="n">
-        <v>45449.88057870371</v>
-      </c>
-      <c r="CM9" t="n">
-        <v>1.08868</v>
-      </c>
-      <c r="CN9" t="n">
+      <c r="CT9" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU9" s="2" t="n">
+        <v>45334.61458333334</v>
+      </c>
+      <c r="CV9" s="2" t="n">
+        <v>45334.68082175926</v>
+      </c>
+      <c r="CW9" s="2" t="n">
+        <v>45334.56563657407</v>
+      </c>
+      <c r="CX9" s="2" t="n">
+        <v>45331.89583333334</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="CZ9" s="2" t="n">
+        <v>45334.56563657407</v>
+      </c>
+      <c r="DA9" t="n">
+        <v>2022</v>
+      </c>
+      <c r="DB9" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO9" t="inlineStr">
+      <c r="DC9" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="CP9" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ9" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="CR9" t="n">
-        <v>723.08</v>
-      </c>
-      <c r="CS9" t="n">
-        <v>7</v>
-      </c>
-      <c r="CT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV9" t="n">
+      <c r="DD9" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE9" t="n">
+        <v>54.75</v>
+      </c>
+      <c r="DF9" t="n">
+        <v>740.4699999999999</v>
+      </c>
+      <c r="DG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI9" t="n">
         <v>6</v>
+      </c>
+      <c r="DJ9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>112</v>
+        <v>723</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45450.66666666666</v>
+        <v>45334.88541666666</v>
       </c>
       <c r="C10" t="n">
-        <v>1.08324</v>
+        <v>2020.73</v>
       </c>
       <c r="D10" t="n">
-        <v>1.08351</v>
+        <v>2020.89</v>
       </c>
       <c r="E10" t="n">
-        <v>1.08171</v>
+        <v>2018.56</v>
       </c>
       <c r="F10" t="n">
-        <v>1.08187</v>
+        <v>2019.04</v>
       </c>
       <c r="G10" t="n">
-        <v>8019</v>
+        <v>1145</v>
       </c>
       <c r="H10" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.08167381137699</v>
+        <v>2018.563690454629</v>
       </c>
       <c r="K10" t="n">
-        <v>1.08351</v>
+        <v>2020.869950221942</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0006411377431665016</v>
+        <v>-1.168228169839341e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.0004212685298369562</v>
+        <v>5.991080199929842e-06</v>
       </c>
       <c r="N10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.08241774543663689</v>
+        <v>7.610386705936958</v>
       </c>
       <c r="P10" t="n">
-        <v>0.08242003875162374</v>
+        <v>7.610657119184877</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.0001093281193890603</v>
+        <v>9.034928026152808e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0008047604493105893</v>
+        <v>0.0002595543542802087</v>
       </c>
       <c r="S10" t="n">
-        <v>1.089251628251424</v>
+        <v>2012.621060519108</v>
       </c>
       <c r="T10" t="n">
-        <v>1.090934363977159</v>
+        <v>2019.745918645702</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>45450.66666666666</v>
+        <v>45334.875</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>45450.66666666666</v>
+        <v>45334.875</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.001685151515152139</v>
+        <v>1.307393939391886</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.0005255338945575616</v>
+        <v>-1.55368073287741</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.085582787878788</v>
+        <v>2017.780363636363</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0005730157556473992</v>
+        <v>-8.548293671251861e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.005962767133466182</v>
+        <v>-0.000129198738652176</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.087434484848484</v>
+        <v>2017.445696969694</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.082281197544668</v>
+        <v>2020.137326217511</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.089478678938716</v>
+        <v>2043.041071173065</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.088152389799855</v>
+        <v>2020.310070591396</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.09010960477416</v>
+        <v>2042.535265776597</v>
       </c>
       <c r="AG10" t="n">
-        <v>-0.0001192621276054424</v>
+        <v>-0.0001130880483284827</v>
       </c>
       <c r="AH10" t="n">
-        <v>-0.005831563694808713</v>
-      </c>
-      <c r="AI10" t="inlineStr"/>
+        <v>-8.547596044723398e-05</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>2028.678999662686</v>
+      </c>
       <c r="AJ10" t="n">
-        <v>1.087677397521875</v>
+        <v>2018.933730893131</v>
       </c>
       <c r="AK10" t="n">
-        <v>42.87825268721127</v>
+        <v>44.91921768707488</v>
       </c>
       <c r="AL10" t="n">
-        <v>47.59307439214202</v>
+        <v>28.79997112106598</v>
       </c>
       <c r="AM10" t="n">
-        <v>4.080571869609289e-05</v>
+        <v>-1.830840020258683</v>
       </c>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="n">
         <v>-1</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.088660828387117</v>
+        <v>2020.37193293921</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
@@ -3457,173 +3875,4363 @@
         </is>
       </c>
       <c r="AR10" t="n">
-        <v>1.09084539622704</v>
+        <v>2023.485252979055</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.085391521662378</v>
+        <v>2016.789803450468</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08776477124183</v>
+        <v>2027.372588118809</v>
       </c>
       <c r="AU10" t="n">
         <v>-1</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.08241774543663689</v>
+        <v>7.610657119184877</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.08242003875162374</v>
-      </c>
-      <c r="AX10" s="2" t="n">
-        <v>45450.66666666666</v>
-      </c>
-      <c r="AY10" s="2" t="n">
-        <v>45450.66666666666</v>
+        <v>7.613038661846105</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>2020.134754327183</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>2017.015946849771</v>
       </c>
       <c r="AZ10" t="n">
-        <v>1.084783065336828</v>
+        <v>2023.73350284302</v>
       </c>
       <c r="BA10" t="n">
-        <v>-0.0004498392108232985</v>
+        <v>7.610657119184877</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.086681657306364</v>
+        <v>7.613038661846105</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.332381491114425e-07</v>
+        <v>1995.059808099603</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.090118704406646</v>
-      </c>
-      <c r="BE10" t="inlineStr"/>
-      <c r="BF10" t="n">
-        <v>1.084685595238095</v>
+        <v>2043.322018020221</v>
+      </c>
+      <c r="BE10" s="2" t="n">
+        <v>45334.83333333334</v>
+      </c>
+      <c r="BF10" s="2" t="n">
+        <v>45334.83333333334</v>
       </c>
       <c r="BG10" t="n">
-        <v>1.089106705110062</v>
+        <v>2020.671811349082</v>
       </c>
       <c r="BH10" t="n">
-        <v>1.080264485366128</v>
+        <v>-0.0006952612873183377</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.087255135863499</v>
+        <v>2013.744606458593</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1.087966835015168</v>
+        <v>-0.0007954861736199593</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.088476595918368</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>-0.001417745902519973</v>
+        <v>2028.068379772324</v>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
       </c>
       <c r="BM10" t="n">
-        <v>-0.0002673187854980744</v>
+        <v>2019.567261904762</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.002816128942755478</v>
+        <v>2025.456329105938</v>
       </c>
       <c r="BO10" t="n">
-        <v>-0.0005296081632639726</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>-0.0004306857142872822</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>8.270060023929382e-05</v>
-      </c>
+        <v>2013.678194703585</v>
+      </c>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
       <c r="BR10" t="n">
-        <v>1.092700789332501</v>
+        <v>2018.779884795925</v>
       </c>
       <c r="BS10" t="n">
-        <v>1.084252402504235</v>
+        <v>2018.565508074312</v>
       </c>
       <c r="BT10" t="n">
-        <v>31.52984755689277</v>
+        <v>2020.25</v>
       </c>
       <c r="BU10" t="n">
-        <v>43.86918189294983</v>
-      </c>
-      <c r="BV10" t="inlineStr"/>
-      <c r="BW10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BX10" t="b">
-        <v>1</v>
+        <v>0.2673471196012542</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>-0.3610510355843919</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>1.194515243471288</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>-0.455000000000382</v>
       </c>
       <c r="BY10" t="n">
-        <v>1</v>
+        <v>0.35214285714369</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.07187</v>
+        <v>0.7757142857133204</v>
       </c>
       <c r="CA10" t="n">
-        <v>1.075270000000001</v>
+        <v>2021.444515243471</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.074470000000001</v>
+        <v>2019.055484756529</v>
       </c>
       <c r="CC10" t="n">
-        <v>1.072370000000001</v>
+        <v>88.65979381443323</v>
       </c>
       <c r="CD10" t="n">
-        <v>1</v>
+        <v>92.7431337812413</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="inlineStr"/>
+      <c r="CK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>2010.04</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>2022.04</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>2016.04</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>2015.04</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS10" t="n">
         <v>0.01</v>
       </c>
-      <c r="CF10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CG10" s="2" t="n">
-        <v>45454.70833333334</v>
-      </c>
-      <c r="CH10" s="2" t="n">
-        <v>45457.40106481482</v>
-      </c>
-      <c r="CI10" s="2" t="n">
-        <v>45453.7928125</v>
-      </c>
-      <c r="CJ10" s="2" t="n">
-        <v>45450.70833333334</v>
-      </c>
-      <c r="CK10" t="n">
-        <v>1.08187</v>
-      </c>
-      <c r="CL10" s="2" t="n">
-        <v>45453.7928125</v>
-      </c>
-      <c r="CM10" t="n">
-        <v>1.07523</v>
-      </c>
-      <c r="CN10" t="n">
+      <c r="CT10" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU10" s="2" t="n">
+        <v>45335.65625</v>
+      </c>
+      <c r="CV10" s="2" t="n">
+        <v>45335.65795138889</v>
+      </c>
+      <c r="CW10" s="2" t="n">
+        <v>45335.34979166667</v>
+      </c>
+      <c r="CX10" s="2" t="n">
+        <v>45334.89583333334</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>2019.04</v>
+      </c>
+      <c r="CZ10" s="2" t="n">
+        <v>45335.34979166667</v>
+      </c>
+      <c r="DA10" t="n">
+        <v>2022.03</v>
+      </c>
+      <c r="DB10" t="n">
         <v>0.01</v>
       </c>
-      <c r="CO10" t="inlineStr">
+      <c r="DC10" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE10" t="n">
+        <v>-54.58</v>
+      </c>
+      <c r="DF10" t="n">
+        <v>685.8899999999999</v>
+      </c>
+      <c r="DG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>45334.96875</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2020.28</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2019.75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2019.84</v>
+      </c>
+      <c r="G11" t="n">
+        <v>130</v>
+      </c>
+      <c r="H11" t="n">
+        <v>30</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2018.778632038152</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2020.384732320998</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-3.882444295938261e-05</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3.21784390838528e-05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>7.609943378176649</v>
+      </c>
+      <c r="P11" t="n">
+        <v>7.610657119184877</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>7.719415333514914e-05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.000142383305918346</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2016.49716277049</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2021.263227790303</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>45334.95833333334</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>45334.95833333334</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.686545454545012</v>
+      </c>
+      <c r="X11" t="n">
+        <v>-1.099757740567384</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2019.221757575756</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-8.548403915509305e-05</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.0001603498737269563</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>2018.466909090908</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>2019.79188525555</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>2043.811057453503</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>2019.964642622203</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2043.484797729572</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.0001453891889957393</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>-8.546998151939573e-05</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2028.331574913634</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>2019.277935972388</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>53.231292517007</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>49.97165532879831</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-1.609770936518566</v>
+      </c>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>2019.994685009112</v>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AR11" t="n">
+        <v>2023.194400581997</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>2016.539357075002</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2026.965037623759</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>7.610657119184877</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>7.613038661846105</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>2019.86413795269</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>2016.659834014849</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>2023.335050682135</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>7.610657119184877</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>7.613038661846105</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1994.535229490428</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2040.731212303313</v>
+      </c>
+      <c r="BE11" s="2" t="n">
+        <v>45334.83333333334</v>
+      </c>
+      <c r="BF11" s="2" t="n">
+        <v>45334.83333333334</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>2020.671811349082</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>-0.0006952612873183377</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>2013.744606458593</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>-0.0007954861736199593</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2028.068379772324</v>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="BM11" t="n">
+        <v>2019.567261904762</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>2025.456329105938</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>2013.678194703585</v>
+      </c>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="n">
+        <v>2019.470293784538</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>2019.075548222198</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>2019.907857142857</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>0.390451637562137</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>0.2366887576395912</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>0.3643650710226081</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>0.0892857142853245</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>0.1221428571425349</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>0.2885714285712311</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>2020.27222221388</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>2019.543492071834</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>62.31722893456121</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>65.33951746682293</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="inlineStr"/>
+      <c r="CK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>2010.84</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>2022.84</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>2016.84</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>2015.84</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT11" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU11" s="2" t="n">
+        <v>45335.65625</v>
+      </c>
+      <c r="CV11" s="2" t="n">
+        <v>45335.65486111111</v>
+      </c>
+      <c r="CW11" s="2" t="n">
+        <v>45335.36521990741</v>
+      </c>
+      <c r="CX11" s="2" t="n">
+        <v>45334.97916666666</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>2019.84</v>
+      </c>
+      <c r="CZ11" s="2" t="n">
+        <v>45335.36521990741</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>2022.76</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC11" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>-53.3</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>632.5899999999999</v>
+      </c>
+      <c r="DG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>1038</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2004.4</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2004.64</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2003.87</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2003.9</v>
+      </c>
+      <c r="G12" t="n">
+        <v>373</v>
+      </c>
+      <c r="H12" t="n">
+        <v>29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2002.578833787093</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2005.87175000912</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.269703792682929e-05</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4.139414858200844e-05</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7.602857845704666</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7.602082250664571</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-2.836568075180579e-05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.426232334797793e-05</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2003.007182932688</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2005.268169100642</v>
+      </c>
+      <c r="U12" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="V12" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.1428484848474909</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1.474352773856253</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2004.051393939395</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.0002118436965044104</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.0001180224864467854</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>2004.042787878788</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>1978.007717243248</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1999.543487338964</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>1977.941536775195</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1999.307463601109</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.0001180186914974297</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.000200262793539649</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>2005.659890013041</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>2003.816866393173</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>61.45905470224255</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>65.98470971531685</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.873947849680504</v>
+      </c>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>2002.762659629569</v>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR12" t="n">
+        <v>2006.729993411455</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>1999.196204141112</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2000.196370297025</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>7.601692608310762</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>7.598937313861398</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>2002.959556647188</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>1998.991031738673</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>2006.541403698938</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>7.601666230046426</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>7.598937313861398</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1990.89425337842</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2018.088047123189</v>
+      </c>
+      <c r="BE12" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="BF12" s="2" t="n">
+        <v>45338.33333333334</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>2003.626764777265</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>0.0009356383281851196</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1998.21435109726</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>0.001079886479441291</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>2011.649475827845</v>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM12" t="n">
+        <v>2005.789404761906</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>2014.54908640566</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>1997.029723118152</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>7.602384396834289</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>7.607892232033866</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>2003.990663458922</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>2003.875803475482</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>2004.069285714286</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0.0834011461213322</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>0.1195606181082423</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>0.3140973466808548</v>
+      </c>
+      <c r="BX12" t="n">
+        <v>-0.02642857142836874</v>
+      </c>
+      <c r="BY12" t="n">
+        <v>0.2000000000005002</v>
+      </c>
+      <c r="BZ12" t="n">
+        <v>0.2471428571429897</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>2004.383383060967</v>
+      </c>
+      <c r="CB12" t="n">
+        <v>2003.755188367605</v>
+      </c>
+      <c r="CC12" t="n">
+        <v>52.40549828179085</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>44.24898946593785</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>-100</v>
+      </c>
+      <c r="CJ12" t="inlineStr"/>
+      <c r="CK12" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>2012.9</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>2000.9</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>2006.9</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>2007.9</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT12" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="2" t="n">
+        <v>45338.73958333334</v>
+      </c>
+      <c r="CV12" s="2" t="n">
+        <v>45338.82579861111</v>
+      </c>
+      <c r="CW12" s="2" t="n">
+        <v>45338.64590277777</v>
+      </c>
+      <c r="CX12" s="2" t="n">
+        <v>45338.34375</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>2003.9</v>
+      </c>
+      <c r="CZ12" s="2" t="n">
+        <v>45338.64590277777</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>2001.24</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC12" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>-48.56</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>584.03</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>7</v>
+      </c>
+      <c r="DJ12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>1391</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>45344.29166666666</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2028.79</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2029.88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2028.52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2029.65</v>
+      </c>
+      <c r="G13" t="n">
+        <v>475</v>
+      </c>
+      <c r="H13" t="n">
+        <v>29</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2028.069920075753</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2030.15852687949</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.86290678299101e-06</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0001903043252450522</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>7.614559326899323</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7.613356350664382</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4.892224234954263e-05</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7.900463068444154e-06</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2025.281841545517</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2028.729583542507</v>
+      </c>
+      <c r="U13" s="2" t="n">
+        <v>45344.29166666666</v>
+      </c>
+      <c r="V13" s="2" t="n">
+        <v>45344.29166666666</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.7853333333334831</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.3104041872663856</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>2027.895272727274</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>7.164540099723411e-05</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>4.692781395884027e-05</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>2027.710121212121</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>2013.825321181242</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2029.424929093667</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>2013.680864753653</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2029.329724708992</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>4.692507108298408e-05</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>7.164525639652247e-05</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>2020.485416520795</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>2027.113485596539</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>68.8897830957781</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>63.58826103192623</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-0.1114244210503508</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2021.723412020863</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>2026.289581996966</v>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR13" t="n">
+        <v>2029.932873540176</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>2022.95056717612</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2023.307287128705</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>7.614041634115588</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7.612602123969326</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>2026.438713077094</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>2022.797724839551</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>2029.787466977261</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>7.61342759833792</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>7.612602123969326</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>2010.070706225861</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2034.192727672998</v>
+      </c>
+      <c r="BE13" s="2" t="n">
+        <v>45344.16666666666</v>
+      </c>
+      <c r="BF13" s="2" t="n">
+        <v>45344.16666666666</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>2026.987986134592</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>-0.0002139321945331277</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>2020.116687861959</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>-0.0001434468656901058</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2031.096689657427</v>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM13" t="n">
+        <v>2026.814761904762</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>2030.441978813081</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>2023.187544996442</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>7.610730401034197</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>7.604872557005848</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>2027.645516752684</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>2026.956128269914</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>2028.781428571428</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0.6229006288699566</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>0.4252480944868976</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>1.316646172242896</v>
+      </c>
+      <c r="BX13" t="n">
+        <v>0.7999999999999545</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>0.6364285714280413</v>
+      </c>
+      <c r="BZ13" t="n">
+        <v>0.6857142857145391</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>2030.098074743671</v>
+      </c>
+      <c r="CB13" t="n">
+        <v>2027.464782399185</v>
+      </c>
+      <c r="CC13" t="n">
+        <v>96.35740036946696</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>81.86680900952251</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="inlineStr"/>
+      <c r="CK13" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>2038.65</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>2032.65</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>2032.6508</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>2033.651</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT13" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU13" s="2" t="n">
+        <v>45344.4375</v>
+      </c>
+      <c r="CV13" s="2" t="n">
+        <v>45345.79179398148</v>
+      </c>
+      <c r="CW13" s="2" t="n">
+        <v>45344.43138888889</v>
+      </c>
+      <c r="CX13" s="2" t="n">
+        <v>45344.30208333334</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>2029.65</v>
+      </c>
+      <c r="CZ13" s="2" t="n">
+        <v>45344.43138888889</v>
+      </c>
+      <c r="DA13" t="n">
+        <v>2032.78</v>
+      </c>
+      <c r="DB13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC13" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="CP10" t="b">
-        <v>1</v>
-      </c>
-      <c r="CQ10" t="n">
-        <v>121.76</v>
-      </c>
-      <c r="CR10" t="n">
-        <v>844.84</v>
-      </c>
-      <c r="CS10" t="n">
+      <c r="DD13" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE13" t="n">
+        <v>57.12</v>
+      </c>
+      <c r="DF13" t="n">
+        <v>641.15</v>
+      </c>
+      <c r="DG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI13" t="n">
         <v>8</v>
       </c>
-      <c r="CT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU10" t="n">
-        <v>23</v>
-      </c>
-      <c r="CV10" t="n">
-        <v>6</v>
+      <c r="DJ13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>1395</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2028.33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2030.06</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2028.23</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2029.9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>609</v>
+      </c>
+      <c r="H14" t="n">
+        <v>29</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2028.250016176335</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2035.614536658305</v>
+      </c>
+      <c r="L14" t="n">
+        <v>6.338181646943948e-06</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-5.00278695106578e-05</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7.614618478003212</v>
+      </c>
+      <c r="P14" t="n">
+        <v>7.613324332931473</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4.892296643088853e-05</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.096833795850085e-05</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2025.324819180149</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2029.126644337542</v>
+      </c>
+      <c r="U14" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="V14" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.1851515151524836</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.4468454621915043</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2028.581151515151</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>7.164631085379007e-05</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4.693456036176677e-05</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>2027.895272727274</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>2013.969540374847</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>2029.520026390515</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>2013.825321181242</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2029.424929093667</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>4.692781395884027e-05</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.164540099723411e-05</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>2020.656992431275</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>2027.566044352864</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>73.76536179948134</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>67.7870544712594</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.0002295555980202368</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2022.290339059194</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>2026.438713077094</v>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR14" t="n">
+        <v>2030.14780358224</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>2023.17140328887</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2023.510924752467</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>7.614115519190356</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>7.61264182541448</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>2026.656601562607</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>2022.95056717612</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>2029.932873540176</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>7.614041634115588</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>7.612602123969326</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>2009.369141963967</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2034.388763960186</v>
+      </c>
+      <c r="BE14" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BF14" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>2028.048657423061</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-0.0002654629968653111</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>2019.620272803587</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>-0.0001723088367252436</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2030.534680553838</v>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM14" t="n">
+        <v>2027.548095238095</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>2031.427672856857</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>2023.668517619333</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>7.611381995072737</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>2028.32989849011</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>2027.503016337533</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>2029.160714285714</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0.7402171878277386</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0.5841229247241493</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0.5939656876425735</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0.2728571428588111</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>-0.272142857145127</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0.03285714285743779</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>2029.754679973357</v>
+      </c>
+      <c r="CB14" t="n">
+        <v>2028.566748598072</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>78.91503167790621</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>78.68596294025285</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="inlineStr"/>
+      <c r="CK14" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL14" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>2038.9</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>2032.9</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>2032.9008</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>2033.901</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT14" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU14" s="2" t="n">
+        <v>45345.78125</v>
+      </c>
+      <c r="CV14" s="2" t="n">
+        <v>45345.79201388889</v>
+      </c>
+      <c r="CW14" s="2" t="n">
+        <v>45344.43018518519</v>
+      </c>
+      <c r="CX14" s="2" t="n">
+        <v>45344.34375</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>2029.9</v>
+      </c>
+      <c r="CZ14" s="2" t="n">
+        <v>45344.43018518519</v>
+      </c>
+      <c r="DA14" t="n">
+        <v>2032.89</v>
+      </c>
+      <c r="DB14" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC14" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="DD14" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE14" t="n">
+        <v>54.57</v>
+      </c>
+      <c r="DF14" t="n">
+        <v>695.72</v>
+      </c>
+      <c r="DG14" t="n">
+        <v>2</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>1399</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>45344.375</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2029.21</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2030.44</v>
+      </c>
+      <c r="E15" t="n">
+        <v>2028.75</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2029.84</v>
+      </c>
+      <c r="G15" t="n">
+        <v>778</v>
+      </c>
+      <c r="H15" t="n">
+        <v>29</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2028.75</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2036.372455712063</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-4.685048169693622e-05</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.0001721895424151472</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7.615109272335939</v>
+      </c>
+      <c r="P15" t="n">
+        <v>7.613427767450403</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>9.14570664721842e-05</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.0001295667269014688</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2025.561584393235</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2029.251814793974</v>
+      </c>
+      <c r="U15" s="2" t="n">
+        <v>45344.375</v>
+      </c>
+      <c r="V15" s="2" t="n">
+        <v>45344.375</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.6858787878773001</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.6234753445548904</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2029.548242424244</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7.165122391241169e-05</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4.692958615607654e-05</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>2028.581151515151</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>2014.113476397441</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>2029.615465711436</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>2013.969540374847</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2029.520026390515</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>4.693456036176677e-05</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.164631085379007e-05</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>2020.868735155408</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>2028.406923385561</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>84.74614092262182</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>75.80042860596045</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.1248787133893943</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2023.049305153275</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>2026.656601562607</v>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR15" t="n">
+        <v>2030.535745869823</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>2023.558635816642</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2023.753346534646</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>7.61443106623647</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>7.613046104344306</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>2027.044188933549</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>2023.17140328887</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>2030.14780358224</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>7.614115519190356</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>7.61264182541448</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>2008.762992431423</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2034.58415504122</v>
+      </c>
+      <c r="BE15" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BF15" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2028.048657423061</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-0.0002654629968653111</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2019.620272803587</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-0.0001723088367252436</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2030.534680553838</v>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM15" t="n">
+        <v>2027.548095238095</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>2031.427672856857</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>2023.668517619333</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>7.611381995072737</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>2028.844733160383</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>2027.998949454124</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>2029.47</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0.7486131851844675</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>0.6790146712231376</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>0.6438093477015733</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>0.2571428571429806</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>0.06642857142924186</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>-0.2328571428583928</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>2030.113809347702</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>2028.826190652298</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>75.32808398950108</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>79.27822998593444</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="inlineStr"/>
+      <c r="CK15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>2038.84</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>2032.84</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>2032.8408</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>2033.841</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT15" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU15" s="2" t="n">
+        <v>45345.78125</v>
+      </c>
+      <c r="CV15" s="2" t="n">
+        <v>45345.79193287037</v>
+      </c>
+      <c r="CW15" s="2" t="n">
+        <v>45344.43019675926</v>
+      </c>
+      <c r="CX15" s="2" t="n">
+        <v>45344.38541666666</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>2029.84</v>
+      </c>
+      <c r="CZ15" s="2" t="n">
+        <v>45344.43019675926</v>
+      </c>
+      <c r="DA15" t="n">
+        <v>2032.87</v>
+      </c>
+      <c r="DB15" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC15" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="DD15" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE15" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="DF15" t="n">
+        <v>751.02</v>
+      </c>
+      <c r="DG15" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>1409</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>45344.47916666666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2029.75</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2030.53</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2028.43</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2029.97</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1633</v>
+      </c>
+      <c r="H16" t="n">
+        <v>29</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2028.450209985322</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2031.625124188142</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.0001709368320650965</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-7.448616287462987e-05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>7.616211372647288</v>
+      </c>
+      <c r="P16" t="n">
+        <v>7.615454864968848</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.0002025651703894063</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9.852706813766363e-06</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2028.202493059632</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2032.581942568405</v>
+      </c>
+      <c r="U16" s="2" t="n">
+        <v>45344.45833333334</v>
+      </c>
+      <c r="V16" s="2" t="n">
+        <v>45344.45833333334</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1.296787878785153</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1.390021688377146</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>2031.012242424243</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>5.866344900350541e-05</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4.896457238075502e-05</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2030.845030303029</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2015.406603058904</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2029.767273452593</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>2014.258188295783</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2029.668184695815</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>4.895442139618426e-05</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>7.164849205935712e-05</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>2021.290713974919</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>2029.613324023364</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>90.43146154257222</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>87.75343870404772</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.5138690858637356</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2025.058050139998</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>2027.564292380347</v>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR16" t="n">
+        <v>2031.341257845071</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>2024.365022152368</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2024.233297029695</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>7.615164038602265</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>7.613918301749015</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>2027.850140034159</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>2024.075532585308</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>2031.059065510715</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>7.615110957031741</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>7.613749759636677</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>2008.755337076352</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>2033.606912100357</v>
+      </c>
+      <c r="BE16" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BF16" s="2" t="n">
+        <v>45344.33333333334</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>2028.048657423061</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-0.0002654629968653111</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2019.620272803587</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>-0.0001723088367252436</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2030.534680553838</v>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM16" t="n">
+        <v>2027.548095238095</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>2031.427672856857</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>2023.668517619333</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>7.611381995072737</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>2030.90308706953</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>2029.890184173413</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>2030.528571428572</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0.8740187456194235</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1.056323078192286</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>1.732232250992296</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>-0.8842857142835783</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>-1.182857142859575</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>-0.3449999999993452</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>2032.260803679564</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>2028.79633917758</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>33.59370845407211</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>47.89510947448287</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="inlineStr"/>
+      <c r="CK16" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>2038.97</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>2026.97</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>2032.97</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>2033.97</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT16" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU16" s="2" t="n">
+        <v>45345.78125</v>
+      </c>
+      <c r="CV16" s="2" t="n">
+        <v>45345.79208333333</v>
+      </c>
+      <c r="CW16" s="2" t="n">
+        <v>45344.63835648148</v>
+      </c>
+      <c r="CX16" s="2" t="n">
+        <v>45344.48958333334</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>2029.97</v>
+      </c>
+      <c r="CZ16" s="2" t="n">
+        <v>45344.63835648148</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>2026.89</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC16" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>-56.22</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>694.8</v>
+      </c>
+      <c r="DG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>1488</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>45345.34375</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2021.76</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2018.89</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2019.19</v>
+      </c>
+      <c r="G17" t="n">
+        <v>861</v>
+      </c>
+      <c r="H17" t="n">
+        <v>29</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2018.235247599388</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2022.070735614917</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-8.198734879274822e-05</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.101741070616703e-05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>7.612264455185356</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7.612391501183675</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>-9.36462922094371e-05</v>
+      </c>
+      <c r="R17" t="n">
+        <v>-0.0001582552363295941</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2022.532241199868</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2027.292682947182</v>
+      </c>
+      <c r="U17" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="V17" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="W17" t="n">
+        <v>-0.9063030303007054</v>
+      </c>
+      <c r="X17" t="n">
+        <v>-0.4241760003078525</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>2023.577939393941</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-2.88171057665273e-05</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.049504161696091e-05</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2024.853090909092</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2021.040773140955</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2031.680122238037</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>2020.311624400256</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2031.577097223851</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>5.050468974771079e-05</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>-9.232999270020387e-06</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>2022.349315704317</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2023.688138565551</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>62.16332061673214</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>63.14676437380711</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>-0.5064460192442892</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>2021.88747138476</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2024.792773921622</v>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AR17" t="n">
+        <v>2027.872033342041</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>2021.028709473762</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2025.308328712863</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>7.613101659032869</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7.614019895281078</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>2024.447479813492</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>2021.371367003534</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>2028.219971970172</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>7.613784918410484</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>7.614383975672242</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>2015.203613755601</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2041.88669060516</v>
+      </c>
+      <c r="BE17" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BF17" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>2021.909923285426</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>-3.381915235372978e-05</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2019.498364918487</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>-0.0003362292598785857</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2032.330316143562</v>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="BM17" t="n">
+        <v>2021.074404761905</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>2026.718602889185</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>2015.430206634624</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>7.613146885730318</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>2023.477584108293</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>2024.308210829386</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>2021.009285714287</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>-0.7790590996553419</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>-0.130398418927031</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>2.436024278580219</v>
+      </c>
+      <c r="BX17" t="n">
+        <v>-1.526428571427004</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>-0.8864285714280413</v>
+      </c>
+      <c r="BZ17" t="n">
+        <v>-0.932857142857074</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>2023.445309992867</v>
+      </c>
+      <c r="CB17" t="n">
+        <v>2018.573261435707</v>
+      </c>
+      <c r="CC17" t="n">
+        <v>3.244022642378533</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>7.962258653372875</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="inlineStr"/>
+      <c r="CK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>2010.19</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>2022.19</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>2016.19</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>2015.19</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT17" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="inlineStr"/>
+      <c r="CV17" t="inlineStr"/>
+      <c r="CW17" s="2" t="n">
+        <v>45345.41353009259</v>
+      </c>
+      <c r="CX17" s="2" t="n">
+        <v>45345.35416666666</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>2019.19</v>
+      </c>
+      <c r="CZ17" s="2" t="n">
+        <v>45345.41353009259</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>2022.29</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC17" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>-56.59</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>638.2099999999999</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1491</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>45345.375</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2020.89</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2021.02</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2019.49</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2020.51</v>
+      </c>
+      <c r="G18" t="n">
+        <v>715</v>
+      </c>
+      <c r="H18" t="n">
+        <v>29</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2016.694293816653</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2022.17544524913</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-3.491052835941113e-05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4.382948975872568e-05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>7.612027998471291</v>
+      </c>
+      <c r="P18" t="n">
+        <v>7.612183422784659</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.0001025603991946702</v>
+      </c>
+      <c r="R18" t="n">
+        <v>-0.0002028457194127471</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2021.897032567995</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2026.784319723663</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>45345.375</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>45345.375</v>
+      </c>
+      <c r="W18" t="n">
+        <v>-1.275151515151038</v>
+      </c>
+      <c r="X18" t="n">
+        <v>-0.7839222715429059</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>2022.868363636362</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-2.881623528253139e-05</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>5.050010580804461e-05</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>2023.577939393941</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>2020.982403245591</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>2031.782402072416</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>2021.040773140955</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2031.680122238037</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5.049504161696091e-05</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>-2.88171057665273e-05</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>2022.337646086409</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2023.259663328762</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>49.48220501286129</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>59.09771283798583</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>-0.5619412697040126</v>
+      </c>
+      <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2024.447479813492</v>
+      </c>
+      <c r="AQ18" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AR18" t="n">
+        <v>2027.606695643753</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>2020.771810645523</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2025.270532673259</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>7.613101659032869</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>7.614019895281078</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>2024.186368305304</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>2021.028709473762</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>2027.872033342041</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>7.613101659032869</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>7.614019895281078</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>2015.472727957711</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2041.833778446453</v>
+      </c>
+      <c r="BE18" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BF18" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>2021.909923285426</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>-3.381915235372978e-05</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>2019.498364918487</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>-0.0003362292598785857</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2032.330316143562</v>
+      </c>
+      <c r="BL18" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="BM18" t="n">
+        <v>2021.074404761905</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>2026.718602889185</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>2015.430206634624</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>7.613146885730318</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>2022.239546858506</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>2023.48363431434</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>2020.139285714284</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>-1.143818127804707</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>-0.5975410264935079</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1.326874236036558</v>
+      </c>
+      <c r="BX18" t="n">
+        <v>0.1042857142845151</v>
+      </c>
+      <c r="BY18" t="n">
+        <v>-0.05571428571397519</v>
+      </c>
+      <c r="BZ18" t="n">
+        <v>-0.9185714285733866</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>2021.466159950321</v>
+      </c>
+      <c r="CB18" t="n">
+        <v>2018.812411478248</v>
+      </c>
+      <c r="CC18" t="n">
+        <v>26.71451355661861</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>17.42475143370964</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="inlineStr"/>
+      <c r="CK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>2011.51</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>2023.51</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>2017.51</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>2016.51</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT18" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="inlineStr"/>
+      <c r="CV18" t="inlineStr"/>
+      <c r="CW18" s="2" t="n">
+        <v>45345.55755787037</v>
+      </c>
+      <c r="CX18" s="2" t="n">
+        <v>45345.38541666666</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>2020.51</v>
+      </c>
+      <c r="CZ18" s="2" t="n">
+        <v>45345.55755787037</v>
+      </c>
+      <c r="DA18" t="n">
+        <v>2023.38</v>
+      </c>
+      <c r="DB18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC18" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE18" t="n">
+        <v>-52.39</v>
+      </c>
+      <c r="DF18" t="n">
+        <v>585.8199999999999</v>
+      </c>
+      <c r="DG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>1495</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2021.84</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2022.53</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2020.11</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2020.58</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1479</v>
+      </c>
+      <c r="H19" t="n">
+        <v>29</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2011.646256948003</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2022.530000000001</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.0003031781040529164</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0001605986613581889</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>7.611595756584853</v>
+      </c>
+      <c r="P19" t="n">
+        <v>7.612183422784659</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.0001453223757534659</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-0.0002633249820662519</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2020.915689084343</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2025.880172433661</v>
+      </c>
+      <c r="U19" s="2" t="n">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="V19" s="2" t="n">
+        <v>45345.41666666666</v>
+      </c>
+      <c r="W19" t="n">
+        <v>-0.7095757575784774</v>
+      </c>
+      <c r="X19" t="n">
+        <v>-0.911057415321693</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>2021.46715151515</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-2.821838599716907e-05</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>4.254219727053473e-05</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>2022.868363636362</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>2020.884441291318</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>2032.344088993484</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>2020.982403245591</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2031.782402072416</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>5.050010580804461e-05</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>-2.881623528253139e-05</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>2022.279870916381</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2022.406404811259</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>35.25777793684044</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>48.96776785547799</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>-0.6317644988275487</v>
+      </c>
+      <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>2024.186368305304</v>
+      </c>
+      <c r="AQ19" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="AR19" t="n">
+        <v>2027.178177440935</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>2020.346885726836</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2025.184429702962</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>7.613101659032869</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>7.614019895281078</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>2023.759649169386</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>2020.771810645523</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>2027.606695643753</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>7.613101659032869</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>7.614019895281078</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>2015.696364400806</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2041.780679107031</v>
+      </c>
+      <c r="BE19" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BF19" s="2" t="n">
+        <v>45345.33333333334</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>2021.909923285426</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>-3.381915235372978e-05</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>2019.498364918487</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>-0.0003362292598785857</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2032.330316143562</v>
+      </c>
+      <c r="BL19" t="inlineStr">
+        <is>
+          <t>bearish</t>
+        </is>
+      </c>
+      <c r="BM19" t="n">
+        <v>2021.074404761905</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>2026.718602889185</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>2015.430206634624</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>7.613146885730318</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>7.605524151044389</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>2021.707528642393</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>2022.86824677441</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>2021.213571428571</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>-1.045363674110376</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>-0.8771513853418431</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0.7177511176113305</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>-0.2042857142846515</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0.5828571428569376</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.4542857142848788</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>2021.931322546183</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>2020.49582031096</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>38.60026485499563</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>37.83243066227644</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>-100</v>
+      </c>
+      <c r="CJ19" t="inlineStr"/>
+      <c r="CK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="b">
+        <v>1</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>2011.58</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>2017.58</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>2017.5792</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>2016.579</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT19" t="b">
+        <v>1</v>
+      </c>
+      <c r="CU19" t="inlineStr"/>
+      <c r="CV19" t="inlineStr"/>
+      <c r="CW19" s="2" t="n">
+        <v>45345.50344907407</v>
+      </c>
+      <c r="CX19" s="2" t="n">
+        <v>45345.42708333334</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>2020.58</v>
+      </c>
+      <c r="CZ19" s="2" t="n">
+        <v>45345.50344907407</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>2017.5</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC19" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="DD19" t="b">
+        <v>1</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>56.21</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>642.03</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1529</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>45345.77083333334</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2033.2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2037.79</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2033.19</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2037.25</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2835</v>
+      </c>
+      <c r="H20" t="n">
+        <v>29</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2033.19</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2042.720745217818</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.967383954131967e-05</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-8.002806708100223e-05</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7.615544566815403</v>
+      </c>
+      <c r="P20" t="n">
+        <v>7.614226056069715</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.000291724564707774</v>
+      </c>
+      <c r="R20" t="n">
+        <v>9.066570122679617e-05</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2023.386203696381</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2031.035728281439</v>
+      </c>
+      <c r="U20" s="2" t="n">
+        <v>45345.75</v>
+      </c>
+      <c r="V20" s="2" t="n">
+        <v>45345.75</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2.041090909090371</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1.01348118613123</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>2031.474727272727</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-5.574245982133481e-05</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.472745372354777e-05</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>2027.571818181819</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>2020.913727316209</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2032.756051933381</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>2021.026976549945</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2036.968191213195</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>-4.980369727782047e-05</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>-5.574623133027734e-05</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>2022.946207789466</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2028.578777602186</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>84.00025439032537</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>82.01040232532335</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>-0.1529159147982623</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2017.19020992</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>2024.166930017833</v>
+      </c>
+      <c r="AQ20" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR20" t="n">
+        <v>2028.748378477169</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>2021.843245521435</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2025.588201980189</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>7.614395328469872</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>7.614395328469872</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>2025.29286916402</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>2020.75510729116</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>2027.584513231898</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>7.612562177380967</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>7.613491879406407</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>2022.856373152634</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2041.356165299658</v>
+      </c>
+      <c r="BE20" s="2" t="n">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="BF20" s="2" t="n">
+        <v>45345.66666666666</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>2027.949965904634</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>-0.0004695827957503919</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>2016.285949564152</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>-0.0004014192152743249</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2030.220045422637</v>
+      </c>
+      <c r="BL20" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM20" t="n">
+        <v>2027.266547619047</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>2035.617069908101</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>2018.916025329992</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>7.614356841824844</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>7.606734107138914</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>2029.809207709087</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>2027.084639536897</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>2034.27</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>2.462081061385106</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1.57859365720623</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>4.148734172981404</v>
+      </c>
+      <c r="BX20" t="n">
+        <v>2.636428571429178</v>
+      </c>
+      <c r="BY20" t="n">
+        <v>1.384285714284033</v>
+      </c>
+      <c r="BZ20" t="n">
+        <v>2.096428571430124</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>2038.418734172982</v>
+      </c>
+      <c r="CB20" t="n">
+        <v>2030.121265827019</v>
+      </c>
+      <c r="CC20" t="n">
+        <v>92.09162748109922</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>87.2427421542621</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="inlineStr"/>
+      <c r="CK20" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>2046.25</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>2034.25</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>2040.25</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>2041.25</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT20" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU20" s="2" t="n">
+        <v>45351.65625</v>
+      </c>
+      <c r="CV20" s="2" t="n">
+        <v>45351.65627314815</v>
+      </c>
+      <c r="CW20" s="2" t="n">
+        <v>45348.04172453703</v>
+      </c>
+      <c r="CX20" s="2" t="n">
+        <v>45345.78125</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>2037.25</v>
+      </c>
+      <c r="CZ20" s="2" t="n">
+        <v>45348.04172453703</v>
+      </c>
+      <c r="DA20" t="n">
+        <v>2034.23</v>
+      </c>
+      <c r="DB20" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC20" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE20" t="n">
+        <v>-55.13</v>
+      </c>
+      <c r="DF20" t="n">
+        <v>586.9</v>
+      </c>
+      <c r="DG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>8</v>
+      </c>
+      <c r="DJ20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>45348.13541666666</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2032.13</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2032.92</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2031.41</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2032.53</v>
+      </c>
+      <c r="G21" t="n">
+        <v>819</v>
+      </c>
+      <c r="H21" t="n">
+        <v>32</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2029.890240699087</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2033.897533397094</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.923832132154204e-05</v>
+      </c>
+      <c r="M21" t="n">
+        <v>7.981312540993152e-06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>7.617728636024372</v>
+      </c>
+      <c r="P21" t="n">
+        <v>7.616575076309669</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.0001602220595250121</v>
+      </c>
+      <c r="R21" t="n">
+        <v>-0.0002053571814745889</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2033.754985906363</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2036.63102629461</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>45348.125</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>45348.125</v>
+      </c>
+      <c r="W21" t="n">
+        <v>-2.36460606060632</v>
+      </c>
+      <c r="X21" t="n">
+        <v>2.185444162301792</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>2033.378969696969</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-5.574632895982684e-05</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>9.434893772592173e-05</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>2035.390787878787</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2020.013022510661</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>2032.528523167081</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>2020.125147184759</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2032.336933014603</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>9.434718860140034e-05</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>-5.573990543395396e-05</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>2024.758001082906</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2033.002000033867</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67.9331356888373</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>75.11180848793589</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>2.536958193721985</v>
+      </c>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>2031.095073439879</v>
+      </c>
+      <c r="AQ21" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR21" t="n">
+        <v>2034.85747627006</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2027.853689605739</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2027.222199999991</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>7.616790926507472</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>7.615074295074439</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>2031.352564444701</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>2027.591734342739</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>2034.604465720518</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>7.616271866595852</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>7.615074295074439</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>2025.157983319227</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>2039.974505512572</v>
+      </c>
+      <c r="BE21" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="BF21" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>2030.69554040206</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.0002876254367881205</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2016.878758698241</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0.0003506289125805547</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2040.242753277309</v>
+      </c>
+      <c r="BL21" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM21" t="n">
+        <v>2031.899523809523</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>2041.482557775861</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>2022.316489843184</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>7.614955214375168</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>7.607106566712421</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>2033.015790714464</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>2033.654158460875</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>2031.471428571428</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>-0.6686840205418321</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>-0.1145039022589116</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>1.365161773053625</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0.3371428571422257</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0.08785714285795621</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>-0.978571428571513</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>2032.836590344482</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>2030.106266798374</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>26.69181405247001</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>14.64329448426938</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="inlineStr"/>
+      <c r="CK21" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>2041.53</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>2029.53</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>2035.53</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>2036.53</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT21" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU21" s="2" t="n">
+        <v>45349.4375</v>
+      </c>
+      <c r="CV21" s="2" t="n">
+        <v>45351.65018518519</v>
+      </c>
+      <c r="CW21" s="2" t="n">
+        <v>45348.67581018519</v>
+      </c>
+      <c r="CX21" s="2" t="n">
+        <v>45348.14583333334</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>2032.53</v>
+      </c>
+      <c r="CZ21" s="2" t="n">
+        <v>45348.67581018519</v>
+      </c>
+      <c r="DA21" t="n">
+        <v>2030.05</v>
+      </c>
+      <c r="DB21" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC21" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE21" t="n">
+        <v>-45.27</v>
+      </c>
+      <c r="DF21" t="n">
+        <v>541.63</v>
+      </c>
+      <c r="DG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>2</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>9</v>
+      </c>
+      <c r="DJ21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>1595</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>45348.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2032.99</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2035.33</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2032.85</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2035.25</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1232</v>
+      </c>
+      <c r="H22" t="n">
+        <v>29</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2032.385269338266</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2037.42745457731</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.0001877065604367152</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.0001079834219060182</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>7.617960345734839</v>
+      </c>
+      <c r="P22" t="n">
+        <v>7.617489989209924</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.0001219697813786066</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.147564326662395e-05</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2031.897913720681</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2035.613393388447</v>
+      </c>
+      <c r="U22" s="2" t="n">
+        <v>45348.5</v>
+      </c>
+      <c r="V22" s="2" t="n">
+        <v>45348.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.3310303030300474</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.8308337107325769</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>2033.451272727274</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>-2.679154707455953e-05</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>9.618746231633354e-05</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>2033.841515151514</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>2017.399509897484</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>2034.119228675328</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>2018.120232095425</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2033.922995099703</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>9.619389528491774e-05</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>-3.843241149244475e-05</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>2026.083709174937</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>2032.972683474365</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>37.25718725718777</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>37.09414949031596</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1.171446761542935</v>
+      </c>
+      <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>2032.862211281823</v>
+      </c>
+      <c r="AQ22" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="AR22" t="n">
+        <v>2036.320042405718</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>2029.401072056676</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2028.362601980188</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>7.616356089058862</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>7.615074295074439</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>2032.857613584547</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>2029.401280166166</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>2036.329044652645</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>7.616263732942483</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>7.615074295074439</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>2025.037104942258</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>2040.526900273619</v>
+      </c>
+      <c r="BE22" s="2" t="n">
+        <v>45348.5</v>
+      </c>
+      <c r="BF22" s="2" t="n">
+        <v>45348.5</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>2032.163863822833</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0.001020805128535775</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>2023.979826059747</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0.0007548941534885335</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2043.743622221241</v>
+      </c>
+      <c r="BL22" t="inlineStr">
+        <is>
+          <t>bullish</t>
+        </is>
+      </c>
+      <c r="BM22" t="n">
+        <v>2034.509047619047</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>2044.274609046841</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>2024.743486191254</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>7.615074295074439</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>7.607106566712421</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>2033.912112488024</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>2033.604445111266</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>2033.817857142856</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0.2708950869114233</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0.2943038491189596</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0.8442550956747888</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0.7971428571424894</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>-0.3250000000016371</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>-0.2478571428557643</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>2034.662112238531</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>2032.973602047182</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>38.08726415730247</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>30.48240655244499</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>100</v>
+      </c>
+      <c r="CJ22" t="inlineStr"/>
+      <c r="CK22" t="b">
+        <v>1</v>
+      </c>
+      <c r="CL22" t="b">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>2044.25</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>2032.25</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>2038.25</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>2039.25</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="CT22" t="b">
+        <v>0</v>
+      </c>
+      <c r="CU22" s="2" t="n">
+        <v>45351.65625</v>
+      </c>
+      <c r="CV22" s="2" t="n">
+        <v>45351.65627314815</v>
+      </c>
+      <c r="CW22" s="2" t="n">
+        <v>45348.53686342593</v>
+      </c>
+      <c r="CX22" s="2" t="n">
+        <v>45348.51041666666</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>2035.25</v>
+      </c>
+      <c r="CZ22" s="2" t="n">
+        <v>45348.53686342593</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>2032.25</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="DC22" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
+      <c r="DD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>-54.76</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>486.87</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DJ22" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -1759,13 +1759,13 @@
         <v>1.09076</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.08096</v>
+        <v>1.08276</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.08296</v>
+        <v>1.08476</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.08426</v>
+        <v>1.08626</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="FD2" s="2" t="n">
-        <v>45481.66666666666</v>
+        <v>45484.66666666666</v>
       </c>
       <c r="FE2" s="2" t="n">
         <v>45485.74561342593</v>
       </c>
       <c r="FF2" s="2" t="n">
-        <v>45478.64584490741</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="FG2" s="2" t="n">
         <v>45477.75</v>
@@ -1792,10 +1792,10 @@
         <v>1.08076</v>
       </c>
       <c r="FI2" s="2" t="n">
-        <v>45478.64584490741</v>
+        <v>45481.00001157408</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.08255</v>
+        <v>1.08009</v>
       </c>
       <c r="FK2" t="inlineStr">
         <is>
@@ -1811,10 +1811,10 @@
         </is>
       </c>
       <c r="FN2" t="n">
-        <v>93.84</v>
+        <v>-35.13</v>
       </c>
       <c r="FO2" t="n">
-        <v>793.84</v>
+        <v>664.87</v>
       </c>
       <c r="FP2" t="b">
         <v>1</v>
@@ -2279,13 +2279,13 @@
         <v>1.09285</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.08305</v>
+        <v>1.08485</v>
       </c>
       <c r="EY3" t="n">
-        <v>1.08505</v>
+        <v>1.08685</v>
       </c>
       <c r="EZ3" t="n">
-        <v>1.08635</v>
+        <v>1.08835</v>
       </c>
       <c r="FA3" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="FE3" t="inlineStr"/>
       <c r="FF3" s="2" t="n">
-        <v>45481.56739583334</v>
+        <v>45484.63805555556</v>
       </c>
       <c r="FG3" s="2" t="n">
         <v>45481.20833333334</v>
@@ -2310,14 +2310,14 @@
         <v>1.08285</v>
       </c>
       <c r="FI3" s="2" t="n">
-        <v>45481.56739583334</v>
+        <v>45482.625</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.08308</v>
+        <v>1.08131</v>
       </c>
       <c r="FK3" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL3" t="n">
@@ -2325,23 +2325,23 @@
       </c>
       <c r="FM3" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN3" t="n">
-        <v>12.06</v>
+        <v>-80.73999999999999</v>
       </c>
       <c r="FO3" t="n">
-        <v>805.9</v>
+        <v>584.13</v>
       </c>
       <c r="FP3" t="b">
+        <v>0</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR3" t="n">
         <v>1</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>0</v>
       </c>
       <c r="FS3" t="n">
         <v>28</v>
@@ -2797,13 +2797,13 @@
         <v>1.09308</v>
       </c>
       <c r="EX4" t="n">
-        <v>1.08328</v>
+        <v>1.08708</v>
       </c>
       <c r="EY4" t="n">
-        <v>1.08528</v>
+        <v>1.08908</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1.08658</v>
+        <v>1.09158</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -2815,11 +2815,11 @@
         <v>1</v>
       </c>
       <c r="FD4" s="2" t="n">
-        <v>45484.66666666666</v>
+        <v>45488.75</v>
       </c>
       <c r="FE4" t="inlineStr"/>
       <c r="FF4" s="2" t="n">
-        <v>45481.54785879629</v>
+        <v>45484.72371527777</v>
       </c>
       <c r="FG4" s="2" t="n">
         <v>45481.29166666666</v>
@@ -2828,14 +2828,14 @@
         <v>1.08308</v>
       </c>
       <c r="FI4" s="2" t="n">
-        <v>45481.54785879629</v>
+        <v>45482.625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1.0833</v>
+        <v>1.08131</v>
       </c>
       <c r="FK4" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL4" t="n">
@@ -2843,23 +2843,23 @@
       </c>
       <c r="FM4" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN4" t="n">
-        <v>11.53</v>
+        <v>-92.79000000000001</v>
       </c>
       <c r="FO4" t="n">
-        <v>817.4299999999999</v>
+        <v>491.34</v>
       </c>
       <c r="FP4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FS4" t="n">
         <v>28</v>
@@ -3315,13 +3315,13 @@
         <v>1.09362</v>
       </c>
       <c r="EX5" t="n">
-        <v>1.08382</v>
+        <v>1.08762</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.08582</v>
+        <v>1.08962</v>
       </c>
       <c r="EZ5" t="n">
-        <v>1.08712</v>
+        <v>1.09212</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
@@ -3332,13 +3332,9 @@
       <c r="FC5" t="b">
         <v>1</v>
       </c>
-      <c r="FD5" s="2" t="n">
-        <v>45484.66666666666</v>
-      </c>
+      <c r="FD5" t="inlineStr"/>
       <c r="FE5" t="inlineStr"/>
-      <c r="FF5" s="2" t="n">
-        <v>45481.67283564815</v>
-      </c>
+      <c r="FF5" t="inlineStr"/>
       <c r="FG5" s="2" t="n">
         <v>45481.45833333334</v>
       </c>
@@ -3346,14 +3342,14 @@
         <v>1.08362</v>
       </c>
       <c r="FI5" s="2" t="n">
-        <v>45481.67283564815</v>
+        <v>45482.625</v>
       </c>
       <c r="FJ5" t="n">
-        <v>1.08384</v>
+        <v>1.08131</v>
       </c>
       <c r="FK5" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL5" t="n">
@@ -3361,23 +3357,23 @@
       </c>
       <c r="FM5" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN5" t="n">
-        <v>11.53</v>
+        <v>-121.1</v>
       </c>
       <c r="FO5" t="n">
-        <v>828.9599999999999</v>
+        <v>370.24</v>
       </c>
       <c r="FP5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FR5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FS5" t="n">
         <v>28</v>
@@ -3833,13 +3829,13 @@
         <v>1.09298</v>
       </c>
       <c r="EX6" t="n">
-        <v>1.08318</v>
+        <v>1.08698</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.08518</v>
+        <v>1.08898</v>
       </c>
       <c r="EZ6" t="n">
-        <v>1.08648</v>
+        <v>1.09148</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
@@ -3851,11 +3847,11 @@
         <v>1</v>
       </c>
       <c r="FD6" s="2" t="n">
-        <v>45484.66666666666</v>
+        <v>45488.75</v>
       </c>
       <c r="FE6" t="inlineStr"/>
       <c r="FF6" s="2" t="n">
-        <v>45484.40765046296</v>
+        <v>45484.76202546297</v>
       </c>
       <c r="FG6" s="2" t="n">
         <v>45482.125</v>
@@ -3886,7 +3882,7 @@
         <v>-87.55</v>
       </c>
       <c r="FO6" t="n">
-        <v>741.41</v>
+        <v>282.69</v>
       </c>
       <c r="FP6" t="b">
         <v>0</v>
@@ -3895,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="FR6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="FS6" t="n">
         <v>28</v>
@@ -4351,13 +4347,13 @@
         <v>1.0929</v>
       </c>
       <c r="EX7" t="n">
-        <v>1.0871</v>
+        <v>1.0869</v>
       </c>
       <c r="EY7" t="n">
-        <v>1.0891</v>
+        <v>1.0889</v>
       </c>
       <c r="EZ7" t="n">
-        <v>1.0924</v>
+        <v>1.0914</v>
       </c>
       <c r="FA7" t="n">
         <v>0</v>
@@ -4368,10 +4364,12 @@
       <c r="FC7" t="b">
         <v>1</v>
       </c>
-      <c r="FD7" t="inlineStr"/>
+      <c r="FD7" s="2" t="n">
+        <v>45488.70833333334</v>
+      </c>
       <c r="FE7" t="inlineStr"/>
       <c r="FF7" s="2" t="n">
-        <v>45489.67371527778</v>
+        <v>45484.76215277778</v>
       </c>
       <c r="FG7" s="2" t="n">
         <v>45482.33333333334</v>
@@ -4402,7 +4400,7 @@
         <v>-83.36</v>
       </c>
       <c r="FO7" t="n">
-        <v>658.05</v>
+        <v>199.33</v>
       </c>
       <c r="FP7" t="b">
         <v>0</v>
@@ -4411,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="FR7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="FS7" t="n">
         <v>28</v>
@@ -4872,10 +4870,10 @@
         <v>1.08631</v>
       </c>
       <c r="EY8" t="n">
-        <v>1.08111</v>
+        <v>1.07931</v>
       </c>
       <c r="EZ8" t="n">
-        <v>1.08081</v>
+        <v>1.07881</v>
       </c>
       <c r="FA8" t="n">
         <v>1</v>
@@ -4920,7 +4918,7 @@
         <v>-4.71</v>
       </c>
       <c r="FO8" t="n">
-        <v>653.3399999999999</v>
+        <v>194.62</v>
       </c>
       <c r="FP8" t="b">
         <v>0</v>
@@ -4929,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="FR8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="FS8" t="n">
         <v>28</v>
@@ -5388,10 +5386,10 @@
         <v>1.08594</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.08074</v>
+        <v>1.07894</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.08044</v>
+        <v>1.07844</v>
       </c>
       <c r="FA9" t="n">
         <v>1</v>
@@ -5436,7 +5434,7 @@
         <v>-24.07</v>
       </c>
       <c r="FO9" t="n">
-        <v>629.2699999999999</v>
+        <v>170.55</v>
       </c>
       <c r="FP9" t="b">
         <v>0</v>
@@ -5445,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="FR9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="FS9" t="n">
         <v>28</v>
@@ -5899,13 +5897,13 @@
         <v>1.09139</v>
       </c>
       <c r="EX10" t="n">
-        <v>1.08159</v>
+        <v>1.08739</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.08359</v>
+        <v>1.08939</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.08489</v>
+        <v>1.09289</v>
       </c>
       <c r="FA10" t="n">
         <v>0</v>
@@ -5917,13 +5915,13 @@
         <v>1</v>
       </c>
       <c r="FD10" s="2" t="n">
-        <v>45484.625</v>
+        <v>45490.5</v>
       </c>
       <c r="FE10" s="2" t="n">
         <v>45488.5390162037</v>
       </c>
       <c r="FF10" s="2" t="n">
-        <v>45483.36490740741</v>
+        <v>45489.67251157408</v>
       </c>
       <c r="FG10" s="2" t="n">
         <v>45483.20833333334</v>
@@ -5932,10 +5930,10 @@
         <v>1.08139</v>
       </c>
       <c r="FI10" s="2" t="n">
-        <v>45483.36490740741</v>
+        <v>45488.5390162037</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.08161</v>
+        <v>1.09135</v>
       </c>
       <c r="FK10" t="inlineStr">
         <is>
@@ -5947,14 +5945,14 @@
       </c>
       <c r="FM10" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>success</t>
         </is>
       </c>
       <c r="FN10" t="n">
-        <v>11.53</v>
+        <v>522.16</v>
       </c>
       <c r="FO10" t="n">
-        <v>640.7999999999998</v>
+        <v>692.7099999999999</v>
       </c>
       <c r="FP10" t="b">
         <v>1</v>
@@ -6421,13 +6419,13 @@
         <v>1.09295</v>
       </c>
       <c r="EX11" t="n">
-        <v>1.08315</v>
+        <v>1.08695</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.08515</v>
+        <v>1.08895</v>
       </c>
       <c r="EZ11" t="n">
-        <v>1.08645</v>
+        <v>1.09145</v>
       </c>
       <c r="FA11" t="n">
         <v>0</v>
@@ -6439,13 +6437,13 @@
         <v>1</v>
       </c>
       <c r="FD11" s="2" t="n">
-        <v>45484.66666666666</v>
+        <v>45488.70833333334</v>
       </c>
       <c r="FE11" s="2" t="n">
         <v>45490.48670138889</v>
       </c>
       <c r="FF11" s="2" t="n">
-        <v>45484.40766203704</v>
+        <v>45484.76212962963</v>
       </c>
       <c r="FG11" s="2" t="n">
         <v>45484</v>
@@ -6454,10 +6452,10 @@
         <v>1.08295</v>
       </c>
       <c r="FI11" s="2" t="n">
-        <v>45484.40766203704</v>
+        <v>45484.76212962963</v>
       </c>
       <c r="FJ11" t="n">
-        <v>1.08315</v>
+        <v>1.08698</v>
       </c>
       <c r="FK11" t="inlineStr">
         <is>
@@ -6473,10 +6471,10 @@
         </is>
       </c>
       <c r="FN11" t="n">
-        <v>10.49</v>
+        <v>211.27</v>
       </c>
       <c r="FO11" t="n">
-        <v>651.2899999999998</v>
+        <v>903.9799999999999</v>
       </c>
       <c r="FP11" t="b">
         <v>1</v>
@@ -6943,13 +6941,13 @@
         <v>1.09321</v>
       </c>
       <c r="EX12" t="n">
-        <v>1.08341</v>
+        <v>1.08721</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.08541</v>
+        <v>1.08921</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.08671</v>
+        <v>1.09171</v>
       </c>
       <c r="FA12" t="n">
         <v>0</v>
@@ -6961,13 +6959,13 @@
         <v>1</v>
       </c>
       <c r="FD12" s="2" t="n">
-        <v>45484.66666666666</v>
+        <v>45490.5</v>
       </c>
       <c r="FE12" s="2" t="n">
         <v>45490.48873842593</v>
       </c>
       <c r="FF12" s="2" t="n">
-        <v>45484.37494212963</v>
+        <v>45489.67362268519</v>
       </c>
       <c r="FG12" s="2" t="n">
         <v>45484.08333333334</v>
@@ -6976,10 +6974,10 @@
         <v>1.08321</v>
       </c>
       <c r="FI12" s="2" t="n">
-        <v>45484.37494212963</v>
+        <v>45489.67362268519</v>
       </c>
       <c r="FJ12" t="n">
-        <v>1.08341</v>
+        <v>1.08723</v>
       </c>
       <c r="FK12" t="inlineStr">
         <is>
@@ -6995,10 +6993,10 @@
         </is>
       </c>
       <c r="FN12" t="n">
-        <v>10.49</v>
+        <v>210.75</v>
       </c>
       <c r="FO12" t="n">
-        <v>661.7799999999999</v>
+        <v>1114.73</v>
       </c>
       <c r="FP12" t="b">
         <v>1</v>
@@ -7465,13 +7463,13 @@
         <v>1.09466</v>
       </c>
       <c r="EX13" t="n">
-        <v>1.08486</v>
+        <v>1.08666</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.08686</v>
+        <v>1.08866</v>
       </c>
       <c r="EZ13" t="n">
-        <v>1.08816</v>
+        <v>1.09016</v>
       </c>
       <c r="FA13" t="n">
         <v>0</v>
@@ -7483,13 +7481,13 @@
         <v>1</v>
       </c>
       <c r="FD13" s="2" t="n">
-        <v>45484.66666666666</v>
+        <v>45485.75</v>
       </c>
       <c r="FE13" s="2" t="n">
         <v>45490.69358796296</v>
       </c>
       <c r="FF13" s="2" t="n">
-        <v>45484.63805555556</v>
+        <v>45484.77487268519</v>
       </c>
       <c r="FG13" s="2" t="n">
         <v>45484.5</v>
@@ -7498,10 +7496,10 @@
         <v>1.08466</v>
       </c>
       <c r="FI13" s="2" t="n">
-        <v>45484.63805555556</v>
+        <v>45484.77487268519</v>
       </c>
       <c r="FJ13" t="n">
-        <v>1.08485</v>
+        <v>1.08666</v>
       </c>
       <c r="FK13" t="inlineStr">
         <is>
@@ -7517,10 +7515,10 @@
         </is>
       </c>
       <c r="FN13" t="n">
-        <v>9.960000000000001</v>
+        <v>104.85</v>
       </c>
       <c r="FO13" t="n">
-        <v>671.7399999999999</v>
+        <v>1219.58</v>
       </c>
       <c r="FP13" t="b">
         <v>1</v>
@@ -7989,13 +7987,13 @@
         <v>1.09893</v>
       </c>
       <c r="EX14" t="n">
-        <v>1.08913</v>
+        <v>1.09093</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.09113</v>
+        <v>1.09293</v>
       </c>
       <c r="EZ14" t="n">
-        <v>1.09243</v>
+        <v>1.09443</v>
       </c>
       <c r="FA14" t="n">
         <v>0</v>
@@ -8006,12 +8004,10 @@
       <c r="FC14" t="b">
         <v>1</v>
       </c>
-      <c r="FD14" s="2" t="n">
-        <v>45490.5</v>
-      </c>
+      <c r="FD14" t="inlineStr"/>
       <c r="FE14" t="inlineStr"/>
       <c r="FF14" s="2" t="n">
-        <v>45488.00005787037</v>
+        <v>45488.73413194445</v>
       </c>
       <c r="FG14" s="2" t="n">
         <v>45485.58333333334</v>
@@ -8020,10 +8016,10 @@
         <v>1.08893</v>
       </c>
       <c r="FI14" s="2" t="n">
-        <v>45488.00005787037</v>
+        <v>45488.73413194445</v>
       </c>
       <c r="FJ14" t="n">
-        <v>1.08821</v>
+        <v>1.09094</v>
       </c>
       <c r="FK14" t="inlineStr">
         <is>
@@ -8039,10 +8035,10 @@
         </is>
       </c>
       <c r="FN14" t="n">
-        <v>-37.75</v>
+        <v>105.38</v>
       </c>
       <c r="FO14" t="n">
-        <v>633.9899999999999</v>
+        <v>1324.96</v>
       </c>
       <c r="FP14" t="b">
         <v>1</v>
@@ -8511,13 +8507,13 @@
         <v>1.09877</v>
       </c>
       <c r="EX15" t="n">
-        <v>1.08897</v>
+        <v>1.09077</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.09097</v>
+        <v>1.09277</v>
       </c>
       <c r="EZ15" t="n">
-        <v>1.09227</v>
+        <v>1.09427</v>
       </c>
       <c r="FA15" t="n">
         <v>0</v>
@@ -8529,11 +8525,11 @@
         <v>1</v>
       </c>
       <c r="FD15" s="2" t="n">
-        <v>45490.5</v>
+        <v>45490.54166666666</v>
       </c>
       <c r="FE15" t="inlineStr"/>
       <c r="FF15" s="2" t="n">
-        <v>45488.38890046296</v>
+        <v>45488.7349537037</v>
       </c>
       <c r="FG15" s="2" t="n">
         <v>45488.16666666666</v>
@@ -8542,10 +8538,10 @@
         <v>1.08877</v>
       </c>
       <c r="FI15" s="2" t="n">
-        <v>45488.38890046296</v>
+        <v>45488.7349537037</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1.08897</v>
+        <v>1.09078</v>
       </c>
       <c r="FK15" t="inlineStr">
         <is>
@@ -8561,10 +8557,10 @@
         </is>
       </c>
       <c r="FN15" t="n">
-        <v>10.49</v>
+        <v>105.38</v>
       </c>
       <c r="FO15" t="n">
-        <v>644.4799999999999</v>
+        <v>1430.34</v>
       </c>
       <c r="FP15" t="b">
         <v>1</v>
@@ -9035,13 +9031,13 @@
         <v>1.10121</v>
       </c>
       <c r="EX16" t="n">
-        <v>1.09141</v>
+        <v>1.09321</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.09341</v>
+        <v>1.09521</v>
       </c>
       <c r="EZ16" t="n">
-        <v>1.09471</v>
+        <v>1.09671</v>
       </c>
       <c r="FA16" t="n">
         <v>0</v>
@@ -9055,7 +9051,7 @@
       <c r="FD16" t="inlineStr"/>
       <c r="FE16" t="inlineStr"/>
       <c r="FF16" s="2" t="n">
-        <v>45491.6875</v>
+        <v>45490.57293981482</v>
       </c>
       <c r="FG16" s="2" t="n">
         <v>45488.54166666666</v>
@@ -9086,7 +9082,7 @@
         <v>-166.71</v>
       </c>
       <c r="FO16" t="n">
-        <v>477.7699999999999</v>
+        <v>1263.63</v>
       </c>
       <c r="FP16" t="b">
         <v>0</v>
@@ -9557,13 +9553,13 @@
         <v>1.10146</v>
       </c>
       <c r="EX17" t="n">
-        <v>1.09166</v>
+        <v>1.09346</v>
       </c>
       <c r="EY17" t="n">
-        <v>1.09366</v>
+        <v>1.09546</v>
       </c>
       <c r="EZ17" t="n">
-        <v>1.09496</v>
+        <v>1.09696</v>
       </c>
       <c r="FA17" t="n">
         <v>0</v>
@@ -9577,7 +9573,7 @@
       <c r="FD17" t="inlineStr"/>
       <c r="FE17" t="inlineStr"/>
       <c r="FF17" s="2" t="n">
-        <v>45491.68225694444</v>
+        <v>45490.57129629629</v>
       </c>
       <c r="FG17" s="2" t="n">
         <v>45488.70833333334</v>
@@ -9608,7 +9604,7 @@
         <v>-179.82</v>
       </c>
       <c r="FO17" t="n">
-        <v>297.9499999999999</v>
+        <v>1083.81</v>
       </c>
       <c r="FP17" t="b">
         <v>0</v>
@@ -10082,10 +10078,10 @@
         <v>1.093</v>
       </c>
       <c r="EY18" t="n">
-        <v>1.0878</v>
+        <v>1.086</v>
       </c>
       <c r="EZ18" t="n">
-        <v>1.0875</v>
+        <v>1.0855</v>
       </c>
       <c r="FA18" t="n">
         <v>1</v>
@@ -10097,7 +10093,7 @@
         <v>0</v>
       </c>
       <c r="FD18" s="2" t="n">
-        <v>45496.54166666666</v>
+        <v>45496.70833333334</v>
       </c>
       <c r="FE18" t="inlineStr"/>
       <c r="FF18" s="2" t="n">
@@ -10132,7 +10128,7 @@
         <v>-42.92</v>
       </c>
       <c r="FO18" t="n">
-        <v>255.0299999999999</v>
+        <v>1040.89</v>
       </c>
       <c r="FP18" t="b">
         <v>0</v>
@@ -10601,13 +10597,13 @@
         <v>1.09881</v>
       </c>
       <c r="EX19" t="n">
-        <v>1.09101</v>
+        <v>1.09281</v>
       </c>
       <c r="EY19" t="n">
-        <v>1.09301</v>
+        <v>1.09481</v>
       </c>
       <c r="EZ19" t="n">
-        <v>1.09531</v>
+        <v>1.09731</v>
       </c>
       <c r="FA19" t="n">
         <v>0</v>
@@ -10621,7 +10617,7 @@
       <c r="FD19" t="inlineStr"/>
       <c r="FE19" t="inlineStr"/>
       <c r="FF19" s="2" t="n">
-        <v>45491.70299768518</v>
+        <v>45490.75840277778</v>
       </c>
       <c r="FG19" s="2" t="n">
         <v>45489.83333333334</v>
@@ -10630,10 +10626,10 @@
         <v>1.08881</v>
       </c>
       <c r="FI19" s="2" t="n">
-        <v>45491.70299768518</v>
+        <v>45490.75840277778</v>
       </c>
       <c r="FJ19" t="n">
-        <v>1.09103</v>
+        <v>1.09281</v>
       </c>
       <c r="FK19" t="inlineStr">
         <is>
@@ -10649,10 +10645,10 @@
         </is>
       </c>
       <c r="FN19" t="n">
-        <v>116.38</v>
+        <v>209.7</v>
       </c>
       <c r="FO19" t="n">
-        <v>371.4099999999999</v>
+        <v>1250.59</v>
       </c>
       <c r="FP19" t="b">
         <v>1</v>
@@ -11123,13 +11119,13 @@
         <v>1.10016</v>
       </c>
       <c r="EX20" t="n">
-        <v>1.09236</v>
+        <v>1.09216</v>
       </c>
       <c r="EY20" t="n">
-        <v>1.09436</v>
+        <v>1.09416</v>
       </c>
       <c r="EZ20" t="n">
-        <v>1.09666</v>
+        <v>1.09566</v>
       </c>
       <c r="FA20" t="n">
         <v>0</v>
@@ -11143,7 +11139,7 @@
       <c r="FD20" t="inlineStr"/>
       <c r="FE20" t="inlineStr"/>
       <c r="FF20" s="2" t="n">
-        <v>45490.80766203703</v>
+        <v>45491.67153935185</v>
       </c>
       <c r="FG20" s="2" t="n">
         <v>45490.20833333334</v>
@@ -11152,10 +11148,10 @@
         <v>1.09016</v>
       </c>
       <c r="FI20" s="2" t="n">
-        <v>45490.80766203703</v>
+        <v>45491.67153935185</v>
       </c>
       <c r="FJ20" t="n">
-        <v>1.09238</v>
+        <v>1.09219</v>
       </c>
       <c r="FK20" t="inlineStr">
         <is>
@@ -11171,10 +11167,10 @@
         </is>
       </c>
       <c r="FN20" t="n">
-        <v>116.38</v>
+        <v>106.42</v>
       </c>
       <c r="FO20" t="n">
-        <v>487.7899999999998</v>
+        <v>1357.01</v>
       </c>
       <c r="FP20" t="b">
         <v>1</v>
@@ -11645,13 +11641,13 @@
         <v>1.10076</v>
       </c>
       <c r="EX21" t="n">
-        <v>1.09296</v>
+        <v>1.09276</v>
       </c>
       <c r="EY21" t="n">
-        <v>1.09496</v>
+        <v>1.09476</v>
       </c>
       <c r="EZ21" t="n">
-        <v>1.09726</v>
+        <v>1.09626</v>
       </c>
       <c r="FA21" t="n">
         <v>0</v>
@@ -11665,7 +11661,7 @@
       <c r="FD21" t="inlineStr"/>
       <c r="FE21" t="inlineStr"/>
       <c r="FF21" s="2" t="n">
-        <v>45490.57976851852</v>
+        <v>45490.75863425926</v>
       </c>
       <c r="FG21" s="2" t="n">
         <v>45490.45833333334</v>
@@ -11674,10 +11670,10 @@
         <v>1.09076</v>
       </c>
       <c r="FI21" s="2" t="n">
-        <v>45490.57976851852</v>
+        <v>45490.75863425926</v>
       </c>
       <c r="FJ21" t="n">
-        <v>1.09296</v>
+        <v>1.09279</v>
       </c>
       <c r="FK21" t="inlineStr">
         <is>
@@ -11693,10 +11689,10 @@
         </is>
       </c>
       <c r="FN21" t="n">
-        <v>115.34</v>
+        <v>106.42</v>
       </c>
       <c r="FO21" t="n">
-        <v>603.1299999999999</v>
+        <v>1463.43</v>
       </c>
       <c r="FP21" t="b">
         <v>1</v>
@@ -12170,10 +12166,10 @@
         <v>1.08913</v>
       </c>
       <c r="EY22" t="n">
-        <v>1.09433</v>
+        <v>1.09613</v>
       </c>
       <c r="EZ22" t="n">
-        <v>1.09463</v>
+        <v>1.09663</v>
       </c>
       <c r="FA22" t="n">
         <v>0</v>
@@ -12218,7 +12214,7 @@
         <v>-235.39</v>
       </c>
       <c r="FO22" t="n">
-        <v>367.7399999999999</v>
+        <v>1228.04</v>
       </c>
       <c r="FP22" t="b">
         <v>0</v>
@@ -12685,13 +12681,13 @@
         <v>1.07965</v>
       </c>
       <c r="EX23" t="n">
-        <v>1.08945</v>
+        <v>1.08565</v>
       </c>
       <c r="EY23" t="n">
-        <v>1.08745</v>
+        <v>1.08365</v>
       </c>
       <c r="EZ23" t="n">
-        <v>1.08615</v>
+        <v>1.08115</v>
       </c>
       <c r="FA23" t="n">
         <v>1</v>
@@ -12702,12 +12698,10 @@
       <c r="FC23" t="b">
         <v>1</v>
       </c>
-      <c r="FD23" s="2" t="n">
-        <v>45496.58333333334</v>
-      </c>
+      <c r="FD23" t="inlineStr"/>
       <c r="FE23" t="inlineStr"/>
       <c r="FF23" s="2" t="n">
-        <v>45495.06579861111</v>
+        <v>45497.665</v>
       </c>
       <c r="FG23" s="2" t="n">
         <v>45491.95833333334</v>
@@ -12716,10 +12710,10 @@
         <v>1.08965</v>
       </c>
       <c r="FI23" s="2" t="n">
-        <v>45495.06579861111</v>
+        <v>45497.665</v>
       </c>
       <c r="FJ23" t="n">
-        <v>1.08942</v>
+        <v>1.08564</v>
       </c>
       <c r="FK23" t="inlineStr">
         <is>
@@ -12735,10 +12729,10 @@
         </is>
       </c>
       <c r="FN23" t="n">
-        <v>12.04</v>
+        <v>209.87</v>
       </c>
       <c r="FO23" t="n">
-        <v>379.7799999999999</v>
+        <v>1437.91</v>
       </c>
       <c r="FP23" t="b">
         <v>1</v>
@@ -13205,13 +13199,13 @@
         <v>1.07914</v>
       </c>
       <c r="EX24" t="n">
-        <v>1.08894</v>
+        <v>1.08514</v>
       </c>
       <c r="EY24" t="n">
-        <v>1.08694</v>
+        <v>1.08314</v>
       </c>
       <c r="EZ24" t="n">
-        <v>1.08564</v>
+        <v>1.08064</v>
       </c>
       <c r="FA24" t="n">
         <v>1</v>
@@ -13222,12 +13216,10 @@
       <c r="FC24" t="b">
         <v>1</v>
       </c>
-      <c r="FD24" s="2" t="n">
-        <v>45496.66666666666</v>
-      </c>
+      <c r="FD24" t="inlineStr"/>
       <c r="FE24" t="inlineStr"/>
       <c r="FF24" s="2" t="n">
-        <v>45492.37384259259</v>
+        <v>45497.65738425926</v>
       </c>
       <c r="FG24" s="2" t="n">
         <v>45492.16666666666</v>
@@ -13236,14 +13228,14 @@
         <v>1.08914</v>
       </c>
       <c r="FI24" s="2" t="n">
-        <v>45492.37384259259</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ24" t="n">
-        <v>1.08894</v>
+        <v>1.08935</v>
       </c>
       <c r="FK24" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL24" t="n">
@@ -13251,23 +13243,23 @@
       </c>
       <c r="FM24" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN24" t="n">
-        <v>10.47</v>
+        <v>-10.99</v>
       </c>
       <c r="FO24" t="n">
-        <v>390.2499999999999</v>
+        <v>1426.92</v>
       </c>
       <c r="FP24" t="b">
+        <v>0</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR24" t="n">
         <v>1</v>
-      </c>
-      <c r="FQ24" t="n">
-        <v>2</v>
-      </c>
-      <c r="FR24" t="n">
-        <v>0</v>
       </c>
       <c r="FS24" t="n">
         <v>29</v>
@@ -13725,13 +13717,13 @@
         <v>1.07869</v>
       </c>
       <c r="EX25" t="n">
-        <v>1.08849</v>
+        <v>1.08669</v>
       </c>
       <c r="EY25" t="n">
-        <v>1.08649</v>
+        <v>1.08469</v>
       </c>
       <c r="EZ25" t="n">
-        <v>1.08519</v>
+        <v>1.08319</v>
       </c>
       <c r="FA25" t="n">
         <v>1</v>
@@ -13743,11 +13735,11 @@
         <v>1</v>
       </c>
       <c r="FD25" s="2" t="n">
-        <v>45496.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE25" t="inlineStr"/>
       <c r="FF25" s="2" t="n">
-        <v>45492.56184027778</v>
+        <v>45496.5972800926</v>
       </c>
       <c r="FG25" s="2" t="n">
         <v>45492.20833333334</v>
@@ -13756,14 +13748,14 @@
         <v>1.08869</v>
       </c>
       <c r="FI25" s="2" t="n">
-        <v>45492.56184027778</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ25" t="n">
-        <v>1.08848</v>
+        <v>1.08935</v>
       </c>
       <c r="FK25" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL25" t="n">
@@ -13771,23 +13763,23 @@
       </c>
       <c r="FM25" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN25" t="n">
-        <v>10.99</v>
+        <v>-34.54</v>
       </c>
       <c r="FO25" t="n">
-        <v>401.24</v>
+        <v>1392.38</v>
       </c>
       <c r="FP25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FS25" t="n">
         <v>29</v>
@@ -14245,13 +14237,13 @@
         <v>1.07877</v>
       </c>
       <c r="EX26" t="n">
-        <v>1.08857</v>
+        <v>1.08677</v>
       </c>
       <c r="EY26" t="n">
-        <v>1.08657</v>
+        <v>1.08477</v>
       </c>
       <c r="EZ26" t="n">
-        <v>1.08527</v>
+        <v>1.08327</v>
       </c>
       <c r="FA26" t="n">
         <v>1</v>
@@ -14263,11 +14255,11 @@
         <v>1</v>
       </c>
       <c r="FD26" s="2" t="n">
-        <v>45496.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE26" t="inlineStr"/>
       <c r="FF26" s="2" t="n">
-        <v>45492.57520833334</v>
+        <v>45496.60076388889</v>
       </c>
       <c r="FG26" s="2" t="n">
         <v>45492.29166666666</v>
@@ -14276,14 +14268,14 @@
         <v>1.08877</v>
       </c>
       <c r="FI26" s="2" t="n">
-        <v>45492.57520833334</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ26" t="n">
-        <v>1.08856</v>
+        <v>1.08935</v>
       </c>
       <c r="FK26" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL26" t="n">
@@ -14291,23 +14283,23 @@
       </c>
       <c r="FM26" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN26" t="n">
-        <v>10.99</v>
+        <v>-30.35</v>
       </c>
       <c r="FO26" t="n">
-        <v>412.23</v>
+        <v>1362.03</v>
       </c>
       <c r="FP26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FR26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FS26" t="n">
         <v>29</v>
@@ -14765,13 +14757,13 @@
         <v>1.07843</v>
       </c>
       <c r="EX27" t="n">
-        <v>1.08823</v>
+        <v>1.08443</v>
       </c>
       <c r="EY27" t="n">
-        <v>1.08623</v>
+        <v>1.08243</v>
       </c>
       <c r="EZ27" t="n">
-        <v>1.08493</v>
+        <v>1.07993</v>
       </c>
       <c r="FA27" t="n">
         <v>1</v>
@@ -14782,12 +14774,10 @@
       <c r="FC27" t="b">
         <v>1</v>
       </c>
-      <c r="FD27" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD27" t="inlineStr"/>
       <c r="FE27" t="inlineStr"/>
       <c r="FF27" s="2" t="n">
-        <v>45492.531875</v>
+        <v>45497.56241898148</v>
       </c>
       <c r="FG27" s="2" t="n">
         <v>45492.41666666666</v>
@@ -14796,14 +14786,14 @@
         <v>1.08843</v>
       </c>
       <c r="FI27" s="2" t="n">
-        <v>45492.531875</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ27" t="n">
-        <v>1.08823</v>
+        <v>1.08935</v>
       </c>
       <c r="FK27" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL27" t="n">
@@ -14811,23 +14801,23 @@
       </c>
       <c r="FM27" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN27" t="n">
-        <v>10.47</v>
+        <v>-48.15</v>
       </c>
       <c r="FO27" t="n">
-        <v>422.7</v>
+        <v>1313.88</v>
       </c>
       <c r="FP27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FR27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="FS27" t="n">
         <v>29</v>
@@ -15285,13 +15275,13 @@
         <v>1.07784</v>
       </c>
       <c r="EX28" t="n">
-        <v>1.08564</v>
+        <v>1.08584</v>
       </c>
       <c r="EY28" t="n">
-        <v>1.08364</v>
+        <v>1.08384</v>
       </c>
       <c r="EZ28" t="n">
-        <v>1.08134</v>
+        <v>1.08234</v>
       </c>
       <c r="FA28" t="n">
         <v>1</v>
@@ -15305,7 +15295,7 @@
       <c r="FD28" t="inlineStr"/>
       <c r="FE28" t="inlineStr"/>
       <c r="FF28" s="2" t="n">
-        <v>45497.66497685185</v>
+        <v>45497.66546296296</v>
       </c>
       <c r="FG28" s="2" t="n">
         <v>45492.5</v>
@@ -15336,7 +15326,7 @@
         <v>-79.03</v>
       </c>
       <c r="FO28" t="n">
-        <v>343.67</v>
+        <v>1234.85</v>
       </c>
       <c r="FP28" t="b">
         <v>0</v>
@@ -15345,7 +15335,7 @@
         <v>0</v>
       </c>
       <c r="FR28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="FS28" t="n">
         <v>29</v>
@@ -15805,13 +15795,13 @@
         <v>1.07884</v>
       </c>
       <c r="EX29" t="n">
-        <v>1.08864</v>
+        <v>1.08484</v>
       </c>
       <c r="EY29" t="n">
-        <v>1.08664</v>
+        <v>1.08284</v>
       </c>
       <c r="EZ29" t="n">
-        <v>1.08534</v>
+        <v>1.08034</v>
       </c>
       <c r="FA29" t="n">
         <v>1</v>
@@ -15822,12 +15812,10 @@
       <c r="FC29" t="b">
         <v>1</v>
       </c>
-      <c r="FD29" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD29" t="inlineStr"/>
       <c r="FE29" t="inlineStr"/>
       <c r="FF29" s="2" t="n">
-        <v>45492.71457175926</v>
+        <v>45497.62979166667</v>
       </c>
       <c r="FG29" s="2" t="n">
         <v>45492.66666666666</v>
@@ -15836,14 +15824,14 @@
         <v>1.08884</v>
       </c>
       <c r="FI29" s="2" t="n">
-        <v>45492.71457175926</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ29" t="n">
-        <v>1.08864</v>
+        <v>1.08935</v>
       </c>
       <c r="FK29" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL29" t="n">
@@ -15851,23 +15839,23 @@
       </c>
       <c r="FM29" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN29" t="n">
-        <v>10.47</v>
+        <v>-26.69</v>
       </c>
       <c r="FO29" t="n">
-        <v>354.14</v>
+        <v>1208.16</v>
       </c>
       <c r="FP29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR29" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="FS29" t="n">
         <v>29</v>
@@ -16329,13 +16317,13 @@
         <v>1.07808</v>
       </c>
       <c r="EX30" t="n">
-        <v>1.08788</v>
+        <v>1.08608</v>
       </c>
       <c r="EY30" t="n">
-        <v>1.08588</v>
+        <v>1.08408</v>
       </c>
       <c r="EZ30" t="n">
-        <v>1.08458</v>
+        <v>1.08258</v>
       </c>
       <c r="FA30" t="n">
         <v>1</v>
@@ -16346,12 +16334,10 @@
       <c r="FC30" t="b">
         <v>1</v>
       </c>
-      <c r="FD30" s="2" t="n">
-        <v>45496.75</v>
-      </c>
+      <c r="FD30" t="inlineStr"/>
       <c r="FE30" t="inlineStr"/>
       <c r="FF30" s="2" t="n">
-        <v>45496.48717592593</v>
+        <v>45497.67377314815</v>
       </c>
       <c r="FG30" s="2" t="n">
         <v>45492.70833333334</v>
@@ -16382,7 +16368,7 @@
         <v>-66.47</v>
       </c>
       <c r="FO30" t="n">
-        <v>287.67</v>
+        <v>1141.69</v>
       </c>
       <c r="FP30" t="b">
         <v>0</v>
@@ -16391,7 +16377,7 @@
         <v>0</v>
       </c>
       <c r="FR30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="FS30" t="n">
         <v>29</v>
@@ -16853,13 +16839,13 @@
         <v>1.07874</v>
       </c>
       <c r="EX31" t="n">
-        <v>1.08854</v>
+        <v>1.08674</v>
       </c>
       <c r="EY31" t="n">
-        <v>1.08654</v>
+        <v>1.08474</v>
       </c>
       <c r="EZ31" t="n">
-        <v>1.08524</v>
+        <v>1.08324</v>
       </c>
       <c r="FA31" t="n">
         <v>1</v>
@@ -16871,11 +16857,11 @@
         <v>1</v>
       </c>
       <c r="FD31" s="2" t="n">
-        <v>45496.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE31" t="inlineStr"/>
       <c r="FF31" s="2" t="n">
-        <v>45495.04167824074</v>
+        <v>45496.60041666667</v>
       </c>
       <c r="FG31" s="2" t="n">
         <v>45492.79166666666</v>
@@ -16884,14 +16870,14 @@
         <v>1.08874</v>
       </c>
       <c r="FI31" s="2" t="n">
-        <v>45495.04167824074</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ31" t="n">
-        <v>1.08865</v>
+        <v>1.08935</v>
       </c>
       <c r="FK31" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL31" t="n">
@@ -16899,23 +16885,23 @@
       </c>
       <c r="FM31" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN31" t="n">
-        <v>4.71</v>
+        <v>-31.92</v>
       </c>
       <c r="FO31" t="n">
-        <v>292.3799999999999</v>
+        <v>1109.77</v>
       </c>
       <c r="FP31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FS31" t="n">
         <v>29</v>
@@ -17377,13 +17363,13 @@
         <v>1.07843</v>
       </c>
       <c r="EX32" t="n">
-        <v>1.08823</v>
+        <v>1.08443</v>
       </c>
       <c r="EY32" t="n">
-        <v>1.08623</v>
+        <v>1.08243</v>
       </c>
       <c r="EZ32" t="n">
-        <v>1.08493</v>
+        <v>1.07993</v>
       </c>
       <c r="FA32" t="n">
         <v>1</v>
@@ -17394,12 +17380,10 @@
       <c r="FC32" t="b">
         <v>1</v>
       </c>
-      <c r="FD32" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD32" t="inlineStr"/>
       <c r="FE32" t="inlineStr"/>
       <c r="FF32" s="2" t="n">
-        <v>45492.98961805556</v>
+        <v>45497.56241898148</v>
       </c>
       <c r="FG32" s="2" t="n">
         <v>45492.83333333334</v>
@@ -17408,14 +17392,14 @@
         <v>1.08843</v>
       </c>
       <c r="FI32" s="2" t="n">
-        <v>45492.98961805556</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ32" t="n">
-        <v>1.08822</v>
+        <v>1.08935</v>
       </c>
       <c r="FK32" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL32" t="n">
@@ -17423,23 +17407,23 @@
       </c>
       <c r="FM32" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN32" t="n">
-        <v>10.99</v>
+        <v>-48.15</v>
       </c>
       <c r="FO32" t="n">
-        <v>303.3699999999999</v>
+        <v>1061.62</v>
       </c>
       <c r="FP32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FR32" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FS32" t="n">
         <v>29</v>
@@ -17901,13 +17885,13 @@
         <v>1.07781</v>
       </c>
       <c r="EX33" t="n">
-        <v>1.08561</v>
+        <v>1.08581</v>
       </c>
       <c r="EY33" t="n">
-        <v>1.08361</v>
+        <v>1.08381</v>
       </c>
       <c r="EZ33" t="n">
-        <v>1.08131</v>
+        <v>1.08231</v>
       </c>
       <c r="FA33" t="n">
         <v>1</v>
@@ -17921,7 +17905,7 @@
       <c r="FD33" t="inlineStr"/>
       <c r="FE33" t="inlineStr"/>
       <c r="FF33" s="2" t="n">
-        <v>45497.66459490741</v>
+        <v>45497.66530092592</v>
       </c>
       <c r="FG33" s="2" t="n">
         <v>45492.91666666666</v>
@@ -17952,7 +17936,7 @@
         <v>-80.59999999999999</v>
       </c>
       <c r="FO33" t="n">
-        <v>222.77</v>
+        <v>981.0200000000001</v>
       </c>
       <c r="FP33" t="b">
         <v>0</v>
@@ -17961,7 +17945,7 @@
         <v>0</v>
       </c>
       <c r="FR33" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="FS33" t="n">
         <v>29</v>
@@ -18423,13 +18407,13 @@
         <v>1.07932</v>
       </c>
       <c r="EX34" t="n">
-        <v>1.08912</v>
+        <v>1.08532</v>
       </c>
       <c r="EY34" t="n">
-        <v>1.08712</v>
+        <v>1.08332</v>
       </c>
       <c r="EZ34" t="n">
-        <v>1.08582</v>
+        <v>1.08082</v>
       </c>
       <c r="FA34" t="n">
         <v>1</v>
@@ -18440,12 +18424,10 @@
       <c r="FC34" t="b">
         <v>1</v>
       </c>
-      <c r="FD34" s="2" t="n">
-        <v>45496.625</v>
-      </c>
+      <c r="FD34" t="inlineStr"/>
       <c r="FE34" t="inlineStr"/>
       <c r="FF34" s="2" t="n">
-        <v>45495.24118055555</v>
+        <v>45497.65844907407</v>
       </c>
       <c r="FG34" s="2" t="n">
         <v>45495.16666666666</v>
@@ -18454,14 +18436,14 @@
         <v>1.08932</v>
       </c>
       <c r="FI34" s="2" t="n">
-        <v>45495.24118055555</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ34" t="n">
-        <v>1.08914</v>
+        <v>1.08935</v>
       </c>
       <c r="FK34" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL34" t="n">
@@ -18469,23 +18451,23 @@
       </c>
       <c r="FM34" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN34" t="n">
-        <v>9.42</v>
+        <v>-1.57</v>
       </c>
       <c r="FO34" t="n">
-        <v>232.1899999999999</v>
+        <v>979.45</v>
       </c>
       <c r="FP34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR34" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="FS34" t="n">
         <v>30</v>
@@ -18947,13 +18929,13 @@
         <v>1.07859</v>
       </c>
       <c r="EX35" t="n">
-        <v>1.08839</v>
+        <v>1.08659</v>
       </c>
       <c r="EY35" t="n">
-        <v>1.08639</v>
+        <v>1.08459</v>
       </c>
       <c r="EZ35" t="n">
-        <v>1.08509</v>
+        <v>1.08309</v>
       </c>
       <c r="FA35" t="n">
         <v>1</v>
@@ -18965,11 +18947,11 @@
         <v>1</v>
       </c>
       <c r="FD35" s="2" t="n">
-        <v>45496.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE35" t="inlineStr"/>
       <c r="FF35" s="2" t="n">
-        <v>45495.42172453704</v>
+        <v>45496.59525462963</v>
       </c>
       <c r="FG35" s="2" t="n">
         <v>45495.20833333334</v>
@@ -18978,14 +18960,14 @@
         <v>1.08859</v>
       </c>
       <c r="FI35" s="2" t="n">
-        <v>45495.42172453704</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ35" t="n">
-        <v>1.08834</v>
+        <v>1.08935</v>
       </c>
       <c r="FK35" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL35" t="n">
@@ -18993,23 +18975,23 @@
       </c>
       <c r="FM35" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN35" t="n">
-        <v>13.08</v>
+        <v>-39.77</v>
       </c>
       <c r="FO35" t="n">
-        <v>245.27</v>
+        <v>939.6800000000001</v>
       </c>
       <c r="FP35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FR35" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="FS35" t="n">
         <v>30</v>
@@ -19471,13 +19453,13 @@
         <v>1.07868</v>
       </c>
       <c r="EX36" t="n">
-        <v>1.08848</v>
+        <v>1.08668</v>
       </c>
       <c r="EY36" t="n">
-        <v>1.08648</v>
+        <v>1.08468</v>
       </c>
       <c r="EZ36" t="n">
-        <v>1.08518</v>
+        <v>1.08318</v>
       </c>
       <c r="FA36" t="n">
         <v>1</v>
@@ -19489,11 +19471,11 @@
         <v>1</v>
       </c>
       <c r="FD36" s="2" t="n">
-        <v>45496.70833333334</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE36" t="inlineStr"/>
       <c r="FF36" s="2" t="n">
-        <v>45495.42186342592</v>
+        <v>45496.59726851852</v>
       </c>
       <c r="FG36" s="2" t="n">
         <v>45495.33333333334</v>
@@ -19502,14 +19484,14 @@
         <v>1.08868</v>
       </c>
       <c r="FI36" s="2" t="n">
-        <v>45495.42186342592</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ36" t="n">
-        <v>1.08848</v>
+        <v>1.08935</v>
       </c>
       <c r="FK36" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL36" t="n">
@@ -19517,23 +19499,23 @@
       </c>
       <c r="FM36" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN36" t="n">
-        <v>10.47</v>
+        <v>-35.06</v>
       </c>
       <c r="FO36" t="n">
-        <v>255.74</v>
+        <v>904.6200000000001</v>
       </c>
       <c r="FP36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR36" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="FS36" t="n">
         <v>30</v>
@@ -19995,13 +19977,13 @@
         <v>1.0784</v>
       </c>
       <c r="EX37" t="n">
-        <v>1.0882</v>
+        <v>1.0844</v>
       </c>
       <c r="EY37" t="n">
-        <v>1.0862</v>
+        <v>1.0824</v>
       </c>
       <c r="EZ37" t="n">
-        <v>1.0849</v>
+        <v>1.0799</v>
       </c>
       <c r="FA37" t="n">
         <v>1</v>
@@ -20012,12 +19994,10 @@
       <c r="FC37" t="b">
         <v>1</v>
       </c>
-      <c r="FD37" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD37" t="inlineStr"/>
       <c r="FE37" t="inlineStr"/>
       <c r="FF37" s="2" t="n">
-        <v>45495.6890162037</v>
+        <v>45497.56193287037</v>
       </c>
       <c r="FG37" s="2" t="n">
         <v>45495.375</v>
@@ -20026,14 +20006,14 @@
         <v>1.0884</v>
       </c>
       <c r="FI37" s="2" t="n">
-        <v>45495.6890162037</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ37" t="n">
-        <v>1.08817</v>
+        <v>1.08935</v>
       </c>
       <c r="FK37" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL37" t="n">
@@ -20041,23 +20021,23 @@
       </c>
       <c r="FM37" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN37" t="n">
-        <v>12.04</v>
+        <v>-49.72</v>
       </c>
       <c r="FO37" t="n">
-        <v>267.78</v>
+        <v>854.9000000000001</v>
       </c>
       <c r="FP37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FR37" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="FS37" t="n">
         <v>30</v>
@@ -20517,13 +20497,13 @@
         <v>1.07888</v>
       </c>
       <c r="EX38" t="n">
-        <v>1.08868</v>
+        <v>1.08488</v>
       </c>
       <c r="EY38" t="n">
-        <v>1.08668</v>
+        <v>1.08288</v>
       </c>
       <c r="EZ38" t="n">
-        <v>1.08538</v>
+        <v>1.08038</v>
       </c>
       <c r="FA38" t="n">
         <v>1</v>
@@ -20534,12 +20514,10 @@
       <c r="FC38" t="b">
         <v>1</v>
       </c>
-      <c r="FD38" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD38" t="inlineStr"/>
       <c r="FE38" t="inlineStr"/>
       <c r="FF38" s="2" t="n">
-        <v>45495.83534722222</v>
+        <v>45497.63539351852</v>
       </c>
       <c r="FG38" s="2" t="n">
         <v>45495.58333333334</v>
@@ -20548,14 +20526,14 @@
         <v>1.08888</v>
       </c>
       <c r="FI38" s="2" t="n">
-        <v>45495.83534722222</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ38" t="n">
-        <v>1.08868</v>
+        <v>1.08935</v>
       </c>
       <c r="FK38" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL38" t="n">
@@ -20563,23 +20541,23 @@
       </c>
       <c r="FM38" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN38" t="n">
-        <v>10.47</v>
+        <v>-24.6</v>
       </c>
       <c r="FO38" t="n">
-        <v>278.25</v>
+        <v>830.3000000000001</v>
       </c>
       <c r="FP38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FR38" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="FS38" t="n">
         <v>30</v>
@@ -21039,13 +21017,13 @@
         <v>1.0785</v>
       </c>
       <c r="EX39" t="n">
-        <v>1.0883</v>
+        <v>1.0845</v>
       </c>
       <c r="EY39" t="n">
-        <v>1.0863</v>
+        <v>1.0825</v>
       </c>
       <c r="EZ39" t="n">
-        <v>1.085</v>
+        <v>1.08</v>
       </c>
       <c r="FA39" t="n">
         <v>1</v>
@@ -21056,12 +21034,10 @@
       <c r="FC39" t="b">
         <v>1</v>
       </c>
-      <c r="FD39" s="2" t="n">
-        <v>45496.70833333334</v>
-      </c>
+      <c r="FD39" t="inlineStr"/>
       <c r="FE39" t="inlineStr"/>
       <c r="FF39" s="2" t="n">
-        <v>45495.69039351852</v>
+        <v>45497.56318287037</v>
       </c>
       <c r="FG39" s="2" t="n">
         <v>45495.625</v>
@@ -21070,14 +21046,14 @@
         <v>1.0885</v>
       </c>
       <c r="FI39" s="2" t="n">
-        <v>45495.69039351852</v>
+        <v>45496.29166666666</v>
       </c>
       <c r="FJ39" t="n">
-        <v>1.0883</v>
+        <v>1.08935</v>
       </c>
       <c r="FK39" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL39" t="n">
@@ -21085,23 +21061,23 @@
       </c>
       <c r="FM39" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN39" t="n">
-        <v>10.47</v>
+        <v>-44.49</v>
       </c>
       <c r="FO39" t="n">
-        <v>288.72</v>
+        <v>785.8100000000001</v>
       </c>
       <c r="FP39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ39" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FR39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="FS39" t="n">
         <v>30</v>
@@ -21561,13 +21537,13 @@
         <v>1.07775</v>
       </c>
       <c r="EX40" t="n">
-        <v>1.08555</v>
+        <v>1.08575</v>
       </c>
       <c r="EY40" t="n">
-        <v>1.08355</v>
+        <v>1.08375</v>
       </c>
       <c r="EZ40" t="n">
-        <v>1.08125</v>
+        <v>1.08225</v>
       </c>
       <c r="FA40" t="n">
         <v>1</v>
@@ -21579,11 +21555,11 @@
         <v>1</v>
       </c>
       <c r="FD40" s="2" t="n">
-        <v>45502.70833333334</v>
+        <v>45502.625</v>
       </c>
       <c r="FE40" t="inlineStr"/>
       <c r="FF40" s="2" t="n">
-        <v>45497.66390046296</v>
+        <v>45497.66524305556</v>
       </c>
       <c r="FG40" s="2" t="n">
         <v>45495.66666666666</v>
@@ -21614,7 +21590,7 @@
         <v>-83.73999999999999</v>
       </c>
       <c r="FO40" t="n">
-        <v>204.98</v>
+        <v>702.0700000000001</v>
       </c>
       <c r="FP40" t="b">
         <v>0</v>
@@ -21623,7 +21599,7 @@
         <v>0</v>
       </c>
       <c r="FR40" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="FS40" t="n">
         <v>30</v>
@@ -22083,13 +22059,13 @@
         <v>1.07888</v>
       </c>
       <c r="EX41" t="n">
-        <v>1.08668</v>
+        <v>1.08488</v>
       </c>
       <c r="EY41" t="n">
-        <v>1.08468</v>
+        <v>1.08288</v>
       </c>
       <c r="EZ41" t="n">
-        <v>1.08238</v>
+        <v>1.08038</v>
       </c>
       <c r="FA41" t="n">
         <v>1</v>
@@ -22101,11 +22077,11 @@
         <v>1</v>
       </c>
       <c r="FD41" s="2" t="n">
-        <v>45502.625</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="FE41" t="inlineStr"/>
       <c r="FF41" s="2" t="n">
-        <v>45498.83989583333</v>
+        <v>45497.63539351852</v>
       </c>
       <c r="FG41" s="2" t="n">
         <v>45495.91666666666</v>
@@ -22136,7 +22112,7 @@
         <v>-24.6</v>
       </c>
       <c r="FO41" t="n">
-        <v>180.38</v>
+        <v>677.47</v>
       </c>
       <c r="FP41" t="b">
         <v>0</v>
@@ -22145,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="FR41" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="FS41" t="n">
         <v>30</v>
@@ -22605,13 +22581,13 @@
         <v>1.07866</v>
       </c>
       <c r="EX42" t="n">
-        <v>1.08646</v>
+        <v>1.08666</v>
       </c>
       <c r="EY42" t="n">
-        <v>1.08446</v>
+        <v>1.08466</v>
       </c>
       <c r="EZ42" t="n">
-        <v>1.08216</v>
+        <v>1.08316</v>
       </c>
       <c r="FA42" t="n">
         <v>1</v>
@@ -22623,11 +22599,11 @@
         <v>1</v>
       </c>
       <c r="FD42" s="2" t="n">
-        <v>45502.625</v>
+        <v>45497.45833333334</v>
       </c>
       <c r="FE42" t="inlineStr"/>
       <c r="FF42" s="2" t="n">
-        <v>45497.719375</v>
+        <v>45496.59717592593</v>
       </c>
       <c r="FG42" s="2" t="n">
         <v>45495.95833333334</v>
@@ -22658,7 +22634,7 @@
         <v>-36.11</v>
       </c>
       <c r="FO42" t="n">
-        <v>144.27</v>
+        <v>641.36</v>
       </c>
       <c r="FP42" t="b">
         <v>0</v>
@@ -22667,7 +22643,7 @@
         <v>0</v>
       </c>
       <c r="FR42" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="FS42" t="n">
         <v>30</v>
@@ -23129,13 +23105,13 @@
         <v>1.07884</v>
       </c>
       <c r="EX43" t="n">
-        <v>1.08664</v>
+        <v>1.08484</v>
       </c>
       <c r="EY43" t="n">
-        <v>1.08464</v>
+        <v>1.08284</v>
       </c>
       <c r="EZ43" t="n">
-        <v>1.08234</v>
+        <v>1.08034</v>
       </c>
       <c r="FA43" t="n">
         <v>1</v>
@@ -23147,11 +23123,11 @@
         <v>1</v>
       </c>
       <c r="FD43" s="2" t="n">
-        <v>45502.625</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="FE43" t="inlineStr"/>
       <c r="FF43" s="2" t="n">
-        <v>45498.83988425926</v>
+        <v>45497.62979166667</v>
       </c>
       <c r="FG43" s="2" t="n">
         <v>45496.125</v>
@@ -23182,7 +23158,7 @@
         <v>-26.69</v>
       </c>
       <c r="FO43" t="n">
-        <v>117.58</v>
+        <v>614.67</v>
       </c>
       <c r="FP43" t="b">
         <v>0</v>
@@ -23191,7 +23167,7 @@
         <v>0</v>
       </c>
       <c r="FR43" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="FS43" t="n">
         <v>30</v>
@@ -23653,13 +23629,13 @@
         <v>1.0788</v>
       </c>
       <c r="EX44" t="n">
-        <v>1.0866</v>
+        <v>1.0848</v>
       </c>
       <c r="EY44" t="n">
-        <v>1.0846</v>
+        <v>1.0828</v>
       </c>
       <c r="EZ44" t="n">
-        <v>1.0823</v>
+        <v>1.0803</v>
       </c>
       <c r="FA44" t="n">
         <v>1</v>
@@ -23671,11 +23647,11 @@
         <v>1</v>
       </c>
       <c r="FD44" s="2" t="n">
-        <v>45502.625</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="FE44" t="inlineStr"/>
       <c r="FF44" s="2" t="n">
-        <v>45498.83983796297</v>
+        <v>45497.62109953703</v>
       </c>
       <c r="FG44" s="2" t="n">
         <v>45496.20833333334</v>
@@ -23706,7 +23682,7 @@
         <v>-28.78</v>
       </c>
       <c r="FO44" t="n">
-        <v>88.80000000000004</v>
+        <v>585.89</v>
       </c>
       <c r="FP44" t="b">
         <v>0</v>
@@ -23715,7 +23691,7 @@
         <v>0</v>
       </c>
       <c r="FR44" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="FS44" t="n">
         <v>30</v>
@@ -24180,10 +24156,10 @@
         <v>1.08436</v>
       </c>
       <c r="EY45" t="n">
-        <v>1.08956</v>
+        <v>1.09136</v>
       </c>
       <c r="EZ45" t="n">
-        <v>1.08986</v>
+        <v>1.09186</v>
       </c>
       <c r="FA45" t="n">
         <v>0</v>
@@ -24228,7 +24204,7 @@
         <v>-48.76</v>
       </c>
       <c r="FO45" t="n">
-        <v>40.04000000000004</v>
+        <v>537.13</v>
       </c>
       <c r="FP45" t="b">
         <v>0</v>
@@ -24237,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="FR45" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="FS45" t="n">
         <v>30</v>
@@ -24699,13 +24675,13 @@
         <v>1.07843</v>
       </c>
       <c r="EX46" t="n">
-        <v>1.08623</v>
+        <v>1.08443</v>
       </c>
       <c r="EY46" t="n">
-        <v>1.08423</v>
+        <v>1.08243</v>
       </c>
       <c r="EZ46" t="n">
-        <v>1.08193</v>
+        <v>1.07993</v>
       </c>
       <c r="FA46" t="n">
         <v>1</v>
@@ -24716,12 +24692,10 @@
       <c r="FC46" t="b">
         <v>1</v>
       </c>
-      <c r="FD46" s="2" t="n">
-        <v>45502.625</v>
-      </c>
+      <c r="FD46" t="inlineStr"/>
       <c r="FE46" t="inlineStr"/>
       <c r="FF46" s="2" t="n">
-        <v>45497.69756944444</v>
+        <v>45497.56241898148</v>
       </c>
       <c r="FG46" s="2" t="n">
         <v>45496.41666666666</v>
@@ -24730,10 +24704,10 @@
         <v>1.08843</v>
       </c>
       <c r="FI46" s="2" t="n">
-        <v>45497.69756944444</v>
+        <v>45497.56241898148</v>
       </c>
       <c r="FJ46" t="n">
-        <v>1.08619</v>
+        <v>1.08444</v>
       </c>
       <c r="FK46" t="inlineStr">
         <is>
@@ -24749,10 +24723,10 @@
         </is>
       </c>
       <c r="FN46" t="n">
-        <v>117.23</v>
+        <v>208.82</v>
       </c>
       <c r="FO46" t="n">
-        <v>157.27</v>
+        <v>745.95</v>
       </c>
       <c r="FP46" t="b">
         <v>1</v>
@@ -25221,13 +25195,13 @@
         <v>1.07756</v>
       </c>
       <c r="EX47" t="n">
-        <v>1.08536</v>
+        <v>1.08556</v>
       </c>
       <c r="EY47" t="n">
-        <v>1.08336</v>
+        <v>1.08356</v>
       </c>
       <c r="EZ47" t="n">
-        <v>1.08106</v>
+        <v>1.08206</v>
       </c>
       <c r="FA47" t="n">
         <v>1</v>
@@ -25239,11 +25213,11 @@
         <v>1</v>
       </c>
       <c r="FD47" s="2" t="n">
-        <v>45503.66666666666</v>
+        <v>45502.625</v>
       </c>
       <c r="FE47" t="inlineStr"/>
       <c r="FF47" s="2" t="n">
-        <v>45497.66150462963</v>
+        <v>45496.77591435185</v>
       </c>
       <c r="FG47" s="2" t="n">
         <v>45496.45833333334</v>
@@ -25252,10 +25226,10 @@
         <v>1.08756</v>
       </c>
       <c r="FI47" s="2" t="n">
-        <v>45497.66150462963</v>
+        <v>45496.77591435185</v>
       </c>
       <c r="FJ47" t="n">
-        <v>1.08537</v>
+        <v>1.08553</v>
       </c>
       <c r="FK47" t="inlineStr">
         <is>
@@ -25271,10 +25245,10 @@
         </is>
       </c>
       <c r="FN47" t="n">
-        <v>114.61</v>
+        <v>106.24</v>
       </c>
       <c r="FO47" t="n">
-        <v>271.8800000000001</v>
+        <v>852.1900000000001</v>
       </c>
       <c r="FP47" t="b">
         <v>1</v>
@@ -25743,13 +25717,13 @@
         <v>1.07609</v>
       </c>
       <c r="EX48" t="n">
-        <v>1.08589</v>
+        <v>1.08409</v>
       </c>
       <c r="EY48" t="n">
-        <v>1.08389</v>
+        <v>1.08209</v>
       </c>
       <c r="EZ48" t="n">
-        <v>1.08259</v>
+        <v>1.08059</v>
       </c>
       <c r="FA48" t="n">
         <v>1</v>
@@ -25761,11 +25735,11 @@
         <v>1</v>
       </c>
       <c r="FD48" s="2" t="n">
-        <v>45502.625</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="FE48" t="inlineStr"/>
       <c r="FF48" s="2" t="n">
-        <v>45497.6725</v>
+        <v>45497.54267361111</v>
       </c>
       <c r="FG48" s="2" t="n">
         <v>45496.58333333334</v>
@@ -25774,10 +25748,10 @@
         <v>1.08609</v>
       </c>
       <c r="FI48" s="2" t="n">
-        <v>45497.6725</v>
+        <v>45497.54267361111</v>
       </c>
       <c r="FJ48" t="n">
-        <v>1.08589</v>
+        <v>1.0841</v>
       </c>
       <c r="FK48" t="inlineStr">
         <is>
@@ -25793,10 +25767,10 @@
         </is>
       </c>
       <c r="FN48" t="n">
-        <v>10.47</v>
+        <v>104.15</v>
       </c>
       <c r="FO48" t="n">
-        <v>282.3500000000001</v>
+        <v>956.34</v>
       </c>
       <c r="FP48" t="b">
         <v>1</v>
@@ -26265,13 +26239,13 @@
         <v>1.07566</v>
       </c>
       <c r="EX49" t="n">
-        <v>1.08546</v>
+        <v>1.08366</v>
       </c>
       <c r="EY49" t="n">
-        <v>1.08346</v>
+        <v>1.08166</v>
       </c>
       <c r="EZ49" t="n">
-        <v>1.08216</v>
+        <v>1.08016</v>
       </c>
       <c r="FA49" t="n">
         <v>1</v>
@@ -26283,11 +26257,11 @@
         <v>1</v>
       </c>
       <c r="FD49" s="2" t="n">
-        <v>45502.625</v>
+        <v>45503.66666666666</v>
       </c>
       <c r="FE49" t="inlineStr"/>
       <c r="FF49" s="2" t="n">
-        <v>45496.71552083334</v>
+        <v>45497.49517361111</v>
       </c>
       <c r="FG49" s="2" t="n">
         <v>45496.625</v>
@@ -26296,10 +26270,10 @@
         <v>1.08566</v>
       </c>
       <c r="FI49" s="2" t="n">
-        <v>45496.71552083334</v>
+        <v>45497.49517361111</v>
       </c>
       <c r="FJ49" t="n">
-        <v>1.08542</v>
+        <v>1.08366</v>
       </c>
       <c r="FK49" t="inlineStr">
         <is>
@@ -26315,10 +26289,10 @@
         </is>
       </c>
       <c r="FN49" t="n">
-        <v>12.56</v>
+        <v>104.67</v>
       </c>
       <c r="FO49" t="n">
-        <v>294.9100000000001</v>
+        <v>1061.01</v>
       </c>
       <c r="FP49" t="b">
         <v>1</v>
@@ -26789,13 +26763,13 @@
         <v>1.07423</v>
       </c>
       <c r="EX50" t="n">
-        <v>1.08403</v>
+        <v>1.08223</v>
       </c>
       <c r="EY50" t="n">
-        <v>1.08203</v>
+        <v>1.08023</v>
       </c>
       <c r="EZ50" t="n">
-        <v>1.08073</v>
+        <v>1.07873</v>
       </c>
       <c r="FA50" t="n">
         <v>1</v>
@@ -26806,12 +26780,10 @@
       <c r="FC50" t="b">
         <v>1</v>
       </c>
-      <c r="FD50" s="2" t="n">
-        <v>45503.66666666666</v>
-      </c>
+      <c r="FD50" t="inlineStr"/>
       <c r="FE50" t="inlineStr"/>
       <c r="FF50" s="2" t="n">
-        <v>45497.53380787037</v>
+        <v>45502.75628472222</v>
       </c>
       <c r="FG50" s="2" t="n">
         <v>45497.25</v>
@@ -26820,14 +26792,14 @@
         <v>1.08423</v>
       </c>
       <c r="FI50" s="2" t="n">
-        <v>45497.53380787037</v>
+        <v>45498.79166666666</v>
       </c>
       <c r="FJ50" t="n">
-        <v>1.08401</v>
+        <v>1.08593</v>
       </c>
       <c r="FK50" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL50" t="n">
@@ -26835,23 +26807,23 @@
       </c>
       <c r="FM50" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN50" t="n">
-        <v>11.51</v>
+        <v>-88.97</v>
       </c>
       <c r="FO50" t="n">
-        <v>306.4200000000001</v>
+        <v>972.04</v>
       </c>
       <c r="FP50" t="b">
+        <v>0</v>
+      </c>
+      <c r="FQ50" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR50" t="n">
         <v>1</v>
-      </c>
-      <c r="FQ50" t="n">
-        <v>5</v>
-      </c>
-      <c r="FR50" t="n">
-        <v>0</v>
       </c>
       <c r="FS50" t="n">
         <v>30</v>
@@ -27311,13 +27283,13 @@
         <v>1.07426</v>
       </c>
       <c r="EX51" t="n">
-        <v>1.08406</v>
+        <v>1.08226</v>
       </c>
       <c r="EY51" t="n">
-        <v>1.08206</v>
+        <v>1.08026</v>
       </c>
       <c r="EZ51" t="n">
-        <v>1.08076</v>
+        <v>1.07876</v>
       </c>
       <c r="FA51" t="n">
         <v>1</v>
@@ -27328,12 +27300,10 @@
       <c r="FC51" t="b">
         <v>1</v>
       </c>
-      <c r="FD51" s="2" t="n">
-        <v>45503.66666666666</v>
-      </c>
+      <c r="FD51" t="inlineStr"/>
       <c r="FE51" t="inlineStr"/>
       <c r="FF51" s="2" t="n">
-        <v>45497.53383101852</v>
+        <v>45502.76416666667</v>
       </c>
       <c r="FG51" s="2" t="n">
         <v>45497.41666666666</v>
@@ -27342,14 +27312,14 @@
         <v>1.08426</v>
       </c>
       <c r="FI51" s="2" t="n">
-        <v>45497.53383101852</v>
+        <v>45498.79166666666</v>
       </c>
       <c r="FJ51" t="n">
-        <v>1.08406</v>
+        <v>1.08593</v>
       </c>
       <c r="FK51" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL51" t="n">
@@ -27357,23 +27327,23 @@
       </c>
       <c r="FM51" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN51" t="n">
-        <v>10.47</v>
+        <v>-87.40000000000001</v>
       </c>
       <c r="FO51" t="n">
-        <v>316.8900000000001</v>
+        <v>884.64</v>
       </c>
       <c r="FP51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ51" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="FR51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FS51" t="n">
         <v>30</v>
@@ -27833,13 +27803,13 @@
         <v>1.07287</v>
       </c>
       <c r="EX52" t="n">
-        <v>1.08267</v>
+        <v>1.08087</v>
       </c>
       <c r="EY52" t="n">
-        <v>1.08067</v>
+        <v>1.07887</v>
       </c>
       <c r="EZ52" t="n">
-        <v>1.07937</v>
+        <v>1.07737</v>
       </c>
       <c r="FA52" t="n">
         <v>1</v>
@@ -27850,12 +27820,10 @@
       <c r="FC52" t="b">
         <v>1</v>
       </c>
-      <c r="FD52" s="2" t="n">
-        <v>45505.5</v>
-      </c>
+      <c r="FD52" t="inlineStr"/>
       <c r="FE52" t="inlineStr"/>
       <c r="FF52" s="2" t="n">
-        <v>45503.46453703703</v>
+        <v>45503.67709490741</v>
       </c>
       <c r="FG52" s="2" t="n">
         <v>45497.45833333334</v>
@@ -27886,7 +27854,7 @@
         <v>-160.15</v>
       </c>
       <c r="FO52" t="n">
-        <v>156.7400000000001</v>
+        <v>724.49</v>
       </c>
       <c r="FP52" t="b">
         <v>0</v>
@@ -27895,7 +27863,7 @@
         <v>0</v>
       </c>
       <c r="FR52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FS52" t="n">
         <v>30</v>
@@ -28357,13 +28325,13 @@
         <v>1.07369</v>
       </c>
       <c r="EX53" t="n">
-        <v>1.08349</v>
+        <v>1.08169</v>
       </c>
       <c r="EY53" t="n">
-        <v>1.08149</v>
+        <v>1.07969</v>
       </c>
       <c r="EZ53" t="n">
-        <v>1.08019</v>
+        <v>1.07819</v>
       </c>
       <c r="FA53" t="n">
         <v>1</v>
@@ -28375,11 +28343,11 @@
         <v>1</v>
       </c>
       <c r="FD53" s="2" t="n">
-        <v>45503.66666666666</v>
+        <v>45505.54166666666</v>
       </c>
       <c r="FE53" t="inlineStr"/>
       <c r="FF53" s="2" t="n">
-        <v>45502.52984953704</v>
+        <v>45502.75050925926</v>
       </c>
       <c r="FG53" s="2" t="n">
         <v>45497.91666666666</v>
@@ -28410,7 +28378,7 @@
         <v>-117.23</v>
       </c>
       <c r="FO53" t="n">
-        <v>39.51000000000009</v>
+        <v>607.26</v>
       </c>
       <c r="FP53" t="b">
         <v>0</v>
@@ -28419,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="FR53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="FS53" t="n">
         <v>30</v>
@@ -28879,13 +28847,13 @@
         <v>1.07342</v>
       </c>
       <c r="EX54" t="n">
-        <v>1.08322</v>
+        <v>1.08142</v>
       </c>
       <c r="EY54" t="n">
-        <v>1.08122</v>
+        <v>1.07942</v>
       </c>
       <c r="EZ54" t="n">
-        <v>1.07992</v>
+        <v>1.07792</v>
       </c>
       <c r="FA54" t="n">
         <v>1</v>
@@ -28897,11 +28865,11 @@
         <v>1</v>
       </c>
       <c r="FD54" s="2" t="n">
-        <v>45505.5</v>
+        <v>45505.54166666666</v>
       </c>
       <c r="FE54" t="inlineStr"/>
       <c r="FF54" s="2" t="n">
-        <v>45503.48103009259</v>
+        <v>45503.6845949074</v>
       </c>
       <c r="FG54" s="2" t="n">
         <v>45498.41666666666</v>
@@ -28932,7 +28900,7 @@
         <v>-131.36</v>
       </c>
       <c r="FO54" t="n">
-        <v>-91.84999999999992</v>
+        <v>475.9</v>
       </c>
       <c r="FP54" t="b">
         <v>0</v>
@@ -28941,7 +28909,7 @@
         <v>0</v>
       </c>
       <c r="FR54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="FS54" t="n">
         <v>30</v>
@@ -29401,13 +29369,13 @@
         <v>1.07385</v>
       </c>
       <c r="EX55" t="n">
-        <v>1.08365</v>
+        <v>1.08185</v>
       </c>
       <c r="EY55" t="n">
-        <v>1.08165</v>
+        <v>1.07985</v>
       </c>
       <c r="EZ55" t="n">
-        <v>1.08035</v>
+        <v>1.07835</v>
       </c>
       <c r="FA55" t="n">
         <v>1</v>
@@ -29419,11 +29387,11 @@
         <v>1</v>
       </c>
       <c r="FD55" s="2" t="n">
-        <v>45503.66666666666</v>
+        <v>45505.54166666666</v>
       </c>
       <c r="FE55" t="inlineStr"/>
       <c r="FF55" s="2" t="n">
-        <v>45502.53194444445</v>
+        <v>45502.75199074074</v>
       </c>
       <c r="FG55" s="2" t="n">
         <v>45498.70833333334</v>
@@ -29454,7 +29422,7 @@
         <v>-108.86</v>
       </c>
       <c r="FO55" t="n">
-        <v>-200.7099999999999</v>
+        <v>367.04</v>
       </c>
       <c r="FP55" t="b">
         <v>0</v>
@@ -29463,7 +29431,7 @@
         <v>0</v>
       </c>
       <c r="FR55" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="FS55" t="n">
         <v>30</v>
@@ -29923,13 +29891,13 @@
         <v>1.09593</v>
       </c>
       <c r="EX56" t="n">
-        <v>1.08613</v>
+        <v>1.08093</v>
       </c>
       <c r="EY56" t="n">
-        <v>1.08813</v>
+        <v>1.08793</v>
       </c>
       <c r="EZ56" t="n">
-        <v>1.08943</v>
+        <v>1.08843</v>
       </c>
       <c r="FA56" t="n">
         <v>0</v>
@@ -29938,14 +29906,14 @@
         <v>0.03</v>
       </c>
       <c r="FC56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD56" s="2" t="n">
-        <v>45506.70833333334</v>
+        <v>45506.66666666666</v>
       </c>
       <c r="FE56" t="inlineStr"/>
       <c r="FF56" s="2" t="n">
-        <v>45499.71210648148</v>
+        <v>45502.72559027778</v>
       </c>
       <c r="FG56" s="2" t="n">
         <v>45498.79166666666</v>
@@ -29976,7 +29944,7 @@
         <v>-29.88</v>
       </c>
       <c r="FO56" t="n">
-        <v>-230.5899999999999</v>
+        <v>337.16</v>
       </c>
       <c r="FP56" t="b">
         <v>0</v>
@@ -29985,7 +29953,7 @@
         <v>0</v>
       </c>
       <c r="FR56" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="FS56" t="n">
         <v>30</v>
@@ -30447,13 +30415,13 @@
         <v>1.07537</v>
       </c>
       <c r="EX57" t="n">
-        <v>1.08517</v>
+        <v>1.08337</v>
       </c>
       <c r="EY57" t="n">
-        <v>1.08317</v>
+        <v>1.08137</v>
       </c>
       <c r="EZ57" t="n">
-        <v>1.08187</v>
+        <v>1.07987</v>
       </c>
       <c r="FA57" t="n">
         <v>1</v>
@@ -30465,11 +30433,11 @@
         <v>1</v>
       </c>
       <c r="FD57" s="2" t="n">
-        <v>45502.625</v>
+        <v>45505.5</v>
       </c>
       <c r="FE57" t="inlineStr"/>
       <c r="FF57" s="2" t="n">
-        <v>45498.93435185185</v>
+        <v>45503.48611111111</v>
       </c>
       <c r="FG57" s="2" t="n">
         <v>45498.875</v>
@@ -30478,14 +30446,14 @@
         <v>1.08537</v>
       </c>
       <c r="FI57" s="2" t="n">
-        <v>45498.93435185185</v>
+        <v>45499.20833333334</v>
       </c>
       <c r="FJ57" t="n">
-        <v>1.08516</v>
+        <v>1.08575</v>
       </c>
       <c r="FK57" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL57" t="n">
@@ -30493,23 +30461,23 @@
       </c>
       <c r="FM57" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN57" t="n">
-        <v>10.99</v>
+        <v>-19.89</v>
       </c>
       <c r="FO57" t="n">
-        <v>-219.5999999999999</v>
+        <v>317.27</v>
       </c>
       <c r="FP57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR57" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="FS57" t="n">
         <v>30</v>
@@ -30971,13 +30939,13 @@
         <v>1.09574</v>
       </c>
       <c r="EX58" t="n">
-        <v>1.08594</v>
+        <v>1.08074</v>
       </c>
       <c r="EY58" t="n">
-        <v>1.08794</v>
+        <v>1.08774</v>
       </c>
       <c r="EZ58" t="n">
-        <v>1.08924</v>
+        <v>1.08824</v>
       </c>
       <c r="FA58" t="n">
         <v>0</v>
@@ -30986,14 +30954,14 @@
         <v>0.03</v>
       </c>
       <c r="FC58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD58" s="2" t="n">
-        <v>45506.70833333334</v>
+        <v>45506.66666666666</v>
       </c>
       <c r="FE58" t="inlineStr"/>
       <c r="FF58" s="2" t="n">
-        <v>45499.72556712963</v>
+        <v>45502.72667824074</v>
       </c>
       <c r="FG58" s="2" t="n">
         <v>45499.20833333334</v>
@@ -31002,14 +30970,14 @@
         <v>1.08574</v>
       </c>
       <c r="FI58" s="2" t="n">
-        <v>45499.72556712963</v>
+        <v>45499.75</v>
       </c>
       <c r="FJ58" t="n">
-        <v>1.08593</v>
+        <v>1.08552</v>
       </c>
       <c r="FK58" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL58" t="n">
@@ -31017,23 +30985,23 @@
       </c>
       <c r="FM58" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN58" t="n">
-        <v>9.960000000000001</v>
+        <v>-11.53</v>
       </c>
       <c r="FO58" t="n">
-        <v>-209.6399999999999</v>
+        <v>305.74</v>
       </c>
       <c r="FP58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FR58" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="FS58" t="n">
         <v>30</v>
@@ -31495,13 +31463,13 @@
         <v>1.09576</v>
       </c>
       <c r="EX59" t="n">
-        <v>1.08596</v>
+        <v>1.08076</v>
       </c>
       <c r="EY59" t="n">
-        <v>1.08796</v>
+        <v>1.08776</v>
       </c>
       <c r="EZ59" t="n">
-        <v>1.08926</v>
+        <v>1.08826</v>
       </c>
       <c r="FA59" t="n">
         <v>0</v>
@@ -31510,14 +31478,14 @@
         <v>0.03</v>
       </c>
       <c r="FC59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD59" s="2" t="n">
-        <v>45506.70833333334</v>
+        <v>45506.66666666666</v>
       </c>
       <c r="FE59" t="inlineStr"/>
       <c r="FF59" s="2" t="n">
-        <v>45499.72549768518</v>
+        <v>45502.72664351852</v>
       </c>
       <c r="FG59" s="2" t="n">
         <v>45499.29166666666</v>
@@ -31526,14 +31494,14 @@
         <v>1.08576</v>
       </c>
       <c r="FI59" s="2" t="n">
-        <v>45499.72549768518</v>
+        <v>45499.75</v>
       </c>
       <c r="FJ59" t="n">
-        <v>1.08599</v>
+        <v>1.08552</v>
       </c>
       <c r="FK59" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL59" t="n">
@@ -31541,23 +31509,23 @@
       </c>
       <c r="FM59" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN59" t="n">
-        <v>12.06</v>
+        <v>-12.58</v>
       </c>
       <c r="FO59" t="n">
-        <v>-197.5799999999999</v>
+        <v>293.16</v>
       </c>
       <c r="FP59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FR59" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="FS59" t="n">
         <v>30</v>
@@ -32017,13 +31985,13 @@
         <v>1.09556</v>
       </c>
       <c r="EX60" t="n">
-        <v>1.08576</v>
+        <v>1.08056</v>
       </c>
       <c r="EY60" t="n">
-        <v>1.08776</v>
+        <v>1.08756</v>
       </c>
       <c r="EZ60" t="n">
-        <v>1.08906</v>
+        <v>1.08806</v>
       </c>
       <c r="FA60" t="n">
         <v>0</v>
@@ -32032,14 +32000,14 @@
         <v>0.03</v>
       </c>
       <c r="FC60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD60" s="2" t="n">
-        <v>45506.70833333334</v>
+        <v>45506.66666666666</v>
       </c>
       <c r="FE60" t="inlineStr"/>
       <c r="FF60" s="2" t="n">
-        <v>45499.72581018518</v>
+        <v>45502.73018518519</v>
       </c>
       <c r="FG60" s="2" t="n">
         <v>45499.58333333334</v>
@@ -32048,14 +32016,14 @@
         <v>1.08556</v>
       </c>
       <c r="FI60" s="2" t="n">
-        <v>45499.72581018518</v>
+        <v>45499.75</v>
       </c>
       <c r="FJ60" t="n">
-        <v>1.08576</v>
+        <v>1.08552</v>
       </c>
       <c r="FK60" t="inlineStr">
         <is>
-          <t>auto</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="FL60" t="n">
@@ -32063,23 +32031,23 @@
       </c>
       <c r="FM60" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="FN60" t="n">
-        <v>10.49</v>
+        <v>-2.1</v>
       </c>
       <c r="FO60" t="n">
-        <v>-187.0899999999999</v>
+        <v>291.06</v>
       </c>
       <c r="FP60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FQ60" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="FR60" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="FS60" t="n">
         <v>30</v>
@@ -32542,10 +32510,10 @@
         <v>1.08104</v>
       </c>
       <c r="EY61" t="n">
-        <v>1.08624</v>
+        <v>1.08804</v>
       </c>
       <c r="EZ61" t="n">
-        <v>1.08654</v>
+        <v>1.08854</v>
       </c>
       <c r="FA61" t="n">
         <v>0</v>
@@ -32592,7 +32560,7 @@
         <v>-27.26</v>
       </c>
       <c r="FO61" t="n">
-        <v>-214.3499999999999</v>
+        <v>263.8</v>
       </c>
       <c r="FP61" t="b">
         <v>0</v>
@@ -32601,7 +32569,7 @@
         <v>0</v>
       </c>
       <c r="FR61" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="FS61" t="n">
         <v>30</v>
@@ -33066,10 +33034,10 @@
         <v>1.08146</v>
       </c>
       <c r="EY62" t="n">
-        <v>1.08666</v>
+        <v>1.08846</v>
       </c>
       <c r="EZ62" t="n">
-        <v>1.08696</v>
+        <v>1.08896</v>
       </c>
       <c r="FA62" t="n">
         <v>0</v>
@@ -33116,7 +33084,7 @@
         <v>-49.28</v>
       </c>
       <c r="FO62" t="n">
-        <v>-263.6299999999999</v>
+        <v>214.52</v>
       </c>
       <c r="FP62" t="b">
         <v>0</v>
@@ -33125,7 +33093,7 @@
         <v>0</v>
       </c>
       <c r="FR62" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="FS62" t="n">
         <v>30</v>
@@ -33587,13 +33555,13 @@
         <v>1.07552</v>
       </c>
       <c r="EX63" t="n">
-        <v>1.08332</v>
+        <v>1.08352</v>
       </c>
       <c r="EY63" t="n">
-        <v>1.08132</v>
+        <v>1.08152</v>
       </c>
       <c r="EZ63" t="n">
-        <v>1.07902</v>
+        <v>1.08002</v>
       </c>
       <c r="FA63" t="n">
         <v>1</v>
@@ -33609,7 +33577,7 @@
       </c>
       <c r="FE63" t="inlineStr"/>
       <c r="FF63" s="2" t="n">
-        <v>45503.48373842592</v>
+        <v>45503.56547453703</v>
       </c>
       <c r="FG63" s="2" t="n">
         <v>45499.75</v>
@@ -33640,7 +33608,7 @@
         <v>-49.72</v>
       </c>
       <c r="FO63" t="n">
-        <v>-313.3499999999999</v>
+        <v>164.8</v>
       </c>
       <c r="FP63" t="b">
         <v>0</v>
@@ -33649,7 +33617,7 @@
         <v>0</v>
       </c>
       <c r="FR63" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="FS63" t="n">
         <v>30</v>
@@ -34114,10 +34082,10 @@
         <v>1.08146</v>
       </c>
       <c r="EY64" t="n">
-        <v>1.08666</v>
+        <v>1.08846</v>
       </c>
       <c r="EZ64" t="n">
-        <v>1.08696</v>
+        <v>1.08896</v>
       </c>
       <c r="FA64" t="n">
         <v>0</v>
@@ -34164,7 +34132,7 @@
         <v>-260.55</v>
       </c>
       <c r="FO64" t="n">
-        <v>-573.8999999999999</v>
+        <v>-95.75</v>
       </c>
       <c r="FP64" t="b">
         <v>0</v>
@@ -34173,7 +34141,7 @@
         <v>0</v>
       </c>
       <c r="FR64" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="FS64" t="n">
         <v>30</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -1732,7 +1732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM2" t="n">
-        <v>74.76000000000001</v>
+        <v>74.87</v>
       </c>
       <c r="FN2" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>0.4375</v>
       </c>
       <c r="FP2" t="n">
-        <v>774.76</v>
+        <v>774.87</v>
       </c>
       <c r="FQ2" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>0.01</v>
       </c>
       <c r="FM3" t="n">
-        <v>531.15</v>
+        <v>531.89</v>
       </c>
       <c r="FN3" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>1.460659722222222</v>
       </c>
       <c r="FP3" t="n">
-        <v>1305.91</v>
+        <v>1306.76</v>
       </c>
       <c r="FQ3" t="b">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0.01</v>
       </c>
       <c r="FM4" t="n">
-        <v>-132.59</v>
+        <v>-132.79</v>
       </c>
       <c r="FN4" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP4" t="n">
-        <v>1173.32</v>
+        <v>1173.97</v>
       </c>
       <c r="FQ4" t="b">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0.01</v>
       </c>
       <c r="FM5" t="n">
-        <v>302.24</v>
+        <v>302.68</v>
       </c>
       <c r="FN5" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="FP5" t="n">
-        <v>1475.56</v>
+        <v>1476.65</v>
       </c>
       <c r="FQ5" t="b">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>0.01</v>
       </c>
       <c r="FM6" t="n">
-        <v>126.73</v>
+        <v>126.91</v>
       </c>
       <c r="FN6" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>0.46875</v>
       </c>
       <c r="FP6" t="n">
-        <v>1602.29</v>
+        <v>1603.56</v>
       </c>
       <c r="FQ6" t="b">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.01</v>
       </c>
       <c r="FM7" t="n">
-        <v>36.41</v>
+        <v>36.46</v>
       </c>
       <c r="FN7" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>0.125</v>
       </c>
       <c r="FP7" t="n">
-        <v>1638.7</v>
+        <v>1640.02</v>
       </c>
       <c r="FQ7" t="b">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM8" t="n">
-        <v>16.79</v>
+        <v>16.82</v>
       </c>
       <c r="FN8" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP8" t="n">
-        <v>1655.49</v>
+        <v>1656.84</v>
       </c>
       <c r="FQ8" t="b">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>0.01</v>
       </c>
       <c r="FM9" t="n">
-        <v>-28.11</v>
+        <v>-28.15</v>
       </c>
       <c r="FN9" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>0.07291666666666667</v>
       </c>
       <c r="FP9" t="n">
-        <v>1627.38</v>
+        <v>1628.69</v>
       </c>
       <c r="FQ9" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0.01</v>
       </c>
       <c r="FM10" t="n">
-        <v>83.59999999999999</v>
+        <v>83.72</v>
       </c>
       <c r="FN10" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP10" t="n">
-        <v>1710.98</v>
+        <v>1712.41</v>
       </c>
       <c r="FQ10" t="b">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>0.01</v>
       </c>
       <c r="FM11" t="n">
-        <v>542.09</v>
+        <v>542.87</v>
       </c>
       <c r="FN11" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>2.626863425925926</v>
       </c>
       <c r="FP11" t="n">
-        <v>2253.07</v>
+        <v>2255.28</v>
       </c>
       <c r="FQ11" t="b">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>0.01</v>
       </c>
       <c r="FM12" t="n">
-        <v>-524.51</v>
+        <v>-525.3200000000001</v>
       </c>
       <c r="FN12" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>0.1505787037037037</v>
       </c>
       <c r="FP12" t="n">
-        <v>1728.56</v>
+        <v>1729.96</v>
       </c>
       <c r="FQ12" t="b">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0.01</v>
       </c>
       <c r="FM13" t="n">
-        <v>-337.65</v>
+        <v>-338.17</v>
       </c>
       <c r="FN13" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP13" t="n">
-        <v>1390.91</v>
+        <v>1391.79</v>
       </c>
       <c r="FQ13" t="b">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0.01</v>
       </c>
       <c r="FM14" t="n">
-        <v>-166.7</v>
+        <v>-166.96</v>
       </c>
       <c r="FN14" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>0.21875</v>
       </c>
       <c r="FP14" t="n">
-        <v>1224.21</v>
+        <v>1224.83</v>
       </c>
       <c r="FQ14" t="b">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0.01</v>
       </c>
       <c r="FM15" t="n">
-        <v>288.63</v>
+        <v>289.05</v>
       </c>
       <c r="FN15" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>0.8125</v>
       </c>
       <c r="FP15" t="n">
-        <v>1512.84</v>
+        <v>1513.88</v>
       </c>
       <c r="FQ15" t="b">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>0.01</v>
       </c>
       <c r="FM16" t="n">
-        <v>16.44</v>
+        <v>16.46</v>
       </c>
       <c r="FN16" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP16" t="n">
-        <v>1529.28</v>
+        <v>1530.34</v>
       </c>
       <c r="FQ16" t="b">
         <v>1</v>
@@ -9347,7 +9347,7 @@
         <v>0.01</v>
       </c>
       <c r="FM17" t="n">
-        <v>-58.69</v>
+        <v>-58.78</v>
       </c>
       <c r="FN17" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP17" t="n">
-        <v>1470.59</v>
+        <v>1471.56</v>
       </c>
       <c r="FQ17" t="b">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0.01</v>
       </c>
       <c r="FM18" t="n">
-        <v>-67.34999999999999</v>
+        <v>-67.45999999999999</v>
       </c>
       <c r="FN18" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP18" t="n">
-        <v>1403.24</v>
+        <v>1404.1</v>
       </c>
       <c r="FQ18" t="b">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0.01</v>
       </c>
       <c r="FM19" t="n">
-        <v>-93.69</v>
+        <v>-93.84</v>
       </c>
       <c r="FN19" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP19" t="n">
-        <v>1309.55</v>
+        <v>1310.26</v>
       </c>
       <c r="FQ19" t="b">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0.01</v>
       </c>
       <c r="FM20" t="n">
-        <v>182.94</v>
+        <v>183.2</v>
       </c>
       <c r="FN20" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="FP20" t="n">
-        <v>1492.49</v>
+        <v>1493.46</v>
       </c>
       <c r="FQ20" t="b">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>0.01</v>
       </c>
       <c r="FM21" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="FN21" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP21" t="n">
-        <v>1496.02</v>
+        <v>1497</v>
       </c>
       <c r="FQ21" t="b">
         <v>1</v>
@@ -11914,7 +11914,7 @@
         <v>0.01</v>
       </c>
       <c r="FM22" t="n">
-        <v>-45.08</v>
+        <v>-45.15</v>
       </c>
       <c r="FN22" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP22" t="n">
-        <v>1450.94</v>
+        <v>1451.85</v>
       </c>
       <c r="FQ22" t="b">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0.01</v>
       </c>
       <c r="FM23" t="n">
-        <v>530.4299999999999</v>
+        <v>531.2</v>
       </c>
       <c r="FN23" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>0.3751851851851852</v>
       </c>
       <c r="FP23" t="n">
-        <v>1981.37</v>
+        <v>1983.05</v>
       </c>
       <c r="FQ23" t="b">
         <v>1</v>
@@ -12946,7 +12946,7 @@
         <v>0.01</v>
       </c>
       <c r="FM24" t="n">
-        <v>282.8</v>
+        <v>283.21</v>
       </c>
       <c r="FN24" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="FP24" t="n">
-        <v>2264.170000000001</v>
+        <v>2266.26</v>
       </c>
       <c r="FQ24" t="b">
         <v>1</v>
@@ -13463,7 +13463,7 @@
         <v>0.01</v>
       </c>
       <c r="FM25" t="n">
-        <v>91.91</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="FN25" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>0.125</v>
       </c>
       <c r="FP25" t="n">
-        <v>2356.08</v>
+        <v>2358.3</v>
       </c>
       <c r="FQ25" t="b">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>0.01</v>
       </c>
       <c r="FM26" t="n">
-        <v>8.66</v>
+        <v>8.67</v>
       </c>
       <c r="FN26" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>0.1145833333333333</v>
       </c>
       <c r="FP26" t="n">
-        <v>2364.74</v>
+        <v>2366.97</v>
       </c>
       <c r="FQ26" t="b">
         <v>1</v>
@@ -14497,7 +14497,7 @@
         <v>0.01</v>
       </c>
       <c r="FM27" t="n">
-        <v>-57.1</v>
+        <v>-57.19</v>
       </c>
       <c r="FN27" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP27" t="n">
-        <v>2307.64</v>
+        <v>2309.78</v>
       </c>
       <c r="FQ27" t="b">
         <v>0</v>
@@ -15014,7 +15014,7 @@
         <v>0.01</v>
       </c>
       <c r="FM28" t="n">
-        <v>-36.06</v>
+        <v>-36.12</v>
       </c>
       <c r="FN28" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP28" t="n">
-        <v>2271.58</v>
+        <v>2273.66</v>
       </c>
       <c r="FQ28" t="b">
         <v>0</v>
@@ -15533,7 +15533,7 @@
         <v>0.01</v>
       </c>
       <c r="FM29" t="n">
-        <v>-508.07</v>
+        <v>-508.87</v>
       </c>
       <c r="FN29" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>0.05802083333333333</v>
       </c>
       <c r="FP29" t="n">
-        <v>1763.51</v>
+        <v>1764.79</v>
       </c>
       <c r="FQ29" t="b">
         <v>0</v>
@@ -16052,7 +16052,7 @@
         <v>0.01</v>
       </c>
       <c r="FM30" t="n">
-        <v>-530.6900000000001</v>
+        <v>-531.54</v>
       </c>
       <c r="FN30" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>0.1334606481481481</v>
       </c>
       <c r="FP30" t="n">
-        <v>1232.82</v>
+        <v>1233.25</v>
       </c>
       <c r="FQ30" t="b">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0.01</v>
       </c>
       <c r="FM31" t="n">
-        <v>109.23</v>
+        <v>109.39</v>
       </c>
       <c r="FN31" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>0.5625</v>
       </c>
       <c r="FP31" t="n">
-        <v>1342.05</v>
+        <v>1342.64</v>
       </c>
       <c r="FQ31" t="b">
         <v>1</v>
@@ -17088,7 +17088,7 @@
         <v>0.01</v>
       </c>
       <c r="FM32" t="n">
-        <v>-110.15</v>
+        <v>-110.31</v>
       </c>
       <c r="FN32" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP32" t="n">
-        <v>1231.9</v>
+        <v>1232.33</v>
       </c>
       <c r="FQ32" t="b">
         <v>0</v>
@@ -17603,7 +17603,7 @@
         <v>0.01</v>
       </c>
       <c r="FM33" t="n">
-        <v>-211.1</v>
+        <v>-211.41</v>
       </c>
       <c r="FN33" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="FP33" t="n">
-        <v>1020.8</v>
+        <v>1020.92</v>
       </c>
       <c r="FQ33" t="b">
         <v>0</v>
@@ -18120,7 +18120,7 @@
         <v>0.01</v>
       </c>
       <c r="FM34" t="n">
-        <v>-288.71</v>
+        <v>-289.14</v>
       </c>
       <c r="FN34" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP34" t="n">
-        <v>732.0900000000004</v>
+        <v>731.7800000000002</v>
       </c>
       <c r="FQ34" t="b">
         <v>0</v>
@@ -18635,7 +18635,7 @@
         <v>0.01</v>
       </c>
       <c r="FM35" t="n">
-        <v>34.65</v>
+        <v>34.69</v>
       </c>
       <c r="FN35" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>0.34375</v>
       </c>
       <c r="FP35" t="n">
-        <v>766.7400000000004</v>
+        <v>766.4700000000003</v>
       </c>
       <c r="FQ35" t="b">
         <v>1</v>
@@ -19154,7 +19154,7 @@
         <v>0.01</v>
       </c>
       <c r="FM36" t="n">
-        <v>-144.26</v>
+        <v>-144.48</v>
       </c>
       <c r="FN36" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>0.40625</v>
       </c>
       <c r="FP36" t="n">
-        <v>622.4800000000004</v>
+        <v>621.9900000000002</v>
       </c>
       <c r="FQ36" t="b">
         <v>0</v>
@@ -19671,7 +19671,7 @@
         <v>0.01</v>
       </c>
       <c r="FM37" t="n">
-        <v>-227.71</v>
+        <v>-228.05</v>
       </c>
       <c r="FN37" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>0.3125</v>
       </c>
       <c r="FP37" t="n">
-        <v>394.7700000000003</v>
+        <v>393.9400000000002</v>
       </c>
       <c r="FQ37" t="b">
         <v>0</v>
@@ -20190,7 +20190,7 @@
         <v>0.01</v>
       </c>
       <c r="FM38" t="n">
-        <v>95.09999999999999</v>
+        <v>95.23</v>
       </c>
       <c r="FN38" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP38" t="n">
-        <v>489.8700000000003</v>
+        <v>489.1700000000002</v>
       </c>
       <c r="FQ38" t="b">
         <v>1</v>
@@ -20705,7 +20705,7 @@
         <v>0.01</v>
       </c>
       <c r="FM39" t="n">
-        <v>58.33</v>
+        <v>58.41</v>
       </c>
       <c r="FN39" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>0.71875</v>
       </c>
       <c r="FP39" t="n">
-        <v>548.2000000000004</v>
+        <v>547.5800000000003</v>
       </c>
       <c r="FQ39" t="b">
         <v>1</v>
@@ -21220,7 +21220,7 @@
         <v>0.01</v>
       </c>
       <c r="FM40" t="n">
-        <v>-316.81</v>
+        <v>-317.29</v>
       </c>
       <c r="FN40" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP40" t="n">
-        <v>231.3900000000004</v>
+        <v>230.2900000000002</v>
       </c>
       <c r="FQ40" t="b">
         <v>0</v>
@@ -21735,7 +21735,7 @@
         <v>0.01</v>
       </c>
       <c r="FM41" t="n">
-        <v>-216.04</v>
+        <v>-216.37</v>
       </c>
       <c r="FN41" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP41" t="n">
-        <v>15.35000000000039</v>
+        <v>13.92000000000024</v>
       </c>
       <c r="FQ41" t="b">
         <v>0</v>
@@ -22254,7 +22254,7 @@
         <v>0.01</v>
       </c>
       <c r="FM42" t="n">
-        <v>-135.42</v>
+        <v>-135.63</v>
       </c>
       <c r="FN42" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="FP42" t="n">
-        <v>-120.0699999999996</v>
+        <v>-121.7099999999998</v>
       </c>
       <c r="FQ42" t="b">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0.01</v>
       </c>
       <c r="FM43" t="n">
-        <v>-148.15</v>
+        <v>-148.38</v>
       </c>
       <c r="FN43" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>2.302083333333333</v>
       </c>
       <c r="FP43" t="n">
-        <v>-268.2199999999996</v>
+        <v>-270.0899999999997</v>
       </c>
       <c r="FQ43" t="b">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>0.01</v>
       </c>
       <c r="FM44" t="n">
-        <v>862.22</v>
+        <v>863.47</v>
       </c>
       <c r="FN44" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>1.125</v>
       </c>
       <c r="FP44" t="n">
-        <v>594.0000000000005</v>
+        <v>593.3800000000003</v>
       </c>
       <c r="FQ44" t="b">
         <v>1</v>
@@ -23803,7 +23803,7 @@
         <v>0.01</v>
       </c>
       <c r="FM45" t="n">
-        <v>-500.67</v>
+        <v>-501.44</v>
       </c>
       <c r="FN45" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP45" t="n">
-        <v>93.33000000000044</v>
+        <v>91.94000000000034</v>
       </c>
       <c r="FQ45" t="b">
         <v>0</v>
@@ -24320,7 +24320,7 @@
         <v>0.01</v>
       </c>
       <c r="FM46" t="n">
-        <v>-208.44</v>
+        <v>-208.76</v>
       </c>
       <c r="FN46" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>0.5</v>
       </c>
       <c r="FP46" t="n">
-        <v>-115.1099999999996</v>
+        <v>-116.8199999999997</v>
       </c>
       <c r="FQ46" t="b">
         <v>0</v>
@@ -24839,7 +24839,7 @@
         <v>0.01</v>
       </c>
       <c r="FM47" t="n">
-        <v>82.55</v>
+        <v>82.67</v>
       </c>
       <c r="FN47" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="FP47" t="n">
-        <v>-32.55999999999956</v>
+        <v>-34.14999999999965</v>
       </c>
       <c r="FQ47" t="b">
         <v>1</v>
@@ -25358,7 +25358,7 @@
         <v>0.01</v>
       </c>
       <c r="FM48" t="n">
-        <v>-110.67</v>
+        <v>-110.84</v>
       </c>
       <c r="FN48" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP48" t="n">
-        <v>-143.2299999999996</v>
+        <v>-144.9899999999997</v>
       </c>
       <c r="FQ48" t="b">
         <v>0</v>
@@ -25875,7 +25875,7 @@
         <v>0.01</v>
       </c>
       <c r="FM49" t="n">
-        <v>-198.54</v>
+        <v>-198.84</v>
       </c>
       <c r="FN49" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP49" t="n">
-        <v>-341.7699999999995</v>
+        <v>-343.8299999999997</v>
       </c>
       <c r="FQ49" t="b">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>0.01</v>
       </c>
       <c r="FM50" t="n">
-        <v>-18.39</v>
+        <v>-18.41</v>
       </c>
       <c r="FN50" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP50" t="n">
-        <v>-360.1599999999995</v>
+        <v>-362.2399999999997</v>
       </c>
       <c r="FQ50" t="b">
         <v>0</v>
@@ -26909,7 +26909,7 @@
         <v>0.01</v>
       </c>
       <c r="FM51" t="n">
-        <v>31.46</v>
+        <v>31.51</v>
       </c>
       <c r="FN51" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP51" t="n">
-        <v>-328.6999999999995</v>
+        <v>-330.7299999999997</v>
       </c>
       <c r="FQ51" t="b">
         <v>1</v>
@@ -27439,7 +27439,7 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="FP52" t="n">
-        <v>-333.8299999999995</v>
+        <v>-335.8599999999997</v>
       </c>
       <c r="FQ52" t="b">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0.01</v>
       </c>
       <c r="FM53" t="n">
-        <v>-226.29</v>
+        <v>-226.63</v>
       </c>
       <c r="FN53" t="inlineStr">
         <is>
@@ -27954,7 +27954,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP53" t="n">
-        <v>-560.1199999999995</v>
+        <v>-562.4899999999998</v>
       </c>
       <c r="FQ53" t="b">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0.01</v>
       </c>
       <c r="FM54" t="n">
-        <v>-247.51</v>
+        <v>-247.88</v>
       </c>
       <c r="FN54" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FP54" t="n">
-        <v>-807.6299999999995</v>
+        <v>-810.3699999999998</v>
       </c>
       <c r="FQ54" t="b">
         <v>0</v>
@@ -28975,7 +28975,7 @@
         <v>0.01</v>
       </c>
       <c r="FM55" t="n">
-        <v>5.48</v>
+        <v>5.49</v>
       </c>
       <c r="FN55" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP55" t="n">
-        <v>-802.1499999999995</v>
+        <v>-804.8799999999998</v>
       </c>
       <c r="FQ55" t="b">
         <v>1</v>
@@ -29496,7 +29496,7 @@
         <v>0.01</v>
       </c>
       <c r="FM56" t="n">
-        <v>-351.64</v>
+        <v>-352.16</v>
       </c>
       <c r="FN56" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP56" t="n">
-        <v>-1153.79</v>
+        <v>-1157.04</v>
       </c>
       <c r="FQ56" t="b">
         <v>0</v>
@@ -30015,7 +30015,7 @@
         <v>0.01</v>
       </c>
       <c r="FM57" t="n">
-        <v>-210.38</v>
+        <v>-210.69</v>
       </c>
       <c r="FN57" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP57" t="n">
-        <v>-1364.17</v>
+        <v>-1367.73</v>
       </c>
       <c r="FQ57" t="b">
         <v>0</v>
@@ -30534,7 +30534,7 @@
         <v>0.01</v>
       </c>
       <c r="FM58" t="n">
-        <v>-88.93000000000001</v>
+        <v>-89.06</v>
       </c>
       <c r="FN58" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP58" t="n">
-        <v>-1453.1</v>
+        <v>-1456.79</v>
       </c>
       <c r="FQ58" t="b">
         <v>0</v>
@@ -31053,7 +31053,7 @@
         <v>0.01</v>
       </c>
       <c r="FM59" t="n">
-        <v>129.21</v>
+        <v>129.39</v>
       </c>
       <c r="FN59" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP59" t="n">
-        <v>-1323.89</v>
+        <v>-1327.4</v>
       </c>
       <c r="FQ59" t="b">
         <v>1</v>
@@ -31572,7 +31572,7 @@
         <v>0.01</v>
       </c>
       <c r="FM60" t="n">
-        <v>38.89</v>
+        <v>38.94</v>
       </c>
       <c r="FN60" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP60" t="n">
-        <v>-1285</v>
+        <v>-1288.46</v>
       </c>
       <c r="FQ60" t="b">
         <v>1</v>
@@ -32089,7 +32089,7 @@
         <v>0.01</v>
       </c>
       <c r="FM61" t="n">
-        <v>-78.67</v>
+        <v>-78.79000000000001</v>
       </c>
       <c r="FN61" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>2.104166666666667</v>
       </c>
       <c r="FP61" t="n">
-        <v>-1363.67</v>
+        <v>-1367.25</v>
       </c>
       <c r="FQ61" t="b">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0.01</v>
       </c>
       <c r="FM62" t="n">
-        <v>47.9</v>
+        <v>47.97</v>
       </c>
       <c r="FN62" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP62" t="n">
-        <v>-1315.77</v>
+        <v>-1319.28</v>
       </c>
       <c r="FQ62" t="b">
         <v>1</v>
@@ -33123,7 +33123,7 @@
         <v>0.01</v>
       </c>
       <c r="FM63" t="n">
-        <v>-23.87</v>
+        <v>-23.9</v>
       </c>
       <c r="FN63" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP63" t="n">
-        <v>-1339.639999999999</v>
+        <v>-1343.18</v>
       </c>
       <c r="FQ63" t="b">
         <v>0</v>
@@ -33640,7 +33640,7 @@
         <v>0.01</v>
       </c>
       <c r="FM64" t="n">
-        <v>-235.5</v>
+        <v>-235.84</v>
       </c>
       <c r="FN64" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>0.125</v>
       </c>
       <c r="FP64" t="n">
-        <v>-1575.139999999999</v>
+        <v>-1579.02</v>
       </c>
       <c r="FQ64" t="b">
         <v>0</v>
@@ -34157,7 +34157,7 @@
         <v>0.01</v>
       </c>
       <c r="FM65" t="n">
-        <v>-519.8</v>
+        <v>-520.55</v>
       </c>
       <c r="FN65" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>0.6498379629629629</v>
       </c>
       <c r="FP65" t="n">
-        <v>-2094.94</v>
+        <v>-2099.57</v>
       </c>
       <c r="FQ65" t="b">
         <v>0</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -1732,7 +1732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM2" t="n">
-        <v>74.87</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>0.4375</v>
       </c>
       <c r="FP2" t="n">
-        <v>774.87</v>
+        <v>700</v>
       </c>
       <c r="FQ2" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>0.01</v>
       </c>
       <c r="FM3" t="n">
-        <v>531.89</v>
+        <v>531.01</v>
       </c>
       <c r="FN3" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>1.460659722222222</v>
       </c>
       <c r="FP3" t="n">
-        <v>1306.76</v>
+        <v>1231.01</v>
       </c>
       <c r="FQ3" t="b">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0.01</v>
       </c>
       <c r="FM4" t="n">
-        <v>-132.79</v>
+        <v>-132.57</v>
       </c>
       <c r="FN4" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP4" t="n">
-        <v>1173.97</v>
+        <v>1098.44</v>
       </c>
       <c r="FQ4" t="b">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0.01</v>
       </c>
       <c r="FM5" t="n">
-        <v>302.68</v>
+        <v>302.17</v>
       </c>
       <c r="FN5" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="FP5" t="n">
-        <v>1476.65</v>
+        <v>1400.61</v>
       </c>
       <c r="FQ5" t="b">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>0.01</v>
       </c>
       <c r="FM6" t="n">
-        <v>126.91</v>
+        <v>126.7</v>
       </c>
       <c r="FN6" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>0.46875</v>
       </c>
       <c r="FP6" t="n">
-        <v>1603.56</v>
+        <v>1527.31</v>
       </c>
       <c r="FQ6" t="b">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.01</v>
       </c>
       <c r="FM7" t="n">
-        <v>36.46</v>
+        <v>36.4</v>
       </c>
       <c r="FN7" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>0.125</v>
       </c>
       <c r="FP7" t="n">
-        <v>1640.02</v>
+        <v>1563.71</v>
       </c>
       <c r="FQ7" t="b">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM8" t="n">
-        <v>16.82</v>
+        <v>16.79</v>
       </c>
       <c r="FN8" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP8" t="n">
-        <v>1656.84</v>
+        <v>1580.5</v>
       </c>
       <c r="FQ8" t="b">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>0.01</v>
       </c>
       <c r="FM9" t="n">
-        <v>-28.15</v>
+        <v>-28.1</v>
       </c>
       <c r="FN9" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>0.07291666666666667</v>
       </c>
       <c r="FP9" t="n">
-        <v>1628.69</v>
+        <v>1552.4</v>
       </c>
       <c r="FQ9" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0.01</v>
       </c>
       <c r="FM10" t="n">
-        <v>83.72</v>
+        <v>83.58</v>
       </c>
       <c r="FN10" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP10" t="n">
-        <v>1712.41</v>
+        <v>1635.98</v>
       </c>
       <c r="FQ10" t="b">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>0.01</v>
       </c>
       <c r="FM11" t="n">
-        <v>542.87</v>
+        <v>541.98</v>
       </c>
       <c r="FN11" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>2.626863425925926</v>
       </c>
       <c r="FP11" t="n">
-        <v>2255.28</v>
+        <v>2177.96</v>
       </c>
       <c r="FQ11" t="b">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>0.01</v>
       </c>
       <c r="FM12" t="n">
-        <v>-525.3200000000001</v>
+        <v>-524.45</v>
       </c>
       <c r="FN12" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>0.1505787037037037</v>
       </c>
       <c r="FP12" t="n">
-        <v>1729.96</v>
+        <v>1653.51</v>
       </c>
       <c r="FQ12" t="b">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0.01</v>
       </c>
       <c r="FM13" t="n">
-        <v>-338.17</v>
+        <v>-337.61</v>
       </c>
       <c r="FN13" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP13" t="n">
-        <v>1391.79</v>
+        <v>1315.9</v>
       </c>
       <c r="FQ13" t="b">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0.01</v>
       </c>
       <c r="FM14" t="n">
-        <v>-166.96</v>
+        <v>-166.68</v>
       </c>
       <c r="FN14" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>0.21875</v>
       </c>
       <c r="FP14" t="n">
-        <v>1224.83</v>
+        <v>1149.22</v>
       </c>
       <c r="FQ14" t="b">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0.01</v>
       </c>
       <c r="FM15" t="n">
-        <v>289.05</v>
+        <v>288.56</v>
       </c>
       <c r="FN15" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>0.8125</v>
       </c>
       <c r="FP15" t="n">
-        <v>1513.88</v>
+        <v>1437.78</v>
       </c>
       <c r="FQ15" t="b">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>0.01</v>
       </c>
       <c r="FM16" t="n">
-        <v>16.46</v>
+        <v>16.43</v>
       </c>
       <c r="FN16" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP16" t="n">
-        <v>1530.34</v>
+        <v>1454.21</v>
       </c>
       <c r="FQ16" t="b">
         <v>1</v>
@@ -9347,7 +9347,7 @@
         <v>0.01</v>
       </c>
       <c r="FM17" t="n">
-        <v>-58.78</v>
+        <v>-58.68</v>
       </c>
       <c r="FN17" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP17" t="n">
-        <v>1471.56</v>
+        <v>1395.53</v>
       </c>
       <c r="FQ17" t="b">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0.01</v>
       </c>
       <c r="FM18" t="n">
-        <v>-67.45999999999999</v>
+        <v>-67.34</v>
       </c>
       <c r="FN18" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP18" t="n">
-        <v>1404.1</v>
+        <v>1328.19</v>
       </c>
       <c r="FQ18" t="b">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0.01</v>
       </c>
       <c r="FM19" t="n">
-        <v>-93.84</v>
+        <v>-93.68000000000001</v>
       </c>
       <c r="FN19" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP19" t="n">
-        <v>1310.26</v>
+        <v>1234.51</v>
       </c>
       <c r="FQ19" t="b">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0.01</v>
       </c>
       <c r="FM20" t="n">
-        <v>183.2</v>
+        <v>182.89</v>
       </c>
       <c r="FN20" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="FP20" t="n">
-        <v>1493.46</v>
+        <v>1417.4</v>
       </c>
       <c r="FQ20" t="b">
         <v>1</v>
@@ -11403,7 +11403,7 @@
         <v>0.01</v>
       </c>
       <c r="FM21" t="n">
-        <v>3.54</v>
+        <v>3.53</v>
       </c>
       <c r="FN21" t="inlineStr">
         <is>
@@ -11414,7 +11414,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP21" t="n">
-        <v>1497</v>
+        <v>1420.93</v>
       </c>
       <c r="FQ21" t="b">
         <v>1</v>
@@ -11914,7 +11914,7 @@
         <v>0.01</v>
       </c>
       <c r="FM22" t="n">
-        <v>-45.15</v>
+        <v>-45.07</v>
       </c>
       <c r="FN22" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP22" t="n">
-        <v>1451.85</v>
+        <v>1375.86</v>
       </c>
       <c r="FQ22" t="b">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0.01</v>
       </c>
       <c r="FM23" t="n">
-        <v>531.2</v>
+        <v>530.3</v>
       </c>
       <c r="FN23" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>0.3751851851851852</v>
       </c>
       <c r="FP23" t="n">
-        <v>1983.05</v>
+        <v>1906.16</v>
       </c>
       <c r="FQ23" t="b">
         <v>1</v>
@@ -12946,7 +12946,7 @@
         <v>0.01</v>
       </c>
       <c r="FM24" t="n">
-        <v>283.21</v>
+        <v>282.73</v>
       </c>
       <c r="FN24" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="FP24" t="n">
-        <v>2266.26</v>
+        <v>2188.89</v>
       </c>
       <c r="FQ24" t="b">
         <v>1</v>
@@ -13463,7 +13463,7 @@
         <v>0.01</v>
       </c>
       <c r="FM25" t="n">
-        <v>92.04000000000001</v>
+        <v>91.89</v>
       </c>
       <c r="FN25" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>0.125</v>
       </c>
       <c r="FP25" t="n">
-        <v>2358.3</v>
+        <v>2280.78</v>
       </c>
       <c r="FQ25" t="b">
         <v>1</v>
@@ -13980,7 +13980,7 @@
         <v>0.01</v>
       </c>
       <c r="FM26" t="n">
-        <v>8.67</v>
+        <v>8.66</v>
       </c>
       <c r="FN26" t="inlineStr">
         <is>
@@ -13991,7 +13991,7 @@
         <v>0.1145833333333333</v>
       </c>
       <c r="FP26" t="n">
-        <v>2366.97</v>
+        <v>2289.44</v>
       </c>
       <c r="FQ26" t="b">
         <v>1</v>
@@ -14497,7 +14497,7 @@
         <v>0.01</v>
       </c>
       <c r="FM27" t="n">
-        <v>-57.19</v>
+        <v>-57.09</v>
       </c>
       <c r="FN27" t="inlineStr">
         <is>
@@ -14508,7 +14508,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP27" t="n">
-        <v>2309.78</v>
+        <v>2232.35</v>
       </c>
       <c r="FQ27" t="b">
         <v>0</v>
@@ -15014,7 +15014,7 @@
         <v>0.01</v>
       </c>
       <c r="FM28" t="n">
-        <v>-36.12</v>
+        <v>-36.06</v>
       </c>
       <c r="FN28" t="inlineStr">
         <is>
@@ -15025,7 +15025,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP28" t="n">
-        <v>2273.66</v>
+        <v>2196.29</v>
       </c>
       <c r="FQ28" t="b">
         <v>0</v>
@@ -15533,7 +15533,7 @@
         <v>0.01</v>
       </c>
       <c r="FM29" t="n">
-        <v>-508.87</v>
+        <v>-507.99</v>
       </c>
       <c r="FN29" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>0.05802083333333333</v>
       </c>
       <c r="FP29" t="n">
-        <v>1764.79</v>
+        <v>1688.3</v>
       </c>
       <c r="FQ29" t="b">
         <v>0</v>
@@ -16052,7 +16052,7 @@
         <v>0.01</v>
       </c>
       <c r="FM30" t="n">
-        <v>-531.54</v>
+        <v>-530.62</v>
       </c>
       <c r="FN30" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>0.1334606481481481</v>
       </c>
       <c r="FP30" t="n">
-        <v>1233.25</v>
+        <v>1157.68</v>
       </c>
       <c r="FQ30" t="b">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0.01</v>
       </c>
       <c r="FM31" t="n">
-        <v>109.39</v>
+        <v>109.2</v>
       </c>
       <c r="FN31" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>0.5625</v>
       </c>
       <c r="FP31" t="n">
-        <v>1342.64</v>
+        <v>1266.88</v>
       </c>
       <c r="FQ31" t="b">
         <v>1</v>
@@ -17088,7 +17088,7 @@
         <v>0.01</v>
       </c>
       <c r="FM32" t="n">
-        <v>-110.31</v>
+        <v>-110.12</v>
       </c>
       <c r="FN32" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP32" t="n">
-        <v>1232.33</v>
+        <v>1156.76</v>
       </c>
       <c r="FQ32" t="b">
         <v>0</v>
@@ -17603,7 +17603,7 @@
         <v>0.01</v>
       </c>
       <c r="FM33" t="n">
-        <v>-211.41</v>
+        <v>-211.04</v>
       </c>
       <c r="FN33" t="inlineStr">
         <is>
@@ -17614,7 +17614,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="FP33" t="n">
-        <v>1020.92</v>
+        <v>945.7199999999998</v>
       </c>
       <c r="FQ33" t="b">
         <v>0</v>
@@ -18120,7 +18120,7 @@
         <v>0.01</v>
       </c>
       <c r="FM34" t="n">
-        <v>-289.14</v>
+        <v>-288.64</v>
       </c>
       <c r="FN34" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP34" t="n">
-        <v>731.7800000000002</v>
+        <v>657.0799999999998</v>
       </c>
       <c r="FQ34" t="b">
         <v>0</v>
@@ -18635,7 +18635,7 @@
         <v>0.01</v>
       </c>
       <c r="FM35" t="n">
-        <v>34.69</v>
+        <v>34.63</v>
       </c>
       <c r="FN35" t="inlineStr">
         <is>
@@ -18646,7 +18646,7 @@
         <v>0.34375</v>
       </c>
       <c r="FP35" t="n">
-        <v>766.4700000000003</v>
+        <v>691.7099999999998</v>
       </c>
       <c r="FQ35" t="b">
         <v>1</v>
@@ -19154,7 +19154,7 @@
         <v>0.01</v>
       </c>
       <c r="FM36" t="n">
-        <v>-144.48</v>
+        <v>-144.23</v>
       </c>
       <c r="FN36" t="inlineStr">
         <is>
@@ -19165,7 +19165,7 @@
         <v>0.40625</v>
       </c>
       <c r="FP36" t="n">
-        <v>621.9900000000002</v>
+        <v>547.4799999999998</v>
       </c>
       <c r="FQ36" t="b">
         <v>0</v>
@@ -19671,7 +19671,7 @@
         <v>0.01</v>
       </c>
       <c r="FM37" t="n">
-        <v>-228.05</v>
+        <v>-227.66</v>
       </c>
       <c r="FN37" t="inlineStr">
         <is>
@@ -19682,7 +19682,7 @@
         <v>0.3125</v>
       </c>
       <c r="FP37" t="n">
-        <v>393.9400000000002</v>
+        <v>319.8199999999998</v>
       </c>
       <c r="FQ37" t="b">
         <v>0</v>
@@ -20190,7 +20190,7 @@
         <v>0.01</v>
       </c>
       <c r="FM38" t="n">
-        <v>95.23</v>
+        <v>95.06999999999999</v>
       </c>
       <c r="FN38" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP38" t="n">
-        <v>489.1700000000002</v>
+        <v>414.8899999999998</v>
       </c>
       <c r="FQ38" t="b">
         <v>1</v>
@@ -20705,7 +20705,7 @@
         <v>0.01</v>
       </c>
       <c r="FM39" t="n">
-        <v>58.41</v>
+        <v>58.31</v>
       </c>
       <c r="FN39" t="inlineStr">
         <is>
@@ -20716,7 +20716,7 @@
         <v>0.71875</v>
       </c>
       <c r="FP39" t="n">
-        <v>547.5800000000003</v>
+        <v>473.1999999999998</v>
       </c>
       <c r="FQ39" t="b">
         <v>1</v>
@@ -21220,7 +21220,7 @@
         <v>0.01</v>
       </c>
       <c r="FM40" t="n">
-        <v>-317.29</v>
+        <v>-316.74</v>
       </c>
       <c r="FN40" t="inlineStr">
         <is>
@@ -21231,7 +21231,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP40" t="n">
-        <v>230.2900000000002</v>
+        <v>156.4599999999998</v>
       </c>
       <c r="FQ40" t="b">
         <v>0</v>
@@ -21735,7 +21735,7 @@
         <v>0.01</v>
       </c>
       <c r="FM41" t="n">
-        <v>-216.37</v>
+        <v>-215.99</v>
       </c>
       <c r="FN41" t="inlineStr">
         <is>
@@ -21746,7 +21746,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP41" t="n">
-        <v>13.92000000000024</v>
+        <v>-59.5300000000002</v>
       </c>
       <c r="FQ41" t="b">
         <v>0</v>
@@ -22254,7 +22254,7 @@
         <v>0.01</v>
       </c>
       <c r="FM42" t="n">
-        <v>-135.63</v>
+        <v>-135.39</v>
       </c>
       <c r="FN42" t="inlineStr">
         <is>
@@ -22265,7 +22265,7 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="FP42" t="n">
-        <v>-121.7099999999998</v>
+        <v>-194.9200000000002</v>
       </c>
       <c r="FQ42" t="b">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0.01</v>
       </c>
       <c r="FM43" t="n">
-        <v>-148.38</v>
+        <v>-148.12</v>
       </c>
       <c r="FN43" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>2.302083333333333</v>
       </c>
       <c r="FP43" t="n">
-        <v>-270.0899999999997</v>
+        <v>-343.0400000000002</v>
       </c>
       <c r="FQ43" t="b">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>0.01</v>
       </c>
       <c r="FM44" t="n">
-        <v>863.47</v>
+        <v>861.96</v>
       </c>
       <c r="FN44" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>1.125</v>
       </c>
       <c r="FP44" t="n">
-        <v>593.3800000000003</v>
+        <v>518.9199999999998</v>
       </c>
       <c r="FQ44" t="b">
         <v>1</v>
@@ -23803,7 +23803,7 @@
         <v>0.01</v>
       </c>
       <c r="FM45" t="n">
-        <v>-501.44</v>
+        <v>-500.57</v>
       </c>
       <c r="FN45" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP45" t="n">
-        <v>91.94000000000034</v>
+        <v>18.34999999999985</v>
       </c>
       <c r="FQ45" t="b">
         <v>0</v>
@@ -24320,7 +24320,7 @@
         <v>0.01</v>
       </c>
       <c r="FM46" t="n">
-        <v>-208.76</v>
+        <v>-208.39</v>
       </c>
       <c r="FN46" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>0.5</v>
       </c>
       <c r="FP46" t="n">
-        <v>-116.8199999999997</v>
+        <v>-190.0400000000001</v>
       </c>
       <c r="FQ46" t="b">
         <v>0</v>
@@ -24839,7 +24839,7 @@
         <v>0.01</v>
       </c>
       <c r="FM47" t="n">
-        <v>82.67</v>
+        <v>82.52</v>
       </c>
       <c r="FN47" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="FP47" t="n">
-        <v>-34.14999999999965</v>
+        <v>-107.5200000000001</v>
       </c>
       <c r="FQ47" t="b">
         <v>1</v>
@@ -25358,7 +25358,7 @@
         <v>0.01</v>
       </c>
       <c r="FM48" t="n">
-        <v>-110.84</v>
+        <v>-110.65</v>
       </c>
       <c r="FN48" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP48" t="n">
-        <v>-144.9899999999997</v>
+        <v>-218.1700000000001</v>
       </c>
       <c r="FQ48" t="b">
         <v>0</v>
@@ -25875,7 +25875,7 @@
         <v>0.01</v>
       </c>
       <c r="FM49" t="n">
-        <v>-198.84</v>
+        <v>-198.49</v>
       </c>
       <c r="FN49" t="inlineStr">
         <is>
@@ -25886,7 +25886,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP49" t="n">
-        <v>-343.8299999999997</v>
+        <v>-416.6600000000001</v>
       </c>
       <c r="FQ49" t="b">
         <v>0</v>
@@ -26392,7 +26392,7 @@
         <v>0.01</v>
       </c>
       <c r="FM50" t="n">
-        <v>-18.41</v>
+        <v>-18.38</v>
       </c>
       <c r="FN50" t="inlineStr">
         <is>
@@ -26403,7 +26403,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP50" t="n">
-        <v>-362.2399999999997</v>
+        <v>-435.0400000000001</v>
       </c>
       <c r="FQ50" t="b">
         <v>0</v>
@@ -26909,7 +26909,7 @@
         <v>0.01</v>
       </c>
       <c r="FM51" t="n">
-        <v>31.51</v>
+        <v>31.45</v>
       </c>
       <c r="FN51" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP51" t="n">
-        <v>-330.7299999999997</v>
+        <v>-403.5900000000001</v>
       </c>
       <c r="FQ51" t="b">
         <v>1</v>
@@ -27439,7 +27439,7 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="FP52" t="n">
-        <v>-335.8599999999997</v>
+        <v>-408.7200000000001</v>
       </c>
       <c r="FQ52" t="b">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0.01</v>
       </c>
       <c r="FM53" t="n">
-        <v>-226.63</v>
+        <v>-226.25</v>
       </c>
       <c r="FN53" t="inlineStr">
         <is>
@@ -27954,7 +27954,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP53" t="n">
-        <v>-562.4899999999998</v>
+        <v>-634.9700000000001</v>
       </c>
       <c r="FQ53" t="b">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0.01</v>
       </c>
       <c r="FM54" t="n">
-        <v>-247.88</v>
+        <v>-247.46</v>
       </c>
       <c r="FN54" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FP54" t="n">
-        <v>-810.3699999999998</v>
+        <v>-882.4300000000002</v>
       </c>
       <c r="FQ54" t="b">
         <v>0</v>
@@ -28975,7 +28975,7 @@
         <v>0.01</v>
       </c>
       <c r="FM55" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="FN55" t="inlineStr">
         <is>
@@ -28986,7 +28986,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP55" t="n">
-        <v>-804.8799999999998</v>
+        <v>-876.9500000000002</v>
       </c>
       <c r="FQ55" t="b">
         <v>1</v>
@@ -29496,7 +29496,7 @@
         <v>0.01</v>
       </c>
       <c r="FM56" t="n">
-        <v>-352.16</v>
+        <v>-351.57</v>
       </c>
       <c r="FN56" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP56" t="n">
-        <v>-1157.04</v>
+        <v>-1228.52</v>
       </c>
       <c r="FQ56" t="b">
         <v>0</v>
@@ -30015,7 +30015,7 @@
         <v>0.01</v>
       </c>
       <c r="FM57" t="n">
-        <v>-210.69</v>
+        <v>-210.34</v>
       </c>
       <c r="FN57" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP57" t="n">
-        <v>-1367.73</v>
+        <v>-1438.86</v>
       </c>
       <c r="FQ57" t="b">
         <v>0</v>
@@ -30534,7 +30534,7 @@
         <v>0.01</v>
       </c>
       <c r="FM58" t="n">
-        <v>-89.06</v>
+        <v>-88.91</v>
       </c>
       <c r="FN58" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP58" t="n">
-        <v>-1456.79</v>
+        <v>-1527.77</v>
       </c>
       <c r="FQ58" t="b">
         <v>0</v>
@@ -31053,7 +31053,7 @@
         <v>0.01</v>
       </c>
       <c r="FM59" t="n">
-        <v>129.39</v>
+        <v>129.17</v>
       </c>
       <c r="FN59" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP59" t="n">
-        <v>-1327.4</v>
+        <v>-1398.6</v>
       </c>
       <c r="FQ59" t="b">
         <v>1</v>
@@ -31572,7 +31572,7 @@
         <v>0.01</v>
       </c>
       <c r="FM60" t="n">
-        <v>38.94</v>
+        <v>38.88</v>
       </c>
       <c r="FN60" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP60" t="n">
-        <v>-1288.46</v>
+        <v>-1359.72</v>
       </c>
       <c r="FQ60" t="b">
         <v>1</v>
@@ -32089,7 +32089,7 @@
         <v>0.01</v>
       </c>
       <c r="FM61" t="n">
-        <v>-78.79000000000001</v>
+        <v>-78.66</v>
       </c>
       <c r="FN61" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>2.104166666666667</v>
       </c>
       <c r="FP61" t="n">
-        <v>-1367.25</v>
+        <v>-1438.38</v>
       </c>
       <c r="FQ61" t="b">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0.01</v>
       </c>
       <c r="FM62" t="n">
-        <v>47.97</v>
+        <v>47.89</v>
       </c>
       <c r="FN62" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP62" t="n">
-        <v>-1319.28</v>
+        <v>-1390.49</v>
       </c>
       <c r="FQ62" t="b">
         <v>1</v>
@@ -33123,7 +33123,7 @@
         <v>0.01</v>
       </c>
       <c r="FM63" t="n">
-        <v>-23.9</v>
+        <v>-23.86</v>
       </c>
       <c r="FN63" t="inlineStr">
         <is>
@@ -33134,7 +33134,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP63" t="n">
-        <v>-1343.18</v>
+        <v>-1414.35</v>
       </c>
       <c r="FQ63" t="b">
         <v>0</v>
@@ -33640,7 +33640,7 @@
         <v>0.01</v>
       </c>
       <c r="FM64" t="n">
-        <v>-235.84</v>
+        <v>-235.44</v>
       </c>
       <c r="FN64" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>0.125</v>
       </c>
       <c r="FP64" t="n">
-        <v>-1579.02</v>
+        <v>-1649.79</v>
       </c>
       <c r="FQ64" t="b">
         <v>0</v>
@@ -34157,7 +34157,7 @@
         <v>0.01</v>
       </c>
       <c r="FM65" t="n">
-        <v>-520.55</v>
+        <v>-519.66</v>
       </c>
       <c r="FN65" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>0.6498379629629629</v>
       </c>
       <c r="FP65" t="n">
-        <v>-2099.57</v>
+        <v>-2169.45</v>
       </c>
       <c r="FQ65" t="b">
         <v>0</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -2183,7 +2183,7 @@
         <v>0.01</v>
       </c>
       <c r="FM3" t="n">
-        <v>531.01</v>
+        <v>530.88</v>
       </c>
       <c r="FN3" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>1.460659722222222</v>
       </c>
       <c r="FP3" t="n">
-        <v>1231.01</v>
+        <v>1230.88</v>
       </c>
       <c r="FQ3" t="b">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0.01</v>
       </c>
       <c r="FM4" t="n">
-        <v>-132.57</v>
+        <v>-132.55</v>
       </c>
       <c r="FN4" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP4" t="n">
-        <v>1098.44</v>
+        <v>1098.33</v>
       </c>
       <c r="FQ4" t="b">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0.01</v>
       </c>
       <c r="FM5" t="n">
-        <v>302.17</v>
+        <v>302.1</v>
       </c>
       <c r="FN5" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="FP5" t="n">
-        <v>1400.61</v>
+        <v>1400.43</v>
       </c>
       <c r="FQ5" t="b">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>0.01</v>
       </c>
       <c r="FM6" t="n">
-        <v>126.7</v>
+        <v>126.67</v>
       </c>
       <c r="FN6" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>0.46875</v>
       </c>
       <c r="FP6" t="n">
-        <v>1527.31</v>
+        <v>1527.1</v>
       </c>
       <c r="FQ6" t="b">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.01</v>
       </c>
       <c r="FM7" t="n">
-        <v>36.4</v>
+        <v>36.39</v>
       </c>
       <c r="FN7" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>0.125</v>
       </c>
       <c r="FP7" t="n">
-        <v>1563.71</v>
+        <v>1563.49</v>
       </c>
       <c r="FQ7" t="b">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM8" t="n">
-        <v>16.79</v>
+        <v>16.78</v>
       </c>
       <c r="FN8" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP8" t="n">
-        <v>1580.5</v>
+        <v>1580.27</v>
       </c>
       <c r="FQ8" t="b">
         <v>1</v>
@@ -5256,7 +5256,7 @@
         <v>0.07291666666666667</v>
       </c>
       <c r="FP9" t="n">
-        <v>1552.4</v>
+        <v>1552.170000000001</v>
       </c>
       <c r="FQ9" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0.01</v>
       </c>
       <c r="FM10" t="n">
-        <v>83.58</v>
+        <v>83.56</v>
       </c>
       <c r="FN10" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP10" t="n">
-        <v>1635.98</v>
+        <v>1635.73</v>
       </c>
       <c r="FQ10" t="b">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>0.01</v>
       </c>
       <c r="FM11" t="n">
-        <v>541.98</v>
+        <v>541.83</v>
       </c>
       <c r="FN11" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>2.626863425925926</v>
       </c>
       <c r="FP11" t="n">
-        <v>2177.96</v>
+        <v>2177.56</v>
       </c>
       <c r="FQ11" t="b">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>0.01</v>
       </c>
       <c r="FM12" t="n">
-        <v>-524.45</v>
+        <v>-524.38</v>
       </c>
       <c r="FN12" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>0.1505787037037037</v>
       </c>
       <c r="FP12" t="n">
-        <v>1653.51</v>
+        <v>1653.18</v>
       </c>
       <c r="FQ12" t="b">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0.01</v>
       </c>
       <c r="FM13" t="n">
-        <v>-337.61</v>
+        <v>-337.57</v>
       </c>
       <c r="FN13" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP13" t="n">
-        <v>1315.9</v>
+        <v>1315.61</v>
       </c>
       <c r="FQ13" t="b">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>0.01</v>
       </c>
       <c r="FM14" t="n">
-        <v>-166.68</v>
+        <v>-166.66</v>
       </c>
       <c r="FN14" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>0.21875</v>
       </c>
       <c r="FP14" t="n">
-        <v>1149.22</v>
+        <v>1148.95</v>
       </c>
       <c r="FQ14" t="b">
         <v>0</v>
@@ -8321,7 +8321,7 @@
         <v>0.01</v>
       </c>
       <c r="FM15" t="n">
-        <v>288.56</v>
+        <v>288.51</v>
       </c>
       <c r="FN15" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>0.8125</v>
       </c>
       <c r="FP15" t="n">
-        <v>1437.78</v>
+        <v>1437.46</v>
       </c>
       <c r="FQ15" t="b">
         <v>1</v>
@@ -8845,7 +8845,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP16" t="n">
-        <v>1454.21</v>
+        <v>1453.89</v>
       </c>
       <c r="FQ16" t="b">
         <v>1</v>
@@ -9358,7 +9358,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP17" t="n">
-        <v>1395.53</v>
+        <v>1395.21</v>
       </c>
       <c r="FQ17" t="b">
         <v>0</v>
@@ -9871,7 +9871,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP18" t="n">
-        <v>1328.19</v>
+        <v>1327.87</v>
       </c>
       <c r="FQ18" t="b">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>0.01</v>
       </c>
       <c r="FM19" t="n">
-        <v>-93.68000000000001</v>
+        <v>-93.67</v>
       </c>
       <c r="FN19" t="inlineStr">
         <is>
@@ -10384,7 +10384,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP19" t="n">
-        <v>1234.51</v>
+        <v>1234.2</v>
       </c>
       <c r="FQ19" t="b">
         <v>0</v>
@@ -10888,7 +10888,7 @@
         <v>0.01</v>
       </c>
       <c r="FM20" t="n">
-        <v>182.89</v>
+        <v>182.86</v>
       </c>
       <c r="FN20" t="inlineStr">
         <is>
@@ -10899,7 +10899,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="FP20" t="n">
-        <v>1417.4</v>
+        <v>1417.06</v>
       </c>
       <c r="FQ20" t="b">
         <v>1</v>
@@ -11414,7 +11414,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP21" t="n">
-        <v>1420.93</v>
+        <v>1420.59</v>
       </c>
       <c r="FQ21" t="b">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP22" t="n">
-        <v>1375.86</v>
+        <v>1375.52</v>
       </c>
       <c r="FQ22" t="b">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0.01</v>
       </c>
       <c r="FM23" t="n">
-        <v>530.3</v>
+        <v>530.24</v>
       </c>
       <c r="FN23" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>0.3751851851851852</v>
       </c>
       <c r="FP23" t="n">
-        <v>1906.16</v>
+        <v>1905.76</v>
       </c>
       <c r="FQ23" t="b">
         <v>1</v>
@@ -12946,7 +12946,7 @@
         <v>0.01</v>
       </c>
       <c r="FM24" t="n">
-        <v>282.73</v>
+        <v>282.7</v>
       </c>
       <c r="FN24" t="inlineStr">
         <is>
@@ -12957,7 +12957,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="FP24" t="n">
-        <v>2188.89</v>
+        <v>2188.46</v>
       </c>
       <c r="FQ24" t="b">
         <v>1</v>
@@ -13463,7 +13463,7 @@
         <v>0.01</v>
       </c>
       <c r="FM25" t="n">
-        <v>91.89</v>
+        <v>91.88</v>
       </c>
       <c r="FN25" t="inlineStr">
         <is>
@@ -13474,7 +13474,7 @@
         <v>0.125</v>
       </c>
       <c r="FP25" t="n">
-        <v>2280.78</v>
+        <v>2280.340000000001</v>
       </c>
       <c r="FQ25" t="b">
         <v>1</v>
@@ -13991,7 +13991,7 @@
         <v>0.1145833333333333</v>
       </c>
       <c r="FP26" t="n">
-        <v>2289.44</v>
+        <v>2289</v>
       </c>
       <c r="FQ26" t="b">
         <v>1</v>
@@ -14508,7 +14508,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP27" t="n">
-        <v>2232.35</v>
+        <v>2231.91</v>
       </c>
       <c r="FQ27" t="b">
         <v>0</v>
@@ -15025,7 +15025,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP28" t="n">
-        <v>2196.29</v>
+        <v>2195.85</v>
       </c>
       <c r="FQ28" t="b">
         <v>0</v>
@@ -15533,7 +15533,7 @@
         <v>0.01</v>
       </c>
       <c r="FM29" t="n">
-        <v>-507.99</v>
+        <v>-507.98</v>
       </c>
       <c r="FN29" t="inlineStr">
         <is>
@@ -15544,7 +15544,7 @@
         <v>0.05802083333333333</v>
       </c>
       <c r="FP29" t="n">
-        <v>1688.3</v>
+        <v>1687.87</v>
       </c>
       <c r="FQ29" t="b">
         <v>0</v>
@@ -16052,7 +16052,7 @@
         <v>0.01</v>
       </c>
       <c r="FM30" t="n">
-        <v>-530.62</v>
+        <v>-530.61</v>
       </c>
       <c r="FN30" t="inlineStr">
         <is>
@@ -16063,7 +16063,7 @@
         <v>0.1334606481481481</v>
       </c>
       <c r="FP30" t="n">
-        <v>1157.68</v>
+        <v>1157.26</v>
       </c>
       <c r="FQ30" t="b">
         <v>0</v>
@@ -16569,7 +16569,7 @@
         <v>0.01</v>
       </c>
       <c r="FM31" t="n">
-        <v>109.2</v>
+        <v>109.19</v>
       </c>
       <c r="FN31" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>0.5625</v>
       </c>
       <c r="FP31" t="n">
-        <v>1266.88</v>
+        <v>1266.45</v>
       </c>
       <c r="FQ31" t="b">
         <v>1</v>
@@ -17099,7 +17099,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP32" t="n">
-        <v>1156.76</v>
+        <v>1156.33</v>
       </c>
       <c r="FQ32" t="b">
         <v>0</v>
@@ -17614,7 +17614,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="FP33" t="n">
-        <v>945.7199999999998</v>
+        <v>945.2900000000004</v>
       </c>
       <c r="FQ33" t="b">
         <v>0</v>
@@ -18120,7 +18120,7 @@
         <v>0.01</v>
       </c>
       <c r="FM34" t="n">
-        <v>-288.64</v>
+        <v>-288.63</v>
       </c>
       <c r="FN34" t="inlineStr">
         <is>
@@ -18131,7 +18131,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP34" t="n">
-        <v>657.0799999999998</v>
+        <v>656.6600000000004</v>
       </c>
       <c r="FQ34" t="b">
         <v>0</v>
@@ -18646,7 +18646,7 @@
         <v>0.34375</v>
       </c>
       <c r="FP35" t="n">
-        <v>691.7099999999998</v>
+        <v>691.2900000000004</v>
       </c>
       <c r="FQ35" t="b">
         <v>1</v>
@@ -19165,7 +19165,7 @@
         <v>0.40625</v>
       </c>
       <c r="FP36" t="n">
-        <v>547.4799999999998</v>
+        <v>547.0600000000004</v>
       </c>
       <c r="FQ36" t="b">
         <v>0</v>
@@ -19682,7 +19682,7 @@
         <v>0.3125</v>
       </c>
       <c r="FP37" t="n">
-        <v>319.8199999999998</v>
+        <v>319.4000000000004</v>
       </c>
       <c r="FQ37" t="b">
         <v>0</v>
@@ -20190,7 +20190,7 @@
         <v>0.01</v>
       </c>
       <c r="FM38" t="n">
-        <v>95.06999999999999</v>
+        <v>95.06</v>
       </c>
       <c r="FN38" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP38" t="n">
-        <v>414.8899999999998</v>
+        <v>414.4600000000004</v>
       </c>
       <c r="FQ38" t="b">
         <v>1</v>
@@ -20716,7 +20716,7 @@
         <v>0.71875</v>
       </c>
       <c r="FP39" t="n">
-        <v>473.1999999999998</v>
+        <v>472.7700000000004</v>
       </c>
       <c r="FQ39" t="b">
         <v>1</v>
@@ -21231,7 +21231,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP40" t="n">
-        <v>156.4599999999998</v>
+        <v>156.0300000000004</v>
       </c>
       <c r="FQ40" t="b">
         <v>0</v>
@@ -21746,7 +21746,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP41" t="n">
-        <v>-59.5300000000002</v>
+        <v>-59.95999999999958</v>
       </c>
       <c r="FQ41" t="b">
         <v>0</v>
@@ -22265,7 +22265,7 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="FP42" t="n">
-        <v>-194.9200000000002</v>
+        <v>-195.3499999999996</v>
       </c>
       <c r="FQ42" t="b">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0.01</v>
       </c>
       <c r="FM43" t="n">
-        <v>-148.12</v>
+        <v>-148.11</v>
       </c>
       <c r="FN43" t="inlineStr">
         <is>
@@ -22782,7 +22782,7 @@
         <v>2.302083333333333</v>
       </c>
       <c r="FP43" t="n">
-        <v>-343.0400000000002</v>
+        <v>-343.4599999999996</v>
       </c>
       <c r="FQ43" t="b">
         <v>0</v>
@@ -23286,7 +23286,7 @@
         <v>0.01</v>
       </c>
       <c r="FM44" t="n">
-        <v>861.96</v>
+        <v>861.85</v>
       </c>
       <c r="FN44" t="inlineStr">
         <is>
@@ -23297,7 +23297,7 @@
         <v>1.125</v>
       </c>
       <c r="FP44" t="n">
-        <v>518.9199999999998</v>
+        <v>518.3900000000004</v>
       </c>
       <c r="FQ44" t="b">
         <v>1</v>
@@ -23803,7 +23803,7 @@
         <v>0.01</v>
       </c>
       <c r="FM45" t="n">
-        <v>-500.57</v>
+        <v>-500.55</v>
       </c>
       <c r="FN45" t="inlineStr">
         <is>
@@ -23814,7 +23814,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP45" t="n">
-        <v>18.34999999999985</v>
+        <v>17.84000000000043</v>
       </c>
       <c r="FQ45" t="b">
         <v>0</v>
@@ -24320,7 +24320,7 @@
         <v>0.01</v>
       </c>
       <c r="FM46" t="n">
-        <v>-208.39</v>
+        <v>-208.38</v>
       </c>
       <c r="FN46" t="inlineStr">
         <is>
@@ -24331,7 +24331,7 @@
         <v>0.5</v>
       </c>
       <c r="FP46" t="n">
-        <v>-190.0400000000001</v>
+        <v>-190.5399999999996</v>
       </c>
       <c r="FQ46" t="b">
         <v>0</v>
@@ -24839,7 +24839,7 @@
         <v>0.01</v>
       </c>
       <c r="FM47" t="n">
-        <v>82.52</v>
+        <v>82.51000000000001</v>
       </c>
       <c r="FN47" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="FP47" t="n">
-        <v>-107.5200000000001</v>
+        <v>-108.0299999999996</v>
       </c>
       <c r="FQ47" t="b">
         <v>1</v>
@@ -25358,7 +25358,7 @@
         <v>0.01</v>
       </c>
       <c r="FM48" t="n">
-        <v>-110.65</v>
+        <v>-110.64</v>
       </c>
       <c r="FN48" t="inlineStr">
         <is>
@@ -25369,7 +25369,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP48" t="n">
-        <v>-218.1700000000001</v>
+        <v>-218.6699999999996</v>
       </c>
       <c r="FQ48" t="b">
         <v>0</v>
@@ -25886,7 +25886,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP49" t="n">
-        <v>-416.6600000000001</v>
+        <v>-417.1599999999996</v>
       </c>
       <c r="FQ49" t="b">
         <v>0</v>
@@ -26403,7 +26403,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP50" t="n">
-        <v>-435.0400000000001</v>
+        <v>-435.5399999999996</v>
       </c>
       <c r="FQ50" t="b">
         <v>0</v>
@@ -26920,7 +26920,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP51" t="n">
-        <v>-403.5900000000001</v>
+        <v>-404.0899999999996</v>
       </c>
       <c r="FQ51" t="b">
         <v>1</v>
@@ -27439,7 +27439,7 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="FP52" t="n">
-        <v>-408.7200000000001</v>
+        <v>-409.2199999999996</v>
       </c>
       <c r="FQ52" t="b">
         <v>0</v>
@@ -27943,7 +27943,7 @@
         <v>0.01</v>
       </c>
       <c r="FM53" t="n">
-        <v>-226.25</v>
+        <v>-226.24</v>
       </c>
       <c r="FN53" t="inlineStr">
         <is>
@@ -27954,7 +27954,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP53" t="n">
-        <v>-634.9700000000001</v>
+        <v>-635.4599999999996</v>
       </c>
       <c r="FQ53" t="b">
         <v>0</v>
@@ -28460,7 +28460,7 @@
         <v>0.01</v>
       </c>
       <c r="FM54" t="n">
-        <v>-247.46</v>
+        <v>-247.45</v>
       </c>
       <c r="FN54" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FP54" t="n">
-        <v>-882.4300000000002</v>
+        <v>-882.9099999999996</v>
       </c>
       <c r="FQ54" t="b">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP55" t="n">
-        <v>-876.9500000000002</v>
+        <v>-877.4299999999996</v>
       </c>
       <c r="FQ55" t="b">
         <v>1</v>
@@ -29496,7 +29496,7 @@
         <v>0.01</v>
       </c>
       <c r="FM56" t="n">
-        <v>-351.57</v>
+        <v>-351.55</v>
       </c>
       <c r="FN56" t="inlineStr">
         <is>
@@ -29507,7 +29507,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP56" t="n">
-        <v>-1228.52</v>
+        <v>-1228.98</v>
       </c>
       <c r="FQ56" t="b">
         <v>0</v>
@@ -30015,7 +30015,7 @@
         <v>0.01</v>
       </c>
       <c r="FM57" t="n">
-        <v>-210.34</v>
+        <v>-210.33</v>
       </c>
       <c r="FN57" t="inlineStr">
         <is>
@@ -30026,7 +30026,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP57" t="n">
-        <v>-1438.86</v>
+        <v>-1439.309999999999</v>
       </c>
       <c r="FQ57" t="b">
         <v>0</v>
@@ -30534,7 +30534,7 @@
         <v>0.01</v>
       </c>
       <c r="FM58" t="n">
-        <v>-88.91</v>
+        <v>-88.90000000000001</v>
       </c>
       <c r="FN58" t="inlineStr">
         <is>
@@ -30545,7 +30545,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP58" t="n">
-        <v>-1527.77</v>
+        <v>-1528.21</v>
       </c>
       <c r="FQ58" t="b">
         <v>0</v>
@@ -31053,7 +31053,7 @@
         <v>0.01</v>
       </c>
       <c r="FM59" t="n">
-        <v>129.17</v>
+        <v>129.15</v>
       </c>
       <c r="FN59" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP59" t="n">
-        <v>-1398.6</v>
+        <v>-1399.059999999999</v>
       </c>
       <c r="FQ59" t="b">
         <v>1</v>
@@ -31572,7 +31572,7 @@
         <v>0.01</v>
       </c>
       <c r="FM60" t="n">
-        <v>38.88</v>
+        <v>38.87</v>
       </c>
       <c r="FN60" t="inlineStr">
         <is>
@@ -31583,7 +31583,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP60" t="n">
-        <v>-1359.72</v>
+        <v>-1360.19</v>
       </c>
       <c r="FQ60" t="b">
         <v>1</v>
@@ -32089,7 +32089,7 @@
         <v>0.01</v>
       </c>
       <c r="FM61" t="n">
-        <v>-78.66</v>
+        <v>-78.65000000000001</v>
       </c>
       <c r="FN61" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>2.104166666666667</v>
       </c>
       <c r="FP61" t="n">
-        <v>-1438.38</v>
+        <v>-1438.84</v>
       </c>
       <c r="FQ61" t="b">
         <v>0</v>
@@ -32604,7 +32604,7 @@
         <v>0.01</v>
       </c>
       <c r="FM62" t="n">
-        <v>47.89</v>
+        <v>47.88</v>
       </c>
       <c r="FN62" t="inlineStr">
         <is>
@@ -32615,7 +32615,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP62" t="n">
-        <v>-1390.49</v>
+        <v>-1390.96</v>
       </c>
       <c r="FQ62" t="b">
         <v>1</v>
@@ -33134,7 +33134,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP63" t="n">
-        <v>-1414.35</v>
+        <v>-1414.819999999999</v>
       </c>
       <c r="FQ63" t="b">
         <v>0</v>
@@ -33640,7 +33640,7 @@
         <v>0.01</v>
       </c>
       <c r="FM64" t="n">
-        <v>-235.44</v>
+        <v>-235.43</v>
       </c>
       <c r="FN64" t="inlineStr">
         <is>
@@ -33651,7 +33651,7 @@
         <v>0.125</v>
       </c>
       <c r="FP64" t="n">
-        <v>-1649.79</v>
+        <v>-1650.25</v>
       </c>
       <c r="FQ64" t="b">
         <v>0</v>
@@ -34157,7 +34157,7 @@
         <v>0.01</v>
       </c>
       <c r="FM65" t="n">
-        <v>-519.66</v>
+        <v>-519.63</v>
       </c>
       <c r="FN65" t="inlineStr">
         <is>
@@ -34168,7 +34168,7 @@
         <v>0.6498379629629629</v>
       </c>
       <c r="FP65" t="n">
-        <v>-2169.45</v>
+        <v>-2169.88</v>
       </c>
       <c r="FQ65" t="b">
         <v>0</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -1732,7 +1732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM2" t="n">
-        <v>74.75</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="FN2" t="inlineStr">
         <is>
@@ -1743,7 +1743,7 @@
         <v>0.4375</v>
       </c>
       <c r="FP2" t="n">
-        <v>774.75</v>
+        <v>774.79</v>
       </c>
       <c r="FQ2" t="b">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>0.01</v>
       </c>
       <c r="FM3" t="n">
-        <v>531.01</v>
+        <v>531.34</v>
       </c>
       <c r="FN3" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>1.460659722222222</v>
       </c>
       <c r="FP3" t="n">
-        <v>1305.76</v>
+        <v>1306.13</v>
       </c>
       <c r="FQ3" t="b">
         <v>1</v>
@@ -2690,7 +2690,7 @@
         <v>0.01</v>
       </c>
       <c r="FM4" t="n">
-        <v>-132.57</v>
+        <v>-132.65</v>
       </c>
       <c r="FN4" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP4" t="n">
-        <v>1173.19</v>
+        <v>1173.48</v>
       </c>
       <c r="FQ4" t="b">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0.01</v>
       </c>
       <c r="FM5" t="n">
-        <v>302.18</v>
+        <v>302.36</v>
       </c>
       <c r="FN5" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="FP5" t="n">
-        <v>1475.37</v>
+        <v>1475.84</v>
       </c>
       <c r="FQ5" t="b">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>0.01</v>
       </c>
       <c r="FM6" t="n">
-        <v>126.7</v>
+        <v>126.78</v>
       </c>
       <c r="FN6" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>0.46875</v>
       </c>
       <c r="FP6" t="n">
-        <v>1602.07</v>
+        <v>1602.62</v>
       </c>
       <c r="FQ6" t="b">
         <v>1</v>
@@ -4223,7 +4223,7 @@
         <v>0.01</v>
       </c>
       <c r="FM7" t="n">
-        <v>36.4</v>
+        <v>36.42</v>
       </c>
       <c r="FN7" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         <v>0.125</v>
       </c>
       <c r="FP7" t="n">
-        <v>1638.47</v>
+        <v>1639.04</v>
       </c>
       <c r="FQ7" t="b">
         <v>1</v>
@@ -4732,7 +4732,7 @@
         <v>0.01</v>
       </c>
       <c r="FM8" t="n">
-        <v>16.79</v>
+        <v>16.8</v>
       </c>
       <c r="FN8" t="inlineStr">
         <is>
@@ -4743,7 +4743,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP8" t="n">
-        <v>1655.26</v>
+        <v>1655.84</v>
       </c>
       <c r="FQ8" t="b">
         <v>1</v>
@@ -5245,7 +5245,7 @@
         <v>0.01</v>
       </c>
       <c r="FM9" t="n">
-        <v>-28.11</v>
+        <v>-28.12</v>
       </c>
       <c r="FN9" t="inlineStr">
         <is>
@@ -5256,7 +5256,7 @@
         <v>0.07291666666666667</v>
       </c>
       <c r="FP9" t="n">
-        <v>1627.15</v>
+        <v>1627.72</v>
       </c>
       <c r="FQ9" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>0.01</v>
       </c>
       <c r="FM10" t="n">
-        <v>83.58</v>
+        <v>83.64</v>
       </c>
       <c r="FN10" t="inlineStr">
         <is>
@@ -5763,7 +5763,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP10" t="n">
-        <v>1710.73</v>
+        <v>1711.36</v>
       </c>
       <c r="FQ10" t="b">
         <v>1</v>
@@ -6269,7 +6269,7 @@
         <v>0.01</v>
       </c>
       <c r="FM11" t="n">
-        <v>541.98</v>
+        <v>542.3099999999999</v>
       </c>
       <c r="FN11" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>2.626863425925926</v>
       </c>
       <c r="FP11" t="n">
-        <v>2252.71</v>
+        <v>2253.67</v>
       </c>
       <c r="FQ11" t="b">
         <v>1</v>
@@ -6780,7 +6780,7 @@
         <v>0.01</v>
       </c>
       <c r="FM12" t="n">
-        <v>-524.46</v>
+        <v>-524.78</v>
       </c>
       <c r="FN12" t="inlineStr">
         <is>
@@ -6791,7 +6791,7 @@
         <v>0.1505787037037037</v>
       </c>
       <c r="FP12" t="n">
-        <v>1728.25</v>
+        <v>1728.89</v>
       </c>
       <c r="FQ12" t="b">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>0.01</v>
       </c>
       <c r="FM13" t="n">
-        <v>-166.69</v>
+        <v>-166.79</v>
       </c>
       <c r="FN13" t="inlineStr">
         <is>
@@ -7304,7 +7304,7 @@
         <v>0.21875</v>
       </c>
       <c r="FP13" t="n">
-        <v>1561.56</v>
+        <v>1562.1</v>
       </c>
       <c r="FQ13" t="b">
         <v>0</v>
@@ -7808,7 +7808,7 @@
         <v>0.01</v>
       </c>
       <c r="FM14" t="n">
-        <v>288.57</v>
+        <v>288.75</v>
       </c>
       <c r="FN14" t="inlineStr">
         <is>
@@ -7819,7 +7819,7 @@
         <v>0.8125</v>
       </c>
       <c r="FP14" t="n">
-        <v>1850.13</v>
+        <v>1850.85</v>
       </c>
       <c r="FQ14" t="b">
         <v>1</v>
@@ -8321,7 +8321,7 @@
         <v>0.01</v>
       </c>
       <c r="FM15" t="n">
-        <v>16.43</v>
+        <v>16.44</v>
       </c>
       <c r="FN15" t="inlineStr">
         <is>
@@ -8332,7 +8332,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP15" t="n">
-        <v>1866.56</v>
+        <v>1867.29</v>
       </c>
       <c r="FQ15" t="b">
         <v>1</v>
@@ -8834,7 +8834,7 @@
         <v>0.01</v>
       </c>
       <c r="FM16" t="n">
-        <v>-58.69</v>
+        <v>-58.72</v>
       </c>
       <c r="FN16" t="inlineStr">
         <is>
@@ -8845,7 +8845,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP16" t="n">
-        <v>1807.87</v>
+        <v>1808.57</v>
       </c>
       <c r="FQ16" t="b">
         <v>0</v>
@@ -9347,7 +9347,7 @@
         <v>0.01</v>
       </c>
       <c r="FM17" t="n">
-        <v>-67.34999999999999</v>
+        <v>-67.39</v>
       </c>
       <c r="FN17" t="inlineStr">
         <is>
@@ -9358,7 +9358,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP17" t="n">
-        <v>1740.52</v>
+        <v>1741.18</v>
       </c>
       <c r="FQ17" t="b">
         <v>0</v>
@@ -9860,7 +9860,7 @@
         <v>0.01</v>
       </c>
       <c r="FM18" t="n">
-        <v>-93.69</v>
+        <v>-93.73999999999999</v>
       </c>
       <c r="FN18" t="inlineStr">
         <is>
@@ -9871,7 +9871,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP18" t="n">
-        <v>1646.83</v>
+        <v>1647.44</v>
       </c>
       <c r="FQ18" t="b">
         <v>0</v>
@@ -10375,7 +10375,7 @@
         <v>0.01</v>
       </c>
       <c r="FM19" t="n">
-        <v>182.9</v>
+        <v>183.01</v>
       </c>
       <c r="FN19" t="inlineStr">
         <is>
@@ -10386,7 +10386,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="FP19" t="n">
-        <v>1829.73</v>
+        <v>1830.45</v>
       </c>
       <c r="FQ19" t="b">
         <v>1</v>
@@ -10890,7 +10890,7 @@
         <v>0.01</v>
       </c>
       <c r="FM20" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="FN20" t="inlineStr">
         <is>
@@ -10901,7 +10901,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP20" t="n">
-        <v>1833.26</v>
+        <v>1833.99</v>
       </c>
       <c r="FQ20" t="b">
         <v>1</v>
@@ -11401,7 +11401,7 @@
         <v>0.01</v>
       </c>
       <c r="FM21" t="n">
-        <v>-45.07</v>
+        <v>-45.1</v>
       </c>
       <c r="FN21" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP21" t="n">
-        <v>1788.19</v>
+        <v>1788.89</v>
       </c>
       <c r="FQ21" t="b">
         <v>0</v>
@@ -11920,7 +11920,7 @@
         <v>0.01</v>
       </c>
       <c r="FM22" t="n">
-        <v>530.3099999999999</v>
+        <v>530.58</v>
       </c>
       <c r="FN22" t="inlineStr">
         <is>
@@ -11931,7 +11931,7 @@
         <v>0.3751851851851852</v>
       </c>
       <c r="FP22" t="n">
-        <v>2318.5</v>
+        <v>2319.47</v>
       </c>
       <c r="FQ22" t="b">
         <v>1</v>
@@ -12437,7 +12437,7 @@
         <v>0.01</v>
       </c>
       <c r="FM23" t="n">
-        <v>91.89</v>
+        <v>91.94</v>
       </c>
       <c r="FN23" t="inlineStr">
         <is>
@@ -12448,7 +12448,7 @@
         <v>0.125</v>
       </c>
       <c r="FP23" t="n">
-        <v>2410.39</v>
+        <v>2411.41</v>
       </c>
       <c r="FQ23" t="b">
         <v>1</v>
@@ -12965,7 +12965,7 @@
         <v>0.1145833333333333</v>
       </c>
       <c r="FP24" t="n">
-        <v>2419.05</v>
+        <v>2420.07</v>
       </c>
       <c r="FQ24" t="b">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>0.01</v>
       </c>
       <c r="FM25" t="n">
-        <v>-57.09</v>
+        <v>-57.12</v>
       </c>
       <c r="FN25" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP25" t="n">
-        <v>2361.96</v>
+        <v>2362.95</v>
       </c>
       <c r="FQ25" t="b">
         <v>0</v>
@@ -13988,7 +13988,7 @@
         <v>0.01</v>
       </c>
       <c r="FM26" t="n">
-        <v>-36.06</v>
+        <v>-36.08</v>
       </c>
       <c r="FN26" t="inlineStr">
         <is>
@@ -13999,7 +13999,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FP26" t="n">
-        <v>2325.9</v>
+        <v>2326.87</v>
       </c>
       <c r="FQ26" t="b">
         <v>0</v>
@@ -14507,7 +14507,7 @@
         <v>0.01</v>
       </c>
       <c r="FM27" t="n">
-        <v>-508.03</v>
+        <v>-508.3</v>
       </c>
       <c r="FN27" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>0.05802083333333333</v>
       </c>
       <c r="FP27" t="n">
-        <v>1817.87</v>
+        <v>1818.57</v>
       </c>
       <c r="FQ27" t="b">
         <v>0</v>
@@ -15026,7 +15026,7 @@
         <v>0.01</v>
       </c>
       <c r="FM28" t="n">
-        <v>-530.65</v>
+        <v>-530.9400000000001</v>
       </c>
       <c r="FN28" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>0.1334606481481481</v>
       </c>
       <c r="FP28" t="n">
-        <v>1287.22</v>
+        <v>1287.63</v>
       </c>
       <c r="FQ28" t="b">
         <v>0</v>
@@ -15543,7 +15543,7 @@
         <v>0.01</v>
       </c>
       <c r="FM29" t="n">
-        <v>109.21</v>
+        <v>109.26</v>
       </c>
       <c r="FN29" t="inlineStr">
         <is>
@@ -15554,7 +15554,7 @@
         <v>0.5625</v>
       </c>
       <c r="FP29" t="n">
-        <v>1396.43</v>
+        <v>1396.89</v>
       </c>
       <c r="FQ29" t="b">
         <v>1</v>
@@ -16062,7 +16062,7 @@
         <v>0.01</v>
       </c>
       <c r="FM30" t="n">
-        <v>-110.12</v>
+        <v>-110.19</v>
       </c>
       <c r="FN30" t="inlineStr">
         <is>
@@ -16073,7 +16073,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP30" t="n">
-        <v>1286.31</v>
+        <v>1286.7</v>
       </c>
       <c r="FQ30" t="b">
         <v>0</v>
@@ -16577,7 +16577,7 @@
         <v>0.01</v>
       </c>
       <c r="FM31" t="n">
-        <v>-211.06</v>
+        <v>-211.17</v>
       </c>
       <c r="FN31" t="inlineStr">
         <is>
@@ -16588,7 +16588,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="FP31" t="n">
-        <v>1075.25</v>
+        <v>1075.53</v>
       </c>
       <c r="FQ31" t="b">
         <v>0</v>
@@ -17094,7 +17094,7 @@
         <v>0.01</v>
       </c>
       <c r="FM32" t="n">
-        <v>-288.66</v>
+        <v>-288.82</v>
       </c>
       <c r="FN32" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP32" t="n">
-        <v>786.5899999999999</v>
+        <v>786.7100000000003</v>
       </c>
       <c r="FQ32" t="b">
         <v>0</v>
@@ -17609,7 +17609,7 @@
         <v>0.01</v>
       </c>
       <c r="FM33" t="n">
-        <v>34.64</v>
+        <v>34.65</v>
       </c>
       <c r="FN33" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>0.34375</v>
       </c>
       <c r="FP33" t="n">
-        <v>821.2299999999999</v>
+        <v>821.3600000000002</v>
       </c>
       <c r="FQ33" t="b">
         <v>1</v>
@@ -18128,7 +18128,7 @@
         <v>0.01</v>
       </c>
       <c r="FM34" t="n">
-        <v>-144.24</v>
+        <v>-144.32</v>
       </c>
       <c r="FN34" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>0.40625</v>
       </c>
       <c r="FP34" t="n">
-        <v>676.9899999999999</v>
+        <v>677.0400000000002</v>
       </c>
       <c r="FQ34" t="b">
         <v>0</v>
@@ -18645,7 +18645,7 @@
         <v>0.01</v>
       </c>
       <c r="FM35" t="n">
-        <v>-227.67</v>
+        <v>-227.8</v>
       </c>
       <c r="FN35" t="inlineStr">
         <is>
@@ -18656,7 +18656,7 @@
         <v>0.3125</v>
       </c>
       <c r="FP35" t="n">
-        <v>449.3199999999999</v>
+        <v>449.2400000000002</v>
       </c>
       <c r="FQ35" t="b">
         <v>0</v>
@@ -19164,7 +19164,7 @@
         <v>0.01</v>
       </c>
       <c r="FM36" t="n">
-        <v>95.06999999999999</v>
+        <v>95.12</v>
       </c>
       <c r="FN36" t="inlineStr">
         <is>
@@ -19175,7 +19175,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP36" t="n">
-        <v>544.3899999999999</v>
+        <v>544.3600000000001</v>
       </c>
       <c r="FQ36" t="b">
         <v>1</v>
@@ -19679,7 +19679,7 @@
         <v>0.01</v>
       </c>
       <c r="FM37" t="n">
-        <v>58.31</v>
+        <v>58.34</v>
       </c>
       <c r="FN37" t="inlineStr">
         <is>
@@ -19690,7 +19690,7 @@
         <v>0.71875</v>
       </c>
       <c r="FP37" t="n">
-        <v>602.6999999999998</v>
+        <v>602.7000000000002</v>
       </c>
       <c r="FQ37" t="b">
         <v>1</v>
@@ -20194,7 +20194,7 @@
         <v>0.01</v>
       </c>
       <c r="FM38" t="n">
-        <v>-316.77</v>
+        <v>-316.94</v>
       </c>
       <c r="FN38" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP38" t="n">
-        <v>285.9299999999998</v>
+        <v>285.7600000000002</v>
       </c>
       <c r="FQ38" t="b">
         <v>0</v>
@@ -20709,7 +20709,7 @@
         <v>0.01</v>
       </c>
       <c r="FM39" t="n">
-        <v>-216.01</v>
+        <v>-216.13</v>
       </c>
       <c r="FN39" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP39" t="n">
-        <v>69.91999999999985</v>
+        <v>69.63000000000017</v>
       </c>
       <c r="FQ39" t="b">
         <v>0</v>
@@ -21228,7 +21228,7 @@
         <v>0.01</v>
       </c>
       <c r="FM40" t="n">
-        <v>-135.4</v>
+        <v>-135.48</v>
       </c>
       <c r="FN40" t="inlineStr">
         <is>
@@ -21239,7 +21239,7 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="FP40" t="n">
-        <v>-65.48000000000016</v>
+        <v>-65.84999999999982</v>
       </c>
       <c r="FQ40" t="b">
         <v>0</v>
@@ -21745,7 +21745,7 @@
         <v>0.01</v>
       </c>
       <c r="FM41" t="n">
-        <v>-148.13</v>
+        <v>-148.21</v>
       </c>
       <c r="FN41" t="inlineStr">
         <is>
@@ -21756,7 +21756,7 @@
         <v>2.302083333333333</v>
       </c>
       <c r="FP41" t="n">
-        <v>-213.6100000000002</v>
+        <v>-214.0599999999998</v>
       </c>
       <c r="FQ41" t="b">
         <v>0</v>
@@ -22260,7 +22260,7 @@
         <v>0.01</v>
       </c>
       <c r="FM42" t="n">
-        <v>862</v>
+        <v>862.4400000000001</v>
       </c>
       <c r="FN42" t="inlineStr">
         <is>
@@ -22271,7 +22271,7 @@
         <v>1.125</v>
       </c>
       <c r="FP42" t="n">
-        <v>648.3899999999999</v>
+        <v>648.3800000000002</v>
       </c>
       <c r="FQ42" t="b">
         <v>1</v>
@@ -22777,7 +22777,7 @@
         <v>0.01</v>
       </c>
       <c r="FM43" t="n">
-        <v>-500.63</v>
+        <v>-500.88</v>
       </c>
       <c r="FN43" t="inlineStr">
         <is>
@@ -22788,7 +22788,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP43" t="n">
-        <v>147.7599999999999</v>
+        <v>147.5000000000002</v>
       </c>
       <c r="FQ43" t="b">
         <v>0</v>
@@ -23294,7 +23294,7 @@
         <v>0.01</v>
       </c>
       <c r="FM44" t="n">
-        <v>-208.42</v>
+        <v>-208.53</v>
       </c>
       <c r="FN44" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>0.5</v>
       </c>
       <c r="FP44" t="n">
-        <v>-60.66000000000011</v>
+        <v>-61.02999999999977</v>
       </c>
       <c r="FQ44" t="b">
         <v>0</v>
@@ -23813,7 +23813,7 @@
         <v>0.01</v>
       </c>
       <c r="FM45" t="n">
-        <v>82.52</v>
+        <v>82.56999999999999</v>
       </c>
       <c r="FN45" t="inlineStr">
         <is>
@@ -23824,7 +23824,7 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="FP45" t="n">
-        <v>21.85999999999989</v>
+        <v>21.54000000000022</v>
       </c>
       <c r="FQ45" t="b">
         <v>1</v>
@@ -24332,7 +24332,7 @@
         <v>0.01</v>
       </c>
       <c r="FM46" t="n">
-        <v>-110.66</v>
+        <v>-110.72</v>
       </c>
       <c r="FN46" t="inlineStr">
         <is>
@@ -24343,7 +24343,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FP46" t="n">
-        <v>-88.80000000000011</v>
+        <v>-89.17999999999978</v>
       </c>
       <c r="FQ46" t="b">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>0.01</v>
       </c>
       <c r="FM47" t="n">
-        <v>-198.51</v>
+        <v>-198.62</v>
       </c>
       <c r="FN47" t="inlineStr">
         <is>
@@ -24860,7 +24860,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FP47" t="n">
-        <v>-287.3100000000001</v>
+        <v>-287.7999999999998</v>
       </c>
       <c r="FQ47" t="b">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0.01</v>
       </c>
       <c r="FM48" t="n">
-        <v>-18.38</v>
+        <v>-18.39</v>
       </c>
       <c r="FN48" t="inlineStr">
         <is>
@@ -25377,7 +25377,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP48" t="n">
-        <v>-305.6900000000001</v>
+        <v>-306.1899999999998</v>
       </c>
       <c r="FQ48" t="b">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0.01</v>
       </c>
       <c r="FM49" t="n">
-        <v>31.45</v>
+        <v>31.47</v>
       </c>
       <c r="FN49" t="inlineStr">
         <is>
@@ -25894,7 +25894,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FP49" t="n">
-        <v>-274.2400000000001</v>
+        <v>-274.7199999999998</v>
       </c>
       <c r="FQ49" t="b">
         <v>1</v>
@@ -26413,7 +26413,7 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="FP50" t="n">
-        <v>-279.3700000000001</v>
+        <v>-279.8499999999998</v>
       </c>
       <c r="FQ50" t="b">
         <v>0</v>
@@ -26917,7 +26917,7 @@
         <v>0.01</v>
       </c>
       <c r="FM51" t="n">
-        <v>-226.28</v>
+        <v>-226.39</v>
       </c>
       <c r="FN51" t="inlineStr">
         <is>
@@ -26928,7 +26928,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FP51" t="n">
-        <v>-505.6500000000001</v>
+        <v>-506.2399999999998</v>
       </c>
       <c r="FQ51" t="b">
         <v>0</v>
@@ -27434,7 +27434,7 @@
         <v>0.01</v>
       </c>
       <c r="FM52" t="n">
-        <v>-247.49</v>
+        <v>-247.61</v>
       </c>
       <c r="FN52" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FP52" t="n">
-        <v>-753.1400000000001</v>
+        <v>-753.8499999999998</v>
       </c>
       <c r="FQ52" t="b">
         <v>0</v>
@@ -27960,7 +27960,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FP53" t="n">
-        <v>-747.6600000000001</v>
+        <v>-748.3699999999998</v>
       </c>
       <c r="FQ53" t="b">
         <v>1</v>
@@ -28470,7 +28470,7 @@
         <v>0.01</v>
       </c>
       <c r="FM54" t="n">
-        <v>-351.6</v>
+        <v>-351.79</v>
       </c>
       <c r="FN54" t="inlineStr">
         <is>
@@ -28481,7 +28481,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FP54" t="n">
-        <v>-1099.26</v>
+        <v>-1100.16</v>
       </c>
       <c r="FQ54" t="b">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0.01</v>
       </c>
       <c r="FM55" t="n">
-        <v>-210.36</v>
+        <v>-210.47</v>
       </c>
       <c r="FN55" t="inlineStr">
         <is>
@@ -29000,7 +29000,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FP55" t="n">
-        <v>-1309.62</v>
+        <v>-1310.63</v>
       </c>
       <c r="FQ55" t="b">
         <v>0</v>
@@ -29508,7 +29508,7 @@
         <v>0.01</v>
       </c>
       <c r="FM56" t="n">
-        <v>-88.92</v>
+        <v>-88.95999999999999</v>
       </c>
       <c r="FN56" t="inlineStr">
         <is>
@@ -29519,7 +29519,7 @@
         <v>0.09375</v>
       </c>
       <c r="FP56" t="n">
-        <v>-1398.54</v>
+        <v>-1399.59</v>
       </c>
       <c r="FQ56" t="b">
         <v>0</v>
@@ -30027,7 +30027,7 @@
         <v>0.01</v>
       </c>
       <c r="FM57" t="n">
-        <v>129.19</v>
+        <v>129.24</v>
       </c>
       <c r="FN57" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FP57" t="n">
-        <v>-1269.35</v>
+        <v>-1270.35</v>
       </c>
       <c r="FQ57" t="b">
         <v>1</v>
@@ -30546,7 +30546,7 @@
         <v>0.01</v>
       </c>
       <c r="FM58" t="n">
-        <v>38.88</v>
+        <v>38.9</v>
       </c>
       <c r="FN58" t="inlineStr">
         <is>
@@ -30557,7 +30557,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FP58" t="n">
-        <v>-1230.47</v>
+        <v>-1231.45</v>
       </c>
       <c r="FQ58" t="b">
         <v>1</v>
@@ -31063,7 +31063,7 @@
         <v>0.01</v>
       </c>
       <c r="FM59" t="n">
-        <v>-78.67</v>
+        <v>-78.7</v>
       </c>
       <c r="FN59" t="inlineStr">
         <is>
@@ -31074,7 +31074,7 @@
         <v>2.104166666666667</v>
       </c>
       <c r="FP59" t="n">
-        <v>-1309.14</v>
+        <v>-1310.15</v>
       </c>
       <c r="FQ59" t="b">
         <v>0</v>
@@ -31578,7 +31578,7 @@
         <v>0.01</v>
       </c>
       <c r="FM60" t="n">
-        <v>47.89</v>
+        <v>47.91</v>
       </c>
       <c r="FN60" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FP60" t="n">
-        <v>-1261.25</v>
+        <v>-1262.24</v>
       </c>
       <c r="FQ60" t="b">
         <v>1</v>
@@ -32097,7 +32097,7 @@
         <v>0.01</v>
       </c>
       <c r="FM61" t="n">
-        <v>-23.87</v>
+        <v>-23.88</v>
       </c>
       <c r="FN61" t="inlineStr">
         <is>
@@ -32108,7 +32108,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FP61" t="n">
-        <v>-1285.12</v>
+        <v>-1286.12</v>
       </c>
       <c r="FQ61" t="b">
         <v>0</v>
@@ -32614,7 +32614,7 @@
         <v>0.01</v>
       </c>
       <c r="FM62" t="n">
-        <v>-235.47</v>
+        <v>-235.59</v>
       </c>
       <c r="FN62" t="inlineStr">
         <is>
@@ -32625,7 +32625,7 @@
         <v>0.125</v>
       </c>
       <c r="FP62" t="n">
-        <v>-1520.59</v>
+        <v>-1521.71</v>
       </c>
       <c r="FQ62" t="b">
         <v>0</v>
@@ -33131,7 +33131,7 @@
         <v>0.01</v>
       </c>
       <c r="FM63" t="n">
-        <v>-133.47</v>
+        <v>-133.53</v>
       </c>
       <c r="FN63" t="inlineStr">
         <is>
@@ -33142,7 +33142,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FP63" t="n">
-        <v>-1654.06</v>
+        <v>-1655.24</v>
       </c>
       <c r="FQ63" t="b">
         <v>0</v>
@@ -33650,7 +33650,7 @@
         <v>0.01</v>
       </c>
       <c r="FM64" t="n">
-        <v>533.53</v>
+        <v>533.77</v>
       </c>
       <c r="FN64" t="inlineStr">
         <is>
@@ -33661,7 +33661,7 @@
         <v>0.7314120370370371</v>
       </c>
       <c r="FP64" t="n">
-        <v>-1120.53</v>
+        <v>-1121.47</v>
       </c>
       <c r="FQ64" t="b">
         <v>1</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:FU66"/>
+  <dimension ref="A1:FV66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1226,95 +1226,100 @@
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
+          <t>first_time_to_trail</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>exit</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>lot_size</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -1703,61 +1708,64 @@
       <c r="FB2" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC2" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD2" t="inlineStr"/>
+      <c r="FC2" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD2" t="b">
+        <v>0</v>
+      </c>
       <c r="FE2" t="inlineStr"/>
-      <c r="FF2" s="2" t="n">
+      <c r="FF2" t="inlineStr"/>
+      <c r="FG2" s="2" t="n">
         <v>45384.98193287037</v>
       </c>
-      <c r="FG2" s="2" t="n">
+      <c r="FH2" s="2" t="n">
         <v>45383.53125</v>
       </c>
-      <c r="FH2" t="n">
+      <c r="FI2" t="n">
         <v>2249.79</v>
       </c>
-      <c r="FI2" s="2" t="n">
+      <c r="FJ2" s="2" t="n">
         <v>45383.96875</v>
       </c>
-      <c r="FJ2" t="n">
+      <c r="FK2" t="n">
         <v>2245.56</v>
       </c>
-      <c r="FK2" t="inlineStr">
+      <c r="FL2" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL2" t="n">
+      <c r="FM2" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM2" t="n">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="FN2" t="inlineStr">
+      <c r="FN2" t="n">
+        <v>74.86</v>
+      </c>
+      <c r="FO2" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO2" s="3" t="n">
+      <c r="FP2" s="3" t="n">
         <v>0.4375</v>
       </c>
-      <c r="FP2" t="n">
-        <v>774.79</v>
-      </c>
-      <c r="FQ2" t="b">
+      <c r="FQ2" t="n">
+        <v>774.86</v>
+      </c>
+      <c r="FR2" t="b">
         <v>1</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FS2" t="n">
         <v>1</v>
       </c>
-      <c r="FS2" t="n">
-        <v>0</v>
-      </c>
       <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
         <v>14</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2150,65 +2158,68 @@
       <c r="FB3" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC3" t="b">
+      <c r="FC3" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="FD3" t="b">
         <v>1</v>
       </c>
-      <c r="FD3" s="2" t="n">
+      <c r="FE3" s="2" t="n">
         <v>45385.8125</v>
       </c>
-      <c r="FE3" s="2" t="n">
+      <c r="FF3" s="2" t="n">
         <v>45390.23503472222</v>
       </c>
-      <c r="FF3" s="2" t="n">
+      <c r="FG3" s="2" t="n">
         <v>45385.42940972222</v>
       </c>
-      <c r="FG3" s="2" t="n">
+      <c r="FH3" s="2" t="n">
         <v>45383.96875</v>
       </c>
-      <c r="FH3" t="n">
+      <c r="FI3" t="n">
         <v>2245.51</v>
       </c>
-      <c r="FI3" s="2" t="n">
+      <c r="FJ3" s="2" t="n">
         <v>45385.42940972222</v>
       </c>
-      <c r="FJ3" t="n">
+      <c r="FK3" t="n">
         <v>2275.56</v>
       </c>
-      <c r="FK3" t="inlineStr">
+      <c r="FL3" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL3" t="n">
+      <c r="FM3" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM3" t="n">
-        <v>531.3200000000001</v>
-      </c>
-      <c r="FN3" t="inlineStr">
+      <c r="FN3" t="n">
+        <v>531.84</v>
+      </c>
+      <c r="FO3" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="FO3" s="3" t="n">
+      <c r="FP3" s="3" t="n">
         <v>1.460659722222222</v>
       </c>
-      <c r="FP3" t="n">
-        <v>1306.11</v>
-      </c>
-      <c r="FQ3" t="b">
+      <c r="FQ3" t="n">
+        <v>1306.7</v>
+      </c>
+      <c r="FR3" t="b">
         <v>1</v>
       </c>
-      <c r="FR3" t="n">
+      <c r="FS3" t="n">
         <v>2</v>
       </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
       <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
         <v>14</v>
       </c>
-      <c r="FU3" t="n">
+      <c r="FV3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2661,61 +2672,64 @@
       <c r="FB4" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD4" t="inlineStr"/>
+      <c r="FC4" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD4" t="b">
+        <v>0</v>
+      </c>
       <c r="FE4" t="inlineStr"/>
-      <c r="FF4" s="2" t="n">
+      <c r="FF4" t="inlineStr"/>
+      <c r="FG4" s="2" t="n">
         <v>45386.06064814814</v>
       </c>
-      <c r="FG4" s="2" t="n">
+      <c r="FH4" s="2" t="n">
         <v>45385.44791666666</v>
       </c>
-      <c r="FH4" t="n">
+      <c r="FI4" t="n">
         <v>2271.78</v>
       </c>
-      <c r="FI4" s="2" t="n">
+      <c r="FJ4" s="2" t="n">
         <v>45385.71875</v>
       </c>
-      <c r="FJ4" t="n">
+      <c r="FK4" t="n">
         <v>2279.28</v>
       </c>
-      <c r="FK4" t="inlineStr">
+      <c r="FL4" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL4" t="n">
+      <c r="FM4" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM4" t="n">
-        <v>-132.65</v>
-      </c>
-      <c r="FN4" t="inlineStr">
+      <c r="FN4" t="n">
+        <v>-132.77</v>
+      </c>
+      <c r="FO4" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO4" s="3" t="n">
+      <c r="FP4" s="3" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="FP4" t="n">
-        <v>1173.46</v>
-      </c>
-      <c r="FQ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR4" t="n">
+      <c r="FQ4" t="n">
+        <v>1173.93</v>
+      </c>
+      <c r="FR4" t="b">
         <v>0</v>
       </c>
       <c r="FS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT4" t="n">
         <v>1</v>
       </c>
-      <c r="FT4" t="n">
+      <c r="FU4" t="n">
         <v>14</v>
       </c>
-      <c r="FU4" t="n">
+      <c r="FV4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3170,63 +3184,66 @@
       <c r="FB5" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC5" t="b">
+      <c r="FC5" s="2" t="n">
+        <v>45387.73958333334</v>
+      </c>
+      <c r="FD5" t="b">
         <v>1</v>
       </c>
-      <c r="FD5" s="2" t="n">
+      <c r="FE5" s="2" t="n">
         <v>45390.23958333334</v>
       </c>
-      <c r="FE5" t="inlineStr"/>
-      <c r="FF5" s="2" t="n">
+      <c r="FF5" t="inlineStr"/>
+      <c r="FG5" s="2" t="n">
         <v>45390.05104166667</v>
       </c>
-      <c r="FG5" s="2" t="n">
+      <c r="FH5" s="2" t="n">
         <v>45385.71875</v>
       </c>
-      <c r="FH5" t="n">
+      <c r="FI5" t="n">
         <v>2279.28</v>
       </c>
-      <c r="FI5" s="2" t="n">
+      <c r="FJ5" s="2" t="n">
         <v>45386.38541666666</v>
       </c>
-      <c r="FJ5" t="n">
+      <c r="FK5" t="n">
         <v>2296.38</v>
       </c>
-      <c r="FK5" t="inlineStr">
+      <c r="FL5" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL5" t="n">
+      <c r="FM5" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM5" t="n">
-        <v>302.35</v>
-      </c>
-      <c r="FN5" t="inlineStr">
+      <c r="FN5" t="n">
+        <v>302.64</v>
+      </c>
+      <c r="FO5" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO5" s="3" t="n">
+      <c r="FP5" s="3" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="FP5" t="n">
-        <v>1475.81</v>
-      </c>
-      <c r="FQ5" t="b">
+      <c r="FQ5" t="n">
+        <v>1476.57</v>
+      </c>
+      <c r="FR5" t="b">
         <v>1</v>
       </c>
-      <c r="FR5" t="n">
+      <c r="FS5" t="n">
         <v>1</v>
       </c>
-      <c r="FS5" t="n">
-        <v>0</v>
-      </c>
       <c r="FT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU5" t="n">
         <v>14</v>
       </c>
-      <c r="FU5" t="n">
+      <c r="FV5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3681,61 +3698,64 @@
       <c r="FB6" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC6" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD6" t="inlineStr"/>
+      <c r="FC6" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD6" t="b">
+        <v>0</v>
+      </c>
       <c r="FE6" t="inlineStr"/>
-      <c r="FF6" s="2" t="n">
+      <c r="FF6" t="inlineStr"/>
+      <c r="FG6" s="2" t="n">
         <v>45387.76435185185</v>
       </c>
-      <c r="FG6" s="2" t="n">
+      <c r="FH6" s="2" t="n">
         <v>45386.38541666666</v>
       </c>
-      <c r="FH6" t="n">
+      <c r="FI6" t="n">
         <v>2296.39</v>
       </c>
-      <c r="FI6" s="2" t="n">
+      <c r="FJ6" s="2" t="n">
         <v>45386.85416666666</v>
       </c>
-      <c r="FJ6" t="n">
+      <c r="FK6" t="n">
         <v>2289.22</v>
       </c>
-      <c r="FK6" t="inlineStr">
+      <c r="FL6" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL6" t="n">
+      <c r="FM6" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM6" t="n">
-        <v>126.77</v>
-      </c>
-      <c r="FN6" t="inlineStr">
+      <c r="FN6" t="n">
+        <v>126.9</v>
+      </c>
+      <c r="FO6" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO6" s="3" t="n">
+      <c r="FP6" s="3" t="n">
         <v>0.46875</v>
       </c>
-      <c r="FP6" t="n">
-        <v>1602.58</v>
-      </c>
-      <c r="FQ6" t="b">
+      <c r="FQ6" t="n">
+        <v>1603.47</v>
+      </c>
+      <c r="FR6" t="b">
         <v>1</v>
       </c>
-      <c r="FR6" t="n">
+      <c r="FS6" t="n">
         <v>2</v>
       </c>
-      <c r="FS6" t="n">
-        <v>0</v>
-      </c>
       <c r="FT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU6" t="n">
         <v>14</v>
       </c>
-      <c r="FU6" t="n">
+      <c r="FV6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4190,65 +4210,68 @@
       <c r="FB7" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC7" t="b">
+      <c r="FC7" s="2" t="n">
+        <v>45387.77083333334</v>
+      </c>
+      <c r="FD7" t="b">
         <v>1</v>
       </c>
-      <c r="FD7" s="2" t="n">
+      <c r="FE7" s="2" t="n">
         <v>45390.23958333334</v>
       </c>
-      <c r="FE7" s="2" t="n">
+      <c r="FF7" s="2" t="n">
         <v>45394.17153935185</v>
       </c>
-      <c r="FF7" s="2" t="n">
+      <c r="FG7" s="2" t="n">
         <v>45390.05047453703</v>
       </c>
-      <c r="FG7" s="2" t="n">
+      <c r="FH7" s="2" t="n">
         <v>45386.85416666666</v>
       </c>
-      <c r="FH7" t="n">
+      <c r="FI7" t="n">
         <v>2289.24</v>
       </c>
-      <c r="FI7" s="2" t="n">
+      <c r="FJ7" s="2" t="n">
         <v>45386.97916666666</v>
       </c>
-      <c r="FJ7" t="n">
+      <c r="FK7" t="n">
         <v>2291.3</v>
       </c>
-      <c r="FK7" t="inlineStr">
+      <c r="FL7" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL7" t="n">
+      <c r="FM7" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM7" t="n">
-        <v>36.42</v>
-      </c>
-      <c r="FN7" t="inlineStr">
+      <c r="FN7" t="n">
+        <v>36.46</v>
+      </c>
+      <c r="FO7" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO7" s="3" t="n">
+      <c r="FP7" s="3" t="n">
         <v>0.125</v>
       </c>
-      <c r="FP7" t="n">
-        <v>1639</v>
-      </c>
-      <c r="FQ7" t="b">
+      <c r="FQ7" t="n">
+        <v>1639.93</v>
+      </c>
+      <c r="FR7" t="b">
         <v>1</v>
       </c>
-      <c r="FR7" t="n">
+      <c r="FS7" t="n">
         <v>3</v>
       </c>
-      <c r="FS7" t="n">
-        <v>0</v>
-      </c>
       <c r="FT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU7" t="n">
         <v>14</v>
       </c>
-      <c r="FU7" t="n">
+      <c r="FV7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4703,61 +4726,64 @@
       <c r="FB8" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC8" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD8" t="inlineStr"/>
+      <c r="FC8" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD8" t="b">
+        <v>0</v>
+      </c>
       <c r="FE8" t="inlineStr"/>
-      <c r="FF8" s="2" t="n">
+      <c r="FF8" t="inlineStr"/>
+      <c r="FG8" s="2" t="n">
         <v>45387.73214120371</v>
       </c>
-      <c r="FG8" s="2" t="n">
+      <c r="FH8" s="2" t="n">
         <v>45386.97916666666</v>
       </c>
-      <c r="FH8" t="n">
+      <c r="FI8" t="n">
         <v>2291.22</v>
       </c>
-      <c r="FI8" s="2" t="n">
+      <c r="FJ8" s="2" t="n">
         <v>45387</v>
       </c>
-      <c r="FJ8" t="n">
+      <c r="FK8" t="n">
         <v>2290.27</v>
       </c>
-      <c r="FK8" t="inlineStr">
+      <c r="FL8" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL8" t="n">
+      <c r="FM8" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM8" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="FN8" t="inlineStr">
+      <c r="FN8" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="FO8" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO8" s="3" t="n">
+      <c r="FP8" s="3" t="n">
         <v>0.02083333333333333</v>
       </c>
-      <c r="FP8" t="n">
-        <v>1655.8</v>
-      </c>
-      <c r="FQ8" t="b">
+      <c r="FQ8" t="n">
+        <v>1656.74</v>
+      </c>
+      <c r="FR8" t="b">
         <v>1</v>
       </c>
-      <c r="FR8" t="n">
+      <c r="FS8" t="n">
         <v>4</v>
       </c>
-      <c r="FS8" t="n">
-        <v>0</v>
-      </c>
       <c r="FT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU8" t="n">
         <v>14</v>
       </c>
-      <c r="FU8" t="n">
+      <c r="FV8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5212,65 +5238,68 @@
       <c r="FB9" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC9" t="b">
+      <c r="FC9" s="2" t="n">
+        <v>45387.79166666666</v>
+      </c>
+      <c r="FD9" t="b">
         <v>1</v>
       </c>
-      <c r="FD9" s="2" t="n">
+      <c r="FE9" s="2" t="n">
         <v>45390.23958333334</v>
       </c>
-      <c r="FE9" s="2" t="n">
+      <c r="FF9" s="2" t="n">
         <v>45394.20673611111</v>
       </c>
-      <c r="FF9" s="2" t="n">
+      <c r="FG9" s="2" t="n">
         <v>45387.92650462963</v>
       </c>
-      <c r="FG9" s="2" t="n">
+      <c r="FH9" s="2" t="n">
         <v>45387</v>
       </c>
-      <c r="FH9" t="n">
+      <c r="FI9" t="n">
         <v>2290.74</v>
       </c>
-      <c r="FI9" s="2" t="n">
+      <c r="FJ9" s="2" t="n">
         <v>45387.07291666666</v>
       </c>
-      <c r="FJ9" t="n">
+      <c r="FK9" t="n">
         <v>2289.15</v>
       </c>
-      <c r="FK9" t="inlineStr">
+      <c r="FL9" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL9" t="n">
+      <c r="FM9" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM9" t="n">
-        <v>-28.12</v>
-      </c>
-      <c r="FN9" t="inlineStr">
+      <c r="FN9" t="n">
+        <v>-28.15</v>
+      </c>
+      <c r="FO9" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO9" s="3" t="n">
+      <c r="FP9" s="3" t="n">
         <v>0.07291666666666667</v>
       </c>
-      <c r="FP9" t="n">
-        <v>1627.68</v>
-      </c>
-      <c r="FQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR9" t="n">
+      <c r="FQ9" t="n">
+        <v>1628.59</v>
+      </c>
+      <c r="FR9" t="b">
         <v>0</v>
       </c>
       <c r="FS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT9" t="n">
         <v>1</v>
       </c>
-      <c r="FT9" t="n">
+      <c r="FU9" t="n">
         <v>14</v>
       </c>
-      <c r="FU9" t="n">
+      <c r="FV9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5723,61 +5752,64 @@
       <c r="FB10" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC10" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD10" t="inlineStr"/>
+      <c r="FC10" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD10" t="b">
+        <v>0</v>
+      </c>
       <c r="FE10" t="inlineStr"/>
-      <c r="FF10" s="2" t="n">
+      <c r="FF10" t="inlineStr"/>
+      <c r="FG10" s="2" t="n">
         <v>45387.73185185185</v>
       </c>
-      <c r="FG10" s="2" t="n">
+      <c r="FH10" s="2" t="n">
         <v>45387.07291666666</v>
       </c>
-      <c r="FH10" t="n">
+      <c r="FI10" t="n">
         <v>2289.25</v>
       </c>
-      <c r="FI10" s="2" t="n">
+      <c r="FJ10" s="2" t="n">
         <v>45387.42708333334</v>
       </c>
-      <c r="FJ10" t="n">
+      <c r="FK10" t="n">
         <v>2284.52</v>
       </c>
-      <c r="FK10" t="inlineStr">
+      <c r="FL10" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL10" t="n">
+      <c r="FM10" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM10" t="n">
-        <v>83.63</v>
-      </c>
-      <c r="FN10" t="inlineStr">
+      <c r="FN10" t="n">
+        <v>83.70999999999999</v>
+      </c>
+      <c r="FO10" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO10" s="3" t="n">
+      <c r="FP10" s="3" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="FP10" t="n">
-        <v>1711.31</v>
-      </c>
-      <c r="FQ10" t="b">
+      <c r="FQ10" t="n">
+        <v>1712.3</v>
+      </c>
+      <c r="FR10" t="b">
         <v>1</v>
       </c>
-      <c r="FR10" t="n">
+      <c r="FS10" t="n">
         <v>1</v>
       </c>
-      <c r="FS10" t="n">
-        <v>0</v>
-      </c>
       <c r="FT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU10" t="n">
         <v>14</v>
       </c>
-      <c r="FU10" t="n">
+      <c r="FV10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6236,65 +6268,68 @@
       <c r="FB11" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC11" t="b">
+      <c r="FC11" s="2" t="n">
+        <v>45387.73958333334</v>
+      </c>
+      <c r="FD11" t="b">
         <v>1</v>
       </c>
-      <c r="FD11" s="2" t="n">
+      <c r="FE11" s="2" t="n">
         <v>45390.23958333334</v>
       </c>
-      <c r="FE11" s="2" t="n">
+      <c r="FF11" s="2" t="n">
         <v>45394.16726851852</v>
       </c>
-      <c r="FF11" s="2" t="n">
+      <c r="FG11" s="2" t="n">
         <v>45390.05394675926</v>
       </c>
-      <c r="FG11" s="2" t="n">
+      <c r="FH11" s="2" t="n">
         <v>45387.42708333334</v>
       </c>
-      <c r="FH11" t="n">
+      <c r="FI11" t="n">
         <v>2284.57</v>
       </c>
-      <c r="FI11" s="2" t="n">
+      <c r="FJ11" s="2" t="n">
         <v>45390.05394675926</v>
       </c>
-      <c r="FJ11" t="n">
+      <c r="FK11" t="n">
         <v>2315.24</v>
       </c>
-      <c r="FK11" t="inlineStr">
+      <c r="FL11" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL11" t="n">
+      <c r="FM11" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM11" t="n">
-        <v>542.28</v>
-      </c>
-      <c r="FN11" t="inlineStr">
+      <c r="FN11" t="n">
+        <v>542.8099999999999</v>
+      </c>
+      <c r="FO11" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="FO11" s="3" t="n">
+      <c r="FP11" s="3" t="n">
         <v>2.626863425925926</v>
       </c>
-      <c r="FP11" t="n">
-        <v>2253.59</v>
-      </c>
-      <c r="FQ11" t="b">
+      <c r="FQ11" t="n">
+        <v>2255.11</v>
+      </c>
+      <c r="FR11" t="b">
         <v>1</v>
       </c>
-      <c r="FR11" t="n">
+      <c r="FS11" t="n">
         <v>2</v>
       </c>
-      <c r="FS11" t="n">
-        <v>0</v>
-      </c>
       <c r="FT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU11" t="n">
         <v>14</v>
       </c>
-      <c r="FU11" t="n">
+      <c r="FV11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -6751,61 +6786,64 @@
       <c r="FB12" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC12" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD12" t="inlineStr"/>
+      <c r="FC12" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD12" t="b">
+        <v>0</v>
+      </c>
       <c r="FE12" t="inlineStr"/>
-      <c r="FF12" s="2" t="n">
+      <c r="FF12" t="inlineStr"/>
+      <c r="FG12" s="2" t="n">
         <v>45390.23391203704</v>
       </c>
-      <c r="FG12" s="2" t="n">
+      <c r="FH12" s="2" t="n">
         <v>45390.08333333334</v>
       </c>
-      <c r="FH12" t="n">
+      <c r="FI12" t="n">
         <v>2307.51</v>
       </c>
-      <c r="FI12" s="2" t="n">
+      <c r="FJ12" s="2" t="n">
         <v>45390.23391203704</v>
       </c>
-      <c r="FJ12" t="n">
+      <c r="FK12" t="n">
         <v>2337.18</v>
       </c>
-      <c r="FK12" t="inlineStr">
+      <c r="FL12" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL12" t="n">
+      <c r="FM12" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM12" t="n">
-        <v>-524.76</v>
-      </c>
-      <c r="FN12" t="inlineStr">
+      <c r="FN12" t="n">
+        <v>-525.25</v>
+      </c>
+      <c r="FO12" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO12" s="3" t="n">
+      <c r="FP12" s="3" t="n">
         <v>0.1505787037037037</v>
       </c>
-      <c r="FP12" t="n">
-        <v>1728.83</v>
-      </c>
-      <c r="FQ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR12" t="n">
+      <c r="FQ12" t="n">
+        <v>1729.86</v>
+      </c>
+      <c r="FR12" t="b">
         <v>0</v>
       </c>
       <c r="FS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT12" t="n">
         <v>1</v>
       </c>
-      <c r="FT12" t="n">
+      <c r="FU12" t="n">
         <v>15</v>
       </c>
-      <c r="FU12" t="n">
+      <c r="FV12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7262,63 +7300,66 @@
       <c r="FB13" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC13" t="b">
+      <c r="FC13" s="2" t="n">
+        <v>45394.17708333334</v>
+      </c>
+      <c r="FD13" t="b">
         <v>1</v>
       </c>
-      <c r="FD13" s="2" t="n">
+      <c r="FE13" s="2" t="n">
         <v>45394.70833333334</v>
       </c>
-      <c r="FE13" t="inlineStr"/>
-      <c r="FF13" s="2" t="n">
+      <c r="FF13" t="inlineStr"/>
+      <c r="FG13" s="2" t="n">
         <v>45394.27662037037</v>
       </c>
-      <c r="FG13" s="2" t="n">
+      <c r="FH13" s="2" t="n">
         <v>45390.25</v>
       </c>
-      <c r="FH13" t="n">
+      <c r="FI13" t="n">
         <v>2348.06</v>
       </c>
-      <c r="FI13" s="2" t="n">
+      <c r="FJ13" s="2" t="n">
         <v>45390.66666666666</v>
       </c>
-      <c r="FJ13" t="n">
+      <c r="FK13" t="n">
         <v>2328.96</v>
       </c>
-      <c r="FK13" t="inlineStr">
+      <c r="FL13" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL13" t="n">
+      <c r="FM13" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM13" t="n">
-        <v>-337.82</v>
-      </c>
-      <c r="FN13" t="inlineStr">
+      <c r="FN13" t="n">
+        <v>-338.13</v>
+      </c>
+      <c r="FO13" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO13" s="3" t="n">
+      <c r="FP13" s="3" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="FP13" t="n">
-        <v>1391.01</v>
-      </c>
-      <c r="FQ13" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR13" t="n">
+      <c r="FQ13" t="n">
+        <v>1391.73</v>
+      </c>
+      <c r="FR13" t="b">
         <v>0</v>
       </c>
       <c r="FS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT13" t="n">
         <v>2</v>
       </c>
-      <c r="FT13" t="n">
+      <c r="FU13" t="n">
         <v>15</v>
       </c>
-      <c r="FU13" t="n">
+      <c r="FV13" t="n">
         <v>4</v>
       </c>
     </row>
@@ -7777,61 +7818,64 @@
       <c r="FB14" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC14" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD14" t="inlineStr"/>
+      <c r="FC14" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD14" t="b">
+        <v>0</v>
+      </c>
       <c r="FE14" t="inlineStr"/>
-      <c r="FF14" s="2" t="n">
+      <c r="FF14" t="inlineStr"/>
+      <c r="FG14" s="2" t="n">
         <v>45391.48493055555</v>
       </c>
-      <c r="FG14" s="2" t="n">
+      <c r="FH14" s="2" t="n">
         <v>45390.66666666666</v>
       </c>
-      <c r="FH14" t="n">
+      <c r="FI14" t="n">
         <v>2328.93</v>
       </c>
-      <c r="FI14" s="2" t="n">
+      <c r="FJ14" s="2" t="n">
         <v>45390.88541666666</v>
       </c>
-      <c r="FJ14" t="n">
+      <c r="FK14" t="n">
         <v>2338.36</v>
       </c>
-      <c r="FK14" t="inlineStr">
+      <c r="FL14" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL14" t="n">
+      <c r="FM14" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM14" t="n">
-        <v>-166.79</v>
-      </c>
-      <c r="FN14" t="inlineStr">
+      <c r="FN14" t="n">
+        <v>-166.94</v>
+      </c>
+      <c r="FO14" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO14" s="3" t="n">
+      <c r="FP14" s="3" t="n">
         <v>0.21875</v>
       </c>
-      <c r="FP14" t="n">
-        <v>1224.22</v>
-      </c>
-      <c r="FQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR14" t="n">
+      <c r="FQ14" t="n">
+        <v>1224.79</v>
+      </c>
+      <c r="FR14" t="b">
         <v>0</v>
       </c>
       <c r="FS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT14" t="n">
         <v>3</v>
       </c>
-      <c r="FT14" t="n">
+      <c r="FU14" t="n">
         <v>15</v>
       </c>
-      <c r="FU14" t="n">
+      <c r="FV14" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8290,63 +8334,66 @@
       <c r="FB15" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC15" t="b">
+      <c r="FC15" s="2" t="n">
+        <v>45393.97916666666</v>
+      </c>
+      <c r="FD15" t="b">
         <v>1</v>
       </c>
-      <c r="FD15" s="2" t="n">
+      <c r="FE15" s="2" t="n">
         <v>45394.70833333334</v>
       </c>
-      <c r="FE15" t="inlineStr"/>
-      <c r="FF15" s="2" t="n">
+      <c r="FF15" t="inlineStr"/>
+      <c r="FG15" s="2" t="n">
         <v>45394.28010416667</v>
       </c>
-      <c r="FG15" s="2" t="n">
+      <c r="FH15" s="2" t="n">
         <v>45390.88541666666</v>
       </c>
-      <c r="FH15" t="n">
+      <c r="FI15" t="n">
         <v>2338.35</v>
       </c>
-      <c r="FI15" s="2" t="n">
+      <c r="FJ15" s="2" t="n">
         <v>45391.69791666666</v>
       </c>
-      <c r="FJ15" t="n">
+      <c r="FK15" t="n">
         <v>2354.68</v>
       </c>
-      <c r="FK15" t="inlineStr">
+      <c r="FL15" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL15" t="n">
+      <c r="FM15" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM15" t="n">
-        <v>288.73</v>
-      </c>
-      <c r="FN15" t="inlineStr">
+      <c r="FN15" t="n">
+        <v>289.02</v>
+      </c>
+      <c r="FO15" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO15" s="3" t="n">
+      <c r="FP15" s="3" t="n">
         <v>0.8125</v>
       </c>
-      <c r="FP15" t="n">
-        <v>1512.95</v>
-      </c>
-      <c r="FQ15" t="b">
+      <c r="FQ15" t="n">
+        <v>1513.81</v>
+      </c>
+      <c r="FR15" t="b">
         <v>1</v>
       </c>
-      <c r="FR15" t="n">
+      <c r="FS15" t="n">
         <v>1</v>
       </c>
-      <c r="FS15" t="n">
-        <v>0</v>
-      </c>
       <c r="FT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU15" t="n">
         <v>15</v>
       </c>
-      <c r="FU15" t="n">
+      <c r="FV15" t="n">
         <v>4</v>
       </c>
     </row>
@@ -8805,61 +8852,64 @@
       <c r="FB16" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC16" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD16" t="inlineStr"/>
+      <c r="FC16" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD16" t="b">
+        <v>0</v>
+      </c>
       <c r="FE16" t="inlineStr"/>
-      <c r="FF16" s="2" t="n">
+      <c r="FF16" t="inlineStr"/>
+      <c r="FG16" s="2" t="n">
         <v>45394.16726851852</v>
       </c>
-      <c r="FG16" s="2" t="n">
+      <c r="FH16" s="2" t="n">
         <v>45391.69791666666</v>
       </c>
-      <c r="FH16" t="n">
+      <c r="FI16" t="n">
         <v>2354.55</v>
       </c>
-      <c r="FI16" s="2" t="n">
+      <c r="FJ16" s="2" t="n">
         <v>45391.98958333334</v>
       </c>
-      <c r="FJ16" t="n">
+      <c r="FK16" t="n">
         <v>2353.62</v>
       </c>
-      <c r="FK16" t="inlineStr">
+      <c r="FL16" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL16" t="n">
+      <c r="FM16" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM16" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="FN16" t="inlineStr">
+      <c r="FN16" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="FO16" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO16" s="3" t="n">
+      <c r="FP16" s="3" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="FP16" t="n">
-        <v>1529.39</v>
-      </c>
-      <c r="FQ16" t="b">
+      <c r="FQ16" t="n">
+        <v>1530.27</v>
+      </c>
+      <c r="FR16" t="b">
         <v>1</v>
       </c>
-      <c r="FR16" t="n">
+      <c r="FS16" t="n">
         <v>2</v>
       </c>
-      <c r="FS16" t="n">
-        <v>0</v>
-      </c>
       <c r="FT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU16" t="n">
         <v>15</v>
       </c>
-      <c r="FU16" t="n">
+      <c r="FV16" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9316,63 +9366,66 @@
       <c r="FB17" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC17" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD17" s="2" t="n">
+      <c r="FC17" s="2" t="n">
         <v>45394.20833333334</v>
       </c>
-      <c r="FE17" t="inlineStr"/>
-      <c r="FF17" s="2" t="n">
+      <c r="FD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE17" s="2" t="n">
+        <v>45394.20833333334</v>
+      </c>
+      <c r="FF17" t="inlineStr"/>
+      <c r="FG17" s="2" t="n">
         <v>45392.67611111111</v>
       </c>
-      <c r="FG17" s="2" t="n">
+      <c r="FH17" s="2" t="n">
         <v>45391.98958333334</v>
       </c>
-      <c r="FH17" t="n">
+      <c r="FI17" t="n">
         <v>2353.62</v>
       </c>
-      <c r="FI17" s="2" t="n">
+      <c r="FJ17" s="2" t="n">
         <v>45392.22916666666</v>
       </c>
-      <c r="FJ17" t="n">
+      <c r="FK17" t="n">
         <v>2350.3</v>
       </c>
-      <c r="FK17" t="inlineStr">
+      <c r="FL17" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL17" t="n">
+      <c r="FM17" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM17" t="n">
-        <v>-58.72</v>
-      </c>
-      <c r="FN17" t="inlineStr">
+      <c r="FN17" t="n">
+        <v>-58.77</v>
+      </c>
+      <c r="FO17" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO17" s="3" t="n">
+      <c r="FP17" s="3" t="n">
         <v>0.2395833333333333</v>
       </c>
-      <c r="FP17" t="n">
-        <v>1470.67</v>
-      </c>
-      <c r="FQ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR17" t="n">
+      <c r="FQ17" t="n">
+        <v>1471.5</v>
+      </c>
+      <c r="FR17" t="b">
         <v>0</v>
       </c>
       <c r="FS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT17" t="n">
         <v>1</v>
       </c>
-      <c r="FT17" t="n">
+      <c r="FU17" t="n">
         <v>15</v>
       </c>
-      <c r="FU17" t="n">
+      <c r="FV17" t="n">
         <v>4</v>
       </c>
     </row>
@@ -9831,61 +9884,64 @@
       <c r="FB18" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC18" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD18" t="inlineStr"/>
+      <c r="FC18" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD18" t="b">
+        <v>0</v>
+      </c>
       <c r="FE18" t="inlineStr"/>
-      <c r="FF18" s="2" t="n">
+      <c r="FF18" t="inlineStr"/>
+      <c r="FG18" s="2" t="n">
         <v>45394.16677083333</v>
       </c>
-      <c r="FG18" s="2" t="n">
+      <c r="FH18" s="2" t="n">
         <v>45392.22916666666</v>
       </c>
-      <c r="FH18" t="n">
+      <c r="FI18" t="n">
         <v>2350.32</v>
       </c>
-      <c r="FI18" s="2" t="n">
+      <c r="FJ18" s="2" t="n">
         <v>45392.32291666666</v>
       </c>
-      <c r="FJ18" t="n">
+      <c r="FK18" t="n">
         <v>2354.13</v>
       </c>
-      <c r="FK18" t="inlineStr">
+      <c r="FL18" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL18" t="n">
+      <c r="FM18" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM18" t="n">
-        <v>-67.39</v>
-      </c>
-      <c r="FN18" t="inlineStr">
+      <c r="FN18" t="n">
+        <v>-67.45</v>
+      </c>
+      <c r="FO18" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO18" s="3" t="n">
+      <c r="FP18" s="3" t="n">
         <v>0.09375</v>
       </c>
-      <c r="FP18" t="n">
-        <v>1403.28</v>
-      </c>
-      <c r="FQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR18" t="n">
+      <c r="FQ18" t="n">
+        <v>1404.05</v>
+      </c>
+      <c r="FR18" t="b">
         <v>0</v>
       </c>
       <c r="FS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT18" t="n">
         <v>2</v>
       </c>
-      <c r="FT18" t="n">
+      <c r="FU18" t="n">
         <v>15</v>
       </c>
-      <c r="FU18" t="n">
+      <c r="FV18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10342,63 +10398,66 @@
       <c r="FB19" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC19" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD19" s="2" t="n">
+      <c r="FC19" s="2" t="n">
         <v>45394.20833333334</v>
       </c>
-      <c r="FE19" t="inlineStr"/>
-      <c r="FF19" s="2" t="n">
+      <c r="FD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE19" s="2" t="n">
+        <v>45394.20833333334</v>
+      </c>
+      <c r="FF19" t="inlineStr"/>
+      <c r="FG19" s="2" t="n">
         <v>45392.67596064815</v>
       </c>
-      <c r="FG19" s="2" t="n">
+      <c r="FH19" s="2" t="n">
         <v>45392.32291666666</v>
       </c>
-      <c r="FH19" t="n">
+      <c r="FI19" t="n">
         <v>2354.16</v>
       </c>
-      <c r="FI19" s="2" t="n">
+      <c r="FJ19" s="2" t="n">
         <v>45392.53125</v>
       </c>
-      <c r="FJ19" t="n">
+      <c r="FK19" t="n">
         <v>2348.86</v>
       </c>
-      <c r="FK19" t="inlineStr">
+      <c r="FL19" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL19" t="n">
+      <c r="FM19" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM19" t="n">
-        <v>-93.73999999999999</v>
-      </c>
-      <c r="FN19" t="inlineStr">
+      <c r="FN19" t="n">
+        <v>-93.83</v>
+      </c>
+      <c r="FO19" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO19" s="3" t="n">
+      <c r="FP19" s="3" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="FP19" t="n">
-        <v>1309.54</v>
-      </c>
-      <c r="FQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR19" t="n">
+      <c r="FQ19" t="n">
+        <v>1310.22</v>
+      </c>
+      <c r="FR19" t="b">
         <v>0</v>
       </c>
       <c r="FS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT19" t="n">
         <v>3</v>
       </c>
-      <c r="FT19" t="n">
+      <c r="FU19" t="n">
         <v>15</v>
       </c>
-      <c r="FU19" t="n">
+      <c r="FV19" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10859,61 +10918,64 @@
       <c r="FB20" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC20" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD20" t="inlineStr"/>
+      <c r="FC20" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD20" t="b">
+        <v>0</v>
+      </c>
       <c r="FE20" t="inlineStr"/>
-      <c r="FF20" s="2" t="n">
+      <c r="FF20" t="inlineStr"/>
+      <c r="FG20" s="2" t="n">
         <v>45394.05840277778</v>
       </c>
-      <c r="FG20" s="2" t="n">
+      <c r="FH20" s="2" t="n">
         <v>45392.53125</v>
       </c>
-      <c r="FH20" t="n">
+      <c r="FI20" t="n">
         <v>2348.85</v>
       </c>
-      <c r="FI20" s="2" t="n">
+      <c r="FJ20" s="2" t="n">
         <v>45393.17708333334</v>
       </c>
-      <c r="FJ20" t="n">
+      <c r="FK20" t="n">
         <v>2338.5</v>
       </c>
-      <c r="FK20" t="inlineStr">
+      <c r="FL20" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL20" t="n">
+      <c r="FM20" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM20" t="n">
-        <v>183</v>
-      </c>
-      <c r="FN20" t="inlineStr">
+      <c r="FN20" t="n">
+        <v>183.18</v>
+      </c>
+      <c r="FO20" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO20" s="3" t="n">
+      <c r="FP20" s="3" t="n">
         <v>0.6458333333333334</v>
       </c>
-      <c r="FP20" t="n">
-        <v>1492.54</v>
-      </c>
-      <c r="FQ20" t="b">
+      <c r="FQ20" t="n">
+        <v>1493.4</v>
+      </c>
+      <c r="FR20" t="b">
         <v>1</v>
       </c>
-      <c r="FR20" t="n">
+      <c r="FS20" t="n">
         <v>1</v>
       </c>
-      <c r="FS20" t="n">
-        <v>0</v>
-      </c>
       <c r="FT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU20" t="n">
         <v>15</v>
       </c>
-      <c r="FU20" t="n">
+      <c r="FV20" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11372,63 +11434,66 @@
       <c r="FB21" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC21" t="b">
+      <c r="FC21" s="2" t="n">
+        <v>45393.97916666666</v>
+      </c>
+      <c r="FD21" t="b">
         <v>1</v>
       </c>
-      <c r="FD21" s="2" t="n">
+      <c r="FE21" s="2" t="n">
         <v>45394.70833333334</v>
       </c>
-      <c r="FE21" t="inlineStr"/>
-      <c r="FF21" s="2" t="n">
+      <c r="FF21" t="inlineStr"/>
+      <c r="FG21" s="2" t="n">
         <v>45394.27983796296</v>
       </c>
-      <c r="FG21" s="2" t="n">
+      <c r="FH21" s="2" t="n">
         <v>45393.17708333334</v>
       </c>
-      <c r="FH21" t="n">
+      <c r="FI21" t="n">
         <v>2338.49</v>
       </c>
-      <c r="FI21" s="2" t="n">
+      <c r="FJ21" s="2" t="n">
         <v>45393.4375</v>
       </c>
-      <c r="FJ21" t="n">
+      <c r="FK21" t="n">
         <v>2338.69</v>
       </c>
-      <c r="FK21" t="inlineStr">
+      <c r="FL21" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL21" t="n">
+      <c r="FM21" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM21" t="n">
+      <c r="FN21" t="n">
         <v>3.54</v>
       </c>
-      <c r="FN21" t="inlineStr">
+      <c r="FO21" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO21" s="3" t="n">
+      <c r="FP21" s="3" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="FP21" t="n">
-        <v>1496.08</v>
-      </c>
-      <c r="FQ21" t="b">
+      <c r="FQ21" t="n">
+        <v>1496.94</v>
+      </c>
+      <c r="FR21" t="b">
         <v>1</v>
       </c>
-      <c r="FR21" t="n">
+      <c r="FS21" t="n">
         <v>2</v>
       </c>
-      <c r="FS21" t="n">
-        <v>0</v>
-      </c>
       <c r="FT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU21" t="n">
         <v>15</v>
       </c>
-      <c r="FU21" t="n">
+      <c r="FV21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -11885,61 +11950,64 @@
       <c r="FB22" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC22" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD22" t="inlineStr"/>
+      <c r="FC22" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD22" t="b">
+        <v>0</v>
+      </c>
       <c r="FE22" t="inlineStr"/>
-      <c r="FF22" s="2" t="n">
+      <c r="FF22" t="inlineStr"/>
+      <c r="FG22" s="2" t="n">
         <v>45393.94643518519</v>
       </c>
-      <c r="FG22" s="2" t="n">
+      <c r="FH22" s="2" t="n">
         <v>45393.4375</v>
       </c>
-      <c r="FH22" t="n">
+      <c r="FI22" t="n">
         <v>2338.68</v>
       </c>
-      <c r="FI22" s="2" t="n">
+      <c r="FJ22" s="2" t="n">
         <v>45393.66666666666</v>
       </c>
-      <c r="FJ22" t="n">
+      <c r="FK22" t="n">
         <v>2341.23</v>
       </c>
-      <c r="FK22" t="inlineStr">
+      <c r="FL22" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL22" t="n">
+      <c r="FM22" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM22" t="n">
-        <v>-45.1</v>
-      </c>
-      <c r="FN22" t="inlineStr">
+      <c r="FN22" t="n">
+        <v>-45.14</v>
+      </c>
+      <c r="FO22" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO22" s="3" t="n">
+      <c r="FP22" s="3" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="FP22" t="n">
-        <v>1450.98</v>
-      </c>
-      <c r="FQ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR22" t="n">
+      <c r="FQ22" t="n">
+        <v>1451.8</v>
+      </c>
+      <c r="FR22" t="b">
         <v>0</v>
       </c>
       <c r="FS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT22" t="n">
         <v>1</v>
       </c>
-      <c r="FT22" t="n">
+      <c r="FU22" t="n">
         <v>15</v>
       </c>
-      <c r="FU22" t="n">
+      <c r="FV22" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12402,63 +12470,66 @@
       <c r="FB23" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC23" t="b">
+      <c r="FC23" s="2" t="n">
+        <v>45393.98958333334</v>
+      </c>
+      <c r="FD23" t="b">
         <v>1</v>
       </c>
-      <c r="FD23" s="2" t="n">
+      <c r="FE23" s="2" t="n">
         <v>45394.17708333334</v>
       </c>
-      <c r="FE23" t="inlineStr"/>
-      <c r="FF23" s="2" t="n">
+      <c r="FF23" t="inlineStr"/>
+      <c r="FG23" s="2" t="n">
         <v>45394.04185185185</v>
       </c>
-      <c r="FG23" s="2" t="n">
+      <c r="FH23" s="2" t="n">
         <v>45393.66666666666</v>
       </c>
-      <c r="FH23" t="n">
+      <c r="FI23" t="n">
         <v>2341.26</v>
       </c>
-      <c r="FI23" s="2" t="n">
+      <c r="FJ23" s="2" t="n">
         <v>45394.04185185185</v>
       </c>
-      <c r="FJ23" t="n">
+      <c r="FK23" t="n">
         <v>2371.27</v>
       </c>
-      <c r="FK23" t="inlineStr">
+      <c r="FL23" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL23" t="n">
+      <c r="FM23" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM23" t="n">
-        <v>530.61</v>
-      </c>
-      <c r="FN23" t="inlineStr">
+      <c r="FN23" t="n">
+        <v>531.13</v>
+      </c>
+      <c r="FO23" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="FO23" s="3" t="n">
+      <c r="FP23" s="3" t="n">
         <v>0.3751851851851852</v>
       </c>
-      <c r="FP23" t="n">
-        <v>1981.59</v>
-      </c>
-      <c r="FQ23" t="b">
+      <c r="FQ23" t="n">
+        <v>1982.93</v>
+      </c>
+      <c r="FR23" t="b">
         <v>1</v>
       </c>
-      <c r="FR23" t="n">
+      <c r="FS23" t="n">
         <v>1</v>
       </c>
-      <c r="FS23" t="n">
-        <v>0</v>
-      </c>
       <c r="FT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU23" t="n">
         <v>15</v>
       </c>
-      <c r="FU23" t="n">
+      <c r="FV23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -12917,61 +12988,64 @@
       <c r="FB24" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC24" t="b">
+      <c r="FC24" s="2" t="n">
+        <v>45397.71875</v>
+      </c>
+      <c r="FD24" t="b">
         <v>1</v>
       </c>
-      <c r="FD24" t="inlineStr"/>
       <c r="FE24" t="inlineStr"/>
-      <c r="FF24" s="2" t="n">
+      <c r="FF24" t="inlineStr"/>
+      <c r="FG24" s="2" t="n">
         <v>45397.7304050926</v>
       </c>
-      <c r="FG24" s="2" t="n">
+      <c r="FH24" s="2" t="n">
         <v>45394.83333333334</v>
       </c>
-      <c r="FH24" t="n">
+      <c r="FI24" t="n">
         <v>2369.2</v>
       </c>
-      <c r="FI24" s="2" t="n">
+      <c r="FJ24" s="2" t="n">
         <v>45397.16666666666</v>
       </c>
-      <c r="FJ24" t="n">
+      <c r="FK24" t="n">
         <v>2353.2</v>
       </c>
-      <c r="FK24" t="inlineStr">
+      <c r="FL24" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL24" t="n">
+      <c r="FM24" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM24" t="n">
-        <v>282.9</v>
-      </c>
-      <c r="FN24" t="inlineStr">
+      <c r="FN24" t="n">
+        <v>283.17</v>
+      </c>
+      <c r="FO24" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO24" s="3" t="n">
+      <c r="FP24" s="3" t="n">
         <v>2.333333333333333</v>
       </c>
-      <c r="FP24" t="n">
-        <v>2264.49</v>
-      </c>
-      <c r="FQ24" t="b">
+      <c r="FQ24" t="n">
+        <v>2266.1</v>
+      </c>
+      <c r="FR24" t="b">
         <v>1</v>
       </c>
-      <c r="FR24" t="n">
+      <c r="FS24" t="n">
         <v>2</v>
       </c>
-      <c r="FS24" t="n">
-        <v>0</v>
-      </c>
       <c r="FT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU24" t="n">
         <v>15</v>
       </c>
-      <c r="FU24" t="n">
+      <c r="FV24" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13432,63 +13506,66 @@
       <c r="FB25" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC25" t="b">
+      <c r="FC25" s="2" t="n">
+        <v>45398.27083333334</v>
+      </c>
+      <c r="FD25" t="b">
         <v>1</v>
       </c>
-      <c r="FD25" s="2" t="n">
+      <c r="FE25" s="2" t="n">
         <v>45401.19791666666</v>
       </c>
-      <c r="FE25" t="inlineStr"/>
-      <c r="FF25" s="2" t="n">
+      <c r="FF25" t="inlineStr"/>
+      <c r="FG25" s="2" t="n">
         <v>45398.39407407407</v>
       </c>
-      <c r="FG25" s="2" t="n">
+      <c r="FH25" s="2" t="n">
         <v>45397.16666666666</v>
       </c>
-      <c r="FH25" t="n">
+      <c r="FI25" t="n">
         <v>2353.16</v>
       </c>
-      <c r="FI25" s="2" t="n">
+      <c r="FJ25" s="2" t="n">
         <v>45397.29166666666</v>
       </c>
-      <c r="FJ25" t="n">
+      <c r="FK25" t="n">
         <v>2358.36</v>
       </c>
-      <c r="FK25" t="inlineStr">
+      <c r="FL25" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL25" t="n">
+      <c r="FM25" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM25" t="n">
-        <v>91.94</v>
-      </c>
-      <c r="FN25" t="inlineStr">
+      <c r="FN25" t="n">
+        <v>92.03</v>
+      </c>
+      <c r="FO25" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO25" s="3" t="n">
+      <c r="FP25" s="3" t="n">
         <v>0.125</v>
       </c>
-      <c r="FP25" t="n">
-        <v>2356.43</v>
-      </c>
-      <c r="FQ25" t="b">
+      <c r="FQ25" t="n">
+        <v>2358.13</v>
+      </c>
+      <c r="FR25" t="b">
         <v>1</v>
       </c>
-      <c r="FR25" t="n">
+      <c r="FS25" t="n">
         <v>3</v>
       </c>
-      <c r="FS25" t="n">
-        <v>0</v>
-      </c>
       <c r="FT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU25" t="n">
         <v>16</v>
       </c>
-      <c r="FU25" t="n">
+      <c r="FV25" t="n">
         <v>4</v>
       </c>
     </row>
@@ -13949,63 +14026,66 @@
       <c r="FB26" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC26" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD26" s="2" t="n">
+      <c r="FC26" s="2" t="n">
         <v>45405.19791666666</v>
       </c>
-      <c r="FE26" t="inlineStr"/>
-      <c r="FF26" s="2" t="n">
+      <c r="FD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE26" s="2" t="n">
+        <v>45405.19791666666</v>
+      </c>
+      <c r="FF26" t="inlineStr"/>
+      <c r="FG26" s="2" t="n">
         <v>45398.05247685185</v>
       </c>
-      <c r="FG26" s="2" t="n">
+      <c r="FH26" s="2" t="n">
         <v>45397.29166666666</v>
       </c>
-      <c r="FH26" t="n">
+      <c r="FI26" t="n">
         <v>2358.44</v>
       </c>
-      <c r="FI26" s="2" t="n">
+      <c r="FJ26" s="2" t="n">
         <v>45397.40625</v>
       </c>
-      <c r="FJ26" t="n">
+      <c r="FK26" t="n">
         <v>2357.95</v>
       </c>
-      <c r="FK26" t="inlineStr">
+      <c r="FL26" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL26" t="n">
+      <c r="FM26" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM26" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="FN26" t="inlineStr">
+      <c r="FN26" t="n">
+        <v>8.67</v>
+      </c>
+      <c r="FO26" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO26" s="3" t="n">
+      <c r="FP26" s="3" t="n">
         <v>0.1145833333333333</v>
       </c>
-      <c r="FP26" t="n">
-        <v>2365.09</v>
-      </c>
-      <c r="FQ26" t="b">
+      <c r="FQ26" t="n">
+        <v>2366.8</v>
+      </c>
+      <c r="FR26" t="b">
         <v>1</v>
       </c>
-      <c r="FR26" t="n">
+      <c r="FS26" t="n">
         <v>4</v>
       </c>
-      <c r="FS26" t="n">
-        <v>0</v>
-      </c>
       <c r="FT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU26" t="n">
         <v>16</v>
       </c>
-      <c r="FU26" t="n">
+      <c r="FV26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14466,63 +14546,66 @@
       <c r="FB27" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC27" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD27" s="2" t="n">
+      <c r="FC27" s="2" t="n">
         <v>45398.83333333334</v>
       </c>
-      <c r="FE27" t="inlineStr"/>
-      <c r="FF27" s="2" t="n">
+      <c r="FD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE27" s="2" t="n">
+        <v>45398.83333333334</v>
+      </c>
+      <c r="FF27" t="inlineStr"/>
+      <c r="FG27" s="2" t="n">
         <v>45397.71427083333</v>
       </c>
-      <c r="FG27" s="2" t="n">
+      <c r="FH27" s="2" t="n">
         <v>45397.40625</v>
       </c>
-      <c r="FH27" t="n">
+      <c r="FI27" t="n">
         <v>2357.98</v>
       </c>
-      <c r="FI27" s="2" t="n">
+      <c r="FJ27" s="2" t="n">
         <v>45397.41666666666</v>
       </c>
-      <c r="FJ27" t="n">
+      <c r="FK27" t="n">
         <v>2354.75</v>
       </c>
-      <c r="FK27" t="inlineStr">
+      <c r="FL27" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL27" t="n">
+      <c r="FM27" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM27" t="n">
-        <v>-57.13</v>
-      </c>
-      <c r="FN27" t="inlineStr">
+      <c r="FN27" t="n">
+        <v>-57.18</v>
+      </c>
+      <c r="FO27" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO27" s="3" t="n">
+      <c r="FP27" s="3" t="n">
         <v>0.01041666666666667</v>
       </c>
-      <c r="FP27" t="n">
-        <v>2307.96</v>
-      </c>
-      <c r="FQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR27" t="n">
+      <c r="FQ27" t="n">
+        <v>2309.62</v>
+      </c>
+      <c r="FR27" t="b">
         <v>0</v>
       </c>
       <c r="FS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT27" t="n">
         <v>1</v>
       </c>
-      <c r="FT27" t="n">
+      <c r="FU27" t="n">
         <v>16</v>
       </c>
-      <c r="FU27" t="n">
+      <c r="FV27" t="n">
         <v>4</v>
       </c>
     </row>
@@ -14983,63 +15066,66 @@
       <c r="FB28" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC28" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD28" s="2" t="n">
+      <c r="FC28" s="2" t="n">
         <v>45405.19791666666</v>
       </c>
-      <c r="FE28" t="inlineStr"/>
-      <c r="FF28" s="2" t="n">
+      <c r="FD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE28" s="2" t="n">
+        <v>45405.19791666666</v>
+      </c>
+      <c r="FF28" t="inlineStr"/>
+      <c r="FG28" s="2" t="n">
         <v>45397.9333449074</v>
       </c>
-      <c r="FG28" s="2" t="n">
+      <c r="FH28" s="2" t="n">
         <v>45397.41666666666</v>
       </c>
-      <c r="FH28" t="n">
+      <c r="FI28" t="n">
         <v>2354.75</v>
       </c>
-      <c r="FI28" s="2" t="n">
+      <c r="FJ28" s="2" t="n">
         <v>45397.65625</v>
       </c>
-      <c r="FJ28" t="n">
+      <c r="FK28" t="n">
         <v>2356.79</v>
       </c>
-      <c r="FK28" t="inlineStr">
+      <c r="FL28" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL28" t="n">
+      <c r="FM28" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM28" t="n">
-        <v>-36.08</v>
-      </c>
-      <c r="FN28" t="inlineStr">
+      <c r="FN28" t="n">
+        <v>-36.11</v>
+      </c>
+      <c r="FO28" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO28" s="3" t="n">
+      <c r="FP28" s="3" t="n">
         <v>0.2395833333333333</v>
       </c>
-      <c r="FP28" t="n">
-        <v>2271.88</v>
-      </c>
-      <c r="FQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR28" t="n">
+      <c r="FQ28" t="n">
+        <v>2273.51</v>
+      </c>
+      <c r="FR28" t="b">
         <v>0</v>
       </c>
       <c r="FS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT28" t="n">
         <v>2</v>
       </c>
-      <c r="FT28" t="n">
+      <c r="FU28" t="n">
         <v>16</v>
       </c>
-      <c r="FU28" t="n">
+      <c r="FV28" t="n">
         <v>4</v>
       </c>
     </row>
@@ -15502,63 +15588,66 @@
       <c r="FB29" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC29" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD29" s="2" t="n">
+      <c r="FC29" s="2" t="n">
         <v>45398.82291666666</v>
       </c>
-      <c r="FE29" t="inlineStr"/>
-      <c r="FF29" s="2" t="n">
+      <c r="FD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE29" s="2" t="n">
+        <v>45398.82291666666</v>
+      </c>
+      <c r="FF29" t="inlineStr"/>
+      <c r="FG29" s="2" t="n">
         <v>45397.71427083333</v>
       </c>
-      <c r="FG29" s="2" t="n">
+      <c r="FH29" s="2" t="n">
         <v>45397.65625</v>
       </c>
-      <c r="FH29" t="n">
+      <c r="FI29" t="n">
         <v>2356.8</v>
       </c>
-      <c r="FI29" s="2" t="n">
+      <c r="FJ29" s="2" t="n">
         <v>45397.71427083333</v>
       </c>
-      <c r="FJ29" t="n">
+      <c r="FK29" t="n">
         <v>2328.06</v>
       </c>
-      <c r="FK29" t="inlineStr">
+      <c r="FL29" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL29" t="n">
+      <c r="FM29" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM29" t="n">
-        <v>-508.33</v>
-      </c>
-      <c r="FN29" t="inlineStr">
+      <c r="FN29" t="n">
+        <v>-508.78</v>
+      </c>
+      <c r="FO29" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO29" s="3" t="n">
+      <c r="FP29" s="3" t="n">
         <v>0.05802083333333333</v>
       </c>
-      <c r="FP29" t="n">
-        <v>1763.55</v>
-      </c>
-      <c r="FQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR29" t="n">
+      <c r="FQ29" t="n">
+        <v>1764.73</v>
+      </c>
+      <c r="FR29" t="b">
         <v>0</v>
       </c>
       <c r="FS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT29" t="n">
         <v>3</v>
       </c>
-      <c r="FT29" t="n">
+      <c r="FU29" t="n">
         <v>16</v>
       </c>
-      <c r="FU29" t="n">
+      <c r="FV29" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16021,63 +16110,66 @@
       <c r="FB30" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC30" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD30" s="2" t="n">
+      <c r="FC30" s="2" t="n">
         <v>45405.52083333334</v>
       </c>
-      <c r="FE30" t="inlineStr"/>
-      <c r="FF30" s="2" t="n">
+      <c r="FD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE30" s="2" t="n">
+        <v>45405.52083333334</v>
+      </c>
+      <c r="FF30" t="inlineStr"/>
+      <c r="FG30" s="2" t="n">
         <v>45397.85221064815</v>
       </c>
-      <c r="FG30" s="2" t="n">
+      <c r="FH30" s="2" t="n">
         <v>45397.71875</v>
       </c>
-      <c r="FH30" t="n">
+      <c r="FI30" t="n">
         <v>2332.13</v>
       </c>
-      <c r="FI30" s="2" t="n">
+      <c r="FJ30" s="2" t="n">
         <v>45397.85221064815</v>
       </c>
-      <c r="FJ30" t="n">
+      <c r="FK30" t="n">
         <v>2362.15</v>
       </c>
-      <c r="FK30" t="inlineStr">
+      <c r="FL30" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL30" t="n">
+      <c r="FM30" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM30" t="n">
-        <v>-530.97</v>
-      </c>
-      <c r="FN30" t="inlineStr">
+      <c r="FN30" t="n">
+        <v>-531.4400000000001</v>
+      </c>
+      <c r="FO30" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO30" s="3" t="n">
+      <c r="FP30" s="3" t="n">
         <v>0.1334606481481481</v>
       </c>
-      <c r="FP30" t="n">
-        <v>1232.58</v>
-      </c>
-      <c r="FQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR30" t="n">
+      <c r="FQ30" t="n">
+        <v>1233.29</v>
+      </c>
+      <c r="FR30" t="b">
         <v>0</v>
       </c>
       <c r="FS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT30" t="n">
         <v>4</v>
       </c>
-      <c r="FT30" t="n">
+      <c r="FU30" t="n">
         <v>16</v>
       </c>
-      <c r="FU30" t="n">
+      <c r="FV30" t="n">
         <v>4</v>
       </c>
     </row>
@@ -16540,61 +16632,64 @@
       <c r="FB31" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC31" t="b">
+      <c r="FC31" s="2" t="n">
+        <v>45401.19791666666</v>
+      </c>
+      <c r="FD31" t="b">
         <v>1</v>
       </c>
-      <c r="FD31" t="inlineStr"/>
       <c r="FE31" t="inlineStr"/>
-      <c r="FF31" s="2" t="n">
+      <c r="FF31" t="inlineStr"/>
+      <c r="FG31" s="2" t="n">
         <v>45401.22565972222</v>
       </c>
-      <c r="FG31" s="2" t="n">
+      <c r="FH31" s="2" t="n">
         <v>45397.86458333334</v>
       </c>
-      <c r="FH31" t="n">
+      <c r="FI31" t="n">
         <v>2366.05</v>
       </c>
-      <c r="FI31" s="2" t="n">
+      <c r="FJ31" s="2" t="n">
         <v>45398.42708333334</v>
       </c>
-      <c r="FJ31" t="n">
+      <c r="FK31" t="n">
         <v>2372.23</v>
       </c>
-      <c r="FK31" t="inlineStr">
+      <c r="FL31" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL31" t="n">
+      <c r="FM31" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM31" t="n">
-        <v>109.28</v>
-      </c>
-      <c r="FN31" t="inlineStr">
+      <c r="FN31" t="n">
+        <v>109.38</v>
+      </c>
+      <c r="FO31" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO31" s="3" t="n">
+      <c r="FP31" s="3" t="n">
         <v>0.5625</v>
       </c>
-      <c r="FP31" t="n">
-        <v>1341.86</v>
-      </c>
-      <c r="FQ31" t="b">
+      <c r="FQ31" t="n">
+        <v>1342.67</v>
+      </c>
+      <c r="FR31" t="b">
         <v>1</v>
       </c>
-      <c r="FR31" t="n">
+      <c r="FS31" t="n">
         <v>1</v>
       </c>
-      <c r="FS31" t="n">
-        <v>0</v>
-      </c>
       <c r="FT31" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU31" t="n">
         <v>16</v>
       </c>
-      <c r="FU31" t="n">
+      <c r="FV31" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17057,63 +17152,66 @@
       <c r="FB32" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC32" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD32" s="2" t="n">
+      <c r="FC32" s="2" t="n">
         <v>45404.66666666666</v>
       </c>
-      <c r="FE32" t="inlineStr"/>
-      <c r="FF32" s="2" t="n">
+      <c r="FD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE32" s="2" t="n">
+        <v>45404.66666666666</v>
+      </c>
+      <c r="FF32" t="inlineStr"/>
+      <c r="FG32" s="2" t="n">
         <v>45401.18876157407</v>
       </c>
-      <c r="FG32" s="2" t="n">
+      <c r="FH32" s="2" t="n">
         <v>45398.42708333334</v>
       </c>
-      <c r="FH32" t="n">
+      <c r="FI32" t="n">
         <v>2372.22</v>
       </c>
-      <c r="FI32" s="2" t="n">
+      <c r="FJ32" s="2" t="n">
         <v>45398.6875</v>
       </c>
-      <c r="FJ32" t="n">
+      <c r="FK32" t="n">
         <v>2378.45</v>
       </c>
-      <c r="FK32" t="inlineStr">
+      <c r="FL32" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL32" t="n">
+      <c r="FM32" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM32" t="n">
-        <v>-110.19</v>
-      </c>
-      <c r="FN32" t="inlineStr">
+      <c r="FN32" t="n">
+        <v>-110.29</v>
+      </c>
+      <c r="FO32" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO32" s="3" t="n">
+      <c r="FP32" s="3" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="FP32" t="n">
-        <v>1231.67</v>
-      </c>
-      <c r="FQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR32" t="n">
+      <c r="FQ32" t="n">
+        <v>1232.38</v>
+      </c>
+      <c r="FR32" t="b">
         <v>0</v>
       </c>
       <c r="FS32" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT32" t="n">
         <v>1</v>
       </c>
-      <c r="FT32" t="n">
+      <c r="FU32" t="n">
         <v>16</v>
       </c>
-      <c r="FU32" t="n">
+      <c r="FV32" t="n">
         <v>4</v>
       </c>
     </row>
@@ -17574,61 +17672,64 @@
       <c r="FB33" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC33" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD33" t="inlineStr"/>
+      <c r="FC33" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD33" t="b">
+        <v>0</v>
+      </c>
       <c r="FE33" t="inlineStr"/>
-      <c r="FF33" s="2" t="n">
+      <c r="FF33" t="inlineStr"/>
+      <c r="FG33" s="2" t="n">
         <v>45404.58909722222</v>
       </c>
-      <c r="FG33" s="2" t="n">
+      <c r="FH33" s="2" t="n">
         <v>45398.6875</v>
       </c>
-      <c r="FH33" t="n">
+      <c r="FI33" t="n">
         <v>2378.5</v>
       </c>
-      <c r="FI33" s="2" t="n">
+      <c r="FJ33" s="2" t="n">
         <v>45398.72916666666</v>
       </c>
-      <c r="FJ33" t="n">
+      <c r="FK33" t="n">
         <v>2366.56</v>
       </c>
-      <c r="FK33" t="inlineStr">
+      <c r="FL33" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL33" t="n">
+      <c r="FM33" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM33" t="n">
-        <v>-211.18</v>
-      </c>
-      <c r="FN33" t="inlineStr">
+      <c r="FN33" t="n">
+        <v>-211.37</v>
+      </c>
+      <c r="FO33" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO33" s="3" t="n">
+      <c r="FP33" s="3" t="n">
         <v>0.04166666666666666</v>
       </c>
-      <c r="FP33" t="n">
-        <v>1020.49</v>
-      </c>
-      <c r="FQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR33" t="n">
+      <c r="FQ33" t="n">
+        <v>1021.01</v>
+      </c>
+      <c r="FR33" t="b">
         <v>0</v>
       </c>
       <c r="FS33" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT33" t="n">
         <v>2</v>
       </c>
-      <c r="FT33" t="n">
+      <c r="FU33" t="n">
         <v>16</v>
       </c>
-      <c r="FU33" t="n">
+      <c r="FV33" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18089,63 +18190,66 @@
       <c r="FB34" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC34" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD34" s="2" t="n">
+      <c r="FC34" s="2" t="n">
         <v>45404.8125</v>
       </c>
-      <c r="FE34" t="inlineStr"/>
-      <c r="FF34" s="2" t="n">
+      <c r="FD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE34" s="2" t="n">
+        <v>45404.8125</v>
+      </c>
+      <c r="FF34" t="inlineStr"/>
+      <c r="FG34" s="2" t="n">
         <v>45398.82427083333</v>
       </c>
-      <c r="FG34" s="2" t="n">
+      <c r="FH34" s="2" t="n">
         <v>45398.72916666666</v>
       </c>
-      <c r="FH34" t="n">
+      <c r="FI34" t="n">
         <v>2366.56</v>
       </c>
-      <c r="FI34" s="2" t="n">
+      <c r="FJ34" s="2" t="n">
         <v>45398.75</v>
       </c>
-      <c r="FJ34" t="n">
+      <c r="FK34" t="n">
         <v>2382.89</v>
       </c>
-      <c r="FK34" t="inlineStr">
+      <c r="FL34" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL34" t="n">
+      <c r="FM34" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM34" t="n">
-        <v>-288.83</v>
-      </c>
-      <c r="FN34" t="inlineStr">
+      <c r="FN34" t="n">
+        <v>-289.09</v>
+      </c>
+      <c r="FO34" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO34" s="3" t="n">
+      <c r="FP34" s="3" t="n">
         <v>0.02083333333333333</v>
       </c>
-      <c r="FP34" t="n">
-        <v>731.6600000000001</v>
-      </c>
-      <c r="FQ34" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR34" t="n">
+      <c r="FQ34" t="n">
+        <v>731.9200000000001</v>
+      </c>
+      <c r="FR34" t="b">
         <v>0</v>
       </c>
       <c r="FS34" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT34" t="n">
         <v>3</v>
       </c>
-      <c r="FT34" t="n">
+      <c r="FU34" t="n">
         <v>16</v>
       </c>
-      <c r="FU34" t="n">
+      <c r="FV34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -18606,61 +18710,64 @@
       <c r="FB35" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC35" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD35" t="inlineStr"/>
+      <c r="FC35" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD35" t="b">
+        <v>0</v>
+      </c>
       <c r="FE35" t="inlineStr"/>
-      <c r="FF35" s="2" t="n">
+      <c r="FF35" t="inlineStr"/>
+      <c r="FG35" s="2" t="n">
         <v>45404.40778935186</v>
       </c>
-      <c r="FG35" s="2" t="n">
+      <c r="FH35" s="2" t="n">
         <v>45398.75</v>
       </c>
-      <c r="FH35" t="n">
+      <c r="FI35" t="n">
         <v>2382.75</v>
       </c>
-      <c r="FI35" s="2" t="n">
+      <c r="FJ35" s="2" t="n">
         <v>45399.09375</v>
       </c>
-      <c r="FJ35" t="n">
+      <c r="FK35" t="n">
         <v>2384.71</v>
       </c>
-      <c r="FK35" t="inlineStr">
+      <c r="FL35" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL35" t="n">
+      <c r="FM35" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM35" t="n">
-        <v>34.66</v>
-      </c>
-      <c r="FN35" t="inlineStr">
+      <c r="FN35" t="n">
+        <v>34.69</v>
+      </c>
+      <c r="FO35" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO35" s="3" t="n">
+      <c r="FP35" s="3" t="n">
         <v>0.34375</v>
       </c>
-      <c r="FP35" t="n">
-        <v>766.3200000000001</v>
-      </c>
-      <c r="FQ35" t="b">
+      <c r="FQ35" t="n">
+        <v>766.6100000000001</v>
+      </c>
+      <c r="FR35" t="b">
         <v>1</v>
       </c>
-      <c r="FR35" t="n">
+      <c r="FS35" t="n">
         <v>1</v>
       </c>
-      <c r="FS35" t="n">
-        <v>0</v>
-      </c>
       <c r="FT35" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU35" t="n">
         <v>16</v>
       </c>
-      <c r="FU35" t="n">
+      <c r="FV35" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19123,63 +19230,66 @@
       <c r="FB36" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC36" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD36" s="2" t="n">
+      <c r="FC36" s="2" t="n">
         <v>45404.59375</v>
       </c>
-      <c r="FE36" t="inlineStr"/>
-      <c r="FF36" s="2" t="n">
+      <c r="FD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE36" s="2" t="n">
+        <v>45404.59375</v>
+      </c>
+      <c r="FF36" t="inlineStr"/>
+      <c r="FG36" s="2" t="n">
         <v>45401.19703703704</v>
       </c>
-      <c r="FG36" s="2" t="n">
+      <c r="FH36" s="2" t="n">
         <v>45399.09375</v>
       </c>
-      <c r="FH36" t="n">
+      <c r="FI36" t="n">
         <v>2384.72</v>
       </c>
-      <c r="FI36" s="2" t="n">
+      <c r="FJ36" s="2" t="n">
         <v>45399.5</v>
       </c>
-      <c r="FJ36" t="n">
+      <c r="FK36" t="n">
         <v>2392.88</v>
       </c>
-      <c r="FK36" t="inlineStr">
+      <c r="FL36" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL36" t="n">
+      <c r="FM36" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM36" t="n">
-        <v>-144.33</v>
-      </c>
-      <c r="FN36" t="inlineStr">
+      <c r="FN36" t="n">
+        <v>-144.46</v>
+      </c>
+      <c r="FO36" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO36" s="3" t="n">
+      <c r="FP36" s="3" t="n">
         <v>0.40625</v>
       </c>
-      <c r="FP36" t="n">
-        <v>621.99</v>
-      </c>
-      <c r="FQ36" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR36" t="n">
+      <c r="FQ36" t="n">
+        <v>622.1500000000001</v>
+      </c>
+      <c r="FR36" t="b">
         <v>0</v>
       </c>
       <c r="FS36" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT36" t="n">
         <v>1</v>
       </c>
-      <c r="FT36" t="n">
+      <c r="FU36" t="n">
         <v>16</v>
       </c>
-      <c r="FU36" t="n">
+      <c r="FV36" t="n">
         <v>4</v>
       </c>
     </row>
@@ -19642,61 +19752,64 @@
       <c r="FB37" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC37" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD37" t="inlineStr"/>
+      <c r="FC37" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD37" t="b">
+        <v>0</v>
+      </c>
       <c r="FE37" t="inlineStr"/>
-      <c r="FF37" s="2" t="n">
+      <c r="FF37" t="inlineStr"/>
+      <c r="FG37" s="2" t="n">
         <v>45399.8231712963</v>
       </c>
-      <c r="FG37" s="2" t="n">
+      <c r="FH37" s="2" t="n">
         <v>45399.5</v>
       </c>
-      <c r="FH37" t="n">
+      <c r="FI37" t="n">
         <v>2392.89</v>
       </c>
-      <c r="FI37" s="2" t="n">
+      <c r="FJ37" s="2" t="n">
         <v>45399.8125</v>
       </c>
-      <c r="FJ37" t="n">
+      <c r="FK37" t="n">
         <v>2380.01</v>
       </c>
-      <c r="FK37" t="inlineStr">
+      <c r="FL37" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL37" t="n">
+      <c r="FM37" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM37" t="n">
-        <v>-227.81</v>
-      </c>
-      <c r="FN37" t="inlineStr">
+      <c r="FN37" t="n">
+        <v>-228.01</v>
+      </c>
+      <c r="FO37" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO37" s="3" t="n">
+      <c r="FP37" s="3" t="n">
         <v>0.3125</v>
       </c>
-      <c r="FP37" t="n">
-        <v>394.18</v>
-      </c>
-      <c r="FQ37" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR37" t="n">
+      <c r="FQ37" t="n">
+        <v>394.1400000000001</v>
+      </c>
+      <c r="FR37" t="b">
         <v>0</v>
       </c>
       <c r="FS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT37" t="n">
         <v>2</v>
       </c>
-      <c r="FT37" t="n">
+      <c r="FU37" t="n">
         <v>16</v>
       </c>
-      <c r="FU37" t="n">
+      <c r="FV37" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20159,63 +20272,66 @@
       <c r="FB38" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC38" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD38" s="2" t="n">
+      <c r="FC38" s="2" t="n">
         <v>45404.60416666666</v>
       </c>
-      <c r="FE38" t="inlineStr"/>
-      <c r="FF38" s="2" t="n">
+      <c r="FD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE38" s="2" t="n">
+        <v>45404.60416666666</v>
+      </c>
+      <c r="FF38" t="inlineStr"/>
+      <c r="FG38" s="2" t="n">
         <v>45401.19642361111</v>
       </c>
-      <c r="FG38" s="2" t="n">
+      <c r="FH38" s="2" t="n">
         <v>45399.8125</v>
       </c>
-      <c r="FH38" t="n">
+      <c r="FI38" t="n">
         <v>2379.92</v>
       </c>
-      <c r="FI38" s="2" t="n">
+      <c r="FJ38" s="2" t="n">
         <v>45400.27083333334</v>
       </c>
-      <c r="FJ38" t="n">
+      <c r="FK38" t="n">
         <v>2374.54</v>
       </c>
-      <c r="FK38" t="inlineStr">
+      <c r="FL38" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL38" t="n">
+      <c r="FM38" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM38" t="n">
-        <v>95.13</v>
-      </c>
-      <c r="FN38" t="inlineStr">
+      <c r="FN38" t="n">
+        <v>95.22</v>
+      </c>
+      <c r="FO38" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO38" s="3" t="n">
+      <c r="FP38" s="3" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="FP38" t="n">
-        <v>489.31</v>
-      </c>
-      <c r="FQ38" t="b">
+      <c r="FQ38" t="n">
+        <v>489.3600000000001</v>
+      </c>
+      <c r="FR38" t="b">
         <v>1</v>
       </c>
-      <c r="FR38" t="n">
+      <c r="FS38" t="n">
         <v>1</v>
       </c>
-      <c r="FS38" t="n">
-        <v>0</v>
-      </c>
       <c r="FT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU38" t="n">
         <v>16</v>
       </c>
-      <c r="FU38" t="n">
+      <c r="FV38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20676,61 +20792,64 @@
       <c r="FB39" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC39" t="b">
+      <c r="FC39" s="2" t="n">
+        <v>45401.19791666666</v>
+      </c>
+      <c r="FD39" t="b">
         <v>1</v>
       </c>
-      <c r="FD39" t="inlineStr"/>
       <c r="FE39" t="inlineStr"/>
-      <c r="FF39" s="2" t="n">
+      <c r="FF39" t="inlineStr"/>
+      <c r="FG39" s="2" t="n">
         <v>45401.20393518519</v>
       </c>
-      <c r="FG39" s="2" t="n">
+      <c r="FH39" s="2" t="n">
         <v>45400.27083333334</v>
       </c>
-      <c r="FH39" t="n">
+      <c r="FI39" t="n">
         <v>2374.44</v>
       </c>
-      <c r="FI39" s="2" t="n">
+      <c r="FJ39" s="2" t="n">
         <v>45400.98958333334</v>
       </c>
-      <c r="FJ39" t="n">
+      <c r="FK39" t="n">
         <v>2377.74</v>
       </c>
-      <c r="FK39" t="inlineStr">
+      <c r="FL39" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL39" t="n">
+      <c r="FM39" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM39" t="n">
-        <v>58.35</v>
-      </c>
-      <c r="FN39" t="inlineStr">
+      <c r="FN39" t="n">
+        <v>58.41</v>
+      </c>
+      <c r="FO39" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO39" s="3" t="n">
+      <c r="FP39" s="3" t="n">
         <v>0.71875</v>
       </c>
-      <c r="FP39" t="n">
-        <v>547.66</v>
-      </c>
-      <c r="FQ39" t="b">
+      <c r="FQ39" t="n">
+        <v>547.7700000000001</v>
+      </c>
+      <c r="FR39" t="b">
         <v>1</v>
       </c>
-      <c r="FR39" t="n">
+      <c r="FS39" t="n">
         <v>2</v>
       </c>
-      <c r="FS39" t="n">
-        <v>0</v>
-      </c>
       <c r="FT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU39" t="n">
         <v>16</v>
       </c>
-      <c r="FU39" t="n">
+      <c r="FV39" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21189,63 +21308,66 @@
       <c r="FB40" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC40" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD40" s="2" t="n">
+      <c r="FC40" s="2" t="n">
         <v>45404.60416666666</v>
       </c>
-      <c r="FE40" t="inlineStr"/>
-      <c r="FF40" s="2" t="n">
+      <c r="FD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE40" s="2" t="n">
+        <v>45404.60416666666</v>
+      </c>
+      <c r="FF40" t="inlineStr"/>
+      <c r="FG40" s="2" t="n">
         <v>45401.19043981482</v>
       </c>
-      <c r="FG40" s="2" t="n">
+      <c r="FH40" s="2" t="n">
         <v>45400.98958333334</v>
       </c>
-      <c r="FH40" t="n">
+      <c r="FI40" t="n">
         <v>2377.73</v>
       </c>
-      <c r="FI40" s="2" t="n">
+      <c r="FJ40" s="2" t="n">
         <v>45401.1875</v>
       </c>
-      <c r="FJ40" t="n">
+      <c r="FK40" t="n">
         <v>2395.65</v>
       </c>
-      <c r="FK40" t="inlineStr">
+      <c r="FL40" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL40" t="n">
+      <c r="FM40" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM40" t="n">
-        <v>-316.95</v>
-      </c>
-      <c r="FN40" t="inlineStr">
+      <c r="FN40" t="n">
+        <v>-317.24</v>
+      </c>
+      <c r="FO40" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO40" s="3" t="n">
+      <c r="FP40" s="3" t="n">
         <v>0.1979166666666667</v>
       </c>
-      <c r="FP40" t="n">
-        <v>230.71</v>
-      </c>
-      <c r="FQ40" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR40" t="n">
+      <c r="FQ40" t="n">
+        <v>230.5300000000001</v>
+      </c>
+      <c r="FR40" t="b">
         <v>0</v>
       </c>
       <c r="FS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT40" t="n">
         <v>1</v>
       </c>
-      <c r="FT40" t="n">
+      <c r="FU40" t="n">
         <v>16</v>
       </c>
-      <c r="FU40" t="n">
+      <c r="FV40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -21706,61 +21828,64 @@
       <c r="FB41" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC41" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD41" t="inlineStr"/>
+      <c r="FC41" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD41" t="b">
+        <v>0</v>
+      </c>
       <c r="FE41" t="inlineStr"/>
-      <c r="FF41" s="2" t="n">
+      <c r="FF41" t="inlineStr"/>
+      <c r="FG41" s="2" t="n">
         <v>45404.2612037037</v>
       </c>
-      <c r="FG41" s="2" t="n">
+      <c r="FH41" s="2" t="n">
         <v>45401.1875</v>
       </c>
-      <c r="FH41" t="n">
+      <c r="FI41" t="n">
         <v>2395.66</v>
       </c>
-      <c r="FI41" s="2" t="n">
+      <c r="FJ41" s="2" t="n">
         <v>45401.38541666666</v>
       </c>
-      <c r="FJ41" t="n">
+      <c r="FK41" t="n">
         <v>2383.44</v>
       </c>
-      <c r="FK41" t="inlineStr">
+      <c r="FL41" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL41" t="n">
+      <c r="FM41" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM41" t="n">
-        <v>-216.14</v>
-      </c>
-      <c r="FN41" t="inlineStr">
+      <c r="FN41" t="n">
+        <v>-216.33</v>
+      </c>
+      <c r="FO41" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO41" s="3" t="n">
+      <c r="FP41" s="3" t="n">
         <v>0.1979166666666667</v>
       </c>
-      <c r="FP41" t="n">
-        <v>14.56999999999999</v>
-      </c>
-      <c r="FQ41" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR41" t="n">
+      <c r="FQ41" t="n">
+        <v>14.20000000000007</v>
+      </c>
+      <c r="FR41" t="b">
         <v>0</v>
       </c>
       <c r="FS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT41" t="n">
         <v>2</v>
       </c>
-      <c r="FT41" t="n">
+      <c r="FU41" t="n">
         <v>16</v>
       </c>
-      <c r="FU41" t="n">
+      <c r="FV41" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22225,61 +22350,64 @@
       <c r="FB42" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC42" t="b">
+      <c r="FC42" s="2" t="n">
+        <v>45404.60416666666</v>
+      </c>
+      <c r="FD42" t="b">
         <v>1</v>
       </c>
-      <c r="FD42" t="inlineStr"/>
       <c r="FE42" t="inlineStr"/>
-      <c r="FF42" s="2" t="n">
+      <c r="FF42" t="inlineStr"/>
+      <c r="FG42" s="2" t="n">
         <v>45405.65143518519</v>
       </c>
-      <c r="FG42" s="2" t="n">
+      <c r="FH42" s="2" t="n">
         <v>45401.38541666666</v>
       </c>
-      <c r="FH42" t="n">
+      <c r="FI42" t="n">
         <v>2383.43</v>
       </c>
-      <c r="FI42" s="2" t="n">
+      <c r="FJ42" s="2" t="n">
         <v>45401.75</v>
       </c>
-      <c r="FJ42" t="n">
+      <c r="FK42" t="n">
         <v>2391.09</v>
       </c>
-      <c r="FK42" t="inlineStr">
+      <c r="FL42" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL42" t="n">
+      <c r="FM42" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM42" t="n">
-        <v>-135.48</v>
-      </c>
-      <c r="FN42" t="inlineStr">
+      <c r="FN42" t="n">
+        <v>-135.6</v>
+      </c>
+      <c r="FO42" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO42" s="3" t="n">
+      <c r="FP42" s="3" t="n">
         <v>0.3645833333333333</v>
       </c>
-      <c r="FP42" t="n">
-        <v>-120.91</v>
-      </c>
-      <c r="FQ42" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR42" t="n">
+      <c r="FQ42" t="n">
+        <v>-121.3999999999999</v>
+      </c>
+      <c r="FR42" t="b">
         <v>0</v>
       </c>
       <c r="FS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT42" t="n">
         <v>3</v>
       </c>
-      <c r="FT42" t="n">
+      <c r="FU42" t="n">
         <v>16</v>
       </c>
-      <c r="FU42" t="n">
+      <c r="FV42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -22742,61 +22870,64 @@
       <c r="FB43" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC43" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD43" t="inlineStr"/>
+      <c r="FC43" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD43" t="b">
+        <v>0</v>
+      </c>
       <c r="FE43" t="inlineStr"/>
-      <c r="FF43" s="2" t="n">
+      <c r="FF43" t="inlineStr"/>
+      <c r="FG43" s="2" t="n">
         <v>45404.36447916667</v>
       </c>
-      <c r="FG43" s="2" t="n">
+      <c r="FH43" s="2" t="n">
         <v>45401.75</v>
       </c>
-      <c r="FH43" t="n">
+      <c r="FI43" t="n">
         <v>2391.1</v>
       </c>
-      <c r="FI43" s="2" t="n">
+      <c r="FJ43" s="2" t="n">
         <v>45404.05208333334</v>
       </c>
-      <c r="FJ43" t="n">
+      <c r="FK43" t="n">
         <v>2382.72</v>
       </c>
-      <c r="FK43" t="inlineStr">
+      <c r="FL43" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL43" t="n">
+      <c r="FM43" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM43" t="n">
-        <v>-148.22</v>
-      </c>
-      <c r="FN43" t="inlineStr">
+      <c r="FN43" t="n">
+        <v>-148.35</v>
+      </c>
+      <c r="FO43" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO43" s="3" t="n">
+      <c r="FP43" s="3" t="n">
         <v>2.302083333333333</v>
       </c>
-      <c r="FP43" t="n">
-        <v>-269.13</v>
-      </c>
-      <c r="FQ43" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR43" t="n">
+      <c r="FQ43" t="n">
+        <v>-269.7499999999999</v>
+      </c>
+      <c r="FR43" t="b">
         <v>0</v>
       </c>
       <c r="FS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT43" t="n">
         <v>4</v>
       </c>
-      <c r="FT43" t="n">
+      <c r="FU43" t="n">
         <v>16</v>
       </c>
-      <c r="FU43" t="n">
+      <c r="FV43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23257,61 +23388,64 @@
       <c r="FB44" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC44" t="b">
+      <c r="FC44" s="2" t="n">
+        <v>45404.60416666666</v>
+      </c>
+      <c r="FD44" t="b">
         <v>1</v>
       </c>
-      <c r="FD44" t="inlineStr"/>
       <c r="FE44" t="inlineStr"/>
-      <c r="FF44" s="2" t="n">
+      <c r="FF44" t="inlineStr"/>
+      <c r="FG44" s="2" t="n">
         <v>45405.65136574074</v>
       </c>
-      <c r="FG44" s="2" t="n">
+      <c r="FH44" s="2" t="n">
         <v>45404.05208333334</v>
       </c>
-      <c r="FH44" t="n">
+      <c r="FI44" t="n">
         <v>2382.68</v>
       </c>
-      <c r="FI44" s="2" t="n">
+      <c r="FJ44" s="2" t="n">
         <v>45405.17708333334</v>
       </c>
-      <c r="FJ44" t="n">
+      <c r="FK44" t="n">
         <v>2333.9</v>
       </c>
-      <c r="FK44" t="inlineStr">
+      <c r="FL44" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL44" t="n">
+      <c r="FM44" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM44" t="n">
-        <v>862.6</v>
-      </c>
-      <c r="FN44" t="inlineStr">
+      <c r="FN44" t="n">
+        <v>863.33</v>
+      </c>
+      <c r="FO44" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO44" s="3" t="n">
+      <c r="FP44" s="3" t="n">
         <v>1.125</v>
       </c>
-      <c r="FP44" t="n">
-        <v>593.47</v>
-      </c>
-      <c r="FQ44" t="b">
+      <c r="FQ44" t="n">
+        <v>593.5800000000002</v>
+      </c>
+      <c r="FR44" t="b">
         <v>1</v>
       </c>
-      <c r="FR44" t="n">
+      <c r="FS44" t="n">
         <v>1</v>
       </c>
-      <c r="FS44" t="n">
-        <v>0</v>
-      </c>
       <c r="FT44" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU44" t="n">
         <v>17</v>
       </c>
-      <c r="FU44" t="n">
+      <c r="FV44" t="n">
         <v>4</v>
       </c>
     </row>
@@ -23774,61 +23908,64 @@
       <c r="FB45" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC45" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD45" t="inlineStr"/>
+      <c r="FC45" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD45" t="b">
+        <v>0</v>
+      </c>
       <c r="FE45" t="inlineStr"/>
-      <c r="FF45" s="2" t="n">
+      <c r="FF45" t="inlineStr"/>
+      <c r="FG45" s="2" t="n">
         <v>45405.20293981482</v>
       </c>
-      <c r="FG45" s="2" t="n">
+      <c r="FH45" s="2" t="n">
         <v>45405.17708333334</v>
       </c>
-      <c r="FH45" t="n">
+      <c r="FI45" t="n">
         <v>2333.86</v>
       </c>
-      <c r="FI45" s="2" t="n">
+      <c r="FJ45" s="2" t="n">
         <v>45405.19791666666</v>
       </c>
-      <c r="FJ45" t="n">
+      <c r="FK45" t="n">
         <v>2305.54</v>
       </c>
-      <c r="FK45" t="inlineStr">
+      <c r="FL45" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL45" t="n">
+      <c r="FM45" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM45" t="n">
-        <v>-500.89</v>
-      </c>
-      <c r="FN45" t="inlineStr">
+      <c r="FN45" t="n">
+        <v>-501.34</v>
+      </c>
+      <c r="FO45" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO45" s="3" t="n">
+      <c r="FP45" s="3" t="n">
         <v>0.02083333333333333</v>
       </c>
-      <c r="FP45" t="n">
-        <v>92.58000000000004</v>
-      </c>
-      <c r="FQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR45" t="n">
+      <c r="FQ45" t="n">
+        <v>92.24000000000018</v>
+      </c>
+      <c r="FR45" t="b">
         <v>0</v>
       </c>
       <c r="FS45" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT45" t="n">
         <v>1</v>
       </c>
-      <c r="FT45" t="n">
+      <c r="FU45" t="n">
         <v>17</v>
       </c>
-      <c r="FU45" t="n">
+      <c r="FV45" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24291,61 +24428,64 @@
       <c r="FB46" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC46" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD46" t="inlineStr"/>
+      <c r="FC46" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD46" t="b">
+        <v>0</v>
+      </c>
       <c r="FE46" t="inlineStr"/>
-      <c r="FF46" s="2" t="n">
+      <c r="FF46" t="inlineStr"/>
+      <c r="FG46" s="2" t="n">
         <v>45406.75273148148</v>
       </c>
-      <c r="FG46" s="2" t="n">
+      <c r="FH46" s="2" t="n">
         <v>45405.19791666666</v>
       </c>
-      <c r="FH46" t="n">
+      <c r="FI46" t="n">
         <v>2305.55</v>
       </c>
-      <c r="FI46" s="2" t="n">
+      <c r="FJ46" s="2" t="n">
         <v>45405.69791666666</v>
       </c>
-      <c r="FJ46" t="n">
+      <c r="FK46" t="n">
         <v>2317.34</v>
       </c>
-      <c r="FK46" t="inlineStr">
+      <c r="FL46" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL46" t="n">
+      <c r="FM46" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM46" t="n">
-        <v>-208.53</v>
-      </c>
-      <c r="FN46" t="inlineStr">
+      <c r="FN46" t="n">
+        <v>-208.71</v>
+      </c>
+      <c r="FO46" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO46" s="3" t="n">
+      <c r="FP46" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="FP46" t="n">
-        <v>-115.95</v>
-      </c>
-      <c r="FQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR46" t="n">
+      <c r="FQ46" t="n">
+        <v>-116.4699999999998</v>
+      </c>
+      <c r="FR46" t="b">
         <v>0</v>
       </c>
       <c r="FS46" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT46" t="n">
         <v>2</v>
       </c>
-      <c r="FT46" t="n">
+      <c r="FU46" t="n">
         <v>17</v>
       </c>
-      <c r="FU46" t="n">
+      <c r="FV46" t="n">
         <v>4</v>
       </c>
     </row>
@@ -24810,61 +24950,64 @@
       <c r="FB47" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC47" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD47" t="inlineStr"/>
+      <c r="FC47" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD47" t="b">
+        <v>0</v>
+      </c>
       <c r="FE47" t="inlineStr"/>
-      <c r="FF47" s="2" t="n">
+      <c r="FF47" t="inlineStr"/>
+      <c r="FG47" s="2" t="n">
         <v>45412.98133101852</v>
       </c>
-      <c r="FG47" s="2" t="n">
+      <c r="FH47" s="2" t="n">
         <v>45405.69791666666</v>
       </c>
-      <c r="FH47" t="n">
+      <c r="FI47" t="n">
         <v>2317.03</v>
       </c>
-      <c r="FI47" s="2" t="n">
+      <c r="FJ47" s="2" t="n">
         <v>45406.08333333334</v>
       </c>
-      <c r="FJ47" t="n">
+      <c r="FK47" t="n">
         <v>2321.7</v>
       </c>
-      <c r="FK47" t="inlineStr">
+      <c r="FL47" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL47" t="n">
+      <c r="FM47" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM47" t="n">
-        <v>82.58</v>
-      </c>
-      <c r="FN47" t="inlineStr">
+      <c r="FN47" t="n">
+        <v>82.65000000000001</v>
+      </c>
+      <c r="FO47" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO47" s="3" t="n">
+      <c r="FP47" s="3" t="n">
         <v>0.3854166666666667</v>
       </c>
-      <c r="FP47" t="n">
-        <v>-33.36999999999996</v>
-      </c>
-      <c r="FQ47" t="b">
+      <c r="FQ47" t="n">
+        <v>-33.81999999999982</v>
+      </c>
+      <c r="FR47" t="b">
         <v>1</v>
       </c>
-      <c r="FR47" t="n">
+      <c r="FS47" t="n">
         <v>1</v>
       </c>
-      <c r="FS47" t="n">
-        <v>0</v>
-      </c>
       <c r="FT47" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU47" t="n">
         <v>17</v>
       </c>
-      <c r="FU47" t="n">
+      <c r="FV47" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25327,63 +25470,66 @@
       <c r="FB48" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC48" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD48" s="2" t="n">
+      <c r="FC48" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="FE48" t="inlineStr"/>
-      <c r="FF48" s="2" t="n">
+      <c r="FD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE48" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="FF48" t="inlineStr"/>
+      <c r="FG48" s="2" t="n">
         <v>45408.50792824074</v>
       </c>
-      <c r="FG48" s="2" t="n">
+      <c r="FH48" s="2" t="n">
         <v>45406.08333333334</v>
       </c>
-      <c r="FH48" t="n">
+      <c r="FI48" t="n">
         <v>2321.66</v>
       </c>
-      <c r="FI48" s="2" t="n">
+      <c r="FJ48" s="2" t="n">
         <v>45406.29166666666</v>
       </c>
-      <c r="FJ48" t="n">
+      <c r="FK48" t="n">
         <v>2327.92</v>
       </c>
-      <c r="FK48" t="inlineStr">
+      <c r="FL48" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL48" t="n">
+      <c r="FM48" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM48" t="n">
-        <v>-110.72</v>
-      </c>
-      <c r="FN48" t="inlineStr">
+      <c r="FN48" t="n">
+        <v>-110.82</v>
+      </c>
+      <c r="FO48" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO48" s="3" t="n">
+      <c r="FP48" s="3" t="n">
         <v>0.2083333333333333</v>
       </c>
-      <c r="FP48" t="n">
-        <v>-144.09</v>
-      </c>
-      <c r="FQ48" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR48" t="n">
+      <c r="FQ48" t="n">
+        <v>-144.6399999999998</v>
+      </c>
+      <c r="FR48" t="b">
         <v>0</v>
       </c>
       <c r="FS48" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT48" t="n">
         <v>1</v>
       </c>
-      <c r="FT48" t="n">
+      <c r="FU48" t="n">
         <v>17</v>
       </c>
-      <c r="FU48" t="n">
+      <c r="FV48" t="n">
         <v>4</v>
       </c>
     </row>
@@ -25846,61 +25992,64 @@
       <c r="FB49" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC49" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD49" t="inlineStr"/>
+      <c r="FC49" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD49" t="b">
+        <v>0</v>
+      </c>
       <c r="FE49" t="inlineStr"/>
-      <c r="FF49" s="2" t="n">
+      <c r="FF49" t="inlineStr"/>
+      <c r="FG49" s="2" t="n">
         <v>45412.73307870371</v>
       </c>
-      <c r="FG49" s="2" t="n">
+      <c r="FH49" s="2" t="n">
         <v>45406.29166666666</v>
       </c>
-      <c r="FH49" t="n">
+      <c r="FI49" t="n">
         <v>2327.91</v>
       </c>
-      <c r="FI49" s="2" t="n">
+      <c r="FJ49" s="2" t="n">
         <v>45406.48958333334</v>
       </c>
-      <c r="FJ49" t="n">
+      <c r="FK49" t="n">
         <v>2316.68</v>
       </c>
-      <c r="FK49" t="inlineStr">
+      <c r="FL49" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL49" t="n">
+      <c r="FM49" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM49" t="n">
-        <v>-198.62</v>
-      </c>
-      <c r="FN49" t="inlineStr">
+      <c r="FN49" t="n">
+        <v>-198.8</v>
+      </c>
+      <c r="FO49" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO49" s="3" t="n">
+      <c r="FP49" s="3" t="n">
         <v>0.1979166666666667</v>
       </c>
-      <c r="FP49" t="n">
-        <v>-342.71</v>
-      </c>
-      <c r="FQ49" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR49" t="n">
+      <c r="FQ49" t="n">
+        <v>-343.4399999999998</v>
+      </c>
+      <c r="FR49" t="b">
         <v>0</v>
       </c>
       <c r="FS49" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT49" t="n">
         <v>2</v>
       </c>
-      <c r="FT49" t="n">
+      <c r="FU49" t="n">
         <v>17</v>
       </c>
-      <c r="FU49" t="n">
+      <c r="FV49" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26363,61 +26512,64 @@
       <c r="FB50" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC50" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD50" t="inlineStr"/>
+      <c r="FC50" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD50" t="b">
+        <v>0</v>
+      </c>
       <c r="FE50" t="inlineStr"/>
-      <c r="FF50" s="2" t="n">
+      <c r="FF50" t="inlineStr"/>
+      <c r="FG50" s="2" t="n">
         <v>45408.43121527778</v>
       </c>
-      <c r="FG50" s="2" t="n">
+      <c r="FH50" s="2" t="n">
         <v>45406.48958333334</v>
       </c>
-      <c r="FH50" t="n">
+      <c r="FI50" t="n">
         <v>2316.68</v>
       </c>
-      <c r="FI50" s="2" t="n">
+      <c r="FJ50" s="2" t="n">
         <v>45406.71875</v>
       </c>
-      <c r="FJ50" t="n">
+      <c r="FK50" t="n">
         <v>2317.72</v>
       </c>
-      <c r="FK50" t="inlineStr">
+      <c r="FL50" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL50" t="n">
+      <c r="FM50" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM50" t="n">
-        <v>-18.39</v>
-      </c>
-      <c r="FN50" t="inlineStr">
+      <c r="FN50" t="n">
+        <v>-18.41</v>
+      </c>
+      <c r="FO50" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO50" s="3" t="n">
+      <c r="FP50" s="3" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="FP50" t="n">
-        <v>-361.1</v>
-      </c>
-      <c r="FQ50" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR50" t="n">
+      <c r="FQ50" t="n">
+        <v>-361.8499999999999</v>
+      </c>
+      <c r="FR50" t="b">
         <v>0</v>
       </c>
       <c r="FS50" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT50" t="n">
         <v>3</v>
       </c>
-      <c r="FT50" t="n">
+      <c r="FU50" t="n">
         <v>17</v>
       </c>
-      <c r="FU50" t="n">
+      <c r="FV50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -26880,61 +27032,64 @@
       <c r="FB51" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC51" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD51" t="inlineStr"/>
+      <c r="FC51" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD51" t="b">
+        <v>0</v>
+      </c>
       <c r="FE51" t="inlineStr"/>
-      <c r="FF51" s="2" t="n">
+      <c r="FF51" t="inlineStr"/>
+      <c r="FG51" s="2" t="n">
         <v>45412.98133101852</v>
       </c>
-      <c r="FG51" s="2" t="n">
+      <c r="FH51" s="2" t="n">
         <v>45406.71875</v>
       </c>
-      <c r="FH51" t="n">
+      <c r="FI51" t="n">
         <v>2317.6</v>
       </c>
-      <c r="FI51" s="2" t="n">
+      <c r="FJ51" s="2" t="n">
         <v>45406.94791666666</v>
       </c>
-      <c r="FJ51" t="n">
+      <c r="FK51" t="n">
         <v>2319.38</v>
       </c>
-      <c r="FK51" t="inlineStr">
+      <c r="FL51" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL51" t="n">
+      <c r="FM51" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM51" t="n">
-        <v>31.47</v>
-      </c>
-      <c r="FN51" t="inlineStr">
+      <c r="FN51" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="FO51" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO51" s="3" t="n">
+      <c r="FP51" s="3" t="n">
         <v>0.2291666666666667</v>
       </c>
-      <c r="FP51" t="n">
-        <v>-329.63</v>
-      </c>
-      <c r="FQ51" t="b">
+      <c r="FQ51" t="n">
+        <v>-330.3499999999999</v>
+      </c>
+      <c r="FR51" t="b">
         <v>1</v>
       </c>
-      <c r="FR51" t="n">
+      <c r="FS51" t="n">
         <v>1</v>
       </c>
-      <c r="FS51" t="n">
-        <v>0</v>
-      </c>
       <c r="FT51" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU51" t="n">
         <v>17</v>
       </c>
-      <c r="FU51" t="n">
+      <c r="FV51" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27397,63 +27552,66 @@
       <c r="FB52" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC52" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD52" s="2" t="n">
+      <c r="FC52" s="2" t="n">
         <v>45413.29166666666</v>
       </c>
-      <c r="FE52" t="inlineStr"/>
-      <c r="FF52" s="2" t="n">
+      <c r="FD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE52" s="2" t="n">
+        <v>45413.29166666666</v>
+      </c>
+      <c r="FF52" t="inlineStr"/>
+      <c r="FG52" s="2" t="n">
         <v>45408.45979166667</v>
       </c>
-      <c r="FG52" s="2" t="n">
+      <c r="FH52" s="2" t="n">
         <v>45406.94791666666</v>
       </c>
-      <c r="FH52" t="n">
+      <c r="FI52" t="n">
         <v>2319.4</v>
       </c>
-      <c r="FI52" s="2" t="n">
+      <c r="FJ52" s="2" t="n">
         <v>45407.25</v>
       </c>
-      <c r="FJ52" t="n">
+      <c r="FK52" t="n">
         <v>2319.69</v>
       </c>
-      <c r="FK52" t="inlineStr">
+      <c r="FL52" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL52" t="n">
+      <c r="FM52" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM52" t="n">
+      <c r="FN52" t="n">
         <v>-5.13</v>
       </c>
-      <c r="FN52" t="inlineStr">
+      <c r="FO52" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO52" s="3" t="n">
+      <c r="FP52" s="3" t="n">
         <v>0.3020833333333333</v>
       </c>
-      <c r="FP52" t="n">
-        <v>-334.76</v>
-      </c>
-      <c r="FQ52" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR52" t="n">
+      <c r="FQ52" t="n">
+        <v>-335.4799999999998</v>
+      </c>
+      <c r="FR52" t="b">
         <v>0</v>
       </c>
       <c r="FS52" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT52" t="n">
         <v>1</v>
       </c>
-      <c r="FT52" t="n">
+      <c r="FU52" t="n">
         <v>17</v>
       </c>
-      <c r="FU52" t="n">
+      <c r="FV52" t="n">
         <v>4</v>
       </c>
     </row>
@@ -27914,61 +28072,64 @@
       <c r="FB53" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC53" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD53" t="inlineStr"/>
+      <c r="FC53" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD53" t="b">
+        <v>0</v>
+      </c>
       <c r="FE53" t="inlineStr"/>
-      <c r="FF53" s="2" t="n">
+      <c r="FF53" t="inlineStr"/>
+      <c r="FG53" s="2" t="n">
         <v>45412.91699074074</v>
       </c>
-      <c r="FG53" s="2" t="n">
+      <c r="FH53" s="2" t="n">
         <v>45407.25</v>
       </c>
-      <c r="FH53" t="n">
+      <c r="FI53" t="n">
         <v>2319.74</v>
       </c>
-      <c r="FI53" s="2" t="n">
+      <c r="FJ53" s="2" t="n">
         <v>45407.26041666666</v>
       </c>
-      <c r="FJ53" t="n">
+      <c r="FK53" t="n">
         <v>2306.94</v>
       </c>
-      <c r="FK53" t="inlineStr">
+      <c r="FL53" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL53" t="n">
+      <c r="FM53" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM53" t="n">
-        <v>-226.39</v>
-      </c>
-      <c r="FN53" t="inlineStr">
+      <c r="FN53" t="n">
+        <v>-226.59</v>
+      </c>
+      <c r="FO53" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO53" s="3" t="n">
+      <c r="FP53" s="3" t="n">
         <v>0.01041666666666667</v>
       </c>
-      <c r="FP53" t="n">
-        <v>-561.15</v>
-      </c>
-      <c r="FQ53" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR53" t="n">
+      <c r="FQ53" t="n">
+        <v>-562.0699999999998</v>
+      </c>
+      <c r="FR53" t="b">
         <v>0</v>
       </c>
       <c r="FS53" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT53" t="n">
         <v>2</v>
       </c>
-      <c r="FT53" t="n">
+      <c r="FU53" t="n">
         <v>17</v>
       </c>
-      <c r="FU53" t="n">
+      <c r="FV53" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28431,61 +28592,64 @@
       <c r="FB54" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC54" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD54" t="inlineStr"/>
+      <c r="FC54" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD54" t="b">
+        <v>0</v>
+      </c>
       <c r="FE54" t="inlineStr"/>
-      <c r="FF54" s="2" t="n">
+      <c r="FF54" t="inlineStr"/>
+      <c r="FG54" s="2" t="n">
         <v>45407.73307870371</v>
       </c>
-      <c r="FG54" s="2" t="n">
+      <c r="FH54" s="2" t="n">
         <v>45407.26041666666</v>
       </c>
-      <c r="FH54" t="n">
+      <c r="FI54" t="n">
         <v>2306.69</v>
       </c>
-      <c r="FI54" s="2" t="n">
+      <c r="FJ54" s="2" t="n">
         <v>45407.42708333334</v>
       </c>
-      <c r="FJ54" t="n">
+      <c r="FK54" t="n">
         <v>2320.69</v>
       </c>
-      <c r="FK54" t="inlineStr">
+      <c r="FL54" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL54" t="n">
+      <c r="FM54" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM54" t="n">
-        <v>-247.61</v>
-      </c>
-      <c r="FN54" t="inlineStr">
+      <c r="FN54" t="n">
+        <v>-247.84</v>
+      </c>
+      <c r="FO54" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO54" s="3" t="n">
+      <c r="FP54" s="3" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="FP54" t="n">
-        <v>-808.76</v>
-      </c>
-      <c r="FQ54" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR54" t="n">
+      <c r="FQ54" t="n">
+        <v>-809.9099999999999</v>
+      </c>
+      <c r="FR54" t="b">
         <v>0</v>
       </c>
       <c r="FS54" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT54" t="n">
         <v>3</v>
       </c>
-      <c r="FT54" t="n">
+      <c r="FU54" t="n">
         <v>17</v>
       </c>
-      <c r="FU54" t="n">
+      <c r="FV54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -28946,61 +29110,64 @@
       <c r="FB55" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC55" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD55" t="inlineStr"/>
+      <c r="FC55" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD55" t="b">
+        <v>0</v>
+      </c>
       <c r="FE55" t="inlineStr"/>
-      <c r="FF55" s="2" t="n">
+      <c r="FF55" t="inlineStr"/>
+      <c r="FG55" s="2" t="n">
         <v>45412.91422453704</v>
       </c>
-      <c r="FG55" s="2" t="n">
+      <c r="FH55" s="2" t="n">
         <v>45407.42708333334</v>
       </c>
-      <c r="FH55" t="n">
+      <c r="FI55" t="n">
         <v>2320.75</v>
       </c>
-      <c r="FI55" s="2" t="n">
+      <c r="FJ55" s="2" t="n">
         <v>45407.71875</v>
       </c>
-      <c r="FJ55" t="n">
+      <c r="FK55" t="n">
         <v>2321.06</v>
       </c>
-      <c r="FK55" t="inlineStr">
+      <c r="FL55" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL55" t="n">
+      <c r="FM55" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM55" t="n">
-        <v>5.48</v>
-      </c>
-      <c r="FN55" t="inlineStr">
+      <c r="FN55" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="FO55" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO55" s="3" t="n">
+      <c r="FP55" s="3" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="FP55" t="n">
-        <v>-803.28</v>
-      </c>
-      <c r="FQ55" t="b">
+      <c r="FQ55" t="n">
+        <v>-804.4199999999998</v>
+      </c>
+      <c r="FR55" t="b">
         <v>1</v>
       </c>
-      <c r="FR55" t="n">
+      <c r="FS55" t="n">
         <v>1</v>
       </c>
-      <c r="FS55" t="n">
-        <v>0</v>
-      </c>
       <c r="FT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU55" t="n">
         <v>17</v>
       </c>
-      <c r="FU55" t="n">
+      <c r="FV55" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29465,63 +29632,66 @@
       <c r="FB56" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC56" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD56" s="2" t="n">
+      <c r="FC56" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="FE56" t="inlineStr"/>
-      <c r="FF56" s="2" t="n">
+      <c r="FD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="FE56" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="FF56" t="inlineStr"/>
+      <c r="FG56" s="2" t="n">
         <v>45408.50789351852</v>
       </c>
-      <c r="FG56" s="2" t="n">
+      <c r="FH56" s="2" t="n">
         <v>45407.71875</v>
       </c>
-      <c r="FH56" t="n">
+      <c r="FI56" t="n">
         <v>2321.01</v>
       </c>
-      <c r="FI56" s="2" t="n">
+      <c r="FJ56" s="2" t="n">
         <v>45407.73958333334</v>
       </c>
-      <c r="FJ56" t="n">
+      <c r="FK56" t="n">
         <v>2340.9</v>
       </c>
-      <c r="FK56" t="inlineStr">
+      <c r="FL56" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL56" t="n">
+      <c r="FM56" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM56" t="n">
-        <v>-351.79</v>
-      </c>
-      <c r="FN56" t="inlineStr">
+      <c r="FN56" t="n">
+        <v>-352.1</v>
+      </c>
+      <c r="FO56" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO56" s="3" t="n">
+      <c r="FP56" s="3" t="n">
         <v>0.02083333333333333</v>
       </c>
-      <c r="FP56" t="n">
-        <v>-1155.07</v>
-      </c>
-      <c r="FQ56" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR56" t="n">
+      <c r="FQ56" t="n">
+        <v>-1156.52</v>
+      </c>
+      <c r="FR56" t="b">
         <v>0</v>
       </c>
       <c r="FS56" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT56" t="n">
         <v>1</v>
       </c>
-      <c r="FT56" t="n">
+      <c r="FU56" t="n">
         <v>17</v>
       </c>
-      <c r="FU56" t="n">
+      <c r="FV56" t="n">
         <v>4</v>
       </c>
     </row>
@@ -29986,61 +30156,64 @@
       <c r="FB57" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC57" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD57" t="inlineStr"/>
+      <c r="FC57" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD57" t="b">
+        <v>0</v>
+      </c>
       <c r="FE57" t="inlineStr"/>
-      <c r="FF57" s="2" t="n">
+      <c r="FF57" t="inlineStr"/>
+      <c r="FG57" s="2" t="n">
         <v>45412.49737268518</v>
       </c>
-      <c r="FG57" s="2" t="n">
+      <c r="FH57" s="2" t="n">
         <v>45407.73958333334</v>
       </c>
-      <c r="FH57" t="n">
+      <c r="FI57" t="n">
         <v>2340.75</v>
       </c>
-      <c r="FI57" s="2" t="n">
+      <c r="FJ57" s="2" t="n">
         <v>45408.15625</v>
       </c>
-      <c r="FJ57" t="n">
+      <c r="FK57" t="n">
         <v>2328.85</v>
       </c>
-      <c r="FK57" t="inlineStr">
+      <c r="FL57" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL57" t="n">
+      <c r="FM57" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM57" t="n">
-        <v>-210.49</v>
-      </c>
-      <c r="FN57" t="inlineStr">
+      <c r="FN57" t="n">
+        <v>-210.66</v>
+      </c>
+      <c r="FO57" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO57" s="3" t="n">
+      <c r="FP57" s="3" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="FP57" t="n">
-        <v>-1365.56</v>
-      </c>
-      <c r="FQ57" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR57" t="n">
+      <c r="FQ57" t="n">
+        <v>-1367.18</v>
+      </c>
+      <c r="FR57" t="b">
         <v>0</v>
       </c>
       <c r="FS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT57" t="n">
         <v>2</v>
       </c>
-      <c r="FT57" t="n">
+      <c r="FU57" t="n">
         <v>17</v>
       </c>
-      <c r="FU57" t="n">
+      <c r="FV57" t="n">
         <v>4</v>
       </c>
     </row>
@@ -30503,63 +30676,66 @@
       <c r="FB58" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC58" t="b">
+      <c r="FC58" s="2" t="n">
+        <v>45412.75</v>
+      </c>
+      <c r="FD58" t="b">
         <v>1</v>
       </c>
-      <c r="FD58" s="2" t="n">
+      <c r="FE58" s="2" t="n">
         <v>45413.30208333334</v>
       </c>
-      <c r="FE58" t="inlineStr"/>
-      <c r="FF58" s="2" t="n">
+      <c r="FF58" t="inlineStr"/>
+      <c r="FG58" s="2" t="n">
         <v>45412.75798611111</v>
       </c>
-      <c r="FG58" s="2" t="n">
+      <c r="FH58" s="2" t="n">
         <v>45408.15625</v>
       </c>
-      <c r="FH58" t="n">
+      <c r="FI58" t="n">
         <v>2328.87</v>
       </c>
-      <c r="FI58" s="2" t="n">
+      <c r="FJ58" s="2" t="n">
         <v>45408.25</v>
       </c>
-      <c r="FJ58" t="n">
+      <c r="FK58" t="n">
         <v>2333.9</v>
       </c>
-      <c r="FK58" t="inlineStr">
+      <c r="FL58" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL58" t="n">
+      <c r="FM58" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM58" t="n">
-        <v>-88.97</v>
-      </c>
-      <c r="FN58" t="inlineStr">
+      <c r="FN58" t="n">
+        <v>-89.04000000000001</v>
+      </c>
+      <c r="FO58" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO58" s="3" t="n">
+      <c r="FP58" s="3" t="n">
         <v>0.09375</v>
       </c>
-      <c r="FP58" t="n">
-        <v>-1454.53</v>
-      </c>
-      <c r="FQ58" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR58" t="n">
+      <c r="FQ58" t="n">
+        <v>-1456.22</v>
+      </c>
+      <c r="FR58" t="b">
         <v>0</v>
       </c>
       <c r="FS58" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT58" t="n">
         <v>3</v>
       </c>
-      <c r="FT58" t="n">
+      <c r="FU58" t="n">
         <v>17</v>
       </c>
-      <c r="FU58" t="n">
+      <c r="FV58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31024,61 +31200,64 @@
       <c r="FB59" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC59" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD59" t="inlineStr"/>
+      <c r="FC59" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD59" t="b">
+        <v>0</v>
+      </c>
       <c r="FE59" t="inlineStr"/>
-      <c r="FF59" s="2" t="n">
+      <c r="FF59" t="inlineStr"/>
+      <c r="FG59" s="2" t="n">
         <v>45412.67221064815</v>
       </c>
-      <c r="FG59" s="2" t="n">
+      <c r="FH59" s="2" t="n">
         <v>45408.25</v>
       </c>
-      <c r="FH59" t="n">
+      <c r="FI59" t="n">
         <v>2333.85</v>
       </c>
-      <c r="FI59" s="2" t="n">
+      <c r="FJ59" s="2" t="n">
         <v>45408.70833333334</v>
       </c>
-      <c r="FJ59" t="n">
+      <c r="FK59" t="n">
         <v>2341.16</v>
       </c>
-      <c r="FK59" t="inlineStr">
+      <c r="FL59" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL59" t="n">
+      <c r="FM59" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM59" t="n">
-        <v>129.26</v>
-      </c>
-      <c r="FN59" t="inlineStr">
+      <c r="FN59" t="n">
+        <v>129.38</v>
+      </c>
+      <c r="FO59" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO59" s="3" t="n">
+      <c r="FP59" s="3" t="n">
         <v>0.4583333333333333</v>
       </c>
-      <c r="FP59" t="n">
-        <v>-1325.27</v>
-      </c>
-      <c r="FQ59" t="b">
+      <c r="FQ59" t="n">
+        <v>-1326.84</v>
+      </c>
+      <c r="FR59" t="b">
         <v>1</v>
       </c>
-      <c r="FR59" t="n">
+      <c r="FS59" t="n">
         <v>1</v>
       </c>
-      <c r="FS59" t="n">
-        <v>0</v>
-      </c>
       <c r="FT59" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU59" t="n">
         <v>17</v>
       </c>
-      <c r="FU59" t="n">
+      <c r="FV59" t="n">
         <v>4</v>
       </c>
     </row>
@@ -31541,63 +31720,66 @@
       <c r="FB60" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC60" t="b">
+      <c r="FC60" s="2" t="n">
+        <v>45412.66666666666</v>
+      </c>
+      <c r="FD60" t="b">
         <v>1</v>
       </c>
-      <c r="FD60" s="2" t="n">
+      <c r="FE60" s="2" t="n">
         <v>45412.75</v>
       </c>
-      <c r="FE60" t="inlineStr"/>
-      <c r="FF60" s="2" t="n">
+      <c r="FF60" t="inlineStr"/>
+      <c r="FG60" s="2" t="n">
         <v>45412.69584490741</v>
       </c>
-      <c r="FG60" s="2" t="n">
+      <c r="FH60" s="2" t="n">
         <v>45408.70833333334</v>
       </c>
-      <c r="FH60" t="n">
+      <c r="FI60" t="n">
         <v>2341.4</v>
       </c>
-      <c r="FI60" s="2" t="n">
+      <c r="FJ60" s="2" t="n">
         <v>45408.96875</v>
       </c>
-      <c r="FJ60" t="n">
+      <c r="FK60" t="n">
         <v>2339.2</v>
       </c>
-      <c r="FK60" t="inlineStr">
+      <c r="FL60" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL60" t="n">
+      <c r="FM60" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM60" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="FN60" t="inlineStr">
+      <c r="FN60" t="n">
+        <v>38.94</v>
+      </c>
+      <c r="FO60" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO60" s="3" t="n">
+      <c r="FP60" s="3" t="n">
         <v>0.2604166666666667</v>
       </c>
-      <c r="FP60" t="n">
-        <v>-1286.37</v>
-      </c>
-      <c r="FQ60" t="b">
+      <c r="FQ60" t="n">
+        <v>-1287.9</v>
+      </c>
+      <c r="FR60" t="b">
         <v>1</v>
       </c>
-      <c r="FR60" t="n">
+      <c r="FS60" t="n">
         <v>2</v>
       </c>
-      <c r="FS60" t="n">
-        <v>0</v>
-      </c>
       <c r="FT60" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU60" t="n">
         <v>17</v>
       </c>
-      <c r="FU60" t="n">
+      <c r="FV60" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32060,61 +32242,64 @@
       <c r="FB61" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC61" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD61" t="inlineStr"/>
+      <c r="FC61" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD61" t="b">
+        <v>0</v>
+      </c>
       <c r="FE61" t="inlineStr"/>
-      <c r="FF61" s="2" t="n">
+      <c r="FF61" t="inlineStr"/>
+      <c r="FG61" s="2" t="n">
         <v>45412.64180555556</v>
       </c>
-      <c r="FG61" s="2" t="n">
+      <c r="FH61" s="2" t="n">
         <v>45408.96875</v>
       </c>
-      <c r="FH61" t="n">
+      <c r="FI61" t="n">
         <v>2339.19</v>
       </c>
-      <c r="FI61" s="2" t="n">
+      <c r="FJ61" s="2" t="n">
         <v>45411.07291666666</v>
       </c>
-      <c r="FJ61" t="n">
+      <c r="FK61" t="n">
         <v>2334.74</v>
       </c>
-      <c r="FK61" t="inlineStr">
+      <c r="FL61" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL61" t="n">
+      <c r="FM61" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM61" t="n">
-        <v>-78.70999999999999</v>
-      </c>
-      <c r="FN61" t="inlineStr">
+      <c r="FN61" t="n">
+        <v>-78.78</v>
+      </c>
+      <c r="FO61" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO61" s="3" t="n">
+      <c r="FP61" s="3" t="n">
         <v>2.104166666666667</v>
       </c>
-      <c r="FP61" t="n">
-        <v>-1365.08</v>
-      </c>
-      <c r="FQ61" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR61" t="n">
+      <c r="FQ61" t="n">
+        <v>-1366.68</v>
+      </c>
+      <c r="FR61" t="b">
         <v>0</v>
       </c>
       <c r="FS61" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT61" t="n">
         <v>1</v>
       </c>
-      <c r="FT61" t="n">
+      <c r="FU61" t="n">
         <v>17</v>
       </c>
-      <c r="FU61" t="n">
+      <c r="FV61" t="n">
         <v>4</v>
       </c>
     </row>
@@ -32575,61 +32760,64 @@
       <c r="FB62" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC62" t="b">
+      <c r="FC62" s="2" t="n">
+        <v>45412.73958333334</v>
+      </c>
+      <c r="FD62" t="b">
         <v>1</v>
       </c>
-      <c r="FD62" t="inlineStr"/>
       <c r="FE62" t="inlineStr"/>
-      <c r="FF62" s="2" t="n">
+      <c r="FF62" t="inlineStr"/>
+      <c r="FG62" s="2" t="n">
         <v>45413.61185185185</v>
       </c>
-      <c r="FG62" s="2" t="n">
+      <c r="FH62" s="2" t="n">
         <v>45411.07291666666</v>
       </c>
-      <c r="FH62" t="n">
+      <c r="FI62" t="n">
         <v>2334.71</v>
       </c>
-      <c r="FI62" s="2" t="n">
+      <c r="FJ62" s="2" t="n">
         <v>45411.42708333334</v>
       </c>
-      <c r="FJ62" t="n">
+      <c r="FK62" t="n">
         <v>2332</v>
       </c>
-      <c r="FK62" t="inlineStr">
+      <c r="FL62" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL62" t="n">
+      <c r="FM62" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM62" t="n">
-        <v>47.92</v>
-      </c>
-      <c r="FN62" t="inlineStr">
+      <c r="FN62" t="n">
+        <v>47.96</v>
+      </c>
+      <c r="FO62" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="FO62" s="3" t="n">
+      <c r="FP62" s="3" t="n">
         <v>0.3541666666666667</v>
       </c>
-      <c r="FP62" t="n">
-        <v>-1317.16</v>
-      </c>
-      <c r="FQ62" t="b">
+      <c r="FQ62" t="n">
+        <v>-1318.72</v>
+      </c>
+      <c r="FR62" t="b">
         <v>1</v>
       </c>
-      <c r="FR62" t="n">
+      <c r="FS62" t="n">
         <v>1</v>
       </c>
-      <c r="FS62" t="n">
-        <v>0</v>
-      </c>
       <c r="FT62" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU62" t="n">
         <v>18</v>
       </c>
-      <c r="FU62" t="n">
+      <c r="FV62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33094,61 +33282,64 @@
       <c r="FB63" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC63" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD63" t="inlineStr"/>
+      <c r="FC63" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD63" t="b">
+        <v>0</v>
+      </c>
       <c r="FE63" t="inlineStr"/>
-      <c r="FF63" s="2" t="n">
+      <c r="FF63" t="inlineStr"/>
+      <c r="FG63" s="2" t="n">
         <v>45412.71484953703</v>
       </c>
-      <c r="FG63" s="2" t="n">
+      <c r="FH63" s="2" t="n">
         <v>45411.42708333334</v>
       </c>
-      <c r="FH63" t="n">
+      <c r="FI63" t="n">
         <v>2331.99</v>
       </c>
-      <c r="FI63" s="2" t="n">
+      <c r="FJ63" s="2" t="n">
         <v>45411.69791666666</v>
       </c>
-      <c r="FJ63" t="n">
+      <c r="FK63" t="n">
         <v>2330.64</v>
       </c>
-      <c r="FK63" t="inlineStr">
+      <c r="FL63" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL63" t="n">
+      <c r="FM63" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM63" t="n">
-        <v>-23.88</v>
-      </c>
-      <c r="FN63" t="inlineStr">
+      <c r="FN63" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="FO63" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO63" s="3" t="n">
+      <c r="FP63" s="3" t="n">
         <v>0.2708333333333333</v>
       </c>
-      <c r="FP63" t="n">
-        <v>-1341.04</v>
-      </c>
-      <c r="FQ63" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR63" t="n">
+      <c r="FQ63" t="n">
+        <v>-1342.62</v>
+      </c>
+      <c r="FR63" t="b">
         <v>0</v>
       </c>
       <c r="FS63" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT63" t="n">
         <v>1</v>
       </c>
-      <c r="FT63" t="n">
+      <c r="FU63" t="n">
         <v>18</v>
       </c>
-      <c r="FU63" t="n">
+      <c r="FV63" t="n">
         <v>4</v>
       </c>
     </row>
@@ -33611,61 +33802,64 @@
       <c r="FB64" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC64" t="b">
+      <c r="FC64" s="2" t="n">
+        <v>45412.75</v>
+      </c>
+      <c r="FD64" t="b">
         <v>1</v>
       </c>
-      <c r="FD64" t="inlineStr"/>
       <c r="FE64" t="inlineStr"/>
-      <c r="FF64" s="2" t="n">
+      <c r="FF64" t="inlineStr"/>
+      <c r="FG64" s="2" t="n">
         <v>45413.11133101852</v>
       </c>
-      <c r="FG64" s="2" t="n">
+      <c r="FH64" s="2" t="n">
         <v>45411.69791666666</v>
       </c>
-      <c r="FH64" t="n">
+      <c r="FI64" t="n">
         <v>2330.85</v>
       </c>
-      <c r="FI64" s="2" t="n">
+      <c r="FJ64" s="2" t="n">
         <v>45411.82291666666</v>
       </c>
-      <c r="FJ64" t="n">
+      <c r="FK64" t="n">
         <v>2344.17</v>
       </c>
-      <c r="FK64" t="inlineStr">
+      <c r="FL64" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL64" t="n">
+      <c r="FM64" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM64" t="n">
-        <v>-235.6</v>
-      </c>
-      <c r="FN64" t="inlineStr">
+      <c r="FN64" t="n">
+        <v>-235.8</v>
+      </c>
+      <c r="FO64" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO64" s="3" t="n">
+      <c r="FP64" s="3" t="n">
         <v>0.125</v>
       </c>
-      <c r="FP64" t="n">
-        <v>-1576.64</v>
-      </c>
-      <c r="FQ64" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR64" t="n">
+      <c r="FQ64" t="n">
+        <v>-1578.42</v>
+      </c>
+      <c r="FR64" t="b">
         <v>0</v>
       </c>
       <c r="FS64" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT64" t="n">
         <v>2</v>
       </c>
-      <c r="FT64" t="n">
+      <c r="FU64" t="n">
         <v>18</v>
       </c>
-      <c r="FU64" t="n">
+      <c r="FV64" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34128,61 +34322,64 @@
       <c r="FB65" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC65" t="b">
-        <v>0</v>
-      </c>
-      <c r="FD65" t="inlineStr"/>
+      <c r="FC65" s="2" t="n">
+        <v>132320.9911673006</v>
+      </c>
+      <c r="FD65" t="b">
+        <v>0</v>
+      </c>
       <c r="FE65" t="inlineStr"/>
-      <c r="FF65" s="2" t="n">
+      <c r="FF65" t="inlineStr"/>
+      <c r="FG65" s="2" t="n">
         <v>45412.47275462963</v>
       </c>
-      <c r="FG65" s="2" t="n">
+      <c r="FH65" s="2" t="n">
         <v>45411.82291666666</v>
       </c>
-      <c r="FH65" t="n">
+      <c r="FI65" t="n">
         <v>2344.15</v>
       </c>
-      <c r="FI65" s="2" t="n">
+      <c r="FJ65" s="2" t="n">
         <v>45411.98958333334</v>
       </c>
-      <c r="FJ65" t="n">
+      <c r="FK65" t="n">
         <v>2336.6</v>
       </c>
-      <c r="FK65" t="inlineStr">
+      <c r="FL65" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="FL65" t="n">
+      <c r="FM65" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM65" t="n">
-        <v>-133.54</v>
-      </c>
-      <c r="FN65" t="inlineStr">
+      <c r="FN65" t="n">
+        <v>-133.65</v>
+      </c>
+      <c r="FO65" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="FO65" s="3" t="n">
+      <c r="FP65" s="3" t="n">
         <v>0.1666666666666667</v>
       </c>
-      <c r="FP65" t="n">
-        <v>-1710.18</v>
-      </c>
-      <c r="FQ65" t="b">
-        <v>0</v>
-      </c>
-      <c r="FR65" t="n">
+      <c r="FQ65" t="n">
+        <v>-1712.07</v>
+      </c>
+      <c r="FR65" t="b">
         <v>0</v>
       </c>
       <c r="FS65" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT65" t="n">
         <v>3</v>
       </c>
-      <c r="FT65" t="n">
+      <c r="FU65" t="n">
         <v>18</v>
       </c>
-      <c r="FU65" t="n">
+      <c r="FV65" t="n">
         <v>4</v>
       </c>
     </row>
@@ -34645,63 +34842,66 @@
       <c r="FB66" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC66" t="b">
+      <c r="FC66" s="2" t="n">
+        <v>45412.71875</v>
+      </c>
+      <c r="FD66" t="b">
         <v>1</v>
       </c>
-      <c r="FD66" s="2" t="n">
+      <c r="FE66" s="2" t="n">
         <v>45412.91666666666</v>
       </c>
-      <c r="FE66" t="inlineStr"/>
-      <c r="FF66" s="2" t="n">
+      <c r="FF66" t="inlineStr"/>
+      <c r="FG66" s="2" t="n">
         <v>45412.72099537037</v>
       </c>
-      <c r="FG66" s="2" t="n">
+      <c r="FH66" s="2" t="n">
         <v>45411.98958333334</v>
       </c>
-      <c r="FH66" t="n">
+      <c r="FI66" t="n">
         <v>2336.61</v>
       </c>
-      <c r="FI66" s="2" t="n">
+      <c r="FJ66" s="2" t="n">
         <v>45412.72099537037</v>
       </c>
-      <c r="FJ66" t="n">
+      <c r="FK66" t="n">
         <v>2306.42</v>
       </c>
-      <c r="FK66" t="inlineStr">
+      <c r="FL66" t="inlineStr">
         <is>
           <t>auto</t>
         </is>
       </c>
-      <c r="FL66" t="n">
+      <c r="FM66" t="n">
         <v>0.01</v>
       </c>
-      <c r="FM66" t="n">
-        <v>533.83</v>
-      </c>
-      <c r="FN66" t="inlineStr">
+      <c r="FN66" t="n">
+        <v>534.3099999999999</v>
+      </c>
+      <c r="FO66" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="FO66" s="3" t="n">
+      <c r="FP66" s="3" t="n">
         <v>0.7314120370370371</v>
       </c>
-      <c r="FP66" t="n">
-        <v>-1176.35</v>
-      </c>
-      <c r="FQ66" t="b">
+      <c r="FQ66" t="n">
+        <v>-1177.76</v>
+      </c>
+      <c r="FR66" t="b">
         <v>1</v>
       </c>
-      <c r="FR66" t="n">
+      <c r="FS66" t="n">
         <v>1</v>
       </c>
-      <c r="FS66" t="n">
-        <v>0</v>
-      </c>
       <c r="FT66" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU66" t="n">
         <v>18</v>
       </c>
-      <c r="FU66" t="n">
+      <c r="FV66" t="n">
         <v>4</v>
       </c>
     </row>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -1708,9 +1708,7 @@
       <c r="FB2" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC2" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC2" t="inlineStr"/>
       <c r="FD2" t="b">
         <v>0</v>
       </c>
@@ -1740,7 +1738,7 @@
         <v>0.01</v>
       </c>
       <c r="FN2" t="n">
-        <v>74.86</v>
+        <v>74.81</v>
       </c>
       <c r="FO2" t="inlineStr">
         <is>
@@ -1751,7 +1749,7 @@
         <v>0.4375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>774.86</v>
+        <v>774.8099999999999</v>
       </c>
       <c r="FR2" t="b">
         <v>1</v>
@@ -2194,7 +2192,7 @@
         <v>0.01</v>
       </c>
       <c r="FN3" t="n">
-        <v>531.84</v>
+        <v>531.4299999999999</v>
       </c>
       <c r="FO3" t="inlineStr">
         <is>
@@ -2205,7 +2203,7 @@
         <v>1.460659722222222</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1306.7</v>
+        <v>1306.24</v>
       </c>
       <c r="FR3" t="b">
         <v>1</v>
@@ -2672,9 +2670,7 @@
       <c r="FB4" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC4" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC4" t="inlineStr"/>
       <c r="FD4" t="b">
         <v>0</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>0.01</v>
       </c>
       <c r="FN4" t="n">
-        <v>-132.77</v>
+        <v>-132.68</v>
       </c>
       <c r="FO4" t="inlineStr">
         <is>
@@ -2715,7 +2711,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1173.93</v>
+        <v>1173.56</v>
       </c>
       <c r="FR4" t="b">
         <v>0</v>
@@ -3218,7 +3214,7 @@
         <v>0.01</v>
       </c>
       <c r="FN5" t="n">
-        <v>302.64</v>
+        <v>302.41</v>
       </c>
       <c r="FO5" t="inlineStr">
         <is>
@@ -3229,7 +3225,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="FQ5" t="n">
-        <v>1476.57</v>
+        <v>1475.97</v>
       </c>
       <c r="FR5" t="b">
         <v>1</v>
@@ -3698,9 +3694,7 @@
       <c r="FB6" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC6" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC6" t="inlineStr"/>
       <c r="FD6" t="b">
         <v>0</v>
       </c>
@@ -3730,7 +3724,7 @@
         <v>0.01</v>
       </c>
       <c r="FN6" t="n">
-        <v>126.9</v>
+        <v>126.8</v>
       </c>
       <c r="FO6" t="inlineStr">
         <is>
@@ -3741,7 +3735,7 @@
         <v>0.46875</v>
       </c>
       <c r="FQ6" t="n">
-        <v>1603.47</v>
+        <v>1602.77</v>
       </c>
       <c r="FR6" t="b">
         <v>1</v>
@@ -4246,7 +4240,7 @@
         <v>0.01</v>
       </c>
       <c r="FN7" t="n">
-        <v>36.46</v>
+        <v>36.43</v>
       </c>
       <c r="FO7" t="inlineStr">
         <is>
@@ -4257,7 +4251,7 @@
         <v>0.125</v>
       </c>
       <c r="FQ7" t="n">
-        <v>1639.93</v>
+        <v>1639.2</v>
       </c>
       <c r="FR7" t="b">
         <v>1</v>
@@ -4726,9 +4720,7 @@
       <c r="FB8" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC8" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC8" t="inlineStr"/>
       <c r="FD8" t="b">
         <v>0</v>
       </c>
@@ -4758,7 +4750,7 @@
         <v>0.01</v>
       </c>
       <c r="FN8" t="n">
-        <v>16.81</v>
+        <v>16.8</v>
       </c>
       <c r="FO8" t="inlineStr">
         <is>
@@ -4769,7 +4761,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FQ8" t="n">
-        <v>1656.74</v>
+        <v>1656</v>
       </c>
       <c r="FR8" t="b">
         <v>1</v>
@@ -5274,7 +5266,7 @@
         <v>0.01</v>
       </c>
       <c r="FN9" t="n">
-        <v>-28.15</v>
+        <v>-28.13</v>
       </c>
       <c r="FO9" t="inlineStr">
         <is>
@@ -5285,7 +5277,7 @@
         <v>0.07291666666666667</v>
       </c>
       <c r="FQ9" t="n">
-        <v>1628.59</v>
+        <v>1627.87</v>
       </c>
       <c r="FR9" t="b">
         <v>0</v>
@@ -5752,9 +5744,7 @@
       <c r="FB10" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC10" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC10" t="inlineStr"/>
       <c r="FD10" t="b">
         <v>0</v>
       </c>
@@ -5784,7 +5774,7 @@
         <v>0.01</v>
       </c>
       <c r="FN10" t="n">
-        <v>83.70999999999999</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="FO10" t="inlineStr">
         <is>
@@ -5795,7 +5785,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FQ10" t="n">
-        <v>1712.3</v>
+        <v>1711.52</v>
       </c>
       <c r="FR10" t="b">
         <v>1</v>
@@ -6304,7 +6294,7 @@
         <v>0.01</v>
       </c>
       <c r="FN11" t="n">
-        <v>542.8099999999999</v>
+        <v>542.39</v>
       </c>
       <c r="FO11" t="inlineStr">
         <is>
@@ -6315,7 +6305,7 @@
         <v>2.626863425925926</v>
       </c>
       <c r="FQ11" t="n">
-        <v>2255.11</v>
+        <v>2253.91</v>
       </c>
       <c r="FR11" t="b">
         <v>1</v>
@@ -6786,9 +6776,7 @@
       <c r="FB12" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC12" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC12" t="inlineStr"/>
       <c r="FD12" t="b">
         <v>0</v>
       </c>
@@ -6818,7 +6806,7 @@
         <v>0.01</v>
       </c>
       <c r="FN12" t="n">
-        <v>-525.25</v>
+        <v>-524.87</v>
       </c>
       <c r="FO12" t="inlineStr">
         <is>
@@ -6829,7 +6817,7 @@
         <v>0.1505787037037037</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1729.86</v>
+        <v>1729.04</v>
       </c>
       <c r="FR12" t="b">
         <v>0</v>
@@ -7334,7 +7322,7 @@
         <v>0.01</v>
       </c>
       <c r="FN13" t="n">
-        <v>-338.13</v>
+        <v>-337.88</v>
       </c>
       <c r="FO13" t="inlineStr">
         <is>
@@ -7345,7 +7333,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FQ13" t="n">
-        <v>1391.73</v>
+        <v>1391.16</v>
       </c>
       <c r="FR13" t="b">
         <v>0</v>
@@ -7818,9 +7806,7 @@
       <c r="FB14" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC14" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC14" t="inlineStr"/>
       <c r="FD14" t="b">
         <v>0</v>
       </c>
@@ -7850,7 +7836,7 @@
         <v>0.01</v>
       </c>
       <c r="FN14" t="n">
-        <v>-166.94</v>
+        <v>-166.82</v>
       </c>
       <c r="FO14" t="inlineStr">
         <is>
@@ -7861,7 +7847,7 @@
         <v>0.21875</v>
       </c>
       <c r="FQ14" t="n">
-        <v>1224.79</v>
+        <v>1224.34</v>
       </c>
       <c r="FR14" t="b">
         <v>0</v>
@@ -8368,7 +8354,7 @@
         <v>0.01</v>
       </c>
       <c r="FN15" t="n">
-        <v>289.02</v>
+        <v>288.79</v>
       </c>
       <c r="FO15" t="inlineStr">
         <is>
@@ -8379,7 +8365,7 @@
         <v>0.8125</v>
       </c>
       <c r="FQ15" t="n">
-        <v>1513.81</v>
+        <v>1513.13</v>
       </c>
       <c r="FR15" t="b">
         <v>1</v>
@@ -8852,9 +8838,7 @@
       <c r="FB16" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC16" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC16" t="inlineStr"/>
       <c r="FD16" t="b">
         <v>0</v>
       </c>
@@ -8884,7 +8868,7 @@
         <v>0.01</v>
       </c>
       <c r="FN16" t="n">
-        <v>16.46</v>
+        <v>16.45</v>
       </c>
       <c r="FO16" t="inlineStr">
         <is>
@@ -8895,7 +8879,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FQ16" t="n">
-        <v>1530.27</v>
+        <v>1529.58</v>
       </c>
       <c r="FR16" t="b">
         <v>1</v>
@@ -9400,7 +9384,7 @@
         <v>0.01</v>
       </c>
       <c r="FN17" t="n">
-        <v>-58.77</v>
+        <v>-58.73</v>
       </c>
       <c r="FO17" t="inlineStr">
         <is>
@@ -9411,7 +9395,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FQ17" t="n">
-        <v>1471.5</v>
+        <v>1470.85</v>
       </c>
       <c r="FR17" t="b">
         <v>0</v>
@@ -9884,9 +9868,7 @@
       <c r="FB18" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC18" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC18" t="inlineStr"/>
       <c r="FD18" t="b">
         <v>0</v>
       </c>
@@ -9916,7 +9898,7 @@
         <v>0.01</v>
       </c>
       <c r="FN18" t="n">
-        <v>-67.45</v>
+        <v>-67.40000000000001</v>
       </c>
       <c r="FO18" t="inlineStr">
         <is>
@@ -9927,7 +9909,7 @@
         <v>0.09375</v>
       </c>
       <c r="FQ18" t="n">
-        <v>1404.05</v>
+        <v>1403.45</v>
       </c>
       <c r="FR18" t="b">
         <v>0</v>
@@ -10432,7 +10414,7 @@
         <v>0.01</v>
       </c>
       <c r="FN19" t="n">
-        <v>-93.83</v>
+        <v>-93.76000000000001</v>
       </c>
       <c r="FO19" t="inlineStr">
         <is>
@@ -10443,7 +10425,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FQ19" t="n">
-        <v>1310.22</v>
+        <v>1309.69</v>
       </c>
       <c r="FR19" t="b">
         <v>0</v>
@@ -10918,9 +10900,7 @@
       <c r="FB20" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC20" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC20" t="inlineStr"/>
       <c r="FD20" t="b">
         <v>0</v>
       </c>
@@ -10950,7 +10930,7 @@
         <v>0.01</v>
       </c>
       <c r="FN20" t="n">
-        <v>183.18</v>
+        <v>183.04</v>
       </c>
       <c r="FO20" t="inlineStr">
         <is>
@@ -10961,7 +10941,7 @@
         <v>0.6458333333333334</v>
       </c>
       <c r="FQ20" t="n">
-        <v>1493.4</v>
+        <v>1492.73</v>
       </c>
       <c r="FR20" t="b">
         <v>1</v>
@@ -11479,7 +11459,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FQ21" t="n">
-        <v>1496.94</v>
+        <v>1496.27</v>
       </c>
       <c r="FR21" t="b">
         <v>1</v>
@@ -11950,9 +11930,7 @@
       <c r="FB22" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC22" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC22" t="inlineStr"/>
       <c r="FD22" t="b">
         <v>0</v>
       </c>
@@ -11982,7 +11960,7 @@
         <v>0.01</v>
       </c>
       <c r="FN22" t="n">
-        <v>-45.14</v>
+        <v>-45.11</v>
       </c>
       <c r="FO22" t="inlineStr">
         <is>
@@ -11993,7 +11971,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FQ22" t="n">
-        <v>1451.8</v>
+        <v>1451.16</v>
       </c>
       <c r="FR22" t="b">
         <v>0</v>
@@ -12504,7 +12482,7 @@
         <v>0.01</v>
       </c>
       <c r="FN23" t="n">
-        <v>531.13</v>
+        <v>530.72</v>
       </c>
       <c r="FO23" t="inlineStr">
         <is>
@@ -12515,7 +12493,7 @@
         <v>0.3751851851851852</v>
       </c>
       <c r="FQ23" t="n">
-        <v>1982.93</v>
+        <v>1981.88</v>
       </c>
       <c r="FR23" t="b">
         <v>1</v>
@@ -13020,7 +12998,7 @@
         <v>0.01</v>
       </c>
       <c r="FN24" t="n">
-        <v>283.17</v>
+        <v>282.96</v>
       </c>
       <c r="FO24" t="inlineStr">
         <is>
@@ -13031,7 +13009,7 @@
         <v>2.333333333333333</v>
       </c>
       <c r="FQ24" t="n">
-        <v>2266.1</v>
+        <v>2264.84</v>
       </c>
       <c r="FR24" t="b">
         <v>1</v>
@@ -13540,7 +13518,7 @@
         <v>0.01</v>
       </c>
       <c r="FN25" t="n">
-        <v>92.03</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="FO25" t="inlineStr">
         <is>
@@ -13551,7 +13529,7 @@
         <v>0.125</v>
       </c>
       <c r="FQ25" t="n">
-        <v>2358.13</v>
+        <v>2356.8</v>
       </c>
       <c r="FR25" t="b">
         <v>1</v>
@@ -14071,7 +14049,7 @@
         <v>0.1145833333333333</v>
       </c>
       <c r="FQ26" t="n">
-        <v>2366.8</v>
+        <v>2365.47</v>
       </c>
       <c r="FR26" t="b">
         <v>1</v>
@@ -14580,7 +14558,7 @@
         <v>0.01</v>
       </c>
       <c r="FN27" t="n">
-        <v>-57.18</v>
+        <v>-57.14</v>
       </c>
       <c r="FO27" t="inlineStr">
         <is>
@@ -14591,7 +14569,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FQ27" t="n">
-        <v>2309.62</v>
+        <v>2308.33</v>
       </c>
       <c r="FR27" t="b">
         <v>0</v>
@@ -15100,7 +15078,7 @@
         <v>0.01</v>
       </c>
       <c r="FN28" t="n">
-        <v>-36.11</v>
+        <v>-36.09</v>
       </c>
       <c r="FO28" t="inlineStr">
         <is>
@@ -15111,7 +15089,7 @@
         <v>0.2395833333333333</v>
       </c>
       <c r="FQ28" t="n">
-        <v>2273.51</v>
+        <v>2272.24</v>
       </c>
       <c r="FR28" t="b">
         <v>0</v>
@@ -15622,7 +15600,7 @@
         <v>0.01</v>
       </c>
       <c r="FN29" t="n">
-        <v>-508.78</v>
+        <v>-508.47</v>
       </c>
       <c r="FO29" t="inlineStr">
         <is>
@@ -15633,7 +15611,7 @@
         <v>0.05802083333333333</v>
       </c>
       <c r="FQ29" t="n">
-        <v>1764.73</v>
+        <v>1763.77</v>
       </c>
       <c r="FR29" t="b">
         <v>0</v>
@@ -16144,7 +16122,7 @@
         <v>0.01</v>
       </c>
       <c r="FN30" t="n">
-        <v>-531.4400000000001</v>
+        <v>-531.12</v>
       </c>
       <c r="FO30" t="inlineStr">
         <is>
@@ -16155,7 +16133,7 @@
         <v>0.1334606481481481</v>
       </c>
       <c r="FQ30" t="n">
-        <v>1233.29</v>
+        <v>1232.65</v>
       </c>
       <c r="FR30" t="b">
         <v>0</v>
@@ -16664,7 +16642,7 @@
         <v>0.01</v>
       </c>
       <c r="FN31" t="n">
-        <v>109.38</v>
+        <v>109.3</v>
       </c>
       <c r="FO31" t="inlineStr">
         <is>
@@ -16675,7 +16653,7 @@
         <v>0.5625</v>
       </c>
       <c r="FQ31" t="n">
-        <v>1342.67</v>
+        <v>1341.95</v>
       </c>
       <c r="FR31" t="b">
         <v>1</v>
@@ -17186,7 +17164,7 @@
         <v>0.01</v>
       </c>
       <c r="FN32" t="n">
-        <v>-110.29</v>
+        <v>-110.22</v>
       </c>
       <c r="FO32" t="inlineStr">
         <is>
@@ -17197,7 +17175,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FQ32" t="n">
-        <v>1232.38</v>
+        <v>1231.73</v>
       </c>
       <c r="FR32" t="b">
         <v>0</v>
@@ -17672,9 +17650,7 @@
       <c r="FB33" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC33" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC33" t="inlineStr"/>
       <c r="FD33" t="b">
         <v>0</v>
       </c>
@@ -17704,7 +17680,7 @@
         <v>0.01</v>
       </c>
       <c r="FN33" t="n">
-        <v>-211.37</v>
+        <v>-211.24</v>
       </c>
       <c r="FO33" t="inlineStr">
         <is>
@@ -17715,7 +17691,7 @@
         <v>0.04166666666666666</v>
       </c>
       <c r="FQ33" t="n">
-        <v>1021.01</v>
+        <v>1020.49</v>
       </c>
       <c r="FR33" t="b">
         <v>0</v>
@@ -18224,7 +18200,7 @@
         <v>0.01</v>
       </c>
       <c r="FN34" t="n">
-        <v>-289.09</v>
+        <v>-288.91</v>
       </c>
       <c r="FO34" t="inlineStr">
         <is>
@@ -18235,7 +18211,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FQ34" t="n">
-        <v>731.9200000000001</v>
+        <v>731.5799999999995</v>
       </c>
       <c r="FR34" t="b">
         <v>0</v>
@@ -18710,9 +18686,7 @@
       <c r="FB35" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC35" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC35" t="inlineStr"/>
       <c r="FD35" t="b">
         <v>0</v>
       </c>
@@ -18742,7 +18716,7 @@
         <v>0.01</v>
       </c>
       <c r="FN35" t="n">
-        <v>34.69</v>
+        <v>34.67</v>
       </c>
       <c r="FO35" t="inlineStr">
         <is>
@@ -18753,7 +18727,7 @@
         <v>0.34375</v>
       </c>
       <c r="FQ35" t="n">
-        <v>766.6100000000001</v>
+        <v>766.2499999999994</v>
       </c>
       <c r="FR35" t="b">
         <v>1</v>
@@ -19264,7 +19238,7 @@
         <v>0.01</v>
       </c>
       <c r="FN36" t="n">
-        <v>-144.46</v>
+        <v>-144.37</v>
       </c>
       <c r="FO36" t="inlineStr">
         <is>
@@ -19275,7 +19249,7 @@
         <v>0.40625</v>
       </c>
       <c r="FQ36" t="n">
-        <v>622.1500000000001</v>
+        <v>621.8799999999994</v>
       </c>
       <c r="FR36" t="b">
         <v>0</v>
@@ -19752,9 +19726,7 @@
       <c r="FB37" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC37" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC37" t="inlineStr"/>
       <c r="FD37" t="b">
         <v>0</v>
       </c>
@@ -19784,7 +19756,7 @@
         <v>0.01</v>
       </c>
       <c r="FN37" t="n">
-        <v>-228.01</v>
+        <v>-227.87</v>
       </c>
       <c r="FO37" t="inlineStr">
         <is>
@@ -19795,7 +19767,7 @@
         <v>0.3125</v>
       </c>
       <c r="FQ37" t="n">
-        <v>394.1400000000001</v>
+        <v>394.0099999999994</v>
       </c>
       <c r="FR37" t="b">
         <v>0</v>
@@ -20306,7 +20278,7 @@
         <v>0.01</v>
       </c>
       <c r="FN38" t="n">
-        <v>95.22</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="FO38" t="inlineStr">
         <is>
@@ -20317,7 +20289,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FQ38" t="n">
-        <v>489.3600000000001</v>
+        <v>489.1599999999994</v>
       </c>
       <c r="FR38" t="b">
         <v>1</v>
@@ -20824,7 +20796,7 @@
         <v>0.01</v>
       </c>
       <c r="FN39" t="n">
-        <v>58.41</v>
+        <v>58.37</v>
       </c>
       <c r="FO39" t="inlineStr">
         <is>
@@ -20835,7 +20807,7 @@
         <v>0.71875</v>
       </c>
       <c r="FQ39" t="n">
-        <v>547.7700000000001</v>
+        <v>547.5299999999994</v>
       </c>
       <c r="FR39" t="b">
         <v>1</v>
@@ -21342,7 +21314,7 @@
         <v>0.01</v>
       </c>
       <c r="FN40" t="n">
-        <v>-317.24</v>
+        <v>-317.04</v>
       </c>
       <c r="FO40" t="inlineStr">
         <is>
@@ -21353,7 +21325,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FQ40" t="n">
-        <v>230.5300000000001</v>
+        <v>230.4899999999994</v>
       </c>
       <c r="FR40" t="b">
         <v>0</v>
@@ -21828,9 +21800,7 @@
       <c r="FB41" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC41" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC41" t="inlineStr"/>
       <c r="FD41" t="b">
         <v>0</v>
       </c>
@@ -21860,7 +21830,7 @@
         <v>0.01</v>
       </c>
       <c r="FN41" t="n">
-        <v>-216.33</v>
+        <v>-216.2</v>
       </c>
       <c r="FO41" t="inlineStr">
         <is>
@@ -21871,7 +21841,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FQ41" t="n">
-        <v>14.20000000000007</v>
+        <v>14.2899999999994</v>
       </c>
       <c r="FR41" t="b">
         <v>0</v>
@@ -22382,7 +22352,7 @@
         <v>0.01</v>
       </c>
       <c r="FN42" t="n">
-        <v>-135.6</v>
+        <v>-135.52</v>
       </c>
       <c r="FO42" t="inlineStr">
         <is>
@@ -22393,7 +22363,7 @@
         <v>0.3645833333333333</v>
       </c>
       <c r="FQ42" t="n">
-        <v>-121.3999999999999</v>
+        <v>-121.2300000000006</v>
       </c>
       <c r="FR42" t="b">
         <v>0</v>
@@ -22870,9 +22840,7 @@
       <c r="FB43" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC43" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC43" t="inlineStr"/>
       <c r="FD43" t="b">
         <v>0</v>
       </c>
@@ -22902,7 +22870,7 @@
         <v>0.01</v>
       </c>
       <c r="FN43" t="n">
-        <v>-148.35</v>
+        <v>-148.26</v>
       </c>
       <c r="FO43" t="inlineStr">
         <is>
@@ -22913,7 +22881,7 @@
         <v>2.302083333333333</v>
       </c>
       <c r="FQ43" t="n">
-        <v>-269.7499999999999</v>
+        <v>-269.4900000000006</v>
       </c>
       <c r="FR43" t="b">
         <v>0</v>
@@ -23420,7 +23388,7 @@
         <v>0.01</v>
       </c>
       <c r="FN44" t="n">
-        <v>863.33</v>
+        <v>862.84</v>
       </c>
       <c r="FO44" t="inlineStr">
         <is>
@@ -23431,7 +23399,7 @@
         <v>1.125</v>
       </c>
       <c r="FQ44" t="n">
-        <v>593.5800000000002</v>
+        <v>593.3499999999995</v>
       </c>
       <c r="FR44" t="b">
         <v>1</v>
@@ -23908,9 +23876,7 @@
       <c r="FB45" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC45" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC45" t="inlineStr"/>
       <c r="FD45" t="b">
         <v>0</v>
       </c>
@@ -23940,7 +23906,7 @@
         <v>0.01</v>
       </c>
       <c r="FN45" t="n">
-        <v>-501.34</v>
+        <v>-501.04</v>
       </c>
       <c r="FO45" t="inlineStr">
         <is>
@@ -23951,7 +23917,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FQ45" t="n">
-        <v>92.24000000000018</v>
+        <v>92.30999999999943</v>
       </c>
       <c r="FR45" t="b">
         <v>0</v>
@@ -24428,9 +24394,7 @@
       <c r="FB46" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC46" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC46" t="inlineStr"/>
       <c r="FD46" t="b">
         <v>0</v>
       </c>
@@ -24460,7 +24424,7 @@
         <v>0.01</v>
       </c>
       <c r="FN46" t="n">
-        <v>-208.71</v>
+        <v>-208.59</v>
       </c>
       <c r="FO46" t="inlineStr">
         <is>
@@ -24471,7 +24435,7 @@
         <v>0.5</v>
       </c>
       <c r="FQ46" t="n">
-        <v>-116.4699999999998</v>
+        <v>-116.2800000000006</v>
       </c>
       <c r="FR46" t="b">
         <v>0</v>
@@ -24950,9 +24914,7 @@
       <c r="FB47" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC47" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC47" t="inlineStr"/>
       <c r="FD47" t="b">
         <v>0</v>
       </c>
@@ -24982,7 +24944,7 @@
         <v>0.01</v>
       </c>
       <c r="FN47" t="n">
-        <v>82.65000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="FO47" t="inlineStr">
         <is>
@@ -24993,7 +24955,7 @@
         <v>0.3854166666666667</v>
       </c>
       <c r="FQ47" t="n">
-        <v>-33.81999999999982</v>
+        <v>-33.68000000000058</v>
       </c>
       <c r="FR47" t="b">
         <v>1</v>
@@ -25504,7 +25466,7 @@
         <v>0.01</v>
       </c>
       <c r="FN48" t="n">
-        <v>-110.82</v>
+        <v>-110.75</v>
       </c>
       <c r="FO48" t="inlineStr">
         <is>
@@ -25515,7 +25477,7 @@
         <v>0.2083333333333333</v>
       </c>
       <c r="FQ48" t="n">
-        <v>-144.6399999999998</v>
+        <v>-144.4300000000006</v>
       </c>
       <c r="FR48" t="b">
         <v>0</v>
@@ -25992,9 +25954,7 @@
       <c r="FB49" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC49" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC49" t="inlineStr"/>
       <c r="FD49" t="b">
         <v>0</v>
       </c>
@@ -26024,7 +25984,7 @@
         <v>0.01</v>
       </c>
       <c r="FN49" t="n">
-        <v>-198.8</v>
+        <v>-198.68</v>
       </c>
       <c r="FO49" t="inlineStr">
         <is>
@@ -26035,7 +25995,7 @@
         <v>0.1979166666666667</v>
       </c>
       <c r="FQ49" t="n">
-        <v>-343.4399999999998</v>
+        <v>-343.1100000000006</v>
       </c>
       <c r="FR49" t="b">
         <v>0</v>
@@ -26512,9 +26472,7 @@
       <c r="FB50" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC50" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC50" t="inlineStr"/>
       <c r="FD50" t="b">
         <v>0</v>
       </c>
@@ -26544,7 +26502,7 @@
         <v>0.01</v>
       </c>
       <c r="FN50" t="n">
-        <v>-18.41</v>
+        <v>-18.4</v>
       </c>
       <c r="FO50" t="inlineStr">
         <is>
@@ -26555,7 +26513,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FQ50" t="n">
-        <v>-361.8499999999999</v>
+        <v>-361.5100000000006</v>
       </c>
       <c r="FR50" t="b">
         <v>0</v>
@@ -27032,9 +26990,7 @@
       <c r="FB51" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC51" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC51" t="inlineStr"/>
       <c r="FD51" t="b">
         <v>0</v>
       </c>
@@ -27064,7 +27020,7 @@
         <v>0.01</v>
       </c>
       <c r="FN51" t="n">
-        <v>31.5</v>
+        <v>31.49</v>
       </c>
       <c r="FO51" t="inlineStr">
         <is>
@@ -27075,7 +27031,7 @@
         <v>0.2291666666666667</v>
       </c>
       <c r="FQ51" t="n">
-        <v>-330.3499999999999</v>
+        <v>-330.0200000000006</v>
       </c>
       <c r="FR51" t="b">
         <v>1</v>
@@ -27597,7 +27553,7 @@
         <v>0.3020833333333333</v>
       </c>
       <c r="FQ52" t="n">
-        <v>-335.4799999999998</v>
+        <v>-335.1500000000005</v>
       </c>
       <c r="FR52" t="b">
         <v>0</v>
@@ -28072,9 +28028,7 @@
       <c r="FB53" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC53" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC53" t="inlineStr"/>
       <c r="FD53" t="b">
         <v>0</v>
       </c>
@@ -28104,7 +28058,7 @@
         <v>0.01</v>
       </c>
       <c r="FN53" t="n">
-        <v>-226.59</v>
+        <v>-226.46</v>
       </c>
       <c r="FO53" t="inlineStr">
         <is>
@@ -28115,7 +28069,7 @@
         <v>0.01041666666666667</v>
       </c>
       <c r="FQ53" t="n">
-        <v>-562.0699999999998</v>
+        <v>-561.6100000000006</v>
       </c>
       <c r="FR53" t="b">
         <v>0</v>
@@ -28592,9 +28546,7 @@
       <c r="FB54" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC54" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC54" t="inlineStr"/>
       <c r="FD54" t="b">
         <v>0</v>
       </c>
@@ -28624,7 +28576,7 @@
         <v>0.01</v>
       </c>
       <c r="FN54" t="n">
-        <v>-247.84</v>
+        <v>-247.69</v>
       </c>
       <c r="FO54" t="inlineStr">
         <is>
@@ -28635,7 +28587,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FQ54" t="n">
-        <v>-809.9099999999999</v>
+        <v>-809.3000000000006</v>
       </c>
       <c r="FR54" t="b">
         <v>0</v>
@@ -29110,9 +29062,7 @@
       <c r="FB55" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC55" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC55" t="inlineStr"/>
       <c r="FD55" t="b">
         <v>0</v>
       </c>
@@ -29142,7 +29092,7 @@
         <v>0.01</v>
       </c>
       <c r="FN55" t="n">
-        <v>5.49</v>
+        <v>5.48</v>
       </c>
       <c r="FO55" t="inlineStr">
         <is>
@@ -29153,7 +29103,7 @@
         <v>0.2916666666666667</v>
       </c>
       <c r="FQ55" t="n">
-        <v>-804.4199999999998</v>
+        <v>-803.8200000000006</v>
       </c>
       <c r="FR55" t="b">
         <v>1</v>
@@ -29666,7 +29616,7 @@
         <v>0.01</v>
       </c>
       <c r="FN56" t="n">
-        <v>-352.1</v>
+        <v>-351.9</v>
       </c>
       <c r="FO56" t="inlineStr">
         <is>
@@ -29677,7 +29627,7 @@
         <v>0.02083333333333333</v>
       </c>
       <c r="FQ56" t="n">
-        <v>-1156.52</v>
+        <v>-1155.720000000001</v>
       </c>
       <c r="FR56" t="b">
         <v>0</v>
@@ -30156,9 +30106,7 @@
       <c r="FB57" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC57" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC57" t="inlineStr"/>
       <c r="FD57" t="b">
         <v>0</v>
       </c>
@@ -30188,7 +30136,7 @@
         <v>0.01</v>
       </c>
       <c r="FN57" t="n">
-        <v>-210.66</v>
+        <v>-210.54</v>
       </c>
       <c r="FO57" t="inlineStr">
         <is>
@@ -30199,7 +30147,7 @@
         <v>0.4166666666666667</v>
       </c>
       <c r="FQ57" t="n">
-        <v>-1367.18</v>
+        <v>-1366.260000000001</v>
       </c>
       <c r="FR57" t="b">
         <v>0</v>
@@ -30710,7 +30658,7 @@
         <v>0.01</v>
       </c>
       <c r="FN58" t="n">
-        <v>-89.04000000000001</v>
+        <v>-88.98999999999999</v>
       </c>
       <c r="FO58" t="inlineStr">
         <is>
@@ -30721,7 +30669,7 @@
         <v>0.09375</v>
       </c>
       <c r="FQ58" t="n">
-        <v>-1456.22</v>
+        <v>-1455.250000000001</v>
       </c>
       <c r="FR58" t="b">
         <v>0</v>
@@ -31200,9 +31148,7 @@
       <c r="FB59" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC59" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC59" t="inlineStr"/>
       <c r="FD59" t="b">
         <v>0</v>
       </c>
@@ -31232,7 +31178,7 @@
         <v>0.01</v>
       </c>
       <c r="FN59" t="n">
-        <v>129.38</v>
+        <v>129.3</v>
       </c>
       <c r="FO59" t="inlineStr">
         <is>
@@ -31243,7 +31189,7 @@
         <v>0.4583333333333333</v>
       </c>
       <c r="FQ59" t="n">
-        <v>-1326.84</v>
+        <v>-1325.950000000001</v>
       </c>
       <c r="FR59" t="b">
         <v>1</v>
@@ -31754,7 +31700,7 @@
         <v>0.01</v>
       </c>
       <c r="FN60" t="n">
-        <v>38.94</v>
+        <v>38.91</v>
       </c>
       <c r="FO60" t="inlineStr">
         <is>
@@ -31765,7 +31711,7 @@
         <v>0.2604166666666667</v>
       </c>
       <c r="FQ60" t="n">
-        <v>-1287.9</v>
+        <v>-1287.040000000001</v>
       </c>
       <c r="FR60" t="b">
         <v>1</v>
@@ -32242,9 +32188,7 @@
       <c r="FB61" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC61" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC61" t="inlineStr"/>
       <c r="FD61" t="b">
         <v>0</v>
       </c>
@@ -32274,7 +32218,7 @@
         <v>0.01</v>
       </c>
       <c r="FN61" t="n">
-        <v>-78.78</v>
+        <v>-78.73</v>
       </c>
       <c r="FO61" t="inlineStr">
         <is>
@@ -32285,7 +32229,7 @@
         <v>2.104166666666667</v>
       </c>
       <c r="FQ61" t="n">
-        <v>-1366.68</v>
+        <v>-1365.770000000001</v>
       </c>
       <c r="FR61" t="b">
         <v>0</v>
@@ -32792,7 +32736,7 @@
         <v>0.01</v>
       </c>
       <c r="FN62" t="n">
-        <v>47.96</v>
+        <v>47.94</v>
       </c>
       <c r="FO62" t="inlineStr">
         <is>
@@ -32803,7 +32747,7 @@
         <v>0.3541666666666667</v>
       </c>
       <c r="FQ62" t="n">
-        <v>-1318.72</v>
+        <v>-1317.830000000001</v>
       </c>
       <c r="FR62" t="b">
         <v>1</v>
@@ -33282,9 +33226,7 @@
       <c r="FB63" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC63" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC63" t="inlineStr"/>
       <c r="FD63" t="b">
         <v>0</v>
       </c>
@@ -33314,7 +33256,7 @@
         <v>0.01</v>
       </c>
       <c r="FN63" t="n">
-        <v>-23.9</v>
+        <v>-23.88</v>
       </c>
       <c r="FO63" t="inlineStr">
         <is>
@@ -33325,7 +33267,7 @@
         <v>0.2708333333333333</v>
       </c>
       <c r="FQ63" t="n">
-        <v>-1342.62</v>
+        <v>-1341.710000000001</v>
       </c>
       <c r="FR63" t="b">
         <v>0</v>
@@ -33834,7 +33776,7 @@
         <v>0.01</v>
       </c>
       <c r="FN64" t="n">
-        <v>-235.8</v>
+        <v>-235.66</v>
       </c>
       <c r="FO64" t="inlineStr">
         <is>
@@ -33845,7 +33787,7 @@
         <v>0.125</v>
       </c>
       <c r="FQ64" t="n">
-        <v>-1578.42</v>
+        <v>-1577.370000000001</v>
       </c>
       <c r="FR64" t="b">
         <v>0</v>
@@ -34322,9 +34264,7 @@
       <c r="FB65" t="n">
         <v>0.01</v>
       </c>
-      <c r="FC65" s="2" t="n">
-        <v>132320.9911673006</v>
-      </c>
+      <c r="FC65" t="inlineStr"/>
       <c r="FD65" t="b">
         <v>0</v>
       </c>
@@ -34354,7 +34294,7 @@
         <v>0.01</v>
       </c>
       <c r="FN65" t="n">
-        <v>-133.65</v>
+        <v>-133.58</v>
       </c>
       <c r="FO65" t="inlineStr">
         <is>
@@ -34365,7 +34305,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="FQ65" t="n">
-        <v>-1712.07</v>
+        <v>-1710.950000000001</v>
       </c>
       <c r="FR65" t="b">
         <v>0</v>
@@ -34876,7 +34816,7 @@
         <v>0.01</v>
       </c>
       <c r="FN66" t="n">
-        <v>534.3099999999999</v>
+        <v>534.02</v>
       </c>
       <c r="FO66" t="inlineStr">
         <is>
@@ -34887,7 +34827,7 @@
         <v>0.7314120370370371</v>
       </c>
       <c r="FQ66" t="n">
-        <v>-1177.76</v>
+        <v>-1176.930000000001</v>
       </c>
       <c r="FR66" t="b">
         <v>1</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -5374,7 +5374,7 @@
         <v>2428.48</v>
       </c>
       <c r="DC12" t="n">
-        <v>2278.48</v>
+        <v>2298.48</v>
       </c>
       <c r="DD12" t="n">
         <v>2340.48</v>
@@ -5396,7 +5396,7 @@
       <c r="DK12" t="inlineStr"/>
       <c r="DL12" t="inlineStr"/>
       <c r="DM12" s="3" t="n">
-        <v>45415.69135416667</v>
+        <v>45412.73113425926</v>
       </c>
       <c r="DN12" s="3" t="n">
         <v>45411.29166666666</v>
@@ -5405,14 +5405,14 @@
         <v>2328.48</v>
       </c>
       <c r="DP12" s="3" t="n">
-        <v>45413.83333333334</v>
+        <v>45412.73113425926</v>
       </c>
       <c r="DQ12" t="n">
-        <v>2303.7</v>
+        <v>2298.4</v>
       </c>
       <c r="DR12" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="DS12" t="n">
@@ -5424,13 +5424,13 @@
         </is>
       </c>
       <c r="DU12" t="n">
-        <v>-438.09</v>
+        <v>-531.79</v>
       </c>
       <c r="DV12" s="4" t="n">
-        <v>2.541666666666667</v>
+        <v>1.439467592592593</v>
       </c>
       <c r="DW12" t="n">
-        <v>2510.25</v>
+        <v>2416.55</v>
       </c>
       <c r="DX12" t="b">
         <v>0</v>
@@ -5764,7 +5764,7 @@
         <v>2203.71</v>
       </c>
       <c r="DC13" t="n">
-        <v>2353.71</v>
+        <v>2333.71</v>
       </c>
       <c r="DD13" t="n">
         <v>2291.71</v>
@@ -5785,7 +5785,9 @@
       </c>
       <c r="DK13" t="inlineStr"/>
       <c r="DL13" t="inlineStr"/>
-      <c r="DM13" t="inlineStr"/>
+      <c r="DM13" s="3" t="n">
+        <v>45421.71818287037</v>
+      </c>
       <c r="DN13" s="3" t="n">
         <v>45413.83333333334</v>
       </c>
@@ -5818,7 +5820,7 @@
         <v>5.75</v>
       </c>
       <c r="DW13" t="n">
-        <v>2305.17</v>
+        <v>2211.47</v>
       </c>
       <c r="DX13" t="b">
         <v>0</v>
@@ -6212,7 +6214,7 @@
         <v>0.7638888888888888</v>
       </c>
       <c r="DW14" t="n">
-        <v>2522.08</v>
+        <v>2428.38</v>
       </c>
       <c r="DX14" t="b">
         <v>1</v>
@@ -6546,7 +6548,7 @@
         <v>2209.31</v>
       </c>
       <c r="DC15" t="n">
-        <v>2359.31</v>
+        <v>2339.31</v>
       </c>
       <c r="DD15" t="n">
         <v>2297.31</v>
@@ -6568,7 +6570,7 @@
       <c r="DK15" t="inlineStr"/>
       <c r="DL15" t="inlineStr"/>
       <c r="DM15" s="3" t="n">
-        <v>45422.38353009259</v>
+        <v>45421.94238425926</v>
       </c>
       <c r="DN15" s="3" t="n">
         <v>45418.29166666666</v>
@@ -6602,7 +6604,7 @@
         <v>1.291666666666667</v>
       </c>
       <c r="DW15" t="n">
-        <v>2416</v>
+        <v>2322.3</v>
       </c>
       <c r="DX15" t="b">
         <v>0</v>
@@ -6996,7 +6998,7 @@
         <v>3.164212962962963</v>
       </c>
       <c r="DW16" t="n">
-        <v>3195.57</v>
+        <v>3101.87</v>
       </c>
       <c r="DX16" t="b">
         <v>1</v>
@@ -7390,7 +7392,7 @@
         <v>3.080706018518518</v>
       </c>
       <c r="DW17" t="n">
-        <v>3972.67</v>
+        <v>3878.97</v>
       </c>
       <c r="DX17" t="b">
         <v>1</v>
@@ -7786,7 +7788,7 @@
         <v>1.537280092592593</v>
       </c>
       <c r="DW18" t="n">
-        <v>4190.11</v>
+        <v>4096.41</v>
       </c>
       <c r="DX18" t="b">
         <v>1</v>
@@ -8184,7 +8186,7 @@
         <v>1.208333333333333</v>
       </c>
       <c r="DW19" t="n">
-        <v>4270.059999999999</v>
+        <v>4176.36</v>
       </c>
       <c r="DX19" t="b">
         <v>1</v>
@@ -8518,7 +8520,7 @@
         <v>2247.81</v>
       </c>
       <c r="DC20" t="n">
-        <v>2397.81</v>
+        <v>2377.81</v>
       </c>
       <c r="DD20" t="n">
         <v>2335.81</v>
@@ -8540,7 +8542,7 @@
       <c r="DK20" t="inlineStr"/>
       <c r="DL20" t="inlineStr"/>
       <c r="DM20" s="3" t="n">
-        <v>45429.66866898148</v>
+        <v>45427.64612268518</v>
       </c>
       <c r="DN20" s="3" t="n">
         <v>45426.79166666666</v>
@@ -8549,14 +8551,14 @@
         <v>2347.81</v>
       </c>
       <c r="DP20" s="3" t="n">
-        <v>45428.79166666666</v>
+        <v>45427.64612268518</v>
       </c>
       <c r="DQ20" t="n">
-        <v>2381.49</v>
+        <v>2377.67</v>
       </c>
       <c r="DR20" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="DS20" t="n">
@@ -8568,13 +8570,13 @@
         </is>
       </c>
       <c r="DU20" t="n">
-        <v>-595.4400000000001</v>
+        <v>-527.9</v>
       </c>
       <c r="DV20" s="4" t="n">
-        <v>2</v>
+        <v>0.8544560185185185</v>
       </c>
       <c r="DW20" t="n">
-        <v>3674.619999999999</v>
+        <v>3648.46</v>
       </c>
       <c r="DX20" t="b">
         <v>0</v>
@@ -8968,7 +8970,7 @@
         <v>3.609849537037037</v>
       </c>
       <c r="DW21" t="n">
-        <v>4593.259999999999</v>
+        <v>4567.099999999999</v>
       </c>
       <c r="DX21" t="b">
         <v>1</v>
@@ -9362,7 +9364,7 @@
         <v>2.25</v>
       </c>
       <c r="DW22" t="n">
-        <v>4531.739999999999</v>
+        <v>4505.579999999999</v>
       </c>
       <c r="DX22" t="b">
         <v>0</v>
@@ -9756,7 +9758,7 @@
         <v>1.791666666666667</v>
       </c>
       <c r="DW23" t="n">
-        <v>4635.869999999999</v>
+        <v>4609.709999999999</v>
       </c>
       <c r="DX23" t="b">
         <v>1</v>
@@ -10090,13 +10092,13 @@
         <v>2446.4</v>
       </c>
       <c r="DC24" t="n">
-        <v>2366.4</v>
+        <v>2316.4</v>
       </c>
       <c r="DD24" t="n">
-        <v>2374.4</v>
+        <v>2358.4</v>
       </c>
       <c r="DE24" t="n">
-        <v>2381.4</v>
+        <v>2361.4</v>
       </c>
       <c r="DF24" t="n">
         <v>0</v>
@@ -10108,15 +10110,17 @@
         <v>45449.20833333334</v>
       </c>
       <c r="DI24" s="3" t="n">
-        <v>45449.25</v>
+        <v>45449.20833333334</v>
       </c>
       <c r="DJ24" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="DK24" s="3" t="n">
+        <v>45449.20833333334</v>
+      </c>
       <c r="DL24" t="inlineStr"/>
       <c r="DM24" s="3" t="n">
-        <v>45449.36994212963</v>
+        <v>45446.36391203704</v>
       </c>
       <c r="DN24" s="3" t="n">
         <v>45441.58333333334</v>
@@ -10150,7 +10154,7 @@
         <v>1.166666666666667</v>
       </c>
       <c r="DW24" t="n">
-        <v>4593.789999999999</v>
+        <v>4567.629999999999</v>
       </c>
       <c r="DX24" t="b">
         <v>0</v>
@@ -10546,7 +10550,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="DW25" t="n">
-        <v>4792.699999999999</v>
+        <v>4766.539999999999</v>
       </c>
       <c r="DX25" t="b">
         <v>1</v>
@@ -10942,7 +10946,7 @@
         <v>2.875</v>
       </c>
       <c r="DW26" t="n">
-        <v>4835.229999999999</v>
+        <v>4809.069999999999</v>
       </c>
       <c r="DX26" t="b">
         <v>1</v>
@@ -11338,7 +11342,7 @@
         <v>0.9583333333333334</v>
       </c>
       <c r="DW27" t="n">
-        <v>4803.049999999998</v>
+        <v>4776.889999999999</v>
       </c>
       <c r="DX27" t="b">
         <v>0</v>
@@ -11734,7 +11738,7 @@
         <v>1.781018518518519</v>
       </c>
       <c r="DW28" t="n">
-        <v>5300.409999999998</v>
+        <v>5274.249999999998</v>
       </c>
       <c r="DX28" t="b">
         <v>1</v>
@@ -12068,7 +12072,7 @@
         <v>2211.81</v>
       </c>
       <c r="DC29" t="n">
-        <v>2361.81</v>
+        <v>2341.81</v>
       </c>
       <c r="DD29" t="n">
         <v>2299.81</v>
@@ -12122,7 +12126,7 @@
         <v>6.583333333333333</v>
       </c>
       <c r="DW29" t="n">
-        <v>5211.309999999998</v>
+        <v>5185.149999999998</v>
       </c>
       <c r="DX29" t="b">
         <v>0</v>
@@ -12516,7 +12520,7 @@
         <v>2.126793981481482</v>
       </c>
       <c r="DW30" t="n">
-        <v>5426.099999999998</v>
+        <v>5399.939999999998</v>
       </c>
       <c r="DX30" t="b">
         <v>1</v>
@@ -12910,7 +12914,7 @@
         <v>2.791666666666667</v>
       </c>
       <c r="DW31" t="n">
-        <v>5662.779999999998</v>
+        <v>5636.619999999998</v>
       </c>
       <c r="DX31" t="b">
         <v>1</v>
@@ -13306,7 +13310,7 @@
         <v>2.063067129629629</v>
       </c>
       <c r="DW32" t="n">
-        <v>5875.629999999998</v>
+        <v>5849.469999999998</v>
       </c>
       <c r="DX32" t="b">
         <v>1</v>
@@ -13700,7 +13704,7 @@
         <v>1.892222222222222</v>
       </c>
       <c r="DW33" t="n">
-        <v>6376.159999999998</v>
+        <v>6349.999999999998</v>
       </c>
       <c r="DX33" t="b">
         <v>1</v>
@@ -14034,7 +14038,7 @@
         <v>2227.45</v>
       </c>
       <c r="DC34" t="n">
-        <v>2377.45</v>
+        <v>2357.45</v>
       </c>
       <c r="DD34" t="n">
         <v>2315.45</v>
@@ -14056,7 +14060,7 @@
       <c r="DK34" t="inlineStr"/>
       <c r="DL34" t="inlineStr"/>
       <c r="DM34" s="3" t="n">
-        <v>45478.67414351852</v>
+        <v>45476.69688657407</v>
       </c>
       <c r="DN34" s="3" t="n">
         <v>45470.79166666666</v>
@@ -14065,10 +14069,10 @@
         <v>2327.45</v>
       </c>
       <c r="DP34" s="3" t="n">
-        <v>45478.67414351852</v>
+        <v>45476.69688657407</v>
       </c>
       <c r="DQ34" t="n">
-        <v>2377.4</v>
+        <v>2357.1</v>
       </c>
       <c r="DR34" t="inlineStr">
         <is>
@@ -14084,13 +14088,13 @@
         </is>
       </c>
       <c r="DU34" t="n">
-        <v>-883.08</v>
+        <v>-524.1900000000001</v>
       </c>
       <c r="DV34" s="4" t="n">
-        <v>7.882476851851852</v>
+        <v>5.905219907407408</v>
       </c>
       <c r="DW34" t="n">
-        <v>5493.079999999998</v>
+        <v>5825.809999999998</v>
       </c>
       <c r="DX34" t="b">
         <v>0</v>
@@ -14486,7 +14490,7 @@
         <v>3.846331018518518</v>
       </c>
       <c r="DW35" t="n">
-        <v>5987.079999999998</v>
+        <v>6319.809999999998</v>
       </c>
       <c r="DX35" t="b">
         <v>1</v>
@@ -14882,7 +14886,7 @@
         <v>0.2920949074074074</v>
       </c>
       <c r="DW36" t="n">
-        <v>6199.929999999998</v>
+        <v>6532.659999999998</v>
       </c>
       <c r="DX36" t="b">
         <v>1</v>
@@ -15278,7 +15282,7 @@
         <v>3.138564814814815</v>
       </c>
       <c r="DW37" t="n">
-        <v>6561.029999999999</v>
+        <v>6893.759999999998</v>
       </c>
       <c r="DX37" t="b">
         <v>1</v>
@@ -15612,7 +15616,7 @@
         <v>2557.87</v>
       </c>
       <c r="DC38" t="n">
-        <v>2407.87</v>
+        <v>2427.87</v>
       </c>
       <c r="DD38" t="n">
         <v>2469.87</v>
@@ -15634,7 +15638,7 @@
       <c r="DK38" t="inlineStr"/>
       <c r="DL38" t="inlineStr"/>
       <c r="DM38" s="3" t="n">
-        <v>45492.62677083333</v>
+        <v>45492.13766203704</v>
       </c>
       <c r="DN38" s="3" t="n">
         <v>45490.91666666666</v>
@@ -15643,10 +15647,10 @@
         <v>2457.87</v>
       </c>
       <c r="DP38" s="3" t="n">
-        <v>45492.62677083333</v>
+        <v>45492.13766203704</v>
       </c>
       <c r="DQ38" t="n">
-        <v>2407.88</v>
+        <v>2428.03</v>
       </c>
       <c r="DR38" t="inlineStr">
         <is>
@@ -15662,13 +15666,13 @@
         </is>
       </c>
       <c r="DU38" t="n">
-        <v>-883.79</v>
+        <v>-527.55</v>
       </c>
       <c r="DV38" s="4" t="n">
-        <v>1.710104166666667</v>
+        <v>1.22099537037037</v>
       </c>
       <c r="DW38" t="n">
-        <v>5677.239999999999</v>
+        <v>6366.209999999998</v>
       </c>
       <c r="DX38" t="b">
         <v>0</v>
@@ -16064,7 +16068,7 @@
         <v>1.5</v>
       </c>
       <c r="DW39" t="n">
-        <v>5850.909999999999</v>
+        <v>6539.879999999998</v>
       </c>
       <c r="DX39" t="b">
         <v>1</v>
@@ -16398,13 +16402,13 @@
         <v>2497.77</v>
       </c>
       <c r="DC40" t="n">
-        <v>2433.77</v>
+        <v>2367.77</v>
       </c>
       <c r="DD40" t="n">
-        <v>2441.77</v>
+        <v>2409.77</v>
       </c>
       <c r="DE40" t="n">
-        <v>2452.77</v>
+        <v>2412.77</v>
       </c>
       <c r="DF40" t="n">
         <v>0</v>
@@ -16416,17 +16420,17 @@
         <v>45504.29166666666</v>
       </c>
       <c r="DI40" s="3" t="n">
-        <v>45504.95833333334</v>
+        <v>45504.29166666666</v>
       </c>
       <c r="DJ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK40" s="3" t="n">
-        <v>45505.70833333334</v>
+        <v>45504.29166666666</v>
       </c>
       <c r="DL40" t="inlineStr"/>
       <c r="DM40" s="3" t="n">
-        <v>45505.48694444444</v>
+        <v>45498.26471064815</v>
       </c>
       <c r="DN40" s="3" t="n">
         <v>45498.08333333334</v>
@@ -16435,14 +16439,14 @@
         <v>2397.77</v>
       </c>
       <c r="DP40" s="3" t="n">
-        <v>45499.875</v>
+        <v>45498.26471064815</v>
       </c>
       <c r="DQ40" t="n">
-        <v>2383.36</v>
+        <v>2367.76</v>
       </c>
       <c r="DR40" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>auto</t>
         </is>
       </c>
       <c r="DS40" t="n">
@@ -16454,13 +16458,13 @@
         </is>
       </c>
       <c r="DU40" t="n">
-        <v>-254.76</v>
+        <v>-530.55</v>
       </c>
       <c r="DV40" s="4" t="n">
-        <v>1.791666666666667</v>
+        <v>0.1813773148148148</v>
       </c>
       <c r="DW40" t="n">
-        <v>5596.149999999999</v>
+        <v>6009.329999999998</v>
       </c>
       <c r="DX40" t="b">
         <v>0</v>
@@ -16794,7 +16798,7 @@
         <v>2283.35</v>
       </c>
       <c r="DC41" t="n">
-        <v>2433.35</v>
+        <v>2413.35</v>
       </c>
       <c r="DD41" t="n">
         <v>2371.35</v>
@@ -16816,7 +16820,7 @@
       <c r="DK41" t="inlineStr"/>
       <c r="DL41" t="inlineStr"/>
       <c r="DM41" s="3" t="n">
-        <v>45504.90931712963</v>
+        <v>45504.25931712963</v>
       </c>
       <c r="DN41" s="3" t="n">
         <v>45499.875</v>
@@ -16850,7 +16854,7 @@
         <v>3</v>
       </c>
       <c r="DW41" t="n">
-        <v>5687.039999999999</v>
+        <v>6100.219999999998</v>
       </c>
       <c r="DX41" t="b">
         <v>1</v>
@@ -17246,7 +17250,7 @@
         <v>0.8333449074074074</v>
       </c>
       <c r="DW42" t="n">
-        <v>5922.129999999999</v>
+        <v>6335.309999999999</v>
       </c>
       <c r="DX42" t="b">
         <v>1</v>
@@ -17640,7 +17644,7 @@
         <v>0.4417476851851852</v>
       </c>
       <c r="DW43" t="n">
-        <v>6133.389999999999</v>
+        <v>6546.569999999999</v>
       </c>
       <c r="DX43" t="b">
         <v>1</v>
@@ -17974,7 +17978,7 @@
         <v>2341.06</v>
       </c>
       <c r="DC44" t="n">
-        <v>2491.06</v>
+        <v>2471.06</v>
       </c>
       <c r="DD44" t="n">
         <v>2429.06</v>
@@ -17996,7 +18000,7 @@
       <c r="DK44" t="inlineStr"/>
       <c r="DL44" t="inlineStr"/>
       <c r="DM44" s="3" t="n">
-        <v>45520.66637731482</v>
+        <v>45520.59671296296</v>
       </c>
       <c r="DN44" s="3" t="n">
         <v>45519.66666666666</v>
@@ -18005,10 +18009,10 @@
         <v>2441.06</v>
       </c>
       <c r="DP44" s="3" t="n">
-        <v>45520.66637731482</v>
+        <v>45520.59671296296</v>
       </c>
       <c r="DQ44" t="n">
-        <v>2491.01</v>
+        <v>2471.07</v>
       </c>
       <c r="DR44" t="inlineStr">
         <is>
@@ -18024,13 +18028,13 @@
         </is>
       </c>
       <c r="DU44" t="n">
-        <v>-883.08</v>
+        <v>-530.55</v>
       </c>
       <c r="DV44" s="4" t="n">
-        <v>0.9997106481481481</v>
+        <v>0.9300462962962963</v>
       </c>
       <c r="DW44" t="n">
-        <v>5250.309999999999</v>
+        <v>6016.019999999999</v>
       </c>
       <c r="DX44" t="b">
         <v>0</v>
@@ -18424,7 +18428,7 @@
         <v>1.016921296296296</v>
       </c>
       <c r="DW45" t="n">
-        <v>5745.9</v>
+        <v>6511.609999999999</v>
       </c>
       <c r="DX45" t="b">
         <v>1</v>
@@ -18758,13 +18762,13 @@
         <v>2608.43</v>
       </c>
       <c r="DC46" t="n">
+        <v>2478.43</v>
+      </c>
+      <c r="DD46" t="n">
         <v>2520.43</v>
       </c>
-      <c r="DD46" t="n">
-        <v>2528.43</v>
-      </c>
       <c r="DE46" t="n">
-        <v>2533.43</v>
+        <v>2523.43</v>
       </c>
       <c r="DF46" t="n">
         <v>0</v>
@@ -18779,12 +18783,14 @@
         <v>45530.5</v>
       </c>
       <c r="DJ46" t="b">
-        <v>1</v>
-      </c>
-      <c r="DK46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="DK46" s="3" t="n">
+        <v>45530.5</v>
+      </c>
       <c r="DL46" t="inlineStr"/>
       <c r="DM46" s="3" t="n">
-        <v>45530.69998842593</v>
+        <v>45526.71599537037</v>
       </c>
       <c r="DN46" s="3" t="n">
         <v>45525.79166666666</v>
@@ -18793,10 +18799,10 @@
         <v>2508.43</v>
       </c>
       <c r="DP46" s="3" t="n">
-        <v>45530.69998842593</v>
+        <v>45526.71599537037</v>
       </c>
       <c r="DQ46" t="n">
-        <v>2520.74</v>
+        <v>2478.5</v>
       </c>
       <c r="DR46" t="inlineStr">
         <is>
@@ -18808,26 +18814,26 @@
       </c>
       <c r="DT46" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="DU46" t="n">
-        <v>217.26</v>
+        <v>-529.14</v>
       </c>
       <c r="DV46" s="4" t="n">
-        <v>4.908321759259259</v>
+        <v>0.9243287037037037</v>
       </c>
       <c r="DW46" t="n">
-        <v>5963.16</v>
+        <v>5982.469999999998</v>
       </c>
       <c r="DX46" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY46" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ46" t="n">
         <v>1</v>
-      </c>
-      <c r="DY46" t="n">
-        <v>2</v>
-      </c>
-      <c r="DZ46" t="n">
-        <v>0</v>
       </c>
       <c r="EA46" t="n">
         <v>34</v>
@@ -19212,13 +19218,13 @@
         <v>0.878900462962963</v>
       </c>
       <c r="DW47" t="n">
-        <v>6163.83</v>
+        <v>6183.139999999999</v>
       </c>
       <c r="DX47" t="b">
         <v>1</v>
       </c>
       <c r="DY47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="DZ47" t="n">
         <v>0</v>
@@ -19608,13 +19614,13 @@
         <v>1.560590277777778</v>
       </c>
       <c r="DW48" t="n">
-        <v>6375.97</v>
+        <v>6395.279999999999</v>
       </c>
       <c r="DX48" t="b">
         <v>1</v>
       </c>
       <c r="DY48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="DZ48" t="n">
         <v>0</v>
@@ -20004,13 +20010,13 @@
         <v>3.739513888888889</v>
       </c>
       <c r="DW49" t="n">
-        <v>6588.64</v>
+        <v>6607.949999999999</v>
       </c>
       <c r="DX49" t="b">
         <v>1</v>
       </c>
       <c r="DY49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="DZ49" t="n">
         <v>0</v>
@@ -20400,13 +20406,13 @@
         <v>2.958333333333333</v>
       </c>
       <c r="DW50" t="n">
-        <v>6684.650000000001</v>
+        <v>6703.959999999999</v>
       </c>
       <c r="DX50" t="b">
         <v>1</v>
       </c>
       <c r="DY50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="DZ50" t="n">
         <v>0</v>
@@ -20734,7 +20740,7 @@
         <v>2399.96</v>
       </c>
       <c r="DC51" t="n">
-        <v>2549.96</v>
+        <v>2529.96</v>
       </c>
       <c r="DD51" t="n">
         <v>2487.96</v>
@@ -20756,7 +20762,7 @@
       <c r="DK51" t="inlineStr"/>
       <c r="DL51" t="inlineStr"/>
       <c r="DM51" s="3" t="n">
-        <v>45547.6981712963</v>
+        <v>45547.65684027778</v>
       </c>
       <c r="DN51" s="3" t="n">
         <v>45544.875</v>
@@ -20790,7 +20796,7 @@
         <v>1.833333333333333</v>
       </c>
       <c r="DW51" t="n">
-        <v>6515.990000000001</v>
+        <v>6535.299999999999</v>
       </c>
       <c r="DX51" t="b">
         <v>0</v>
@@ -21124,7 +21130,7 @@
         <v>2407.01</v>
       </c>
       <c r="DC52" t="n">
-        <v>2557.01</v>
+        <v>2537.01</v>
       </c>
       <c r="DD52" t="n">
         <v>2495.01</v>
@@ -21146,7 +21152,7 @@
       <c r="DK52" t="inlineStr"/>
       <c r="DL52" t="inlineStr"/>
       <c r="DM52" s="3" t="n">
-        <v>45547.9027662037</v>
+        <v>45547.67309027778</v>
       </c>
       <c r="DN52" s="3" t="n">
         <v>45545.70833333334</v>
@@ -21180,7 +21186,7 @@
         <v>1</v>
       </c>
       <c r="DW52" t="n">
-        <v>6471.97</v>
+        <v>6491.279999999999</v>
       </c>
       <c r="DX52" t="b">
         <v>0</v>
@@ -21574,7 +21580,7 @@
         <v>5.944155092592593</v>
       </c>
       <c r="DW53" t="n">
-        <v>7536.04</v>
+        <v>7555.349999999999</v>
       </c>
       <c r="DX53" t="b">
         <v>1</v>
@@ -21970,7 +21976,7 @@
         <v>3.357546296296296</v>
       </c>
       <c r="DW54" t="n">
-        <v>8034.809999999999</v>
+        <v>8054.119999999999</v>
       </c>
       <c r="DX54" t="b">
         <v>1</v>
@@ -22304,13 +22310,13 @@
         <v>2679.55</v>
       </c>
       <c r="DC55" t="n">
-        <v>2607.55</v>
+        <v>2549.55</v>
       </c>
       <c r="DD55" t="n">
-        <v>2615.55</v>
+        <v>2591.55</v>
       </c>
       <c r="DE55" t="n">
-        <v>2624.55</v>
+        <v>2594.55</v>
       </c>
       <c r="DF55" t="n">
         <v>0</v>
@@ -22322,17 +22328,17 @@
         <v>45555.41666666666</v>
       </c>
       <c r="DI55" s="3" t="n">
-        <v>45555.66666666666</v>
+        <v>45555.41666666666</v>
       </c>
       <c r="DJ55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK55" s="3" t="n">
-        <v>45555.83333333334</v>
+        <v>45555.41666666666</v>
       </c>
       <c r="DL55" t="inlineStr"/>
       <c r="DM55" s="3" t="n">
-        <v>45555.68953703704</v>
+        <v>45553.95049768518</v>
       </c>
       <c r="DN55" s="3" t="n">
         <v>45552.625</v>
@@ -22341,10 +22347,10 @@
         <v>2579.55</v>
       </c>
       <c r="DP55" s="3" t="n">
-        <v>45555.68953703704</v>
+        <v>45553.95049768518</v>
       </c>
       <c r="DQ55" t="n">
-        <v>2607.73</v>
+        <v>2549.66</v>
       </c>
       <c r="DR55" t="inlineStr">
         <is>
@@ -22356,26 +22362,26 @@
       </c>
       <c r="DT55" t="inlineStr">
         <is>
-          <t>even</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="DU55" t="n">
-        <v>497.36</v>
+        <v>-528.4299999999999</v>
       </c>
       <c r="DV55" s="4" t="n">
-        <v>3.064537037037037</v>
+        <v>1.325497685185185</v>
       </c>
       <c r="DW55" t="n">
-        <v>8532.17</v>
+        <v>7525.689999999999</v>
       </c>
       <c r="DX55" t="b">
+        <v>0</v>
+      </c>
+      <c r="DY55" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ55" t="n">
         <v>1</v>
-      </c>
-      <c r="DY55" t="n">
-        <v>3</v>
-      </c>
-      <c r="DZ55" t="n">
-        <v>0</v>
       </c>
       <c r="EA55" t="n">
         <v>38</v>
@@ -22760,13 +22766,13 @@
         <v>7.447986111111111</v>
       </c>
       <c r="DW56" t="n">
-        <v>9026</v>
+        <v>8019.519999999999</v>
       </c>
       <c r="DX56" t="b">
         <v>1</v>
       </c>
       <c r="DY56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="DZ56" t="n">
         <v>0</v>
@@ -23156,13 +23162,13 @@
         <v>6.860833333333333</v>
       </c>
       <c r="DW57" t="n">
-        <v>9238.67</v>
+        <v>8232.189999999999</v>
       </c>
       <c r="DX57" t="b">
         <v>1</v>
       </c>
       <c r="DY57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="DZ57" t="n">
         <v>0</v>
@@ -23490,7 +23496,7 @@
         <v>2525.18</v>
       </c>
       <c r="DC58" t="n">
-        <v>2675.18</v>
+        <v>2655.18</v>
       </c>
       <c r="DD58" t="n">
         <v>2613.18</v>
@@ -23512,7 +23518,7 @@
       <c r="DK58" t="inlineStr"/>
       <c r="DL58" t="inlineStr"/>
       <c r="DM58" s="3" t="n">
-        <v>45581.38886574074</v>
+        <v>45576.73778935185</v>
       </c>
       <c r="DN58" s="3" t="n">
         <v>45575.75</v>
@@ -23521,10 +23527,10 @@
         <v>2625.18</v>
       </c>
       <c r="DP58" s="3" t="n">
-        <v>45581.38886574074</v>
+        <v>45576.73778935185</v>
       </c>
       <c r="DQ58" t="n">
-        <v>2675.03</v>
+        <v>2655.12</v>
       </c>
       <c r="DR58" t="inlineStr">
         <is>
@@ -23540,13 +23546,13 @@
         </is>
       </c>
       <c r="DU58" t="n">
-        <v>-881.3099999999999</v>
+        <v>-529.3200000000001</v>
       </c>
       <c r="DV58" s="4" t="n">
-        <v>5.638865740740741</v>
+        <v>0.9877893518518519</v>
       </c>
       <c r="DW58" t="n">
-        <v>8357.360000000001</v>
+        <v>7702.869999999999</v>
       </c>
       <c r="DX58" t="b">
         <v>0</v>
@@ -23942,7 +23948,7 @@
         <v>0.653912037037037</v>
       </c>
       <c r="DW59" t="n">
-        <v>8569.150000000001</v>
+        <v>7914.659999999999</v>
       </c>
       <c r="DX59" t="b">
         <v>1</v>

--- a/filtered_excel_df.xlsx
+++ b/filtered_excel_df.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EB59"/>
+  <dimension ref="A1:ED59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,155 +944,165 @@
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
+          <t>be_increment</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>be_condition_increment</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
           <t>ticket</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>is_buy2</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>is_sell2</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>signal</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>tp</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>sl</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>be</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>be_condition</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>order_type</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>lot</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>first_time_to_trail</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>last_time_to_trail</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>sl_updated</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>time_to_trail</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>time_tp_hit</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>time_sl_hit</t>
         </is>
       </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>entry_time</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>entry_price</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>exit_time</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>exit</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>exit_price</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>exit</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>lot_size</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>duration</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>account_balance</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>win_streak</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>losing_streak</t>
         </is>
       </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>Week</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>Month</t>
         </is>
@@ -1148,16 +1158,16 @@
         <v>2156.179073229293</v>
       </c>
       <c r="Q2" t="n">
-        <v>2172.445015159416</v>
+        <v>2172.445015159424</v>
       </c>
       <c r="R2" t="n">
-        <v>2180.398681691339</v>
+        <v>2180.398681691345</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0003611268582122468</v>
+        <v>-0.0003611268582124107</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0002730785144234319</v>
+        <v>-0.0002730785144235958</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
@@ -1400,97 +1410,103 @@
       <c r="CW2" t="n">
         <v>0</v>
       </c>
-      <c r="CX2" t="inlineStr"/>
-      <c r="CY2" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ2" t="b">
+      <c r="CX2" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ2" t="inlineStr"/>
+      <c r="DA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB2" t="b">
         <v>1</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DC2" t="n">
         <v>1</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DD2" t="n">
         <v>2074.73</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DE2" t="n">
         <v>2162.73</v>
       </c>
-      <c r="DD2" t="n">
+      <c r="DF2" t="n">
         <v>2154.73</v>
       </c>
-      <c r="DE2" t="n">
+      <c r="DG2" t="n">
         <v>2149.73</v>
       </c>
-      <c r="DF2" t="n">
+      <c r="DH2" t="n">
         <v>1</v>
       </c>
-      <c r="DG2" t="n">
+      <c r="DI2" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH2" s="3" t="n">
+      <c r="DJ2" s="3" t="n">
         <v>45365.75</v>
       </c>
-      <c r="DI2" s="3" t="n">
+      <c r="DK2" s="3" t="n">
         <v>45365.75</v>
       </c>
-      <c r="DJ2" t="b">
+      <c r="DL2" t="b">
         <v>1</v>
       </c>
-      <c r="DK2" s="3" t="n">
+      <c r="DM2" s="3" t="n">
         <v>45369.20833333334</v>
       </c>
-      <c r="DL2" t="inlineStr"/>
-      <c r="DM2" s="3" t="n">
+      <c r="DN2" t="inlineStr"/>
+      <c r="DO2" s="3" t="n">
         <v>45365.80224537037</v>
       </c>
-      <c r="DN2" s="3" t="n">
+      <c r="DP2" s="3" t="n">
         <v>45364.875</v>
       </c>
-      <c r="DO2" t="n">
+      <c r="DQ2" t="n">
         <v>2174.73</v>
       </c>
-      <c r="DP2" s="3" t="n">
+      <c r="DR2" s="3" t="n">
         <v>45365.80224537037</v>
       </c>
-      <c r="DQ2" t="n">
+      <c r="DS2" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT2" t="n">
         <v>2162.64</v>
       </c>
-      <c r="DR2" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS2" t="n">
+      <c r="DU2" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT2" t="inlineStr">
+      <c r="DV2" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU2" t="n">
-        <v>213.38</v>
-      </c>
-      <c r="DV2" s="4" t="n">
+      <c r="DW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX2" s="4" t="n">
         <v>0.9272453703703704</v>
       </c>
-      <c r="DW2" t="n">
-        <v>913.38</v>
-      </c>
-      <c r="DX2" t="b">
+      <c r="DY2" t="n">
+        <v>700</v>
+      </c>
+      <c r="DZ2" t="b">
         <v>1</v>
       </c>
-      <c r="DY2" t="n">
+      <c r="EA2" t="n">
         <v>1</v>
       </c>
-      <c r="DZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA2" t="n">
+      <c r="EB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC2" t="n">
         <v>11</v>
       </c>
-      <c r="EB2" t="n">
+      <c r="ED2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1796,95 +1812,101 @@
       <c r="CW3" t="n">
         <v>0</v>
       </c>
-      <c r="CX3" t="inlineStr"/>
-      <c r="CY3" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="b">
+      <c r="CX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ3" t="inlineStr"/>
+      <c r="DA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="b">
         <v>1</v>
       </c>
-      <c r="DA3" t="n">
+      <c r="DC3" t="n">
         <v>1</v>
       </c>
-      <c r="DB3" t="n">
+      <c r="DD3" t="n">
         <v>2069.16</v>
       </c>
-      <c r="DC3" t="n">
+      <c r="DE3" t="n">
         <v>2157.16</v>
       </c>
-      <c r="DD3" t="n">
+      <c r="DF3" t="n">
         <v>2149.16</v>
       </c>
-      <c r="DE3" t="n">
+      <c r="DG3" t="n">
         <v>2144.16</v>
       </c>
-      <c r="DF3" t="n">
+      <c r="DH3" t="n">
         <v>1</v>
       </c>
-      <c r="DG3" t="n">
+      <c r="DI3" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH3" s="3" t="n">
+      <c r="DJ3" s="3" t="n">
         <v>45369.16666666666</v>
       </c>
-      <c r="DI3" s="3" t="n">
+      <c r="DK3" s="3" t="n">
         <v>45369.16666666666</v>
       </c>
-      <c r="DJ3" t="b">
+      <c r="DL3" t="b">
         <v>1</v>
       </c>
-      <c r="DK3" t="inlineStr"/>
-      <c r="DL3" t="inlineStr"/>
-      <c r="DM3" s="3" t="n">
+      <c r="DM3" t="inlineStr"/>
+      <c r="DN3" t="inlineStr"/>
+      <c r="DO3" s="3" t="n">
         <v>45369.52336805555</v>
       </c>
-      <c r="DN3" s="3" t="n">
+      <c r="DP3" s="3" t="n">
         <v>45366.54166666666</v>
       </c>
-      <c r="DO3" t="n">
+      <c r="DQ3" t="n">
         <v>2169.16</v>
       </c>
-      <c r="DP3" s="3" t="n">
+      <c r="DR3" s="3" t="n">
         <v>45369.52336805555</v>
       </c>
-      <c r="DQ3" t="n">
+      <c r="DS3" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT3" t="n">
         <v>2157.07</v>
       </c>
-      <c r="DR3" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS3" t="n">
+      <c r="DU3" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT3" t="inlineStr">
+      <c r="DV3" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU3" t="n">
+      <c r="DW3" t="n">
         <v>213.38</v>
       </c>
-      <c r="DV3" s="4" t="n">
+      <c r="DX3" s="4" t="n">
         <v>2.981701388888889</v>
       </c>
-      <c r="DW3" t="n">
-        <v>1126.76</v>
-      </c>
-      <c r="DX3" t="b">
+      <c r="DY3" t="n">
+        <v>913.38</v>
+      </c>
+      <c r="DZ3" t="b">
         <v>1</v>
       </c>
-      <c r="DY3" t="n">
+      <c r="EA3" t="n">
         <v>2</v>
       </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
         <v>11</v>
       </c>
-      <c r="EB3" t="n">
+      <c r="ED3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2190,97 +2212,103 @@
       <c r="CW4" t="n">
         <v>-100</v>
       </c>
-      <c r="CX4" t="inlineStr"/>
-      <c r="CY4" t="b">
+      <c r="CX4" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ4" t="inlineStr"/>
+      <c r="DA4" t="b">
         <v>1</v>
       </c>
-      <c r="CZ4" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" t="n">
+      <c r="DB4" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" t="n">
         <v>2279.81</v>
       </c>
-      <c r="DC4" t="n">
+      <c r="DE4" t="n">
         <v>2191.81</v>
       </c>
-      <c r="DD4" t="n">
+      <c r="DF4" t="n">
         <v>2199.81</v>
       </c>
-      <c r="DE4" t="n">
+      <c r="DG4" t="n">
         <v>2204.81</v>
       </c>
-      <c r="DF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" t="n">
+      <c r="DH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH4" s="3" t="n">
+      <c r="DJ4" s="3" t="n">
         <v>45377.54166666666</v>
       </c>
-      <c r="DI4" s="3" t="n">
+      <c r="DK4" s="3" t="n">
         <v>45377.54166666666</v>
       </c>
-      <c r="DJ4" t="b">
+      <c r="DL4" t="b">
         <v>1</v>
       </c>
-      <c r="DK4" s="3" t="n">
+      <c r="DM4" s="3" t="n">
         <v>45379.54166666666</v>
       </c>
-      <c r="DL4" t="inlineStr"/>
-      <c r="DM4" s="3" t="n">
+      <c r="DN4" t="inlineStr"/>
+      <c r="DO4" s="3" t="n">
         <v>45377.60806712963</v>
       </c>
-      <c r="DN4" s="3" t="n">
+      <c r="DP4" s="3" t="n">
         <v>45372.79166666666</v>
       </c>
-      <c r="DO4" t="n">
+      <c r="DQ4" t="n">
         <v>2179.81</v>
       </c>
-      <c r="DP4" s="3" t="n">
+      <c r="DR4" s="3" t="n">
         <v>45377.60806712963</v>
       </c>
-      <c r="DQ4" t="n">
+      <c r="DS4" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT4" t="n">
         <v>2191.92</v>
       </c>
-      <c r="DR4" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS4" t="n">
+      <c r="DU4" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT4" t="inlineStr">
+      <c r="DV4" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU4" t="n">
+      <c r="DW4" t="n">
         <v>213.73</v>
       </c>
-      <c r="DV4" s="4" t="n">
+      <c r="DX4" s="4" t="n">
         <v>4.816400462962963</v>
       </c>
-      <c r="DW4" t="n">
-        <v>1340.49</v>
-      </c>
-      <c r="DX4" t="b">
+      <c r="DY4" t="n">
+        <v>1127.11</v>
+      </c>
+      <c r="DZ4" t="b">
         <v>1</v>
       </c>
-      <c r="DY4" t="n">
+      <c r="EA4" t="n">
         <v>3</v>
       </c>
-      <c r="DZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" t="n">
+      <c r="EB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" t="n">
         <v>12</v>
       </c>
-      <c r="EB4" t="n">
+      <c r="ED4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2586,99 +2614,105 @@
       <c r="CW5" t="n">
         <v>0</v>
       </c>
-      <c r="CX5" t="inlineStr"/>
-      <c r="CY5" t="b">
+      <c r="CX5" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY5" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ5" t="inlineStr"/>
+      <c r="DA5" t="b">
         <v>1</v>
       </c>
-      <c r="CZ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" t="n">
+      <c r="DB5" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" t="n">
         <v>2387.44</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DE5" t="n">
         <v>2299.44</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DF5" t="n">
         <v>2307.44</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DG5" t="n">
         <v>2312.44</v>
       </c>
-      <c r="DF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" t="n">
+      <c r="DH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH5" s="3" t="n">
+      <c r="DJ5" s="3" t="n">
         <v>45386.91666666666</v>
       </c>
-      <c r="DI5" s="3" t="n">
+      <c r="DK5" s="3" t="n">
         <v>45386.91666666666</v>
       </c>
-      <c r="DJ5" t="b">
+      <c r="DL5" t="b">
         <v>1</v>
       </c>
-      <c r="DK5" s="3" t="n">
+      <c r="DM5" s="3" t="n">
         <v>45387.75</v>
       </c>
-      <c r="DL5" s="3" t="n">
+      <c r="DN5" s="3" t="n">
         <v>45394.16758101852</v>
       </c>
-      <c r="DM5" s="3" t="n">
+      <c r="DO5" s="3" t="n">
         <v>45386.91787037037</v>
       </c>
-      <c r="DN5" s="3" t="n">
+      <c r="DP5" s="3" t="n">
         <v>45386.70833333334</v>
       </c>
-      <c r="DO5" t="n">
+      <c r="DQ5" t="n">
         <v>2287.44</v>
       </c>
-      <c r="DP5" s="3" t="n">
+      <c r="DR5" s="3" t="n">
         <v>45386.91787037037</v>
       </c>
-      <c r="DQ5" t="n">
+      <c r="DS5" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT5" t="n">
         <v>2299.41</v>
       </c>
-      <c r="DR5" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS5" t="n">
+      <c r="DU5" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT5" t="inlineStr">
+      <c r="DV5" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU5" t="n">
+      <c r="DW5" t="n">
         <v>211.26</v>
       </c>
-      <c r="DV5" s="4" t="n">
+      <c r="DX5" s="4" t="n">
         <v>0.209537037037037</v>
       </c>
-      <c r="DW5" t="n">
-        <v>1551.75</v>
-      </c>
-      <c r="DX5" t="b">
+      <c r="DY5" t="n">
+        <v>1338.37</v>
+      </c>
+      <c r="DZ5" t="b">
         <v>1</v>
       </c>
-      <c r="DY5" t="n">
+      <c r="EA5" t="n">
         <v>4</v>
       </c>
-      <c r="DZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" t="n">
+      <c r="EB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" t="n">
         <v>14</v>
       </c>
-      <c r="EB5" t="n">
+      <c r="ED5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2984,99 +3018,105 @@
       <c r="CW6" t="n">
         <v>0</v>
       </c>
-      <c r="CX6" t="inlineStr"/>
-      <c r="CY6" t="b">
+      <c r="CX6" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY6" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ6" t="inlineStr"/>
+      <c r="DA6" t="b">
         <v>1</v>
       </c>
-      <c r="CZ6" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB6" t="n">
+      <c r="DB6" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD6" t="n">
         <v>2376.62</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DE6" t="n">
         <v>2288.62</v>
       </c>
-      <c r="DD6" t="n">
+      <c r="DF6" t="n">
         <v>2296.62</v>
       </c>
-      <c r="DE6" t="n">
+      <c r="DG6" t="n">
         <v>2301.62</v>
       </c>
-      <c r="DF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG6" t="n">
+      <c r="DH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI6" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH6" s="3" t="n">
+      <c r="DJ6" s="3" t="n">
         <v>45387.58333333334</v>
       </c>
-      <c r="DI6" s="3" t="n">
+      <c r="DK6" s="3" t="n">
         <v>45387.58333333334</v>
       </c>
-      <c r="DJ6" t="b">
+      <c r="DL6" t="b">
         <v>1</v>
       </c>
-      <c r="DK6" s="3" t="n">
+      <c r="DM6" s="3" t="n">
         <v>45387.75</v>
       </c>
-      <c r="DL6" s="3" t="n">
+      <c r="DN6" s="3" t="n">
         <v>45393.98228009259</v>
       </c>
-      <c r="DM6" s="3" t="n">
+      <c r="DO6" s="3" t="n">
         <v>45387.64585648148</v>
       </c>
-      <c r="DN6" s="3" t="n">
+      <c r="DP6" s="3" t="n">
         <v>45387.29166666666</v>
       </c>
-      <c r="DO6" t="n">
+      <c r="DQ6" t="n">
         <v>2276.62</v>
       </c>
-      <c r="DP6" s="3" t="n">
+      <c r="DR6" s="3" t="n">
         <v>45387.64585648148</v>
       </c>
-      <c r="DQ6" t="n">
+      <c r="DS6" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT6" t="n">
         <v>2288.6</v>
       </c>
-      <c r="DR6" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS6" t="n">
+      <c r="DU6" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT6" t="inlineStr">
+      <c r="DV6" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU6" t="n">
+      <c r="DW6" t="n">
         <v>211.44</v>
       </c>
-      <c r="DV6" s="4" t="n">
+      <c r="DX6" s="4" t="n">
         <v>0.3541898148148148</v>
       </c>
-      <c r="DW6" t="n">
-        <v>1763.19</v>
-      </c>
-      <c r="DX6" t="b">
+      <c r="DY6" t="n">
+        <v>1549.81</v>
+      </c>
+      <c r="DZ6" t="b">
         <v>1</v>
       </c>
-      <c r="DY6" t="n">
+      <c r="EA6" t="n">
         <v>5</v>
       </c>
-      <c r="DZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA6" t="n">
+      <c r="EB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC6" t="n">
         <v>14</v>
       </c>
-      <c r="EB6" t="n">
+      <c r="ED6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3382,97 +3422,103 @@
       <c r="CW7" t="n">
         <v>0</v>
       </c>
-      <c r="CX7" t="inlineStr"/>
-      <c r="CY7" t="b">
+      <c r="CX7" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ7" t="inlineStr"/>
+      <c r="DA7" t="b">
         <v>1</v>
       </c>
-      <c r="CZ7" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB7" t="n">
+      <c r="DB7" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD7" t="n">
         <v>2444.41</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DE7" t="n">
         <v>2356.41</v>
       </c>
-      <c r="DD7" t="n">
+      <c r="DF7" t="n">
         <v>2364.41</v>
       </c>
-      <c r="DE7" t="n">
+      <c r="DG7" t="n">
         <v>2369.41</v>
       </c>
-      <c r="DF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG7" t="n">
+      <c r="DH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI7" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH7" s="3" t="n">
+      <c r="DJ7" s="3" t="n">
         <v>45397.125</v>
       </c>
-      <c r="DI7" s="3" t="n">
+      <c r="DK7" s="3" t="n">
         <v>45397.125</v>
       </c>
-      <c r="DJ7" t="b">
+      <c r="DL7" t="b">
         <v>1</v>
       </c>
-      <c r="DK7" s="3" t="n">
+      <c r="DM7" s="3" t="n">
         <v>45397.91666666666</v>
       </c>
-      <c r="DL7" t="inlineStr"/>
-      <c r="DM7" s="3" t="n">
+      <c r="DN7" t="inlineStr"/>
+      <c r="DO7" s="3" t="n">
         <v>45397.1466087963</v>
       </c>
-      <c r="DN7" s="3" t="n">
+      <c r="DP7" s="3" t="n">
         <v>45395</v>
       </c>
-      <c r="DO7" t="n">
+      <c r="DQ7" t="n">
         <v>2344.41</v>
       </c>
-      <c r="DP7" s="3" t="n">
+      <c r="DR7" s="3" t="n">
         <v>45397.1466087963</v>
       </c>
-      <c r="DQ7" t="n">
+      <c r="DS7" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT7" t="n">
         <v>2356.48</v>
       </c>
-      <c r="DR7" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS7" t="n">
+      <c r="DU7" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT7" t="inlineStr">
+      <c r="DV7" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU7" t="n">
+      <c r="DW7" t="n">
         <v>213.03</v>
       </c>
-      <c r="DV7" s="4" t="n">
+      <c r="DX7" s="4" t="n">
         <v>2.146608796296296</v>
       </c>
-      <c r="DW7" t="n">
-        <v>1976.22</v>
-      </c>
-      <c r="DX7" t="b">
+      <c r="DY7" t="n">
+        <v>1762.84</v>
+      </c>
+      <c r="DZ7" t="b">
         <v>1</v>
       </c>
-      <c r="DY7" t="n">
+      <c r="EA7" t="n">
         <v>6</v>
       </c>
-      <c r="DZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA7" t="n">
+      <c r="EB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC7" t="n">
         <v>15</v>
       </c>
-      <c r="EB7" t="n">
+      <c r="ED7" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3778,97 +3824,103 @@
       <c r="CW8" t="n">
         <v>0</v>
       </c>
-      <c r="CX8" t="inlineStr"/>
-      <c r="CY8" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ8" t="b">
+      <c r="CX8" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY8" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ8" t="inlineStr"/>
+      <c r="DA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB8" t="b">
         <v>1</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DC8" t="n">
         <v>1</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DD8" t="n">
         <v>2281.91</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DE8" t="n">
         <v>2369.91</v>
       </c>
-      <c r="DD8" t="n">
+      <c r="DF8" t="n">
         <v>2361.91</v>
       </c>
-      <c r="DE8" t="n">
+      <c r="DG8" t="n">
         <v>2356.91</v>
       </c>
-      <c r="DF8" t="n">
+      <c r="DH8" t="n">
         <v>1</v>
       </c>
-      <c r="DG8" t="n">
+      <c r="DI8" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH8" s="3" t="n">
+      <c r="DJ8" s="3" t="n">
         <v>45398.45833333334</v>
       </c>
-      <c r="DI8" s="3" t="n">
+      <c r="DK8" s="3" t="n">
         <v>45398.45833333334</v>
       </c>
-      <c r="DJ8" t="b">
+      <c r="DL8" t="b">
         <v>1</v>
       </c>
-      <c r="DK8" s="3" t="n">
+      <c r="DM8" s="3" t="n">
         <v>45404.41666666666</v>
       </c>
-      <c r="DL8" t="inlineStr"/>
-      <c r="DM8" s="3" t="n">
+      <c r="DN8" t="inlineStr"/>
+      <c r="DO8" s="3" t="n">
         <v>45398.47130787037</v>
       </c>
-      <c r="DN8" s="3" t="n">
+      <c r="DP8" s="3" t="n">
         <v>45398.125</v>
       </c>
-      <c r="DO8" t="n">
+      <c r="DQ8" t="n">
         <v>2381.91</v>
       </c>
-      <c r="DP8" s="3" t="n">
+      <c r="DR8" s="3" t="n">
         <v>45398.47130787037</v>
       </c>
-      <c r="DQ8" t="n">
+      <c r="DS8" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT8" t="n">
         <v>2369.83</v>
       </c>
-      <c r="DR8" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS8" t="n">
+      <c r="DU8" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT8" t="inlineStr">
+      <c r="DV8" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU8" t="n">
+      <c r="DW8" t="n">
         <v>213.2</v>
       </c>
-      <c r="DV8" s="4" t="n">
+      <c r="DX8" s="4" t="n">
         <v>0.3463078703703704</v>
       </c>
-      <c r="DW8" t="n">
-        <v>2189.42</v>
-      </c>
-      <c r="DX8" t="b">
+      <c r="DY8" t="n">
+        <v>1976.04</v>
+      </c>
+      <c r="DZ8" t="b">
         <v>1</v>
       </c>
-      <c r="DY8" t="n">
+      <c r="EA8" t="n">
         <v>7</v>
       </c>
-      <c r="DZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA8" t="n">
+      <c r="EB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC8" t="n">
         <v>16</v>
       </c>
-      <c r="EB8" t="n">
+      <c r="ED8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4174,97 +4226,103 @@
       <c r="CW9" t="n">
         <v>100</v>
       </c>
-      <c r="CX9" t="inlineStr"/>
-      <c r="CY9" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ9" t="b">
+      <c r="CX9" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY9" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ9" t="inlineStr"/>
+      <c r="DA9" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB9" t="b">
         <v>1</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DC9" t="n">
         <v>1</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DD9" t="n">
         <v>2284.61</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DE9" t="n">
         <v>2372.61</v>
       </c>
-      <c r="DD9" t="n">
+      <c r="DF9" t="n">
         <v>2364.61</v>
       </c>
-      <c r="DE9" t="n">
+      <c r="DG9" t="n">
         <v>2359.61</v>
       </c>
-      <c r="DF9" t="n">
+      <c r="DH9" t="n">
         <v>1</v>
       </c>
-      <c r="DG9" t="n">
+      <c r="DI9" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH9" s="3" t="n">
+      <c r="DJ9" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="DI9" s="3" t="n">
+      <c r="DK9" s="3" t="n">
         <v>45400</v>
       </c>
-      <c r="DJ9" t="b">
+      <c r="DL9" t="b">
         <v>1</v>
       </c>
-      <c r="DK9" s="3" t="n">
+      <c r="DM9" s="3" t="n">
         <v>45404.41666666666</v>
       </c>
-      <c r="DL9" t="inlineStr"/>
-      <c r="DM9" s="3" t="n">
+      <c r="DN9" t="inlineStr"/>
+      <c r="DO9" s="3" t="n">
         <v>45400.23409722222</v>
       </c>
-      <c r="DN9" s="3" t="n">
+      <c r="DP9" s="3" t="n">
         <v>45398.875</v>
       </c>
-      <c r="DO9" t="n">
+      <c r="DQ9" t="n">
         <v>2384.61</v>
       </c>
-      <c r="DP9" s="3" t="n">
-        <v>45399.91666666666</v>
-      </c>
-      <c r="DQ9" t="n">
-        <v>2374.31</v>
-      </c>
-      <c r="DR9" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS9" t="n">
+      <c r="DR9" s="3" t="n">
+        <v>45400.23409722222</v>
+      </c>
+      <c r="DS9" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT9" t="n">
+        <v>2372.63</v>
+      </c>
+      <c r="DU9" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT9" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DU9" t="n">
-        <v>181.79</v>
-      </c>
-      <c r="DV9" s="4" t="n">
-        <v>1.041666666666667</v>
+      <c r="DV9" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW9" t="n">
-        <v>2371.21</v>
-      </c>
-      <c r="DX9" t="b">
+        <v>211.44</v>
+      </c>
+      <c r="DX9" s="4" t="n">
+        <v>1.359097222222222</v>
+      </c>
+      <c r="DY9" t="n">
+        <v>2187.48</v>
+      </c>
+      <c r="DZ9" t="b">
         <v>1</v>
       </c>
-      <c r="DY9" t="n">
+      <c r="EA9" t="n">
         <v>8</v>
       </c>
-      <c r="DZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA9" t="n">
+      <c r="EB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC9" t="n">
         <v>16</v>
       </c>
-      <c r="EB9" t="n">
+      <c r="ED9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4570,95 +4628,101 @@
       <c r="CW10" t="n">
         <v>-100</v>
       </c>
-      <c r="CX10" t="inlineStr"/>
-      <c r="CY10" t="b">
+      <c r="CX10" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ10" t="inlineStr"/>
+      <c r="DA10" t="b">
         <v>1</v>
       </c>
-      <c r="CZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB10" t="n">
+      <c r="DB10" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD10" t="n">
         <v>2474.33</v>
       </c>
-      <c r="DC10" t="n">
+      <c r="DE10" t="n">
         <v>2394.33</v>
       </c>
-      <c r="DD10" t="n">
+      <c r="DF10" t="n">
         <v>2402.33</v>
       </c>
-      <c r="DE10" t="n">
+      <c r="DG10" t="n">
         <v>2409.33</v>
       </c>
-      <c r="DF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG10" t="n">
+      <c r="DH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI10" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH10" s="3" t="n">
+      <c r="DJ10" s="3" t="n">
         <v>45401.20833333334</v>
       </c>
-      <c r="DI10" s="3" t="n">
+      <c r="DK10" s="3" t="n">
         <v>45401.25</v>
       </c>
-      <c r="DJ10" t="b">
+      <c r="DL10" t="b">
         <v>1</v>
       </c>
-      <c r="DK10" t="inlineStr"/>
-      <c r="DL10" t="inlineStr"/>
-      <c r="DM10" s="3" t="n">
+      <c r="DM10" t="inlineStr"/>
+      <c r="DN10" t="inlineStr"/>
+      <c r="DO10" s="3" t="n">
         <v>45401.2562962963</v>
       </c>
-      <c r="DN10" s="3" t="n">
+      <c r="DP10" s="3" t="n">
         <v>45399.91666666666</v>
       </c>
-      <c r="DO10" t="n">
+      <c r="DQ10" t="n">
         <v>2374.33</v>
       </c>
-      <c r="DP10" s="3" t="n">
+      <c r="DR10" s="3" t="n">
         <v>45401.2562962963</v>
       </c>
-      <c r="DQ10" t="n">
+      <c r="DS10" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT10" t="n">
         <v>2395.04</v>
       </c>
-      <c r="DR10" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS10" t="n">
+      <c r="DU10" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT10" t="inlineStr">
+      <c r="DV10" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU10" t="n">
+      <c r="DW10" t="n">
         <v>365.52</v>
       </c>
-      <c r="DV10" s="4" t="n">
+      <c r="DX10" s="4" t="n">
         <v>1.33962962962963</v>
       </c>
-      <c r="DW10" t="n">
-        <v>2736.73</v>
-      </c>
-      <c r="DX10" t="b">
+      <c r="DY10" t="n">
+        <v>2553</v>
+      </c>
+      <c r="DZ10" t="b">
         <v>1</v>
       </c>
-      <c r="DY10" t="n">
+      <c r="EA10" t="n">
         <v>9</v>
       </c>
-      <c r="DZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA10" t="n">
+      <c r="EB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC10" t="n">
         <v>16</v>
       </c>
-      <c r="EB10" t="n">
+      <c r="ED10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4964,97 +5028,103 @@
       <c r="CW11" t="n">
         <v>0</v>
       </c>
-      <c r="CX11" t="inlineStr"/>
-      <c r="CY11" t="b">
+      <c r="CX11" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ11" t="inlineStr"/>
+      <c r="DA11" t="b">
         <v>1</v>
       </c>
-      <c r="CZ11" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB11" t="n">
+      <c r="DB11" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD11" t="n">
         <v>2465.18</v>
       </c>
-      <c r="DC11" t="n">
+      <c r="DE11" t="n">
         <v>2377.18</v>
       </c>
-      <c r="DD11" t="n">
+      <c r="DF11" t="n">
         <v>2385.18</v>
       </c>
-      <c r="DE11" t="n">
+      <c r="DG11" t="n">
         <v>2390.18</v>
       </c>
-      <c r="DF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG11" t="n">
+      <c r="DH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI11" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH11" s="3" t="n">
+      <c r="DJ11" s="3" t="n">
         <v>45400.41666666666</v>
       </c>
-      <c r="DI11" s="3" t="n">
+      <c r="DK11" s="3" t="n">
         <v>45400.41666666666</v>
       </c>
-      <c r="DJ11" t="b">
+      <c r="DL11" t="b">
         <v>1</v>
       </c>
-      <c r="DK11" s="3" t="n">
+      <c r="DM11" s="3" t="n">
         <v>45401.20833333334</v>
       </c>
-      <c r="DL11" t="inlineStr"/>
-      <c r="DM11" s="3" t="n">
+      <c r="DN11" t="inlineStr"/>
+      <c r="DO11" s="3" t="n">
         <v>45400.43773148148</v>
       </c>
-      <c r="DN11" s="3" t="n">
+      <c r="DP11" s="3" t="n">
         <v>45400.08333333334</v>
       </c>
-      <c r="DO11" t="n">
+      <c r="DQ11" t="n">
         <v>2365.18</v>
       </c>
-      <c r="DP11" s="3" t="n">
+      <c r="DR11" s="3" t="n">
         <v>45400.43773148148</v>
       </c>
-      <c r="DQ11" t="n">
+      <c r="DS11" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT11" t="n">
         <v>2377.17</v>
       </c>
-      <c r="DR11" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS11" t="n">
+      <c r="DU11" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT11" t="inlineStr">
+      <c r="DV11" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU11" t="n">
+      <c r="DW11" t="n">
         <v>211.61</v>
       </c>
-      <c r="DV11" s="4" t="n">
+      <c r="DX11" s="4" t="n">
         <v>0.3543981481481481</v>
       </c>
-      <c r="DW11" t="n">
-        <v>2948.34</v>
-      </c>
-      <c r="DX11" t="b">
+      <c r="DY11" t="n">
+        <v>2764.61</v>
+      </c>
+      <c r="DZ11" t="b">
         <v>1</v>
       </c>
-      <c r="DY11" t="n">
+      <c r="EA11" t="n">
         <v>10</v>
       </c>
-      <c r="DZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA11" t="n">
+      <c r="EB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC11" t="n">
         <v>16</v>
       </c>
-      <c r="EB11" t="n">
+      <c r="ED11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5108,16 +5178,16 @@
         <v>2337.857472268907</v>
       </c>
       <c r="Q12" t="n">
-        <v>2322.792769880386</v>
+        <v>2322.792769880392</v>
       </c>
       <c r="R12" t="n">
-        <v>2342.280454379792</v>
+        <v>2342.2804543798</v>
       </c>
       <c r="S12" t="n">
-        <v>0.000121642832002936</v>
+        <v>0.0001216428320027215</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0001427114173095433</v>
+        <v>0.0001427114173093288</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="n">
@@ -5360,91 +5430,97 @@
       <c r="CW12" t="n">
         <v>0</v>
       </c>
-      <c r="CX12" t="inlineStr"/>
-      <c r="CY12" t="b">
+      <c r="CX12" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ12" t="inlineStr"/>
+      <c r="DA12" t="b">
         <v>1</v>
       </c>
-      <c r="CZ12" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB12" t="n">
+      <c r="DB12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
         <v>2428.48</v>
       </c>
-      <c r="DC12" t="n">
+      <c r="DE12" t="n">
         <v>2298.48</v>
       </c>
-      <c r="DD12" t="n">
+      <c r="DF12" t="n">
         <v>2340.48</v>
       </c>
-      <c r="DE12" t="n">
+      <c r="DG12" t="n">
         <v>2343.48</v>
       </c>
-      <c r="DF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG12" t="n">
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH12" t="inlineStr"/>
-      <c r="DI12" t="inlineStr"/>
-      <c r="DJ12" t="b">
-        <v>0</v>
-      </c>
+      <c r="DJ12" t="inlineStr"/>
       <c r="DK12" t="inlineStr"/>
-      <c r="DL12" t="inlineStr"/>
-      <c r="DM12" s="3" t="n">
+      <c r="DL12" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM12" t="inlineStr"/>
+      <c r="DN12" t="inlineStr"/>
+      <c r="DO12" s="3" t="n">
         <v>45412.73113425926</v>
       </c>
-      <c r="DN12" s="3" t="n">
+      <c r="DP12" s="3" t="n">
         <v>45411.29166666666</v>
       </c>
-      <c r="DO12" t="n">
+      <c r="DQ12" t="n">
         <v>2328.48</v>
       </c>
-      <c r="DP12" s="3" t="n">
+      <c r="DR12" s="3" t="n">
         <v>45412.73113425926</v>
       </c>
-      <c r="DQ12" t="n">
+      <c r="DS12" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT12" t="n">
         <v>2298.4</v>
       </c>
-      <c r="DR12" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS12" t="n">
+      <c r="DU12" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT12" t="inlineStr">
+      <c r="DV12" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="DU12" t="n">
+      <c r="DW12" t="n">
         <v>-531.79</v>
       </c>
-      <c r="DV12" s="4" t="n">
+      <c r="DX12" s="4" t="n">
         <v>1.439467592592593</v>
       </c>
-      <c r="DW12" t="n">
-        <v>2416.55</v>
-      </c>
-      <c r="DX12" t="b">
-        <v>0</v>
-      </c>
       <c r="DY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ12" t="n">
+        <v>2232.82</v>
+      </c>
+      <c r="DZ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB12" t="n">
         <v>1</v>
       </c>
-      <c r="EA12" t="n">
+      <c r="EC12" t="n">
         <v>18</v>
       </c>
-      <c r="EB12" t="n">
+      <c r="ED12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -5750,91 +5826,97 @@
       <c r="CW13" t="n">
         <v>0</v>
       </c>
-      <c r="CX13" t="inlineStr"/>
-      <c r="CY13" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ13" t="b">
+      <c r="CX13" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY13" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ13" t="inlineStr"/>
+      <c r="DA13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB13" t="b">
         <v>1</v>
       </c>
-      <c r="DA13" t="n">
+      <c r="DC13" t="n">
         <v>1</v>
       </c>
-      <c r="DB13" t="n">
+      <c r="DD13" t="n">
         <v>2203.71</v>
       </c>
-      <c r="DC13" t="n">
+      <c r="DE13" t="n">
         <v>2333.71</v>
       </c>
-      <c r="DD13" t="n">
+      <c r="DF13" t="n">
         <v>2291.71</v>
       </c>
-      <c r="DE13" t="n">
+      <c r="DG13" t="n">
         <v>2288.71</v>
       </c>
-      <c r="DF13" t="n">
+      <c r="DH13" t="n">
         <v>1</v>
       </c>
-      <c r="DG13" t="n">
+      <c r="DI13" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH13" t="inlineStr"/>
-      <c r="DI13" t="inlineStr"/>
-      <c r="DJ13" t="b">
-        <v>0</v>
-      </c>
+      <c r="DJ13" t="inlineStr"/>
       <c r="DK13" t="inlineStr"/>
-      <c r="DL13" t="inlineStr"/>
-      <c r="DM13" s="3" t="n">
+      <c r="DL13" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM13" t="inlineStr"/>
+      <c r="DN13" t="inlineStr"/>
+      <c r="DO13" s="3" t="n">
         <v>45421.71818287037</v>
       </c>
-      <c r="DN13" s="3" t="n">
+      <c r="DP13" s="3" t="n">
         <v>45413.83333333334</v>
       </c>
-      <c r="DO13" t="n">
+      <c r="DQ13" t="n">
         <v>2303.71</v>
       </c>
-      <c r="DP13" s="3" t="n">
-        <v>45419.58333333334</v>
-      </c>
-      <c r="DQ13" t="n">
-        <v>2315.31</v>
-      </c>
-      <c r="DR13" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS13" t="n">
+      <c r="DR13" s="3" t="n">
+        <v>45421.71818287037</v>
+      </c>
+      <c r="DS13" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT13" t="n">
+        <v>2333.87</v>
+      </c>
+      <c r="DU13" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT13" t="inlineStr">
+      <c r="DV13" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="DU13" t="n">
-        <v>-205.08</v>
-      </c>
-      <c r="DV13" s="4" t="n">
-        <v>5.75</v>
-      </c>
       <c r="DW13" t="n">
-        <v>2211.47</v>
-      </c>
-      <c r="DX13" t="b">
-        <v>0</v>
+        <v>-533.21</v>
+      </c>
+      <c r="DX13" s="4" t="n">
+        <v>7.884849537037037</v>
       </c>
       <c r="DY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ13" t="n">
+        <v>1699.61</v>
+      </c>
+      <c r="DZ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB13" t="n">
         <v>2</v>
       </c>
-      <c r="EA13" t="n">
+      <c r="EC13" t="n">
         <v>18</v>
       </c>
-      <c r="EB13" t="n">
+      <c r="ED13" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6140,95 +6222,101 @@
       <c r="CW14" t="n">
         <v>0</v>
       </c>
-      <c r="CX14" t="inlineStr"/>
-      <c r="CY14" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ14" t="b">
+      <c r="CX14" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ14" t="inlineStr"/>
+      <c r="DA14" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB14" t="b">
         <v>1</v>
       </c>
-      <c r="DA14" t="n">
+      <c r="DC14" t="n">
         <v>1</v>
       </c>
-      <c r="DB14" t="n">
+      <c r="DD14" t="n">
         <v>2209.61</v>
       </c>
-      <c r="DC14" t="n">
+      <c r="DE14" t="n">
         <v>2297.61</v>
       </c>
-      <c r="DD14" t="n">
+      <c r="DF14" t="n">
         <v>2289.61</v>
       </c>
-      <c r="DE14" t="n">
+      <c r="DG14" t="n">
         <v>2284.61</v>
       </c>
-      <c r="DF14" t="n">
+      <c r="DH14" t="n">
         <v>1</v>
       </c>
-      <c r="DG14" t="n">
+      <c r="DI14" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH14" s="3" t="n">
+      <c r="DJ14" s="3" t="n">
         <v>45414.66666666666</v>
       </c>
-      <c r="DI14" s="3" t="n">
+      <c r="DK14" s="3" t="n">
         <v>45414.66666666666</v>
       </c>
-      <c r="DJ14" t="b">
+      <c r="DL14" t="b">
         <v>1</v>
       </c>
-      <c r="DK14" t="inlineStr"/>
-      <c r="DL14" t="inlineStr"/>
-      <c r="DM14" s="3" t="n">
+      <c r="DM14" t="inlineStr"/>
+      <c r="DN14" t="inlineStr"/>
+      <c r="DO14" s="3" t="n">
         <v>45414.72222222222</v>
       </c>
-      <c r="DN14" s="3" t="n">
+      <c r="DP14" s="3" t="n">
         <v>45413.95833333334</v>
       </c>
-      <c r="DO14" t="n">
+      <c r="DQ14" t="n">
         <v>2309.61</v>
       </c>
-      <c r="DP14" s="3" t="n">
+      <c r="DR14" s="3" t="n">
         <v>45414.72222222222</v>
       </c>
-      <c r="DQ14" t="n">
+      <c r="DS14" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT14" t="n">
         <v>2297.32</v>
       </c>
-      <c r="DR14" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS14" t="n">
+      <c r="DU14" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT14" t="inlineStr">
+      <c r="DV14" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU14" t="n">
+      <c r="DW14" t="n">
         <v>216.91</v>
       </c>
-      <c r="DV14" s="4" t="n">
+      <c r="DX14" s="4" t="n">
         <v>0.7638888888888888</v>
       </c>
-      <c r="DW14" t="n">
-        <v>2428.38</v>
-      </c>
-      <c r="DX14" t="b">
+      <c r="DY14" t="n">
+        <v>1916.52</v>
+      </c>
+      <c r="DZ14" t="b">
         <v>1</v>
       </c>
-      <c r="DY14" t="n">
+      <c r="EA14" t="n">
         <v>1</v>
       </c>
-      <c r="DZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA14" t="n">
+      <c r="EB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC14" t="n">
         <v>18</v>
       </c>
-      <c r="EB14" t="n">
+      <c r="ED14" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6534,91 +6622,97 @@
       <c r="CW15" t="n">
         <v>0</v>
       </c>
-      <c r="CX15" t="inlineStr"/>
-      <c r="CY15" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ15" t="b">
+      <c r="CX15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY15" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ15" t="inlineStr"/>
+      <c r="DA15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB15" t="b">
         <v>1</v>
       </c>
-      <c r="DA15" t="n">
+      <c r="DC15" t="n">
         <v>1</v>
       </c>
-      <c r="DB15" t="n">
+      <c r="DD15" t="n">
         <v>2209.31</v>
       </c>
-      <c r="DC15" t="n">
+      <c r="DE15" t="n">
         <v>2339.31</v>
       </c>
-      <c r="DD15" t="n">
+      <c r="DF15" t="n">
         <v>2297.31</v>
       </c>
-      <c r="DE15" t="n">
+      <c r="DG15" t="n">
         <v>2294.31</v>
       </c>
-      <c r="DF15" t="n">
+      <c r="DH15" t="n">
         <v>1</v>
       </c>
-      <c r="DG15" t="n">
+      <c r="DI15" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH15" t="inlineStr"/>
-      <c r="DI15" t="inlineStr"/>
-      <c r="DJ15" t="b">
-        <v>0</v>
-      </c>
+      <c r="DJ15" t="inlineStr"/>
       <c r="DK15" t="inlineStr"/>
-      <c r="DL15" t="inlineStr"/>
-      <c r="DM15" s="3" t="n">
+      <c r="DL15" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM15" t="inlineStr"/>
+      <c r="DN15" t="inlineStr"/>
+      <c r="DO15" s="3" t="n">
         <v>45421.94238425926</v>
       </c>
-      <c r="DN15" s="3" t="n">
+      <c r="DP15" s="3" t="n">
         <v>45418.29166666666</v>
       </c>
-      <c r="DO15" t="n">
+      <c r="DQ15" t="n">
         <v>2309.31</v>
       </c>
-      <c r="DP15" s="3" t="n">
-        <v>45419.58333333334</v>
-      </c>
-      <c r="DQ15" t="n">
-        <v>2315.31</v>
-      </c>
-      <c r="DR15" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS15" t="n">
+      <c r="DR15" s="3" t="n">
+        <v>45421.94238425926</v>
+      </c>
+      <c r="DS15" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT15" t="n">
+        <v>2339.2</v>
+      </c>
+      <c r="DU15" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT15" t="inlineStr">
+      <c r="DV15" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="DU15" t="n">
-        <v>-106.08</v>
-      </c>
-      <c r="DV15" s="4" t="n">
-        <v>1.291666666666667</v>
-      </c>
       <c r="DW15" t="n">
-        <v>2322.3</v>
-      </c>
-      <c r="DX15" t="b">
-        <v>0</v>
+        <v>-528.4299999999999</v>
+      </c>
+      <c r="DX15" s="4" t="n">
+        <v>3.650717592592593</v>
       </c>
       <c r="DY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ15" t="n">
+        <v>1388.09</v>
+      </c>
+      <c r="DZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB15" t="n">
         <v>1</v>
       </c>
-      <c r="EA15" t="n">
+      <c r="EC15" t="n">
         <v>19</v>
       </c>
-      <c r="EB15" t="n">
+      <c r="ED15" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6924,95 +7018,101 @@
       <c r="CW16" t="n">
         <v>0</v>
       </c>
-      <c r="CX16" t="inlineStr"/>
-      <c r="CY16" t="b">
+      <c r="CX16" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ16" t="inlineStr"/>
+      <c r="DA16" t="b">
         <v>1</v>
       </c>
-      <c r="CZ16" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB16" t="n">
+      <c r="DB16" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD16" t="n">
         <v>2415.27</v>
       </c>
-      <c r="DC16" t="n">
+      <c r="DE16" t="n">
         <v>2359.27</v>
       </c>
-      <c r="DD16" t="n">
+      <c r="DF16" t="n">
         <v>2367.27</v>
       </c>
-      <c r="DE16" t="n">
+      <c r="DG16" t="n">
         <v>2380.27</v>
       </c>
-      <c r="DF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG16" t="n">
+      <c r="DH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI16" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH16" s="3" t="n">
+      <c r="DJ16" s="3" t="n">
         <v>45421.75</v>
       </c>
-      <c r="DI16" s="3" t="n">
+      <c r="DK16" s="3" t="n">
         <v>45422.54166666666</v>
       </c>
-      <c r="DJ16" t="b">
+      <c r="DL16" t="b">
         <v>1</v>
       </c>
-      <c r="DK16" t="inlineStr"/>
-      <c r="DL16" t="inlineStr"/>
-      <c r="DM16" s="3" t="n">
+      <c r="DM16" t="inlineStr"/>
+      <c r="DN16" t="inlineStr"/>
+      <c r="DO16" s="3" t="n">
         <v>45422.7475462963</v>
       </c>
-      <c r="DN16" s="3" t="n">
+      <c r="DP16" s="3" t="n">
         <v>45419.58333333334</v>
       </c>
-      <c r="DO16" t="n">
+      <c r="DQ16" t="n">
         <v>2315.27</v>
       </c>
-      <c r="DP16" s="3" t="n">
+      <c r="DR16" s="3" t="n">
         <v>45422.7475462963</v>
       </c>
-      <c r="DQ16" t="n">
+      <c r="DS16" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT16" t="n">
         <v>2359.44</v>
       </c>
-      <c r="DR16" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS16" t="n">
+      <c r="DU16" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT16" t="inlineStr">
+      <c r="DV16" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU16" t="n">
+      <c r="DW16" t="n">
         <v>779.5700000000001</v>
       </c>
-      <c r="DV16" s="4" t="n">
+      <c r="DX16" s="4" t="n">
         <v>3.164212962962963</v>
       </c>
-      <c r="DW16" t="n">
-        <v>3101.87</v>
-      </c>
-      <c r="DX16" t="b">
+      <c r="DY16" t="n">
+        <v>2167.66</v>
+      </c>
+      <c r="DZ16" t="b">
         <v>1</v>
       </c>
-      <c r="DY16" t="n">
+      <c r="EA16" t="n">
         <v>1</v>
       </c>
-      <c r="DZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA16" t="n">
+      <c r="EB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC16" t="n">
         <v>19</v>
       </c>
-      <c r="EB16" t="n">
+      <c r="ED16" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7085,16 +7185,16 @@
         <v>7.742571909080237</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.0003747425208613774</v>
+        <v>-0.0003747425208617349</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.0001748807218181288</v>
+        <v>-0.0001748807218184863</v>
       </c>
       <c r="Z17" t="n">
-        <v>2314.471985948793</v>
+        <v>2314.471985948787</v>
       </c>
       <c r="AA17" t="n">
-        <v>2330.100388681298</v>
+        <v>2330.100388681301</v>
       </c>
       <c r="AB17" t="n">
         <v>2317.937690923888</v>
@@ -7318,95 +7418,101 @@
       <c r="CW17" t="n">
         <v>0</v>
       </c>
-      <c r="CX17" t="inlineStr"/>
-      <c r="CY17" t="b">
+      <c r="CX17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ17" t="inlineStr"/>
+      <c r="DA17" t="b">
         <v>1</v>
       </c>
-      <c r="CZ17" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB17" t="n">
+      <c r="DB17" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD17" t="n">
         <v>2415.99</v>
       </c>
-      <c r="DC17" t="n">
+      <c r="DE17" t="n">
         <v>2359.99</v>
       </c>
-      <c r="DD17" t="n">
+      <c r="DF17" t="n">
         <v>2367.99</v>
       </c>
-      <c r="DE17" t="n">
+      <c r="DG17" t="n">
         <v>2380.99</v>
       </c>
-      <c r="DF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG17" t="n">
+      <c r="DH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI17" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH17" s="3" t="n">
+      <c r="DJ17" s="3" t="n">
         <v>45421.75</v>
       </c>
-      <c r="DI17" s="3" t="n">
+      <c r="DK17" s="3" t="n">
         <v>45422.54166666666</v>
       </c>
-      <c r="DJ17" t="b">
+      <c r="DL17" t="b">
         <v>1</v>
       </c>
-      <c r="DK17" t="inlineStr"/>
-      <c r="DL17" t="inlineStr"/>
-      <c r="DM17" s="3" t="n">
+      <c r="DM17" t="inlineStr"/>
+      <c r="DN17" t="inlineStr"/>
+      <c r="DO17" s="3" t="n">
         <v>45422.74737268518</v>
       </c>
-      <c r="DN17" s="3" t="n">
+      <c r="DP17" s="3" t="n">
         <v>45419.66666666666</v>
       </c>
-      <c r="DO17" t="n">
+      <c r="DQ17" t="n">
         <v>2315.99</v>
       </c>
-      <c r="DP17" s="3" t="n">
+      <c r="DR17" s="3" t="n">
         <v>45422.74737268518</v>
       </c>
-      <c r="DQ17" t="n">
+      <c r="DS17" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT17" t="n">
         <v>2360.02</v>
       </c>
-      <c r="DR17" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS17" t="n">
+      <c r="DU17" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT17" t="inlineStr">
+      <c r="DV17" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU17" t="n">
+      <c r="DW17" t="n">
         <v>777.1</v>
       </c>
-      <c r="DV17" s="4" t="n">
+      <c r="DX17" s="4" t="n">
         <v>3.080706018518518</v>
       </c>
-      <c r="DW17" t="n">
-        <v>3878.97</v>
-      </c>
-      <c r="DX17" t="b">
+      <c r="DY17" t="n">
+        <v>2944.76</v>
+      </c>
+      <c r="DZ17" t="b">
         <v>1</v>
       </c>
-      <c r="DY17" t="n">
+      <c r="EA17" t="n">
         <v>2</v>
       </c>
-      <c r="DZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA17" t="n">
+      <c r="EB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC17" t="n">
         <v>19</v>
       </c>
-      <c r="EB17" t="n">
+      <c r="ED17" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7712,97 +7818,103 @@
       <c r="CW18" t="n">
         <v>0</v>
       </c>
-      <c r="CX18" t="inlineStr"/>
-      <c r="CY18" t="b">
+      <c r="CX18" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY18" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ18" t="inlineStr"/>
+      <c r="DA18" t="b">
         <v>1</v>
       </c>
-      <c r="CZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB18" t="n">
+      <c r="DB18" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD18" t="n">
         <v>2417.07</v>
       </c>
-      <c r="DC18" t="n">
+      <c r="DE18" t="n">
         <v>2329.07</v>
       </c>
-      <c r="DD18" t="n">
+      <c r="DF18" t="n">
         <v>2337.07</v>
       </c>
-      <c r="DE18" t="n">
+      <c r="DG18" t="n">
         <v>2342.07</v>
       </c>
-      <c r="DF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG18" t="n">
+      <c r="DH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI18" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH18" s="3" t="n">
+      <c r="DJ18" s="3" t="n">
         <v>45421.75</v>
       </c>
-      <c r="DI18" s="3" t="n">
+      <c r="DK18" s="3" t="n">
         <v>45421.75</v>
       </c>
-      <c r="DJ18" t="b">
+      <c r="DL18" t="b">
         <v>1</v>
       </c>
-      <c r="DK18" s="3" t="n">
+      <c r="DM18" s="3" t="n">
         <v>45421.95833333334</v>
       </c>
-      <c r="DL18" t="inlineStr"/>
-      <c r="DM18" s="3" t="n">
+      <c r="DN18" t="inlineStr"/>
+      <c r="DO18" s="3" t="n">
         <v>45421.78728009259</v>
       </c>
-      <c r="DN18" s="3" t="n">
+      <c r="DP18" s="3" t="n">
         <v>45420.25</v>
       </c>
-      <c r="DO18" t="n">
+      <c r="DQ18" t="n">
         <v>2317.07</v>
       </c>
-      <c r="DP18" s="3" t="n">
+      <c r="DR18" s="3" t="n">
         <v>45421.78728009259</v>
       </c>
-      <c r="DQ18" t="n">
+      <c r="DS18" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT18" t="n">
         <v>2329.39</v>
       </c>
-      <c r="DR18" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS18" t="n">
+      <c r="DU18" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT18" t="inlineStr">
+      <c r="DV18" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU18" t="n">
+      <c r="DW18" t="n">
         <v>217.44</v>
       </c>
-      <c r="DV18" s="4" t="n">
+      <c r="DX18" s="4" t="n">
         <v>1.537280092592593</v>
       </c>
-      <c r="DW18" t="n">
-        <v>4096.41</v>
-      </c>
-      <c r="DX18" t="b">
+      <c r="DY18" t="n">
+        <v>3162.2</v>
+      </c>
+      <c r="DZ18" t="b">
         <v>1</v>
       </c>
-      <c r="DY18" t="n">
+      <c r="EA18" t="n">
         <v>3</v>
       </c>
-      <c r="DZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA18" t="n">
+      <c r="EB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC18" t="n">
         <v>19</v>
       </c>
-      <c r="EB18" t="n">
+      <c r="ED18" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8108,99 +8220,105 @@
       <c r="CW19" t="n">
         <v>0</v>
       </c>
-      <c r="CX19" t="inlineStr"/>
-      <c r="CY19" t="b">
+      <c r="CX19" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ19" t="inlineStr"/>
+      <c r="DA19" t="b">
         <v>1</v>
       </c>
-      <c r="CZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB19" t="n">
+      <c r="DB19" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD19" t="n">
         <v>2443.26</v>
       </c>
-      <c r="DC19" t="n">
+      <c r="DE19" t="n">
         <v>2363.26</v>
       </c>
-      <c r="DD19" t="n">
+      <c r="DF19" t="n">
         <v>2371.26</v>
       </c>
-      <c r="DE19" t="n">
+      <c r="DG19" t="n">
         <v>2378.26</v>
       </c>
-      <c r="DF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG19" t="n">
+      <c r="DH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI19" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH19" s="3" t="n">
+      <c r="DJ19" s="3" t="n">
         <v>45427.25</v>
       </c>
-      <c r="DI19" s="3" t="n">
+      <c r="DK19" s="3" t="n">
         <v>45427.5</v>
       </c>
-      <c r="DJ19" t="b">
+      <c r="DL19" t="b">
         <v>1</v>
       </c>
-      <c r="DK19" s="3" t="n">
+      <c r="DM19" s="3" t="n">
         <v>45427.83333333334</v>
       </c>
-      <c r="DL19" s="3" t="n">
+      <c r="DN19" s="3" t="n">
         <v>45432.35483796296</v>
       </c>
-      <c r="DM19" s="3" t="n">
+      <c r="DO19" s="3" t="n">
         <v>45427.60663194444</v>
       </c>
-      <c r="DN19" s="3" t="n">
+      <c r="DP19" s="3" t="n">
         <v>45425.58333333334</v>
       </c>
-      <c r="DO19" t="n">
+      <c r="DQ19" t="n">
         <v>2343.26</v>
       </c>
-      <c r="DP19" s="3" t="n">
-        <v>45426.79166666666</v>
-      </c>
-      <c r="DQ19" t="n">
-        <v>2347.79</v>
-      </c>
-      <c r="DR19" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS19" t="n">
+      <c r="DR19" s="3" t="n">
+        <v>45427.60663194444</v>
+      </c>
+      <c r="DS19" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT19" t="n">
+        <v>2363.3</v>
+      </c>
+      <c r="DU19" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT19" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DU19" t="n">
-        <v>79.95</v>
-      </c>
-      <c r="DV19" s="4" t="n">
-        <v>1.208333333333333</v>
+      <c r="DV19" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW19" t="n">
-        <v>4176.36</v>
-      </c>
-      <c r="DX19" t="b">
+        <v>353.69</v>
+      </c>
+      <c r="DX19" s="4" t="n">
+        <v>2.023298611111111</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>3515.89</v>
+      </c>
+      <c r="DZ19" t="b">
         <v>1</v>
       </c>
-      <c r="DY19" t="n">
+      <c r="EA19" t="n">
         <v>4</v>
       </c>
-      <c r="DZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA19" t="n">
+      <c r="EB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC19" t="n">
         <v>20</v>
       </c>
-      <c r="EB19" t="n">
+      <c r="ED19" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8506,91 +8624,97 @@
       <c r="CW20" t="n">
         <v>0</v>
       </c>
-      <c r="CX20" t="inlineStr"/>
-      <c r="CY20" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ20" t="b">
+      <c r="CX20" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY20" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ20" t="inlineStr"/>
+      <c r="DA20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB20" t="b">
         <v>1</v>
       </c>
-      <c r="DA20" t="n">
+      <c r="DC20" t="n">
         <v>1</v>
       </c>
-      <c r="DB20" t="n">
+      <c r="DD20" t="n">
         <v>2247.81</v>
       </c>
-      <c r="DC20" t="n">
+      <c r="DE20" t="n">
         <v>2377.81</v>
       </c>
-      <c r="DD20" t="n">
+      <c r="DF20" t="n">
         <v>2335.81</v>
       </c>
-      <c r="DE20" t="n">
+      <c r="DG20" t="n">
         <v>2332.81</v>
       </c>
-      <c r="DF20" t="n">
+      <c r="DH20" t="n">
         <v>1</v>
       </c>
-      <c r="DG20" t="n">
+      <c r="DI20" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH20" t="inlineStr"/>
-      <c r="DI20" t="inlineStr"/>
-      <c r="DJ20" t="b">
-        <v>0</v>
-      </c>
+      <c r="DJ20" t="inlineStr"/>
       <c r="DK20" t="inlineStr"/>
-      <c r="DL20" t="inlineStr"/>
-      <c r="DM20" s="3" t="n">
+      <c r="DL20" t="b">
+        <v>0</v>
+      </c>
+      <c r="DM20" t="inlineStr"/>
+      <c r="DN20" t="inlineStr"/>
+      <c r="DO20" s="3" t="n">
         <v>45427.64612268518</v>
       </c>
-      <c r="DN20" s="3" t="n">
+      <c r="DP20" s="3" t="n">
         <v>45426.79166666666</v>
       </c>
-      <c r="DO20" t="n">
+      <c r="DQ20" t="n">
         <v>2347.81</v>
       </c>
-      <c r="DP20" s="3" t="n">
+      <c r="DR20" s="3" t="n">
         <v>45427.64612268518</v>
       </c>
-      <c r="DQ20" t="n">
+      <c r="DS20" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT20" t="n">
         <v>2377.67</v>
       </c>
-      <c r="DR20" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS20" t="n">
+      <c r="DU20" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT20" t="inlineStr">
+      <c r="DV20" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="DU20" t="n">
+      <c r="DW20" t="n">
         <v>-527.9</v>
       </c>
-      <c r="DV20" s="4" t="n">
+      <c r="DX20" s="4" t="n">
         <v>0.8544560185185185</v>
       </c>
-      <c r="DW20" t="n">
-        <v>3648.46</v>
-      </c>
-      <c r="DX20" t="b">
-        <v>0</v>
-      </c>
       <c r="DY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ20" t="n">
+        <v>2987.99</v>
+      </c>
+      <c r="DZ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB20" t="n">
         <v>1</v>
       </c>
-      <c r="EA20" t="n">
+      <c r="EC20" t="n">
         <v>20</v>
       </c>
-      <c r="EB20" t="n">
+      <c r="ED20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -8896,95 +9020,101 @@
       <c r="CW21" t="n">
         <v>0</v>
       </c>
-      <c r="CX21" t="inlineStr"/>
-      <c r="CY21" t="b">
+      <c r="CX21" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY21" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ21" t="inlineStr"/>
+      <c r="DA21" t="b">
         <v>1</v>
       </c>
-      <c r="CZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB21" t="n">
+      <c r="DB21" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD21" t="n">
         <v>2481.47</v>
       </c>
-      <c r="DC21" t="n">
+      <c r="DE21" t="n">
         <v>2433.47</v>
       </c>
-      <c r="DD21" t="n">
+      <c r="DF21" t="n">
         <v>2441.47</v>
       </c>
-      <c r="DE21" t="n">
+      <c r="DG21" t="n">
         <v>2456.47</v>
       </c>
-      <c r="DF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG21" t="n">
+      <c r="DH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI21" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH21" s="3" t="n">
+      <c r="DJ21" s="3" t="n">
         <v>45429.70833333334</v>
       </c>
-      <c r="DI21" s="3" t="n">
+      <c r="DK21" s="3" t="n">
         <v>45432.375</v>
       </c>
-      <c r="DJ21" t="b">
+      <c r="DL21" t="b">
         <v>1</v>
       </c>
-      <c r="DK21" t="inlineStr"/>
-      <c r="DL21" t="inlineStr"/>
-      <c r="DM21" s="3" t="n">
+      <c r="DM21" t="inlineStr"/>
+      <c r="DN21" t="inlineStr"/>
+      <c r="DO21" s="3" t="n">
         <v>45432.4015162037</v>
       </c>
-      <c r="DN21" s="3" t="n">
+      <c r="DP21" s="3" t="n">
         <v>45428.79166666666</v>
       </c>
-      <c r="DO21" t="n">
+      <c r="DQ21" t="n">
         <v>2381.47</v>
       </c>
-      <c r="DP21" s="3" t="n">
+      <c r="DR21" s="3" t="n">
         <v>45432.4015162037</v>
       </c>
-      <c r="DQ21" t="n">
+      <c r="DS21" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT21" t="n">
         <v>2433.52</v>
       </c>
-      <c r="DR21" t="inlineStr">
-        <is>
-          <t>auto</t>
-        </is>
-      </c>
-      <c r="DS21" t="n">
+      <c r="DU21" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT21" t="inlineStr">
+      <c r="DV21" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DU21" t="n">
+      <c r="DW21" t="n">
         <v>918.64</v>
       </c>
-      <c r="DV21" s="4" t="n">
+      <c r="DX21" s="4" t="n">
         <v>3.609849537037037</v>
       </c>
-      <c r="DW21" t="n">
-        <v>4567.099999999999</v>
-      </c>
-      <c r="DX21" t="b">
+      <c r="DY21" t="n">
+        <v>3906.63</v>
+      </c>
+      <c r="DZ21" t="b">
         <v>1</v>
       </c>
-      <c r="DY21" t="n">
+      <c r="EA21" t="n">
         <v>1</v>
       </c>
-      <c r="DZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA21" t="n">
+      <c r="EB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC21" t="n">
         <v>20</v>
       </c>
-      <c r="EB21" t="n">
+      <c r="ED21" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9290,95 +9420,101 @@
       <c r="CW22" t="n">
         <v>0</v>
       </c>
-      <c r="CX22" t="inlineStr"/>
-      <c r="CY22" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="b">
+      <c r="CX22" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ22" t="inlineStr"/>
+      <c r="DA22" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="b">
         <v>1</v>
       </c>
-      <c r="DA22" t="n">
+      <c r="DC22" t="n">
         <v>1</v>
       </c>
-      <c r="DB22" t="n">
+      <c r="DD22" t="n">
         <v>2242.93</v>
       </c>
-      <c r="DC22" t="n">
+      <c r="DE22" t="n">
         <v>2330.93</v>
       </c>
-      <c r="DD22" t="n">
+      <c r="DF22" t="n">
         <v>2322.93</v>
       </c>
-      <c r="DE22" t="n">
+      <c r="DG22" t="n">
         <v>2317.93</v>
       </c>
-      <c r="DF22" t="n">
+      <c r="DH22" t="n">
         <v>1</v>
       </c>
-      <c r="DG22" t="n">
+      <c r="DI22" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH22" s="3" t="n">
+      <c r="DJ22" s="3" t="n">
         <v>45442.375</v>
       </c>
-      <c r="DI22" s="3" t="n">
+      <c r="DK22" s="3" t="n">
         <v>45442.375</v>
       </c>
-      <c r="DJ22" t="b">
+      <c r="DL22" t="b">
         <v>1</v>
       </c>
-      <c r="DK22" t="inlineStr"/>
-      <c r="DL22" t="inlineStr"/>
-      <c r="DM22" s="3" t="n">
+      <c r="DM22" t="inlineStr"/>
+      <c r="DN22" t="inlineStr"/>
+      <c r="DO22" s="3" t="n">
         <v>45442.41077546297</v>
       </c>
-      <c r="DN22" s="3" t="n">
+      <c r="DP22" s="3" t="n">
         <v>45439.33333333334</v>
       </c>
-      <c r="DO22" t="n">
+      <c r="DQ22" t="n">
         <v>2342.93</v>
       </c>
-      <c r="DP22" s="3" t="n">
-        <v>45441.58333333334</v>
-      </c>
-      <c r="DQ22" t="n">
-        <v>2346.41</v>
-      </c>
-      <c r="DR22" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS22" t="n">
+      <c r="DR22" s="3" t="n">
+        <v>45442.41077546297</v>
+      </c>
+      <c r="DS22" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT22" t="n">
+        <v>2330.83</v>
+      </c>
+      <c r="DU22" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT22" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="DU22" t="n">
-        <v>-61.52</v>
-      </c>
-      <c r="DV22" s="4" t="n">
-        <v>2.25</v>
+      <c r="DV22" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW22" t="n">
-        <v>4505.579999999999</v>
-      </c>
-      <c r="DX22" t="b">
-        <v>0</v>
+        <v>213.56</v>
+      </c>
+      <c r="DX22" s="4" t="n">
+        <v>3.07744212962963</v>
       </c>
       <c r="DY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ22" t="n">
+        <v>4120.190000000001</v>
+      </c>
+      <c r="DZ22" t="b">
         <v>1</v>
       </c>
       <c r="EA22" t="n">
+        <v>2</v>
+      </c>
+      <c r="EB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC22" t="n">
         <v>22</v>
       </c>
-      <c r="EB22" t="n">
+      <c r="ED22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -9684,95 +9820,101 @@
       <c r="CW23" t="n">
         <v>0</v>
       </c>
-      <c r="CX23" t="inlineStr"/>
-      <c r="CY23" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="b">
+      <c r="CX23" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ23" t="inlineStr"/>
+      <c r="DA23" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB23" t="b">
         <v>1</v>
       </c>
-      <c r="DA23" t="n">
+      <c r="DC23" t="n">
         <v>1</v>
       </c>
-      <c r="DB23" t="n">
+      <c r="DD23" t="n">
         <v>2252.31</v>
       </c>
-      <c r="DC23" t="n">
+      <c r="DE23" t="n">
         <v>2332.31</v>
       </c>
-      <c r="DD23" t="n">
+      <c r="DF23" t="n">
         <v>2324.31</v>
       </c>
-      <c r="DE23" t="n">
+      <c r="DG23" t="n">
         <v>2317.31</v>
       </c>
-      <c r="DF23" t="n">
+      <c r="DH23" t="n">
         <v>1</v>
       </c>
-      <c r="DG23" t="n">
+      <c r="DI23" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH23" s="3" t="n">
+      <c r="DJ23" s="3" t="n">
         <v>45441.95833333334</v>
       </c>
-      <c r="DI23" s="3" t="n">
+      <c r="DK23" s="3" t="n">
         <v>45442.375</v>
       </c>
-      <c r="DJ23" t="b">
+      <c r="DL23" t="b">
         <v>1</v>
       </c>
-      <c r="DK23" t="inlineStr"/>
-      <c r="DL23" t="inlineStr"/>
-      <c r="DM23" s="3" t="n">
+      <c r="DM23" t="inlineStr"/>
+      <c r="DN23" t="inlineStr"/>
+      <c r="DO23" s="3" t="n">
         <v>45442.41251157408</v>
       </c>
-      <c r="DN23" s="3" t="n">
+      <c r="DP23" s="3" t="n">
         <v>45439.79166666666</v>
       </c>
-      <c r="DO23" t="n">
+      <c r="DQ23" t="n">
         <v>2352.31</v>
       </c>
-      <c r="DP23" s="3" t="n">
-        <v>45441.58333333334</v>
-      </c>
-      <c r="DQ23" t="n">
-        <v>2346.41</v>
-      </c>
-      <c r="DR23" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS23" t="n">
+      <c r="DR23" s="3" t="n">
+        <v>45442.41251157408</v>
+      </c>
+      <c r="DS23" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT23" t="n">
+        <v>2332.21</v>
+      </c>
+      <c r="DU23" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT23" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DU23" t="n">
-        <v>104.13</v>
-      </c>
-      <c r="DV23" s="4" t="n">
-        <v>1.791666666666667</v>
+      <c r="DV23" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW23" t="n">
-        <v>4609.709999999999</v>
-      </c>
-      <c r="DX23" t="b">
+        <v>354.75</v>
+      </c>
+      <c r="DX23" s="4" t="n">
+        <v>2.620844907407407</v>
+      </c>
+      <c r="DY23" t="n">
+        <v>4474.940000000001</v>
+      </c>
+      <c r="DZ23" t="b">
         <v>1</v>
       </c>
-      <c r="DY23" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ23" t="n">
-        <v>0</v>
-      </c>
       <c r="EA23" t="n">
+        <v>3</v>
+      </c>
+      <c r="EB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC23" t="n">
         <v>22</v>
       </c>
-      <c r="EB23" t="n">
+      <c r="ED23" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10078,97 +10220,103 @@
       <c r="CW24" t="n">
         <v>0</v>
       </c>
-      <c r="CX24" t="inlineStr"/>
-      <c r="CY24" t="b">
+      <c r="CX24" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ24" t="inlineStr"/>
+      <c r="DA24" t="b">
         <v>1</v>
       </c>
-      <c r="CZ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB24" t="n">
+      <c r="DB24" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD24" t="n">
         <v>2446.4</v>
       </c>
-      <c r="DC24" t="n">
+      <c r="DE24" t="n">
         <v>2316.4</v>
       </c>
-      <c r="DD24" t="n">
+      <c r="DF24" t="n">
         <v>2358.4</v>
       </c>
-      <c r="DE24" t="n">
+      <c r="DG24" t="n">
         <v>2361.4</v>
       </c>
-      <c r="DF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG24" t="n">
+      <c r="DH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI24" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH24" s="3" t="n">
+      <c r="DJ24" s="3" t="n">
         <v>45449.20833333334</v>
-      </c>
-      <c r="DI24" s="3" t="n">
-        <v>45449.20833333334</v>
-      </c>
-      <c r="DJ24" t="b">
-        <v>0</v>
       </c>
       <c r="DK24" s="3" t="n">
         <v>45449.20833333334</v>
       </c>
-      <c r="DL24" t="inlineStr"/>
+      <c r="DL24" t="b">
+        <v>0</v>
+      </c>
       <c r="DM24" s="3" t="n">
+        <v>45449.20833333334</v>
+      </c>
+      <c r="DN24" t="inlineStr"/>
+      <c r="DO24" s="3" t="n">
         <v>45446.36391203704</v>
       </c>
-      <c r="DN24" s="3" t="n">
+      <c r="DP24" s="3" t="n">
         <v>45441.58333333334</v>
       </c>
-      <c r="DO24" t="n">
+      <c r="DQ24" t="n">
         <v>2346.4</v>
       </c>
-      <c r="DP24" s="3" t="n">
-        <v>45442.75</v>
-      </c>
-      <c r="DQ24" t="n">
-        <v>2344.02</v>
-      </c>
-      <c r="DR24" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS24" t="n">
+      <c r="DR24" s="3" t="n">
+        <v>45446.36391203704</v>
+      </c>
+      <c r="DS24" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT24" t="n">
+        <v>2316.61</v>
+      </c>
+      <c r="DU24" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT24" t="inlineStr">
+      <c r="DV24" t="inlineStr">
         <is>
           <t>fail</t>
         </is>
       </c>
-      <c r="DU24" t="n">
-        <v>-42.08</v>
-      </c>
-      <c r="DV24" s="4" t="n">
-        <v>1.166666666666667</v>
-      </c>
       <c r="DW24" t="n">
-        <v>4567.629999999999</v>
-      </c>
-      <c r="DX24" t="b">
-        <v>0</v>
+        <v>-526.66</v>
+      </c>
+      <c r="DX24" s="4" t="n">
+        <v>4.780578703703704</v>
       </c>
       <c r="DY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ24" t="n">
+        <v>3948.280000000001</v>
+      </c>
+      <c r="DZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB24" t="n">
         <v>1</v>
       </c>
-      <c r="EA24" t="n">
+      <c r="EC24" t="n">
         <v>22</v>
       </c>
-      <c r="EB24" t="n">
+      <c r="ED24" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10474,97 +10622,103 @@
       <c r="CW25" t="n">
         <v>0</v>
       </c>
-      <c r="CX25" t="inlineStr"/>
-      <c r="CY25" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ25" t="b">
+      <c r="CX25" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY25" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ25" t="inlineStr"/>
+      <c r="DA25" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB25" t="b">
         <v>1</v>
       </c>
-      <c r="DA25" t="n">
+      <c r="DC25" t="n">
         <v>1</v>
       </c>
-      <c r="DB25" t="n">
+      <c r="DD25" t="n">
         <v>2244</v>
       </c>
-      <c r="DC25" t="n">
+      <c r="DE25" t="n">
         <v>2332</v>
       </c>
-      <c r="DD25" t="n">
+      <c r="DF25" t="n">
         <v>2324</v>
       </c>
-      <c r="DE25" t="n">
+      <c r="DG25" t="n">
         <v>2319</v>
       </c>
-      <c r="DF25" t="n">
+      <c r="DH25" t="n">
         <v>1</v>
       </c>
-      <c r="DG25" t="n">
+      <c r="DI25" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH25" s="3" t="n">
+      <c r="DJ25" s="3" t="n">
         <v>45443.875</v>
       </c>
-      <c r="DI25" s="3" t="n">
+      <c r="DK25" s="3" t="n">
         <v>45443.875</v>
       </c>
-      <c r="DJ25" t="b">
+      <c r="DL25" t="b">
         <v>1</v>
       </c>
-      <c r="DK25" s="3" t="n">
+      <c r="DM25" s="3" t="n">
         <v>45447.75</v>
       </c>
-      <c r="DL25" t="inlineStr"/>
-      <c r="DM25" s="3" t="n">
+      <c r="DN25" t="inlineStr"/>
+      <c r="DO25" s="3" t="n">
         <v>45446.57148148148</v>
       </c>
-      <c r="DN25" s="3" t="n">
+      <c r="DP25" s="3" t="n">
         <v>45442.75</v>
       </c>
-      <c r="DO25" t="n">
+      <c r="DQ25" t="n">
         <v>2344</v>
       </c>
-      <c r="DP25" s="3" t="n">
-        <v>45443.83333333334</v>
-      </c>
-      <c r="DQ25" t="n">
-        <v>2332.73</v>
-      </c>
-      <c r="DR25" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS25" t="n">
+      <c r="DR25" s="3" t="n">
+        <v>45446.57148148148</v>
+      </c>
+      <c r="DS25" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT25" t="n">
+        <v>2331.86</v>
+      </c>
+      <c r="DU25" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT25" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DU25" t="n">
-        <v>198.91</v>
-      </c>
-      <c r="DV25" s="4" t="n">
-        <v>1.083333333333333</v>
+      <c r="DV25" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW25" t="n">
-        <v>4766.539999999999</v>
-      </c>
-      <c r="DX25" t="b">
+        <v>214.26</v>
+      </c>
+      <c r="DX25" s="4" t="n">
+        <v>3.821481481481482</v>
+      </c>
+      <c r="DY25" t="n">
+        <v>4162.540000000001</v>
+      </c>
+      <c r="DZ25" t="b">
         <v>1</v>
       </c>
-      <c r="DY25" t="n">
+      <c r="EA25" t="n">
         <v>1</v>
       </c>
-      <c r="DZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA25" t="n">
+      <c r="EB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC25" t="n">
         <v>22</v>
       </c>
-      <c r="EB25" t="n">
+      <c r="ED25" t="n">
         <v>5</v>
       </c>
     </row>
@@ -10870,97 +11024,103 @@
       <c r="CW26" t="n">
         <v>0</v>
       </c>
-      <c r="CX26" t="inlineStr"/>
-      <c r="CY26" t="b">
+      <c r="CX26" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY26" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ26" t="inlineStr"/>
+      <c r="DA26" t="b">
         <v>1</v>
       </c>
-      <c r="CZ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="DA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB26" t="n">
+      <c r="DB26" t="b">
+        <v>0</v>
+      </c>
+      <c r="DC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD26" t="n">
         <v>2432.79</v>
       </c>
-      <c r="DC26" t="n">
+      <c r="DE26" t="n">
         <v>2344.79</v>
       </c>
-      <c r="DD26" t="n">
+      <c r="DF26" t="n">
         <v>2352.79</v>
       </c>
-      <c r="DE26" t="n">
+      <c r="DG26" t="n">
         <v>2357.79</v>
       </c>
-      <c r="DF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG26" t="n">
+      <c r="DH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI26" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH26" s="3" t="n">
+      <c r="DJ26" s="3" t="n">
         <v>45446.83333333334</v>
       </c>
-      <c r="DI26" s="3" t="n">
+      <c r="DK26" s="3" t="n">
         <v>45446.83333333334</v>
       </c>
-      <c r="DJ26" t="b">
+      <c r="DL26" t="b">
         <v>1</v>
       </c>
-      <c r="DK26" s="3" t="n">
+      <c r="DM26" s="3" t="n">
         <v>45449.20833333334</v>
       </c>
-      <c r="DL26" t="inlineStr"/>
-      <c r="DM26" s="3" t="n">
+      <c r="DN26" t="inlineStr"/>
+      <c r="DO26" s="3" t="n">
         <v>45446.93819444445</v>
       </c>
-      <c r="DN26" s="3" t="n">
+      <c r="DP26" s="3" t="n">
         <v>45443.83333333334</v>
       </c>
-      <c r="DO26" t="n">
+      <c r="DQ26" t="n">
         <v>2332.79</v>
       </c>
-      <c r="DP26" s="3" t="n">
-        <v>45446.70833333334</v>
-      </c>
-      <c r="DQ26" t="n">
-        <v>2335.2</v>
-      </c>
-      <c r="DR26" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS26" t="n">
+      <c r="DR26" s="3" t="n">
+        <v>45446.93819444445</v>
+      </c>
+      <c r="DS26" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT26" t="n">
+        <v>2344.85</v>
+      </c>
+      <c r="DU26" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT26" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="DU26" t="n">
-        <v>42.53</v>
-      </c>
-      <c r="DV26" s="4" t="n">
-        <v>2.875</v>
+      <c r="DV26" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW26" t="n">
-        <v>4809.069999999999</v>
-      </c>
-      <c r="DX26" t="b">
+        <v>212.85</v>
+      </c>
+      <c r="DX26" s="4" t="n">
+        <v>3.104861111111111</v>
+      </c>
+      <c r="DY26" t="n">
+        <v>4375.390000000001</v>
+      </c>
+      <c r="DZ26" t="b">
         <v>1</v>
       </c>
-      <c r="DY26" t="n">
+      <c r="EA26" t="n">
         <v>2</v>
       </c>
-      <c r="DZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA26" t="n">
+      <c r="EB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC26" t="n">
         <v>22</v>
       </c>
-      <c r="EB26" t="n">
+      <c r="ED26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -11033,16 +11193,16 @@
         <v>7.756626300490941</v>
       </c>
       <c r="X27" t="n">
-        <v>6.374379236020707e-05</v>
+        <v>6.374379235999262e-05</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.0001853307165515983</v>
+        <v>-0.0001853307165518127</v>
       </c>
       <c r="Z27" t="n">
-        <v>2316.461706863716</v>
+        <v>2316.46170686372</v>
       </c>
       <c r="AA27" t="n">
-        <v>2334.903936403141</v>
+        <v>2334.903936403136</v>
       </c>
       <c r="AB27" t="n">
         <v>2329.02641900422</v>
@@ -11266,97 +11426,103 @@
       <c r="CW27" t="n">
         <v>0</v>
       </c>
-      <c r="CX27" t="inlineStr"/>
-      <c r="CY27" t="b">
-        <v>0</v>
-      </c>
-      <c r="CZ27" t="b">
+      <c r="CX27" t="n">
+        <v>8</v>
+      </c>
+      <c r="CY27" t="n">
+        <v>10</v>
+      </c>
+      <c r="CZ27" t="inlineStr"/>
+      <c r="DA27" t="b">
+        <v>0</v>
+      </c>
+      <c r="DB27" t="b">
         <v>1</v>
       </c>
-      <c r="DA27" t="n">
+      <c r="DC27" t="n">
         <v>1</v>
       </c>
-      <c r="DB27" t="n">
+      <c r="DD27" t="n">
         <v>2233.23</v>
       </c>
-      <c r="DC27" t="n">
+      <c r="DE27" t="n">
         <v>2321.23</v>
       </c>
-      <c r="DD27" t="n">
+      <c r="DF27" t="n">
         <v>2313.23</v>
       </c>
-      <c r="DE27" t="n">
+      <c r="DG27" t="n">
         <v>2308.23</v>
       </c>
-      <c r="DF27" t="n">
+      <c r="DH27" t="n">
         <v>1</v>
       </c>
-      <c r="DG27" t="n">
+      <c r="DI27" t="n">
         <v>0.01</v>
       </c>
-      <c r="DH27" s="3" t="n">
+      <c r="DJ27" s="3" t="n">
         <v>45447.75</v>
       </c>
-      <c r="DI27" s="3" t="n">
+      <c r="DK27" s="3" t="n">
         <v>45447.75</v>
       </c>
-      <c r="DJ27" t="b">
+      <c r="DL27" t="b">
         <v>1</v>
       </c>
-      <c r="DK27" s="3" t="n">
+      <c r="DM27" s="3" t="n">
         <v>45450.79166666666</v>
       </c>
-      <c r="DL27" t="inlineStr"/>
-      <c r="DM27" s="3" t="n">
+      <c r="DN27" t="inlineStr"/>
+      <c r="DO27" s="3" t="n">
         <v>45447.75336805556</v>
       </c>
-      <c r="DN27" s="3" t="n">
+      <c r="DP27" s="3" t="n">
         <v>45446.70833333334</v>
       </c>
-      <c r="DO27" t="n">
+      <c r="DQ27" t="n">
         <v>2333.23</v>
       </c>
-      <c r="DP27" s="3" t="n">
-        <v>45447.66666666666</v>
-      </c>
-      <c r="DQ27" t="n">
-        <v>2335.05</v>
-      </c>
-      <c r="DR27" t="inlineStr">
-        <is>
-          <t>manual</t>
-        </is>
-      </c>
-      <c r="DS27" t="n">
+      <c r="DR27" s="3" t="n">
+        <v>45447.75336805556</v>
+      </c>
+      <c r="DS27" t="inlineStr">
+        <is>
+          <t>auto</t>
+        </is>
+      </c>
+      <c r="DT27" t="n">
+        <v>2321.06</v>
+      </c>
+      <c r="DU27" t="n">
         <v>0.01</v>
       </c>
-      <c r="DT27" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
-      <c r="DU27" t="n">
-        <v>-32.18</v>
-      </c>
-      <c r="DV27" s="4" t="n">
-        <v>0.9583333333333334</v>
+      <c r="DV27" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
       </c>
       <c r="DW27" t="n">
-        <v>4776.889999999999</v>
-      </c>
-      <c r="D